--- a/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
+++ b/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
@@ -1179,7 +1179,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1312,7 +1312,7 @@
         <v>1.5625</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO5" t="n">
         <v>16</v>

--- a/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
+++ b/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01475472885563442</v>
+        <v>0.01464022427577614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9739336492890995</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006573196741372679</v>
+        <v>0.00654137680407019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8617021276595744</v>
+        <v>0.8624338624338624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01063829787234043</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="F3" t="n">
         <v>0.07692307692307693</v>
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02206216565854341</v>
+        <v>0.0220122521025854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9080824088748018</v>
+        <v>0.9072327044025157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01584786053882726</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008726003490401396</v>
+        <v>0.008665511265164644</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03870494038669976</v>
+        <v>0.03845222026096286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.8865886588658866</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02800361336946703</v>
+        <v>0.0279027902790279</v>
       </c>
       <c r="F5" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01325178389398573</v>
+        <v>0.01319796954314721</v>
       </c>
     </row>
     <row r="6">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>2034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07069682878221041</v>
+        <v>0.07039767417713633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8437190900098912</v>
+        <v>0.8421828908554573</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04253214638971316</v>
+        <v>0.04228121927236971</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1455696202531646</v>
+        <v>0.1433021806853582</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02344665885111372</v>
+        <v>0.02335084646818447</v>
       </c>
     </row>
     <row r="7">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3598</v>
+        <v>3627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1257997972098878</v>
+        <v>0.1255321358114422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7884936075597554</v>
+        <v>0.7857733664185277</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08532518065591996</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="F7" t="n">
-        <v>0.240473061760841</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04370814240394783</v>
+        <v>0.04456140350877193</v>
       </c>
     </row>
     <row r="8">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4578</v>
+        <v>4647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1600643334149155</v>
+        <v>0.1608348042778528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.752948885976409</v>
+        <v>0.7493006240585324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1762778505897772</v>
+        <v>0.176027544652464</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4093722369584439</v>
+        <v>0.4025751072961373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09979692486219902</v>
+        <v>0.1002297530155083</v>
       </c>
     </row>
     <row r="9">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6166</v>
+        <v>6245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2155868675920422</v>
+        <v>0.2161423182085626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7963023029516705</v>
+        <v>0.7942353883106485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2878689588063574</v>
+        <v>0.2866293034427542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5636942675159236</v>
+        <v>0.5540856031128405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2173116089613035</v>
+        <v>0.2173387096774194</v>
       </c>
     </row>
     <row r="10">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9887</v>
+        <v>9979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3456872137337855</v>
+        <v>0.3453777731630499</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9323353899059371</v>
+        <v>0.9316564786050706</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43633053504602</v>
+        <v>0.4340114239903798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7384155455904334</v>
+        <v>0.7302052785923754</v>
       </c>
       <c r="G10" t="n">
-        <v>0.414406595790844</v>
+        <v>0.4122835323222545</v>
       </c>
     </row>
     <row r="11">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28599</v>
+        <v>28891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2146823013529785</v>
+        <v>0.2148204001620547</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8477569145774327</v>
+        <v>0.8458689557301582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2563726004405749</v>
+        <v>0.2554428714824686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4407441433164906</v>
+        <v>0.4345385133617786</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2232625283563621</v>
+        <v>0.2228087404861282</v>
       </c>
     </row>
   </sheetData>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>12.72727272727273</v>
+        <v>20.25</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>31.55617151972466</v>
+        <v>54.27394137763142</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.403378809787949</v>
+        <v>0.3731379397298246</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1201,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.592592592592593</v>
+        <v>6.282208588957055</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>6.015276681644898</v>
+        <v>7.647816056075754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9297726109987443</v>
+        <v>0.8214703310939349</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5.526666666666666</v>
+        <v>6.271523178807947</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R5" t="n">
-        <v>5.482197914576028</v>
+        <v>7.204604303628103</v>
       </c>
       <c r="S5" t="n">
-        <v>1.008147964153551</v>
+        <v>0.8705157965644712</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1334,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.717277486910994</v>
+        <v>5.51473136915078</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F6" t="n">
-        <v>3.861324213520972</v>
+        <v>5.647906812355878</v>
       </c>
       <c r="G6" t="n">
-        <v>1.221736780995923</v>
+        <v>0.9764633494662381</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1370,37 +1370,37 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.698354661791591</v>
+        <v>5.533575317604356</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="R6" t="n">
-        <v>3.767919985352498</v>
+        <v>5.63263765819509</v>
       </c>
       <c r="S6" t="n">
-        <v>1.246998964951604</v>
+        <v>0.9824546843018204</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.86206896551724</v>
+        <v>16.49152542372881</v>
       </c>
       <c r="V6" t="n">
         <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X6" t="n">
-        <v>12.44237280014723</v>
+        <v>15.4236397628088</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.194486101488173</v>
+        <v>1.069247931673097</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1424,37 +1424,37 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.52083333333333</v>
+        <v>17.46938775510204</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.71431272825145</v>
+        <v>15.13625726505947</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.324963916084852</v>
+        <v>1.154155319298219</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.854166666666667</v>
+        <v>1.816326530612245</v>
       </c>
       <c r="AN6" t="n">
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.354954450447496</v>
+        <v>5.354201917522677</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.346991747024986</v>
+        <v>0.3399961733433442</v>
       </c>
     </row>
     <row r="7">
@@ -1467,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.466870540265035</v>
+        <v>5.891370558375635</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F7" t="n">
-        <v>3.376137403676836</v>
+        <v>4.236083781516812</v>
       </c>
       <c r="G7" t="n">
-        <v>1.619285902401572</v>
+        <v>1.39077312346539</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.43217665615142</v>
+        <v>5.870157068062827</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="R7" t="n">
-        <v>3.286741594767919</v>
+        <v>4.171586737258147</v>
       </c>
       <c r="S7" t="n">
-        <v>1.652773602975516</v>
+        <v>1.407191139730746</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.286635404454866</v>
+        <v>6.716287215411558</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="F8" t="n">
-        <v>3.577243747383271</v>
+        <v>4.420621000625141</v>
       </c>
       <c r="G8" t="n">
-        <v>1.757417735566612</v>
+        <v>1.519325702138407</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1636,37 +1636,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.284041897720271</v>
+        <v>6.649478207489257</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="R8" t="n">
-        <v>3.40574119024184</v>
+        <v>4.110693998049979</v>
       </c>
       <c r="S8" t="n">
-        <v>1.845153663724946</v>
+        <v>1.617622687426673</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>17.68037974683544</v>
+        <v>19.23676012461059</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="X8" t="n">
-        <v>11.00932860097538</v>
+        <v>13.56901418850656</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.605945320341245</v>
+        <v>1.417697693978742</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1690,37 +1690,37 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.03555555555555</v>
+        <v>21.17826086956522</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.10769546281579</v>
+        <v>13.43893492562105</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.883273553856425</v>
+        <v>1.575888341358756</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.984555984555985</v>
+        <v>1.958174904942966</v>
       </c>
       <c r="AN8" t="n">
         <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AP8" t="n">
-        <v>6.053424978213479</v>
+        <v>6.018455183821582</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.3285290353615307</v>
+        <v>0.3260629808356039</v>
       </c>
     </row>
     <row r="9">
@@ -1733,127 +1733,127 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.913993655269651</v>
+        <v>8.457894736842105</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>2837</v>
+        <v>2850</v>
       </c>
       <c r="F9" t="n">
-        <v>5.068368436723635</v>
+        <v>6.146768443539336</v>
       </c>
       <c r="G9" t="n">
-        <v>1.561460497865671</v>
+        <v>1.376000734764414</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.64516129032258</v>
+        <v>13.10236220472441</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L9" t="n">
-        <v>10.16288239177215</v>
+        <v>15.29701720733086</v>
       </c>
       <c r="M9" t="n">
-        <v>1.047470803092594</v>
+        <v>0.8565408214851318</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.8015065913371</v>
+        <v>8.207582582582583</v>
       </c>
       <c r="P9" t="n">
         <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2655</v>
+        <v>2664</v>
       </c>
       <c r="R9" t="n">
-        <v>4.683963470918244</v>
+        <v>5.479379047842916</v>
       </c>
       <c r="S9" t="n">
-        <v>1.665589275081276</v>
+        <v>1.497913370013389</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>21.05519053876478</v>
+        <v>22.97425997425998</v>
       </c>
       <c r="V9" t="n">
         <v>16</v>
       </c>
       <c r="W9" t="n">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="X9" t="n">
-        <v>13.38369229036947</v>
+        <v>16.33676397936348</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.573202355895308</v>
+        <v>1.406295907399126</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.95081967213115</v>
+        <v>24.2054054054054</v>
       </c>
       <c r="AB9" t="n">
         <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.74404397721068</v>
+        <v>17.79794993878457</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.457753103012786</v>
+        <v>1.360016945590225</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>21.49457700650759</v>
+        <v>23.71247357293869</v>
       </c>
       <c r="AH9" t="n">
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.83460769871016</v>
+        <v>13.99242451857611</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.983883431334616</v>
+        <v>1.694666616432872</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.977508650519031</v>
+        <v>2.022071307300509</v>
       </c>
       <c r="AN9" t="n">
         <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.470257017619517</v>
+        <v>6.58606498745342</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.3063311885592708</v>
+        <v>0.3077032316468187</v>
       </c>
     </row>
     <row r="10">
@@ -1866,127 +1866,127 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.23933855526545</v>
+        <v>11.35554279149914</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3447</v>
+        <v>3482</v>
       </c>
       <c r="F10" t="n">
-        <v>7.555976165691074</v>
+        <v>9.74633901835821</v>
       </c>
       <c r="G10" t="n">
-        <v>1.355141885149669</v>
+        <v>1.165116787304967</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11.80523255813953</v>
+        <v>13.70487106017192</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>13.40836545711323</v>
+        <v>17.70328739720315</v>
       </c>
       <c r="M10" t="n">
-        <v>0.880461706040274</v>
+        <v>0.7741605239139682</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10.10679611650485</v>
+        <v>11.14754641909814</v>
       </c>
       <c r="P10" t="n">
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2987</v>
+        <v>3016</v>
       </c>
       <c r="R10" t="n">
-        <v>6.704986355866743</v>
+        <v>8.69122264548761</v>
       </c>
       <c r="S10" t="n">
-        <v>1.507361700980929</v>
+        <v>1.282626159431565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>21.59328028293546</v>
+        <v>24.20772532188841</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W10" t="n">
-        <v>1131</v>
+        <v>1165</v>
       </c>
       <c r="X10" t="n">
-        <v>13.48166359180193</v>
+        <v>17.39394890134923</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.601681660894136</v>
+        <v>1.391735537532628</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.73434125269979</v>
+        <v>21.01492537313433</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.72691755555116</v>
+        <v>13.75203930053225</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.682829776369882</v>
+        <v>1.528136218910154</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>24.35514018691589</v>
+        <v>28.03571428571428</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.06637476320879</v>
+        <v>16.91131698706366</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.0184321601518</v>
+        <v>1.657808919571617</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.508269018743109</v>
+        <v>2.471535982814178</v>
       </c>
       <c r="AN10" t="n">
         <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="AP10" t="n">
-        <v>8.214259904533002</v>
+        <v>8.106068851292948</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.3058748885006697</v>
+        <v>0.3054281603720883</v>
       </c>
     </row>
     <row r="11">
@@ -1999,127 +1999,127 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>13.40142566191446</v>
+        <v>14.48266129032258</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>4910</v>
+        <v>4960</v>
       </c>
       <c r="F11" t="n">
-        <v>9.906539373656193</v>
+        <v>11.91139215505837</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35279216009663</v>
+        <v>1.215871629595559</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.04873477038426</v>
+        <v>14.10667903525046</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="L11" t="n">
-        <v>11.88473812215653</v>
+        <v>13.96147758225281</v>
       </c>
       <c r="M11" t="n">
-        <v>1.097951494198652</v>
+        <v>1.010409451454641</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.51135135135135</v>
+        <v>14.5698608137045</v>
       </c>
       <c r="P11" t="n">
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>3700</v>
+        <v>3736</v>
       </c>
       <c r="R11" t="n">
-        <v>9.011654567844399</v>
+        <v>10.93231576785126</v>
       </c>
       <c r="S11" t="n">
-        <v>1.499323613079682</v>
+        <v>1.332736441177831</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>22.59713375796178</v>
+        <v>24.3704280155642</v>
       </c>
       <c r="V11" t="n">
         <v>18</v>
       </c>
       <c r="W11" t="n">
-        <v>1256</v>
+        <v>1285</v>
       </c>
       <c r="X11" t="n">
-        <v>14.04834043683</v>
+        <v>16.53471094238963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.608529185828485</v>
+        <v>1.473896896588069</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.81920903954802</v>
+        <v>19.23876404494382</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.84291829098098</v>
+        <v>12.46312473030522</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.589073324186915</v>
+        <v>1.543659446650499</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>29.03611738148984</v>
+        <v>32.25917926565874</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.46462147052172</v>
+        <v>16.13171480132049</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.329482483696676</v>
+        <v>1.999736522927998</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.811167512690355</v>
+        <v>2.798411122144985</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.938777169508151</v>
+        <v>8.871445314254981</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.3149455874120246</v>
+        <v>0.3158969774825944</v>
       </c>
     </row>
     <row r="12">
@@ -2132,127 +2132,127 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>15.32729442395314</v>
+        <v>16.14735936323545</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>9218</v>
+        <v>9297</v>
       </c>
       <c r="F12" t="n">
-        <v>11.49932723349042</v>
+        <v>12.9453535608799</v>
       </c>
       <c r="G12" t="n">
-        <v>1.332892790257801</v>
+        <v>1.247353699565021</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.11465968586387</v>
+        <v>12.44716931907122</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>3820</v>
+        <v>3833</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74026694531786</v>
+        <v>11.38704640513868</v>
       </c>
       <c r="M12" t="n">
-        <v>1.127979022607039</v>
+        <v>1.093110938533179</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66563825684535</v>
+        <v>18.82708055608456</v>
       </c>
       <c r="P12" t="n">
         <v>13</v>
       </c>
       <c r="Q12" t="n">
-        <v>5186</v>
+        <v>5251</v>
       </c>
       <c r="R12" t="n">
-        <v>10.44338267403604</v>
+        <v>12.29753151491251</v>
       </c>
       <c r="S12" t="n">
-        <v>1.691565444261935</v>
+        <v>1.530966372791343</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.24215246636771</v>
+        <v>20.0791788856305</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="X12" t="n">
-        <v>12.05352831242591</v>
+        <v>15.05015728011443</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.513432153356396</v>
+        <v>1.334153690236228</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.15789473684211</v>
+        <v>16.92168674698795</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.01549981797087</v>
+        <v>12.30577011026583</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.466838158285536</v>
+        <v>1.375106704929844</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>25.05333333333333</v>
+        <v>29.75949367088608</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.71083876724625</v>
+        <v>16.94879234877569</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.339063623097982</v>
+        <v>1.755847440837623</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.288201160541586</v>
+        <v>3.325047801147228</v>
       </c>
       <c r="AN12" t="n">
         <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AP12" t="n">
-        <v>10.34483256029646</v>
+        <v>10.51159359291281</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.3182220262289306</v>
+        <v>0.3166802923006015</v>
       </c>
     </row>
     <row r="13">
@@ -2265,127 +2265,127 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.79449004000495</v>
+        <v>12.6253682487725</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>24247</v>
+        <v>24440</v>
       </c>
       <c r="F13" t="n">
-        <v>9.696292750790617</v>
+        <v>11.31245705214852</v>
       </c>
       <c r="G13" t="n">
-        <v>1.216399953367886</v>
+        <v>1.116065905809857</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>12.19852262234534</v>
+        <v>12.8211859739306</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>5415</v>
+        <v>5447</v>
       </c>
       <c r="L13" t="n">
-        <v>11.13557700099488</v>
+        <v>12.37697771307406</v>
       </c>
       <c r="M13" t="n">
-        <v>1.095468188044584</v>
+        <v>1.03590174766363</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.68437534336886</v>
+        <v>12.56379385487034</v>
       </c>
       <c r="P13" t="n">
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>18202</v>
+        <v>18356</v>
       </c>
       <c r="R13" t="n">
-        <v>9.077935944971742</v>
+        <v>10.76472347267236</v>
       </c>
       <c r="S13" t="n">
-        <v>1.287123874375632</v>
+        <v>1.16713134208613</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.61529627928342</v>
+        <v>22.58993936671907</v>
       </c>
       <c r="V13" t="n">
         <v>16</v>
       </c>
       <c r="W13" t="n">
-        <v>4354</v>
+        <v>4453</v>
       </c>
       <c r="X13" t="n">
-        <v>13.47090992430835</v>
+        <v>16.49717093263918</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.530360207783302</v>
+        <v>1.369324875045329</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.6784783741532</v>
+        <v>19.4625322997416</v>
       </c>
       <c r="AB13" t="n">
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>1919</v>
+        <v>1935</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.11472671520796</v>
+        <v>13.37855772280383</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.541804561160637</v>
+        <v>1.454760275247859</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>23.36153071500503</v>
+        <v>26.29508993680117</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>1986</v>
+        <v>2057</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.3249371961839</v>
+        <v>16.3581243274961</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.895469765799579</v>
+        <v>1.607464523114566</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.557622254758419</v>
+        <v>2.55457077232271</v>
       </c>
       <c r="AN13" t="n">
         <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>3415</v>
+        <v>3483</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.245807944416489</v>
+        <v>8.238055436597222</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.3101724260374352</v>
+        <v>0.3100939040752427</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.0, 5.0, 1.0, 10.0, 20.0, 67.0, 7.0, 5.0, 0.0, 20.0, 5.0]</t>
+          <t>[0.0, 5.0, 1.0, 10.0, 20.0, 67.0, 7.0, 5.0, 0.0, 20.0, 5.0, 103.0]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0]</t>
+          <t>[1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 118.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0]</t>
+          <t>[1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 118.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2545,17 +2545,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2.0, 0.0, 5.0, 4.0, 0.0, 0.0, 2.0, 2.0, 0.0, 2.0, 0.0, 1.0, 1.0, 0.0, 0.0, 2.0, 8.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 7.0, 1.0, 0.0, 0.0, 1.0, 6.0, 4.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 7.0, 0.0, 0.0, 10.0, 1.0, 1.0, 1.0, 1.0, 5.0, 1.0, 2.0, 2.0]</t>
+          <t>[2.0, 0.0, 5.0, 4.0, 0.0, 0.0, 2.0, 2.0, 0.0, 2.0, 0.0, 1.0, 1.0, 0.0, 0.0, 2.0, 8.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 7.0, 1.0, 0.0, 0.0, 1.0, 6.0, 4.0, 0.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 7.0, 0.0, 0.0, 10.0, 1.0, 1.0, 1.0, 1.0, 5.0, 1.0, 2.0, 2.0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0]</t>
+          <t>[4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 92.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 123.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 155.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 109.0]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0]</t>
+          <t>[4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 92.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 123.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 155.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 109.0]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[2.0, 10.0, 14.0, 4.0, 0.0, 10.0, 15.0, 15.0, 3.0, 5.0, 3.0, 11.0, 29.0, 18.0, 8.0, 2.0, 59.0, 18.0, 7.0, 8.0, 9.0, 17.0, 5.0, 30.0, 3.0, 25.0, 28.0, 12.0, 3.0, 35.0, 1.0, 16.0, 16.0, 20.0, 1.0, 5.0, 6.0, 14.0, 32.0, 23.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 45.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0]</t>
+          <t>[2.0, 10.0, 14.0, 4.0, 0.0, 10.0, 15.0, 15.0, 3.0, 5.0, 3.0, 11.0, 29.0, 18.0, 8.0, 2.0, 59.0, 18.0, 7.0, 8.0, 9.0, 17.0, 5.0, 30.0, 3.0, 25.0, 28.0, 12.0, 3.0, 35.0, 1.0, 16.0, 16.0, 20.0, 1.0, 5.0, 6.0, 14.0, 32.0, 23.0, 111.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 45.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[10.0, 14.0, 4.0, 0.0, 15.0, 3.0, 5.0, 3.0, 11.0, 18.0, 8.0, 59.0, 18.0, 8.0, 9.0, 17.0, 5.0, 30.0, 25.0, 28.0, 12.0, 35.0, 1.0, 16.0, 16.0, 20.0, 5.0, 6.0, 14.0, 32.0, 23.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0]</t>
+          <t>[10.0, 14.0, 4.0, 0.0, 15.0, 3.0, 5.0, 3.0, 11.0, 18.0, 8.0, 59.0, 18.0, 8.0, 9.0, 17.0, 5.0, 30.0, 25.0, 28.0, 12.0, 35.0, 1.0, 16.0, 16.0, 20.0, 5.0, 6.0, 14.0, 32.0, 23.0, 111.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 26.0, 33.0]</t>
+          <t>[2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 100.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 97.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 124.0, 26.0, 33.0, 119.0]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 26.0, 33.0]</t>
+          <t>[2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 100.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 97.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 124.0, 26.0, 33.0, 119.0]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.0, 6.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 0.0, 0.0, 0.0, 4.0, 19.0, 2.0, 2.0, 5.0, 0.0, 0.0, 6.0, 1.0, 5.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 8.0, 4.0, 0.0, 3.0, 18.0, 2.0, 4.0, 0.0, 0.0, 7.0, 1.0, 1.0, 16.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 3.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 11.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 2.0, 2.0, 5.0, 1.0, 6.0, 6.0, 3.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 0.0, 0.0, 12.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 4.0, 0.0, 3.0, 4.0, 0.0, 0.0, 2.0, 1.0, 1.0, 4.0, 0.0, 2.0, 0.0, 0.0, 4.0, 2.0, 3.0, 3.0, 0.0, 0.0, 0.0, 6.0, 1.0, 9.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 3.0, 3.0, 1.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 0.0, 3.0, 0.0, 2.0, 3.0, 2.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 21.0, 0.0, 3.0, 4.0, 2.0, 0.0, 0.0, 4.0, 2.0, 6.0, 0.0, 0.0, 1.0, 0.0, 5.0, 6.0, 4.0, 0.0, 0.0, 3.0, 6.0, 1.0, 1.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 2.0, 2.0, 4.0, 1.0, 1.0, 0.0, 0.0, 0.0, 4.0, 11.0, 0.0, 0.0, 6.0, 2.0, 1.0, 0.0, 2.0, 0.0, 1.0, 1.0, 1.0, 1.0, 5.0, 6.0, 1.0, 6.0, 0.0, 3.0, 0.0, 4.0, 3.0, 0.0, 2.0, 0.0, 4.0, 2.0, 2.0, 1.0, 0.0, 1.0, 1.0, 1.0, 2.0, 2.0, 3.0, 0.0, 5.0, 4.0, 2.0, 0.0, 2.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 6.0, 1.0, 0.0, 3.0, 4.0, 0.0, 0.0, 3.0, 4.0]</t>
+          <t>[0.0, 6.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 0.0, 0.0, 0.0, 4.0, 19.0, 2.0, 2.0, 5.0, 0.0, 0.0, 6.0, 1.0, 5.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 8.0, 4.0, 0.0, 3.0, 18.0, 2.0, 4.0, 0.0, 0.0, 7.0, 1.0, 1.0, 16.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 3.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 11.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 2.0, 2.0, 5.0, 1.0, 6.0, 6.0, 3.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 0.0, 0.0, 12.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 4.0, 0.0, 3.0, 4.0, 0.0, 0.0, 2.0, 1.0, 1.0, 4.0, 0.0, 2.0, 0.0, 0.0, 4.0, 2.0, 3.0, 3.0, 0.0, 0.0, 0.0, 6.0, 1.0, 9.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 3.0, 3.0, 1.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 0.0, 3.0, 0.0, 2.0, 3.0, 2.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 21.0, 0.0, 3.0, 4.0, 2.0, 0.0, 0.0, 4.0, 2.0, 6.0, 0.0, 0.0, 1.0, 0.0, 5.0, 6.0, 4.0, 0.0, 0.0, 3.0, 6.0, 1.0, 1.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 2.0, 2.0, 4.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 11.0, 0.0, 0.0, 6.0, 2.0, 1.0, 0.0, 2.0, 0.0, 1.0, 1.0, 1.0, 1.0, 5.0, 6.0, 1.0, 6.0, 0.0, 3.0, 0.0, 4.0, 3.0, 0.0, 2.0, 0.0, 4.0, 2.0, 2.0, 1.0, 0.0, 1.0, 1.0, 1.0, 2.0, 2.0, 3.0, 0.0, 0.0, 5.0, 4.0, 2.0, 0.0, 2.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 6.0, 1.0, 0.0, 3.0, 4.0, 0.0, 0.0, 3.0, 4.0, 0.0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0]</t>
+          <t>[2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 96.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 97.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 110.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 131.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 147.0, 95.0, 104.0]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0]</t>
+          <t>[2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 96.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 97.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 110.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 131.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 147.0, 95.0, 104.0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 4.0, 7.0, 5.0, 6.0, 1.0, 4.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 33.0, 16.0, 8.0, 8.0, 9.0, 8.0, 1.0, 15.0, 10.0, 10.0, 12.0, 6.0, 1.0, 7.0, 8.0, 60.0, 15.0, 79.0, 16.0, 1.0, 21.0, 3.0, 8.0, 30.0, 12.0, 4.0, 55.0, 6.0, 22.0, 12.0, 28.0, 15.0, 17.0, 12.0, 14.0, 33.0, 11.0, 11.0, 14.0, 4.0, 57.0, 14.0, 11.0, 13.0, 8.0, 12.0, 18.0, 7.0, 7.0, 20.0, 26.0, 25.0, 53.0, 11.0, 43.0, 6.0, 3.0, 78.0, 3.0, 50.0, 32.0, 21.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 16.0, 9.0, 32.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 9.0, 6.0, 8.0, 55.0, 14.0, 13.0, 16.0, 12.0, 5.0, 20.0, 21.0, 22.0, 9.0, 20.0, 14.0, 8.0, 10.0, 16.0, 46.0, 8.0, 23.0, 23.0, 22.0, 10.0, 10.0, 18.0, 6.0, 11.0, 9.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 80.0, 10.0, 14.0, 5.0, 15.0, 16.0, 21.0, 4.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 2.0, 8.0, 22.0, 11.0, 49.0, 5.0, 12.0, 14.0, 9.0, 20.0, 50.0, 4.0, 5.0, 8.0, 65.0, 10.0, 30.0, 17.0, 47.0, 12.0, 13.0, 12.0, 6.0, 53.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 6.0, 4.0, 6.0, 73.0, 14.0, 29.0, 3.0, 21.0, 14.0, 4.0, 34.0, 18.0, 7.0, 13.0, 19.0, 9.0, 7.0, 51.0, 2.0, 1.0, 36.0, 17.0, 14.0, 24.0, 27.0, 62.0, 27.0, 44.0, 83.0, 2.0, 2.0, 14.0, 13.0, 7.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 5.0, 32.0, 4.0, 23.0, 10.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 19.0, 18.0, 43.0, 1.0, 5.0, 12.0, 19.0, 12.0, 4.0, 6.0, 20.0, 23.0, 12.0, 3.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 6.0, 8.0, 7.0, 54.0, 25.0, 7.0, 12.0, 11.0, 12.0, 37.0, 16.0, 23.0, 5.0, 4.0, 46.0, 17.0, 12.0, 23.0, 19.0, 5.0, 9.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 4.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 4.0]</t>
+          <t>[10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 4.0, 7.0, 5.0, 6.0, 1.0, 4.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 33.0, 16.0, 8.0, 8.0, 9.0, 8.0, 1.0, 15.0, 10.0, 10.0, 12.0, 6.0, 1.0, 7.0, 8.0, 60.0, 15.0, 79.0, 16.0, 1.0, 21.0, 3.0, 8.0, 30.0, 12.0, 4.0, 55.0, 6.0, 22.0, 12.0, 28.0, 15.0, 17.0, 12.0, 14.0, 33.0, 11.0, 11.0, 14.0, 4.0, 57.0, 14.0, 11.0, 13.0, 8.0, 12.0, 18.0, 7.0, 7.0, 20.0, 26.0, 25.0, 53.0, 11.0, 43.0, 6.0, 3.0, 78.0, 3.0, 50.0, 32.0, 21.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 16.0, 9.0, 32.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 9.0, 6.0, 8.0, 55.0, 14.0, 13.0, 16.0, 12.0, 5.0, 20.0, 21.0, 22.0, 9.0, 20.0, 14.0, 8.0, 10.0, 16.0, 46.0, 8.0, 23.0, 23.0, 22.0, 10.0, 10.0, 18.0, 6.0, 11.0, 9.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 80.0, 10.0, 14.0, 5.0, 15.0, 16.0, 21.0, 4.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 2.0, 8.0, 22.0, 11.0, 49.0, 5.0, 12.0, 14.0, 9.0, 20.0, 50.0, 4.0, 5.0, 8.0, 65.0, 10.0, 30.0, 17.0, 47.0, 12.0, 168.0, 13.0, 12.0, 6.0, 53.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 6.0, 4.0, 6.0, 73.0, 14.0, 29.0, 3.0, 21.0, 14.0, 4.0, 34.0, 18.0, 7.0, 13.0, 19.0, 9.0, 7.0, 51.0, 2.0, 1.0, 36.0, 17.0, 14.0, 24.0, 27.0, 62.0, 27.0, 44.0, 83.0, 2.0, 2.0, 104.0, 14.0, 13.0, 7.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 5.0, 32.0, 4.0, 23.0, 10.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 112.0, 19.0, 18.0, 43.0, 1.0, 5.0, 12.0, 19.0, 12.0, 4.0, 6.0, 20.0, 23.0, 12.0, 3.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 6.0, 8.0, 7.0, 54.0, 25.0, 7.0, 12.0, 11.0, 12.0, 37.0, 16.0, 23.0, 5.0, 4.0, 46.0, 17.0, 12.0, 111.0, 23.0, 19.0, 5.0, 9.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 4.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 4.0, 93.0]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 6.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 16.0, 8.0, 10.0, 10.0, 12.0, 6.0, 7.0, 8.0, 60.0, 15.0, 79.0, 21.0, 30.0, 12.0, 4.0, 22.0, 12.0, 28.0, 15.0, 12.0, 33.0, 11.0, 11.0, 14.0, 57.0, 14.0, 11.0, 8.0, 12.0, 7.0, 7.0, 20.0, 53.0, 11.0, 43.0, 6.0, 78.0, 3.0, 50.0, 32.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 9.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 6.0, 8.0, 55.0, 13.0, 16.0, 12.0, 5.0, 22.0, 8.0, 10.0, 16.0, 46.0, 8.0, 10.0, 10.0, 18.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 10.0, 14.0, 15.0, 21.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 8.0, 11.0, 49.0, 5.0, 12.0, 14.0, 20.0, 50.0, 4.0, 8.0, 65.0, 10.0, 30.0, 17.0, 12.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 4.0, 6.0, 73.0, 29.0, 3.0, 21.0, 7.0, 13.0, 19.0, 9.0, 51.0, 14.0, 27.0, 62.0, 27.0, 44.0, 83.0, 14.0, 13.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 4.0, 23.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 19.0, 18.0, 5.0, 12.0, 19.0, 4.0, 6.0, 23.0, 12.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 25.0, 12.0, 11.0, 37.0, 23.0, 46.0, 17.0, 12.0, 23.0, 19.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0]</t>
+          <t>[10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 6.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 16.0, 8.0, 10.0, 10.0, 12.0, 6.0, 7.0, 8.0, 60.0, 15.0, 79.0, 21.0, 30.0, 12.0, 4.0, 22.0, 12.0, 28.0, 15.0, 12.0, 33.0, 11.0, 11.0, 14.0, 57.0, 14.0, 11.0, 8.0, 12.0, 7.0, 7.0, 20.0, 53.0, 11.0, 43.0, 6.0, 78.0, 3.0, 50.0, 32.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 9.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 6.0, 8.0, 55.0, 13.0, 16.0, 12.0, 5.0, 22.0, 8.0, 10.0, 16.0, 46.0, 8.0, 10.0, 10.0, 18.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 10.0, 14.0, 15.0, 21.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 8.0, 11.0, 49.0, 5.0, 12.0, 14.0, 20.0, 50.0, 4.0, 8.0, 65.0, 10.0, 30.0, 17.0, 168.0, 12.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 4.0, 6.0, 73.0, 29.0, 3.0, 21.0, 7.0, 13.0, 19.0, 9.0, 51.0, 14.0, 27.0, 62.0, 27.0, 44.0, 83.0, 104.0, 14.0, 13.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 4.0, 23.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 112.0, 19.0, 18.0, 5.0, 12.0, 19.0, 4.0, 6.0, 23.0, 12.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 25.0, 12.0, 11.0, 37.0, 23.0, 46.0, 17.0, 12.0, 111.0, 23.0, 19.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 93.0]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2671,37 +2671,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[2.0, 4.0, 2.0, 3.0, 2.0, 2.0, 1.0, 0.0, 4.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 7.0, 7.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 0.0, 13.0, 1.0, 2.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 3.0, 2.0, 7.0, 0.0, 4.0, 2.0, 1.0, 0.0, 3.0, 0.0, 5.0, 4.0, 0.0, 0.0, 0.0, 2.0, 11.0, 5.0, 2.0, 0.0, 6.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 9.0, 0.0, 3.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 8.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 2.0, 5.0, 1.0, 0.0, 4.0, 3.0, 7.0, 2.0, 0.0, 14.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 4.0, 1.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 4.0, 4.0, 2.0, 2.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 4.0, 6.0, 6.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 2.0, 2.0, 3.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 5.0, 0.0, 1.0, 0.0, 1.0, 5.0, 1.0, 4.0, 0.0, 0.0, 0.0, 4.0, 1.0, 5.0, 0.0, 19.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 6.0, 0.0, 6.0, 0.0, 3.0, 2.0, 0.0, 0.0, 2.0, 0.0, 3.0, 5.0, 7.0, 0.0, 21.0, 1.0, 2.0, 12.0, 4.0, 1.0, 1.0, 0.0, 6.0, 16.0, 1.0, 1.0, 2.0, 0.0, 4.0, 4.0, 4.0, 0.0, 3.0, 4.0, 0.0, 0.0, 9.0, 0.0, 0.0, 2.0, 19.0, 3.0, 4.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 7.0, 1.0, 0.0, 0.0, 5.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 1.0, 7.0, 1.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 2.0, 1.0, 0.0, 20.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 2.0, 1.0, 1.0, 7.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 7.0, 1.0, 6.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 6.0, 1.0, 1.0, 11.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 7.0, 0.0, 0.0, 15.0, 1.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 11.0, 3.0, 0.0, 1.0, 16.0, 5.0, 0.0, 0.0, 6.0, 0.0, 0.0, 1.0, 2.0, 2.0, 3.0, 12.0, 2.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 2.0, 1.0, 4.0, 0.0, 1.0, 0.0, 1.0, 1.0, 3.0, 0.0, 10.0, 0.0, 3.0, 6.0, 3.0, 6.0, 0.0, 1.0, 3.0, 2.0, 0.0, 0.0, 3.0, 0.0, 5.0, 1.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 5.0, 3.0, 1.0, 0.0, 1.0, 4.0, 0.0, 0.0, 3.0, 0.0, 5.0, 5.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 4.0, 10.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 2.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 13.0, 1.0, 3.0, 0.0, 3.0, 4.0, 1.0, 3.0, 0.0, 0.0, 9.0, 2.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 1.0, 2.0, 0.0, 2.0, 0.0, 1.0, 3.0, 0.0, 2.0, 0.0, 3.0, 1.0, 3.0, 1.0, 0.0, 0.0, 4.0, 6.0, 1.0, 0.0, 2.0, 2.0, 3.0, 4.0, 7.0, 6.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 2.0, 2.0, 0.0, 0.0, 0.0, 3.0, 1.0, 3.0, 5.0, 0.0, 1.0, 2.0, 2.0, 2.0, 0.0, 1.0, 1.0, 1.0, 3.0, 2.0, 6.0, 3.0, 2.0, 8.0, 3.0, 3.0, 0.0, 0.0, 2.0, 4.0, 1.0, 0.0, 1.0, 0.0, 1.0, 4.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 4.0, 5.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 0.0, 5.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 2.0, 2.0, 4.0, 7.0, 0.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 1.0, 0.0, 14.0, 15.0, 0.0, 0.0]</t>
+          <t>[2.0, 4.0, 2.0, 3.0, 2.0, 2.0, 1.0, 0.0, 4.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 7.0, 7.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 0.0, 13.0, 1.0, 2.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 3.0, 2.0, 7.0, 0.0, 4.0, 2.0, 1.0, 0.0, 3.0, 0.0, 5.0, 4.0, 0.0, 0.0, 0.0, 2.0, 11.0, 5.0, 2.0, 0.0, 6.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 9.0, 0.0, 3.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 8.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 2.0, 5.0, 1.0, 0.0, 4.0, 3.0, 7.0, 2.0, 0.0, 14.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 4.0, 1.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 4.0, 4.0, 2.0, 2.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 4.0, 6.0, 2.0, 6.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 2.0, 2.0, 3.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 5.0, 0.0, 1.0, 0.0, 1.0, 5.0, 1.0, 4.0, 0.0, 0.0, 0.0, 4.0, 1.0, 5.0, 12.0, 0.0, 19.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 6.0, 0.0, 6.0, 0.0, 3.0, 2.0, 0.0, 0.0, 2.0, 0.0, 3.0, 5.0, 7.0, 0.0, 21.0, 1.0, 2.0, 12.0, 4.0, 1.0, 1.0, 0.0, 6.0, 16.0, 1.0, 1.0, 2.0, 0.0, 4.0, 4.0, 4.0, 0.0, 3.0, 4.0, 0.0, 0.0, 9.0, 0.0, 0.0, 2.0, 19.0, 3.0, 4.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 7.0, 1.0, 0.0, 0.0, 5.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 1.0, 7.0, 1.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 2.0, 1.0, 0.0, 20.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 2.0, 1.0, 1.0, 7.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 7.0, 1.0, 6.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 6.0, 1.0, 1.0, 11.0, 5.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 1.0, 1.0, 0.0, 7.0, 0.0, 0.0, 15.0, 1.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 14.0, 0.0, 1.0, 11.0, 3.0, 0.0, 1.0, 16.0, 5.0, 0.0, 0.0, 6.0, 0.0, 0.0, 1.0, 2.0, 2.0, 3.0, 12.0, 2.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 2.0, 1.0, 4.0, 0.0, 4.0, 1.0, 0.0, 1.0, 1.0, 3.0, 0.0, 10.0, 0.0, 3.0, 6.0, 3.0, 6.0, 0.0, 1.0, 3.0, 2.0, 0.0, 0.0, 3.0, 0.0, 5.0, 1.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 5.0, 3.0, 1.0, 0.0, 1.0, 4.0, 0.0, 0.0, 3.0, 0.0, 5.0, 5.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 4.0, 10.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 5.0, 4.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 2.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 13.0, 1.0, 3.0, 0.0, 3.0, 4.0, 1.0, 3.0, 0.0, 0.0, 9.0, 2.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 1.0, 2.0, 0.0, 2.0, 0.0, 1.0, 3.0, 0.0, 2.0, 0.0, 3.0, 1.0, 3.0, 1.0, 0.0, 0.0, 4.0, 6.0, 1.0, 0.0, 2.0, 2.0, 3.0, 4.0, 7.0, 6.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 2.0, 2.0, 0.0, 0.0, 0.0, 3.0, 1.0, 3.0, 5.0, 0.0, 1.0, 2.0, 2.0, 2.0, 0.0, 1.0, 1.0, 1.0, 3.0, 2.0, 6.0, 3.0, 2.0, 8.0, 3.0, 3.0, 0.0, 0.0, 2.0, 4.0, 1.0, 0.0, 1.0, 0.0, 1.0, 4.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 4.0, 5.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 2.0, 0.0, 5.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 2.0, 2.0, 4.0, 7.0, 0.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 1.0, 0.0, 14.0, 15.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0, 7.0, 7.0, 3.0, 13.0, 5.0, 9.0, 1.0, 7.0, 5.0, 4.0, 9.0, 12.0, 6.0, 4.0, 21.0, 10.0, 6.0, 6.0, 6.0, 5.0, 6.0, 34.0, 8.0, 7.0, 2.0, 7.0, 6.0, 1.0, 9.0, 4.0, 7.0, 4.0, 4.0, 6.0, 7.0, 8.0, 7.0, 2.0, 4.0, 9.0, 8.0, 7.0, 11.0, 5.0, 5.0, 8.0, 6.0, 8.0, 5.0, 29.0, 7.0, 7.0, 1.0, 8.0, 4.0, 4.0, 1.0, 4.0, 7.0, 9.0, 9.0, 5.0, 5.0, 3.0, 5.0, 8.0, 7.0, 9.0, 9.0, 9.0, 9.0, 6.0, 9.0, 7.0, 3.0, 9.0, 8.0, 6.0, 4.0, 6.0, 8.0, 9.0, 8.0, 9.0, 8.0, 6.0, 6.0, 3.0, 9.0, 7.0, 6.0, 4.0, 3.0, 15.0, 12.0, 3.0, 6.0, 6.0, 10.0, 7.0, 7.0, 3.0, 8.0, 12.0, 9.0, 4.0, 2.0, 5.0, 4.0, 4.0, 8.0, 9.0, 3.0, 8.0, 8.0, 17.0, 15.0, 16.0, 14.0, 4.0, 10.0, 7.0, 8.0, 9.0, 5.0, 4.0, 6.0, 4.0, 10.0, 7.0, 5.0, 9.0, 2.0, 4.0, 11.0, 3.0, 7.0, 8.0, 2.0, 2.0, 4.0, 7.0, 8.0, 16.0, 10.0, 1.0, 10.0, 14.0, 10.0, 9.0, 5.0, 3.0, 2.0, 6.0, 4.0, 8.0, 7.0, 15.0, 1.0, 14.0, 9.0, 7.0, 0.0, 7.0, 29.0, 4.0, 7.0, 10.0, 8.0, 4.0, 5.0, 16.0, 4.0, 7.0, 7.0, 3.0, 17.0, 3.0, 4.0, 4.0, 12.0, 5.0, 5.0, 5.0, 9.0, 47.0, 12.0, 8.0, 12.0, 8.0, 15.0, 5.0, 11.0, 8.0, 5.0, 1.0, 11.0, 5.0, 15.0, 15.0, 5.0, 9.0, 9.0, 6.0, 17.0, 5.0, 10.0, 2.0, 4.0, 9.0, 9.0, 4.0, 17.0, 2.0, 13.0, 4.0, 2.0, 6.0, 19.0, 7.0, 5.0, 5.0, 7.0, 3.0, 3.0, 10.0, 7.0, 4.0, 8.0, 10.0, 6.0, 4.0, 10.0, 9.0, 10.0, 5.0, 7.0, 3.0, 7.0, 5.0, 6.0, 4.0, 4.0, 7.0, 11.0, 11.0, 13.0, 4.0, 14.0, 3.0, 8.0, 8.0, 4.0, 7.0, 8.0, 4.0, 10.0, 5.0, 2.0, 4.0, 6.0, 5.0, 7.0, 6.0, 13.0, 9.0, 9.0, 9.0, 9.0, 7.0, 5.0, 6.0, 2.0, 13.0, 23.0, 11.0, 3.0, 10.0, 9.0, 9.0, 7.0, 17.0, 14.0, 45.0, 15.0, 12.0, 7.0, 7.0, 4.0, 7.0, 9.0, 2.0, 8.0, 11.0, 2.0, 11.0, 9.0, 3.0, 16.0, 4.0, 8.0, 9.0, 38.0, 13.0, 5.0, 14.0, 56.0, 5.0, 5.0, 9.0, 24.0, 50.0, 17.0, 87.0, 20.0, 3.0, 29.0, 29.0, 77.0, 78.0, 87.0]</t>
+          <t>[5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 132.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 155.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 98.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 128.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 113.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 153.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 106.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 114.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0, 7.0, 7.0, 3.0, 13.0, 5.0, 9.0, 1.0, 7.0, 5.0, 4.0, 9.0, 12.0, 6.0, 4.0, 21.0, 10.0, 6.0, 6.0, 6.0, 5.0, 6.0, 34.0, 8.0, 7.0, 2.0, 7.0, 6.0, 1.0, 9.0, 4.0, 7.0, 4.0, 4.0, 6.0, 7.0, 8.0, 7.0, 2.0, 4.0, 9.0, 8.0, 7.0, 11.0, 5.0, 5.0, 8.0, 6.0, 8.0, 5.0, 29.0, 7.0, 7.0, 1.0, 8.0, 4.0, 4.0, 1.0, 4.0, 7.0, 9.0, 9.0, 5.0, 5.0, 3.0, 5.0, 8.0, 7.0, 9.0, 9.0, 9.0, 9.0, 6.0, 9.0, 7.0, 3.0, 9.0, 8.0, 6.0, 4.0, 6.0, 8.0, 9.0, 8.0, 9.0, 8.0, 6.0, 6.0, 3.0, 9.0, 7.0, 6.0, 4.0, 3.0, 15.0, 12.0, 3.0, 6.0, 6.0, 10.0, 7.0, 7.0, 3.0, 8.0, 12.0, 9.0, 4.0, 2.0, 5.0, 4.0, 4.0, 8.0, 9.0, 3.0, 8.0, 8.0, 17.0, 15.0, 16.0, 14.0, 4.0, 10.0, 7.0, 8.0, 9.0, 5.0, 4.0, 6.0, 4.0, 10.0, 7.0, 5.0, 9.0, 2.0, 4.0, 11.0, 3.0, 7.0, 8.0, 2.0, 2.0, 4.0, 7.0, 8.0, 16.0, 10.0, 1.0, 10.0, 14.0, 10.0, 9.0, 5.0, 3.0, 2.0, 6.0, 4.0, 8.0, 7.0, 15.0, 1.0, 14.0, 9.0, 7.0, 0.0, 7.0, 29.0, 4.0, 7.0, 10.0, 8.0, 4.0, 5.0, 16.0, 4.0, 7.0, 7.0, 3.0, 17.0, 3.0, 4.0, 4.0, 12.0, 5.0, 5.0, 5.0, 9.0, 47.0, 12.0, 8.0, 12.0, 8.0, 15.0, 5.0, 11.0, 8.0, 5.0, 1.0, 11.0, 5.0, 15.0, 15.0, 5.0, 9.0, 9.0, 6.0, 17.0, 5.0, 10.0, 2.0, 4.0, 9.0, 9.0, 4.0, 17.0, 2.0, 13.0, 4.0, 2.0, 6.0, 19.0, 7.0, 5.0, 5.0, 7.0, 3.0, 3.0, 10.0, 7.0, 4.0, 8.0, 10.0, 6.0, 4.0, 10.0, 9.0, 10.0, 5.0, 7.0, 3.0, 7.0, 5.0, 6.0, 4.0, 4.0, 7.0, 11.0, 11.0, 13.0, 4.0, 14.0, 3.0, 8.0, 8.0, 4.0, 7.0, 8.0, 4.0, 10.0, 5.0, 2.0, 4.0, 6.0, 5.0, 7.0, 6.0, 13.0, 9.0, 9.0, 9.0, 9.0, 7.0, 5.0, 6.0, 2.0, 13.0, 23.0, 11.0, 3.0, 10.0, 9.0, 9.0, 7.0, 17.0, 14.0, 45.0, 15.0, 12.0, 7.0, 7.0, 4.0, 7.0, 9.0, 2.0, 8.0, 11.0, 2.0, 11.0, 9.0, 3.0, 16.0, 4.0, 8.0, 9.0, 38.0, 13.0, 5.0, 14.0, 56.0, 5.0, 5.0, 9.0, 24.0, 50.0, 17.0, 87.0, 20.0, 157.0, 3.0, 100.0, 29.0, 29.0, 77.0, 78.0, 87.0, 118.0, 176.0, 103.0]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0, 7.0, 7.0, 3.0, 13.0, 5.0, 9.0, 1.0, 7.0, 5.0, 4.0, 9.0, 12.0, 6.0, 4.0, 21.0, 10.0, 6.0, 6.0, 6.0, 5.0, 6.0, 34.0, 8.0, 7.0, 2.0, 7.0, 6.0, 1.0, 9.0, 4.0, 7.0, 4.0, 4.0, 6.0, 7.0, 8.0, 7.0, 2.0, 4.0, 9.0, 8.0, 7.0, 11.0, 5.0, 5.0, 8.0, 6.0, 8.0, 5.0, 29.0, 7.0, 7.0, 1.0, 8.0, 4.0, 4.0, 1.0, 4.0, 7.0, 9.0, 9.0, 5.0, 5.0, 3.0, 5.0, 8.0, 7.0, 9.0, 9.0, 9.0, 9.0, 6.0, 9.0, 7.0, 3.0, 9.0, 8.0, 6.0, 4.0, 6.0, 8.0, 9.0, 8.0, 9.0, 8.0, 6.0, 6.0, 3.0, 9.0, 7.0, 6.0, 4.0, 3.0, 15.0, 12.0, 3.0, 6.0, 6.0, 10.0, 7.0, 7.0, 3.0, 8.0, 12.0, 9.0, 4.0, 2.0, 5.0, 4.0, 4.0, 8.0, 9.0, 3.0, 8.0, 8.0, 17.0, 15.0, 16.0, 14.0, 4.0, 10.0, 7.0, 8.0, 9.0, 5.0, 4.0, 6.0, 4.0, 10.0, 7.0, 5.0, 9.0, 2.0, 4.0, 11.0, 3.0, 7.0, 8.0, 2.0, 2.0, 4.0, 7.0, 8.0, 16.0, 10.0, 1.0, 10.0, 14.0, 10.0, 9.0, 5.0, 3.0, 2.0, 6.0, 4.0, 8.0, 7.0, 15.0, 1.0, 14.0, 9.0, 7.0, 0.0, 7.0, 29.0, 4.0, 7.0, 10.0, 8.0, 4.0, 5.0, 16.0, 4.0, 7.0, 7.0, 3.0, 17.0, 3.0, 4.0, 4.0, 12.0, 5.0, 5.0, 5.0, 9.0, 47.0, 12.0, 8.0, 12.0, 8.0, 15.0, 5.0, 11.0, 8.0, 5.0, 1.0, 11.0, 5.0, 15.0, 15.0, 5.0, 9.0, 9.0, 6.0, 17.0, 5.0, 10.0, 2.0, 4.0, 9.0, 9.0, 4.0, 17.0, 2.0, 13.0, 4.0, 2.0, 6.0, 19.0, 7.0, 5.0, 5.0, 7.0, 3.0, 3.0, 10.0, 7.0, 4.0, 8.0, 10.0, 6.0, 4.0, 10.0, 9.0, 10.0, 5.0, 7.0, 3.0, 7.0, 5.0, 6.0, 4.0, 4.0, 7.0, 11.0, 11.0, 13.0, 4.0, 14.0, 3.0, 8.0, 8.0, 4.0, 7.0, 8.0, 4.0, 10.0, 5.0, 2.0, 4.0, 6.0, 5.0, 7.0, 6.0, 13.0, 9.0, 9.0, 9.0, 9.0, 7.0, 5.0, 6.0, 2.0, 13.0, 23.0, 11.0, 3.0, 10.0, 9.0, 9.0, 7.0, 17.0, 14.0, 45.0, 15.0, 12.0, 7.0, 7.0, 4.0, 7.0, 9.0, 2.0, 8.0, 11.0, 2.0, 11.0, 9.0, 3.0, 16.0, 4.0, 8.0, 9.0, 38.0, 13.0, 5.0, 14.0, 56.0, 5.0, 5.0, 9.0, 24.0, 50.0, 17.0, 87.0, 20.0, 3.0, 29.0, 29.0, 77.0, 78.0, 87.0]</t>
+          <t>[5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 132.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 155.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 98.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 128.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 113.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 153.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 106.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 114.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0, 7.0, 7.0, 3.0, 13.0, 5.0, 9.0, 1.0, 7.0, 5.0, 4.0, 9.0, 12.0, 6.0, 4.0, 21.0, 10.0, 6.0, 6.0, 6.0, 5.0, 6.0, 34.0, 8.0, 7.0, 2.0, 7.0, 6.0, 1.0, 9.0, 4.0, 7.0, 4.0, 4.0, 6.0, 7.0, 8.0, 7.0, 2.0, 4.0, 9.0, 8.0, 7.0, 11.0, 5.0, 5.0, 8.0, 6.0, 8.0, 5.0, 29.0, 7.0, 7.0, 1.0, 8.0, 4.0, 4.0, 1.0, 4.0, 7.0, 9.0, 9.0, 5.0, 5.0, 3.0, 5.0, 8.0, 7.0, 9.0, 9.0, 9.0, 9.0, 6.0, 9.0, 7.0, 3.0, 9.0, 8.0, 6.0, 4.0, 6.0, 8.0, 9.0, 8.0, 9.0, 8.0, 6.0, 6.0, 3.0, 9.0, 7.0, 6.0, 4.0, 3.0, 15.0, 12.0, 3.0, 6.0, 6.0, 10.0, 7.0, 7.0, 3.0, 8.0, 12.0, 9.0, 4.0, 2.0, 5.0, 4.0, 4.0, 8.0, 9.0, 3.0, 8.0, 8.0, 17.0, 15.0, 16.0, 14.0, 4.0, 10.0, 7.0, 8.0, 9.0, 5.0, 4.0, 6.0, 4.0, 10.0, 7.0, 5.0, 9.0, 2.0, 4.0, 11.0, 3.0, 7.0, 8.0, 2.0, 2.0, 4.0, 7.0, 8.0, 16.0, 10.0, 1.0, 10.0, 14.0, 10.0, 9.0, 5.0, 3.0, 2.0, 6.0, 4.0, 8.0, 7.0, 15.0, 1.0, 14.0, 9.0, 7.0, 0.0, 7.0, 29.0, 4.0, 7.0, 10.0, 8.0, 4.0, 5.0, 16.0, 4.0, 7.0, 7.0, 3.0, 17.0, 3.0, 4.0, 4.0, 12.0, 5.0, 5.0, 5.0, 9.0, 47.0, 12.0, 8.0, 12.0, 8.0, 15.0, 5.0, 11.0, 8.0, 5.0, 1.0, 11.0, 5.0, 15.0, 15.0, 5.0, 9.0, 9.0, 6.0, 17.0, 5.0, 10.0, 2.0, 4.0, 9.0, 9.0, 4.0, 17.0, 2.0, 13.0, 4.0, 2.0, 6.0, 19.0, 7.0, 5.0, 5.0, 7.0, 3.0, 3.0, 10.0, 7.0, 4.0, 8.0, 10.0, 6.0, 4.0, 10.0, 9.0, 10.0, 5.0, 7.0, 3.0, 7.0, 5.0, 6.0, 4.0, 4.0, 7.0, 11.0, 11.0, 13.0, 4.0, 14.0, 3.0, 8.0, 8.0, 4.0, 7.0, 8.0, 4.0, 10.0, 5.0, 2.0, 4.0, 6.0, 5.0, 7.0, 6.0, 13.0, 9.0, 9.0, 9.0, 9.0, 7.0, 5.0, 6.0, 2.0, 13.0, 23.0, 11.0, 3.0, 10.0, 9.0, 9.0, 7.0, 17.0, 14.0, 45.0, 15.0, 12.0, 7.0, 7.0, 4.0, 7.0, 9.0, 2.0, 8.0, 11.0, 2.0, 11.0, 9.0, 3.0, 16.0, 4.0, 8.0, 9.0, 38.0, 13.0, 5.0, 14.0, 56.0, 5.0, 5.0, 9.0, 24.0, 50.0, 17.0, 87.0, 20.0, 157.0, 3.0, 100.0, 29.0, 29.0, 77.0, 78.0, 87.0, 118.0, 176.0, 103.0]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[19.0, 3.0, 3.0, 42.0, 7.0, 14.0, 11.0, 3.0, 19.0, 14.0, 8.0, 15.0, 2.0, 1.0, 2.0, 14.0, 4.0, 3.0, 5.0, 3.0, 5.0, 6.0, 2.0, 4.0, 6.0, 5.0, 3.0, 9.0, 8.0, 8.0, 4.0, 12.0, 3.0, 11.0, 2.0, 10.0, 8.0, 5.0, 7.0, 1.0, 8.0, 0.0, 3.0, 3.0, 4.0, 4.0, 5.0, 2.0, 3.0, 7.0, 4.0, 4.0, 12.0, 3.0, 5.0, 6.0, 6.0, 3.0, 8.0, 8.0, 67.0, 12.0, 2.0, 2.0, 8.0, 2.0, 15.0, 13.0, 8.0, 25.0, 6.0, 3.0, 4.0, 8.0, 3.0, 37.0, 10.0, 1.0, 20.0, 16.0, 12.0, 16.0, 20.0, 41.0, 7.0, 7.0, 44.0, 59.0, 10.0, 49.0, 7.0, 67.0, 1.0, 15.0, 1.0, 1.0, 8.0, 19.0, 11.0, 5.0, 13.0, 3.0, 0.0, 15.0, 27.0, 3.0, 11.0, 10.0, 2.0, 2.0, 15.0, 4.0, 23.0, 5.0, 7.0, 8.0, 5.0, 3.0, 6.0, 16.0, 8.0, 14.0, 20.0, 29.0]</t>
+          <t>[19.0, 3.0, 3.0, 42.0, 7.0, 14.0, 11.0, 3.0, 19.0, 14.0, 8.0, 15.0, 2.0, 1.0, 2.0, 14.0, 4.0, 3.0, 5.0, 3.0, 5.0, 6.0, 2.0, 4.0, 6.0, 5.0, 3.0, 9.0, 8.0, 8.0, 4.0, 12.0, 3.0, 11.0, 2.0, 10.0, 8.0, 5.0, 7.0, 1.0, 8.0, 0.0, 3.0, 3.0, 4.0, 4.0, 5.0, 2.0, 3.0, 7.0, 4.0, 4.0, 12.0, 3.0, 5.0, 6.0, 6.0, 3.0, 8.0, 8.0, 67.0, 12.0, 2.0, 2.0, 8.0, 2.0, 15.0, 13.0, 8.0, 25.0, 6.0, 3.0, 4.0, 8.0, 3.0, 37.0, 10.0, 1.0, 20.0, 16.0, 12.0, 16.0, 20.0, 41.0, 7.0, 7.0, 44.0, 59.0, 10.0, 49.0, 7.0, 67.0, 1.0, 128.0, 113.0, 15.0, 1.0, 1.0, 8.0, 19.0, 11.0, 5.0, 13.0, 3.0, 0.0, 15.0, 27.0, 3.0, 11.0, 10.0, 2.0, 2.0, 15.0, 4.0, 23.0, 5.0, 7.0, 8.0, 5.0, 3.0, 6.0, 16.0, 8.0, 14.0, 20.0, 29.0, 103.0]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[7.0, 13.0, 14.0, 15.0, 19.0, 14.0, 17.0, 6.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 27.0, 9.0, 12.0, 12.0, 9.0, 14.0, 2.0, 9.0, 11.0, 23.0, 16.0, 25.0, 45.0, 32.0, 2.0, 2.0, 17.0, 8.0, 5.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 21.0, 10.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 2.0, 11.0, 45.0, 15.0, 14.0, 16.0, 8.0, 53.0, 31.0, 31.0, 8.0, 17.0, 18.0, 12.0, 10.0, 15.0, 2.0, 31.0, 7.0, 11.0, 10.0, 11.0, 26.0, 14.0, 17.0, 11.0, 4.0, 12.0, 21.0, 14.0, 30.0, 25.0, 52.0, 7.0, 13.0, 9.0, 9.0, 9.0, 5.0, 13.0, 5.0, 49.0, 11.0, 39.0, 2.0, 16.0, 1.0, 7.0, 18.0, 4.0, 72.0, 62.0, 11.0, 24.0, 13.0, 29.0, 22.0, 1.0, 46.0, 13.0, 71.0, 4.0, 13.0, 33.0, 14.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 7.0, 1.0, 10.0, 71.0, 21.0, 13.0, 2.0, 55.0, 3.0, 13.0, 9.0, 27.0, 30.0, 13.0, 2.0, 10.0, 54.0, 3.0, 21.0, 17.0, 21.0, 7.0, 11.0, 39.0, 4.0, 29.0, 13.0, 48.0, 5.0, 5.0, 19.0, 5.0, 2.0, 12.0, 28.0, 10.0, 72.0, 48.0, 48.0, 15.0, 17.0, 12.0, 63.0, 8.0, 18.0, 54.0, 0.0, 10.0, 28.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 85.0, 31.0, 31.0, 6.0, 16.0, 17.0, 39.0, 34.0, 11.0, 32.0, 11.0, 17.0, 18.0, 10.0, 7.0, 12.0, 23.0, 18.0, 13.0, 9.0, 41.0, 18.0, 10.0, 4.0, 32.0, 11.0, 47.0, 48.0, 9.0, 16.0, 33.0, 76.0, 13.0, 21.0, 8.0, 10.0, 44.0, 6.0, 15.0, 23.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 27.0, 13.0, 14.0, 26.0, 10.0, 15.0, 25.0, 26.0, 3.0, 14.0, 14.0, 24.0, 35.0, 28.0, 4.0, 8.0, 12.0, 11.0, 3.0, 30.0, 2.0, 50.0, 18.0, 25.0, 43.0, 17.0, 7.0, 3.0, 1.0, 14.0, 47.0, 40.0, 34.0, 12.0, 8.0, 45.0, 28.0, 10.0, 79.0, 31.0, 4.0, 12.0, 6.0, 9.0, 17.0, 29.0, 10.0, 6.0, 31.0, 4.0, 7.0, 43.0, 15.0, 53.0, 14.0, 9.0, 10.0, 10.0, 15.0, 46.0, 18.0, 21.0, 54.0, 24.0, 12.0, 7.0, 17.0, 17.0, 9.0, 29.0, 18.0, 16.0, 39.0, 2.0, 27.0, 36.0, 9.0, 11.0, 11.0, 24.0, 12.0, 31.0, 20.0, 12.0, 14.0, 23.0, 14.0, 11.0, 15.0, 8.0, 13.0, 19.0, 18.0, 3.0, 16.0, 14.0, 9.0, 14.0, 10.0, 16.0, 17.0, 32.0, 17.0, 30.0, 15.0, 11.0, 27.0, 11.0, 15.0, 16.0, 47.0, 10.0, 10.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 17.0, 15.0, 9.0, 15.0, 9.0, 16.0, 34.0, 0.0, 17.0, 14.0, 3.0, 4.0, 9.0, 21.0, 45.0, 4.0, 9.0, 0.0, 28.0, 26.0, 20.0, 7.0, 36.0, 15.0, 19.0, 16.0, 29.0, 34.0, 68.0, 19.0, 38.0, 12.0, 8.0, 31.0, 20.0, 11.0, 19.0, 14.0, 11.0, 24.0, 10.0, 18.0, 11.0, 10.0, 19.0, 10.0, 11.0, 10.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 1.0, 56.0, 47.0, 34.0, 56.0, 9.0, 13.0, 3.0, 29.0, 22.0, 34.0, 46.0, 7.0, 31.0, 16.0, 52.0, 12.0, 10.0, 65.0, 49.0, 55.0, 11.0, 7.0, 8.0, 66.0, 16.0, 7.0, 67.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 8.0, 5.0, 26.0, 7.0, 12.0, 27.0, 9.0, 8.0, 43.0, 31.0, 6.0, 45.0, 7.0, 21.0, 15.0, 21.0, 24.0, 46.0, 70.0, 65.0, 16.0, 7.0, 16.0, 38.0, 5.0, 2.0, 4.0, 9.0, 45.0, 3.0, 68.0, 11.0, 4.0, 11.0, 42.0, 19.0, 47.0, 4.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 24.0, 20.0, 30.0, 30.0, 50.0, 14.0, 7.0, 11.0, 6.0, 41.0, 26.0, 68.0, 16.0, 46.0, 9.0, 35.0, 24.0, 10.0, 18.0, 26.0, 8.0, 22.0, 29.0, 28.0, 9.0, 20.0, 13.0, 23.0, 12.0, 80.0, 13.0, 27.0, 62.0, 19.0, 65.0, 9.0, 18.0, 15.0, 14.0, 24.0, 74.0, 29.0, 7.0, 19.0, 2.0, 58.0, 13.0, 48.0, 0.0, 18.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 12.0, 33.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 20.0, 21.0, 12.0, 4.0, 87.0, 32.0, 14.0, 16.0, 18.0, 24.0, 16.0, 26.0, 64.0, 26.0, 18.0, 26.0, 37.0, 3.0, 14.0, 21.0, 33.0, 13.0, 50.0, 2.0, 3.0, 20.0, 7.0, 30.0, 26.0, 27.0, 6.0, 9.0, 15.0, 10.0, 22.0, 28.0, 8.0, 5.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 8.0, 2.0, 23.0, 2.0, 13.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 30.0, 4.0, 6.0, 23.0, 42.0, 13.0, 14.0, 13.0, 39.0, 17.0, 3.0, 7.0, 6.0, 76.0, 6.0, 18.0, 6.0, 6.0, 6.0, 10.0, 18.0, 38.0, 5.0, 21.0, 16.0, 14.0, 8.0, 5.0, 14.0, 11.0, 0.0, 18.0, 13.0, 7.0, 11.0, 7.0, 4.0, 6.0, 20.0, 9.0, 2.0, 9.0, 30.0, 5.0, 18.0, 37.0, 3.0, 9.0, 18.0, 16.0, 27.0, 4.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 6.0, 9.0, 16.0, 14.0, 6.0, 44.0, 1.0, 31.0, 36.0, 42.0, 10.0, 11.0, 18.0, 7.0, 11.0, 67.0, 36.0, 20.0, 19.0, 6.0, 10.0, 13.0, 29.0, 21.0, 21.0, 54.0, 37.0, 23.0, 6.0, 15.0, 45.0, 17.0, 5.0, 26.0, 39.0, 19.0, 24.0, 24.0, 24.0, 10.0, 17.0, 38.0, 17.0, 28.0, 15.0, 48.0, 19.0, 4.0, 14.0, 14.0, 21.0, 34.0, 2.0, 19.0, 28.0, 79.0, 10.0, 65.0, 5.0, 8.0, 81.0, 15.0, 25.0, 18.0, 18.0, 52.0, 30.0, 34.0, 12.0, 17.0, 20.0, 22.0, 20.0, 45.0, 53.0, 67.0, 12.0, 9.0, 26.0, 17.0, 8.0, 11.0, 28.0, 22.0, 13.0, 14.0, 37.0, 31.0, 48.0, 23.0, 81.0]</t>
+          <t>[7.0, 13.0, 14.0, 15.0, 19.0, 14.0, 17.0, 6.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 27.0, 9.0, 12.0, 12.0, 9.0, 14.0, 2.0, 9.0, 11.0, 23.0, 16.0, 25.0, 45.0, 32.0, 2.0, 2.0, 17.0, 8.0, 5.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 21.0, 10.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 2.0, 11.0, 45.0, 15.0, 14.0, 16.0, 8.0, 53.0, 31.0, 31.0, 8.0, 17.0, 18.0, 12.0, 10.0, 15.0, 2.0, 31.0, 7.0, 11.0, 10.0, 11.0, 26.0, 14.0, 17.0, 11.0, 4.0, 12.0, 21.0, 14.0, 30.0, 25.0, 52.0, 7.0, 13.0, 9.0, 9.0, 9.0, 5.0, 13.0, 5.0, 49.0, 11.0, 39.0, 2.0, 16.0, 1.0, 7.0, 18.0, 4.0, 72.0, 62.0, 11.0, 24.0, 13.0, 29.0, 22.0, 1.0, 46.0, 13.0, 71.0, 4.0, 13.0, 33.0, 14.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 7.0, 1.0, 10.0, 71.0, 21.0, 13.0, 2.0, 55.0, 3.0, 13.0, 9.0, 27.0, 30.0, 13.0, 2.0, 10.0, 54.0, 3.0, 21.0, 17.0, 21.0, 7.0, 11.0, 39.0, 4.0, 29.0, 13.0, 48.0, 5.0, 5.0, 19.0, 5.0, 2.0, 12.0, 28.0, 10.0, 72.0, 48.0, 48.0, 15.0, 17.0, 12.0, 63.0, 8.0, 18.0, 54.0, 0.0, 10.0, 28.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 85.0, 31.0, 31.0, 6.0, 16.0, 17.0, 39.0, 96.0, 34.0, 11.0, 32.0, 11.0, 17.0, 18.0, 10.0, 7.0, 12.0, 23.0, 18.0, 13.0, 9.0, 41.0, 18.0, 10.0, 4.0, 32.0, 11.0, 47.0, 48.0, 9.0, 16.0, 33.0, 99.0, 76.0, 13.0, 21.0, 8.0, 10.0, 44.0, 6.0, 15.0, 23.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 27.0, 13.0, 90.0, 14.0, 26.0, 10.0, 15.0, 25.0, 26.0, 3.0, 14.0, 14.0, 24.0, 35.0, 28.0, 4.0, 8.0, 12.0, 11.0, 3.0, 30.0, 2.0, 50.0, 18.0, 25.0, 43.0, 17.0, 7.0, 3.0, 1.0, 14.0, 47.0, 40.0, 34.0, 12.0, 8.0, 45.0, 28.0, 10.0, 79.0, 31.0, 4.0, 12.0, 6.0, 9.0, 17.0, 29.0, 10.0, 108.0, 6.0, 31.0, 4.0, 7.0, 43.0, 15.0, 53.0, 14.0, 9.0, 10.0, 10.0, 15.0, 46.0, 18.0, 21.0, 54.0, 24.0, 12.0, 7.0, 17.0, 17.0, 9.0, 29.0, 18.0, 16.0, 39.0, 2.0, 27.0, 36.0, 9.0, 11.0, 11.0, 24.0, 12.0, 31.0, 20.0, 12.0, 14.0, 23.0, 14.0, 11.0, 15.0, 90.0, 8.0, 13.0, 19.0, 18.0, 3.0, 16.0, 14.0, 9.0, 14.0, 10.0, 16.0, 17.0, 32.0, 17.0, 30.0, 15.0, 11.0, 27.0, 11.0, 15.0, 16.0, 47.0, 10.0, 10.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 17.0, 15.0, 9.0, 15.0, 9.0, 16.0, 34.0, 0.0, 17.0, 14.0, 3.0, 4.0, 9.0, 21.0, 45.0, 4.0, 9.0, 0.0, 28.0, 26.0, 91.0, 20.0, 7.0, 36.0, 15.0, 120.0, 19.0, 16.0, 29.0, 34.0, 68.0, 19.0, 38.0, 12.0, 8.0, 31.0, 20.0, 11.0, 19.0, 14.0, 11.0, 24.0, 10.0, 18.0, 11.0, 10.0, 19.0, 10.0, 11.0, 10.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 1.0, 56.0, 47.0, 34.0, 56.0, 9.0, 13.0, 3.0, 29.0, 22.0, 34.0, 46.0, 7.0, 31.0, 16.0, 52.0, 12.0, 10.0, 65.0, 176.0, 49.0, 55.0, 11.0, 7.0, 8.0, 66.0, 16.0, 7.0, 67.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 8.0, 5.0, 26.0, 7.0, 12.0, 27.0, 9.0, 8.0, 43.0, 31.0, 6.0, 45.0, 7.0, 21.0, 15.0, 21.0, 24.0, 46.0, 70.0, 65.0, 16.0, 7.0, 107.0, 16.0, 38.0, 5.0, 2.0, 4.0, 9.0, 45.0, 3.0, 68.0, 11.0, 4.0, 11.0, 42.0, 19.0, 47.0, 4.0, 27.0, 39.0, 6.0, 4.0, 6.0, 109.0, 41.0, 10.0, 23.0, 24.0, 20.0, 30.0, 30.0, 50.0, 14.0, 7.0, 11.0, 6.0, 41.0, 26.0, 68.0, 16.0, 46.0, 9.0, 35.0, 24.0, 10.0, 18.0, 26.0, 8.0, 22.0, 29.0, 28.0, 9.0, 20.0, 13.0, 23.0, 155.0, 12.0, 80.0, 13.0, 27.0, 62.0, 19.0, 65.0, 9.0, 18.0, 15.0, 14.0, 24.0, 110.0, 74.0, 29.0, 7.0, 19.0, 2.0, 58.0, 13.0, 48.0, 0.0, 18.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 12.0, 33.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 20.0, 21.0, 12.0, 4.0, 87.0, 32.0, 14.0, 16.0, 18.0, 24.0, 16.0, 26.0, 64.0, 26.0, 18.0, 26.0, 37.0, 3.0, 14.0, 21.0, 33.0, 13.0, 50.0, 2.0, 3.0, 20.0, 7.0, 30.0, 26.0, 27.0, 105.0, 6.0, 9.0, 15.0, 10.0, 22.0, 28.0, 8.0, 5.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 134.0, 25.0, 13.0, 45.0, 8.0, 2.0, 23.0, 2.0, 13.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 30.0, 4.0, 6.0, 23.0, 42.0, 13.0, 14.0, 13.0, 39.0, 17.0, 3.0, 7.0, 6.0, 76.0, 6.0, 18.0, 6.0, 6.0, 6.0, 10.0, 18.0, 38.0, 5.0, 21.0, 16.0, 14.0, 8.0, 5.0, 14.0, 11.0, 0.0, 18.0, 13.0, 7.0, 11.0, 7.0, 4.0, 6.0, 20.0, 9.0, 2.0, 9.0, 30.0, 5.0, 18.0, 37.0, 3.0, 9.0, 18.0, 16.0, 27.0, 4.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 6.0, 9.0, 16.0, 14.0, 6.0, 44.0, 1.0, 31.0, 36.0, 42.0, 10.0, 11.0, 18.0, 7.0, 11.0, 67.0, 36.0, 20.0, 19.0, 6.0, 10.0, 13.0, 29.0, 21.0, 21.0, 54.0, 37.0, 23.0, 6.0, 15.0, 45.0, 17.0, 5.0, 26.0, 39.0, 19.0, 24.0, 24.0, 24.0, 10.0, 17.0, 38.0, 17.0, 28.0, 15.0, 48.0, 19.0, 4.0, 14.0, 14.0, 21.0, 34.0, 2.0, 19.0, 28.0, 79.0, 10.0, 65.0, 5.0, 8.0, 81.0, 15.0, 136.0, 25.0, 18.0, 18.0, 52.0, 30.0, 34.0, 12.0, 17.0, 20.0, 22.0, 20.0, 45.0, 53.0, 67.0, 12.0, 9.0, 26.0, 17.0, 8.0, 11.0, 28.0, 22.0, 13.0, 14.0, 37.0, 31.0, 48.0, 23.0, 81.0, 102.0]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13.0, 14.0, 15.0, 19.0, 14.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 9.0, 12.0, 12.0, 9.0, 14.0, 9.0, 11.0, 23.0, 16.0, 45.0, 32.0, 2.0, 17.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 11.0, 45.0, 15.0, 14.0, 8.0, 31.0, 31.0, 8.0, 18.0, 12.0, 10.0, 15.0, 2.0, 7.0, 10.0, 11.0, 26.0, 11.0, 12.0, 25.0, 7.0, 13.0, 9.0, 9.0, 5.0, 5.0, 2.0, 16.0, 4.0, 62.0, 11.0, 24.0, 13.0, 13.0, 33.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 13.0, 3.0, 13.0, 13.0, 10.0, 21.0, 21.0, 7.0, 11.0, 48.0, 2.0, 28.0, 10.0, 72.0, 15.0, 17.0, 8.0, 18.0, 10.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 31.0, 6.0, 16.0, 39.0, 34.0, 11.0, 18.0, 7.0, 12.0, 18.0, 13.0, 9.0, 18.0, 4.0, 32.0, 11.0, 9.0, 76.0, 21.0, 8.0, 10.0, 44.0, 15.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 13.0, 26.0, 15.0, 26.0, 3.0, 14.0, 14.0, 35.0, 28.0, 4.0, 12.0, 2.0, 17.0, 14.0, 47.0, 40.0, 8.0, 28.0, 10.0, 79.0, 12.0, 9.0, 10.0, 6.0, 31.0, 4.0, 7.0, 53.0, 9.0, 10.0, 10.0, 46.0, 18.0, 21.0, 54.0, 12.0, 7.0, 17.0, 9.0, 29.0, 18.0, 39.0, 2.0, 27.0, 36.0, 11.0, 12.0, 31.0, 12.0, 14.0, 14.0, 11.0, 15.0, 8.0, 13.0, 19.0, 3.0, 16.0, 14.0, 14.0, 10.0, 16.0, 32.0, 30.0, 15.0, 11.0, 27.0, 11.0, 16.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 9.0, 15.0, 9.0, 16.0, 0.0, 17.0, 3.0, 4.0, 9.0, 26.0, 7.0, 15.0, 19.0, 29.0, 12.0, 8.0, 20.0, 11.0, 19.0, 11.0, 24.0, 10.0, 18.0, 11.0, 19.0, 10.0, 11.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 34.0, 56.0, 29.0, 22.0, 46.0, 7.0, 52.0, 12.0, 10.0, 49.0, 55.0, 8.0, 66.0, 7.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 5.0, 26.0, 7.0, 27.0, 9.0, 43.0, 45.0, 7.0, 15.0, 24.0, 46.0, 16.0, 7.0, 16.0, 38.0, 5.0, 45.0, 4.0, 11.0, 42.0, 19.0, 47.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 20.0, 30.0, 30.0, 50.0, 7.0, 11.0, 41.0, 26.0, 16.0, 46.0, 35.0, 24.0, 10.0, 26.0, 22.0, 29.0, 28.0, 9.0, 13.0, 23.0, 80.0, 13.0, 27.0, 62.0, 9.0, 18.0, 15.0, 24.0, 74.0, 29.0, 7.0, 58.0, 48.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 21.0, 12.0, 4.0, 87.0, 16.0, 18.0, 24.0, 16.0, 64.0, 26.0, 18.0, 26.0, 37.0, 33.0, 13.0, 20.0, 7.0, 27.0, 6.0, 9.0, 22.0, 28.0, 8.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 4.0, 14.0, 39.0, 7.0, 76.0, 6.0, 18.0, 18.0, 38.0, 21.0, 16.0, 14.0, 14.0, 11.0, 18.0, 13.0, 11.0, 7.0, 20.0, 9.0, 30.0, 18.0, 16.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 9.0, 44.0, 31.0, 36.0, 10.0, 11.0, 11.0, 67.0, 36.0, 19.0, 13.0, 29.0, 23.0, 15.0, 45.0, 26.0, 39.0, 19.0, 24.0, 10.0, 17.0, 15.0, 48.0, 19.0, 21.0, 28.0, 79.0, 65.0, 15.0, 25.0, 18.0, 52.0, 30.0, 34.0, 20.0, 22.0, 53.0, 67.0, 12.0, 22.0, 13.0, 23.0]</t>
+          <t>[13.0, 14.0, 15.0, 19.0, 14.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 9.0, 12.0, 12.0, 9.0, 14.0, 9.0, 11.0, 23.0, 16.0, 45.0, 32.0, 2.0, 17.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 11.0, 45.0, 15.0, 14.0, 8.0, 31.0, 31.0, 8.0, 18.0, 12.0, 10.0, 15.0, 2.0, 7.0, 10.0, 11.0, 26.0, 11.0, 12.0, 25.0, 7.0, 13.0, 9.0, 9.0, 5.0, 5.0, 2.0, 16.0, 4.0, 62.0, 11.0, 24.0, 13.0, 13.0, 33.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 13.0, 3.0, 13.0, 13.0, 10.0, 21.0, 21.0, 7.0, 11.0, 48.0, 2.0, 28.0, 10.0, 72.0, 15.0, 17.0, 8.0, 18.0, 10.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 31.0, 6.0, 16.0, 39.0, 96.0, 34.0, 11.0, 18.0, 7.0, 12.0, 18.0, 13.0, 9.0, 18.0, 4.0, 32.0, 11.0, 9.0, 99.0, 76.0, 21.0, 8.0, 10.0, 44.0, 15.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 13.0, 90.0, 26.0, 15.0, 26.0, 3.0, 14.0, 14.0, 35.0, 28.0, 4.0, 12.0, 2.0, 17.0, 14.0, 47.0, 40.0, 8.0, 28.0, 10.0, 79.0, 12.0, 9.0, 10.0, 108.0, 6.0, 31.0, 4.0, 7.0, 53.0, 9.0, 10.0, 10.0, 46.0, 18.0, 21.0, 54.0, 12.0, 7.0, 17.0, 9.0, 29.0, 18.0, 39.0, 2.0, 27.0, 36.0, 11.0, 12.0, 31.0, 12.0, 14.0, 14.0, 11.0, 15.0, 90.0, 8.0, 13.0, 19.0, 3.0, 16.0, 14.0, 14.0, 10.0, 16.0, 32.0, 30.0, 15.0, 11.0, 27.0, 11.0, 16.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 9.0, 15.0, 9.0, 16.0, 0.0, 17.0, 3.0, 4.0, 9.0, 26.0, 91.0, 7.0, 15.0, 120.0, 19.0, 29.0, 12.0, 8.0, 20.0, 11.0, 19.0, 11.0, 24.0, 10.0, 18.0, 11.0, 19.0, 10.0, 11.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 34.0, 56.0, 29.0, 22.0, 46.0, 7.0, 52.0, 12.0, 10.0, 49.0, 55.0, 8.0, 66.0, 7.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 5.0, 26.0, 7.0, 27.0, 9.0, 43.0, 45.0, 7.0, 15.0, 24.0, 46.0, 16.0, 7.0, 107.0, 16.0, 38.0, 5.0, 45.0, 4.0, 11.0, 42.0, 19.0, 47.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 20.0, 30.0, 30.0, 50.0, 7.0, 11.0, 41.0, 26.0, 16.0, 46.0, 35.0, 24.0, 10.0, 26.0, 22.0, 29.0, 28.0, 9.0, 13.0, 23.0, 155.0, 80.0, 13.0, 27.0, 62.0, 9.0, 18.0, 15.0, 24.0, 110.0, 74.0, 29.0, 7.0, 58.0, 48.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 21.0, 12.0, 4.0, 87.0, 16.0, 18.0, 24.0, 16.0, 64.0, 26.0, 18.0, 26.0, 37.0, 33.0, 13.0, 20.0, 7.0, 27.0, 105.0, 6.0, 9.0, 22.0, 28.0, 8.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 4.0, 14.0, 39.0, 7.0, 76.0, 6.0, 18.0, 18.0, 38.0, 21.0, 16.0, 14.0, 14.0, 11.0, 18.0, 13.0, 11.0, 7.0, 20.0, 9.0, 30.0, 18.0, 16.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 9.0, 44.0, 31.0, 36.0, 10.0, 11.0, 11.0, 67.0, 36.0, 19.0, 13.0, 29.0, 23.0, 15.0, 45.0, 26.0, 39.0, 19.0, 24.0, 10.0, 17.0, 15.0, 48.0, 19.0, 21.0, 28.0, 79.0, 65.0, 15.0, 136.0, 25.0, 18.0, 52.0, 30.0, 34.0, 20.0, 22.0, 53.0, 67.0, 12.0, 22.0, 13.0, 23.0]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[2.0, 10.0, 16.0, 53.0, 17.0, 31.0, 11.0, 14.0, 4.0, 21.0, 14.0, 30.0, 52.0, 13.0, 49.0, 11.0, 39.0, 1.0, 18.0, 72.0, 13.0, 1.0, 71.0, 4.0, 14.0, 10.0, 21.0, 27.0, 30.0, 2.0, 39.0, 5.0, 12.0, 54.0, 28.0, 85.0, 17.0, 11.0, 32.0, 23.0, 41.0, 10.0, 48.0, 16.0, 33.0, 6.0, 23.0, 27.0, 14.0, 10.0, 25.0, 24.0, 8.0, 11.0, 3.0, 30.0, 50.0, 43.0, 3.0, 34.0, 12.0, 45.0, 31.0, 6.0, 17.0, 29.0, 43.0, 15.0, 14.0, 15.0, 24.0, 16.0, 11.0, 20.0, 9.0, 47.0, 10.0, 10.0, 17.0, 15.0, 34.0, 14.0, 21.0, 45.0, 28.0, 20.0, 36.0, 16.0, 34.0, 68.0, 19.0, 31.0, 10.0, 1.0, 56.0, 47.0, 9.0, 34.0, 31.0, 16.0, 65.0, 67.0, 8.0, 31.0, 6.0, 21.0, 21.0, 2.0, 9.0, 68.0, 18.0, 19.0, 14.0, 19.0, 13.0, 0.0, 18.0, 12.0, 33.0, 20.0, 14.0, 3.0, 14.0, 21.0, 50.0, 30.0, 26.0, 15.0, 5.0, 8.0, 13.0, 30.0, 6.0, 23.0, 17.0, 6.0, 6.0, 10.0, 5.0, 8.0, 0.0, 37.0, 3.0, 9.0, 18.0, 27.0, 6.0, 16.0, 14.0, 42.0, 18.0, 7.0, 20.0, 10.0, 21.0, 21.0, 54.0, 37.0, 17.0, 24.0, 38.0, 17.0, 28.0, 14.0, 34.0, 2.0, 19.0, 10.0, 5.0, 81.0, 12.0, 17.0, 20.0, 45.0, 9.0, 26.0, 17.0, 11.0, 28.0, 14.0, 37.0, 48.0, 81.0]</t>
+          <t>[2.0, 10.0, 16.0, 53.0, 17.0, 31.0, 11.0, 14.0, 4.0, 21.0, 14.0, 30.0, 52.0, 13.0, 49.0, 11.0, 39.0, 1.0, 18.0, 72.0, 13.0, 1.0, 71.0, 4.0, 14.0, 10.0, 21.0, 27.0, 30.0, 2.0, 39.0, 5.0, 12.0, 54.0, 28.0, 85.0, 17.0, 11.0, 32.0, 23.0, 41.0, 10.0, 48.0, 16.0, 33.0, 6.0, 23.0, 27.0, 14.0, 10.0, 25.0, 24.0, 8.0, 11.0, 3.0, 30.0, 50.0, 43.0, 3.0, 34.0, 12.0, 45.0, 31.0, 6.0, 17.0, 29.0, 43.0, 15.0, 14.0, 15.0, 24.0, 16.0, 11.0, 20.0, 9.0, 47.0, 10.0, 10.0, 17.0, 15.0, 34.0, 14.0, 21.0, 45.0, 28.0, 20.0, 36.0, 16.0, 34.0, 68.0, 19.0, 31.0, 10.0, 1.0, 56.0, 47.0, 9.0, 34.0, 31.0, 16.0, 65.0, 176.0, 67.0, 8.0, 31.0, 6.0, 21.0, 21.0, 2.0, 9.0, 68.0, 18.0, 19.0, 14.0, 19.0, 13.0, 0.0, 18.0, 12.0, 33.0, 20.0, 14.0, 3.0, 14.0, 21.0, 50.0, 30.0, 26.0, 15.0, 5.0, 8.0, 13.0, 30.0, 6.0, 23.0, 17.0, 6.0, 6.0, 10.0, 5.0, 8.0, 0.0, 37.0, 3.0, 9.0, 18.0, 27.0, 6.0, 16.0, 14.0, 42.0, 18.0, 7.0, 20.0, 10.0, 21.0, 21.0, 54.0, 37.0, 17.0, 24.0, 38.0, 17.0, 28.0, 14.0, 34.0, 2.0, 19.0, 10.0, 5.0, 81.0, 12.0, 17.0, 20.0, 45.0, 9.0, 26.0, 17.0, 11.0, 28.0, 14.0, 37.0, 48.0, 81.0, 102.0]</t>
         </is>
       </c>
     </row>
@@ -2713,37 +2713,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 19.0, 13.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 6.0, 1.0, 0.0, 4.0, 2.0, 2.0, 4.0, 6.0, 0.0, 0.0, 1.0, 5.0, 0.0, 1.0, 7.0, 5.0, 0.0, 12.0, 1.0, 1.0, 0.0, 0.0, 8.0, 1.0, 5.0, 0.0, 0.0, 4.0, 0.0, 17.0, 0.0, 0.0, 5.0, 0.0, 0.0, 3.0, 7.0, 2.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 20.0, 2.0, 1.0, 9.0, 0.0, 5.0, 16.0, 0.0, 2.0, 0.0, 11.0, 6.0, 0.0, 0.0, 10.0, 3.0, 1.0, 0.0, 4.0, 0.0, 13.0, 5.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 1.0, 1.0, 1.0, 10.0, 0.0, 1.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 6.0, 2.0, 0.0, 6.0, 0.0, 5.0, 0.0, 6.0, 6.0, 0.0, 0.0, 8.0, 0.0, 6.0, 0.0, 6.0, 0.0, 5.0, 2.0, 0.0, 1.0, 21.0, 4.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 3.0, 4.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 3.0, 1.0, 1.0, 0.0, 3.0, 7.0, 3.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 1.0, 0.0, 1.0, 0.0, 1.0, 2.0, 0.0, 3.0, 2.0, 5.0, 0.0, 12.0, 3.0, 12.0, 0.0, 7.0, 4.0, 1.0, 17.0, 1.0, 0.0, 10.0, 5.0, 0.0, 1.0, 6.0, 0.0, 8.0, 0.0, 0.0, 9.0, 0.0, 15.0, 2.0, 0.0, 0.0, 3.0, 0.0, 1.0, 4.0, 6.0, 0.0, 4.0, 9.0, 0.0, 2.0, 4.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 3.0, 5.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 2.0, 7.0, 4.0, 0.0, 3.0, 1.0, 0.0, 19.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 14.0, 0.0, 0.0, 0.0, 2.0, 1.0, 3.0, 0.0, 0.0, 2.0, 3.0, 0.0, 5.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 9.0, 6.0, 3.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 11.0, 2.0, 2.0, 1.0, 0.0, 5.0, 2.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 9.0, 4.0, 0.0, 0.0, 1.0, 0.0, 4.0, 0.0, 2.0, 0.0, 6.0, 0.0, 17.0, 0.0, 9.0, 17.0, 0.0, 1.0, 4.0, 4.0, 2.0, 0.0, 3.0, 0.0, 5.0, 11.0, 4.0, 0.0, 2.0, 0.0, 2.0, 5.0, 0.0, 1.0, 3.0, 0.0, 6.0, 0.0, 4.0, 0.0, 3.0, 0.0, 1.0, 1.0, 0.0, 5.0, 11.0, 0.0, 6.0, 0.0, 2.0, 0.0, 0.0, 6.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 2.0, 2.0, 21.0, 1.0, 0.0, 0.0, 7.0, 0.0, 0.0, 0.0, 4.0, 2.0, 5.0, 1.0, 0.0, 4.0, 0.0, 3.0, 0.0, 17.0, 6.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 2.0, 2.0, 0.0, 8.0, 0.0, 13.0, 0.0, 1.0, 0.0, 0.0, 7.0, 4.0, 0.0, 2.0, 8.0, 6.0, 5.0, 2.0, 15.0, 0.0, 3.0, 13.0, 2.0, 18.0, 4.0, 0.0, 5.0, 8.0, 0.0, 0.0, 0.0, 8.0, 0.0, 6.0, 1.0, 0.0, 0.0, 2.0, 5.0, 2.0, 3.0, 1.0, 15.0, 4.0, 3.0, 15.0, 6.0, 0.0, 1.0, 2.0, 7.0, 4.0, 15.0, 3.0, 0.0, 3.0, 1.0, 0.0, 1.0, 12.0, 4.0, 4.0, 11.0, 7.0, 5.0, 12.0, 0.0, 9.0, 6.0, 3.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 0.0, 1.0, 0.0, 5.0, 8.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 3.0, 1.0, 9.0, 0.0, 0.0, 8.0, 2.0, 1.0, 0.0, 1.0, 3.0, 1.0, 16.0, 6.0, 10.0, 9.0, 0.0, 4.0, 0.0, 4.0, 0.0, 15.0, 2.0, 9.0, 0.0, 0.0, 2.0, 0.0, 13.0, 8.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 5.0, 11.0, 0.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 5.0, 6.0, 5.0, 0.0, 2.0, 16.0, 0.0, 21.0, 2.0, 0.0, 1.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 5.0, 3.0, 0.0, 1.0, 0.0, 2.0, 9.0, 1.0, 5.0, 2.0, 6.0, 0.0, 4.0, 0.0, 0.0, 4.0, 4.0, 0.0, 2.0, 0.0, 1.0, 5.0, 0.0, 2.0, 0.0, 3.0, 9.0, 0.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 4.0, 0.0, 2.0, 1.0, 0.0, 1.0, 2.0, 1.0, 4.0, 5.0, 0.0, 6.0, 6.0, 7.0, 3.0, 2.0, 4.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 14.0, 4.0, 3.0, 0.0, 0.0, 0.0, 3.0, 1.0, 4.0, 10.0, 0.0, 3.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 3.0, 11.0, 1.0, 1.0, 0.0, 5.0, 1.0, 2.0, 2.0, 0.0, 2.0, 7.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 5.0, 3.0, 3.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 4.0, 0.0, 0.0, 2.0, 1.0, 1.0, 5.0, 0.0, 7.0, 0.0, 0.0, 2.0, 4.0, 4.0, 6.0, 0.0, 4.0, 0.0, 0.0, 2.0, 0.0, 1.0, 3.0, 1.0, 0.0, 2.0, 0.0, 2.0, 1.0, 3.0, 6.0, 6.0, 0.0, 7.0, 0.0, 0.0, 5.0, 0.0, 2.0, 1.0, 0.0, 0.0, 1.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 2.0, 0.0, 6.0, 7.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 6.0, 0.0, 2.0, 5.0, 1.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 6.0, 5.0, 1.0, 3.0, 2.0, 0.0, 0.0, 5.0, 7.0, 0.0, 1.0, 0.0, 3.0, 0.0, 5.0, 3.0, 5.0, 0.0, 5.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 2.0, 2.0, 6.0, 3.0, 1.0, 1.0, 0.0, 0.0, 7.0, 5.0, 3.0, 1.0, 1.0, 4.0, 10.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 21.0, 0.0, 1.0, 1.0, 1.0, 1.0, 2.0, 0.0, 4.0, 0.0, 5.0, 4.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 0.0, 1.0, 2.0, 7.0, 0.0, 3.0, 9.0, 3.0, 3.0, 4.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 5.0, 0.0, 3.0, 2.0, 0.0, 0.0, 13.0, 2.0, 1.0, 3.0, 0.0, 4.0, 3.0, 4.0, 5.0, 7.0, 2.0, 1.0, 0.0, 1.0, 1.0, 3.0, 15.0, 5.0, 0.0, 0.0, 10.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 11.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 1.0, 2.0, 18.0, 2.0, 2.0]</t>
+          <t>[0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 19.0, 13.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 6.0, 1.0, 0.0, 4.0, 2.0, 2.0, 4.0, 6.0, 0.0, 0.0, 1.0, 5.0, 0.0, 1.0, 7.0, 5.0, 0.0, 12.0, 1.0, 1.0, 0.0, 0.0, 8.0, 1.0, 5.0, 0.0, 0.0, 4.0, 0.0, 17.0, 0.0, 0.0, 5.0, 0.0, 0.0, 3.0, 7.0, 2.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 20.0, 2.0, 1.0, 9.0, 0.0, 5.0, 16.0, 0.0, 2.0, 0.0, 11.0, 6.0, 0.0, 0.0, 10.0, 3.0, 1.0, 0.0, 4.0, 4.0, 0.0, 13.0, 5.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 1.0, 1.0, 1.0, 10.0, 0.0, 1.0, 5.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 6.0, 2.0, 0.0, 6.0, 0.0, 5.0, 0.0, 6.0, 6.0, 0.0, 0.0, 8.0, 0.0, 6.0, 0.0, 6.0, 0.0, 5.0, 2.0, 0.0, 1.0, 21.0, 4.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 3.0, 4.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 3.0, 1.0, 1.0, 0.0, 3.0, 7.0, 3.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 1.0, 0.0, 1.0, 0.0, 1.0, 2.0, 0.0, 3.0, 2.0, 5.0, 0.0, 12.0, 3.0, 12.0, 0.0, 7.0, 4.0, 1.0, 17.0, 1.0, 0.0, 10.0, 5.0, 0.0, 1.0, 6.0, 0.0, 0.0, 8.0, 0.0, 0.0, 9.0, 0.0, 15.0, 2.0, 0.0, 0.0, 3.0, 0.0, 1.0, 4.0, 6.0, 0.0, 4.0, 9.0, 0.0, 2.0, 4.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 3.0, 5.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 2.0, 7.0, 4.0, 0.0, 3.0, 1.0, 0.0, 19.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 2.0, 14.0, 0.0, 0.0, 0.0, 2.0, 1.0, 3.0, 0.0, 0.0, 2.0, 3.0, 0.0, 5.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 9.0, 6.0, 3.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 11.0, 2.0, 2.0, 1.0, 0.0, 5.0, 2.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 9.0, 4.0, 0.0, 0.0, 1.0, 0.0, 4.0, 0.0, 2.0, 0.0, 6.0, 0.0, 17.0, 0.0, 9.0, 17.0, 0.0, 1.0, 4.0, 4.0, 2.0, 0.0, 3.0, 0.0, 5.0, 11.0, 4.0, 0.0, 2.0, 0.0, 2.0, 5.0, 0.0, 1.0, 3.0, 0.0, 6.0, 0.0, 4.0, 0.0, 3.0, 0.0, 1.0, 1.0, 0.0, 5.0, 11.0, 0.0, 6.0, 0.0, 2.0, 0.0, 0.0, 6.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 2.0, 2.0, 21.0, 1.0, 0.0, 0.0, 7.0, 0.0, 0.0, 0.0, 4.0, 2.0, 5.0, 1.0, 0.0, 4.0, 0.0, 3.0, 0.0, 17.0, 6.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 2.0, 2.0, 0.0, 8.0, 0.0, 13.0, 0.0, 1.0, 0.0, 0.0, 7.0, 4.0, 0.0, 2.0, 8.0, 6.0, 5.0, 2.0, 15.0, 0.0, 3.0, 13.0, 2.0, 18.0, 4.0, 0.0, 5.0, 8.0, 0.0, 0.0, 0.0, 8.0, 0.0, 6.0, 1.0, 0.0, 0.0, 2.0, 5.0, 2.0, 3.0, 1.0, 15.0, 4.0, 3.0, 15.0, 6.0, 0.0, 1.0, 2.0, 7.0, 4.0, 0.0, 15.0, 3.0, 0.0, 3.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 12.0, 4.0, 4.0, 11.0, 7.0, 5.0, 12.0, 0.0, 9.0, 6.0, 3.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 0.0, 1.0, 0.0, 5.0, 8.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 3.0, 1.0, 9.0, 0.0, 0.0, 8.0, 2.0, 1.0, 0.0, 1.0, 3.0, 1.0, 16.0, 6.0, 10.0, 9.0, 0.0, 1.0, 4.0, 0.0, 4.0, 0.0, 15.0, 2.0, 9.0, 0.0, 0.0, 2.0, 0.0, 13.0, 8.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 5.0, 11.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 5.0, 0.0, 6.0, 5.0, 0.0, 2.0, 16.0, 0.0, 21.0, 2.0, 0.0, 1.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 5.0, 3.0, 0.0, 1.0, 0.0, 2.0, 9.0, 1.0, 5.0, 2.0, 6.0, 0.0, 4.0, 0.0, 0.0, 4.0, 4.0, 0.0, 2.0, 0.0, 1.0, 5.0, 0.0, 2.0, 0.0, 3.0, 9.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 4.0, 0.0, 2.0, 1.0, 0.0, 1.0, 2.0, 1.0, 4.0, 5.0, 0.0, 6.0, 6.0, 7.0, 3.0, 2.0, 4.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 1.0, 2.0, 14.0, 4.0, 3.0, 0.0, 0.0, 0.0, 1.0, 3.0, 1.0, 1.0, 4.0, 10.0, 0.0, 3.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 3.0, 11.0, 1.0, 1.0, 0.0, 5.0, 1.0, 2.0, 2.0, 0.0, 2.0, 7.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 3.0, 3.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 4.0, 0.0, 0.0, 2.0, 1.0, 1.0, 5.0, 0.0, 7.0, 0.0, 0.0, 2.0, 4.0, 4.0, 6.0, 0.0, 4.0, 0.0, 0.0, 2.0, 0.0, 1.0, 1.0, 3.0, 1.0, 0.0, 2.0, 0.0, 2.0, 1.0, 3.0, 6.0, 6.0, 0.0, 7.0, 0.0, 0.0, 5.0, 0.0, 2.0, 1.0, 0.0, 0.0, 1.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 2.0, 0.0, 6.0, 7.0, 1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 6.0, 0.0, 2.0, 5.0, 1.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 6.0, 5.0, 1.0, 3.0, 2.0, 0.0, 0.0, 5.0, 7.0, 0.0, 1.0, 0.0, 3.0, 0.0, 5.0, 3.0, 5.0, 0.0, 5.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 2.0, 2.0, 6.0, 3.0, 1.0, 1.0, 0.0, 0.0, 7.0, 5.0, 3.0, 1.0, 1.0, 4.0, 10.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 21.0, 0.0, 1.0, 1.0, 1.0, 1.0, 2.0, 0.0, 4.0, 0.0, 5.0, 4.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 0.0, 1.0, 2.0, 7.0, 0.0, 3.0, 9.0, 3.0, 3.0, 4.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 5.0, 0.0, 3.0, 2.0, 0.0, 0.0, 13.0, 2.0, 1.0, 3.0, 0.0, 4.0, 3.0, 4.0, 5.0, 7.0, 2.0, 1.0, 0.0, 1.0, 1.0, 3.0, 15.0, 5.0, 0.0, 0.0, 10.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 11.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 1.0, 2.0, 18.0, 2.0, 2.0, 1.0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[3.0, 4.0, 4.0, 3.0, 4.0, 2.0, 8.0, 5.0, 3.0, 2.0, 5.0, 4.0, 7.0, 10.0, 5.0, 8.0, 5.0, 7.0, 6.0, 3.0, 5.0, 5.0, 3.0, 16.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 7.0, 7.0, 0.0, 3.0, 4.0, 6.0, 11.0, 6.0, 5.0, 5.0, 4.0, 5.0, 1.0, 9.0, 5.0, 9.0, 2.0, 7.0, 9.0, 2.0, 3.0, 2.0, 8.0, 9.0, 9.0, 4.0, 2.0, 9.0, 10.0, 8.0, 15.0, 4.0, 18.0, 5.0, 5.0, 5.0, 7.0, 22.0, 8.0, 7.0, 5.0, 5.0, 8.0, 19.0, 3.0, 7.0, 13.0, 4.0, 1.0, 3.0, 9.0, 9.0, 2.0, 5.0, 1.0, 7.0, 8.0, 4.0, 12.0, 2.0, 8.0, 3.0, 5.0, 6.0, 5.0, 9.0, 10.0, 7.0, 10.0, 11.0, 3.0, 5.0, 3.0, 17.0, 13.0, 1.0, 4.0, 4.0, 4.0, 11.0, 3.0, 7.0, 23.0, 8.0, 9.0, 2.0, 4.0, 1.0, 4.0, 9.0, 6.0, 6.0, 3.0, 4.0, 7.0, 5.0, 13.0, 23.0, 8.0, 10.0, 24.0, 16.0, 23.0, 2.0, 1.0, 9.0, 7.0, 6.0, 6.0, 5.0, 6.0, 8.0, 27.0, 8.0, 6.0, 7.0, 11.0, 5.0, 14.0, 3.0, 7.0, 5.0, 19.0, 7.0, 10.0, 8.0, 7.0, 8.0, 6.0, 7.0, 8.0, 1.0, 5.0, 8.0, 2.0, 4.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 9.0, 4.0, 11.0, 21.0, 1.0, 4.0, 10.0, 10.0, 13.0, 15.0, 15.0, 4.0, 12.0, 11.0, 19.0, 6.0, 8.0, 7.0, 19.0, 6.0, 21.0, 9.0, 1.0, 7.0, 6.0, 13.0, 16.0, 7.0, 10.0, 7.0, 35.0, 4.0, 39.0, 19.0, 5.0, 7.0, 4.0, 7.0, 5.0, 17.0, 5.0, 40.0, 13.0, 3.0, 4.0, 11.0, 6.0, 7.0, 6.0, 4.0, 4.0, 49.0, 9.0, 9.0, 14.0, 5.0, 3.0, 14.0, 20.0, 8.0, 3.0, 8.0, 1.0, 1.0, 51.0, 16.0, 18.0, 7.0, 25.0, 3.0, 27.0, 1.0, 30.0, 1.0, 5.0, 2.0, 5.0, 9.0, 12.0, 3.0, 26.0, 9.0, 28.0, 3.0, 8.0, 7.0, 7.0, 19.0, 8.0, 29.0, 1.0, 5.0, 10.0, 15.0, 3.0, 3.0, 8.0, 7.0, 5.0, 23.0, 13.0, 10.0, 20.0, 3.0, 9.0, 10.0, 6.0, 3.0, 18.0, 4.0, 8.0, 2.0, 11.0, 12.0, 4.0, 8.0, 0.0, 19.0, 4.0, 5.0, 23.0, 4.0, 4.0, 14.0, 10.0, 13.0, 26.0, 4.0, 4.0, 5.0, 36.0, 2.0, 6.0, 8.0, 5.0, 12.0, 6.0, 7.0, 14.0, 12.0, 12.0, 7.0, 5.0, 7.0, 12.0, 5.0, 2.0, 14.0, 9.0, 6.0, 8.0, 1.0, 10.0, 25.0, 3.0, 28.0, 8.0, 1.0, 22.0, 8.0, 4.0, 14.0, 7.0, 9.0, 12.0, 12.0, 5.0, 3.0, 5.0, 6.0, 1.0, 6.0, 10.0, 8.0, 3.0, 5.0, 5.0, 6.0, 5.0, 21.0, 9.0, 9.0, 18.0, 1.0, 7.0, 7.0, 2.0, 20.0, 5.0, 11.0, 5.0, 7.0, 19.0, 14.0, 1.0, 21.0, 12.0, 3.0, 24.0, 6.0, 3.0, 4.0, 5.0, 14.0, 8.0, 21.0, 9.0, 21.0, 4.0, 38.0, 30.0, 37.0, 10.0, 10.0, 6.0, 12.0, 9.0, 3.0, 5.0, 20.0, 13.0, 4.0, 10.0, 45.0, 4.0, 10.0, 10.0, 4.0, 4.0, 1.0, 17.0, 1.0, 9.0, 27.0, 18.0, 79.0, 14.0, 8.0, 7.0, 8.0, 2.0, 2.0, 6.0, 23.0, 8.0, 14.0, 1.0, 8.0, 2.0, 7.0, 9.0, 10.0, 9.0, 9.0, 7.0, 3.0, 4.0, 5.0, 6.0, 15.0, 5.0, 3.0, 19.0, 32.0, 7.0, 3.0, 6.0, 2.0, 6.0, 78.0, 4.0, 14.0, 3.0, 47.0, 1.0, 40.0, 20.0, 4.0, 5.0, 7.0, 11.0, 20.0, 4.0, 6.0, 7.0, 8.0, 9.0, 11.0, 15.0, 9.0, 9.0, 66.0, 3.0, 10.0, 2.0, 4.0, 14.0, 14.0, 11.0, 9.0, 7.0, 5.0, 6.0, 6.0, 37.0, 11.0, 6.0, 6.0, 5.0, 32.0, 13.0, 74.0, 6.0, 5.0, 2.0, 7.0, 3.0, 3.0, 26.0, 5.0, 10.0, 7.0, 5.0, 4.0, 9.0, 4.0, 13.0, 18.0, 9.0, 11.0, 8.0, 84.0, 3.0, 13.0, 20.0, 8.0, 14.0, 6.0, 13.0, 5.0, 24.0, 2.0, 5.0, 82.0, 1.0, 2.0, 0.0, 16.0, 2.0, 8.0, 6.0, 6.0, 14.0, 6.0, 28.0, 15.0, 6.0, 24.0, 4.0, 11.0, 3.0, 3.0, 10.0, 2.0, 7.0, 10.0, 7.0, 7.0, 2.0, 21.0, 23.0, 11.0, 31.0, 4.0, 43.0, 54.0, 4.0, 6.0, 5.0, 11.0, 11.0, 5.0, 20.0, 12.0, 5.0, 2.0, 19.0, 49.0, 10.0, 3.0, 5.0, 7.0, 3.0, 20.0, 6.0, 6.0, 14.0, 0.0, 12.0, 8.0, 19.0, 7.0, 11.0, 8.0, 7.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 2.0, 12.0, 5.0, 7.0, 14.0, 2.0, 5.0, 0.0, 51.0, 15.0, 5.0, 1.0, 8.0, 8.0, 1.0, 1.0, 14.0, 3.0, 21.0, 6.0, 2.0, 7.0, 6.0, 6.0, 2.0, 6.0, 3.0, 2.0, 3.0, 4.0, 10.0, 13.0, 1.0, 2.0, 17.0, 0.0, 6.0, 38.0, 4.0, 0.0, 5.0, 7.0, 3.0, 3.0, 15.0, 4.0, 3.0, 1.0, 4.0, 7.0, 10.0, 5.0, 6.0, 12.0, 28.0, 12.0, 65.0, 1.0, 4.0, 12.0, 9.0, 3.0, 20.0, 10.0, 8.0, 5.0, 6.0, 6.0, 12.0, 10.0, 4.0, 4.0, 29.0, 30.0, 4.0, 3.0, 5.0, 4.0, 4.0, 33.0, 6.0, 4.0, 6.0, 9.0, 16.0, 52.0, 11.0, 17.0, 30.0, 39.0, 3.0, 3.0, 5.0, 11.0, 5.0, 6.0, 4.0, 4.0, 5.0, 11.0, 10.0, 11.0, 5.0, 3.0, 5.0, 4.0, 5.0, 5.0, 4.0, 5.0, 7.0, 5.0, 5.0, 12.0, 3.0, 7.0, 5.0, 5.0, 5.0, 12.0, 14.0, 14.0, 5.0, 10.0, 7.0, 8.0, 25.0, 33.0, 31.0, 2.0, 4.0, 40.0, 12.0, 40.0, 16.0, 5.0, 11.0, 4.0, 9.0, 7.0, 10.0, 5.0, 5.0, 5.0, 8.0, 3.0, 8.0, 2.0, 25.0, 11.0, 15.0, 4.0, 5.0, 1.0, 5.0, 1.0, 15.0, 17.0, 46.0, 36.0, 3.0, 4.0, 6.0, 6.0, 7.0, 3.0, 6.0, 3.0, 8.0, 6.0, 2.0, 6.0, 5.0, 2.0, 2.0, 3.0, 8.0, 5.0, 1.0, 5.0, 6.0, 3.0, 5.0, 7.0, 14.0, 2.0, 2.0, 31.0, 3.0, 8.0, 51.0, 20.0, 7.0, 2.0, 6.0, 6.0, 6.0, 5.0, 2.0, 6.0, 10.0, 10.0, 3.0, 14.0, 8.0, 6.0, 17.0, 9.0, 9.0, 14.0, 8.0, 22.0, 7.0, 7.0, 24.0, 28.0, 15.0, 3.0, 7.0, 13.0, 6.0, 2.0, 13.0, 2.0, 24.0, 4.0, 1.0, 4.0, 16.0, 4.0, 9.0, 7.0, 3.0, 5.0, 8.0, 23.0, 3.0, 13.0, 5.0, 3.0, 9.0, 7.0, 5.0, 11.0, 4.0, 11.0, 10.0, 8.0, 7.0, 23.0, 1.0, 3.0, 7.0, 7.0, 4.0, 6.0, 7.0, 4.0, 5.0, 8.0, 5.0, 5.0, 2.0, 8.0, 5.0, 11.0, 7.0, 9.0, 16.0, 4.0, 36.0, 9.0, 7.0, 4.0, 4.0, 14.0, 8.0, 10.0, 8.0, 9.0, 5.0, 4.0, 4.0, 11.0, 12.0, 2.0, 2.0, 9.0, 2.0, 22.0, 29.0, 9.0, 8.0, 10.0, 6.0, 10.0, 4.0, 2.0, 3.0, 9.0, 6.0, 6.0, 6.0, 11.0, 5.0, 3.0, 2.0, 6.0, 9.0, 3.0, 1.0, 12.0, 4.0, 9.0, 3.0, 2.0, 3.0, 33.0, 2.0, 5.0, 2.0, 2.0, 0.0, 11.0, 6.0, 18.0, 5.0, 4.0, 6.0, 1.0, 17.0, 8.0, 77.0, 4.0, 6.0, 3.0, 9.0, 11.0, 14.0, 11.0, 13.0, 6.0, 8.0, 14.0, 10.0, 3.0, 12.0, 3.0, 4.0, 11.0, 4.0, 6.0, 14.0, 25.0, 4.0, 36.0, 6.0, 7.0, 3.0, 1.0, 9.0, 26.0, 6.0, 4.0, 12.0, 4.0, 22.0, 3.0, 7.0, 5.0, 10.0, 15.0, 12.0, 4.0, 3.0, 5.0, 14.0, 1.0, 5.0, 8.0, 16.0, 12.0, 11.0, 5.0, 11.0, 2.0, 7.0, 8.0, 11.0, 4.0, 7.0, 11.0, 11.0, 7.0, 9.0, 5.0, 21.0, 3.0, 6.0, 2.0, 1.0, 30.0, 2.0, 5.0, 6.0, 5.0, 5.0, 7.0, 8.0, 9.0, 14.0, 0.0, 3.0, 5.0, 5.0, 1.0, 9.0, 2.0, 56.0, 6.0, 5.0, 6.0, 9.0, 3.0, 12.0, 4.0, 8.0, 6.0, 20.0, 0.0, 9.0, 12.0, 5.0, 1.0, 13.0, 3.0, 8.0, 2.0, 10.0, 9.0, 6.0, 3.0, 14.0, 14.0, 6.0, 9.0, 4.0, 12.0, 10.0, 6.0, 8.0, 17.0, 5.0, 14.0, 7.0, 2.0, 8.0, 2.0, 6.0, 9.0, 9.0, 2.0, 10.0, 2.0, 15.0, 24.0, 6.0, 6.0, 14.0, 8.0, 9.0, 9.0, 7.0, 3.0, 14.0, 3.0, 5.0, 14.0, 15.0, 3.0, 5.0, 15.0, 7.0, 9.0, 5.0, 7.0, 3.0, 9.0, 4.0, 8.0, 2.0, 4.0, 5.0, 7.0, 15.0, 24.0, 1.0, 8.0, 3.0, 1.0, 7.0, 5.0, 8.0, 4.0, 11.0, 3.0, 32.0, 8.0, 4.0, 8.0, 5.0, 3.0, 10.0, 13.0, 7.0, 7.0, 25.0, 1.0, 14.0, 63.0, 11.0, 4.0, 6.0, 4.0, 7.0, 8.0, 5.0, 14.0, 59.0, 17.0, 1.0, 33.0, 8.0, 3.0, 1.0, 10.0, 1.0, 22.0, 12.0, 11.0, 4.0, 3.0, 8.0, 3.0, 1.0, 5.0, 5.0, 10.0, 3.0, 4.0, 6.0, 15.0, 3.0, 8.0, 6.0, 19.0, 12.0, 8.0, 12.0, 3.0, 6.0, 10.0, 10.0, 2.0, 9.0, 12.0, 1.0, 5.0, 12.0, 4.0, 3.0, 45.0, 3.0, 9.0, 16.0, 4.0, 7.0, 8.0, 3.0, 5.0, 9.0, 2.0, 6.0, 4.0, 3.0, 3.0, 9.0, 12.0, 7.0, 11.0, 15.0, 4.0, 6.0, 3.0, 4.0, 5.0, 25.0, 17.0, 5.0, 15.0, 3.0, 4.0, 6.0, 9.0, 6.0, 6.0, 6.0, 9.0, 4.0, 6.0, 33.0, 9.0, 4.0, 4.0, 9.0, 11.0, 20.0, 1.0, 7.0, 16.0, 4.0, 13.0, 22.0, 26.0, 11.0, 4.0, 7.0, 7.0, 4.0, 5.0, 14.0, 6.0, 4.0, 9.0, 39.0, 4.0, 6.0, 4.0, 5.0, 6.0, 5.0, 5.0, 6.0, 4.0, 40.0, 26.0, 5.0, 10.0, 3.0, 1.0, 17.0, 11.0, 5.0, 3.0, 12.0, 4.0, 7.0, 8.0, 4.0, 6.0, 12.0, 18.0, 5.0, 7.0, 18.0, 10.0, 8.0, 11.0, 10.0, 55.0, 2.0, 7.0, 3.0, 1.0, 7.0, 4.0, 11.0, 18.0, 11.0, 4.0, 5.0, 5.0, 7.0, 13.0, 22.0, 3.0, 23.0, 5.0, 4.0, 10.0, 11.0, 6.0, 10.0, 4.0, 12.0, 7.0, 7.0, 6.0, 6.0, 1.0, 13.0, 14.0, 7.0, 6.0, 4.0, 1.0, 19.0, 5.0, 18.0, 14.0, 6.0, 8.0, 3.0, 6.0, 8.0, 1.0, 5.0, 4.0, 1.0, 11.0, 2.0, 2.0, 6.0, 3.0, 8.0, 3.0, 9.0, 10.0, 7.0, 7.0, 9.0, 1.0, 6.0, 2.0, 8.0, 9.0, 27.0, 5.0, 2.0, 5.0, 2.0, 8.0, 3.0, 3.0, 3.0, 5.0, 7.0, 5.0, 2.0, 10.0, 2.0, 9.0, 13.0, 2.0, 1.0, 5.0, 5.0, 5.0, 2.0, 5.0, 5.0, 17.0, 3.0, 16.0, 12.0, 2.0, 10.0, 4.0, 14.0, 2.0, 15.0, 9.0, 5.0, 21.0, 35.0, 7.0, 6.0, 10.0, 2.0, 6.0, 2.0, 3.0, 8.0, 4.0, 11.0, 6.0, 14.0, 7.0, 7.0, 8.0, 6.0, 8.0, 3.0, 2.0, 10.0, 6.0, 9.0, 9.0, 14.0, 9.0, 3.0, 13.0, 13.0, 9.0, 4.0, 9.0, 4.0, 11.0, 18.0, 6.0, 14.0, 8.0, 11.0, 6.0, 24.0, 5.0, 9.0, 10.0, 3.0, 10.0, 3.0, 11.0, 7.0, 11.0, 8.0, 0.0, 3.0, 4.0, 2.0, 11.0, 13.0, 3.0, 5.0, 10.0, 7.0, 3.0, 2.0, 7.0, 2.0, 1.0, 4.0, 8.0, 4.0, 4.0, 4.0, 2.0, 2.0, 15.0, 7.0, 5.0, 4.0, 44.0, 7.0, 35.0, 2.0, 11.0, 9.0, 3.0, 7.0, 6.0, 10.0, 8.0, 16.0, 2.0, 3.0, 6.0, 9.0, 11.0, 8.0, 8.0, 9.0, 2.0, 2.0, 10.0, 1.0, 5.0, 8.0, 3.0, 3.0, 7.0, 8.0, 2.0, 5.0, 4.0, 3.0, 1.0, 2.0, 11.0, 14.0, 30.0, 15.0, 11.0, 5.0, 10.0, 12.0, 2.0, 15.0, 3.0, 5.0, 4.0, 9.0, 6.0, 5.0, 20.0, 10.0, 13.0, 3.0, 5.0, 22.0, 15.0, 8.0, 4.0, 4.0, 8.0, 5.0, 12.0, 10.0, 10.0, 3.0, 11.0, 67.0, 10.0, 4.0, 3.0, 8.0, 9.0, 3.0, 5.0, 6.0, 5.0, 10.0, 46.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 4.0, 19.0, 13.0, 19.0, 6.0, 2.0, 4.0, 7.0, 4.0, 4.0, 3.0, 3.0, 11.0, 16.0, 3.0, 3.0, 7.0, 4.0, 7.0, 26.0, 10.0, 60.0, 24.0, 8.0, 3.0, 4.0, 14.0, 6.0, 14.0, 28.0, 5.0, 4.0, 7.0, 4.0, 9.0, 12.0, 6.0, 5.0, 5.0, 27.0, 32.0, 10.0, 3.0, 6.0, 11.0, 5.0, 11.0, 11.0, 20.0, 7.0, 6.0, 18.0, 3.0, 13.0, 10.0, 5.0, 7.0, 6.0, 11.0, 7.0, 4.0, 5.0, 11.0, 7.0, 4.0, 4.0, 4.0, 2.0, 6.0, 0.0, 7.0, 1.0, 18.0, 1.0, 2.0, 1.0, 1.0, 8.0, 3.0, 8.0, 4.0, 13.0, 11.0, 10.0, 2.0, 4.0, 12.0, 15.0, 6.0, 23.0, 10.0, 4.0, 4.0, 43.0, 15.0, 6.0, 11.0, 13.0, 4.0, 9.0, 13.0, 7.0, 7.0, 5.0, 14.0, 2.0, 5.0, 1.0, 4.0, 2.0, 8.0, 15.0, 5.0, 0.0, 3.0, 23.0, 1.0, 12.0, 14.0, 7.0, 5.0, 6.0, 7.0, 7.0, 5.0, 12.0, 44.0, 5.0, 2.0, 3.0, 1.0, 3.0, 6.0, 2.0, 14.0, 3.0, 10.0, 3.0, 3.0, 3.0, 26.0, 5.0, 6.0, 3.0, 14.0, 6.0, 13.0, 9.0, 3.0, 7.0, 6.0, 3.0, 3.0, 6.0, 3.0, 2.0, 11.0, 6.0, 9.0, 4.0, 8.0, 6.0, 8.0, 10.0, 1.0, 2.0, 4.0, 4.0, 16.0, 55.0, 8.0, 1.0, 45.0, 7.0, 3.0, 2.0, 2.0, 8.0, 5.0, 2.0, 5.0, 11.0, 7.0, 4.0, 2.0, 4.0, 9.0, 25.0, 18.0, 29.0, 17.0, 8.0, 14.0, 18.0, 7.0, 5.0, 4.0, 9.0, 7.0, 4.0, 17.0, 7.0, 2.0, 18.0, 12.0, 16.0, 15.0, 16.0, 3.0, 4.0, 11.0, 19.0, 6.0, 5.0, 5.0, 17.0, 16.0, 10.0, 6.0, 11.0, 7.0, 6.0, 6.0, 9.0, 2.0, 13.0, 2.0, 6.0, 4.0, 13.0, 8.0, 4.0, 4.0, 3.0, 7.0, 3.0, 17.0, 1.0, 6.0, 5.0, 5.0, 5.0, 18.0, 10.0, 12.0, 6.0, 47.0, 6.0, 10.0, 7.0, 10.0, 7.0, 12.0, 6.0, 10.0, 7.0, 9.0, 14.0, 12.0, 10.0, 3.0, 18.0, 6.0, 10.0, 11.0, 1.0, 4.0, 6.0, 13.0, 8.0, 1.0, 9.0, 6.0, 7.0, 5.0, 7.0, 21.0, 9.0, 5.0, 15.0, 2.0, 5.0, 5.0, 12.0, 13.0, 2.0, 21.0, 9.0, 5.0, 7.0, 11.0, 1.0, 12.0, 5.0, 5.0, 1.0, 7.0, 8.0, 2.0, 20.0, 12.0, 17.0, 9.0, 7.0, 12.0, 10.0, 56.0, 4.0, 15.0, 15.0, 9.0, 10.0, 9.0, 6.0, 2.0, 20.0, 18.0, 8.0, 7.0, 16.0, 20.0, 23.0, 8.0, 9.0, 56.0, 3.0, 15.0, 11.0, 15.0, 5.0, 7.0, 10.0, 7.0, 2.0, 1.0, 36.0, 2.0, 7.0, 7.0, 7.0, 2.0, 3.0, 13.0, 8.0, 14.0, 8.0, 1.0, 7.0, 2.0, 7.0, 63.0, 7.0, 11.0, 3.0, 12.0, 11.0, 42.0, 5.0, 8.0, 11.0, 2.0, 8.0, 9.0, 19.0, 40.0, 1.0, 8.0, 4.0, 8.0, 3.0, 19.0, 18.0, 21.0, 6.0, 3.0, 3.0, 6.0, 14.0, 4.0, 10.0, 4.0, 18.0, 17.0, 6.0, 10.0, 54.0, 7.0, 5.0, 11.0, 6.0, 27.0, 5.0, 5.0, 18.0, 2.0, 74.0, 13.0, 7.0, 28.0, 28.0, 27.0, 52.0, 7.0, 0.0, 16.0, 8.0, 83.0, 2.0, 22.0, 4.0, 4.0, 10.0, 8.0, 7.0, 7.0, 9.0, 6.0, 20.0, 13.0, 35.0, 4.0, 11.0, 8.0, 7.0, 9.0, 4.0, 2.0, 4.0, 4.0, 8.0, 7.0, 43.0, 3.0, 16.0, 6.0, 18.0, 74.0, 12.0, 1.0, 68.0, 3.0, 1.0, 31.0, 5.0, 26.0, 3.0, 3.0, 6.0, 9.0, 6.0, 6.0, 4.0, 32.0, 6.0, 4.0, 10.0, 3.0, 5.0, 2.0, 7.0, 6.0, 40.0, 8.0, 39.0, 18.0, 10.0, 18.0, 6.0, 20.0, 15.0, 5.0, 4.0, 5.0, 21.0, 21.0, 7.0, 9.0, 27.0, 6.0, 3.0, 10.0, 2.0, 13.0, 17.0, 6.0, 1.0, 6.0, 1.0, 34.0, 11.0, 9.0, 11.0, 3.0, 4.0, 18.0, 3.0, 18.0, 5.0, 10.0, 5.0, 15.0, 56.0, 35.0, 4.0, 11.0, 10.0, 5.0, 5.0, 4.0, 9.0, 3.0, 8.0, 16.0, 14.0, 5.0, 7.0, 10.0, 40.0, 3.0, 14.0, 3.0, 6.0, 5.0, 11.0, 50.0, 36.0, 1.0, 2.0, 6.0, 9.0, 2.0, 2.0, 62.0, 4.0, 15.0, 8.0, 45.0, 29.0, 5.0, 8.0, 12.0, 9.0, 41.0, 2.0, 12.0, 6.0, 6.0, 10.0, 3.0, 13.0, 88.0, 5.0, 12.0, 4.0, 10.0, 30.0, 5.0, 2.0, 16.0, 6.0, 63.0, 23.0, 6.0, 20.0, 2.0, 2.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 10.0, 2.0, 17.0, 4.0, 69.0, 74.0, 51.0, 10.0, 10.0, 4.0, 2.0, 15.0, 73.0, 57.0, 3.0, 80.0, 5.0, 8.0, 6.0, 69.0, 4.0, 4.0, 56.0, 5.0, 10.0, 28.0, 5.0, 7.0, 2.0, 8.0, 13.0, 1.0, 84.0, 6.0, 7.0, 5.0, 10.0, 14.0, 3.0, 19.0, 6.0, 17.0, 9.0, 7.0, 1.0, 9.0, 4.0, 89.0, 11.0, 14.0, 1.0, 46.0, 85.0, 2.0, 5.0, 8.0, 3.0, 8.0, 7.0, 7.0, 7.0, 4.0, 6.0, 4.0, 9.0, 10.0, 3.0, 11.0, 3.0, 8.0, 13.0, 3.0, 14.0, 1.0, 11.0, 2.0, 16.0, 7.0, 6.0, 74.0, 4.0, 15.0, 1.0, 7.0, 1.0, 7.0, 8.0, 16.0, 4.0, 47.0, 11.0, 26.0, 18.0, 3.0, 7.0, 13.0, 8.0, 13.0, 2.0, 7.0, 2.0, 8.0, 12.0, 6.0, 2.0, 2.0, 9.0, 2.0, 14.0, 9.0, 6.0, 6.0, 3.0, 8.0, 4.0, 1.0, 3.0, 6.0, 19.0, 13.0, 2.0, 1.0, 1.0, 2.0, 9.0, 5.0, 67.0, 25.0, 0.0, 4.0, 8.0, 6.0, 7.0, 9.0, 1.0, 3.0, 2.0, 4.0, 11.0, 11.0, 1.0, 37.0, 7.0, 14.0, 6.0, 8.0, 3.0, 16.0, 2.0, 3.0, 34.0, 2.0, 6.0, 1.0, 15.0, 7.0, 2.0, 5.0, 19.0, 7.0, 55.0, 1.0, 1.0, 7.0, 3.0, 1.0, 65.0, 8.0, 15.0, 10.0, 5.0, 4.0, 4.0, 9.0, 19.0, 11.0, 27.0, 7.0, 6.0, 7.0, 6.0, 10.0, 1.0, 1.0, 9.0, 67.0, 2.0, 13.0, 19.0, 4.0, 24.0, 12.0, 6.0, 33.0, 35.0, 6.0, 13.0, 74.0, 10.0, 8.0, 7.0, 32.0, 7.0, 11.0, 2.0, 12.0, 7.0, 14.0, 6.0, 26.0, 10.0, 5.0, 4.0, 18.0, 5.0, 10.0, 3.0, 13.0, 6.0, 14.0, 17.0, 1.0, 21.0, 0.0, 7.0, 17.0, 2.0, 6.0, 3.0, 53.0, 23.0, 8.0, 3.0, 22.0, 8.0, 8.0, 8.0, 7.0, 10.0, 8.0, 15.0, 6.0, 5.0, 4.0, 6.0, 3.0, 19.0, 6.0, 10.0, 27.0, 8.0, 7.0, 6.0, 3.0, 4.0, 1.0, 5.0, 10.0, 27.0, 8.0, 4.0, 7.0, 5.0, 11.0, 6.0, 13.0, 2.0, 6.0, 13.0, 44.0, 4.0, 7.0, 6.0, 4.0, 10.0, 3.0, 22.0, 7.0, 7.0, 10.0, 4.0, 7.0, 9.0, 6.0, 2.0, 11.0, 12.0, 4.0, 15.0, 2.0, 4.0, 11.0, 8.0, 44.0, 3.0, 11.0, 5.0, 6.0, 12.0, 7.0, 30.0, 1.0, 9.0, 5.0, 6.0, 17.0, 9.0, 6.0, 2.0, 5.0, 12.0, 6.0, 14.0, 7.0, 12.0, 2.0, 3.0, 1.0, 6.0, 5.0, 8.0, 11.0, 26.0, 19.0, 8.0, 21.0, 5.0, 4.0, 11.0, 7.0, 5.0, 7.0, 10.0, 14.0, 6.0, 13.0, 18.0, 2.0, 5.0, 15.0, 9.0, 3.0, 5.0, 12.0, 2.0, 12.0, 3.0, 5.0, 13.0, 6.0, 14.0, 9.0, 7.0, 0.0, 3.0, 3.0, 6.0, 13.0, 3.0, 8.0, 1.0, 4.0, 17.0, 6.0, 10.0, 10.0, 8.0, 6.0, 16.0, 8.0, 6.0, 3.0, 4.0, 13.0, 8.0, 8.0, 46.0, 15.0, 7.0, 5.0, 7.0, 7.0, 7.0, 8.0, 1.0, 23.0, 8.0, 4.0, 7.0, 8.0, 10.0, 9.0, 7.0, 3.0, 6.0, 4.0, 1.0, 4.0, 0.0, 9.0, 1.0, 3.0, 9.0, 10.0, 2.0, 6.0, 3.0, 32.0, 6.0, 5.0, 5.0, 4.0, 6.0, 10.0, 10.0, 7.0, 10.0, 4.0, 4.0, 0.0, 62.0, 13.0, 2.0, 4.0, 12.0, 12.0, 13.0, 1.0, 5.0, 8.0, 14.0, 3.0, 25.0, 3.0, 15.0, 50.0, 22.0, 7.0, 8.0, 21.0, 7.0, 12.0, 11.0, 7.0, 0.0, 6.0, 9.0, 12.0, 1.0, 78.0, 12.0, 3.0, 7.0, 5.0, 3.0, 3.0, 3.0, 6.0, 12.0, 17.0, 7.0, 11.0, 8.0, 10.0, 8.0, 30.0, 13.0, 6.0, 7.0, 2.0, 2.0, 7.0, 5.0, 7.0, 13.0, 5.0, 5.0, 10.0, 10.0, 5.0, 8.0, 41.0, 10.0, 2.0, 6.0, 4.0, 13.0, 14.0, 6.0, 13.0, 6.0, 7.0, 5.0, 9.0, 13.0, 4.0, 3.0, 22.0, 3.0, 1.0, 4.0, 7.0, 7.0, 4.0, 5.0, 4.0, 8.0, 4.0, 8.0, 7.0, 9.0, 9.0, 9.0, 8.0, 10.0, 5.0, 1.0, 4.0, 32.0, 14.0, 5.0, 6.0, 7.0, 6.0, 4.0, 14.0, 16.0, 50.0, 5.0, 4.0, 16.0, 6.0, 3.0, 6.0, 12.0, 8.0, 22.0, 9.0, 4.0, 21.0, 4.0, 8.0, 8.0, 7.0, 4.0, 2.0, 3.0, 14.0, 9.0, 2.0, 4.0, 8.0, 23.0, 0.0, 29.0, 7.0, 12.0, 5.0, 6.0, 20.0, 7.0, 9.0, 2.0, 4.0, 4.0, 9.0, 12.0, 11.0, 4.0, 19.0, 3.0, 10.0, 7.0, 6.0, 2.0, 31.0, 6.0, 7.0, 2.0, 3.0, 12.0, 31.0, 10.0, 15.0, 11.0, 20.0, 14.0, 6.0, 13.0, 3.0, 12.0, 12.0, 7.0, 5.0, 5.0, 6.0, 8.0, 5.0, 7.0, 5.0, 3.0, 6.0, 18.0, 6.0, 7.0, 4.0, 5.0, 12.0, 3.0, 16.0, 1.0, 11.0, 7.0, 8.0, 27.0, 3.0, 7.0, 4.0, 7.0, 7.0, 4.0, 13.0, 24.0, 19.0, 20.0, 4.0, 4.0, 0.0, 34.0, 6.0, 4.0, 2.0, 33.0, 2.0, 11.0, 4.0, 3.0, 4.0, 9.0, 15.0, 6.0, 9.0, 9.0, 3.0, 6.0, 34.0, 64.0, 5.0, 5.0, 2.0, 18.0, 7.0, 11.0, 7.0, 7.0, 7.0, 8.0, 4.0, 4.0, 3.0, 8.0, 5.0, 9.0, 9.0, 1.0, 4.0, 7.0, 7.0, 5.0, 6.0, 7.0, 15.0, 15.0, 6.0, 5.0, 6.0, 17.0, 10.0, 11.0, 7.0, 7.0, 3.0, 2.0, 13.0, 2.0, 40.0, 6.0, 16.0, 6.0, 16.0, 9.0, 11.0, 4.0, 3.0, 9.0, 5.0, 0.0, 6.0, 8.0, 5.0, 10.0, 6.0, 3.0, 8.0, 9.0, 2.0, 5.0, 3.0, 9.0, 7.0, 2.0, 8.0, 5.0, 11.0, 7.0, 11.0, 6.0, 14.0, 12.0, 14.0, 14.0, 3.0, 20.0, 7.0, 6.0, 2.0, 4.0, 11.0, 3.0, 3.0, 3.0, 8.0, 29.0, 6.0, 7.0, 8.0, 6.0, 8.0, 15.0, 24.0, 6.0, 6.0, 20.0, 18.0, 38.0, 7.0, 7.0, 6.0, 14.0, 7.0, 14.0, 3.0, 4.0, 4.0, 9.0, 9.0, 9.0, 4.0, 7.0, 10.0, 6.0, 13.0, 4.0, 10.0, 4.0, 10.0, 3.0, 10.0, 6.0, 8.0, 10.0, 44.0, 5.0, 4.0, 1.0, 7.0, 6.0, 7.0, 7.0, 4.0, 9.0, 7.0, 4.0, 22.0, 4.0, 15.0, 13.0, 8.0, 7.0, 31.0, 4.0, 1.0, 11.0, 7.0, 12.0, 17.0, 9.0, 2.0, 7.0, 9.0, 6.0, 9.0, 4.0, 5.0, 5.0, 8.0, 10.0, 15.0, 8.0, 8.0, 1.0, 1.0, 11.0, 4.0, 4.0, 10.0, 5.0, 4.0, 15.0, 9.0, 8.0, 26.0, 3.0, 3.0, 15.0, 1.0, 8.0, 13.0, 9.0, 23.0, 4.0, 17.0, 8.0, 5.0, 8.0, 11.0, 9.0, 14.0, 3.0, 5.0, 4.0, 9.0, 2.0, 10.0, 7.0, 5.0, 6.0, 3.0, 3.0, 9.0, 3.0, 9.0, 5.0, 9.0, 7.0, 6.0, 1.0, 3.0, 11.0, 9.0, 18.0, 18.0, 5.0, 5.0, 11.0, 10.0, 9.0, 6.0, 10.0, 10.0, 8.0, 17.0, 34.0, 6.0, 11.0, 4.0, 6.0, 6.0, 6.0, 16.0, 30.0, 11.0, 5.0, 11.0, 8.0, 17.0, 20.0, 8.0, 5.0, 9.0, 10.0, 10.0, 34.0, 11.0, 21.0, 3.0, 40.0, 14.0, 3.0, 12.0, 4.0, 10.0, 9.0, 7.0, 4.0, 14.0, 8.0, 6.0, 6.0, 7.0, 21.0, 5.0, 4.0, 8.0, 12.0, 7.0, 5.0, 10.0, 7.0, 8.0, 9.0, 16.0, 18.0, 34.0, 7.0, 8.0, 13.0, 18.0, 24.0, 5.0, 10.0, 5.0, 19.0, 63.0, 8.0, 12.0, 10.0, 7.0, 6.0, 6.0, 12.0, 6.0, 6.0, 2.0, 14.0, 7.0, 7.0, 4.0, 7.0, 7.0, 13.0, 18.0, 11.0, 0.0, 0.0, 12.0, 7.0, 13.0, 6.0, 7.0, 11.0, 10.0, 3.0, 11.0, 6.0, 3.0, 13.0, 12.0, 4.0, 3.0, 13.0, 16.0, 14.0, 4.0, 4.0, 13.0, 1.0, 14.0, 8.0, 8.0, 5.0, 4.0, 28.0, 5.0, 11.0, 28.0, 12.0, 6.0, 5.0, 2.0, 8.0, 5.0, 3.0, 7.0, 5.0, 14.0, 7.0, 15.0, 11.0, 6.0, 6.0, 12.0, 48.0, 8.0, 13.0, 5.0, 15.0, 11.0, 4.0, 1.0, 3.0, 4.0, 35.0, 11.0, 5.0, 4.0, 9.0, 4.0, 5.0, 10.0, 12.0, 27.0, 11.0, 12.0, 1.0, 7.0, 4.0, 8.0, 12.0, 13.0, 5.0, 23.0, 2.0, 8.0, 6.0, 9.0, 7.0, 14.0, 14.0, 8.0, 2.0, 6.0, 9.0, 20.0, 14.0, 6.0, 11.0, 5.0, 8.0, 9.0, 5.0, 5.0, 8.0, 13.0, 5.0, 7.0, 6.0, 4.0, 7.0, 5.0, 5.0, 14.0, 7.0, 6.0, 12.0, 5.0, 12.0, 9.0, 3.0, 6.0, 8.0, 15.0, 12.0, 2.0, 0.0, 2.0, 13.0, 9.0, 6.0, 5.0, 21.0, 6.0, 8.0, 13.0, 3.0, 4.0, 7.0, 13.0, 14.0, 15.0, 1.0, 8.0, 78.0, 9.0, 7.0, 2.0, 10.0, 8.0, 7.0, 7.0, 6.0, 2.0, 7.0, 3.0, 8.0, 9.0, 3.0, 13.0, 36.0, 10.0, 5.0, 6.0, 6.0, 14.0, 7.0, 6.0, 11.0, 6.0, 10.0, 7.0, 5.0, 6.0, 7.0, 14.0, 4.0, 6.0, 7.0, 6.0, 1.0, 5.0, 6.0, 10.0, 8.0, 3.0, 10.0, 4.0, 1.0, 14.0, 12.0, 7.0, 9.0, 7.0, 6.0, 1.0, 9.0, 3.0, 9.0, 6.0, 7.0, 6.0, 22.0, 7.0, 8.0, 10.0, 8.0, 14.0, 18.0, 10.0, 8.0, 4.0, 3.0, 8.0, 7.0, 8.0, 10.0, 14.0, 11.0, 6.0, 1.0, 6.0, 30.0, 2.0, 7.0, 14.0, 14.0, 5.0, 4.0, 25.0, 14.0, 4.0, 5.0, 0.0, 26.0, 14.0, 4.0, 14.0, 4.0, 3.0, 18.0, 15.0, 5.0, 7.0, 7.0, 10.0, 12.0, 7.0, 3.0, 3.0, 30.0, 48.0, 5.0, 9.0, 3.0, 17.0, 4.0, 16.0, 5.0, 7.0, 3.0, 9.0, 12.0, 10.0, 10.0, 7.0, 9.0, 16.0, 6.0, 4.0, 9.0, 7.0, 20.0, 7.0, 4.0, 5.0, 6.0, 9.0, 9.0, 6.0, 61.0, 11.0, 10.0, 3.0, 4.0, 7.0, 24.0, 6.0, 10.0, 13.0, 10.0, 5.0, 2.0, 7.0, 6.0, 8.0, 2.0, 5.0, 14.0, 35.0, 6.0, 4.0, 12.0, 6.0, 6.0, 16.0, 11.0, 5.0, 5.0, 5.0, 13.0, 20.0, 4.0, 26.0, 1.0, 16.0, 2.0, 15.0, 15.0, 5.0, 9.0, 8.0, 76.0, 6.0, 8.0, 13.0, 12.0, 16.0, 9.0, 18.0, 7.0, 2.0, 3.0, 5.0, 11.0, 12.0, 15.0, 17.0, 6.0, 38.0, 6.0, 15.0, 9.0, 5.0, 7.0, 13.0, 16.0, 31.0, 11.0, 8.0, 8.0, 13.0, 15.0, 14.0, 8.0, 7.0, 2.0, 8.0, 12.0, 6.0, 6.0, 4.0, 5.0, 25.0, 45.0, 29.0, 10.0, 12.0, 16.0, 14.0, 18.0, 0.0, 11.0, 7.0, 13.0, 5.0, 12.0, 33.0, 2.0, 11.0, 42.0, 51.0, 32.0, 11.0, 37.0, 26.0, 24.0, 37.0, 47.0, 40.0, 26.0, 37.0, 57.0, 46.0, 53.0, 33.0, 49.0, 67.0, 75.0, 43.0, 37.0, 77.0, 83.0, 72.0, 87.0, 66.0]</t>
+          <t>[3.0, 4.0, 4.0, 3.0, 4.0, 2.0, 8.0, 5.0, 3.0, 2.0, 5.0, 4.0, 7.0, 10.0, 5.0, 8.0, 5.0, 7.0, 6.0, 3.0, 5.0, 5.0, 3.0, 16.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 7.0, 7.0, 0.0, 3.0, 4.0, 6.0, 11.0, 6.0, 5.0, 5.0, 4.0, 5.0, 1.0, 9.0, 5.0, 9.0, 2.0, 7.0, 9.0, 2.0, 3.0, 2.0, 8.0, 9.0, 9.0, 4.0, 2.0, 9.0, 10.0, 8.0, 15.0, 4.0, 18.0, 5.0, 5.0, 5.0, 7.0, 22.0, 8.0, 7.0, 5.0, 5.0, 8.0, 19.0, 3.0, 7.0, 13.0, 4.0, 1.0, 3.0, 9.0, 9.0, 2.0, 5.0, 1.0, 7.0, 8.0, 4.0, 12.0, 2.0, 8.0, 3.0, 5.0, 6.0, 5.0, 9.0, 10.0, 7.0, 10.0, 11.0, 3.0, 5.0, 3.0, 17.0, 13.0, 1.0, 4.0, 4.0, 4.0, 11.0, 3.0, 7.0, 23.0, 8.0, 9.0, 2.0, 4.0, 1.0, 4.0, 9.0, 6.0, 6.0, 3.0, 4.0, 7.0, 5.0, 13.0, 23.0, 8.0, 10.0, 24.0, 16.0, 23.0, 2.0, 1.0, 9.0, 7.0, 6.0, 6.0, 5.0, 6.0, 8.0, 27.0, 8.0, 6.0, 7.0, 11.0, 5.0, 14.0, 3.0, 7.0, 5.0, 19.0, 7.0, 10.0, 8.0, 7.0, 8.0, 6.0, 7.0, 8.0, 1.0, 5.0, 8.0, 2.0, 4.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 9.0, 4.0, 11.0, 21.0, 1.0, 4.0, 10.0, 10.0, 13.0, 15.0, 15.0, 4.0, 12.0, 11.0, 19.0, 6.0, 8.0, 7.0, 19.0, 6.0, 21.0, 9.0, 1.0, 7.0, 6.0, 13.0, 16.0, 7.0, 10.0, 7.0, 35.0, 4.0, 39.0, 19.0, 5.0, 7.0, 4.0, 7.0, 5.0, 17.0, 5.0, 40.0, 13.0, 3.0, 4.0, 11.0, 6.0, 7.0, 6.0, 4.0, 4.0, 49.0, 9.0, 9.0, 14.0, 5.0, 3.0, 14.0, 20.0, 8.0, 3.0, 8.0, 1.0, 1.0, 51.0, 16.0, 18.0, 7.0, 25.0, 3.0, 27.0, 1.0, 30.0, 1.0, 5.0, 2.0, 5.0, 9.0, 12.0, 3.0, 26.0, 9.0, 28.0, 3.0, 8.0, 7.0, 7.0, 19.0, 8.0, 29.0, 1.0, 5.0, 10.0, 15.0, 3.0, 3.0, 8.0, 7.0, 5.0, 23.0, 13.0, 10.0, 20.0, 3.0, 9.0, 10.0, 6.0, 3.0, 18.0, 4.0, 8.0, 2.0, 11.0, 12.0, 4.0, 8.0, 0.0, 19.0, 4.0, 5.0, 23.0, 4.0, 4.0, 14.0, 10.0, 13.0, 26.0, 4.0, 4.0, 5.0, 36.0, 2.0, 6.0, 8.0, 5.0, 12.0, 6.0, 7.0, 14.0, 12.0, 12.0, 7.0, 5.0, 7.0, 12.0, 5.0, 2.0, 14.0, 9.0, 6.0, 8.0, 1.0, 10.0, 25.0, 3.0, 28.0, 8.0, 1.0, 22.0, 8.0, 4.0, 14.0, 7.0, 9.0, 12.0, 12.0, 5.0, 3.0, 5.0, 6.0, 1.0, 6.0, 10.0, 8.0, 3.0, 5.0, 5.0, 6.0, 5.0, 21.0, 9.0, 9.0, 18.0, 1.0, 7.0, 7.0, 2.0, 20.0, 5.0, 11.0, 5.0, 7.0, 19.0, 14.0, 1.0, 21.0, 12.0, 3.0, 24.0, 6.0, 3.0, 4.0, 5.0, 14.0, 8.0, 21.0, 9.0, 21.0, 4.0, 38.0, 30.0, 37.0, 10.0, 10.0, 6.0, 12.0, 9.0, 3.0, 5.0, 20.0, 13.0, 4.0, 10.0, 45.0, 4.0, 10.0, 10.0, 4.0, 4.0, 1.0, 17.0, 1.0, 9.0, 27.0, 18.0, 79.0, 14.0, 8.0, 7.0, 8.0, 2.0, 2.0, 6.0, 23.0, 8.0, 14.0, 1.0, 8.0, 2.0, 7.0, 9.0, 10.0, 9.0, 9.0, 7.0, 3.0, 4.0, 5.0, 6.0, 15.0, 5.0, 3.0, 19.0, 32.0, 7.0, 3.0, 6.0, 2.0, 6.0, 78.0, 4.0, 14.0, 3.0, 47.0, 1.0, 40.0, 20.0, 4.0, 5.0, 7.0, 11.0, 20.0, 4.0, 6.0, 7.0, 8.0, 9.0, 11.0, 15.0, 9.0, 9.0, 66.0, 3.0, 10.0, 2.0, 4.0, 14.0, 14.0, 11.0, 9.0, 7.0, 5.0, 6.0, 6.0, 37.0, 11.0, 6.0, 6.0, 5.0, 32.0, 13.0, 74.0, 6.0, 5.0, 2.0, 7.0, 3.0, 3.0, 26.0, 5.0, 10.0, 7.0, 5.0, 4.0, 9.0, 4.0, 13.0, 18.0, 9.0, 11.0, 8.0, 84.0, 3.0, 13.0, 20.0, 8.0, 14.0, 6.0, 13.0, 5.0, 24.0, 2.0, 5.0, 82.0, 1.0, 2.0, 0.0, 16.0, 2.0, 8.0, 6.0, 6.0, 14.0, 6.0, 28.0, 15.0, 6.0, 24.0, 4.0, 11.0, 3.0, 3.0, 10.0, 2.0, 7.0, 10.0, 7.0, 7.0, 2.0, 21.0, 23.0, 11.0, 31.0, 4.0, 43.0, 54.0, 4.0, 6.0, 5.0, 11.0, 11.0, 5.0, 20.0, 12.0, 5.0, 2.0, 19.0, 49.0, 10.0, 3.0, 5.0, 7.0, 3.0, 20.0, 6.0, 6.0, 14.0, 0.0, 12.0, 8.0, 19.0, 7.0, 11.0, 8.0, 7.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 2.0, 12.0, 5.0, 7.0, 14.0, 2.0, 5.0, 0.0, 51.0, 15.0, 5.0, 1.0, 8.0, 8.0, 1.0, 1.0, 14.0, 3.0, 21.0, 6.0, 2.0, 7.0, 6.0, 6.0, 2.0, 6.0, 3.0, 2.0, 3.0, 4.0, 10.0, 13.0, 1.0, 2.0, 17.0, 0.0, 6.0, 38.0, 4.0, 0.0, 5.0, 7.0, 3.0, 3.0, 15.0, 4.0, 3.0, 1.0, 4.0, 7.0, 10.0, 5.0, 6.0, 12.0, 28.0, 12.0, 65.0, 1.0, 4.0, 12.0, 9.0, 3.0, 20.0, 10.0, 8.0, 5.0, 6.0, 6.0, 12.0, 10.0, 4.0, 4.0, 29.0, 30.0, 4.0, 3.0, 5.0, 4.0, 4.0, 33.0, 6.0, 4.0, 6.0, 9.0, 16.0, 52.0, 11.0, 17.0, 30.0, 39.0, 3.0, 3.0, 5.0, 11.0, 5.0, 6.0, 4.0, 4.0, 5.0, 11.0, 10.0, 11.0, 5.0, 3.0, 5.0, 4.0, 5.0, 5.0, 4.0, 5.0, 7.0, 5.0, 5.0, 12.0, 3.0, 7.0, 5.0, 5.0, 5.0, 12.0, 14.0, 14.0, 5.0, 10.0, 7.0, 8.0, 25.0, 33.0, 31.0, 2.0, 4.0, 40.0, 12.0, 40.0, 16.0, 5.0, 11.0, 4.0, 9.0, 7.0, 10.0, 5.0, 5.0, 5.0, 8.0, 3.0, 8.0, 2.0, 25.0, 11.0, 15.0, 4.0, 5.0, 1.0, 5.0, 1.0, 15.0, 17.0, 46.0, 36.0, 3.0, 4.0, 6.0, 6.0, 7.0, 3.0, 6.0, 3.0, 8.0, 6.0, 2.0, 6.0, 5.0, 2.0, 2.0, 3.0, 8.0, 5.0, 1.0, 5.0, 6.0, 3.0, 5.0, 7.0, 14.0, 2.0, 2.0, 31.0, 3.0, 8.0, 51.0, 20.0, 7.0, 2.0, 6.0, 6.0, 6.0, 5.0, 2.0, 6.0, 10.0, 10.0, 3.0, 14.0, 8.0, 92.0, 6.0, 17.0, 9.0, 9.0, 14.0, 8.0, 22.0, 7.0, 7.0, 24.0, 28.0, 15.0, 3.0, 7.0, 13.0, 6.0, 2.0, 13.0, 2.0, 24.0, 4.0, 1.0, 4.0, 16.0, 4.0, 9.0, 7.0, 3.0, 5.0, 8.0, 23.0, 3.0, 13.0, 5.0, 3.0, 9.0, 7.0, 5.0, 11.0, 4.0, 11.0, 10.0, 8.0, 7.0, 23.0, 1.0, 3.0, 7.0, 7.0, 4.0, 6.0, 7.0, 4.0, 5.0, 8.0, 5.0, 5.0, 2.0, 8.0, 5.0, 11.0, 7.0, 9.0, 16.0, 4.0, 36.0, 9.0, 7.0, 4.0, 4.0, 14.0, 8.0, 10.0, 8.0, 9.0, 5.0, 4.0, 4.0, 11.0, 12.0, 2.0, 2.0, 9.0, 2.0, 22.0, 29.0, 9.0, 8.0, 10.0, 6.0, 10.0, 4.0, 2.0, 3.0, 9.0, 6.0, 6.0, 6.0, 11.0, 5.0, 3.0, 2.0, 6.0, 9.0, 3.0, 1.0, 12.0, 4.0, 9.0, 3.0, 2.0, 3.0, 33.0, 2.0, 5.0, 2.0, 2.0, 0.0, 11.0, 6.0, 18.0, 5.0, 4.0, 6.0, 1.0, 17.0, 8.0, 77.0, 4.0, 6.0, 3.0, 9.0, 11.0, 14.0, 11.0, 13.0, 6.0, 8.0, 14.0, 10.0, 3.0, 12.0, 3.0, 4.0, 11.0, 4.0, 6.0, 14.0, 25.0, 4.0, 36.0, 6.0, 7.0, 3.0, 1.0, 9.0, 26.0, 6.0, 4.0, 12.0, 4.0, 22.0, 3.0, 7.0, 5.0, 10.0, 15.0, 12.0, 4.0, 3.0, 5.0, 14.0, 1.0, 5.0, 8.0, 16.0, 12.0, 11.0, 5.0, 11.0, 2.0, 7.0, 8.0, 11.0, 4.0, 7.0, 11.0, 11.0, 7.0, 9.0, 5.0, 21.0, 3.0, 6.0, 2.0, 1.0, 30.0, 2.0, 5.0, 6.0, 5.0, 5.0, 7.0, 8.0, 9.0, 14.0, 0.0, 3.0, 5.0, 5.0, 1.0, 9.0, 2.0, 56.0, 6.0, 5.0, 6.0, 9.0, 3.0, 12.0, 4.0, 8.0, 6.0, 20.0, 0.0, 9.0, 12.0, 5.0, 1.0, 106.0, 13.0, 3.0, 8.0, 2.0, 10.0, 9.0, 6.0, 3.0, 14.0, 14.0, 6.0, 9.0, 4.0, 12.0, 10.0, 6.0, 8.0, 17.0, 5.0, 14.0, 7.0, 2.0, 8.0, 2.0, 6.0, 9.0, 9.0, 2.0, 10.0, 2.0, 15.0, 24.0, 6.0, 6.0, 14.0, 8.0, 9.0, 9.0, 7.0, 3.0, 14.0, 3.0, 5.0, 14.0, 15.0, 3.0, 5.0, 15.0, 7.0, 9.0, 5.0, 7.0, 3.0, 9.0, 4.0, 8.0, 2.0, 4.0, 5.0, 7.0, 15.0, 24.0, 1.0, 8.0, 3.0, 1.0, 7.0, 5.0, 8.0, 4.0, 11.0, 3.0, 32.0, 8.0, 4.0, 8.0, 5.0, 3.0, 10.0, 13.0, 7.0, 7.0, 25.0, 1.0, 14.0, 63.0, 11.0, 4.0, 6.0, 4.0, 7.0, 8.0, 5.0, 14.0, 59.0, 17.0, 1.0, 33.0, 8.0, 3.0, 1.0, 10.0, 1.0, 22.0, 12.0, 11.0, 4.0, 3.0, 8.0, 3.0, 1.0, 5.0, 5.0, 10.0, 3.0, 4.0, 6.0, 15.0, 3.0, 8.0, 6.0, 19.0, 12.0, 8.0, 12.0, 3.0, 6.0, 10.0, 10.0, 2.0, 9.0, 12.0, 1.0, 5.0, 12.0, 4.0, 3.0, 45.0, 3.0, 9.0, 16.0, 4.0, 7.0, 8.0, 3.0, 5.0, 9.0, 2.0, 6.0, 4.0, 3.0, 3.0, 9.0, 12.0, 7.0, 11.0, 15.0, 4.0, 6.0, 3.0, 4.0, 5.0, 25.0, 17.0, 5.0, 15.0, 3.0, 4.0, 6.0, 9.0, 6.0, 6.0, 6.0, 9.0, 4.0, 6.0, 33.0, 9.0, 4.0, 4.0, 9.0, 11.0, 20.0, 1.0, 7.0, 16.0, 4.0, 13.0, 22.0, 26.0, 11.0, 4.0, 7.0, 7.0, 4.0, 5.0, 14.0, 6.0, 4.0, 9.0, 39.0, 4.0, 6.0, 4.0, 5.0, 6.0, 5.0, 5.0, 6.0, 4.0, 40.0, 26.0, 5.0, 10.0, 3.0, 1.0, 17.0, 11.0, 5.0, 3.0, 12.0, 4.0, 7.0, 8.0, 4.0, 6.0, 12.0, 18.0, 5.0, 7.0, 18.0, 10.0, 8.0, 11.0, 10.0, 55.0, 2.0, 7.0, 3.0, 1.0, 7.0, 4.0, 11.0, 18.0, 11.0, 4.0, 5.0, 5.0, 7.0, 13.0, 22.0, 3.0, 23.0, 5.0, 4.0, 10.0, 11.0, 6.0, 10.0, 4.0, 12.0, 7.0, 7.0, 6.0, 6.0, 1.0, 13.0, 14.0, 7.0, 6.0, 4.0, 1.0, 19.0, 5.0, 18.0, 14.0, 6.0, 8.0, 3.0, 6.0, 8.0, 1.0, 5.0, 4.0, 1.0, 11.0, 2.0, 2.0, 6.0, 3.0, 8.0, 3.0, 9.0, 10.0, 7.0, 7.0, 9.0, 1.0, 6.0, 2.0, 8.0, 9.0, 27.0, 5.0, 2.0, 5.0, 2.0, 8.0, 3.0, 3.0, 3.0, 5.0, 7.0, 5.0, 2.0, 10.0, 2.0, 9.0, 13.0, 2.0, 1.0, 5.0, 5.0, 5.0, 2.0, 5.0, 5.0, 17.0, 3.0, 16.0, 12.0, 2.0, 10.0, 4.0, 14.0, 2.0, 15.0, 9.0, 5.0, 21.0, 35.0, 7.0, 6.0, 10.0, 2.0, 6.0, 2.0, 3.0, 8.0, 4.0, 11.0, 6.0, 14.0, 7.0, 7.0, 8.0, 6.0, 8.0, 3.0, 2.0, 10.0, 6.0, 9.0, 9.0, 14.0, 9.0, 3.0, 94.0, 13.0, 13.0, 9.0, 4.0, 9.0, 4.0, 11.0, 18.0, 6.0, 14.0, 8.0, 11.0, 6.0, 24.0, 5.0, 9.0, 10.0, 3.0, 10.0, 3.0, 11.0, 7.0, 11.0, 8.0, 0.0, 3.0, 4.0, 2.0, 11.0, 13.0, 3.0, 5.0, 10.0, 7.0, 3.0, 2.0, 7.0, 2.0, 1.0, 4.0, 8.0, 4.0, 4.0, 4.0, 2.0, 2.0, 15.0, 7.0, 5.0, 4.0, 44.0, 7.0, 35.0, 2.0, 11.0, 9.0, 3.0, 7.0, 6.0, 10.0, 8.0, 16.0, 2.0, 3.0, 6.0, 9.0, 11.0, 8.0, 8.0, 9.0, 2.0, 2.0, 10.0, 1.0, 5.0, 8.0, 3.0, 3.0, 7.0, 8.0, 2.0, 5.0, 4.0, 3.0, 1.0, 2.0, 11.0, 14.0, 30.0, 15.0, 11.0, 5.0, 10.0, 12.0, 2.0, 15.0, 3.0, 5.0, 4.0, 9.0, 6.0, 5.0, 20.0, 10.0, 13.0, 3.0, 5.0, 22.0, 15.0, 8.0, 4.0, 4.0, 8.0, 5.0, 12.0, 10.0, 10.0, 3.0, 11.0, 67.0, 10.0, 4.0, 3.0, 8.0, 9.0, 3.0, 5.0, 6.0, 5.0, 10.0, 46.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 4.0, 19.0, 13.0, 19.0, 6.0, 2.0, 4.0, 7.0, 4.0, 4.0, 3.0, 3.0, 11.0, 16.0, 3.0, 3.0, 7.0, 4.0, 7.0, 26.0, 10.0, 60.0, 24.0, 8.0, 3.0, 4.0, 14.0, 6.0, 14.0, 28.0, 5.0, 4.0, 7.0, 4.0, 9.0, 12.0, 6.0, 5.0, 5.0, 27.0, 32.0, 10.0, 3.0, 6.0, 11.0, 5.0, 11.0, 11.0, 20.0, 7.0, 6.0, 18.0, 3.0, 13.0, 10.0, 5.0, 7.0, 6.0, 11.0, 7.0, 4.0, 5.0, 11.0, 7.0, 4.0, 4.0, 4.0, 2.0, 6.0, 0.0, 7.0, 1.0, 18.0, 1.0, 2.0, 1.0, 1.0, 8.0, 3.0, 8.0, 4.0, 13.0, 11.0, 10.0, 2.0, 4.0, 12.0, 15.0, 6.0, 23.0, 10.0, 4.0, 4.0, 43.0, 15.0, 6.0, 11.0, 13.0, 4.0, 9.0, 13.0, 7.0, 7.0, 5.0, 14.0, 2.0, 5.0, 1.0, 4.0, 2.0, 8.0, 15.0, 5.0, 0.0, 3.0, 23.0, 1.0, 12.0, 14.0, 7.0, 5.0, 6.0, 7.0, 7.0, 5.0, 12.0, 44.0, 5.0, 2.0, 3.0, 1.0, 3.0, 6.0, 2.0, 14.0, 3.0, 10.0, 3.0, 3.0, 3.0, 26.0, 5.0, 6.0, 3.0, 14.0, 6.0, 13.0, 9.0, 3.0, 7.0, 6.0, 3.0, 3.0, 6.0, 3.0, 2.0, 11.0, 6.0, 9.0, 4.0, 8.0, 6.0, 8.0, 10.0, 1.0, 2.0, 4.0, 4.0, 16.0, 55.0, 8.0, 1.0, 45.0, 7.0, 3.0, 2.0, 2.0, 8.0, 5.0, 2.0, 5.0, 11.0, 7.0, 4.0, 2.0, 4.0, 9.0, 25.0, 18.0, 29.0, 17.0, 8.0, 14.0, 18.0, 7.0, 5.0, 4.0, 9.0, 7.0, 4.0, 17.0, 7.0, 2.0, 18.0, 12.0, 16.0, 15.0, 16.0, 3.0, 4.0, 11.0, 19.0, 6.0, 5.0, 5.0, 17.0, 16.0, 10.0, 6.0, 11.0, 7.0, 6.0, 6.0, 9.0, 2.0, 13.0, 2.0, 6.0, 4.0, 13.0, 8.0, 4.0, 4.0, 3.0, 7.0, 3.0, 17.0, 1.0, 6.0, 5.0, 5.0, 5.0, 18.0, 10.0, 12.0, 6.0, 47.0, 6.0, 10.0, 7.0, 10.0, 7.0, 12.0, 6.0, 10.0, 7.0, 9.0, 14.0, 12.0, 10.0, 3.0, 18.0, 6.0, 10.0, 11.0, 1.0, 4.0, 6.0, 13.0, 8.0, 1.0, 9.0, 6.0, 7.0, 5.0, 7.0, 21.0, 9.0, 5.0, 15.0, 2.0, 5.0, 5.0, 12.0, 13.0, 2.0, 21.0, 9.0, 5.0, 7.0, 11.0, 1.0, 12.0, 5.0, 5.0, 1.0, 7.0, 8.0, 2.0, 20.0, 12.0, 17.0, 9.0, 7.0, 12.0, 10.0, 56.0, 4.0, 15.0, 15.0, 9.0, 10.0, 9.0, 6.0, 2.0, 20.0, 18.0, 8.0, 7.0, 16.0, 20.0, 23.0, 8.0, 9.0, 56.0, 3.0, 15.0, 11.0, 15.0, 5.0, 7.0, 10.0, 7.0, 2.0, 1.0, 36.0, 2.0, 7.0, 7.0, 7.0, 2.0, 3.0, 13.0, 8.0, 14.0, 8.0, 1.0, 7.0, 2.0, 7.0, 63.0, 7.0, 11.0, 3.0, 12.0, 11.0, 42.0, 5.0, 8.0, 11.0, 2.0, 8.0, 9.0, 19.0, 40.0, 1.0, 8.0, 4.0, 8.0, 3.0, 19.0, 18.0, 21.0, 6.0, 3.0, 3.0, 6.0, 14.0, 4.0, 10.0, 4.0, 110.0, 18.0, 17.0, 6.0, 10.0, 54.0, 7.0, 5.0, 11.0, 6.0, 27.0, 5.0, 5.0, 18.0, 2.0, 74.0, 13.0, 7.0, 28.0, 28.0, 27.0, 52.0, 7.0, 0.0, 16.0, 8.0, 83.0, 2.0, 22.0, 4.0, 4.0, 10.0, 8.0, 7.0, 7.0, 9.0, 6.0, 20.0, 91.0, 13.0, 35.0, 4.0, 11.0, 8.0, 7.0, 9.0, 4.0, 2.0, 4.0, 4.0, 8.0, 7.0, 43.0, 3.0, 16.0, 6.0, 18.0, 74.0, 12.0, 1.0, 68.0, 3.0, 1.0, 31.0, 5.0, 26.0, 3.0, 3.0, 6.0, 9.0, 6.0, 6.0, 4.0, 32.0, 6.0, 4.0, 10.0, 3.0, 5.0, 2.0, 7.0, 6.0, 40.0, 8.0, 39.0, 18.0, 10.0, 18.0, 6.0, 20.0, 15.0, 5.0, 4.0, 5.0, 21.0, 21.0, 7.0, 9.0, 27.0, 6.0, 3.0, 10.0, 2.0, 13.0, 17.0, 6.0, 1.0, 6.0, 1.0, 34.0, 92.0, 11.0, 9.0, 11.0, 3.0, 4.0, 18.0, 3.0, 18.0, 116.0, 5.0, 10.0, 5.0, 15.0, 56.0, 35.0, 4.0, 11.0, 10.0, 5.0, 5.0, 4.0, 9.0, 3.0, 8.0, 16.0, 14.0, 100.0, 5.0, 7.0, 10.0, 40.0, 3.0, 14.0, 3.0, 145.0, 6.0, 5.0, 11.0, 50.0, 36.0, 1.0, 2.0, 6.0, 9.0, 2.0, 2.0, 62.0, 158.0, 4.0, 15.0, 8.0, 45.0, 29.0, 5.0, 8.0, 12.0, 9.0, 41.0, 2.0, 12.0, 6.0, 6.0, 10.0, 3.0, 13.0, 88.0, 5.0, 12.0, 4.0, 10.0, 30.0, 5.0, 2.0, 16.0, 6.0, 63.0, 23.0, 6.0, 20.0, 2.0, 2.0, 5.0, 5.0, 10.0, 22.0, 123.0, 151.0, 11.0, 2.0, 10.0, 2.0, 17.0, 4.0, 69.0, 90.0, 74.0, 131.0, 51.0, 98.0, 10.0, 10.0, 4.0, 2.0, 15.0, 73.0, 57.0, 3.0, 80.0, 5.0, 8.0, 6.0, 69.0, 4.0, 4.0, 56.0, 91.0, 5.0, 10.0, 28.0, 5.0, 7.0, 2.0, 8.0, 13.0, 1.0, 84.0, 6.0, 7.0, 100.0, 5.0, 10.0, 14.0, 3.0, 19.0, 6.0, 17.0, 9.0, 7.0, 1.0, 9.0, 4.0, 125.0, 89.0, 11.0, 14.0, 1.0, 46.0, 85.0, 2.0, 5.0, 8.0, 3.0, 8.0, 7.0, 7.0, 7.0, 4.0, 6.0, 4.0, 134.0, 9.0, 10.0, 3.0, 11.0, 3.0, 8.0, 13.0, 3.0, 14.0, 1.0, 11.0, 2.0, 16.0, 7.0, 6.0, 74.0, 4.0, 15.0, 1.0, 7.0, 1.0, 7.0, 8.0, 16.0, 136.0, 4.0, 47.0, 11.0, 26.0, 18.0, 3.0, 7.0, 149.0, 13.0, 8.0, 13.0, 2.0, 7.0, 2.0, 8.0, 12.0, 6.0, 2.0, 2.0, 9.0, 2.0, 14.0, 9.0, 6.0, 6.0, 3.0, 8.0, 4.0, 1.0, 3.0, 6.0, 19.0, 13.0, 2.0, 1.0, 1.0, 2.0, 9.0, 5.0, 67.0, 25.0, 0.0, 4.0, 8.0, 6.0, 7.0, 9.0, 1.0, 3.0, 2.0, 4.0, 11.0, 11.0, 1.0, 37.0, 7.0, 14.0, 6.0, 8.0, 3.0, 16.0, 2.0, 3.0, 34.0, 2.0, 6.0, 1.0, 15.0, 7.0, 2.0, 5.0, 19.0, 7.0, 55.0, 1.0, 1.0, 7.0, 3.0, 1.0, 65.0, 8.0, 15.0, 10.0, 5.0, 4.0, 4.0, 9.0, 19.0, 11.0, 27.0, 7.0, 6.0, 7.0, 6.0, 10.0, 1.0, 1.0, 9.0, 67.0, 2.0, 13.0, 19.0, 4.0, 24.0, 12.0, 6.0, 33.0, 35.0, 6.0, 13.0, 74.0, 10.0, 8.0, 7.0, 32.0, 7.0, 11.0, 2.0, 12.0, 7.0, 14.0, 6.0, 26.0, 10.0, 5.0, 4.0, 139.0, 18.0, 5.0, 10.0, 3.0, 13.0, 6.0, 14.0, 17.0, 157.0, 1.0, 21.0, 0.0, 7.0, 17.0, 2.0, 6.0, 3.0, 53.0, 23.0, 8.0, 3.0, 22.0, 8.0, 8.0, 8.0, 7.0, 10.0, 8.0, 15.0, 6.0, 5.0, 4.0, 6.0, 3.0, 19.0, 6.0, 10.0, 27.0, 8.0, 7.0, 6.0, 3.0, 4.0, 1.0, 5.0, 10.0, 27.0, 8.0, 4.0, 7.0, 5.0, 11.0, 6.0, 13.0, 2.0, 6.0, 13.0, 44.0, 4.0, 7.0, 6.0, 4.0, 10.0, 3.0, 22.0, 7.0, 7.0, 10.0, 4.0, 7.0, 9.0, 6.0, 2.0, 11.0, 12.0, 4.0, 15.0, 2.0, 4.0, 11.0, 8.0, 44.0, 3.0, 11.0, 5.0, 6.0, 12.0, 7.0, 30.0, 1.0, 9.0, 5.0, 6.0, 17.0, 9.0, 6.0, 2.0, 5.0, 12.0, 6.0, 14.0, 7.0, 12.0, 2.0, 3.0, 1.0, 6.0, 5.0, 8.0, 11.0, 26.0, 19.0, 8.0, 21.0, 5.0, 4.0, 11.0, 7.0, 5.0, 7.0, 10.0, 14.0, 6.0, 13.0, 18.0, 2.0, 5.0, 15.0, 9.0, 3.0, 5.0, 12.0, 2.0, 12.0, 3.0, 5.0, 13.0, 6.0, 14.0, 9.0, 7.0, 0.0, 3.0, 3.0, 6.0, 13.0, 3.0, 8.0, 1.0, 4.0, 17.0, 6.0, 10.0, 10.0, 8.0, 6.0, 16.0, 8.0, 6.0, 3.0, 4.0, 13.0, 8.0, 8.0, 46.0, 15.0, 7.0, 5.0, 7.0, 7.0, 7.0, 8.0, 1.0, 23.0, 8.0, 4.0, 7.0, 8.0, 10.0, 9.0, 7.0, 3.0, 6.0, 4.0, 1.0, 4.0, 0.0, 9.0, 1.0, 3.0, 9.0, 10.0, 2.0, 6.0, 3.0, 32.0, 6.0, 5.0, 5.0, 4.0, 6.0, 10.0, 10.0, 7.0, 10.0, 4.0, 4.0, 0.0, 62.0, 13.0, 2.0, 4.0, 12.0, 12.0, 13.0, 1.0, 5.0, 8.0, 14.0, 3.0, 25.0, 3.0, 15.0, 50.0, 22.0, 7.0, 8.0, 21.0, 7.0, 12.0, 11.0, 7.0, 0.0, 6.0, 9.0, 12.0, 1.0, 78.0, 12.0, 3.0, 7.0, 5.0, 3.0, 3.0, 3.0, 6.0, 12.0, 17.0, 7.0, 11.0, 8.0, 10.0, 8.0, 30.0, 13.0, 6.0, 7.0, 2.0, 2.0, 7.0, 5.0, 7.0, 13.0, 5.0, 5.0, 10.0, 10.0, 5.0, 8.0, 41.0, 10.0, 2.0, 6.0, 4.0, 13.0, 14.0, 6.0, 13.0, 6.0, 7.0, 5.0, 9.0, 13.0, 4.0, 3.0, 22.0, 3.0, 1.0, 4.0, 7.0, 7.0, 4.0, 5.0, 4.0, 8.0, 4.0, 8.0, 7.0, 9.0, 9.0, 9.0, 8.0, 10.0, 5.0, 1.0, 4.0, 32.0, 14.0, 5.0, 6.0, 7.0, 6.0, 4.0, 14.0, 16.0, 50.0, 5.0, 4.0, 16.0, 6.0, 3.0, 6.0, 12.0, 8.0, 22.0, 9.0, 4.0, 21.0, 4.0, 8.0, 8.0, 7.0, 4.0, 2.0, 3.0, 14.0, 9.0, 2.0, 4.0, 8.0, 23.0, 0.0, 29.0, 7.0, 12.0, 5.0, 6.0, 20.0, 7.0, 9.0, 2.0, 4.0, 4.0, 9.0, 12.0, 11.0, 4.0, 19.0, 3.0, 10.0, 7.0, 6.0, 2.0, 31.0, 6.0, 7.0, 2.0, 3.0, 12.0, 31.0, 10.0, 15.0, 11.0, 20.0, 14.0, 6.0, 13.0, 3.0, 12.0, 12.0, 7.0, 5.0, 5.0, 6.0, 8.0, 5.0, 7.0, 5.0, 3.0, 6.0, 18.0, 6.0, 7.0, 4.0, 5.0, 12.0, 3.0, 16.0, 1.0, 11.0, 7.0, 8.0, 27.0, 3.0, 7.0, 4.0, 7.0, 7.0, 4.0, 13.0, 24.0, 19.0, 20.0, 4.0, 4.0, 0.0, 34.0, 6.0, 4.0, 2.0, 33.0, 2.0, 11.0, 4.0, 3.0, 4.0, 9.0, 15.0, 6.0, 9.0, 9.0, 3.0, 6.0, 34.0, 64.0, 5.0, 5.0, 2.0, 18.0, 7.0, 11.0, 7.0, 7.0, 7.0, 8.0, 4.0, 4.0, 3.0, 8.0, 5.0, 9.0, 9.0, 1.0, 4.0, 7.0, 7.0, 5.0, 6.0, 7.0, 15.0, 15.0, 6.0, 5.0, 6.0, 17.0, 10.0, 11.0, 7.0, 7.0, 3.0, 2.0, 13.0, 2.0, 40.0, 6.0, 16.0, 6.0, 16.0, 9.0, 11.0, 4.0, 3.0, 9.0, 5.0, 0.0, 6.0, 8.0, 5.0, 10.0, 6.0, 3.0, 8.0, 9.0, 2.0, 5.0, 3.0, 9.0, 7.0, 2.0, 8.0, 5.0, 11.0, 7.0, 11.0, 6.0, 14.0, 12.0, 14.0, 14.0, 3.0, 20.0, 7.0, 6.0, 2.0, 4.0, 11.0, 3.0, 3.0, 3.0, 8.0, 29.0, 6.0, 7.0, 8.0, 6.0, 8.0, 15.0, 24.0, 6.0, 6.0, 20.0, 18.0, 38.0, 7.0, 7.0, 6.0, 14.0, 7.0, 14.0, 3.0, 4.0, 4.0, 9.0, 9.0, 9.0, 4.0, 7.0, 10.0, 6.0, 13.0, 4.0, 10.0, 4.0, 10.0, 3.0, 10.0, 6.0, 8.0, 10.0, 44.0, 5.0, 4.0, 1.0, 7.0, 6.0, 7.0, 7.0, 4.0, 9.0, 7.0, 4.0, 22.0, 4.0, 15.0, 13.0, 8.0, 7.0, 31.0, 4.0, 1.0, 11.0, 7.0, 12.0, 17.0, 9.0, 2.0, 7.0, 9.0, 6.0, 9.0, 4.0, 5.0, 5.0, 8.0, 10.0, 15.0, 8.0, 8.0, 1.0, 1.0, 11.0, 4.0, 4.0, 10.0, 5.0, 4.0, 15.0, 9.0, 8.0, 26.0, 3.0, 3.0, 15.0, 1.0, 8.0, 13.0, 9.0, 23.0, 4.0, 17.0, 8.0, 5.0, 8.0, 11.0, 9.0, 14.0, 3.0, 5.0, 4.0, 9.0, 2.0, 10.0, 7.0, 5.0, 6.0, 3.0, 3.0, 9.0, 3.0, 9.0, 5.0, 9.0, 7.0, 6.0, 1.0, 3.0, 11.0, 9.0, 18.0, 18.0, 5.0, 5.0, 11.0, 10.0, 9.0, 6.0, 10.0, 10.0, 8.0, 17.0, 34.0, 6.0, 11.0, 4.0, 6.0, 6.0, 6.0, 16.0, 30.0, 11.0, 5.0, 11.0, 8.0, 17.0, 20.0, 8.0, 5.0, 9.0, 10.0, 10.0, 34.0, 11.0, 21.0, 3.0, 40.0, 14.0, 3.0, 12.0, 4.0, 10.0, 9.0, 7.0, 4.0, 14.0, 8.0, 6.0, 6.0, 7.0, 21.0, 5.0, 4.0, 8.0, 12.0, 7.0, 5.0, 10.0, 7.0, 8.0, 9.0, 16.0, 18.0, 34.0, 7.0, 8.0, 13.0, 18.0, 24.0, 5.0, 10.0, 5.0, 19.0, 63.0, 8.0, 12.0, 10.0, 7.0, 6.0, 6.0, 12.0, 6.0, 6.0, 2.0, 14.0, 7.0, 7.0, 4.0, 7.0, 7.0, 13.0, 18.0, 11.0, 0.0, 0.0, 12.0, 7.0, 13.0, 6.0, 7.0, 11.0, 10.0, 3.0, 11.0, 6.0, 3.0, 13.0, 12.0, 4.0, 3.0, 13.0, 16.0, 14.0, 4.0, 4.0, 13.0, 1.0, 14.0, 8.0, 8.0, 5.0, 4.0, 28.0, 5.0, 11.0, 28.0, 12.0, 6.0, 5.0, 2.0, 8.0, 5.0, 3.0, 7.0, 5.0, 14.0, 7.0, 15.0, 11.0, 6.0, 6.0, 12.0, 48.0, 8.0, 13.0, 5.0, 15.0, 11.0, 4.0, 1.0, 3.0, 4.0, 35.0, 11.0, 5.0, 4.0, 9.0, 4.0, 5.0, 10.0, 12.0, 27.0, 11.0, 12.0, 1.0, 7.0, 4.0, 8.0, 12.0, 13.0, 5.0, 23.0, 2.0, 8.0, 6.0, 9.0, 7.0, 14.0, 14.0, 8.0, 2.0, 6.0, 9.0, 20.0, 14.0, 6.0, 11.0, 5.0, 8.0, 9.0, 5.0, 5.0, 8.0, 13.0, 5.0, 7.0, 6.0, 4.0, 7.0, 5.0, 5.0, 14.0, 7.0, 6.0, 12.0, 5.0, 12.0, 9.0, 3.0, 6.0, 8.0, 15.0, 12.0, 2.0, 0.0, 2.0, 13.0, 9.0, 6.0, 5.0, 21.0, 6.0, 8.0, 13.0, 3.0, 4.0, 7.0, 13.0, 14.0, 15.0, 1.0, 8.0, 78.0, 9.0, 7.0, 2.0, 10.0, 8.0, 7.0, 7.0, 6.0, 2.0, 7.0, 3.0, 8.0, 9.0, 3.0, 13.0, 36.0, 10.0, 5.0, 6.0, 6.0, 14.0, 7.0, 6.0, 11.0, 6.0, 10.0, 7.0, 5.0, 6.0, 7.0, 14.0, 4.0, 6.0, 7.0, 6.0, 1.0, 5.0, 6.0, 10.0, 8.0, 3.0, 10.0, 4.0, 1.0, 14.0, 12.0, 7.0, 9.0, 7.0, 6.0, 1.0, 9.0, 3.0, 9.0, 6.0, 7.0, 6.0, 22.0, 7.0, 8.0, 10.0, 8.0, 14.0, 18.0, 10.0, 8.0, 4.0, 3.0, 8.0, 7.0, 8.0, 10.0, 14.0, 11.0, 6.0, 1.0, 6.0, 30.0, 2.0, 7.0, 14.0, 14.0, 5.0, 4.0, 25.0, 14.0, 4.0, 5.0, 0.0, 26.0, 14.0, 4.0, 14.0, 4.0, 3.0, 18.0, 15.0, 5.0, 7.0, 7.0, 10.0, 12.0, 7.0, 3.0, 3.0, 30.0, 48.0, 5.0, 9.0, 3.0, 17.0, 4.0, 16.0, 5.0, 7.0, 3.0, 9.0, 12.0, 10.0, 10.0, 7.0, 9.0, 16.0, 6.0, 4.0, 9.0, 7.0, 20.0, 7.0, 4.0, 5.0, 6.0, 9.0, 9.0, 6.0, 61.0, 11.0, 10.0, 3.0, 4.0, 7.0, 24.0, 6.0, 10.0, 13.0, 10.0, 5.0, 2.0, 7.0, 6.0, 8.0, 2.0, 5.0, 118.0, 14.0, 35.0, 6.0, 4.0, 12.0, 6.0, 6.0, 16.0, 11.0, 5.0, 5.0, 5.0, 13.0, 20.0, 4.0, 26.0, 1.0, 16.0, 2.0, 15.0, 15.0, 5.0, 9.0, 8.0, 76.0, 6.0, 8.0, 13.0, 12.0, 16.0, 9.0, 18.0, 7.0, 2.0, 3.0, 5.0, 11.0, 12.0, 15.0, 17.0, 6.0, 38.0, 6.0, 15.0, 9.0, 5.0, 7.0, 13.0, 16.0, 31.0, 11.0, 8.0, 8.0, 13.0, 15.0, 14.0, 8.0, 7.0, 2.0, 8.0, 12.0, 6.0, 6.0, 4.0, 5.0, 25.0, 45.0, 29.0, 10.0, 12.0, 16.0, 14.0, 18.0, 0.0, 11.0, 7.0, 13.0, 5.0, 12.0, 33.0, 2.0, 11.0, 42.0, 51.0, 32.0, 11.0, 37.0, 26.0, 24.0, 37.0, 47.0, 40.0, 26.0, 37.0, 57.0, 46.0, 53.0, 33.0, 97.0, 49.0, 67.0, 75.0, 114.0, 43.0, 133.0, 37.0, 77.0, 93.0, 102.0, 83.0, 72.0, 87.0, 66.0, 110.0, 121.0, 122.0, 179.0, 154.0, 174.0]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[3.0, 4.0, 4.0, 3.0, 4.0, 2.0, 8.0, 5.0, 3.0, 2.0, 5.0, 4.0, 7.0, 10.0, 5.0, 8.0, 5.0, 7.0, 6.0, 3.0, 5.0, 5.0, 3.0, 16.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 7.0, 7.0, 0.0, 3.0, 4.0, 6.0, 11.0, 6.0, 5.0, 5.0, 4.0, 5.0, 1.0, 9.0, 5.0, 9.0, 2.0, 7.0, 9.0, 2.0, 3.0, 2.0, 8.0, 9.0, 9.0, 4.0, 2.0, 9.0, 10.0, 8.0, 15.0, 4.0, 18.0, 5.0, 5.0, 5.0, 7.0, 22.0, 8.0, 7.0, 5.0, 5.0, 8.0, 19.0, 3.0, 7.0, 13.0, 4.0, 1.0, 3.0, 9.0, 9.0, 2.0, 5.0, 1.0, 7.0, 8.0, 4.0, 12.0, 2.0, 8.0, 3.0, 5.0, 6.0, 5.0, 9.0, 10.0, 7.0, 10.0, 11.0, 3.0, 5.0, 3.0, 17.0, 13.0, 1.0, 4.0, 4.0, 4.0, 11.0, 3.0, 7.0, 23.0, 8.0, 9.0, 2.0, 4.0, 1.0, 4.0, 9.0, 6.0, 6.0, 3.0, 4.0, 7.0, 5.0, 13.0, 23.0, 8.0, 10.0, 24.0, 16.0, 23.0, 2.0, 1.0, 9.0, 7.0, 6.0, 6.0, 5.0, 6.0, 8.0, 27.0, 8.0, 6.0, 7.0, 11.0, 5.0, 14.0, 3.0, 7.0, 5.0, 19.0, 7.0, 10.0, 8.0, 7.0, 8.0, 6.0, 7.0, 8.0, 1.0, 5.0, 8.0, 2.0, 4.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 9.0, 4.0, 11.0, 21.0, 1.0, 4.0, 10.0, 10.0, 13.0, 15.0, 15.0, 4.0, 12.0, 11.0, 19.0, 6.0, 8.0, 7.0, 19.0, 6.0, 21.0, 9.0, 1.0, 7.0, 6.0, 13.0, 16.0, 7.0, 10.0, 7.0, 35.0, 4.0, 39.0, 19.0, 5.0, 7.0, 4.0, 7.0, 5.0, 17.0, 5.0, 40.0, 13.0, 3.0, 4.0, 11.0, 6.0, 7.0, 6.0, 4.0, 4.0, 49.0, 9.0, 9.0, 14.0, 5.0, 3.0, 14.0, 20.0, 8.0, 3.0, 8.0, 1.0, 1.0, 51.0, 16.0, 18.0, 7.0, 25.0, 3.0, 27.0, 1.0, 30.0, 1.0, 5.0, 2.0, 5.0, 9.0, 12.0, 3.0, 26.0, 9.0, 28.0, 3.0, 8.0, 7.0, 7.0, 19.0, 8.0, 29.0, 1.0, 5.0, 10.0, 15.0, 3.0, 3.0, 8.0, 7.0, 5.0, 23.0, 13.0, 10.0, 20.0, 3.0, 9.0, 10.0, 6.0, 3.0, 18.0, 4.0, 8.0, 2.0, 11.0, 12.0, 4.0, 8.0, 0.0, 19.0, 4.0, 5.0, 23.0, 4.0, 4.0, 14.0, 10.0, 13.0, 26.0, 4.0, 4.0, 5.0, 36.0, 2.0, 6.0, 8.0, 5.0, 12.0, 6.0, 7.0, 14.0, 12.0, 12.0, 7.0, 5.0, 7.0, 12.0, 5.0, 2.0, 14.0, 9.0, 6.0, 8.0, 1.0, 10.0, 25.0, 3.0, 28.0, 8.0, 1.0, 22.0, 8.0, 4.0, 14.0, 7.0, 9.0, 12.0, 12.0, 5.0, 3.0, 5.0, 6.0, 1.0, 6.0, 10.0, 8.0, 3.0, 5.0, 5.0, 6.0, 5.0, 21.0, 9.0, 9.0, 18.0, 1.0, 7.0, 7.0, 2.0, 20.0, 5.0, 11.0, 5.0, 7.0, 19.0, 14.0, 1.0, 21.0, 12.0, 3.0, 24.0, 6.0, 3.0, 4.0, 5.0, 14.0, 8.0, 21.0, 9.0, 21.0, 4.0, 38.0, 30.0, 37.0, 10.0, 10.0, 6.0, 12.0, 9.0, 3.0, 5.0, 20.0, 13.0, 4.0, 10.0, 45.0, 4.0, 10.0, 10.0, 4.0, 4.0, 1.0, 17.0, 1.0, 9.0, 27.0, 18.0, 79.0, 14.0, 8.0, 7.0, 8.0, 2.0, 2.0, 6.0, 23.0, 8.0, 14.0, 1.0, 8.0, 2.0, 7.0, 9.0, 10.0, 9.0, 9.0, 7.0, 3.0, 4.0, 5.0, 6.0, 15.0, 5.0, 3.0, 19.0, 32.0, 7.0, 3.0, 6.0, 2.0, 6.0, 78.0, 4.0, 14.0, 3.0, 47.0, 1.0, 40.0, 20.0, 4.0, 5.0, 7.0, 11.0, 20.0, 4.0, 6.0, 7.0, 8.0, 9.0, 11.0, 15.0, 9.0, 9.0, 66.0, 3.0, 10.0, 2.0, 4.0, 14.0, 14.0, 11.0, 9.0, 7.0, 5.0, 6.0, 6.0, 37.0, 11.0, 6.0, 6.0, 5.0, 32.0, 13.0, 74.0, 6.0, 5.0, 2.0, 7.0, 3.0, 3.0, 26.0, 5.0, 10.0, 7.0, 5.0, 4.0, 9.0, 4.0, 13.0, 18.0, 9.0, 11.0, 8.0, 84.0, 3.0, 13.0, 20.0, 8.0, 14.0, 6.0, 13.0, 5.0, 24.0, 2.0, 5.0, 82.0, 1.0, 2.0, 0.0, 16.0, 2.0, 8.0, 6.0, 6.0, 14.0, 6.0, 28.0, 15.0, 6.0, 24.0, 4.0, 11.0, 3.0, 3.0, 10.0, 2.0, 7.0, 10.0, 7.0, 7.0, 2.0, 21.0, 23.0, 11.0, 31.0, 4.0, 43.0, 54.0, 4.0, 6.0, 5.0, 11.0, 11.0, 5.0, 20.0, 12.0, 5.0, 2.0, 19.0, 49.0, 10.0, 3.0, 5.0, 7.0, 3.0, 20.0, 6.0, 6.0, 14.0, 0.0, 12.0, 8.0, 19.0, 7.0, 11.0, 8.0, 7.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 2.0, 12.0, 5.0, 7.0, 14.0, 2.0, 5.0, 0.0, 51.0, 15.0, 5.0, 1.0, 8.0, 8.0, 1.0, 1.0, 14.0, 3.0, 21.0, 6.0, 2.0, 7.0, 6.0, 6.0, 2.0, 6.0, 3.0, 2.0, 3.0, 4.0, 10.0, 13.0, 1.0, 2.0, 17.0, 0.0, 6.0, 38.0, 4.0, 0.0, 5.0, 7.0, 3.0, 3.0, 15.0, 4.0, 3.0, 1.0, 4.0, 7.0, 10.0, 5.0, 6.0, 12.0, 28.0, 12.0, 65.0, 1.0, 4.0, 12.0, 9.0, 3.0, 20.0, 10.0, 8.0, 5.0, 6.0, 6.0, 12.0, 10.0, 4.0, 4.0, 29.0, 30.0, 4.0, 3.0, 5.0, 4.0, 4.0, 33.0, 6.0, 4.0, 6.0, 9.0, 16.0, 52.0, 11.0, 17.0, 30.0, 39.0, 3.0, 3.0, 5.0, 11.0, 5.0, 6.0, 4.0, 4.0, 5.0, 11.0, 10.0, 11.0, 5.0, 3.0, 5.0, 4.0, 5.0, 5.0, 4.0, 5.0, 7.0, 5.0, 5.0, 12.0, 3.0, 7.0, 5.0, 5.0, 5.0, 12.0, 14.0, 14.0, 5.0, 10.0, 7.0, 8.0, 25.0, 33.0, 31.0, 2.0, 4.0, 40.0, 12.0, 40.0, 16.0, 5.0, 11.0, 4.0, 9.0, 7.0, 10.0, 5.0, 5.0, 5.0, 8.0, 3.0, 8.0, 2.0, 25.0, 11.0, 15.0, 4.0, 5.0, 1.0, 5.0, 1.0, 15.0, 17.0, 46.0, 36.0, 3.0, 4.0, 6.0, 6.0, 7.0, 3.0, 6.0, 3.0, 8.0, 6.0, 2.0, 6.0, 5.0, 2.0, 2.0, 3.0, 8.0, 5.0, 1.0, 5.0, 6.0, 3.0, 5.0, 7.0, 14.0, 2.0, 2.0, 31.0, 3.0, 8.0, 51.0, 20.0, 7.0, 2.0, 6.0, 6.0, 6.0, 5.0, 2.0, 6.0, 10.0, 10.0, 3.0, 14.0, 8.0, 6.0, 17.0, 9.0, 9.0, 14.0, 8.0, 22.0, 7.0, 7.0, 24.0, 28.0, 15.0, 3.0, 7.0, 13.0, 6.0, 2.0, 13.0, 2.0, 24.0, 4.0, 1.0, 4.0, 16.0, 4.0, 9.0, 7.0, 3.0, 5.0, 8.0, 23.0, 3.0, 13.0, 5.0, 3.0, 9.0, 7.0, 5.0, 11.0, 4.0, 11.0, 10.0, 8.0, 7.0, 23.0, 1.0, 3.0, 7.0, 7.0, 4.0, 6.0, 7.0, 4.0, 5.0, 8.0, 5.0, 5.0, 2.0, 8.0, 5.0, 11.0, 7.0, 9.0, 16.0, 4.0, 36.0, 9.0, 7.0, 4.0, 4.0, 14.0, 8.0, 10.0, 8.0, 9.0, 5.0, 4.0, 4.0, 11.0, 12.0, 2.0, 2.0, 9.0, 2.0, 22.0, 29.0, 9.0, 8.0, 10.0, 6.0, 10.0, 4.0, 2.0, 3.0, 9.0, 6.0, 6.0, 6.0, 11.0, 5.0, 3.0, 2.0, 6.0, 9.0, 3.0, 1.0, 12.0, 4.0, 9.0, 3.0, 2.0, 3.0, 33.0, 2.0, 5.0, 2.0, 2.0, 0.0, 11.0, 6.0, 18.0, 5.0, 4.0, 6.0, 1.0, 17.0, 8.0, 77.0, 4.0, 6.0, 3.0, 9.0, 11.0, 14.0, 11.0, 13.0, 6.0, 8.0, 14.0, 10.0, 3.0, 12.0, 3.0, 4.0, 11.0, 4.0, 6.0, 14.0, 25.0, 4.0, 36.0, 6.0, 7.0, 3.0, 1.0, 9.0, 26.0, 6.0, 4.0, 12.0, 4.0, 22.0, 3.0, 7.0, 5.0, 10.0, 15.0, 12.0, 4.0, 3.0, 5.0, 14.0, 1.0, 5.0, 8.0, 16.0, 12.0, 11.0, 5.0, 11.0, 2.0, 7.0, 8.0, 11.0, 4.0, 7.0, 11.0, 11.0, 7.0, 9.0, 5.0, 21.0, 3.0, 6.0, 2.0, 1.0, 30.0, 2.0, 5.0, 6.0, 5.0, 5.0, 7.0, 8.0, 9.0, 14.0, 0.0, 3.0, 5.0, 5.0, 1.0, 9.0, 2.0, 56.0, 6.0, 5.0, 6.0, 9.0, 3.0, 12.0, 4.0, 8.0, 6.0, 20.0, 0.0, 9.0, 12.0, 5.0, 1.0, 13.0, 3.0, 8.0, 2.0, 10.0, 9.0, 6.0, 3.0, 14.0, 14.0, 6.0, 9.0, 4.0, 12.0, 10.0, 6.0, 8.0, 17.0, 5.0, 14.0, 7.0, 2.0, 8.0, 2.0, 6.0, 9.0, 9.0, 2.0, 10.0, 2.0, 15.0, 24.0, 6.0, 6.0, 14.0, 8.0, 9.0, 9.0, 7.0, 3.0, 14.0, 3.0, 5.0, 14.0, 15.0, 3.0, 5.0, 15.0, 7.0, 9.0, 5.0, 7.0, 3.0, 9.0, 4.0, 8.0, 2.0, 4.0, 5.0, 7.0, 15.0, 24.0, 1.0, 8.0, 3.0, 1.0, 7.0, 5.0, 8.0, 4.0, 11.0, 3.0, 32.0, 8.0, 4.0, 8.0, 5.0, 3.0, 10.0, 13.0, 7.0, 7.0, 25.0, 1.0, 14.0, 63.0, 11.0, 4.0, 6.0, 4.0, 7.0, 8.0, 5.0, 14.0, 59.0, 17.0, 1.0, 33.0, 8.0, 3.0, 1.0, 10.0, 1.0, 22.0, 12.0, 11.0, 4.0, 3.0, 8.0, 3.0, 1.0, 5.0, 5.0, 10.0, 3.0, 4.0, 6.0, 15.0, 3.0, 8.0, 6.0, 19.0, 12.0, 8.0, 12.0, 3.0, 6.0, 10.0, 10.0, 2.0, 9.0, 12.0, 1.0, 5.0, 12.0, 4.0, 3.0, 45.0, 3.0, 9.0, 16.0, 4.0, 7.0, 8.0, 3.0, 5.0, 9.0, 2.0, 6.0, 4.0, 3.0, 3.0, 9.0, 12.0, 7.0, 11.0, 15.0, 4.0, 6.0, 3.0, 4.0, 5.0, 25.0, 17.0, 5.0, 15.0, 3.0, 4.0, 6.0, 9.0, 6.0, 6.0, 6.0, 9.0, 4.0, 6.0, 33.0, 9.0, 4.0, 4.0, 9.0, 11.0, 20.0, 1.0, 7.0, 16.0, 4.0, 13.0, 22.0, 26.0, 11.0, 4.0, 7.0, 7.0, 4.0, 5.0, 14.0, 6.0, 4.0, 9.0, 39.0, 4.0, 6.0, 4.0, 5.0, 6.0, 5.0, 5.0, 6.0, 4.0, 40.0, 26.0, 5.0, 10.0, 3.0, 1.0, 17.0, 11.0, 5.0, 3.0, 12.0, 4.0, 7.0, 8.0, 4.0, 6.0, 12.0, 18.0, 5.0, 7.0, 18.0, 10.0, 8.0, 11.0, 10.0, 55.0, 2.0, 7.0, 3.0, 1.0, 7.0, 4.0, 11.0, 18.0, 11.0, 4.0, 5.0, 5.0, 7.0, 13.0, 22.0, 3.0, 23.0, 5.0, 4.0, 10.0, 11.0, 6.0, 10.0, 4.0, 12.0, 7.0, 7.0, 6.0, 6.0, 1.0, 13.0, 14.0, 7.0, 6.0, 4.0, 1.0, 19.0, 5.0, 18.0, 14.0, 6.0, 8.0, 3.0, 6.0, 8.0, 1.0, 5.0, 4.0, 1.0, 11.0, 2.0, 2.0, 6.0, 3.0, 8.0, 3.0, 9.0, 10.0, 7.0, 7.0, 9.0, 1.0, 6.0, 2.0, 8.0, 9.0, 27.0, 5.0, 2.0, 5.0, 2.0, 8.0, 3.0, 3.0, 3.0, 5.0, 7.0, 5.0, 2.0, 10.0, 2.0, 9.0, 13.0, 2.0, 1.0, 5.0, 5.0, 5.0, 2.0, 5.0, 5.0, 17.0, 3.0, 16.0, 12.0, 2.0, 10.0, 4.0, 14.0, 2.0, 15.0, 9.0, 5.0, 21.0, 35.0, 7.0, 6.0, 10.0, 2.0, 6.0, 2.0, 3.0, 8.0, 4.0, 11.0, 6.0, 14.0, 7.0, 7.0, 8.0, 6.0, 8.0, 3.0, 2.0, 10.0, 6.0, 9.0, 9.0, 14.0, 9.0, 3.0, 13.0, 13.0, 9.0, 4.0, 9.0, 4.0, 11.0, 18.0, 6.0, 14.0, 8.0, 11.0, 6.0, 24.0, 5.0, 9.0, 10.0, 3.0, 10.0, 3.0, 11.0, 7.0, 11.0, 8.0, 0.0, 3.0, 4.0, 2.0, 11.0, 13.0, 3.0, 5.0, 10.0, 7.0, 3.0, 2.0, 7.0, 2.0, 1.0, 4.0, 8.0, 4.0, 4.0, 4.0, 2.0, 2.0, 15.0, 7.0, 5.0, 4.0, 44.0, 7.0, 35.0, 2.0, 11.0, 9.0, 3.0, 7.0, 6.0, 10.0, 8.0, 16.0, 2.0, 3.0, 6.0, 9.0, 11.0, 8.0, 8.0, 9.0, 2.0, 2.0, 10.0, 1.0, 5.0, 8.0, 3.0, 3.0, 7.0, 8.0, 2.0, 5.0, 4.0, 3.0, 1.0, 2.0, 11.0, 14.0, 30.0, 15.0, 11.0, 5.0, 10.0, 12.0, 2.0, 15.0, 3.0, 5.0, 4.0, 9.0, 6.0, 5.0, 20.0, 10.0, 13.0, 3.0, 5.0, 22.0, 15.0, 8.0, 4.0, 4.0, 8.0, 5.0, 12.0, 10.0, 10.0, 3.0, 11.0, 67.0, 10.0, 4.0, 3.0, 8.0, 9.0, 3.0, 5.0, 6.0, 5.0, 10.0, 46.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 4.0, 19.0, 13.0, 19.0, 6.0, 2.0, 4.0, 7.0, 4.0, 4.0, 3.0, 3.0, 11.0, 16.0, 3.0, 3.0, 7.0, 4.0, 7.0, 26.0, 10.0, 60.0, 24.0, 8.0, 3.0, 4.0, 14.0, 6.0, 14.0, 28.0, 5.0, 4.0, 7.0, 4.0, 9.0, 12.0, 6.0, 5.0, 5.0, 27.0, 32.0, 10.0, 3.0, 6.0, 11.0, 5.0, 11.0, 11.0, 20.0, 7.0, 6.0, 18.0, 3.0, 13.0, 10.0, 5.0, 7.0, 6.0, 11.0, 7.0, 4.0, 5.0, 11.0, 7.0, 4.0, 4.0, 4.0, 2.0, 6.0, 0.0, 7.0, 1.0, 18.0, 1.0, 2.0, 1.0, 1.0, 8.0, 3.0, 8.0, 4.0, 13.0, 11.0, 10.0, 2.0, 4.0, 12.0, 15.0, 6.0, 23.0, 10.0, 4.0, 4.0, 43.0, 15.0, 6.0, 11.0, 13.0, 4.0, 9.0, 13.0, 7.0, 7.0, 5.0, 14.0, 2.0, 5.0, 1.0, 4.0, 2.0, 8.0, 15.0, 5.0, 0.0, 3.0, 23.0, 1.0, 12.0, 14.0, 7.0, 5.0, 6.0, 7.0, 7.0, 5.0, 12.0, 44.0, 5.0, 2.0, 3.0, 1.0, 3.0, 6.0, 2.0, 14.0, 3.0, 10.0, 3.0, 3.0, 3.0, 26.0, 5.0, 6.0, 3.0, 14.0, 6.0, 13.0, 9.0, 3.0, 7.0, 6.0, 3.0, 3.0, 6.0, 3.0, 2.0, 11.0, 6.0, 9.0, 4.0, 8.0, 6.0, 8.0, 10.0, 1.0, 2.0, 4.0, 4.0, 16.0, 55.0, 8.0, 1.0, 45.0, 7.0, 3.0, 2.0, 2.0, 8.0, 5.0, 2.0, 5.0, 11.0, 7.0, 4.0, 2.0, 4.0, 9.0, 25.0, 18.0, 29.0, 17.0, 8.0, 14.0, 18.0, 7.0, 5.0, 4.0, 9.0, 7.0, 4.0, 17.0, 7.0, 2.0, 18.0, 12.0, 16.0, 15.0, 16.0, 3.0, 4.0, 11.0, 19.0, 6.0, 5.0, 5.0, 17.0, 16.0, 10.0, 6.0, 11.0, 7.0, 6.0, 6.0, 9.0, 2.0, 13.0, 2.0, 6.0, 4.0, 13.0, 8.0, 4.0, 4.0, 3.0, 7.0, 3.0, 17.0, 1.0, 6.0, 5.0, 5.0, 5.0, 18.0, 10.0, 12.0, 6.0, 47.0, 6.0, 10.0, 7.0, 10.0, 7.0, 12.0, 6.0, 10.0, 7.0, 9.0, 14.0, 12.0, 10.0, 3.0, 18.0, 6.0, 10.0, 11.0, 1.0, 4.0, 6.0, 13.0, 8.0, 1.0, 9.0, 6.0, 7.0, 5.0, 7.0, 21.0, 9.0, 5.0, 15.0, 2.0, 5.0, 5.0, 12.0, 13.0, 2.0, 21.0, 9.0, 5.0, 7.0, 11.0, 1.0, 12.0, 5.0, 5.0, 1.0, 7.0, 8.0, 2.0, 20.0, 12.0, 17.0, 9.0, 7.0, 12.0, 10.0, 56.0, 4.0, 15.0, 15.0, 9.0, 10.0, 9.0, 6.0, 2.0, 20.0, 18.0, 8.0, 7.0, 16.0, 20.0, 23.0, 8.0, 9.0, 56.0, 3.0, 15.0, 11.0, 15.0, 5.0, 7.0, 10.0, 7.0, 2.0, 1.0, 36.0, 2.0, 7.0, 7.0, 7.0, 2.0, 3.0, 13.0, 8.0, 14.0, 8.0, 1.0, 7.0, 2.0, 7.0, 63.0, 7.0, 11.0, 3.0, 12.0, 11.0, 42.0, 5.0, 8.0, 11.0, 2.0, 8.0, 9.0, 19.0, 40.0, 1.0, 8.0, 4.0, 8.0, 3.0, 19.0, 18.0, 21.0, 6.0, 3.0, 3.0, 6.0, 14.0, 4.0, 10.0, 4.0, 18.0, 17.0, 6.0, 10.0, 54.0, 7.0, 5.0, 11.0, 6.0, 27.0, 5.0, 5.0, 18.0, 2.0, 74.0, 13.0, 7.0, 28.0, 28.0, 27.0, 52.0, 7.0, 0.0, 16.0, 8.0, 83.0, 2.0, 22.0, 4.0, 4.0, 10.0, 8.0, 7.0, 7.0, 9.0, 6.0, 20.0, 13.0, 35.0, 4.0, 11.0, 8.0, 7.0, 9.0, 4.0, 2.0, 4.0, 4.0, 8.0, 7.0, 43.0, 3.0, 16.0, 6.0, 18.0, 74.0, 12.0, 1.0, 68.0, 3.0, 1.0, 31.0, 5.0, 26.0, 3.0, 3.0, 6.0, 9.0, 6.0, 6.0, 4.0, 32.0, 6.0, 4.0, 10.0, 3.0, 5.0, 2.0, 7.0, 6.0, 40.0, 8.0, 39.0, 18.0, 10.0, 18.0, 6.0, 20.0, 15.0, 5.0, 4.0, 5.0, 21.0, 21.0, 7.0, 9.0, 27.0, 6.0, 3.0, 10.0, 2.0, 13.0, 17.0, 6.0, 1.0, 6.0, 1.0, 34.0, 11.0, 9.0, 11.0, 3.0, 4.0, 18.0, 3.0, 18.0, 5.0, 10.0, 5.0, 15.0, 56.0, 35.0, 4.0, 11.0, 10.0, 5.0, 5.0, 4.0, 9.0, 3.0, 8.0, 16.0, 14.0, 5.0, 7.0, 10.0, 40.0, 3.0, 14.0, 3.0, 6.0, 5.0, 11.0, 50.0, 36.0, 1.0, 2.0, 6.0, 9.0, 2.0, 2.0, 62.0, 4.0, 15.0, 8.0, 45.0, 29.0, 5.0, 8.0, 12.0, 9.0, 41.0, 2.0, 12.0, 6.0, 6.0, 10.0, 3.0, 13.0, 88.0, 5.0, 12.0, 4.0, 10.0, 30.0, 5.0, 2.0, 16.0, 6.0, 63.0, 23.0, 6.0, 20.0, 2.0, 2.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 10.0, 2.0, 17.0, 4.0, 69.0, 74.0, 51.0, 10.0, 10.0, 4.0, 2.0, 15.0, 73.0, 57.0, 3.0, 80.0, 5.0, 8.0, 6.0, 69.0, 4.0, 4.0, 56.0, 5.0, 10.0, 28.0, 5.0, 7.0, 2.0, 8.0, 13.0, 1.0, 84.0, 6.0, 7.0, 5.0, 10.0, 14.0, 3.0, 19.0, 6.0, 17.0, 9.0, 7.0, 1.0, 9.0, 4.0, 89.0, 11.0, 14.0, 1.0, 46.0, 85.0, 2.0, 5.0, 8.0, 3.0, 8.0, 7.0, 7.0, 7.0, 4.0, 6.0, 4.0, 9.0, 10.0, 3.0, 11.0, 3.0, 8.0, 13.0, 3.0, 14.0, 1.0, 11.0, 2.0, 16.0, 7.0, 6.0, 74.0, 4.0, 15.0, 1.0, 7.0, 1.0, 7.0, 8.0, 16.0, 4.0, 47.0, 11.0, 26.0, 18.0, 3.0, 7.0, 13.0, 8.0, 13.0, 2.0, 7.0, 2.0, 8.0, 12.0, 6.0, 2.0, 2.0, 9.0, 2.0, 14.0, 9.0, 6.0, 6.0, 3.0, 8.0, 4.0, 1.0, 3.0, 6.0, 19.0, 13.0, 2.0, 1.0, 1.0, 2.0, 9.0, 5.0, 67.0, 25.0, 0.0, 4.0, 8.0, 6.0, 7.0, 9.0, 1.0, 3.0, 2.0, 4.0, 11.0, 11.0, 1.0, 37.0, 7.0, 14.0, 6.0, 8.0, 3.0, 16.0, 2.0, 3.0, 34.0, 2.0, 6.0, 1.0, 15.0, 7.0, 2.0, 5.0, 19.0, 7.0, 55.0, 1.0, 1.0, 7.0, 3.0, 1.0, 65.0, 8.0, 15.0, 10.0, 5.0, 4.0, 4.0, 9.0, 19.0, 11.0, 27.0, 7.0, 6.0, 7.0, 6.0, 10.0, 1.0, 1.0, 9.0, 67.0, 2.0, 13.0, 19.0, 4.0, 24.0, 12.0, 6.0, 33.0, 35.0, 6.0, 13.0, 74.0, 10.0, 8.0, 7.0, 32.0, 7.0, 11.0, 2.0, 12.0, 7.0, 14.0, 6.0, 26.0, 10.0, 5.0, 4.0, 18.0, 5.0, 10.0, 3.0, 13.0, 6.0, 14.0, 17.0, 1.0, 21.0, 0.0, 7.0, 17.0, 2.0, 6.0, 3.0, 53.0, 23.0, 8.0, 3.0, 22.0, 8.0, 8.0, 8.0, 7.0, 10.0, 8.0, 15.0, 6.0, 5.0, 4.0, 6.0, 3.0, 19.0, 6.0, 10.0, 27.0, 8.0, 7.0, 6.0, 3.0, 4.0, 1.0, 5.0, 10.0, 27.0, 8.0, 4.0, 7.0, 5.0, 11.0, 6.0, 13.0, 2.0, 6.0, 13.0, 44.0, 4.0, 7.0, 6.0, 4.0, 10.0, 3.0, 22.0, 7.0, 7.0, 10.0, 4.0, 7.0, 9.0, 6.0, 2.0, 11.0, 12.0, 4.0, 15.0, 2.0, 4.0, 11.0, 8.0, 44.0, 3.0, 11.0, 5.0, 6.0, 12.0, 7.0, 30.0, 1.0, 9.0, 5.0, 6.0, 17.0, 9.0, 6.0, 2.0, 5.0, 12.0, 6.0, 14.0, 7.0, 12.0, 2.0, 3.0, 1.0, 6.0, 5.0, 8.0, 11.0, 26.0, 19.0, 8.0, 21.0, 5.0, 4.0, 11.0, 7.0, 5.0, 7.0, 10.0, 14.0, 6.0, 13.0, 18.0, 2.0, 5.0, 15.0, 9.0, 3.0, 5.0, 12.0, 2.0, 12.0, 3.0, 5.0, 13.0, 6.0, 14.0, 9.0, 7.0, 0.0, 3.0, 3.0, 6.0, 13.0, 3.0, 8.0, 1.0, 4.0, 17.0, 6.0, 10.0, 10.0, 8.0, 6.0, 16.0, 8.0, 6.0, 3.0, 4.0, 13.0, 8.0, 8.0, 46.0, 15.0, 7.0, 5.0, 7.0, 7.0, 7.0, 8.0, 1.0, 23.0, 8.0, 4.0, 7.0, 8.0, 10.0, 9.0, 7.0, 3.0, 6.0, 4.0, 1.0, 4.0, 0.0, 9.0, 1.0, 3.0, 9.0, 10.0, 2.0, 6.0, 3.0, 32.0, 6.0, 5.0, 5.0, 4.0, 6.0, 10.0, 10.0, 7.0, 10.0, 4.0, 4.0, 0.0, 62.0, 13.0, 2.0, 4.0, 12.0, 12.0, 13.0, 1.0, 5.0, 8.0, 14.0, 3.0, 25.0, 3.0, 15.0, 50.0, 22.0, 7.0, 8.0, 21.0, 7.0, 12.0, 11.0, 7.0, 0.0, 6.0, 9.0, 12.0, 1.0, 78.0, 12.0, 3.0, 7.0, 5.0, 3.0, 3.0, 3.0, 6.0, 12.0, 17.0, 7.0, 11.0, 8.0, 10.0, 8.0, 30.0, 13.0, 6.0, 7.0, 2.0, 2.0, 7.0, 5.0, 7.0, 13.0, 5.0, 5.0, 10.0, 10.0, 5.0, 8.0, 41.0, 10.0, 2.0, 6.0, 4.0, 13.0, 14.0, 6.0, 13.0, 6.0, 7.0, 5.0, 9.0, 13.0, 4.0, 3.0, 22.0, 3.0, 1.0, 4.0, 7.0, 7.0, 4.0, 5.0, 4.0, 8.0, 4.0, 8.0, 7.0, 9.0, 9.0, 9.0, 8.0, 10.0, 5.0, 1.0, 4.0, 32.0, 14.0, 5.0, 6.0, 7.0, 6.0, 4.0, 14.0, 16.0, 50.0, 5.0, 4.0, 16.0, 6.0, 3.0, 6.0, 12.0, 8.0, 22.0, 9.0, 4.0, 21.0, 4.0, 8.0, 8.0, 7.0, 4.0, 2.0, 3.0, 14.0, 9.0, 2.0, 4.0, 8.0, 23.0, 0.0, 29.0, 7.0, 12.0, 5.0, 6.0, 20.0, 7.0, 9.0, 2.0, 4.0, 4.0, 9.0, 12.0, 11.0, 4.0, 19.0, 3.0, 10.0, 7.0, 6.0, 2.0, 31.0, 6.0, 7.0, 2.0, 3.0, 12.0, 31.0, 10.0, 15.0, 11.0, 20.0, 14.0, 6.0, 13.0, 3.0, 12.0, 12.0, 7.0, 5.0, 5.0, 6.0, 8.0, 5.0, 7.0, 5.0, 3.0, 6.0, 18.0, 6.0, 7.0, 4.0, 5.0, 12.0, 3.0, 16.0, 1.0, 11.0, 7.0, 8.0, 27.0, 3.0, 7.0, 4.0, 7.0, 7.0, 4.0, 13.0, 24.0, 19.0, 20.0, 4.0, 4.0, 0.0, 34.0, 6.0, 4.0, 2.0, 33.0, 2.0, 11.0, 4.0, 3.0, 4.0, 9.0, 15.0, 6.0, 9.0, 9.0, 3.0, 6.0, 34.0, 64.0, 5.0, 5.0, 2.0, 18.0, 7.0, 11.0, 7.0, 7.0, 7.0, 8.0, 4.0, 4.0, 3.0, 8.0, 5.0, 9.0, 9.0, 1.0, 4.0, 7.0, 7.0, 5.0, 6.0, 7.0, 15.0, 15.0, 6.0, 5.0, 6.0, 17.0, 10.0, 11.0, 7.0, 7.0, 3.0, 2.0, 13.0, 2.0, 40.0, 6.0, 16.0, 6.0, 16.0, 9.0, 11.0, 4.0, 3.0, 9.0, 5.0, 0.0, 6.0, 8.0, 5.0, 10.0, 6.0, 3.0, 8.0, 9.0, 2.0, 5.0, 3.0, 9.0, 7.0, 2.0, 8.0, 5.0, 11.0, 7.0, 11.0, 6.0, 14.0, 12.0, 14.0, 14.0, 3.0, 20.0, 7.0, 6.0, 2.0, 4.0, 11.0, 3.0, 3.0, 3.0, 8.0, 29.0, 6.0, 7.0, 8.0, 6.0, 8.0, 15.0, 24.0, 6.0, 6.0, 20.0, 18.0, 38.0, 7.0, 7.0, 6.0, 14.0, 7.0, 14.0, 3.0, 4.0, 4.0, 9.0, 9.0, 9.0, 4.0, 7.0, 10.0, 6.0, 13.0, 4.0, 10.0, 4.0, 10.0, 3.0, 10.0, 6.0, 8.0, 10.0, 44.0, 5.0, 4.0, 1.0, 7.0, 6.0, 7.0, 7.0, 4.0, 9.0, 7.0, 4.0, 22.0, 4.0, 15.0, 13.0, 8.0, 7.0, 31.0, 4.0, 1.0, 11.0, 7.0, 12.0, 17.0, 9.0, 2.0, 7.0, 9.0, 6.0, 9.0, 4.0, 5.0, 5.0, 8.0, 10.0, 15.0, 8.0, 8.0, 1.0, 1.0, 11.0, 4.0, 4.0, 10.0, 5.0, 4.0, 15.0, 9.0, 8.0, 26.0, 3.0, 3.0, 15.0, 1.0, 8.0, 13.0, 9.0, 23.0, 4.0, 17.0, 8.0, 5.0, 8.0, 11.0, 9.0, 14.0, 3.0, 5.0, 4.0, 9.0, 2.0, 10.0, 7.0, 5.0, 6.0, 3.0, 3.0, 9.0, 3.0, 9.0, 5.0, 9.0, 7.0, 6.0, 1.0, 3.0, 11.0, 9.0, 18.0, 18.0, 5.0, 5.0, 11.0, 10.0, 9.0, 6.0, 10.0, 10.0, 8.0, 17.0, 34.0, 6.0, 11.0, 4.0, 6.0, 6.0, 6.0, 16.0, 30.0, 11.0, 5.0, 11.0, 8.0, 17.0, 20.0, 8.0, 5.0, 9.0, 10.0, 10.0, 34.0, 11.0, 21.0, 3.0, 40.0, 14.0, 3.0, 12.0, 4.0, 10.0, 9.0, 7.0, 4.0, 14.0, 8.0, 6.0, 6.0, 7.0, 21.0, 5.0, 4.0, 8.0, 12.0, 7.0, 5.0, 10.0, 7.0, 8.0, 9.0, 16.0, 18.0, 34.0, 7.0, 8.0, 13.0, 18.0, 24.0, 5.0, 10.0, 5.0, 19.0, 63.0, 8.0, 12.0, 10.0, 7.0, 6.0, 6.0, 12.0, 6.0, 6.0, 2.0, 14.0, 7.0, 7.0, 4.0, 7.0, 7.0, 13.0, 18.0, 11.0, 0.0, 0.0, 12.0, 7.0, 13.0, 6.0, 7.0, 11.0, 10.0, 3.0, 11.0, 6.0, 3.0, 13.0, 12.0, 4.0, 3.0, 13.0, 16.0, 14.0, 4.0, 4.0, 13.0, 1.0, 14.0, 8.0, 8.0, 5.0, 4.0, 28.0, 5.0, 11.0, 28.0, 12.0, 6.0, 5.0, 2.0, 8.0, 5.0, 3.0, 7.0, 5.0, 14.0, 7.0, 15.0, 11.0, 6.0, 6.0, 12.0, 48.0, 8.0, 13.0, 5.0, 15.0, 11.0, 4.0, 1.0, 3.0, 4.0, 35.0, 11.0, 5.0, 4.0, 9.0, 4.0, 5.0, 10.0, 12.0, 27.0, 11.0, 12.0, 1.0, 7.0, 4.0, 8.0, 12.0, 13.0, 5.0, 23.0, 2.0, 8.0, 6.0, 9.0, 7.0, 14.0, 14.0, 8.0, 2.0, 6.0, 9.0, 20.0, 14.0, 6.0, 11.0, 5.0, 8.0, 9.0, 5.0, 5.0, 8.0, 13.0, 5.0, 7.0, 6.0, 4.0, 7.0, 5.0, 5.0, 14.0, 7.0, 6.0, 12.0, 5.0, 12.0, 9.0, 3.0, 6.0, 8.0, 15.0, 12.0, 2.0, 0.0, 2.0, 13.0, 9.0, 6.0, 5.0, 21.0, 6.0, 8.0, 13.0, 3.0, 4.0, 7.0, 13.0, 14.0, 15.0, 1.0, 8.0, 78.0, 9.0, 7.0, 2.0, 10.0, 8.0, 7.0, 7.0, 6.0, 2.0, 7.0, 3.0, 8.0, 9.0, 3.0, 13.0, 36.0, 10.0, 5.0, 6.0, 6.0, 14.0, 7.0, 6.0, 11.0, 6.0, 10.0, 7.0, 5.0, 6.0, 7.0, 14.0, 4.0, 6.0, 7.0, 6.0, 1.0, 5.0, 6.0, 10.0, 8.0, 3.0, 10.0, 4.0, 1.0, 14.0, 12.0, 7.0, 9.0, 7.0, 6.0, 1.0, 9.0, 3.0, 9.0, 6.0, 7.0, 6.0, 22.0, 7.0, 8.0, 10.0, 8.0, 14.0, 18.0, 10.0, 8.0, 4.0, 3.0, 8.0, 7.0, 8.0, 10.0, 14.0, 11.0, 6.0, 1.0, 6.0, 30.0, 2.0, 7.0, 14.0, 14.0, 5.0, 4.0, 25.0, 14.0, 4.0, 5.0, 0.0, 26.0, 14.0, 4.0, 14.0, 4.0, 3.0, 18.0, 15.0, 5.0, 7.0, 7.0, 10.0, 12.0, 7.0, 3.0, 3.0, 30.0, 48.0, 5.0, 9.0, 3.0, 17.0, 4.0, 16.0, 5.0, 7.0, 3.0, 9.0, 12.0, 10.0, 10.0, 7.0, 9.0, 16.0, 6.0, 4.0, 9.0, 7.0, 20.0, 7.0, 4.0, 5.0, 6.0, 9.0, 9.0, 6.0, 61.0, 11.0, 10.0, 3.0, 4.0, 7.0, 24.0, 6.0, 10.0, 13.0, 10.0, 5.0, 2.0, 7.0, 6.0, 8.0, 2.0, 5.0, 14.0, 35.0, 6.0, 4.0, 12.0, 6.0, 6.0, 16.0, 11.0, 5.0, 5.0, 5.0, 13.0, 20.0, 4.0, 26.0, 1.0, 16.0, 2.0, 15.0, 15.0, 5.0, 9.0, 8.0, 76.0, 6.0, 8.0, 13.0, 12.0, 16.0, 9.0, 18.0, 7.0, 2.0, 3.0, 5.0, 11.0, 12.0, 15.0, 17.0, 6.0, 38.0, 6.0, 15.0, 9.0, 5.0, 7.0, 13.0, 16.0, 31.0, 11.0, 8.0, 8.0, 13.0, 15.0, 14.0, 8.0, 7.0, 2.0, 8.0, 12.0, 6.0, 6.0, 4.0, 5.0, 25.0, 45.0, 29.0, 10.0, 12.0, 16.0, 14.0, 18.0, 0.0, 11.0, 7.0, 13.0, 5.0, 12.0, 33.0, 2.0, 11.0, 42.0, 51.0, 32.0, 11.0, 37.0, 26.0, 24.0, 37.0, 47.0, 40.0, 26.0, 37.0, 57.0, 46.0, 53.0, 33.0, 49.0, 67.0, 75.0, 43.0, 37.0, 77.0, 83.0, 72.0, 87.0, 66.0]</t>
+          <t>[3.0, 4.0, 4.0, 3.0, 4.0, 2.0, 8.0, 5.0, 3.0, 2.0, 5.0, 4.0, 7.0, 10.0, 5.0, 8.0, 5.0, 7.0, 6.0, 3.0, 5.0, 5.0, 3.0, 16.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 7.0, 7.0, 0.0, 3.0, 4.0, 6.0, 11.0, 6.0, 5.0, 5.0, 4.0, 5.0, 1.0, 9.0, 5.0, 9.0, 2.0, 7.0, 9.0, 2.0, 3.0, 2.0, 8.0, 9.0, 9.0, 4.0, 2.0, 9.0, 10.0, 8.0, 15.0, 4.0, 18.0, 5.0, 5.0, 5.0, 7.0, 22.0, 8.0, 7.0, 5.0, 5.0, 8.0, 19.0, 3.0, 7.0, 13.0, 4.0, 1.0, 3.0, 9.0, 9.0, 2.0, 5.0, 1.0, 7.0, 8.0, 4.0, 12.0, 2.0, 8.0, 3.0, 5.0, 6.0, 5.0, 9.0, 10.0, 7.0, 10.0, 11.0, 3.0, 5.0, 3.0, 17.0, 13.0, 1.0, 4.0, 4.0, 4.0, 11.0, 3.0, 7.0, 23.0, 8.0, 9.0, 2.0, 4.0, 1.0, 4.0, 9.0, 6.0, 6.0, 3.0, 4.0, 7.0, 5.0, 13.0, 23.0, 8.0, 10.0, 24.0, 16.0, 23.0, 2.0, 1.0, 9.0, 7.0, 6.0, 6.0, 5.0, 6.0, 8.0, 27.0, 8.0, 6.0, 7.0, 11.0, 5.0, 14.0, 3.0, 7.0, 5.0, 19.0, 7.0, 10.0, 8.0, 7.0, 8.0, 6.0, 7.0, 8.0, 1.0, 5.0, 8.0, 2.0, 4.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 9.0, 4.0, 11.0, 21.0, 1.0, 4.0, 10.0, 10.0, 13.0, 15.0, 15.0, 4.0, 12.0, 11.0, 19.0, 6.0, 8.0, 7.0, 19.0, 6.0, 21.0, 9.0, 1.0, 7.0, 6.0, 13.0, 16.0, 7.0, 10.0, 7.0, 35.0, 4.0, 39.0, 19.0, 5.0, 7.0, 4.0, 7.0, 5.0, 17.0, 5.0, 40.0, 13.0, 3.0, 4.0, 11.0, 6.0, 7.0, 6.0, 4.0, 4.0, 49.0, 9.0, 9.0, 14.0, 5.0, 3.0, 14.0, 20.0, 8.0, 3.0, 8.0, 1.0, 1.0, 51.0, 16.0, 18.0, 7.0, 25.0, 3.0, 27.0, 1.0, 30.0, 1.0, 5.0, 2.0, 5.0, 9.0, 12.0, 3.0, 26.0, 9.0, 28.0, 3.0, 8.0, 7.0, 7.0, 19.0, 8.0, 29.0, 1.0, 5.0, 10.0, 15.0, 3.0, 3.0, 8.0, 7.0, 5.0, 23.0, 13.0, 10.0, 20.0, 3.0, 9.0, 10.0, 6.0, 3.0, 18.0, 4.0, 8.0, 2.0, 11.0, 12.0, 4.0, 8.0, 0.0, 19.0, 4.0, 5.0, 23.0, 4.0, 4.0, 14.0, 10.0, 13.0, 26.0, 4.0, 4.0, 5.0, 36.0, 2.0, 6.0, 8.0, 5.0, 12.0, 6.0, 7.0, 14.0, 12.0, 12.0, 7.0, 5.0, 7.0, 12.0, 5.0, 2.0, 14.0, 9.0, 6.0, 8.0, 1.0, 10.0, 25.0, 3.0, 28.0, 8.0, 1.0, 22.0, 8.0, 4.0, 14.0, 7.0, 9.0, 12.0, 12.0, 5.0, 3.0, 5.0, 6.0, 1.0, 6.0, 10.0, 8.0, 3.0, 5.0, 5.0, 6.0, 5.0, 21.0, 9.0, 9.0, 18.0, 1.0, 7.0, 7.0, 2.0, 20.0, 5.0, 11.0, 5.0, 7.0, 19.0, 14.0, 1.0, 21.0, 12.0, 3.0, 24.0, 6.0, 3.0, 4.0, 5.0, 14.0, 8.0, 21.0, 9.0, 21.0, 4.0, 38.0, 30.0, 37.0, 10.0, 10.0, 6.0, 12.0, 9.0, 3.0, 5.0, 20.0, 13.0, 4.0, 10.0, 45.0, 4.0, 10.0, 10.0, 4.0, 4.0, 1.0, 17.0, 1.0, 9.0, 27.0, 18.0, 79.0, 14.0, 8.0, 7.0, 8.0, 2.0, 2.0, 6.0, 23.0, 8.0, 14.0, 1.0, 8.0, 2.0, 7.0, 9.0, 10.0, 9.0, 9.0, 7.0, 3.0, 4.0, 5.0, 6.0, 15.0, 5.0, 3.0, 19.0, 32.0, 7.0, 3.0, 6.0, 2.0, 6.0, 78.0, 4.0, 14.0, 3.0, 47.0, 1.0, 40.0, 20.0, 4.0, 5.0, 7.0, 11.0, 20.0, 4.0, 6.0, 7.0, 8.0, 9.0, 11.0, 15.0, 9.0, 9.0, 66.0, 3.0, 10.0, 2.0, 4.0, 14.0, 14.0, 11.0, 9.0, 7.0, 5.0, 6.0, 6.0, 37.0, 11.0, 6.0, 6.0, 5.0, 32.0, 13.0, 74.0, 6.0, 5.0, 2.0, 7.0, 3.0, 3.0, 26.0, 5.0, 10.0, 7.0, 5.0, 4.0, 9.0, 4.0, 13.0, 18.0, 9.0, 11.0, 8.0, 84.0, 3.0, 13.0, 20.0, 8.0, 14.0, 6.0, 13.0, 5.0, 24.0, 2.0, 5.0, 82.0, 1.0, 2.0, 0.0, 16.0, 2.0, 8.0, 6.0, 6.0, 14.0, 6.0, 28.0, 15.0, 6.0, 24.0, 4.0, 11.0, 3.0, 3.0, 10.0, 2.0, 7.0, 10.0, 7.0, 7.0, 2.0, 21.0, 23.0, 11.0, 31.0, 4.0, 43.0, 54.0, 4.0, 6.0, 5.0, 11.0, 11.0, 5.0, 20.0, 12.0, 5.0, 2.0, 19.0, 49.0, 10.0, 3.0, 5.0, 7.0, 3.0, 20.0, 6.0, 6.0, 14.0, 0.0, 12.0, 8.0, 19.0, 7.0, 11.0, 8.0, 7.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 2.0, 12.0, 5.0, 7.0, 14.0, 2.0, 5.0, 0.0, 51.0, 15.0, 5.0, 1.0, 8.0, 8.0, 1.0, 1.0, 14.0, 3.0, 21.0, 6.0, 2.0, 7.0, 6.0, 6.0, 2.0, 6.0, 3.0, 2.0, 3.0, 4.0, 10.0, 13.0, 1.0, 2.0, 17.0, 0.0, 6.0, 38.0, 4.0, 0.0, 5.0, 7.0, 3.0, 3.0, 15.0, 4.0, 3.0, 1.0, 4.0, 7.0, 10.0, 5.0, 6.0, 12.0, 28.0, 12.0, 65.0, 1.0, 4.0, 12.0, 9.0, 3.0, 20.0, 10.0, 8.0, 5.0, 6.0, 6.0, 12.0, 10.0, 4.0, 4.0, 29.0, 30.0, 4.0, 3.0, 5.0, 4.0, 4.0, 33.0, 6.0, 4.0, 6.0, 9.0, 16.0, 52.0, 11.0, 17.0, 30.0, 39.0, 3.0, 3.0, 5.0, 11.0, 5.0, 6.0, 4.0, 4.0, 5.0, 11.0, 10.0, 11.0, 5.0, 3.0, 5.0, 4.0, 5.0, 5.0, 4.0, 5.0, 7.0, 5.0, 5.0, 12.0, 3.0, 7.0, 5.0, 5.0, 5.0, 12.0, 14.0, 14.0, 5.0, 10.0, 7.0, 8.0, 25.0, 33.0, 31.0, 2.0, 4.0, 40.0, 12.0, 40.0, 16.0, 5.0, 11.0, 4.0, 9.0, 7.0, 10.0, 5.0, 5.0, 5.0, 8.0, 3.0, 8.0, 2.0, 25.0, 11.0, 15.0, 4.0, 5.0, 1.0, 5.0, 1.0, 15.0, 17.0, 46.0, 36.0, 3.0, 4.0, 6.0, 6.0, 7.0, 3.0, 6.0, 3.0, 8.0, 6.0, 2.0, 6.0, 5.0, 2.0, 2.0, 3.0, 8.0, 5.0, 1.0, 5.0, 6.0, 3.0, 5.0, 7.0, 14.0, 2.0, 2.0, 31.0, 3.0, 8.0, 51.0, 20.0, 7.0, 2.0, 6.0, 6.0, 6.0, 5.0, 2.0, 6.0, 10.0, 10.0, 3.0, 14.0, 8.0, 92.0, 6.0, 17.0, 9.0, 9.0, 14.0, 8.0, 22.0, 7.0, 7.0, 24.0, 28.0, 15.0, 3.0, 7.0, 13.0, 6.0, 2.0, 13.0, 2.0, 24.0, 4.0, 1.0, 4.0, 16.0, 4.0, 9.0, 7.0, 3.0, 5.0, 8.0, 23.0, 3.0, 13.0, 5.0, 3.0, 9.0, 7.0, 5.0, 11.0, 4.0, 11.0, 10.0, 8.0, 7.0, 23.0, 1.0, 3.0, 7.0, 7.0, 4.0, 6.0, 7.0, 4.0, 5.0, 8.0, 5.0, 5.0, 2.0, 8.0, 5.0, 11.0, 7.0, 9.0, 16.0, 4.0, 36.0, 9.0, 7.0, 4.0, 4.0, 14.0, 8.0, 10.0, 8.0, 9.0, 5.0, 4.0, 4.0, 11.0, 12.0, 2.0, 2.0, 9.0, 2.0, 22.0, 29.0, 9.0, 8.0, 10.0, 6.0, 10.0, 4.0, 2.0, 3.0, 9.0, 6.0, 6.0, 6.0, 11.0, 5.0, 3.0, 2.0, 6.0, 9.0, 3.0, 1.0, 12.0, 4.0, 9.0, 3.0, 2.0, 3.0, 33.0, 2.0, 5.0, 2.0, 2.0, 0.0, 11.0, 6.0, 18.0, 5.0, 4.0, 6.0, 1.0, 17.0, 8.0, 77.0, 4.0, 6.0, 3.0, 9.0, 11.0, 14.0, 11.0, 13.0, 6.0, 8.0, 14.0, 10.0, 3.0, 12.0, 3.0, 4.0, 11.0, 4.0, 6.0, 14.0, 25.0, 4.0, 36.0, 6.0, 7.0, 3.0, 1.0, 9.0, 26.0, 6.0, 4.0, 12.0, 4.0, 22.0, 3.0, 7.0, 5.0, 10.0, 15.0, 12.0, 4.0, 3.0, 5.0, 14.0, 1.0, 5.0, 8.0, 16.0, 12.0, 11.0, 5.0, 11.0, 2.0, 7.0, 8.0, 11.0, 4.0, 7.0, 11.0, 11.0, 7.0, 9.0, 5.0, 21.0, 3.0, 6.0, 2.0, 1.0, 30.0, 2.0, 5.0, 6.0, 5.0, 5.0, 7.0, 8.0, 9.0, 14.0, 0.0, 3.0, 5.0, 5.0, 1.0, 9.0, 2.0, 56.0, 6.0, 5.0, 6.0, 9.0, 3.0, 12.0, 4.0, 8.0, 6.0, 20.0, 0.0, 9.0, 12.0, 5.0, 1.0, 106.0, 13.0, 3.0, 8.0, 2.0, 10.0, 9.0, 6.0, 3.0, 14.0, 14.0, 6.0, 9.0, 4.0, 12.0, 10.0, 6.0, 8.0, 17.0, 5.0, 14.0, 7.0, 2.0, 8.0, 2.0, 6.0, 9.0, 9.0, 2.0, 10.0, 2.0, 15.0, 24.0, 6.0, 6.0, 14.0, 8.0, 9.0, 9.0, 7.0, 3.0, 14.0, 3.0, 5.0, 14.0, 15.0, 3.0, 5.0, 15.0, 7.0, 9.0, 5.0, 7.0, 3.0, 9.0, 4.0, 8.0, 2.0, 4.0, 5.0, 7.0, 15.0, 24.0, 1.0, 8.0, 3.0, 1.0, 7.0, 5.0, 8.0, 4.0, 11.0, 3.0, 32.0, 8.0, 4.0, 8.0, 5.0, 3.0, 10.0, 13.0, 7.0, 7.0, 25.0, 1.0, 14.0, 63.0, 11.0, 4.0, 6.0, 4.0, 7.0, 8.0, 5.0, 14.0, 59.0, 17.0, 1.0, 33.0, 8.0, 3.0, 1.0, 10.0, 1.0, 22.0, 12.0, 11.0, 4.0, 3.0, 8.0, 3.0, 1.0, 5.0, 5.0, 10.0, 3.0, 4.0, 6.0, 15.0, 3.0, 8.0, 6.0, 19.0, 12.0, 8.0, 12.0, 3.0, 6.0, 10.0, 10.0, 2.0, 9.0, 12.0, 1.0, 5.0, 12.0, 4.0, 3.0, 45.0, 3.0, 9.0, 16.0, 4.0, 7.0, 8.0, 3.0, 5.0, 9.0, 2.0, 6.0, 4.0, 3.0, 3.0, 9.0, 12.0, 7.0, 11.0, 15.0, 4.0, 6.0, 3.0, 4.0, 5.0, 25.0, 17.0, 5.0, 15.0, 3.0, 4.0, 6.0, 9.0, 6.0, 6.0, 6.0, 9.0, 4.0, 6.0, 33.0, 9.0, 4.0, 4.0, 9.0, 11.0, 20.0, 1.0, 7.0, 16.0, 4.0, 13.0, 22.0, 26.0, 11.0, 4.0, 7.0, 7.0, 4.0, 5.0, 14.0, 6.0, 4.0, 9.0, 39.0, 4.0, 6.0, 4.0, 5.0, 6.0, 5.0, 5.0, 6.0, 4.0, 40.0, 26.0, 5.0, 10.0, 3.0, 1.0, 17.0, 11.0, 5.0, 3.0, 12.0, 4.0, 7.0, 8.0, 4.0, 6.0, 12.0, 18.0, 5.0, 7.0, 18.0, 10.0, 8.0, 11.0, 10.0, 55.0, 2.0, 7.0, 3.0, 1.0, 7.0, 4.0, 11.0, 18.0, 11.0, 4.0, 5.0, 5.0, 7.0, 13.0, 22.0, 3.0, 23.0, 5.0, 4.0, 10.0, 11.0, 6.0, 10.0, 4.0, 12.0, 7.0, 7.0, 6.0, 6.0, 1.0, 13.0, 14.0, 7.0, 6.0, 4.0, 1.0, 19.0, 5.0, 18.0, 14.0, 6.0, 8.0, 3.0, 6.0, 8.0, 1.0, 5.0, 4.0, 1.0, 11.0, 2.0, 2.0, 6.0, 3.0, 8.0, 3.0, 9.0, 10.0, 7.0, 7.0, 9.0, 1.0, 6.0, 2.0, 8.0, 9.0, 27.0, 5.0, 2.0, 5.0, 2.0, 8.0, 3.0, 3.0, 3.0, 5.0, 7.0, 5.0, 2.0, 10.0, 2.0, 9.0, 13.0, 2.0, 1.0, 5.0, 5.0, 5.0, 2.0, 5.0, 5.0, 17.0, 3.0, 16.0, 12.0, 2.0, 10.0, 4.0, 14.0, 2.0, 15.0, 9.0, 5.0, 21.0, 35.0, 7.0, 6.0, 10.0, 2.0, 6.0, 2.0, 3.0, 8.0, 4.0, 11.0, 6.0, 14.0, 7.0, 7.0, 8.0, 6.0, 8.0, 3.0, 2.0, 10.0, 6.0, 9.0, 9.0, 14.0, 9.0, 3.0, 94.0, 13.0, 13.0, 9.0, 4.0, 9.0, 4.0, 11.0, 18.0, 6.0, 14.0, 8.0, 11.0, 6.0, 24.0, 5.0, 9.0, 10.0, 3.0, 10.0, 3.0, 11.0, 7.0, 11.0, 8.0, 0.0, 3.0, 4.0, 2.0, 11.0, 13.0, 3.0, 5.0, 10.0, 7.0, 3.0, 2.0, 7.0, 2.0, 1.0, 4.0, 8.0, 4.0, 4.0, 4.0, 2.0, 2.0, 15.0, 7.0, 5.0, 4.0, 44.0, 7.0, 35.0, 2.0, 11.0, 9.0, 3.0, 7.0, 6.0, 10.0, 8.0, 16.0, 2.0, 3.0, 6.0, 9.0, 11.0, 8.0, 8.0, 9.0, 2.0, 2.0, 10.0, 1.0, 5.0, 8.0, 3.0, 3.0, 7.0, 8.0, 2.0, 5.0, 4.0, 3.0, 1.0, 2.0, 11.0, 14.0, 30.0, 15.0, 11.0, 5.0, 10.0, 12.0, 2.0, 15.0, 3.0, 5.0, 4.0, 9.0, 6.0, 5.0, 20.0, 10.0, 13.0, 3.0, 5.0, 22.0, 15.0, 8.0, 4.0, 4.0, 8.0, 5.0, 12.0, 10.0, 10.0, 3.0, 11.0, 67.0, 10.0, 4.0, 3.0, 8.0, 9.0, 3.0, 5.0, 6.0, 5.0, 10.0, 46.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 4.0, 19.0, 13.0, 19.0, 6.0, 2.0, 4.0, 7.0, 4.0, 4.0, 3.0, 3.0, 11.0, 16.0, 3.0, 3.0, 7.0, 4.0, 7.0, 26.0, 10.0, 60.0, 24.0, 8.0, 3.0, 4.0, 14.0, 6.0, 14.0, 28.0, 5.0, 4.0, 7.0, 4.0, 9.0, 12.0, 6.0, 5.0, 5.0, 27.0, 32.0, 10.0, 3.0, 6.0, 11.0, 5.0, 11.0, 11.0, 20.0, 7.0, 6.0, 18.0, 3.0, 13.0, 10.0, 5.0, 7.0, 6.0, 11.0, 7.0, 4.0, 5.0, 11.0, 7.0, 4.0, 4.0, 4.0, 2.0, 6.0, 0.0, 7.0, 1.0, 18.0, 1.0, 2.0, 1.0, 1.0, 8.0, 3.0, 8.0, 4.0, 13.0, 11.0, 10.0, 2.0, 4.0, 12.0, 15.0, 6.0, 23.0, 10.0, 4.0, 4.0, 43.0, 15.0, 6.0, 11.0, 13.0, 4.0, 9.0, 13.0, 7.0, 7.0, 5.0, 14.0, 2.0, 5.0, 1.0, 4.0, 2.0, 8.0, 15.0, 5.0, 0.0, 3.0, 23.0, 1.0, 12.0, 14.0, 7.0, 5.0, 6.0, 7.0, 7.0, 5.0, 12.0, 44.0, 5.0, 2.0, 3.0, 1.0, 3.0, 6.0, 2.0, 14.0, 3.0, 10.0, 3.0, 3.0, 3.0, 26.0, 5.0, 6.0, 3.0, 14.0, 6.0, 13.0, 9.0, 3.0, 7.0, 6.0, 3.0, 3.0, 6.0, 3.0, 2.0, 11.0, 6.0, 9.0, 4.0, 8.0, 6.0, 8.0, 10.0, 1.0, 2.0, 4.0, 4.0, 16.0, 55.0, 8.0, 1.0, 45.0, 7.0, 3.0, 2.0, 2.0, 8.0, 5.0, 2.0, 5.0, 11.0, 7.0, 4.0, 2.0, 4.0, 9.0, 25.0, 18.0, 29.0, 17.0, 8.0, 14.0, 18.0, 7.0, 5.0, 4.0, 9.0, 7.0, 4.0, 17.0, 7.0, 2.0, 18.0, 12.0, 16.0, 15.0, 16.0, 3.0, 4.0, 11.0, 19.0, 6.0, 5.0, 5.0, 17.0, 16.0, 10.0, 6.0, 11.0, 7.0, 6.0, 6.0, 9.0, 2.0, 13.0, 2.0, 6.0, 4.0, 13.0, 8.0, 4.0, 4.0, 3.0, 7.0, 3.0, 17.0, 1.0, 6.0, 5.0, 5.0, 5.0, 18.0, 10.0, 12.0, 6.0, 47.0, 6.0, 10.0, 7.0, 10.0, 7.0, 12.0, 6.0, 10.0, 7.0, 9.0, 14.0, 12.0, 10.0, 3.0, 18.0, 6.0, 10.0, 11.0, 1.0, 4.0, 6.0, 13.0, 8.0, 1.0, 9.0, 6.0, 7.0, 5.0, 7.0, 21.0, 9.0, 5.0, 15.0, 2.0, 5.0, 5.0, 12.0, 13.0, 2.0, 21.0, 9.0, 5.0, 7.0, 11.0, 1.0, 12.0, 5.0, 5.0, 1.0, 7.0, 8.0, 2.0, 20.0, 12.0, 17.0, 9.0, 7.0, 12.0, 10.0, 56.0, 4.0, 15.0, 15.0, 9.0, 10.0, 9.0, 6.0, 2.0, 20.0, 18.0, 8.0, 7.0, 16.0, 20.0, 23.0, 8.0, 9.0, 56.0, 3.0, 15.0, 11.0, 15.0, 5.0, 7.0, 10.0, 7.0, 2.0, 1.0, 36.0, 2.0, 7.0, 7.0, 7.0, 2.0, 3.0, 13.0, 8.0, 14.0, 8.0, 1.0, 7.0, 2.0, 7.0, 63.0, 7.0, 11.0, 3.0, 12.0, 11.0, 42.0, 5.0, 8.0, 11.0, 2.0, 8.0, 9.0, 19.0, 40.0, 1.0, 8.0, 4.0, 8.0, 3.0, 19.0, 18.0, 21.0, 6.0, 3.0, 3.0, 6.0, 14.0, 4.0, 10.0, 4.0, 110.0, 18.0, 17.0, 6.0, 10.0, 54.0, 7.0, 5.0, 11.0, 6.0, 27.0, 5.0, 5.0, 18.0, 2.0, 74.0, 13.0, 7.0, 28.0, 28.0, 27.0, 52.0, 7.0, 0.0, 16.0, 8.0, 83.0, 2.0, 22.0, 4.0, 4.0, 10.0, 8.0, 7.0, 7.0, 9.0, 6.0, 20.0, 91.0, 13.0, 35.0, 4.0, 11.0, 8.0, 7.0, 9.0, 4.0, 2.0, 4.0, 4.0, 8.0, 7.0, 43.0, 3.0, 16.0, 6.0, 18.0, 74.0, 12.0, 1.0, 68.0, 3.0, 1.0, 31.0, 5.0, 26.0, 3.0, 3.0, 6.0, 9.0, 6.0, 6.0, 4.0, 32.0, 6.0, 4.0, 10.0, 3.0, 5.0, 2.0, 7.0, 6.0, 40.0, 8.0, 39.0, 18.0, 10.0, 18.0, 6.0, 20.0, 15.0, 5.0, 4.0, 5.0, 21.0, 21.0, 7.0, 9.0, 27.0, 6.0, 3.0, 10.0, 2.0, 13.0, 17.0, 6.0, 1.0, 6.0, 1.0, 34.0, 92.0, 11.0, 9.0, 11.0, 3.0, 4.0, 18.0, 3.0, 18.0, 116.0, 5.0, 10.0, 5.0, 15.0, 56.0, 35.0, 4.0, 11.0, 10.0, 5.0, 5.0, 4.0, 9.0, 3.0, 8.0, 16.0, 14.0, 100.0, 5.0, 7.0, 10.0, 40.0, 3.0, 14.0, 3.0, 145.0, 6.0, 5.0, 11.0, 50.0, 36.0, 1.0, 2.0, 6.0, 9.0, 2.0, 2.0, 62.0, 158.0, 4.0, 15.0, 8.0, 45.0, 29.0, 5.0, 8.0, 12.0, 9.0, 41.0, 2.0, 12.0, 6.0, 6.0, 10.0, 3.0, 13.0, 88.0, 5.0, 12.0, 4.0, 10.0, 30.0, 5.0, 2.0, 16.0, 6.0, 63.0, 23.0, 6.0, 20.0, 2.0, 2.0, 5.0, 5.0, 10.0, 22.0, 123.0, 151.0, 11.0, 2.0, 10.0, 2.0, 17.0, 4.0, 69.0, 90.0, 74.0, 131.0, 51.0, 98.0, 10.0, 10.0, 4.0, 2.0, 15.0, 73.0, 57.0, 3.0, 80.0, 5.0, 8.0, 6.0, 69.0, 4.0, 4.0, 56.0, 91.0, 5.0, 10.0, 28.0, 5.0, 7.0, 2.0, 8.0, 13.0, 1.0, 84.0, 6.0, 7.0, 100.0, 5.0, 10.0, 14.0, 3.0, 19.0, 6.0, 17.0, 9.0, 7.0, 1.0, 9.0, 4.0, 125.0, 89.0, 11.0, 14.0, 1.0, 46.0, 85.0, 2.0, 5.0, 8.0, 3.0, 8.0, 7.0, 7.0, 7.0, 4.0, 6.0, 4.0, 134.0, 9.0, 10.0, 3.0, 11.0, 3.0, 8.0, 13.0, 3.0, 14.0, 1.0, 11.0, 2.0, 16.0, 7.0, 6.0, 74.0, 4.0, 15.0, 1.0, 7.0, 1.0, 7.0, 8.0, 16.0, 136.0, 4.0, 47.0, 11.0, 26.0, 18.0, 3.0, 7.0, 149.0, 13.0, 8.0, 13.0, 2.0, 7.0, 2.0, 8.0, 12.0, 6.0, 2.0, 2.0, 9.0, 2.0, 14.0, 9.0, 6.0, 6.0, 3.0, 8.0, 4.0, 1.0, 3.0, 6.0, 19.0, 13.0, 2.0, 1.0, 1.0, 2.0, 9.0, 5.0, 67.0, 25.0, 0.0, 4.0, 8.0, 6.0, 7.0, 9.0, 1.0, 3.0, 2.0, 4.0, 11.0, 11.0, 1.0, 37.0, 7.0, 14.0, 6.0, 8.0, 3.0, 16.0, 2.0, 3.0, 34.0, 2.0, 6.0, 1.0, 15.0, 7.0, 2.0, 5.0, 19.0, 7.0, 55.0, 1.0, 1.0, 7.0, 3.0, 1.0, 65.0, 8.0, 15.0, 10.0, 5.0, 4.0, 4.0, 9.0, 19.0, 11.0, 27.0, 7.0, 6.0, 7.0, 6.0, 10.0, 1.0, 1.0, 9.0, 67.0, 2.0, 13.0, 19.0, 4.0, 24.0, 12.0, 6.0, 33.0, 35.0, 6.0, 13.0, 74.0, 10.0, 8.0, 7.0, 32.0, 7.0, 11.0, 2.0, 12.0, 7.0, 14.0, 6.0, 26.0, 10.0, 5.0, 4.0, 139.0, 18.0, 5.0, 10.0, 3.0, 13.0, 6.0, 14.0, 17.0, 157.0, 1.0, 21.0, 0.0, 7.0, 17.0, 2.0, 6.0, 3.0, 53.0, 23.0, 8.0, 3.0, 22.0, 8.0, 8.0, 8.0, 7.0, 10.0, 8.0, 15.0, 6.0, 5.0, 4.0, 6.0, 3.0, 19.0, 6.0, 10.0, 27.0, 8.0, 7.0, 6.0, 3.0, 4.0, 1.0, 5.0, 10.0, 27.0, 8.0, 4.0, 7.0, 5.0, 11.0, 6.0, 13.0, 2.0, 6.0, 13.0, 44.0, 4.0, 7.0, 6.0, 4.0, 10.0, 3.0, 22.0, 7.0, 7.0, 10.0, 4.0, 7.0, 9.0, 6.0, 2.0, 11.0, 12.0, 4.0, 15.0, 2.0, 4.0, 11.0, 8.0, 44.0, 3.0, 11.0, 5.0, 6.0, 12.0, 7.0, 30.0, 1.0, 9.0, 5.0, 6.0, 17.0, 9.0, 6.0, 2.0, 5.0, 12.0, 6.0, 14.0, 7.0, 12.0, 2.0, 3.0, 1.0, 6.0, 5.0, 8.0, 11.0, 26.0, 19.0, 8.0, 21.0, 5.0, 4.0, 11.0, 7.0, 5.0, 7.0, 10.0, 14.0, 6.0, 13.0, 18.0, 2.0, 5.0, 15.0, 9.0, 3.0, 5.0, 12.0, 2.0, 12.0, 3.0, 5.0, 13.0, 6.0, 14.0, 9.0, 7.0, 0.0, 3.0, 3.0, 6.0, 13.0, 3.0, 8.0, 1.0, 4.0, 17.0, 6.0, 10.0, 10.0, 8.0, 6.0, 16.0, 8.0, 6.0, 3.0, 4.0, 13.0, 8.0, 8.0, 46.0, 15.0, 7.0, 5.0, 7.0, 7.0, 7.0, 8.0, 1.0, 23.0, 8.0, 4.0, 7.0, 8.0, 10.0, 9.0, 7.0, 3.0, 6.0, 4.0, 1.0, 4.0, 0.0, 9.0, 1.0, 3.0, 9.0, 10.0, 2.0, 6.0, 3.0, 32.0, 6.0, 5.0, 5.0, 4.0, 6.0, 10.0, 10.0, 7.0, 10.0, 4.0, 4.0, 0.0, 62.0, 13.0, 2.0, 4.0, 12.0, 12.0, 13.0, 1.0, 5.0, 8.0, 14.0, 3.0, 25.0, 3.0, 15.0, 50.0, 22.0, 7.0, 8.0, 21.0, 7.0, 12.0, 11.0, 7.0, 0.0, 6.0, 9.0, 12.0, 1.0, 78.0, 12.0, 3.0, 7.0, 5.0, 3.0, 3.0, 3.0, 6.0, 12.0, 17.0, 7.0, 11.0, 8.0, 10.0, 8.0, 30.0, 13.0, 6.0, 7.0, 2.0, 2.0, 7.0, 5.0, 7.0, 13.0, 5.0, 5.0, 10.0, 10.0, 5.0, 8.0, 41.0, 10.0, 2.0, 6.0, 4.0, 13.0, 14.0, 6.0, 13.0, 6.0, 7.0, 5.0, 9.0, 13.0, 4.0, 3.0, 22.0, 3.0, 1.0, 4.0, 7.0, 7.0, 4.0, 5.0, 4.0, 8.0, 4.0, 8.0, 7.0, 9.0, 9.0, 9.0, 8.0, 10.0, 5.0, 1.0, 4.0, 32.0, 14.0, 5.0, 6.0, 7.0, 6.0, 4.0, 14.0, 16.0, 50.0, 5.0, 4.0, 16.0, 6.0, 3.0, 6.0, 12.0, 8.0, 22.0, 9.0, 4.0, 21.0, 4.0, 8.0, 8.0, 7.0, 4.0, 2.0, 3.0, 14.0, 9.0, 2.0, 4.0, 8.0, 23.0, 0.0, 29.0, 7.0, 12.0, 5.0, 6.0, 20.0, 7.0, 9.0, 2.0, 4.0, 4.0, 9.0, 12.0, 11.0, 4.0, 19.0, 3.0, 10.0, 7.0, 6.0, 2.0, 31.0, 6.0, 7.0, 2.0, 3.0, 12.0, 31.0, 10.0, 15.0, 11.0, 20.0, 14.0, 6.0, 13.0, 3.0, 12.0, 12.0, 7.0, 5.0, 5.0, 6.0, 8.0, 5.0, 7.0, 5.0, 3.0, 6.0, 18.0, 6.0, 7.0, 4.0, 5.0, 12.0, 3.0, 16.0, 1.0, 11.0, 7.0, 8.0, 27.0, 3.0, 7.0, 4.0, 7.0, 7.0, 4.0, 13.0, 24.0, 19.0, 20.0, 4.0, 4.0, 0.0, 34.0, 6.0, 4.0, 2.0, 33.0, 2.0, 11.0, 4.0, 3.0, 4.0, 9.0, 15.0, 6.0, 9.0, 9.0, 3.0, 6.0, 34.0, 64.0, 5.0, 5.0, 2.0, 18.0, 7.0, 11.0, 7.0, 7.0, 7.0, 8.0, 4.0, 4.0, 3.0, 8.0, 5.0, 9.0, 9.0, 1.0, 4.0, 7.0, 7.0, 5.0, 6.0, 7.0, 15.0, 15.0, 6.0, 5.0, 6.0, 17.0, 10.0, 11.0, 7.0, 7.0, 3.0, 2.0, 13.0, 2.0, 40.0, 6.0, 16.0, 6.0, 16.0, 9.0, 11.0, 4.0, 3.0, 9.0, 5.0, 0.0, 6.0, 8.0, 5.0, 10.0, 6.0, 3.0, 8.0, 9.0, 2.0, 5.0, 3.0, 9.0, 7.0, 2.0, 8.0, 5.0, 11.0, 7.0, 11.0, 6.0, 14.0, 12.0, 14.0, 14.0, 3.0, 20.0, 7.0, 6.0, 2.0, 4.0, 11.0, 3.0, 3.0, 3.0, 8.0, 29.0, 6.0, 7.0, 8.0, 6.0, 8.0, 15.0, 24.0, 6.0, 6.0, 20.0, 18.0, 38.0, 7.0, 7.0, 6.0, 14.0, 7.0, 14.0, 3.0, 4.0, 4.0, 9.0, 9.0, 9.0, 4.0, 7.0, 10.0, 6.0, 13.0, 4.0, 10.0, 4.0, 10.0, 3.0, 10.0, 6.0, 8.0, 10.0, 44.0, 5.0, 4.0, 1.0, 7.0, 6.0, 7.0, 7.0, 4.0, 9.0, 7.0, 4.0, 22.0, 4.0, 15.0, 13.0, 8.0, 7.0, 31.0, 4.0, 1.0, 11.0, 7.0, 12.0, 17.0, 9.0, 2.0, 7.0, 9.0, 6.0, 9.0, 4.0, 5.0, 5.0, 8.0, 10.0, 15.0, 8.0, 8.0, 1.0, 1.0, 11.0, 4.0, 4.0, 10.0, 5.0, 4.0, 15.0, 9.0, 8.0, 26.0, 3.0, 3.0, 15.0, 1.0, 8.0, 13.0, 9.0, 23.0, 4.0, 17.0, 8.0, 5.0, 8.0, 11.0, 9.0, 14.0, 3.0, 5.0, 4.0, 9.0, 2.0, 10.0, 7.0, 5.0, 6.0, 3.0, 3.0, 9.0, 3.0, 9.0, 5.0, 9.0, 7.0, 6.0, 1.0, 3.0, 11.0, 9.0, 18.0, 18.0, 5.0, 5.0, 11.0, 10.0, 9.0, 6.0, 10.0, 10.0, 8.0, 17.0, 34.0, 6.0, 11.0, 4.0, 6.0, 6.0, 6.0, 16.0, 30.0, 11.0, 5.0, 11.0, 8.0, 17.0, 20.0, 8.0, 5.0, 9.0, 10.0, 10.0, 34.0, 11.0, 21.0, 3.0, 40.0, 14.0, 3.0, 12.0, 4.0, 10.0, 9.0, 7.0, 4.0, 14.0, 8.0, 6.0, 6.0, 7.0, 21.0, 5.0, 4.0, 8.0, 12.0, 7.0, 5.0, 10.0, 7.0, 8.0, 9.0, 16.0, 18.0, 34.0, 7.0, 8.0, 13.0, 18.0, 24.0, 5.0, 10.0, 5.0, 19.0, 63.0, 8.0, 12.0, 10.0, 7.0, 6.0, 6.0, 12.0, 6.0, 6.0, 2.0, 14.0, 7.0, 7.0, 4.0, 7.0, 7.0, 13.0, 18.0, 11.0, 0.0, 0.0, 12.0, 7.0, 13.0, 6.0, 7.0, 11.0, 10.0, 3.0, 11.0, 6.0, 3.0, 13.0, 12.0, 4.0, 3.0, 13.0, 16.0, 14.0, 4.0, 4.0, 13.0, 1.0, 14.0, 8.0, 8.0, 5.0, 4.0, 28.0, 5.0, 11.0, 28.0, 12.0, 6.0, 5.0, 2.0, 8.0, 5.0, 3.0, 7.0, 5.0, 14.0, 7.0, 15.0, 11.0, 6.0, 6.0, 12.0, 48.0, 8.0, 13.0, 5.0, 15.0, 11.0, 4.0, 1.0, 3.0, 4.0, 35.0, 11.0, 5.0, 4.0, 9.0, 4.0, 5.0, 10.0, 12.0, 27.0, 11.0, 12.0, 1.0, 7.0, 4.0, 8.0, 12.0, 13.0, 5.0, 23.0, 2.0, 8.0, 6.0, 9.0, 7.0, 14.0, 14.0, 8.0, 2.0, 6.0, 9.0, 20.0, 14.0, 6.0, 11.0, 5.0, 8.0, 9.0, 5.0, 5.0, 8.0, 13.0, 5.0, 7.0, 6.0, 4.0, 7.0, 5.0, 5.0, 14.0, 7.0, 6.0, 12.0, 5.0, 12.0, 9.0, 3.0, 6.0, 8.0, 15.0, 12.0, 2.0, 0.0, 2.0, 13.0, 9.0, 6.0, 5.0, 21.0, 6.0, 8.0, 13.0, 3.0, 4.0, 7.0, 13.0, 14.0, 15.0, 1.0, 8.0, 78.0, 9.0, 7.0, 2.0, 10.0, 8.0, 7.0, 7.0, 6.0, 2.0, 7.0, 3.0, 8.0, 9.0, 3.0, 13.0, 36.0, 10.0, 5.0, 6.0, 6.0, 14.0, 7.0, 6.0, 11.0, 6.0, 10.0, 7.0, 5.0, 6.0, 7.0, 14.0, 4.0, 6.0, 7.0, 6.0, 1.0, 5.0, 6.0, 10.0, 8.0, 3.0, 10.0, 4.0, 1.0, 14.0, 12.0, 7.0, 9.0, 7.0, 6.0, 1.0, 9.0, 3.0, 9.0, 6.0, 7.0, 6.0, 22.0, 7.0, 8.0, 10.0, 8.0, 14.0, 18.0, 10.0, 8.0, 4.0, 3.0, 8.0, 7.0, 8.0, 10.0, 14.0, 11.0, 6.0, 1.0, 6.0, 30.0, 2.0, 7.0, 14.0, 14.0, 5.0, 4.0, 25.0, 14.0, 4.0, 5.0, 0.0, 26.0, 14.0, 4.0, 14.0, 4.0, 3.0, 18.0, 15.0, 5.0, 7.0, 7.0, 10.0, 12.0, 7.0, 3.0, 3.0, 30.0, 48.0, 5.0, 9.0, 3.0, 17.0, 4.0, 16.0, 5.0, 7.0, 3.0, 9.0, 12.0, 10.0, 10.0, 7.0, 9.0, 16.0, 6.0, 4.0, 9.0, 7.0, 20.0, 7.0, 4.0, 5.0, 6.0, 9.0, 9.0, 6.0, 61.0, 11.0, 10.0, 3.0, 4.0, 7.0, 24.0, 6.0, 10.0, 13.0, 10.0, 5.0, 2.0, 7.0, 6.0, 8.0, 2.0, 5.0, 118.0, 14.0, 35.0, 6.0, 4.0, 12.0, 6.0, 6.0, 16.0, 11.0, 5.0, 5.0, 5.0, 13.0, 20.0, 4.0, 26.0, 1.0, 16.0, 2.0, 15.0, 15.0, 5.0, 9.0, 8.0, 76.0, 6.0, 8.0, 13.0, 12.0, 16.0, 9.0, 18.0, 7.0, 2.0, 3.0, 5.0, 11.0, 12.0, 15.0, 17.0, 6.0, 38.0, 6.0, 15.0, 9.0, 5.0, 7.0, 13.0, 16.0, 31.0, 11.0, 8.0, 8.0, 13.0, 15.0, 14.0, 8.0, 7.0, 2.0, 8.0, 12.0, 6.0, 6.0, 4.0, 5.0, 25.0, 45.0, 29.0, 10.0, 12.0, 16.0, 14.0, 18.0, 0.0, 11.0, 7.0, 13.0, 5.0, 12.0, 33.0, 2.0, 11.0, 42.0, 51.0, 32.0, 11.0, 37.0, 26.0, 24.0, 37.0, 47.0, 40.0, 26.0, 37.0, 57.0, 46.0, 53.0, 33.0, 97.0, 49.0, 67.0, 75.0, 114.0, 43.0, 133.0, 37.0, 77.0, 93.0, 102.0, 83.0, 72.0, 87.0, 66.0, 110.0, 121.0, 122.0, 179.0, 154.0, 174.0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[7.0, 17.0, 10.0, 23.0, 14.0, 1.0, 19.0, 5.0, 7.0, 51.0, 27.0, 30.0, 2.0, 28.0, 3.0, 10.0, 15.0, 3.0, 26.0, 4.0, 7.0, 6.0, 1.0, 12.0, 5.0, 3.0, 11.0, 19.0, 30.0, 37.0, 12.0, 2.0, 1.0, 7.0, 4.0, 7.0, 9.0, 11.0, 5.0, 26.0, 14.0, 28.0, 24.0, 21.0, 4.0, 6.0, 20.0, 3.0, 2.0, 1.0, 7.0, 17.0, 7.0, 4.0, 20.0, 8.0, 11.0, 3.0, 5.0, 5.0, 2.0, 16.0, 9.0, 10.0, 5.0, 3.0, 17.0, 46.0, 6.0, 3.0, 22.0, 7.0, 6.0, 2.0, 1.0, 4.0, 23.0, 7.0, 16.0, 4.0, 14.0, 4.0, 10.0, 1.0, 2.0, 0.0, 11.0, 3.0, 16.0, 2.0, 0.0, 12.0, 8.0, 6.0, 3.0, 5.0, 14.0, 15.0, 9.0, 3.0, 11.0, 4.0, 3.0, 3.0, 12.0, 8.0, 2.0, 15.0, 3.0, 15.0, 4.0, 20.0, 1.0, 22.0, 26.0, 26.0, 5.0, 3.0, 1.0, 17.0, 12.0, 18.0, 10.0, 10.0, 6.0, 4.0, 11.0, 2.0, 2.0, 5.0, 3.0, 2.0, 2.0, 1.0, 5.0, 2.0, 15.0, 8.0, 8.0, 13.0, 9.0, 11.0, 13.0, 10.0, 15.0, 44.0, 8.0, 5.0, 3.0, 5.0, 5.0, 15.0, 3.0, 7.0, 5.0, 6.0, 13.0, 1.0, 4.0, 23.0, 44.0, 2.0, 26.0, 13.0, 55.0, 9.0, 3.0, 19.0, 9.0, 11.0, 17.0, 9.0, 18.0, 56.0, 15.0, 15.0, 2.0, 1.0, 19.0, 21.0, 27.0, 28.0, 28.0, 7.0, 3.0, 3.0, 41.0, 88.0, 80.0, 8.0, 4.0, 9.0, 4.0, 2.0, 25.0, 1.0, 6.0, 3.0, 7.0, 1.0, 10.0, 4.0, 7.0, 6.0, 6.0, 67.0, 6.0, 7.0, 4.0, 10.0, 2.0, 13.0, 4.0, 22.0, 7.0, 9.0, 15.0, 1.0, 6.0, 7.0, 10.0, 2.0, 3.0, 2.0, 6.0, 0.0, 3.0, 13.0, 3.0, 17.0, 6.0, 4.0, 13.0, 5.0, 1.0, 7.0, 8.0, 1.0, 0.0, 10.0, 0.0, 2.0, 0.0, 1.0, 5.0, 7.0, 8.0, 2.0, 5.0, 2.0, 6.0, 1.0, 12.0, 22.0, 4.0, 9.0, 0.0, 7.0, 7.0, 20.0, 6.0, 6.0, 16.0, 4.0, 7.0, 4.0, 3.0, 9.0, 3.0, 5.0, 3.0, 1.0, 16.0, 0.0, 8.0, 18.0, 7.0, 9.0, 4.0, 13.0, 1.0, 8.0, 4.0, 8.0, 14.0, 3.0, 5.0, 11.0, 10.0, 8.0, 34.0, 4.0, 30.0, 14.0, 12.0, 8.0, 6.0, 16.0, 0.0, 3.0, 28.0, 3.0, 4.0, 12.0, 20.0, 0.0, 5.0, 15.0, 7.0, 3.0, 0.0, 14.0, 4.0, 3.0, 3.0, 48.0, 3.0, 12.0, 9.0, 2.0, 16.0, 1.0, 8.0, 18.0, 9.0, 15.0, 4.0, 12.0, 16.0, 11.0, 5.0, 12.0, 26.0, 24.0, 37.0, 26.0, 33.0, 67.0, 75.0, 43.0, 37.0, 72.0, 87.0, 66.0]</t>
+          <t>[7.0, 17.0, 10.0, 23.0, 14.0, 1.0, 19.0, 5.0, 7.0, 51.0, 27.0, 30.0, 2.0, 28.0, 3.0, 10.0, 15.0, 3.0, 26.0, 4.0, 7.0, 6.0, 1.0, 12.0, 5.0, 3.0, 11.0, 19.0, 30.0, 37.0, 12.0, 2.0, 1.0, 7.0, 4.0, 7.0, 9.0, 11.0, 5.0, 26.0, 14.0, 28.0, 24.0, 21.0, 4.0, 6.0, 20.0, 3.0, 2.0, 1.0, 7.0, 17.0, 7.0, 4.0, 20.0, 8.0, 11.0, 3.0, 5.0, 5.0, 2.0, 16.0, 9.0, 10.0, 5.0, 3.0, 17.0, 46.0, 6.0, 3.0, 22.0, 7.0, 6.0, 2.0, 1.0, 4.0, 23.0, 7.0, 16.0, 4.0, 14.0, 4.0, 10.0, 1.0, 2.0, 0.0, 11.0, 3.0, 16.0, 2.0, 0.0, 12.0, 8.0, 6.0, 3.0, 5.0, 14.0, 15.0, 9.0, 3.0, 11.0, 4.0, 3.0, 3.0, 12.0, 8.0, 2.0, 15.0, 3.0, 15.0, 4.0, 20.0, 1.0, 22.0, 26.0, 26.0, 5.0, 3.0, 1.0, 17.0, 12.0, 18.0, 10.0, 10.0, 6.0, 4.0, 11.0, 2.0, 2.0, 5.0, 3.0, 2.0, 2.0, 1.0, 5.0, 2.0, 15.0, 8.0, 8.0, 13.0, 9.0, 11.0, 13.0, 10.0, 15.0, 44.0, 8.0, 5.0, 3.0, 5.0, 5.0, 15.0, 3.0, 7.0, 5.0, 6.0, 13.0, 1.0, 4.0, 23.0, 44.0, 2.0, 26.0, 13.0, 55.0, 9.0, 3.0, 19.0, 9.0, 11.0, 17.0, 9.0, 18.0, 56.0, 15.0, 15.0, 2.0, 1.0, 19.0, 21.0, 27.0, 28.0, 28.0, 7.0, 3.0, 3.0, 145.0, 41.0, 88.0, 131.0, 80.0, 8.0, 4.0, 9.0, 4.0, 2.0, 25.0, 1.0, 6.0, 3.0, 7.0, 1.0, 10.0, 4.0, 7.0, 6.0, 6.0, 67.0, 6.0, 7.0, 4.0, 10.0, 2.0, 13.0, 4.0, 22.0, 7.0, 9.0, 15.0, 1.0, 6.0, 7.0, 10.0, 2.0, 3.0, 2.0, 6.0, 0.0, 3.0, 13.0, 3.0, 17.0, 6.0, 4.0, 13.0, 5.0, 1.0, 7.0, 8.0, 1.0, 0.0, 10.0, 0.0, 2.0, 0.0, 1.0, 5.0, 7.0, 8.0, 2.0, 5.0, 2.0, 6.0, 1.0, 12.0, 22.0, 4.0, 9.0, 0.0, 7.0, 7.0, 20.0, 6.0, 6.0, 16.0, 4.0, 7.0, 4.0, 3.0, 9.0, 3.0, 5.0, 3.0, 1.0, 16.0, 0.0, 8.0, 18.0, 7.0, 9.0, 4.0, 13.0, 1.0, 8.0, 4.0, 8.0, 14.0, 3.0, 5.0, 11.0, 10.0, 8.0, 34.0, 4.0, 30.0, 14.0, 12.0, 8.0, 6.0, 16.0, 0.0, 3.0, 28.0, 3.0, 4.0, 12.0, 20.0, 0.0, 5.0, 15.0, 7.0, 3.0, 0.0, 14.0, 4.0, 3.0, 3.0, 48.0, 3.0, 12.0, 9.0, 2.0, 16.0, 1.0, 8.0, 18.0, 9.0, 15.0, 4.0, 12.0, 16.0, 11.0, 5.0, 12.0, 26.0, 24.0, 37.0, 26.0, 33.0, 67.0, 75.0, 43.0, 37.0, 93.0, 72.0, 87.0, 66.0, 179.0, 174.0]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[6.0, 10.0, 12.0, 12.0, 2.0, 14.0, 8.0, 3.0, 24.0, 14.0, 4.0, 18.0, 4.0, 9.0, 10.0, 10.0, 5.0, 14.0, 17.0, 29.0, 9.0, 15.0, 11.0, 24.0, 35.0, 7.0, 17.0, 16.0, 12.0, 6.0, 14.0, 42.0, 17.0, 5.0, 15.0, 24.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 20.0, 11.0, 15.0, 17.0, 10.0, 7.0, 7.0, 13.0, 12.0, 15.0, 26.0, 40.0, 13.0, 27.0, 13.0, 25.0, 11.0, 33.0, 10.0, 25.0, 5.0, 8.0, 49.0, 17.0, 1.0, 12.0, 20.0, 18.0, 16.0, 29.0, 22.0, 66.0, 13.0, 11.0, 19.0, 21.0, 12.0, 1.0, 24.0, 15.0, 9.0, 28.0, 18.0, 20.0, 18.0, 23.0, 18.0, 11.0, 9.0, 25.0, 21.0, 14.0, 18.0, 64.0, 2.0, 18.0, 8.0, 20.0, 26.0, 35.0, 18.0, 49.0, 54.0, 13.0, 76.0, 39.0, 21.0, 16.0, 41.0, 52.0, 20.0, 34.0, 31.0, 12.0, 23.0, 57.0, 15.0, 5.0, 21.0, 3.0, 25.0, 14.0, 40.0, 22.0, 13.0, 66.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 6.0, 20.0, 16.0, 21.0, 49.0, 30.0, 42.0, 34.0, 43.0, 34.0, 28.0, 27.0, 61.0, 45.0, 3.0, 13.0, 21.0, 14.0, 6.0, 14.0, 11.0, 42.0, 10.0, 30.0, 87.0, 28.0, 10.0, 4.0, 7.0, 22.0, 5.0, 14.0, 36.0, 24.0, 40.0, 24.0, 16.0, 15.0, 19.0, 12.0, 13.0, 19.0, 5.0, 34.0, 16.0, 6.0, 16.0, 2.0, 10.0, 9.0, 7.0, 1.0, 11.0, 52.0, 18.0, 14.0, 7.0, 15.0, 14.0, 13.0, 0.0, 25.0, 18.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 32.0, 12.0, 23.0, 22.0, 16.0, 27.0, 13.0, 20.0, 21.0, 12.0, 18.0, 22.0, 9.0, 12.0, 12.0, 24.0, 14.0, 25.0, 87.0, 6.0, 50.0, 20.0, 11.0, 10.0, 14.0, 28.0, 14.0, 30.0, 17.0, 24.0, 8.0, 44.0, 21.0, 38.0, 59.0, 12.0, 15.0, 10.0, 15.0, 31.0, 59.0, 5.0, 32.0, 18.0, 5.0, 7.0, 16.0, 9.0, 0.0, 11.0, 3.0, 18.0, 13.0, 19.0, 21.0, 9.0, 23.0, 4.0, 22.0, 15.0, 18.0, 16.0, 10.0, 21.0, 12.0, 22.0, 13.0, 15.0, 19.0, 20.0, 50.0, 33.0, 7.0, 21.0, 29.0, 52.0, 10.0, 28.0, 23.0, 15.0, 32.0, 15.0, 21.0, 16.0, 38.0, 65.0, 20.0, 10.0, 10.0, 17.0, 16.0, 41.0, 15.0, 6.0, 20.0, 12.0, 8.0, 14.0, 24.0, 12.0, 17.0, 30.0, 2.0, 9.0, 21.0, 15.0, 19.0, 85.0, 11.0, 16.0, 49.0, 42.0, 19.0, 7.0, 16.0, 9.0, 26.0, 23.0, 12.0, 15.0, 23.0, 6.0, 11.0, 44.0, 16.0, 51.0, 31.0, 13.0, 13.0, 4.0, 19.0, 11.0, 19.0, 2.0, 31.0, 21.0, 13.0, 23.0, 31.0, 10.0, 24.0, 20.0, 45.0, 17.0, 6.0, 19.0, 5.0, 5.0, 5.0, 48.0, 49.0, 9.0, 20.0, 35.0, 18.0, 43.0, 30.0, 5.0, 84.0, 25.0, 14.0, 14.0, 11.0, 26.0, 51.0, 7.0, 8.0, 56.0, 2.0, 14.0, 30.0, 8.0, 21.0, 33.0, 5.0, 15.0, 9.0, 47.0, 7.0, 42.0, 15.0, 7.0, 9.0, 16.0, 12.0, 18.0, 21.0, 13.0, 33.0, 75.0, 23.0, 59.0, 9.0, 23.0, 20.0, 22.0, 8.0, 33.0, 15.0, 28.0, 2.0, 34.0, 21.0, 1.0, 24.0, 30.0, 5.0, 51.0, 22.0, 21.0, 76.0, 80.0, 6.0, 8.0, 11.0, 22.0, 13.0, 23.0, 10.0, 12.0, 14.0, 1.0, 1.0, 18.0, 10.0, 20.0, 30.0, 33.0, 6.0, 44.0, 1.0, 17.0, 5.0, 11.0, 7.0, 4.0, 19.0, 46.0, 23.0, 2.0, 12.0, 11.0, 18.0, 32.0, 6.0, 10.0, 32.0, 12.0, 8.0, 65.0, 21.0, 12.0, 3.0, 4.0, 13.0, 19.0, 33.0, 10.0, 27.0, 8.0, 4.0, 4.0, 21.0, 40.0, 9.0, 21.0, 41.0, 9.0, 16.0, 21.0, 9.0, 9.0, 14.0, 7.0, 37.0, 27.0, 5.0, 35.0, 21.0, 15.0, 36.0, 5.0, 34.0, 67.0, 14.0, 28.0, 14.0, 18.0, 10.0, 17.0, 36.0, 21.0, 7.0, 12.0, 61.0, 14.0, 7.0, 23.0, 19.0, 25.0, 18.0, 6.0, 6.0, 3.0, 17.0, 11.0, 47.0, 16.0, 0.0, 6.0, 17.0, 77.0, 29.0, 15.0, 11.0, 8.0, 7.0, 7.0, 48.0, 14.0, 34.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 5.0, 21.0, 29.0, 38.0, 26.0, 22.0, 12.0, 12.0, 14.0, 46.0, 10.0, 8.0, 11.0, 27.0, 25.0, 23.0, 18.0, 9.0, 80.0, 16.0, 13.0, 10.0, 23.0, 5.0, 28.0, 15.0, 7.0, 18.0, 48.0, 18.0, 17.0, 25.0, 15.0, 12.0, 12.0, 17.0, 13.0, 50.0, 4.0, 22.0, 12.0, 55.0, 37.0, 89.0, 89.0, 16.0, 14.0, 15.0, 10.0, 23.0, 20.0, 1.0, 10.0, 23.0, 23.0, 22.0, 17.0, 79.0, 18.0, 21.0, 19.0, 9.0, 45.0, 19.0, 14.0, 12.0, 12.0, 9.0, 8.0, 5.0, 20.0, 18.0, 2.0, 14.0, 13.0, 26.0, 11.0, 9.0, 27.0, 42.0, 22.0, 8.0, 21.0, 16.0, 8.0, 13.0, 18.0, 9.0, 5.0, 34.0, 66.0, 25.0, 15.0, 8.0, 10.0, 21.0, 29.0, 22.0, 9.0, 17.0, 16.0, 13.0, 23.0, 19.0, 11.0, 17.0, 15.0, 23.0, 7.0, 15.0, 22.0, 14.0, 9.0, 12.0, 9.0, 29.0, 40.0, 24.0, 33.0, 12.0, 20.0, 25.0, 7.0, 17.0, 18.0, 18.0, 30.0, 70.0, 33.0, 35.0, 15.0, 51.0, 44.0, 15.0, 28.0, 14.0, 17.0, 16.0, 40.0, 47.0, 9.0, 41.0, 13.0, 38.0, 44.0, 19.0, 30.0, 17.0, 53.0, 63.0, 12.0, 18.0, 9.0, 1.0, 15.0, 5.0, 15.0, 9.0, 27.0, 20.0, 46.0, 13.0, 14.0, 7.0, 64.0, 23.0, 22.0, 6.0, 7.0, 59.0, 7.0, 37.0, 0.0, 17.0, 9.0, 51.0, 11.0, 26.0, 76.0, 16.0, 6.0, 0.0, 2.0, 84.0, 12.0, 39.0, 15.0, 29.0, 51.0, 4.0, 11.0, 4.0, 16.0, 22.0, 23.0, 29.0, 37.0, 31.0, 8.0, 19.0, 14.0, 23.0, 58.0, 31.0, 11.0, 33.0, 14.0, 17.0, 32.0, 8.0, 8.0, 17.0, 30.0, 11.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 31.0, 38.0, 51.0, 3.0, 26.0, 23.0, 9.0, 32.0, 39.0, 10.0, 10.0, 15.0, 72.0, 19.0, 58.0, 21.0, 41.0, 40.0, 24.0, 52.0, 8.0, 2.0, 2.0, 20.0, 37.0, 29.0, 11.0, 9.0, 46.0, 17.0, 45.0, 51.0, 30.0, 13.0, 7.0, 53.0, 32.0, 5.0, 34.0, 3.0, 14.0, 62.0, 8.0, 15.0, 16.0, 20.0, 16.0, 1.0, 16.0, 7.0, 6.0, 45.0, 1.0, 15.0, 10.0, 4.0, 20.0, 1.0, 12.0, 11.0, 35.0, 36.0, 0.0, 53.0, 8.0, 4.0, 11.0, 28.0, 10.0, 29.0, 21.0, 7.0, 14.0, 13.0, 54.0, 53.0, 32.0, 48.0, 16.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 35.0, 18.0, 46.0, 21.0, 9.0, 9.0, 25.0, 62.0, 53.0, 5.0, 9.0, 12.0, 35.0, 19.0, 9.0, 14.0, 4.0, 49.0, 40.0, 13.0, 11.0, 13.0, 69.0, 5.0, 5.0, 29.0, 3.0, 16.0, 8.0, 1.0, 23.0, 13.0, 49.0, 8.0, 23.0, 25.0, 3.0, 15.0, 25.0, 35.0, 16.0, 80.0, 16.0, 8.0, 36.0, 7.0, 9.0, 43.0, 33.0, 4.0, 37.0, 3.0, 5.0, 29.0, 26.0, 2.0, 25.0, 43.0, 16.0, 31.0, 13.0, 8.0, 74.0, 9.0, 25.0, 13.0, 55.0, 6.0, 8.0, 1.0, 2.0, 41.0, 11.0, 17.0, 4.0, 3.0, 15.0, 32.0, 84.0, 12.0, 7.0, 12.0, 6.0, 12.0, 6.0, 66.0, 16.0, 4.0, 63.0, 1.0, 20.0, 29.0, 35.0, 3.0, 10.0, 27.0, 58.0, 3.0, 14.0, 20.0, 14.0, 5.0, 12.0, 3.0, 9.0, 11.0, 22.0, 39.0, 49.0, 56.0, 28.0, 26.0, 12.0, 11.0, 9.0, 29.0, 7.0, 81.0, 69.0, 8.0, 17.0, 17.0, 25.0, 43.0, 16.0, 28.0, 23.0, 15.0, 11.0, 5.0, 26.0, 38.0, 70.0, 35.0, 28.0, 12.0, 18.0, 11.0, 9.0, 15.0, 41.0, 14.0, 29.0, 16.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 86.0, 83.0, 7.0, 6.0, 6.0, 29.0, 7.0, 10.0, 10.0, 78.0, 29.0, 8.0, 1.0, 17.0, 16.0, 23.0, 8.0, 17.0, 44.0, 38.0, 6.0, 7.0, 22.0, 9.0, 21.0, 4.0, 17.0, 9.0, 28.0, 28.0, 13.0, 39.0, 36.0, 12.0, 4.0, 28.0, 29.0, 8.0, 5.0, 29.0, 42.0, 53.0, 25.0, 31.0, 19.0, 11.0, 11.0, 9.0, 35.0, 19.0, 5.0, 25.0, 23.0, 5.0, 6.0, 60.0, 5.0, 8.0, 3.0, 13.0, 6.0, 14.0, 23.0, 1.0, 5.0, 16.0, 60.0, 34.0, 13.0, 25.0, 81.0, 16.0, 21.0, 2.0, 5.0, 14.0, 9.0, 6.0, 11.0, 4.0, 70.0, 7.0, 41.0, 6.0, 28.0, 33.0, 27.0, 37.0, 22.0, 50.0, 30.0, 9.0, 6.0, 12.0, 49.0, 30.0, 4.0, 9.0, 33.0, 7.0, 15.0, 7.0, 9.0, 34.0, 41.0, 86.0, 8.0, 7.0, 50.0, 44.0, 14.0, 4.0, 7.0, 8.0, 19.0, 8.0, 10.0, 20.0, 4.0, 11.0, 11.0, 59.0, 2.0, 5.0, 27.0, 33.0, 12.0, 7.0, 14.0, 7.0, 5.0, 26.0, 45.0, 39.0, 53.0, 61.0, 81.0]</t>
+          <t>[6.0, 10.0, 12.0, 12.0, 2.0, 14.0, 8.0, 3.0, 24.0, 14.0, 4.0, 18.0, 4.0, 9.0, 10.0, 10.0, 5.0, 14.0, 17.0, 29.0, 9.0, 15.0, 11.0, 24.0, 35.0, 7.0, 17.0, 16.0, 12.0, 6.0, 14.0, 42.0, 17.0, 5.0, 15.0, 24.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 20.0, 11.0, 15.0, 17.0, 10.0, 7.0, 7.0, 13.0, 12.0, 15.0, 26.0, 40.0, 13.0, 27.0, 13.0, 25.0, 11.0, 33.0, 10.0, 25.0, 5.0, 8.0, 49.0, 17.0, 1.0, 12.0, 20.0, 18.0, 16.0, 29.0, 22.0, 66.0, 13.0, 11.0, 19.0, 21.0, 12.0, 1.0, 24.0, 15.0, 9.0, 28.0, 18.0, 20.0, 18.0, 23.0, 18.0, 11.0, 9.0, 25.0, 21.0, 14.0, 18.0, 64.0, 2.0, 18.0, 8.0, 20.0, 26.0, 35.0, 18.0, 49.0, 54.0, 13.0, 76.0, 39.0, 21.0, 16.0, 41.0, 52.0, 20.0, 34.0, 31.0, 12.0, 23.0, 57.0, 15.0, 5.0, 21.0, 3.0, 92.0, 25.0, 14.0, 40.0, 22.0, 13.0, 66.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 6.0, 20.0, 16.0, 21.0, 49.0, 30.0, 42.0, 34.0, 43.0, 34.0, 28.0, 27.0, 61.0, 45.0, 3.0, 13.0, 21.0, 14.0, 6.0, 14.0, 101.0, 11.0, 42.0, 10.0, 30.0, 87.0, 28.0, 10.0, 4.0, 7.0, 22.0, 5.0, 14.0, 36.0, 24.0, 40.0, 24.0, 16.0, 15.0, 19.0, 12.0, 13.0, 19.0, 5.0, 34.0, 16.0, 6.0, 16.0, 2.0, 10.0, 9.0, 7.0, 1.0, 11.0, 52.0, 18.0, 14.0, 7.0, 15.0, 14.0, 13.0, 0.0, 25.0, 18.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 32.0, 12.0, 23.0, 22.0, 16.0, 27.0, 13.0, 20.0, 21.0, 12.0, 18.0, 22.0, 9.0, 12.0, 12.0, 24.0, 14.0, 25.0, 87.0, 6.0, 50.0, 20.0, 11.0, 10.0, 14.0, 28.0, 14.0, 30.0, 17.0, 24.0, 8.0, 44.0, 21.0, 38.0, 59.0, 12.0, 15.0, 10.0, 15.0, 31.0, 59.0, 5.0, 32.0, 18.0, 5.0, 7.0, 16.0, 9.0, 0.0, 11.0, 3.0, 18.0, 13.0, 19.0, 21.0, 9.0, 23.0, 4.0, 22.0, 15.0, 18.0, 16.0, 10.0, 21.0, 12.0, 22.0, 13.0, 15.0, 19.0, 20.0, 50.0, 33.0, 7.0, 21.0, 29.0, 52.0, 10.0, 28.0, 23.0, 15.0, 32.0, 15.0, 21.0, 16.0, 38.0, 118.0, 65.0, 20.0, 10.0, 10.0, 17.0, 16.0, 41.0, 15.0, 6.0, 20.0, 12.0, 8.0, 14.0, 24.0, 12.0, 17.0, 30.0, 2.0, 9.0, 21.0, 15.0, 19.0, 85.0, 11.0, 16.0, 49.0, 42.0, 19.0, 7.0, 16.0, 9.0, 26.0, 23.0, 12.0, 15.0, 23.0, 6.0, 11.0, 44.0, 16.0, 51.0, 31.0, 13.0, 13.0, 4.0, 19.0, 11.0, 19.0, 2.0, 31.0, 21.0, 13.0, 23.0, 31.0, 10.0, 24.0, 20.0, 45.0, 17.0, 6.0, 19.0, 5.0, 5.0, 5.0, 48.0, 49.0, 9.0, 20.0, 35.0, 18.0, 43.0, 30.0, 5.0, 84.0, 25.0, 14.0, 14.0, 11.0, 90.0, 93.0, 26.0, 51.0, 7.0, 8.0, 56.0, 2.0, 14.0, 30.0, 8.0, 21.0, 33.0, 5.0, 15.0, 9.0, 102.0, 47.0, 7.0, 99.0, 42.0, 15.0, 7.0, 9.0, 16.0, 12.0, 18.0, 21.0, 13.0, 33.0, 75.0, 23.0, 59.0, 9.0, 23.0, 20.0, 22.0, 8.0, 33.0, 15.0, 28.0, 2.0, 34.0, 21.0, 1.0, 24.0, 30.0, 5.0, 51.0, 22.0, 21.0, 76.0, 80.0, 6.0, 8.0, 11.0, 22.0, 13.0, 23.0, 10.0, 12.0, 14.0, 1.0, 1.0, 18.0, 10.0, 20.0, 30.0, 33.0, 6.0, 44.0, 1.0, 17.0, 5.0, 11.0, 7.0, 4.0, 19.0, 46.0, 23.0, 2.0, 12.0, 11.0, 18.0, 32.0, 6.0, 10.0, 32.0, 12.0, 8.0, 65.0, 21.0, 12.0, 3.0, 4.0, 13.0, 19.0, 33.0, 10.0, 27.0, 8.0, 4.0, 4.0, 21.0, 40.0, 9.0, 21.0, 41.0, 9.0, 16.0, 21.0, 9.0, 9.0, 14.0, 7.0, 37.0, 27.0, 5.0, 35.0, 21.0, 15.0, 36.0, 5.0, 34.0, 67.0, 14.0, 28.0, 14.0, 18.0, 10.0, 17.0, 36.0, 21.0, 7.0, 12.0, 61.0, 14.0, 7.0, 23.0, 19.0, 25.0, 18.0, 6.0, 6.0, 3.0, 17.0, 11.0, 47.0, 16.0, 0.0, 6.0, 17.0, 77.0, 29.0, 15.0, 11.0, 8.0, 7.0, 7.0, 48.0, 14.0, 34.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 5.0, 21.0, 29.0, 38.0, 26.0, 22.0, 12.0, 12.0, 14.0, 46.0, 10.0, 8.0, 11.0, 27.0, 25.0, 23.0, 18.0, 9.0, 80.0, 16.0, 13.0, 10.0, 23.0, 5.0, 28.0, 15.0, 7.0, 18.0, 48.0, 18.0, 17.0, 25.0, 15.0, 12.0, 12.0, 17.0, 13.0, 50.0, 4.0, 22.0, 12.0, 55.0, 37.0, 89.0, 89.0, 16.0, 14.0, 15.0, 10.0, 23.0, 20.0, 1.0, 10.0, 23.0, 23.0, 22.0, 17.0, 79.0, 18.0, 21.0, 19.0, 9.0, 45.0, 19.0, 14.0, 91.0, 12.0, 12.0, 9.0, 8.0, 5.0, 20.0, 18.0, 2.0, 14.0, 13.0, 26.0, 11.0, 9.0, 27.0, 42.0, 22.0, 8.0, 21.0, 16.0, 8.0, 13.0, 18.0, 9.0, 5.0, 34.0, 66.0, 25.0, 15.0, 8.0, 10.0, 21.0, 29.0, 22.0, 9.0, 17.0, 16.0, 13.0, 23.0, 19.0, 11.0, 17.0, 15.0, 23.0, 7.0, 15.0, 22.0, 14.0, 9.0, 12.0, 9.0, 29.0, 122.0, 40.0, 24.0, 33.0, 12.0, 20.0, 25.0, 93.0, 7.0, 17.0, 18.0, 126.0, 18.0, 107.0, 30.0, 121.0, 70.0, 33.0, 35.0, 15.0, 51.0, 44.0, 15.0, 28.0, 14.0, 17.0, 16.0, 40.0, 47.0, 9.0, 41.0, 13.0, 38.0, 44.0, 19.0, 30.0, 17.0, 53.0, 63.0, 117.0, 12.0, 18.0, 9.0, 1.0, 15.0, 5.0, 15.0, 9.0, 27.0, 20.0, 46.0, 13.0, 14.0, 7.0, 64.0, 23.0, 22.0, 6.0, 106.0, 7.0, 59.0, 7.0, 37.0, 0.0, 17.0, 9.0, 51.0, 11.0, 26.0, 76.0, 16.0, 6.0, 0.0, 2.0, 84.0, 12.0, 39.0, 15.0, 29.0, 51.0, 4.0, 11.0, 4.0, 16.0, 22.0, 23.0, 29.0, 37.0, 31.0, 8.0, 19.0, 14.0, 93.0, 23.0, 58.0, 31.0, 11.0, 33.0, 14.0, 17.0, 32.0, 8.0, 8.0, 17.0, 30.0, 11.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 31.0, 38.0, 90.0, 51.0, 3.0, 26.0, 23.0, 9.0, 32.0, 39.0, 10.0, 98.0, 10.0, 15.0, 72.0, 19.0, 58.0, 21.0, 170.0, 41.0, 40.0, 24.0, 52.0, 8.0, 2.0, 2.0, 20.0, 37.0, 29.0, 11.0, 9.0, 46.0, 17.0, 45.0, 51.0, 30.0, 13.0, 7.0, 53.0, 32.0, 5.0, 34.0, 3.0, 14.0, 62.0, 8.0, 15.0, 16.0, 20.0, 16.0, 1.0, 16.0, 7.0, 6.0, 45.0, 1.0, 15.0, 10.0, 4.0, 20.0, 1.0, 112.0, 12.0, 11.0, 35.0, 36.0, 0.0, 53.0, 8.0, 4.0, 11.0, 28.0, 10.0, 29.0, 21.0, 7.0, 14.0, 13.0, 54.0, 53.0, 32.0, 48.0, 16.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 35.0, 18.0, 112.0, 46.0, 21.0, 9.0, 9.0, 25.0, 62.0, 53.0, 92.0, 5.0, 9.0, 123.0, 12.0, 35.0, 19.0, 9.0, 14.0, 4.0, 49.0, 40.0, 13.0, 11.0, 13.0, 69.0, 5.0, 5.0, 29.0, 3.0, 16.0, 8.0, 1.0, 23.0, 13.0, 49.0, 8.0, 23.0, 25.0, 3.0, 15.0, 25.0, 93.0, 35.0, 16.0, 80.0, 16.0, 105.0, 8.0, 36.0, 7.0, 9.0, 94.0, 43.0, 33.0, 4.0, 37.0, 3.0, 5.0, 29.0, 26.0, 2.0, 25.0, 43.0, 16.0, 31.0, 13.0, 8.0, 74.0, 9.0, 25.0, 13.0, 55.0, 6.0, 8.0, 1.0, 2.0, 41.0, 11.0, 17.0, 4.0, 3.0, 15.0, 32.0, 84.0, 12.0, 7.0, 12.0, 6.0, 12.0, 6.0, 66.0, 154.0, 16.0, 4.0, 63.0, 1.0, 20.0, 29.0, 35.0, 3.0, 10.0, 27.0, 58.0, 3.0, 14.0, 20.0, 14.0, 5.0, 12.0, 3.0, 9.0, 11.0, 22.0, 39.0, 49.0, 56.0, 28.0, 26.0, 12.0, 11.0, 9.0, 29.0, 7.0, 81.0, 69.0, 8.0, 17.0, 17.0, 25.0, 43.0, 16.0, 28.0, 23.0, 15.0, 119.0, 11.0, 5.0, 26.0, 38.0, 70.0, 35.0, 28.0, 12.0, 18.0, 11.0, 9.0, 15.0, 41.0, 14.0, 29.0, 16.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 86.0, 83.0, 7.0, 6.0, 6.0, 29.0, 7.0, 10.0, 10.0, 78.0, 104.0, 29.0, 8.0, 1.0, 17.0, 16.0, 23.0, 8.0, 17.0, 44.0, 38.0, 6.0, 7.0, 22.0, 9.0, 21.0, 4.0, 17.0, 9.0, 28.0, 28.0, 13.0, 39.0, 36.0, 12.0, 4.0, 28.0, 29.0, 8.0, 5.0, 29.0, 42.0, 53.0, 25.0, 31.0, 19.0, 11.0, 11.0, 9.0, 35.0, 19.0, 5.0, 25.0, 23.0, 5.0, 6.0, 60.0, 5.0, 8.0, 3.0, 13.0, 6.0, 14.0, 23.0, 1.0, 5.0, 16.0, 60.0, 34.0, 13.0, 25.0, 81.0, 16.0, 21.0, 2.0, 5.0, 14.0, 9.0, 6.0, 11.0, 4.0, 70.0, 7.0, 41.0, 6.0, 28.0, 33.0, 27.0, 37.0, 22.0, 50.0, 30.0, 9.0, 6.0, 12.0, 49.0, 30.0, 4.0, 9.0, 33.0, 7.0, 15.0, 7.0, 9.0, 34.0, 41.0, 86.0, 8.0, 7.0, 50.0, 44.0, 14.0, 4.0, 7.0, 8.0, 19.0, 8.0, 10.0, 20.0, 4.0, 11.0, 11.0, 59.0, 2.0, 5.0, 27.0, 33.0, 105.0, 12.0, 7.0, 158.0, 14.0, 7.0, 5.0, 26.0, 45.0, 39.0, 53.0, 61.0, 81.0, 134.0, 102.0, 144.0]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[10.0, 12.0, 12.0, 14.0, 4.0, 18.0, 9.0, 10.0, 5.0, 14.0, 29.0, 9.0, 15.0, 24.0, 12.0, 14.0, 42.0, 15.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 11.0, 17.0, 10.0, 7.0, 40.0, 27.0, 25.0, 11.0, 33.0, 5.0, 8.0, 49.0, 17.0, 12.0, 18.0, 16.0, 66.0, 13.0, 12.0, 24.0, 15.0, 9.0, 18.0, 20.0, 18.0, 11.0, 9.0, 25.0, 21.0, 18.0, 64.0, 8.0, 20.0, 13.0, 76.0, 39.0, 21.0, 16.0, 34.0, 23.0, 57.0, 15.0, 40.0, 13.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 20.0, 16.0, 21.0, 49.0, 42.0, 34.0, 45.0, 21.0, 14.0, 6.0, 11.0, 30.0, 28.0, 10.0, 7.0, 24.0, 19.0, 12.0, 19.0, 5.0, 16.0, 6.0, 9.0, 7.0, 11.0, 18.0, 7.0, 15.0, 14.0, 13.0, 25.0, 18.0, 32.0, 12.0, 27.0, 13.0, 21.0, 12.0, 22.0, 9.0, 12.0, 14.0, 87.0, 6.0, 20.0, 11.0, 10.0, 14.0, 8.0, 44.0, 21.0, 59.0, 10.0, 5.0, 7.0, 16.0, 9.0, 11.0, 3.0, 13.0, 19.0, 21.0, 22.0, 18.0, 21.0, 13.0, 15.0, 19.0, 20.0, 50.0, 29.0, 23.0, 32.0, 15.0, 21.0, 16.0, 38.0, 65.0, 10.0, 10.0, 17.0, 20.0, 8.0, 24.0, 9.0, 15.0, 85.0, 11.0, 49.0, 9.0, 12.0, 15.0, 11.0, 44.0, 51.0, 31.0, 19.0, 11.0, 13.0, 10.0, 19.0, 49.0, 9.0, 35.0, 18.0, 84.0, 25.0, 11.0, 8.0, 56.0, 21.0, 47.0, 7.0, 15.0, 7.0, 9.0, 16.0, 21.0, 13.0, 75.0, 59.0, 9.0, 20.0, 8.0, 34.0, 76.0, 80.0, 10.0, 12.0, 18.0, 10.0, 30.0, 44.0, 17.0, 11.0, 7.0, 4.0, 23.0, 18.0, 12.0, 8.0, 65.0, 12.0, 13.0, 19.0, 33.0, 10.0, 27.0, 40.0, 41.0, 9.0, 9.0, 35.0, 21.0, 5.0, 67.0, 14.0, 28.0, 18.0, 36.0, 21.0, 7.0, 61.0, 7.0, 18.0, 6.0, 11.0, 47.0, 0.0, 6.0, 77.0, 29.0, 15.0, 11.0, 7.0, 48.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 21.0, 29.0, 12.0, 12.0, 46.0, 11.0, 9.0, 80.0, 16.0, 13.0, 7.0, 18.0, 48.0, 18.0, 12.0, 50.0, 4.0, 12.0, 14.0, 10.0, 10.0, 23.0, 22.0, 79.0, 9.0, 45.0, 14.0, 12.0, 20.0, 2.0, 13.0, 11.0, 42.0, 22.0, 8.0, 13.0, 66.0, 15.0, 10.0, 29.0, 17.0, 17.0, 15.0, 14.0, 12.0, 9.0, 40.0, 24.0, 12.0, 20.0, 25.0, 18.0, 18.0, 70.0, 33.0, 35.0, 15.0, 14.0, 17.0, 47.0, 9.0, 13.0, 44.0, 19.0, 12.0, 9.0, 15.0, 5.0, 9.0, 27.0, 7.0, 64.0, 23.0, 7.0, 17.0, 9.0, 76.0, 2.0, 12.0, 39.0, 15.0, 51.0, 4.0, 11.0, 4.0, 22.0, 23.0, 29.0, 37.0, 19.0, 14.0, 23.0, 58.0, 31.0, 11.0, 14.0, 17.0, 8.0, 8.0, 30.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 38.0, 51.0, 9.0, 32.0, 39.0, 10.0, 15.0, 72.0, 19.0, 58.0, 24.0, 52.0, 37.0, 29.0, 17.0, 45.0, 51.0, 32.0, 14.0, 62.0, 8.0, 15.0, 16.0, 16.0, 45.0, 4.0, 20.0, 53.0, 8.0, 11.0, 10.0, 29.0, 21.0, 53.0, 32.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 18.0, 46.0, 9.0, 62.0, 53.0, 9.0, 14.0, 40.0, 11.0, 29.0, 16.0, 8.0, 13.0, 49.0, 15.0, 16.0, 80.0, 8.0, 36.0, 9.0, 43.0, 37.0, 29.0, 26.0, 25.0, 43.0, 16.0, 13.0, 8.0, 74.0, 9.0, 13.0, 55.0, 41.0, 11.0, 17.0, 15.0, 84.0, 12.0, 7.0, 12.0, 66.0, 16.0, 63.0, 27.0, 14.0, 11.0, 22.0, 39.0, 49.0, 56.0, 26.0, 12.0, 11.0, 81.0, 69.0, 8.0, 17.0, 25.0, 43.0, 16.0, 23.0, 26.0, 35.0, 28.0, 11.0, 15.0, 41.0, 29.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 83.0, 29.0, 78.0, 29.0, 17.0, 16.0, 17.0, 22.0, 21.0, 28.0, 28.0, 29.0, 29.0, 42.0, 25.0, 31.0, 11.0, 11.0, 19.0, 23.0, 60.0, 6.0, 14.0, 16.0, 13.0, 81.0, 21.0, 9.0, 6.0, 11.0, 70.0, 41.0, 6.0, 28.0, 33.0, 37.0, 50.0, 30.0, 15.0, 7.0, 86.0, 50.0, 7.0, 8.0, 11.0, 59.0, 27.0, 12.0, 7.0, 45.0, 39.0]</t>
+          <t>[10.0, 12.0, 12.0, 14.0, 4.0, 18.0, 9.0, 10.0, 5.0, 14.0, 29.0, 9.0, 15.0, 24.0, 12.0, 14.0, 42.0, 15.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 11.0, 17.0, 10.0, 7.0, 40.0, 27.0, 25.0, 11.0, 33.0, 5.0, 8.0, 49.0, 17.0, 12.0, 18.0, 16.0, 66.0, 13.0, 12.0, 24.0, 15.0, 9.0, 18.0, 20.0, 18.0, 11.0, 9.0, 25.0, 21.0, 18.0, 64.0, 8.0, 20.0, 13.0, 76.0, 39.0, 21.0, 16.0, 34.0, 23.0, 57.0, 15.0, 92.0, 40.0, 13.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 20.0, 16.0, 21.0, 49.0, 42.0, 34.0, 45.0, 21.0, 14.0, 6.0, 101.0, 11.0, 30.0, 28.0, 10.0, 7.0, 24.0, 19.0, 12.0, 19.0, 5.0, 16.0, 6.0, 9.0, 7.0, 11.0, 18.0, 7.0, 15.0, 14.0, 13.0, 25.0, 18.0, 32.0, 12.0, 27.0, 13.0, 21.0, 12.0, 22.0, 9.0, 12.0, 14.0, 87.0, 6.0, 20.0, 11.0, 10.0, 14.0, 8.0, 44.0, 21.0, 59.0, 10.0, 5.0, 7.0, 16.0, 9.0, 11.0, 3.0, 13.0, 19.0, 21.0, 22.0, 18.0, 21.0, 13.0, 15.0, 19.0, 20.0, 50.0, 29.0, 23.0, 32.0, 15.0, 21.0, 16.0, 38.0, 118.0, 65.0, 10.0, 10.0, 17.0, 20.0, 8.0, 24.0, 9.0, 15.0, 85.0, 11.0, 49.0, 9.0, 12.0, 15.0, 11.0, 44.0, 51.0, 31.0, 19.0, 11.0, 13.0, 10.0, 19.0, 49.0, 9.0, 35.0, 18.0, 84.0, 25.0, 11.0, 90.0, 93.0, 8.0, 56.0, 21.0, 47.0, 7.0, 99.0, 15.0, 7.0, 9.0, 16.0, 21.0, 13.0, 75.0, 59.0, 9.0, 20.0, 8.0, 34.0, 76.0, 80.0, 10.0, 12.0, 18.0, 10.0, 30.0, 44.0, 17.0, 11.0, 7.0, 4.0, 23.0, 18.0, 12.0, 8.0, 65.0, 12.0, 13.0, 19.0, 33.0, 10.0, 27.0, 40.0, 41.0, 9.0, 9.0, 35.0, 21.0, 5.0, 67.0, 14.0, 28.0, 18.0, 36.0, 21.0, 7.0, 61.0, 7.0, 18.0, 6.0, 11.0, 47.0, 0.0, 6.0, 77.0, 29.0, 15.0, 11.0, 7.0, 48.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 21.0, 29.0, 12.0, 12.0, 46.0, 11.0, 9.0, 80.0, 16.0, 13.0, 7.0, 18.0, 48.0, 18.0, 12.0, 50.0, 4.0, 12.0, 14.0, 10.0, 10.0, 23.0, 22.0, 79.0, 9.0, 45.0, 14.0, 91.0, 12.0, 20.0, 2.0, 13.0, 11.0, 42.0, 22.0, 8.0, 13.0, 66.0, 15.0, 10.0, 29.0, 17.0, 17.0, 15.0, 14.0, 12.0, 9.0, 122.0, 40.0, 24.0, 12.0, 20.0, 25.0, 18.0, 18.0, 121.0, 70.0, 33.0, 35.0, 15.0, 14.0, 17.0, 47.0, 9.0, 13.0, 44.0, 19.0, 117.0, 12.0, 9.0, 15.0, 5.0, 9.0, 27.0, 7.0, 64.0, 23.0, 7.0, 17.0, 9.0, 76.0, 2.0, 12.0, 39.0, 15.0, 51.0, 4.0, 11.0, 4.0, 22.0, 23.0, 29.0, 37.0, 19.0, 14.0, 93.0, 23.0, 58.0, 31.0, 11.0, 14.0, 17.0, 8.0, 8.0, 30.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 38.0, 90.0, 51.0, 9.0, 32.0, 39.0, 98.0, 10.0, 15.0, 72.0, 19.0, 58.0, 24.0, 52.0, 37.0, 29.0, 17.0, 45.0, 51.0, 32.0, 14.0, 62.0, 8.0, 15.0, 16.0, 16.0, 45.0, 4.0, 20.0, 112.0, 53.0, 8.0, 11.0, 10.0, 29.0, 21.0, 53.0, 32.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 18.0, 112.0, 46.0, 9.0, 62.0, 53.0, 92.0, 9.0, 123.0, 14.0, 40.0, 11.0, 29.0, 16.0, 8.0, 13.0, 49.0, 15.0, 93.0, 16.0, 80.0, 105.0, 8.0, 36.0, 9.0, 94.0, 43.0, 37.0, 29.0, 26.0, 25.0, 43.0, 16.0, 13.0, 8.0, 74.0, 9.0, 13.0, 55.0, 41.0, 11.0, 17.0, 15.0, 84.0, 12.0, 7.0, 12.0, 66.0, 154.0, 16.0, 63.0, 27.0, 14.0, 11.0, 22.0, 39.0, 49.0, 56.0, 26.0, 12.0, 11.0, 81.0, 69.0, 8.0, 17.0, 25.0, 43.0, 16.0, 23.0, 119.0, 26.0, 35.0, 28.0, 11.0, 15.0, 41.0, 29.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 83.0, 29.0, 78.0, 29.0, 17.0, 16.0, 17.0, 22.0, 21.0, 28.0, 28.0, 29.0, 29.0, 42.0, 25.0, 31.0, 11.0, 11.0, 19.0, 23.0, 60.0, 6.0, 14.0, 16.0, 13.0, 81.0, 21.0, 9.0, 6.0, 11.0, 70.0, 41.0, 6.0, 28.0, 33.0, 37.0, 50.0, 30.0, 15.0, 7.0, 86.0, 50.0, 7.0, 8.0, 11.0, 59.0, 27.0, 105.0, 12.0, 7.0, 45.0, 39.0, 134.0, 102.0]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[6.0, 3.0, 24.0, 14.0, 4.0, 10.0, 11.0, 35.0, 7.0, 17.0, 16.0, 6.0, 17.0, 5.0, 24.0, 7.0, 13.0, 12.0, 15.0, 26.0, 13.0, 13.0, 10.0, 25.0, 29.0, 22.0, 11.0, 19.0, 21.0, 28.0, 23.0, 18.0, 14.0, 18.0, 26.0, 35.0, 18.0, 49.0, 54.0, 41.0, 20.0, 31.0, 21.0, 3.0, 25.0, 14.0, 22.0, 66.0, 30.0, 43.0, 34.0, 27.0, 13.0, 14.0, 42.0, 10.0, 87.0, 4.0, 22.0, 5.0, 14.0, 36.0, 40.0, 24.0, 16.0, 15.0, 13.0, 34.0, 16.0, 10.0, 1.0, 52.0, 14.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 23.0, 22.0, 16.0, 20.0, 18.0, 12.0, 24.0, 25.0, 50.0, 28.0, 14.0, 24.0, 38.0, 15.0, 15.0, 31.0, 18.0, 0.0, 18.0, 9.0, 4.0, 15.0, 16.0, 10.0, 12.0, 22.0, 33.0, 7.0, 21.0, 52.0, 10.0, 20.0, 16.0, 41.0, 6.0, 12.0, 12.0, 17.0, 30.0, 2.0, 21.0, 19.0, 42.0, 19.0, 7.0, 16.0, 26.0, 23.0, 6.0, 16.0, 13.0, 13.0, 4.0, 2.0, 31.0, 21.0, 23.0, 31.0, 24.0, 20.0, 17.0, 6.0, 5.0, 20.0, 43.0, 5.0, 14.0, 14.0, 26.0, 51.0, 7.0, 14.0, 30.0, 8.0, 5.0, 15.0, 9.0, 12.0, 18.0, 33.0, 23.0, 23.0, 22.0, 33.0, 15.0, 28.0, 1.0, 30.0, 5.0, 51.0, 21.0, 6.0, 8.0, 11.0, 22.0, 23.0, 14.0, 1.0, 1.0, 20.0, 33.0, 6.0, 19.0, 2.0, 12.0, 11.0, 32.0, 6.0, 10.0, 32.0, 21.0, 3.0, 21.0, 9.0, 21.0, 16.0, 21.0, 7.0, 37.0, 15.0, 36.0, 34.0, 14.0, 17.0, 12.0, 14.0, 23.0, 25.0, 6.0, 3.0, 17.0, 16.0, 17.0, 8.0, 38.0, 26.0, 22.0, 14.0, 10.0, 8.0, 27.0, 25.0, 23.0, 18.0, 10.0, 28.0, 17.0, 25.0, 12.0, 17.0, 13.0, 22.0, 55.0, 37.0, 89.0, 89.0, 16.0, 15.0, 23.0, 20.0, 17.0, 18.0, 21.0, 19.0, 19.0, 12.0, 9.0, 5.0, 18.0, 14.0, 26.0, 9.0, 21.0, 16.0, 8.0, 18.0, 5.0, 34.0, 25.0, 21.0, 22.0, 9.0, 16.0, 13.0, 23.0, 19.0, 11.0, 15.0, 23.0, 7.0, 22.0, 29.0, 33.0, 7.0, 30.0, 15.0, 28.0, 16.0, 40.0, 41.0, 38.0, 30.0, 53.0, 63.0, 1.0, 15.0, 46.0, 14.0, 6.0, 59.0, 7.0, 37.0, 51.0, 11.0, 26.0, 16.0, 6.0, 0.0, 29.0, 16.0, 8.0, 33.0, 32.0, 17.0, 11.0, 3.0, 26.0, 23.0, 10.0, 21.0, 41.0, 40.0, 8.0, 2.0, 20.0, 9.0, 30.0, 13.0, 7.0, 53.0, 20.0, 1.0, 16.0, 7.0, 6.0, 1.0, 10.0, 12.0, 11.0, 36.0, 0.0, 4.0, 28.0, 7.0, 14.0, 13.0, 54.0, 48.0, 16.0, 35.0, 21.0, 9.0, 25.0, 5.0, 12.0, 35.0, 19.0, 4.0, 13.0, 13.0, 5.0, 5.0, 23.0, 8.0, 23.0, 25.0, 3.0, 25.0, 7.0, 33.0, 2.0, 31.0, 25.0, 6.0, 8.0, 4.0, 3.0, 32.0, 6.0, 12.0, 6.0, 4.0, 20.0, 29.0, 35.0, 10.0, 58.0, 20.0, 14.0, 12.0, 9.0, 28.0, 9.0, 29.0, 17.0, 28.0, 15.0, 11.0, 5.0, 38.0, 12.0, 18.0, 9.0, 14.0, 16.0, 7.0, 7.0, 10.0, 8.0, 23.0, 44.0, 38.0, 6.0, 7.0, 9.0, 4.0, 17.0, 9.0, 28.0, 13.0, 39.0, 12.0, 4.0, 8.0, 5.0, 53.0, 19.0, 35.0, 6.0, 5.0, 8.0, 3.0, 13.0, 23.0, 1.0, 60.0, 34.0, 25.0, 16.0, 14.0, 4.0, 7.0, 27.0, 22.0, 30.0, 9.0, 6.0, 12.0, 49.0, 4.0, 33.0, 7.0, 34.0, 41.0, 7.0, 44.0, 14.0, 4.0, 8.0, 19.0, 20.0, 4.0, 11.0, 33.0, 7.0, 14.0, 5.0, 26.0, 53.0, 61.0, 81.0]</t>
+          <t>[6.0, 3.0, 24.0, 14.0, 4.0, 10.0, 11.0, 35.0, 7.0, 17.0, 16.0, 6.0, 17.0, 5.0, 24.0, 7.0, 13.0, 12.0, 15.0, 26.0, 13.0, 13.0, 10.0, 25.0, 29.0, 22.0, 11.0, 19.0, 21.0, 28.0, 23.0, 18.0, 14.0, 18.0, 26.0, 35.0, 18.0, 49.0, 54.0, 41.0, 20.0, 31.0, 21.0, 3.0, 25.0, 14.0, 22.0, 66.0, 30.0, 43.0, 34.0, 27.0, 13.0, 14.0, 42.0, 10.0, 87.0, 4.0, 22.0, 5.0, 14.0, 36.0, 40.0, 24.0, 16.0, 15.0, 13.0, 34.0, 16.0, 10.0, 1.0, 52.0, 14.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 23.0, 22.0, 16.0, 20.0, 18.0, 12.0, 24.0, 25.0, 50.0, 28.0, 14.0, 24.0, 38.0, 15.0, 15.0, 31.0, 18.0, 0.0, 18.0, 9.0, 4.0, 15.0, 16.0, 10.0, 12.0, 22.0, 33.0, 7.0, 21.0, 52.0, 10.0, 20.0, 16.0, 41.0, 6.0, 12.0, 12.0, 17.0, 30.0, 2.0, 21.0, 19.0, 42.0, 19.0, 7.0, 16.0, 26.0, 23.0, 6.0, 16.0, 13.0, 13.0, 4.0, 2.0, 31.0, 21.0, 23.0, 31.0, 24.0, 20.0, 17.0, 6.0, 5.0, 20.0, 43.0, 5.0, 14.0, 14.0, 26.0, 51.0, 7.0, 14.0, 30.0, 8.0, 5.0, 15.0, 9.0, 102.0, 12.0, 18.0, 33.0, 23.0, 23.0, 22.0, 33.0, 15.0, 28.0, 1.0, 30.0, 5.0, 51.0, 21.0, 6.0, 8.0, 11.0, 22.0, 23.0, 14.0, 1.0, 1.0, 20.0, 33.0, 6.0, 19.0, 2.0, 12.0, 11.0, 32.0, 6.0, 10.0, 32.0, 21.0, 3.0, 21.0, 9.0, 21.0, 16.0, 21.0, 7.0, 37.0, 15.0, 36.0, 34.0, 14.0, 17.0, 12.0, 14.0, 23.0, 25.0, 6.0, 3.0, 17.0, 16.0, 17.0, 8.0, 38.0, 26.0, 22.0, 14.0, 10.0, 8.0, 27.0, 25.0, 23.0, 18.0, 10.0, 28.0, 17.0, 25.0, 12.0, 17.0, 13.0, 22.0, 55.0, 37.0, 89.0, 89.0, 16.0, 15.0, 23.0, 20.0, 17.0, 18.0, 21.0, 19.0, 19.0, 12.0, 9.0, 5.0, 18.0, 14.0, 26.0, 9.0, 21.0, 16.0, 8.0, 18.0, 5.0, 34.0, 25.0, 21.0, 22.0, 9.0, 16.0, 13.0, 23.0, 19.0, 11.0, 15.0, 23.0, 7.0, 22.0, 29.0, 33.0, 93.0, 7.0, 30.0, 15.0, 28.0, 16.0, 40.0, 41.0, 38.0, 30.0, 53.0, 63.0, 1.0, 15.0, 46.0, 14.0, 6.0, 106.0, 59.0, 7.0, 37.0, 51.0, 11.0, 26.0, 16.0, 6.0, 0.0, 29.0, 16.0, 8.0, 33.0, 32.0, 17.0, 11.0, 3.0, 26.0, 23.0, 10.0, 21.0, 170.0, 41.0, 40.0, 8.0, 2.0, 20.0, 9.0, 30.0, 13.0, 7.0, 53.0, 20.0, 1.0, 16.0, 7.0, 6.0, 1.0, 10.0, 12.0, 11.0, 36.0, 0.0, 4.0, 28.0, 7.0, 14.0, 13.0, 54.0, 48.0, 16.0, 35.0, 21.0, 9.0, 25.0, 5.0, 12.0, 35.0, 19.0, 4.0, 13.0, 13.0, 5.0, 5.0, 23.0, 8.0, 23.0, 25.0, 3.0, 25.0, 7.0, 33.0, 2.0, 31.0, 25.0, 6.0, 8.0, 4.0, 3.0, 32.0, 6.0, 12.0, 6.0, 4.0, 20.0, 29.0, 35.0, 10.0, 58.0, 20.0, 14.0, 12.0, 9.0, 28.0, 9.0, 29.0, 17.0, 28.0, 15.0, 11.0, 5.0, 38.0, 12.0, 18.0, 9.0, 14.0, 16.0, 7.0, 7.0, 10.0, 104.0, 8.0, 23.0, 44.0, 38.0, 6.0, 7.0, 9.0, 4.0, 17.0, 9.0, 28.0, 13.0, 39.0, 12.0, 4.0, 8.0, 5.0, 53.0, 19.0, 35.0, 6.0, 5.0, 8.0, 3.0, 13.0, 23.0, 1.0, 60.0, 34.0, 25.0, 16.0, 14.0, 4.0, 7.0, 27.0, 22.0, 30.0, 9.0, 6.0, 12.0, 49.0, 4.0, 33.0, 7.0, 34.0, 41.0, 7.0, 44.0, 14.0, 4.0, 8.0, 19.0, 20.0, 4.0, 11.0, 33.0, 7.0, 14.0, 5.0, 26.0, 53.0, 61.0, 81.0, 144.0]</t>
         </is>
       </c>
     </row>
@@ -2755,37 +2755,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3.0, 5.0, 0.0, 10.0, 2.0, 0.0, 3.0, 0.0, 6.0, 0.0, 3.0, 15.0, 0.0, 4.0, 6.0, 4.0, 6.0, 13.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 0.0, 4.0, 0.0, 0.0, 4.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 10.0, 9.0, 0.0, 2.0, 0.0, 4.0, 1.0, 2.0, 4.0, 0.0, 0.0, 3.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 6.0, 2.0, 6.0, 4.0, 9.0, 1.0, 10.0, 2.0, 1.0, 6.0, 0.0, 1.0, 3.0, 3.0, 3.0, 3.0, 0.0, 3.0, 3.0, 0.0, 5.0, 5.0, 4.0, 3.0, 12.0, 8.0, 0.0, 4.0, 4.0, 3.0, 7.0, 3.0, 0.0, 2.0, 0.0, 0.0, 4.0, 4.0, 0.0, 5.0, 8.0, 0.0, 0.0, 21.0, 0.0, 0.0, 6.0, 1.0, 12.0, 0.0, 0.0, 3.0, 3.0, 0.0, 7.0, 1.0, 0.0, 0.0, 14.0, 0.0, 0.0, 1.0, 0.0, 0.0, 9.0, 14.0, 0.0, 0.0, 2.0, 5.0, 0.0, 0.0, 0.0, 12.0, 5.0, 0.0, 8.0, 3.0, 0.0, 3.0, 0.0, 0.0, 1.0, 1.0, 5.0, 2.0, 6.0, 0.0, 0.0, 0.0, 4.0, 20.0, 3.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 3.0, 2.0, 0.0, 0.0, 3.0, 11.0, 3.0, 0.0, 4.0, 3.0, 4.0, 0.0, 4.0, 4.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 2.0, 1.0, 0.0, 3.0, 9.0, 12.0, 11.0, 0.0, 0.0, 11.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 13.0, 0.0, 0.0, 0.0, 10.0, 0.0, 0.0, 0.0, 7.0, 0.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 9.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 3.0, 0.0, 1.0, 2.0, 6.0, 0.0, 2.0, 0.0, 0.0, 7.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 2.0, 8.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 3.0, 0.0, 1.0, 5.0, 0.0, 2.0, 6.0, 5.0, 19.0, 0.0, 6.0, 3.0, 0.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 10.0, 11.0, 4.0, 4.0, 0.0, 3.0, 3.0, 0.0, 2.0, 0.0, 13.0, 0.0, 0.0, 0.0, 0.0, 5.0, 3.0, 3.0, 11.0, 0.0, 5.0, 0.0, 4.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 0.0, 0.0, 3.0, 11.0, 7.0, 0.0, 1.0, 10.0, 2.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 0.0, 4.0, 0.0, 4.0, 8.0, 2.0, 14.0, 14.0, 4.0, 0.0, 3.0, 0.0, 0.0, 3.0, 3.0, 4.0, 3.0, 0.0, 8.0, 12.0, 1.0, 3.0, 0.0, 2.0, 0.0, 4.0, 1.0, 1.0, 3.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 8.0, 3.0, 0.0, 0.0, 4.0, 2.0, 3.0, 1.0, 3.0, 2.0, 0.0, 3.0, 7.0, 4.0, 1.0, 2.0, 2.0, 2.0, 2.0, 0.0, 0.0, 2.0, 0.0, 10.0, 17.0, 3.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 14.0, 9.0, 20.0, 1.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 9.0, 1.0, 17.0, 0.0, 2.0, 0.0, 6.0, 1.0, 2.0, 6.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 0.0, 5.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 7.0, 1.0, 20.0, 3.0, 7.0, 0.0, 0.0, 18.0, 3.0, 2.0, 4.0, 15.0, 0.0, 11.0, 1.0, 4.0, 2.0, 0.0, 1.0, 18.0, 2.0, 0.0, 0.0, 0.0, 4.0, 1.0, 3.0, 2.0, 7.0, 5.0, 3.0, 1.0, 19.0, 8.0, 1.0, 9.0, 10.0, 0.0, 4.0, 17.0, 8.0, 0.0, 6.0, 2.0, 0.0, 0.0, 0.0, 10.0, 0.0, 9.0, 2.0, 2.0, 0.0, 13.0, 12.0, 18.0, 1.0, 7.0, 12.0, 0.0, 2.0, 0.0, 3.0, 4.0, 10.0, 0.0, 2.0, 12.0, 3.0, 1.0, 0.0, 4.0, 3.0, 0.0, 0.0, 4.0, 0.0, 2.0, 3.0, 1.0, 0.0, 21.0, 0.0, 4.0, 0.0, 0.0, 16.0, 0.0, 4.0, 2.0, 4.0, 1.0, 0.0, 0.0, 7.0, 0.0, 7.0, 11.0, 0.0, 0.0, 4.0, 1.0, 0.0, 7.0, 7.0, 8.0, 0.0, 15.0, 4.0, 6.0, 2.0, 3.0, 0.0, 0.0, 4.0, 0.0, 12.0, 0.0, 6.0, 2.0, 0.0, 0.0, 4.0, 8.0, 4.0, 0.0, 2.0, 2.0, 2.0, 1.0, 1.0, 0.0, 10.0, 2.0, 3.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 6.0, 2.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 2.0, 1.0, 6.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 6.0, 6.0, 4.0, 4.0, 1.0, 0.0, 4.0, 0.0, 3.0, 5.0, 2.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 13.0, 6.0, 5.0, 0.0, 1.0, 0.0, 3.0, 0.0, 4.0, 9.0, 0.0, 4.0, 0.0, 0.0, 14.0, 4.0, 0.0, 7.0, 0.0, 0.0, 0.0, 0.0, 0.0, 9.0, 0.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 2.0, 0.0, 11.0, 0.0, 0.0, 7.0, 3.0, 0.0, 0.0, 2.0, 1.0, 0.0, 0.0, 6.0, 9.0, 0.0, 1.0, 3.0, 0.0, 0.0, 3.0, 1.0, 12.0, 3.0, 0.0, 14.0, 3.0, 3.0, 6.0, 5.0, 0.0, 0.0, 1.0, 2.0, 0.0, 2.0, 3.0, 0.0, 0.0, 3.0, 5.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 4.0, 1.0, 2.0, 0.0, 0.0, 3.0, 0.0, 7.0, 5.0, 0.0, 0.0, 6.0, 1.0, 1.0, 0.0, 7.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 4.0, 0.0, 10.0, 15.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 16.0, 10.0, 3.0, 1.0, 0.0, 0.0, 2.0, 1.0, 9.0, 0.0, 1.0, 0.0, 5.0, 10.0, 4.0, 2.0, 0.0, 1.0, 18.0, 4.0, 5.0, 7.0, 0.0, 3.0, 1.0, 1.0, 0.0, 15.0, 4.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 1.0, 4.0, 0.0, 3.0, 4.0, 2.0, 8.0, 6.0, 5.0, 4.0, 1.0, 0.0, 0.0, 0.0, 4.0, 2.0, 18.0, 0.0, 0.0, 2.0, 5.0, 3.0, 4.0, 0.0, 3.0, 2.0, 4.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 0.0, 7.0, 2.0, 0.0, 0.0, 3.0, 5.0, 4.0, 2.0, 0.0, 16.0, 6.0, 0.0, 0.0, 5.0, 0.0, 1.0, 3.0, 1.0, 6.0, 0.0, 6.0, 0.0, 1.0, 0.0, 6.0, 0.0, 1.0, 0.0, 18.0, 2.0, 0.0, 1.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 0.0, 1.0, 3.0, 0.0, 8.0, 0.0, 2.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 3.0, 3.0, 0.0, 3.0, 0.0, 1.0, 0.0, 5.0, 2.0, 4.0, 0.0, 1.0, 4.0, 3.0, 0.0, 2.0, 8.0, 0.0, 0.0, 0.0, 2.0, 10.0, 0.0, 4.0, 6.0, 0.0, 0.0, 4.0, 0.0, 0.0, 4.0, 5.0, 0.0, 4.0, 0.0, 10.0, 7.0, 0.0, 3.0, 10.0, 3.0, 5.0, 2.0, 0.0, 0.0, 0.0, 4.0, 2.0, 5.0, 5.0, 3.0, 0.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 0.0, 5.0, 3.0, 4.0, 4.0, 0.0, 1.0, 4.0, 2.0, 0.0, 5.0, 6.0, 6.0, 0.0, 4.0, 2.0, 3.0, 9.0, 2.0, 0.0, 1.0, 0.0, 1.0, 2.0, 3.0, 0.0, 4.0, 0.0, 3.0, 0.0, 3.0, 1.0, 2.0, 0.0, 0.0, 0.0, 2.0, 10.0, 2.0, 5.0, 0.0, 6.0, 2.0, 2.0, 5.0, 0.0, 0.0, 0.0, 8.0, 1.0, 6.0, 5.0, 5.0, 16.0, 10.0, 0.0, 6.0, 3.0, 0.0]</t>
+          <t>[3.0, 5.0, 0.0, 10.0, 2.0, 0.0, 3.0, 0.0, 6.0, 0.0, 3.0, 15.0, 0.0, 4.0, 6.0, 4.0, 6.0, 13.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 0.0, 4.0, 0.0, 0.0, 4.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 10.0, 9.0, 0.0, 2.0, 0.0, 4.0, 1.0, 2.0, 4.0, 0.0, 0.0, 3.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 6.0, 2.0, 6.0, 4.0, 9.0, 1.0, 10.0, 2.0, 1.0, 6.0, 0.0, 1.0, 3.0, 3.0, 3.0, 3.0, 0.0, 3.0, 3.0, 0.0, 5.0, 5.0, 4.0, 3.0, 12.0, 8.0, 0.0, 4.0, 4.0, 3.0, 7.0, 3.0, 0.0, 2.0, 0.0, 0.0, 4.0, 4.0, 0.0, 5.0, 8.0, 0.0, 0.0, 21.0, 0.0, 0.0, 6.0, 1.0, 12.0, 0.0, 0.0, 3.0, 3.0, 0.0, 7.0, 1.0, 0.0, 0.0, 14.0, 0.0, 0.0, 1.0, 0.0, 0.0, 9.0, 14.0, 0.0, 0.0, 2.0, 5.0, 0.0, 0.0, 0.0, 12.0, 5.0, 0.0, 8.0, 3.0, 0.0, 3.0, 0.0, 0.0, 1.0, 1.0, 5.0, 2.0, 6.0, 0.0, 0.0, 0.0, 4.0, 20.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 3.0, 2.0, 0.0, 0.0, 3.0, 11.0, 3.0, 0.0, 4.0, 3.0, 4.0, 0.0, 4.0, 4.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 2.0, 1.0, 0.0, 3.0, 9.0, 12.0, 11.0, 0.0, 0.0, 11.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 13.0, 0.0, 0.0, 0.0, 10.0, 0.0, 0.0, 0.0, 7.0, 0.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 9.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 2.0, 3.0, 0.0, 1.0, 2.0, 6.0, 0.0, 2.0, 0.0, 0.0, 7.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 2.0, 2.0, 8.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 3.0, 0.0, 1.0, 5.0, 0.0, 2.0, 6.0, 5.0, 19.0, 0.0, 6.0, 3.0, 0.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 10.0, 11.0, 4.0, 4.0, 0.0, 3.0, 3.0, 0.0, 2.0, 0.0, 13.0, 0.0, 0.0, 0.0, 0.0, 5.0, 3.0, 3.0, 11.0, 0.0, 5.0, 0.0, 4.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 0.0, 0.0, 3.0, 11.0, 7.0, 0.0, 1.0, 10.0, 2.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 0.0, 4.0, 0.0, 4.0, 8.0, 2.0, 14.0, 14.0, 4.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 3.0, 4.0, 3.0, 0.0, 1.0, 8.0, 12.0, 1.0, 3.0, 0.0, 0.0, 2.0, 0.0, 4.0, 1.0, 1.0, 3.0, 5.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 8.0, 3.0, 0.0, 0.0, 4.0, 2.0, 3.0, 1.0, 3.0, 2.0, 0.0, 3.0, 7.0, 4.0, 1.0, 2.0, 2.0, 2.0, 2.0, 0.0, 0.0, 2.0, 0.0, 10.0, 17.0, 3.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 14.0, 9.0, 20.0, 1.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 9.0, 1.0, 17.0, 0.0, 2.0, 0.0, 6.0, 1.0, 2.0, 6.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 0.0, 5.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 4.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 7.0, 1.0, 20.0, 3.0, 7.0, 0.0, 0.0, 18.0, 3.0, 2.0, 4.0, 15.0, 0.0, 11.0, 1.0, 4.0, 2.0, 0.0, 1.0, 18.0, 2.0, 0.0, 0.0, 0.0, 4.0, 1.0, 3.0, 2.0, 7.0, 5.0, 3.0, 1.0, 19.0, 8.0, 1.0, 9.0, 10.0, 0.0, 4.0, 17.0, 8.0, 0.0, 6.0, 2.0, 0.0, 0.0, 0.0, 10.0, 0.0, 9.0, 2.0, 2.0, 0.0, 13.0, 12.0, 18.0, 1.0, 7.0, 12.0, 0.0, 2.0, 0.0, 3.0, 4.0, 10.0, 0.0, 2.0, 12.0, 3.0, 1.0, 0.0, 4.0, 3.0, 0.0, 0.0, 4.0, 0.0, 2.0, 3.0, 1.0, 0.0, 21.0, 0.0, 4.0, 0.0, 0.0, 16.0, 0.0, 4.0, 2.0, 4.0, 1.0, 0.0, 4.0, 0.0, 7.0, 0.0, 7.0, 11.0, 0.0, 0.0, 4.0, 1.0, 0.0, 7.0, 7.0, 8.0, 0.0, 15.0, 4.0, 6.0, 2.0, 3.0, 0.0, 0.0, 4.0, 0.0, 12.0, 0.0, 6.0, 2.0, 0.0, 0.0, 4.0, 8.0, 4.0, 0.0, 2.0, 2.0, 2.0, 1.0, 1.0, 0.0, 10.0, 2.0, 3.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 6.0, 2.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 2.0, 1.0, 6.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 9.0, 6.0, 6.0, 4.0, 4.0, 1.0, 0.0, 4.0, 0.0, 3.0, 5.0, 2.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 13.0, 6.0, 5.0, 0.0, 1.0, 0.0, 3.0, 0.0, 4.0, 9.0, 0.0, 4.0, 0.0, 0.0, 14.0, 4.0, 0.0, 7.0, 0.0, 0.0, 0.0, 0.0, 0.0, 9.0, 0.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 2.0, 0.0, 11.0, 0.0, 0.0, 7.0, 3.0, 0.0, 0.0, 2.0, 1.0, 0.0, 0.0, 6.0, 9.0, 0.0, 1.0, 3.0, 0.0, 0.0, 3.0, 1.0, 12.0, 3.0, 0.0, 14.0, 3.0, 3.0, 0.0, 6.0, 5.0, 0.0, 3.0, 0.0, 1.0, 2.0, 0.0, 2.0, 3.0, 0.0, 0.0, 3.0, 8.0, 5.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 4.0, 1.0, 2.0, 0.0, 0.0, 3.0, 0.0, 7.0, 5.0, 0.0, 0.0, 6.0, 1.0, 1.0, 0.0, 7.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 4.0, 0.0, 10.0, 15.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 16.0, 10.0, 3.0, 1.0, 0.0, 0.0, 2.0, 0.0, 1.0, 9.0, 0.0, 1.0, 0.0, 5.0, 10.0, 4.0, 2.0, 0.0, 1.0, 18.0, 4.0, 5.0, 3.0, 7.0, 0.0, 3.0, 1.0, 4.0, 1.0, 0.0, 15.0, 4.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 1.0, 4.0, 0.0, 3.0, 4.0, 2.0, 8.0, 6.0, 5.0, 4.0, 1.0, 0.0, 0.0, 0.0, 4.0, 2.0, 18.0, 0.0, 0.0, 2.0, 5.0, 3.0, 4.0, 0.0, 3.0, 2.0, 4.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 0.0, 7.0, 2.0, 0.0, 0.0, 3.0, 5.0, 4.0, 2.0, 2.0, 0.0, 16.0, 6.0, 0.0, 0.0, 4.0, 0.0, 5.0, 0.0, 1.0, 3.0, 1.0, 6.0, 0.0, 6.0, 0.0, 1.0, 0.0, 6.0, 0.0, 1.0, 0.0, 18.0, 2.0, 0.0, 1.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 0.0, 1.0, 3.0, 0.0, 8.0, 3.0, 0.0, 2.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 3.0, 3.0, 0.0, 3.0, 0.0, 1.0, 0.0, 5.0, 2.0, 4.0, 0.0, 1.0, 4.0, 3.0, 0.0, 2.0, 8.0, 0.0, 0.0, 0.0, 2.0, 10.0, 0.0, 4.0, 6.0, 0.0, 0.0, 4.0, 0.0, 0.0, 4.0, 5.0, 0.0, 4.0, 0.0, 10.0, 7.0, 0.0, 3.0, 10.0, 3.0, 3.0, 5.0, 2.0, 0.0, 0.0, 0.0, 4.0, 2.0, 5.0, 5.0, 2.0, 3.0, 0.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 0.0, 5.0, 3.0, 4.0, 4.0, 0.0, 1.0, 4.0, 2.0, 0.0, 5.0, 6.0, 6.0, 0.0, 4.0, 2.0, 3.0, 1.0, 9.0, 2.0, 0.0, 1.0, 0.0, 1.0, 2.0, 3.0, 0.0, 4.0, 0.0, 3.0, 0.0, 3.0, 1.0, 2.0, 0.0, 0.0, 0.0, 2.0, 10.0, 2.0, 5.0, 0.0, 6.0, 2.0, 2.0, 5.0, 0.0, 0.0, 0.0, 8.0, 1.0, 6.0, 5.0, 5.0, 16.0, 10.0, 0.0, 6.0, 3.0, 0.0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[3.0, 5.0, 6.0, 6.0, 5.0, 6.0, 7.0, 9.0, 7.0, 7.0, 7.0, 7.0, 5.0, 4.0, 4.0, 11.0, 9.0, 10.0, 10.0, 5.0, 13.0, 10.0, 11.0, 3.0, 3.0, 9.0, 9.0, 12.0, 11.0, 7.0, 4.0, 8.0, 12.0, 17.0, 2.0, 20.0, 5.0, 5.0, 6.0, 9.0, 7.0, 2.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 6.0, 7.0, 4.0, 7.0, 12.0, 11.0, 12.0, 4.0, 4.0, 21.0, 10.0, 25.0, 2.0, 11.0, 4.0, 14.0, 13.0, 7.0, 5.0, 7.0, 7.0, 5.0, 11.0, 6.0, 25.0, 11.0, 22.0, 7.0, 5.0, 8.0, 2.0, 5.0, 22.0, 8.0, 3.0, 13.0, 10.0, 6.0, 10.0, 7.0, 19.0, 10.0, 6.0, 11.0, 8.0, 1.0, 8.0, 3.0, 10.0, 24.0, 3.0, 8.0, 6.0, 9.0, 11.0, 7.0, 22.0, 13.0, 22.0, 7.0, 8.0, 3.0, 6.0, 4.0, 5.0, 7.0, 6.0, 11.0, 6.0, 5.0, 10.0, 10.0, 22.0, 9.0, 9.0, 16.0, 12.0, 5.0, 10.0, 6.0, 4.0, 13.0, 15.0, 27.0, 5.0, 21.0, 15.0, 3.0, 3.0, 4.0, 7.0, 14.0, 11.0, 14.0, 15.0, 15.0, 15.0, 4.0, 11.0, 2.0, 10.0, 3.0, 12.0, 20.0, 6.0, 16.0, 3.0, 6.0, 13.0, 34.0, 11.0, 4.0, 7.0, 6.0, 3.0, 11.0, 13.0, 25.0, 7.0, 4.0, 6.0, 7.0, 35.0, 13.0, 15.0, 4.0, 7.0, 6.0, 1.0, 13.0, 6.0, 9.0, 10.0, 27.0, 7.0, 7.0, 23.0, 29.0, 24.0, 14.0, 17.0, 23.0, 38.0, 0.0, 9.0, 39.0, 11.0, 11.0, 35.0, 1.0, 2.0, 7.0, 28.0, 2.0, 2.0, 11.0, 11.0, 8.0, 10.0, 4.0, 32.0, 6.0, 26.0, 3.0, 26.0, 5.0, 4.0, 13.0, 7.0, 5.0, 10.0, 11.0, 39.0, 24.0, 32.0, 47.0, 4.0, 13.0, 19.0, 12.0, 1.0, 15.0, 14.0, 7.0, 1.0, 7.0, 22.0, 19.0, 8.0, 30.0, 11.0, 13.0, 22.0, 6.0, 8.0, 48.0, 13.0, 15.0, 15.0, 26.0, 28.0, 32.0, 8.0, 3.0, 7.0, 13.0, 23.0, 15.0, 11.0, 3.0, 5.0, 39.0, 16.0, 10.0, 12.0, 16.0, 2.0, 41.0, 5.0, 11.0, 24.0, 14.0, 10.0, 12.0, 5.0, 43.0, 8.0, 20.0, 4.0, 15.0, 12.0, 49.0, 42.0, 26.0, 20.0, 8.0, 28.0, 0.0, 20.0, 14.0, 5.0, 29.0, 15.0, 14.0, 9.0, 8.0, 14.0, 20.0, 8.0, 8.0, 5.0, 27.0, 20.0, 7.0, 8.0, 14.0, 3.0, 10.0, 13.0, 11.0, 7.0, 7.0, 36.0, 46.0, 35.0, 29.0, 15.0, 30.0, 9.0, 8.0, 50.0, 14.0, 29.0, 7.0, 2.0, 11.0, 10.0, 5.0, 23.0, 2.0, 12.0, 19.0, 4.0, 6.0, 11.0, 2.0, 15.0, 31.0, 12.0, 24.0, 13.0, 18.0, 46.0, 11.0, 14.0, 12.0, 7.0, 7.0, 46.0, 6.0, 13.0, 13.0, 8.0, 5.0, 11.0, 8.0, 15.0, 15.0, 13.0, 39.0, 15.0, 48.0, 10.0, 5.0, 7.0, 2.0, 8.0, 3.0, 9.0, 21.0, 35.0, 27.0, 12.0, 7.0, 15.0, 27.0, 2.0, 10.0, 6.0, 15.0, 3.0, 2.0, 15.0, 7.0, 7.0, 3.0, 7.0, 4.0, 8.0, 31.0, 26.0, 7.0, 1.0, 9.0, 8.0, 1.0, 1.0, 1.0, 3.0, 25.0, 8.0, 10.0, 11.0, 4.0, 3.0, 30.0, 4.0, 3.0, 3.0, 20.0, 9.0, 5.0, 42.0, 13.0, 55.0, 18.0, 12.0, 4.0, 9.0, 7.0, 14.0, 18.0, 21.0, 45.0, 59.0, 6.0, 46.0, 5.0, 1.0, 13.0, 26.0, 5.0, 5.0, 2.0, 6.0, 12.0, 15.0, 8.0, 9.0, 2.0, 11.0, 9.0, 8.0, 2.0, 1.0, 14.0, 14.0, 42.0, 3.0, 12.0, 21.0, 9.0, 9.0, 25.0, 4.0, 10.0, 7.0, 1.0, 14.0, 15.0, 2.0, 11.0, 11.0, 5.0, 11.0, 16.0, 10.0, 25.0, 45.0, 12.0, 46.0, 10.0, 3.0, 6.0, 11.0, 11.0, 13.0, 7.0, 11.0, 10.0, 9.0, 17.0, 7.0, 22.0, 6.0, 26.0, 30.0, 5.0, 8.0, 4.0, 17.0, 6.0, 6.0, 55.0, 4.0, 6.0, 5.0, 15.0, 5.0, 7.0, 8.0, 12.0, 35.0, 8.0, 22.0, 56.0, 19.0, 5.0, 17.0, 6.0, 13.0, 29.0, 4.0, 9.0, 8.0, 3.0, 7.0, 1.0, 15.0, 67.0, 9.0, 51.0, 9.0, 17.0, 7.0, 9.0, 22.0, 4.0, 21.0, 4.0, 7.0, 7.0, 7.0, 4.0, 37.0, 3.0, 9.0, 21.0, 7.0, 3.0, 10.0, 8.0, 8.0, 6.0, 14.0, 5.0, 3.0, 5.0, 4.0, 6.0, 6.0, 27.0, 19.0, 6.0, 9.0, 12.0, 7.0, 18.0, 7.0, 6.0, 16.0, 5.0, 11.0, 11.0, 12.0, 22.0, 2.0, 26.0, 17.0, 49.0, 7.0, 5.0, 9.0, 25.0, 36.0, 15.0, 18.0, 26.0, 8.0, 11.0, 82.0, 13.0, 7.0, 2.0, 11.0, 11.0, 4.0, 11.0, 15.0, 31.0, 18.0, 8.0, 14.0, 5.0, 8.0, 7.0, 37.0, 13.0, 32.0, 40.0, 14.0, 19.0, 35.0, 14.0, 14.0, 27.0, 14.0, 13.0, 8.0, 10.0, 36.0, 14.0, 6.0, 13.0, 13.0, 23.0, 29.0, 17.0, 20.0, 2.0, 7.0, 2.0, 50.0, 17.0, 5.0, 7.0, 7.0, 21.0, 7.0, 16.0, 7.0, 22.0, 35.0, 15.0, 11.0, 9.0, 17.0, 29.0, 10.0, 4.0, 7.0, 1.0, 10.0, 8.0, 23.0, 9.0, 12.0, 6.0, 4.0, 34.0, 9.0, 9.0, 4.0, 26.0, 0.0, 25.0, 4.0, 12.0, 12.0, 7.0, 3.0, 10.0, 7.0, 13.0, 13.0, 25.0, 6.0, 30.0, 20.0, 19.0, 4.0, 11.0, 9.0, 8.0, 13.0, 25.0, 2.0, 6.0, 13.0, 1.0, 10.0, 2.0, 7.0, 8.0, 16.0, 5.0, 3.0, 9.0, 17.0, 65.0, 30.0, 8.0, 22.0, 37.0, 80.0, 16.0, 15.0, 15.0, 89.0, 17.0, 10.0, 7.0, 6.0, 9.0, 17.0, 17.0, 28.0, 22.0, 20.0, 30.0, 4.0, 3.0, 16.0, 14.0, 3.0, 31.0, 5.0, 7.0, 7.0, 23.0, 10.0, 2.0, 8.0, 14.0, 10.0, 12.0, 47.0, 10.0, 1.0, 15.0, 19.0, 7.0, 16.0, 9.0, 18.0, 19.0, 11.0, 4.0, 4.0, 18.0, 24.0, 12.0, 4.0, 13.0, 4.0, 7.0, 70.0, 7.0, 21.0, 4.0, 9.0, 26.0, 11.0, 20.0, 7.0, 6.0, 5.0, 11.0, 28.0, 8.0, 6.0, 9.0, 1.0, 4.0, 13.0, 14.0, 4.0, 20.0, 5.0, 1.0, 7.0, 6.0, 2.0, 13.0, 36.0, 39.0, 10.0, 12.0, 12.0, 2.0, 2.0, 33.0, 12.0, 14.0, 23.0, 19.0, 2.0, 40.0, 16.0, 5.0, 12.0, 5.0, 9.0, 12.0, 12.0, 23.0, 77.0, 17.0, 8.0, 29.0, 10.0, 36.0, 1.0, 8.0, 32.0, 5.0, 20.0, 6.0, 65.0, 7.0, 3.0, 6.0, 43.0, 23.0, 16.0, 10.0, 8.0, 7.0, 2.0, 4.0, 23.0, 25.0, 8.0, 7.0, 4.0, 8.0, 9.0, 9.0, 11.0, 1.0, 8.0, 4.0, 7.0, 11.0, 0.0, 25.0, 12.0, 6.0, 5.0, 8.0, 10.0, 8.0, 23.0, 4.0, 5.0, 5.0, 5.0, 19.0, 2.0, 19.0, 8.0, 13.0, 37.0, 7.0, 5.0, 3.0, 31.0, 12.0, 6.0, 30.0, 11.0, 6.0, 10.0, 11.0, 18.0, 54.0, 4.0, 11.0, 7.0, 10.0, 1.0, 6.0, 1.0, 7.0, 17.0, 4.0, 5.0, 7.0, 11.0, 16.0, 10.0, 5.0, 0.0, 7.0, 4.0, 6.0, 5.0, 14.0, 22.0, 18.0, 40.0, 13.0, 4.0, 18.0, 20.0, 6.0, 8.0, 1.0, 6.0, 6.0, 6.0, 35.0, 4.0, 8.0, 21.0, 21.0, 15.0, 7.0, 8.0, 4.0, 5.0, 2.0, 2.0, 23.0, 9.0, 3.0, 7.0, 16.0, 5.0, 8.0, 12.0, 5.0, 1.0, 5.0, 6.0, 9.0, 13.0, 6.0, 6.0, 15.0, 43.0, 9.0, 6.0, 20.0, 35.0, 5.0, 15.0, 7.0, 5.0, 6.0, 15.0, 3.0, 13.0, 30.0, 5.0, 9.0, 13.0, 10.0, 14.0, 10.0, 17.0, 6.0, 30.0, 2.0, 6.0, 3.0, 3.0, 17.0, 6.0, 9.0, 14.0, 13.0, 0.0, 7.0, 9.0, 8.0, 0.0, 24.0, 22.0, 13.0, 6.0, 80.0, 16.0, 2.0, 9.0, 1.0, 4.0, 21.0, 3.0, 14.0, 8.0, 4.0, 62.0, 7.0, 16.0, 15.0, 5.0, 29.0, 8.0, 7.0, 12.0, 22.0, 4.0, 4.0, 14.0, 5.0, 12.0, 21.0, 7.0, 10.0, 7.0, 2.0, 2.0, 7.0, 32.0, 2.0, 11.0, 35.0, 39.0, 7.0, 8.0, 6.0, 2.0, 11.0, 10.0, 11.0, 8.0, 5.0, 22.0, 3.0, 6.0, 12.0, 11.0, 4.0, 8.0, 14.0, 5.0, 8.0, 54.0, 15.0, 10.0, 8.0, 32.0, 15.0, 37.0, 39.0, 5.0, 5.0, 33.0, 16.0, 14.0, 13.0, 4.0, 4.0, 4.0, 7.0, 2.0, 7.0, 7.0, 4.0, 38.0, 9.0, 9.0, 5.0, 11.0, 26.0, 34.0, 9.0, 2.0, 5.0, 5.0, 3.0, 5.0, 60.0, 5.0, 11.0, 20.0, 7.0, 5.0, 10.0, 7.0, 6.0, 11.0, 7.0, 14.0, 13.0, 3.0, 5.0, 5.0, 10.0, 10.0, 17.0, 5.0, 11.0, 7.0, 7.0, 7.0, 5.0, 12.0, 7.0, 13.0, 4.0, 3.0, 5.0, 36.0, 25.0, 18.0, 71.0, 32.0, 11.0, 8.0, 10.0, 4.0, 10.0, 10.0, 11.0, 41.0, 1.0, 7.0, 8.0, 4.0, 8.0, 49.0, 7.0, 3.0, 14.0, 14.0, 13.0, 12.0, 9.0, 12.0, 3.0, 13.0, 11.0, 15.0, 5.0, 4.0, 8.0, 8.0, 12.0, 5.0, 2.0, 8.0, 6.0, 13.0, 4.0, 4.0, 11.0, 11.0, 8.0, 53.0, 4.0, 15.0, 5.0, 49.0, 1.0, 8.0, 8.0, 22.0, 4.0, 7.0, 21.0, 3.0, 8.0, 6.0, 13.0, 8.0, 7.0, 7.0, 6.0, 8.0, 16.0, 28.0, 1.0, 9.0, 8.0, 5.0, 69.0, 6.0, 12.0, 6.0, 6.0, 13.0, 3.0, 9.0, 12.0, 15.0, 7.0, 12.0, 9.0, 2.0, 12.0, 7.0, 5.0, 2.0, 24.0, 5.0, 47.0, 6.0, 9.0, 7.0, 9.0, 10.0, 6.0, 6.0, 7.0, 17.0, 16.0, 23.0, 7.0, 34.0, 6.0, 6.0, 7.0, 12.0, 6.0, 8.0, 3.0, 6.0, 16.0, 14.0, 14.0, 10.0, 7.0, 1.0, 13.0, 6.0, 6.0, 10.0, 13.0, 6.0, 13.0, 3.0, 7.0, 9.0, 21.0, 7.0, 20.0, 11.0, 2.0, 3.0, 20.0, 13.0, 6.0, 2.0, 17.0, 14.0, 14.0, 25.0, 27.0, 2.0, 10.0, 7.0, 7.0, 4.0, 13.0, 4.0, 5.0, 14.0, 2.0, 15.0, 1.0, 4.0, 15.0, 9.0, 2.0, 11.0, 14.0, 4.0, 41.0, 8.0, 21.0, 8.0, 7.0, 4.0, 8.0, 4.0, 7.0, 7.0, 7.0, 9.0, 4.0, 39.0, 14.0, 8.0, 3.0, 12.0, 39.0, 2.0, 4.0, 10.0, 19.0, 21.0, 14.0, 8.0, 13.0, 24.0, 8.0, 26.0, 2.0, 7.0, 4.0, 4.0, 11.0, 21.0, 14.0, 4.0, 11.0, 63.0, 10.0, 8.0, 5.0, 8.0, 16.0, 15.0, 9.0, 5.0, 16.0, 5.0, 11.0, 12.0, 9.0, 1.0, 25.0, 6.0, 13.0, 6.0, 24.0, 4.0, 6.0, 1.0, 4.0, 22.0, 5.0, 16.0, 5.0, 4.0, 13.0, 16.0, 2.0, 2.0, 44.0, 57.0, 4.0, 4.0, 2.0, 4.0, 53.0, 7.0, 5.0, 6.0, 69.0, 6.0, 8.0, 9.0, 11.0, 3.0, 9.0, 5.0, 6.0, 12.0, 3.0, 12.0, 6.0, 9.0, 10.0, 13.0, 12.0, 5.0, 11.0, 5.0, 11.0, 7.0, 14.0, 5.0, 6.0, 1.0, 7.0, 11.0, 6.0, 2.0, 9.0, 14.0, 10.0, 7.0, 29.0, 1.0, 11.0, 1.0, 3.0, 19.0, 10.0, 6.0, 6.0, 10.0, 3.0, 12.0, 5.0, 18.0, 31.0, 6.0, 11.0, 6.0, 10.0, 1.0, 4.0, 40.0, 3.0, 10.0, 21.0, 12.0, 17.0, 6.0, 3.0, 30.0, 20.0, 4.0, 6.0, 13.0, 5.0, 36.0, 3.0, 1.0, 8.0, 11.0, 5.0, 53.0, 12.0, 14.0, 5.0, 4.0, 19.0, 4.0, 5.0, 8.0, 7.0, 20.0, 8.0, 7.0, 4.0, 13.0, 4.0, 4.0, 5.0, 2.0, 33.0, 2.0, 25.0, 10.0, 9.0, 1.0, 4.0, 4.0, 10.0, 27.0, 4.0, 7.0, 12.0, 8.0, 5.0, 15.0, 8.0, 14.0, 15.0, 9.0, 4.0, 5.0, 2.0, 6.0, 14.0, 22.0, 8.0, 4.0, 15.0, 22.0, 5.0, 10.0, 1.0, 9.0, 20.0, 3.0, 9.0, 16.0, 3.0, 1.0, 5.0, 3.0, 8.0, 6.0, 8.0, 19.0, 6.0, 15.0, 6.0, 15.0, 6.0, 14.0, 21.0, 9.0, 9.0, 1.0, 5.0, 5.0, 5.0, 13.0, 9.0, 19.0, 3.0, 2.0, 6.0, 6.0, 14.0, 13.0, 11.0, 27.0, 1.0, 3.0, 5.0, 10.0, 42.0, 7.0, 14.0, 0.0, 6.0, 28.0, 7.0, 42.0, 17.0, 4.0, 13.0, 9.0, 3.0, 13.0, 10.0, 7.0, 3.0, 6.0, 3.0, 1.0, 10.0, 6.0, 10.0, 4.0, 5.0, 23.0, 10.0, 2.0, 10.0, 11.0, 12.0, 5.0, 5.0, 11.0, 13.0, 7.0, 45.0, 7.0, 7.0, 5.0, 3.0, 6.0, 7.0, 4.0, 1.0, 9.0, 45.0, 17.0, 14.0, 6.0, 10.0, 28.0, 10.0, 16.0, 10.0, 5.0, 3.0, 14.0, 4.0, 16.0, 5.0, 84.0, 9.0, 4.0, 6.0, 22.0, 1.0, 7.0, 15.0, 10.0, 2.0, 0.0, 3.0, 7.0, 5.0, 22.0, 16.0, 6.0, 8.0, 15.0, 5.0, 21.0, 6.0, 4.0, 8.0, 8.0, 7.0, 8.0, 10.0, 11.0, 5.0, 14.0, 11.0, 7.0, 35.0, 10.0, 10.0, 1.0, 4.0, 1.0, 4.0, 8.0, 22.0, 2.0, 4.0, 15.0, 24.0, 4.0, 2.0, 25.0, 25.0, 14.0, 7.0, 10.0, 7.0, 11.0, 21.0, 15.0, 8.0, 2.0, 10.0, 3.0, 18.0, 14.0, 24.0, 8.0, 44.0, 7.0, 2.0, 5.0, 3.0, 49.0, 11.0, 4.0, 4.0, 2.0, 15.0, 4.0, 2.0, 7.0, 17.0, 18.0, 1.0, 14.0, 4.0, 9.0, 23.0, 12.0, 11.0, 3.0, 9.0, 64.0, 7.0, 9.0, 11.0, 19.0, 12.0, 9.0, 2.0, 19.0, 11.0, 3.0, 39.0, 3.0, 12.0, 12.0, 12.0, 4.0, 6.0, 10.0, 5.0, 4.0, 3.0, 1.0, 15.0, 4.0, 9.0, 30.0, 4.0, 19.0, 12.0, 13.0, 3.0, 4.0, 33.0, 8.0, 22.0, 11.0, 8.0, 12.0, 12.0, 5.0, 9.0, 17.0, 15.0, 5.0, 5.0, 11.0, 8.0, 8.0, 15.0, 82.0, 13.0, 4.0, 36.0, 0.0, 18.0, 15.0, 15.0, 11.0, 4.0, 9.0, 5.0, 4.0, 15.0, 4.0, 9.0, 7.0, 3.0, 10.0, 9.0, 4.0, 10.0, 7.0, 13.0, 6.0, 6.0, 9.0, 4.0, 2.0, 9.0, 32.0, 12.0, 5.0, 6.0, 10.0, 4.0, 1.0, 4.0, 4.0, 5.0, 10.0, 1.0, 9.0, 38.0, 4.0, 10.0, 3.0, 6.0, 5.0, 12.0, 10.0, 4.0, 3.0, 10.0, 10.0, 3.0, 6.0, 26.0, 17.0, 4.0, 7.0, 14.0, 24.0, 5.0, 4.0, 5.0, 2.0, 3.0, 8.0, 11.0, 4.0, 3.0, 14.0, 7.0, 4.0, 17.0, 7.0, 10.0, 7.0, 6.0, 19.0, 10.0, 7.0, 5.0, 14.0, 2.0, 12.0, 19.0, 10.0, 6.0, 4.0, 44.0, 14.0, 20.0, 25.0, 24.0, 17.0, 4.0, 4.0, 5.0, 17.0, 10.0, 1.0, 7.0, 5.0, 4.0, 33.0, 5.0, 5.0, 7.0, 7.0, 4.0, 19.0, 10.0, 5.0, 5.0, 4.0, 1.0, 7.0, 13.0, 4.0, 6.0, 4.0, 18.0, 4.0, 4.0, 7.0, 3.0, 6.0, 1.0, 20.0, 0.0, 10.0, 33.0, 6.0, 5.0, 1.0, 14.0, 15.0, 6.0, 3.0, 12.0, 2.0, 7.0, 5.0, 7.0, 19.0, 36.0, 11.0, 9.0, 12.0, 2.0, 8.0, 1.0, 9.0, 5.0, 8.0, 11.0, 26.0, 6.0, 5.0, 3.0, 14.0, 10.0, 11.0, 4.0, 4.0, 5.0, 5.0, 8.0, 1.0, 8.0, 14.0, 16.0, 11.0, 6.0, 4.0, 0.0, 6.0, 10.0, 8.0, 10.0, 2.0, 1.0, 4.0, 1.0, 5.0, 11.0, 6.0, 5.0, 22.0, 7.0, 13.0, 5.0, 4.0, 8.0, 5.0, 7.0, 9.0, 12.0, 6.0, 9.0, 5.0, 16.0, 8.0, 8.0, 19.0, 9.0, 1.0, 19.0, 8.0, 1.0, 1.0, 5.0, 10.0, 6.0, 3.0, 15.0, 9.0, 5.0, 14.0, 6.0, 13.0, 47.0, 1.0, 13.0, 2.0, 5.0, 3.0, 34.0, 7.0, 27.0, 4.0, 7.0, 4.0, 1.0, 9.0, 1.0, 5.0, 5.0, 6.0, 19.0, 12.0, 1.0, 4.0, 56.0, 51.0, 9.0, 8.0, 7.0, 5.0, 10.0, 35.0, 9.0, 2.0, 10.0, 22.0, 7.0, 3.0, 1.0, 9.0, 3.0, 7.0, 9.0, 9.0, 6.0, 4.0, 7.0, 19.0, 8.0, 24.0, 10.0, 3.0, 20.0, 1.0, 10.0, 9.0, 4.0, 8.0, 6.0, 16.0, 13.0, 6.0, 2.0, 9.0, 1.0, 6.0, 10.0, 10.0, 5.0, 28.0, 28.0, 5.0, 6.0, 4.0, 14.0, 3.0, 2.0, 3.0, 6.0, 4.0, 7.0, 3.0, 13.0, 7.0, 8.0, 2.0, 3.0, 10.0, 10.0, 3.0, 27.0, 6.0, 1.0, 9.0, 5.0, 21.0, 7.0, 14.0, 5.0, 14.0, 18.0, 8.0, 1.0, 1.0, 8.0, 6.0, 10.0, 4.0, 5.0, 3.0, 8.0, 2.0, 26.0, 21.0, 4.0, 22.0, 28.0, 4.0, 5.0, 3.0, 14.0, 3.0, 9.0, 12.0, 4.0, 11.0, 3.0, 7.0, 2.0, 7.0, 36.0, 11.0, 17.0, 17.0, 4.0, 4.0, 3.0, 9.0, 14.0, 4.0, 11.0, 8.0, 9.0, 4.0, 28.0, 2.0, 28.0, 18.0, 19.0, 7.0, 10.0, 15.0, 6.0, 4.0, 7.0, 8.0, 8.0, 11.0, 4.0, 9.0, 2.0, 19.0, 18.0, 7.0, 11.0, 7.0, 35.0, 5.0, 35.0, 15.0, 8.0, 1.0, 8.0, 8.0, 14.0, 6.0, 8.0, 4.0, 3.0, 2.0, 9.0, 7.0, 3.0, 8.0, 8.0, 25.0, 10.0, 1.0, 3.0, 10.0, 6.0, 18.0, 1.0, 3.0, 12.0, 5.0, 5.0, 23.0, 5.0, 15.0, 3.0, 10.0, 25.0, 14.0, 4.0, 8.0, 9.0, 5.0, 2.0, 9.0, 15.0, 9.0, 11.0, 10.0, 19.0, 3.0, 4.0, 9.0, 4.0, 5.0, 4.0, 2.0, 29.0, 15.0, 9.0, 5.0, 10.0, 10.0, 16.0, 22.0, 31.0, 11.0, 18.0, 8.0, 9.0, 8.0, 43.0, 15.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 12.0, 5.0, 5.0, 19.0, 26.0, 13.0, 5.0, 10.0, 13.0, 6.0, 6.0, 6.0, 9.0, 10.0, 5.0, 2.0, 2.0, 7.0, 6.0, 3.0, 12.0, 7.0, 6.0, 9.0, 3.0, 5.0, 9.0, 6.0, 3.0, 12.0, 2.0, 29.0, 4.0, 4.0, 6.0, 32.0, 16.0, 4.0, 2.0, 4.0, 3.0, 2.0, 9.0, 23.0, 10.0, 12.0, 9.0, 32.0, 27.0, 3.0, 9.0, 10.0, 11.0, 5.0, 41.0, 4.0, 12.0, 8.0, 17.0, 4.0, 7.0, 18.0, 7.0, 21.0, 6.0, 5.0, 8.0, 1.0, 17.0, 3.0, 11.0, 14.0, 4.0, 14.0, 7.0, 7.0, 21.0, 4.0, 1.0, 13.0, 8.0, 18.0, 5.0, 17.0, 10.0, 31.0, 2.0, 7.0, 4.0, 18.0, 7.0, 24.0, 31.0, 10.0, 7.0, 5.0, 15.0, 4.0, 5.0, 8.0, 11.0, 13.0, 32.0, 3.0, 3.0, 11.0, 30.0, 17.0, 5.0, 12.0, 28.0, 13.0, 10.0, 3.0, 4.0, 8.0, 5.0, 7.0, 8.0, 5.0, 4.0, 5.0, 4.0, 13.0, 22.0, 7.0, 13.0, 23.0, 4.0, 2.0, 5.0, 1.0, 12.0, 4.0, 1.0, 14.0, 82.0, 6.0, 15.0, 48.0, 16.0, 27.0, 13.0, 19.0, 5.0, 4.0, 13.0, 14.0, 1.0, 11.0, 26.0, 4.0, 22.0, 5.0, 4.0, 8.0, 4.0, 6.0, 13.0, 25.0, 9.0, 14.0, 5.0, 62.0, 11.0, 12.0, 70.0, 8.0, 75.0, 4.0, 13.0, 4.0, 5.0, 13.0, 4.0, 22.0, 18.0, 7.0, 12.0, 5.0, 3.0, 13.0, 5.0, 7.0, 18.0, 5.0, 9.0, 3.0, 9.0, 9.0, 7.0, 13.0, 2.0, 6.0, 10.0, 1.0, 12.0, 9.0, 5.0, 9.0, 12.0, 7.0, 20.0, 6.0, 12.0, 1.0, 7.0, 30.0, 6.0, 7.0, 6.0, 40.0, 6.0, 9.0, 15.0, 7.0, 1.0, 9.0, 7.0, 3.0, 10.0, 7.0, 8.0, 27.0, 3.0, 31.0, 9.0, 50.0, 26.0, 35.0, 26.0, 7.0, 5.0, 8.0, 20.0, 13.0, 7.0, 21.0, 3.0, 14.0, 15.0, 9.0, 1.0, 43.0, 8.0, 18.0, 13.0, 10.0, 10.0, 7.0, 30.0, 6.0, 5.0, 4.0, 5.0, 6.0, 2.0, 38.0, 6.0, 31.0, 13.0, 25.0, 3.0, 14.0, 69.0, 14.0, 8.0, 28.0, 29.0, 27.0, 16.0, 7.0, 11.0, 15.0, 63.0, 2.0, 13.0, 10.0, 2.0, 19.0, 10.0, 1.0, 14.0, 18.0, 23.0, 2.0, 7.0, 21.0, 14.0, 4.0, 7.0, 18.0, 4.0, 4.0, 3.0, 10.0, 9.0, 21.0, 2.0, 13.0, 7.0, 6.0, 8.0, 29.0, 21.0, 7.0, 4.0, 25.0, 64.0, 7.0, 29.0, 8.0, 18.0, 16.0, 9.0, 7.0, 15.0, 9.0, 9.0, 4.0, 14.0, 8.0, 31.0, 10.0, 8.0, 52.0, 14.0, 15.0, 5.0, 6.0, 22.0, 4.0, 66.0, 14.0, 9.0, 12.0, 9.0, 12.0, 22.0, 2.0, 5.0, 9.0, 4.0, 6.0, 8.0, 2.0, 11.0, 26.0, 46.0, 3.0, 12.0, 3.0, 5.0, 9.0, 5.0, 17.0, 16.0, 18.0, 12.0, 9.0, 4.0, 1.0, 13.0, 9.0, 10.0, 5.0, 3.0, 2.0, 24.0, 7.0, 13.0, 9.0, 6.0, 13.0, 2.0, 3.0, 1.0, 3.0, 40.0, 14.0, 11.0, 17.0, 8.0, 18.0, 4.0, 24.0, 10.0, 10.0, 58.0, 4.0, 6.0, 4.0, 4.0, 24.0, 31.0, 10.0, 10.0, 13.0, 7.0, 12.0, 21.0, 4.0, 5.0, 10.0, 21.0, 4.0, 13.0, 14.0, 6.0, 11.0, 11.0, 68.0, 45.0, 10.0, 4.0, 6.0, 29.0, 29.0, 4.0, 25.0, 8.0, 7.0, 7.0, 13.0, 8.0, 14.0, 12.0, 5.0, 2.0, 15.0, 4.0, 4.0, 28.0, 12.0, 20.0, 13.0, 43.0, 21.0, 13.0, 28.0, 14.0, 46.0, 7.0, 6.0, 5.0, 19.0, 15.0, 8.0, 27.0, 5.0, 48.0, 12.0, 21.0, 9.0, 14.0, 8.0, 19.0, 13.0, 10.0, 28.0, 5.0, 12.0, 7.0, 4.0, 5.0, 9.0, 9.0, 35.0, 7.0, 9.0, 5.0, 13.0, 14.0, 13.0, 13.0, 14.0, 5.0, 15.0, 26.0, 2.0, 13.0, 21.0, 15.0, 89.0, 69.0, 17.0, 29.0, 12.0, 6.0, 9.0, 24.0, 5.0, 8.0, 16.0, 12.0, 3.0, 2.0, 13.0, 6.0, 7.0, 7.0, 8.0, 3.0, 19.0, 7.0, 10.0, 2.0, 22.0, 7.0, 14.0, 15.0, 23.0, 3.0, 3.0, 5.0, 3.0, 3.0, 8.0, 7.0, 14.0, 25.0, 33.0, 2.0, 14.0, 3.0, 15.0, 7.0, 13.0, 5.0, 19.0, 38.0, 7.0, 8.0, 2.0, 3.0, 5.0, 2.0, 1.0, 13.0, 29.0, 24.0, 35.0, 46.0, 24.0, 49.0, 17.0, 5.0, 69.0, 3.0, 21.0, 29.0, 8.0, 5.0, 27.0, 9.0, 37.0, 8.0, 15.0, 5.0, 38.0, 11.0, 1.0, 11.0, 6.0, 13.0, 10.0, 9.0, 71.0, 15.0, 22.0, 1.0, 25.0, 26.0, 25.0, 58.0, 2.0, 4.0, 12.0, 4.0, 2.0, 5.0, 20.0, 9.0, 13.0, 54.0, 26.0, 30.0, 6.0, 4.0, 9.0, 11.0, 5.0, 7.0, 10.0, 1.0, 10.0, 14.0, 19.0, 4.0, 14.0, 19.0, 4.0, 3.0, 3.0, 3.0, 34.0, 16.0, 19.0, 10.0, 64.0, 21.0, 13.0, 20.0, 20.0, 2.0, 8.0, 18.0, 12.0, 30.0, 7.0, 33.0, 5.0, 13.0, 4.0, 18.0, 20.0, 7.0, 5.0, 7.0, 1.0, 9.0, 18.0, 5.0, 11.0, 14.0, 11.0, 8.0, 30.0, 8.0, 4.0, 12.0, 23.0, 2.0, 10.0, 21.0, 26.0, 14.0, 21.0, 6.0, 15.0, 74.0, 20.0, 9.0, 20.0, 28.0, 40.0, 17.0, 15.0, 33.0, 14.0, 49.0, 5.0, 16.0, 29.0, 1.0, 10.0, 29.0, 33.0, 22.0, 43.0, 27.0, 5.0, 20.0, 25.0, 10.0, 21.0, 8.0, 15.0, 9.0, 3.0, 17.0, 20.0, 1.0, 6.0, 14.0, 13.0, 83.0, 27.0, 14.0, 3.0, 34.0, 33.0, 23.0, 42.0, 5.0, 34.0, 11.0, 27.0, 38.0, 10.0, 4.0, 4.0, 35.0, 8.0, 15.0, 1.0, 9.0, 7.0, 42.0, 9.0, 7.0, 10.0, 3.0, 7.0, 30.0, 62.0, 42.0, 3.0, 26.0, 78.0, 21.0, 22.0, 52.0, 8.0, 23.0, 5.0, 6.0, 2.0, 31.0, 5.0, 8.0, 22.0, 3.0, 37.0, 24.0, 78.0, 58.0, 18.0, 18.0, 11.0, 2.0, 20.0, 13.0, 13.0, 11.0, 25.0, 6.0, 4.0, 19.0, 3.0, 28.0, 20.0, 26.0, 31.0, 21.0, 5.0, 5.0, 11.0, 20.0, 48.0, 8.0, 18.0, 5.0, 26.0, 6.0, 44.0, 3.0, 12.0, 15.0, 34.0, 8.0, 8.0, 23.0, 15.0, 3.0, 14.0, 37.0, 9.0, 8.0, 31.0, 8.0, 38.0, 42.0, 10.0, 4.0, 43.0, 34.0, 42.0, 27.0, 18.0, 24.0, 6.0, 9.0, 15.0, 7.0, 7.0, 7.0, 7.0, 8.0, 9.0, 1.0, 12.0, 37.0, 4.0, 45.0, 12.0, 22.0, 40.0, 9.0, 4.0, 31.0, 42.0, 81.0, 11.0, 4.0, 12.0, 26.0, 8.0, 39.0, 43.0, 43.0, 6.0, 4.0, 8.0, 40.0, 46.0, 35.0, 16.0, 44.0, 37.0, 34.0, 3.0, 6.0, 7.0, 10.0, 10.0, 9.0, 11.0, 13.0, 14.0, 11.0, 22.0, 11.0, 43.0, 3.0, 1.0, 33.0, 4.0, 21.0, 43.0, 34.0, 1.0, 43.0, 7.0, 7.0, 78.0, 6.0, 55.0, 14.0, 9.0, 9.0, 23.0, 40.0, 47.0, 22.0, 16.0, 6.0, 6.0, 2.0, 5.0, 15.0, 28.0, 15.0, 51.0, 29.0, 41.0, 78.0, 2.0, 9.0, 8.0, 29.0, 12.0, 31.0, 12.0, 12.0, 22.0, 51.0, 17.0, 9.0, 46.0, 10.0, 14.0, 10.0, 27.0, 25.0, 4.0, 19.0, 36.0, 47.0, 14.0, 7.0, 71.0, 10.0, 9.0, 36.0, 34.0, 50.0, 61.0, 14.0, 9.0, 55.0, 51.0, 3.0, 4.0, 39.0, 24.0, 50.0, 18.0, 5.0, 46.0, 48.0, 17.0, 46.0, 55.0, 55.0, 13.0, 12.0, 22.0, 43.0, 36.0, 52.0, 36.0, 25.0, 4.0, 20.0, 46.0, 3.0, 12.0, 25.0, 74.0, 10.0, 56.0, 50.0, 75.0, 6.0, 68.0, 8.0, 24.0, 37.0, 13.0, 10.0, 7.0, 38.0, 23.0, 2.0, 19.0, 78.0, 67.0, 8.0, 61.0, 15.0, 56.0, 0.0, 4.0, 2.0, 7.0, 11.0, 49.0, 6.0, 4.0, 12.0, 22.0, 7.0, 21.0, 51.0, 7.0, 2.0, 38.0, 73.0, 3.0, 9.0, 5.0, 6.0, 5.0, 7.0, 12.0, 3.0, 43.0, 13.0, 13.0, 10.0, 3.0, 4.0, 8.0, 4.0, 18.0, 5.0, 4.0, 1.0, 9.0, 7.0, 80.0, 11.0, 3.0, 13.0, 13.0, 51.0, 86.0, 8.0, 14.0, 11.0, 5.0, 3.0, 13.0, 20.0, 5.0, 11.0, 6.0, 7.0, 68.0, 3.0, 21.0, 9.0, 8.0, 9.0, 8.0, 64.0, 5.0, 17.0, 5.0, 21.0, 7.0, 13.0, 5.0, 4.0, 11.0, 7.0, 5.0, 10.0, 6.0, 6.0, 2.0, 3.0, 3.0, 8.0, 4.0, 35.0, 3.0, 9.0, 10.0, 12.0, 1.0, 7.0, 22.0, 23.0, 8.0, 3.0, 4.0, 7.0, 21.0, 3.0, 51.0, 32.0, 42.0, 7.0, 34.0, 6.0, 4.0, 12.0, 15.0, 13.0, 4.0, 1.0, 32.0, 5.0, 52.0, 82.0, 7.0, 22.0, 2.0, 1.0, 8.0, 9.0, 6.0, 6.0, 5.0, 19.0, 1.0, 24.0, 25.0, 1.0, 15.0, 6.0, 9.0, 35.0, 8.0, 12.0, 7.0, 14.0, 21.0, 34.0, 3.0, 24.0, 0.0, 2.0, 11.0, 6.0, 62.0, 20.0, 26.0, 14.0, 10.0, 70.0, 9.0, 19.0, 10.0, 2.0, 7.0, 6.0, 7.0, 23.0, 23.0, 11.0, 4.0, 1.0, 43.0, 8.0, 20.0, 38.0, 10.0, 6.0, 12.0, 15.0, 20.0, 9.0, 7.0, 3.0, 2.0, 6.0, 3.0, 0.0, 7.0, 17.0, 14.0, 7.0, 2.0, 6.0, 3.0, 11.0, 4.0, 7.0, 30.0, 8.0, 20.0, 13.0, 13.0, 7.0, 18.0, 5.0, 10.0, 12.0, 3.0, 6.0, 32.0, 7.0, 10.0, 28.0, 5.0, 33.0, 20.0, 24.0, 21.0, 10.0, 5.0, 9.0, 7.0, 6.0, 22.0, 29.0, 22.0, 5.0, 2.0, 8.0, 3.0, 9.0, 11.0, 11.0, 23.0, 7.0, 3.0, 24.0, 3.0, 16.0, 11.0, 13.0, 24.0, 8.0, 10.0, 12.0, 9.0, 11.0, 22.0, 10.0, 6.0, 5.0, 7.0, 7.0, 13.0, 5.0, 7.0, 16.0, 4.0, 12.0, 12.0, 21.0, 9.0, 13.0, 13.0, 3.0, 3.0, 13.0, 12.0, 6.0, 5.0, 7.0, 13.0, 10.0, 9.0, 6.0, 24.0, 0.0, 2.0, 14.0, 17.0, 6.0, 13.0, 10.0, 4.0, 7.0, 2.0, 3.0, 14.0, 38.0, 5.0, 4.0, 3.0, 3.0, 3.0, 9.0, 21.0, 4.0, 8.0, 15.0, 2.0, 8.0, 40.0, 11.0, 30.0, 9.0, 30.0, 8.0, 3.0, 16.0, 1.0, 11.0, 4.0, 2.0, 51.0, 4.0, 6.0, 8.0, 6.0, 4.0, 34.0, 11.0, 24.0, 14.0, 4.0, 14.0, 5.0, 21.0, 6.0, 12.0, 14.0, 14.0, 19.0, 27.0, 39.0, 13.0, 6.0, 9.0, 7.0, 7.0, 0.0, 7.0, 2.0, 21.0, 14.0, 2.0, 1.0, 8.0, 48.0, 11.0, 2.0, 7.0, 8.0, 10.0, 0.0, 4.0, 14.0, 7.0, 7.0, 4.0, 2.0, 4.0, 1.0, 58.0, 0.0, 38.0, 14.0, 44.0, 13.0, 8.0, 24.0, 11.0, 14.0, 5.0, 14.0, 8.0, 3.0, 4.0, 5.0, 10.0, 8.0, 3.0, 15.0, 19.0, 3.0, 52.0, 16.0, 9.0, 15.0, 9.0, 64.0, 5.0, 1.0, 19.0, 19.0, 19.0, 21.0, 17.0, 4.0, 18.0, 9.0, 3.0, 66.0, 10.0, 11.0, 2.0, 4.0, 70.0, 5.0, 12.0, 13.0, 2.0, 17.0, 5.0, 17.0, 17.0, 3.0, 60.0, 17.0, 26.0, 9.0, 17.0, 21.0, 37.0, 7.0, 8.0, 7.0, 13.0, 13.0, 5.0, 11.0, 5.0, 2.0, 7.0, 25.0, 14.0, 11.0, 2.0, 13.0, 4.0, 2.0, 9.0, 3.0, 4.0, 5.0, 6.0, 20.0, 5.0, 2.0, 7.0, 19.0, 5.0, 13.0, 6.0, 27.0, 15.0, 2.0, 42.0, 6.0, 8.0, 8.0, 13.0, 15.0, 12.0, 30.0, 14.0, 2.0, 6.0, 14.0, 28.0, 3.0, 13.0, 8.0, 16.0, 16.0, 14.0, 5.0, 10.0, 7.0, 3.0, 16.0, 5.0, 15.0, 7.0, 10.0, 10.0, 13.0, 13.0, 4.0, 11.0, 21.0, 6.0, 9.0, 7.0, 11.0, 23.0, 7.0, 14.0, 11.0, 11.0, 2.0, 3.0, 28.0, 11.0, 28.0, 10.0, 25.0, 7.0, 26.0, 14.0, 10.0, 4.0, 16.0, 2.0, 5.0, 12.0, 8.0, 12.0, 9.0, 18.0, 15.0, 0.0, 1.0, 3.0, 16.0, 6.0, 11.0, 25.0, 5.0, 4.0, 8.0, 5.0, 4.0, 27.0, 3.0, 5.0, 9.0, 0.0, 5.0, 53.0, 4.0, 30.0, 11.0, 6.0, 17.0, 1.0, 4.0, 14.0, 6.0, 3.0, 13.0, 1.0, 30.0, 7.0, 23.0, 10.0, 4.0, 18.0, 19.0, 10.0, 13.0, 1.0, 11.0, 13.0, 1.0, 19.0, 20.0, 0.0, 42.0, 11.0, 25.0, 19.0, 34.0, 10.0, 4.0, 19.0, 7.0, 14.0, 6.0, 14.0, 33.0, 39.0, 13.0, 7.0, 20.0, 1.0, 5.0, 4.0, 7.0, 12.0, 16.0, 47.0, 14.0, 11.0, 7.0, 14.0, 8.0, 12.0, 11.0, 7.0, 6.0, 10.0, 4.0, 12.0, 8.0, 6.0, 14.0, 13.0, 10.0, 25.0, 36.0, 8.0, 18.0, 7.0, 8.0, 3.0, 12.0, 5.0, 14.0, 6.0, 0.0, 3.0, 34.0, 2.0, 41.0, 24.0, 20.0, 11.0, 6.0, 7.0, 7.0, 7.0, 28.0, 3.0, 26.0, 6.0, 14.0, 10.0, 8.0, 15.0, 10.0, 14.0, 63.0, 20.0, 16.0, 3.0, 4.0, 12.0, 5.0, 2.0, 0.0, 14.0, 20.0, 30.0, 1.0, 36.0, 6.0, 5.0, 9.0, 7.0, 9.0, 14.0, 10.0, 21.0, 30.0, 13.0, 6.0, 6.0, 7.0, 12.0, 16.0, 6.0, 7.0, 13.0, 20.0, 0.0, 1.0, 80.0, 57.0, 3.0, 13.0, 4.0, 1.0, 5.0, 6.0, 1.0, 23.0, 9.0, 22.0, 13.0, 9.0, 16.0, 13.0, 9.0, 7.0, 2.0, 11.0, 15.0, 4.0, 10.0, 31.0, 17.0, 14.0, 7.0, 5.0, 7.0, 14.0, 14.0, 22.0, 4.0, 9.0, 8.0, 12.0, 6.0, 7.0, 14.0, 4.0, 10.0, 5.0, 7.0, 16.0, 1.0, 24.0, 9.0, 14.0, 9.0, 23.0, 3.0, 9.0, 8.0, 27.0, 10.0, 7.0, 4.0, 9.0, 1.0, 12.0, 9.0, 8.0, 8.0, 3.0, 5.0, 4.0, 11.0, 14.0, 3.0, 8.0, 5.0, 11.0, 6.0, 15.0, 11.0, 15.0, 12.0, 3.0, 8.0, 5.0, 72.0, 17.0, 9.0, 41.0, 39.0, 8.0, 14.0, 15.0, 17.0, 30.0, 5.0, 10.0, 0.0, 2.0, 9.0, 5.0, 72.0, 3.0, 29.0, 1.0, 17.0, 15.0, 7.0, 9.0, 15.0, 7.0, 2.0, 15.0, 2.0, 7.0, 13.0, 8.0, 11.0, 6.0, 8.0, 10.0, 7.0, 11.0, 20.0, 9.0, 15.0, 19.0, 6.0, 80.0, 6.0, 6.0, 21.0, 4.0, 17.0, 6.0, 4.0, 12.0, 12.0, 1.0, 6.0, 4.0, 11.0, 31.0, 6.0, 12.0, 7.0, 17.0, 6.0, 4.0, 9.0, 9.0, 9.0, 44.0, 11.0, 5.0, 11.0, 4.0, 18.0, 20.0, 3.0, 5.0, 6.0, 1.0, 11.0, 11.0, 19.0, 3.0, 13.0, 4.0, 1.0, 5.0, 18.0, 8.0, 20.0, 18.0, 24.0, 36.0, 47.0, 21.0, 5.0, 8.0, 3.0, 9.0, 4.0, 6.0, 3.0, 4.0, 4.0, 12.0, 4.0, 1.0, 17.0, 5.0, 1.0, 4.0, 18.0, 6.0, 31.0, 7.0, 1.0, 9.0, 13.0, 4.0, 4.0, 7.0, 6.0, 6.0, 4.0, 5.0, 13.0, 4.0, 12.0, 13.0, 10.0, 2.0, 9.0, 11.0, 6.0, 4.0, 4.0, 19.0, 6.0, 17.0, 10.0, 8.0, 36.0, 39.0, 6.0, 7.0, 8.0, 8.0, 13.0, 9.0, 14.0, 7.0, 7.0, 15.0, 5.0, 6.0, 6.0, 5.0, 12.0, 4.0, 20.0, 7.0, 10.0, 18.0, 12.0, 12.0, 28.0, 1.0, 21.0, 13.0, 6.0, 1.0, 3.0, 1.0, 27.0, 10.0, 13.0, 13.0, 9.0, 13.0, 5.0, 14.0, 26.0, 23.0, 8.0, 21.0, 9.0, 13.0, 12.0, 5.0, 10.0, 15.0, 70.0, 2.0, 5.0, 9.0, 12.0, 9.0, 2.0, 2.0, 5.0, 15.0, 10.0, 9.0, 27.0, 41.0, 9.0, 22.0, 8.0, 8.0, 3.0, 8.0, 7.0, 14.0, 7.0, 10.0, 9.0, 7.0, 7.0, 7.0, 10.0, 15.0, 8.0, 8.0, 15.0, 5.0, 6.0, 9.0, 7.0, 10.0, 8.0, 8.0, 6.0, 43.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 6.0, 13.0, 1.0, 2.0, 20.0, 27.0, 4.0, 30.0, 1.0, 3.0, 10.0, 6.0, 7.0, 8.0, 29.0, 9.0, 7.0, 11.0, 7.0, 3.0, 10.0, 2.0, 5.0, 16.0, 10.0, 8.0, 3.0, 15.0, 7.0, 15.0, 9.0, 8.0, 87.0, 4.0, 8.0, 7.0, 9.0, 33.0, 22.0, 18.0, 11.0, 4.0, 7.0, 0.0, 8.0, 3.0, 10.0, 10.0, 3.0, 7.0, 17.0, 4.0, 8.0, 23.0, 9.0, 2.0, 2.0, 3.0, 10.0, 9.0, 14.0, 3.0, 12.0, 5.0, 2.0, 15.0, 11.0, 12.0, 32.0, 7.0, 3.0, 5.0, 4.0, 11.0, 7.0, 5.0, 5.0, 3.0, 0.0, 7.0, 4.0, 44.0, 4.0, 11.0, 9.0, 8.0, 2.0, 7.0, 15.0, 4.0, 11.0, 5.0, 4.0, 7.0, 8.0, 6.0, 11.0, 0.0, 28.0, 3.0, 8.0, 0.0, 4.0, 9.0, 8.0, 7.0, 8.0, 3.0, 1.0, 6.0, 11.0, 9.0, 11.0, 4.0, 10.0, 5.0, 5.0, 30.0, 20.0, 9.0, 18.0, 5.0, 3.0, 16.0, 3.0, 10.0, 2.0, 11.0, 1.0, 22.0, 8.0, 5.0, 19.0, 2.0, 12.0, 10.0, 4.0, 12.0, 67.0, 33.0, 9.0, 9.0, 9.0, 11.0, 12.0, 15.0, 11.0, 6.0, 3.0, 5.0, 6.0, 4.0, 30.0, 32.0, 9.0, 9.0, 3.0, 9.0, 5.0, 6.0, 5.0, 6.0, 14.0, 17.0, 10.0, 13.0, 5.0, 17.0, 13.0, 7.0, 11.0, 9.0, 6.0, 14.0, 6.0, 6.0, 25.0, 17.0, 21.0, 7.0, 7.0, 10.0, 2.0, 4.0, 2.0, 20.0, 7.0, 18.0, 21.0, 1.0, 12.0, 12.0, 4.0, 5.0, 5.0, 8.0, 11.0, 13.0, 3.0, 28.0, 10.0, 7.0, 6.0, 31.0, 12.0, 12.0, 10.0, 20.0, 6.0, 5.0, 14.0, 5.0, 26.0, 6.0, 5.0, 46.0, 7.0, 6.0, 24.0, 5.0, 9.0, 8.0, 6.0, 10.0, 11.0, 48.0, 12.0, 10.0, 31.0, 9.0, 6.0, 14.0, 10.0, 4.0, 11.0, 10.0, 17.0, 17.0, 2.0, 5.0, 15.0, 4.0, 6.0, 5.0, 1.0, 9.0, 4.0, 6.0, 8.0, 11.0, 14.0, 7.0, 11.0, 21.0, 10.0, 10.0, 10.0, 4.0, 8.0, 42.0, 5.0, 8.0, 8.0, 1.0, 4.0, 8.0, 2.0, 4.0, 1.0, 3.0, 7.0, 5.0, 1.0, 25.0, 21.0, 55.0, 4.0, 2.0, 8.0, 7.0, 11.0, 3.0, 8.0, 6.0, 26.0, 11.0, 9.0, 11.0, 11.0, 12.0, 11.0, 5.0, 11.0, 17.0, 20.0, 11.0, 6.0, 5.0, 15.0, 13.0, 20.0, 7.0, 7.0, 5.0, 8.0, 14.0, 8.0, 11.0, 43.0, 27.0, 10.0, 6.0, 5.0, 5.0, 4.0, 3.0, 11.0, 14.0, 11.0, 6.0, 4.0, 17.0, 8.0, 4.0, 8.0, 11.0, 5.0, 12.0, 8.0, 14.0, 11.0, 20.0, 9.0, 7.0, 5.0, 7.0, 6.0, 20.0, 8.0, 14.0, 6.0, 7.0, 0.0, 7.0, 2.0, 14.0, 5.0, 5.0, 9.0, 16.0, 6.0, 6.0, 11.0, 5.0, 5.0, 13.0, 8.0, 2.0, 21.0, 2.0, 15.0, 8.0, 10.0, 5.0, 1.0, 5.0, 21.0, 4.0, 12.0, 9.0, 3.0, 3.0, 12.0, 11.0, 14.0, 1.0, 16.0, 10.0, 7.0, 3.0, 13.0, 6.0, 3.0, 21.0, 7.0, 11.0, 7.0, 31.0, 10.0, 14.0, 3.0, 14.0, 5.0, 22.0, 13.0, 15.0, 7.0, 14.0, 6.0, 6.0, 13.0, 22.0, 6.0, 7.0, 10.0, 22.0, 3.0, 24.0, 14.0, 9.0, 28.0, 18.0, 13.0, 7.0, 9.0, 10.0, 5.0, 7.0, 9.0, 13.0, 11.0, 16.0, 20.0, 13.0, 7.0, 14.0, 4.0, 7.0, 12.0, 1.0, 4.0, 10.0, 5.0, 10.0, 3.0, 4.0, 28.0, 3.0, 10.0, 5.0, 14.0, 17.0, 7.0, 6.0, 11.0, 9.0, 11.0, 10.0, 4.0, 3.0, 4.0, 3.0, 7.0, 11.0, 10.0, 16.0, 38.0, 18.0, 3.0, 25.0, 10.0, 10.0, 9.0, 14.0, 9.0, 10.0, 8.0, 21.0, 1.0, 31.0, 7.0, 10.0, 3.0, 9.0, 8.0, 11.0, 10.0, 2.0, 14.0, 8.0, 16.0, 15.0, 13.0, 8.0, 9.0, 28.0, 9.0, 15.0, 16.0, 5.0, 10.0, 6.0, 8.0, 33.0, 10.0, 4.0, 12.0, 11.0, 4.0, 7.0, 10.0, 26.0, 3.0, 5.0, 8.0, 61.0, 13.0, 2.0, 9.0, 10.0, 3.0, 6.0, 10.0, 19.0, 8.0, 5.0, 13.0, 9.0, 12.0, 4.0, 3.0, 16.0, 5.0, 8.0, 20.0, 6.0, 23.0, 13.0, 10.0, 6.0, 12.0, 5.0, 6.0, 5.0, 10.0, 6.0, 12.0, 9.0, 24.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 12.0, 2.0, 7.0, 20.0, 6.0, 4.0, 22.0, 6.0, 18.0, 12.0, 12.0, 11.0, 11.0, 6.0, 10.0, 4.0, 5.0, 5.0, 10.0, 3.0, 10.0, 4.0, 5.0, 18.0, 7.0, 34.0, 17.0, 20.0, 55.0, 6.0, 5.0, 3.0, 7.0, 7.0, 39.0, 10.0, 13.0, 19.0, 29.0, 11.0, 23.0, 29.0, 7.0, 3.0, 2.0, 26.0, 11.0, 14.0, 12.0, 2.0, 9.0, 50.0, 4.0, 15.0, 8.0, 13.0, 3.0, 35.0, 7.0, 6.0, 10.0, 8.0, 4.0, 12.0, 16.0, 51.0, 21.0, 28.0, 7.0, 5.0, 4.0, 32.0, 9.0, 22.0, 6.0, 5.0, 3.0, 10.0, 4.0, 10.0, 6.0, 10.0, 5.0, 2.0, 42.0, 20.0, 6.0, 6.0, 22.0, 15.0, 16.0, 20.0, 1.0, 16.0, 41.0, 20.0, 7.0, 6.0, 10.0, 17.0, 5.0, 39.0, 18.0, 2.0, 4.0, 9.0, 75.0, 8.0, 36.0, 50.0, 37.0, 6.0, 35.0, 16.0, 4.0, 5.0, 5.0, 29.0, 3.0, 2.0, 24.0, 4.0, 19.0, 29.0, 4.0, 6.0, 18.0, 9.0, 5.0, 14.0, 11.0, 7.0, 25.0, 22.0, 6.0, 8.0, 8.0, 6.0, 9.0, 80.0, 26.0, 7.0, 2.0, 7.0, 47.0, 9.0, 7.0, 9.0, 10.0, 11.0, 11.0, 15.0, 53.0, 8.0, 14.0, 15.0, 25.0, 3.0, 28.0, 16.0, 21.0, 23.0, 54.0, 40.0, 47.0, 31.0, 15.0, 14.0, 14.0, 6.0, 7.0, 40.0, 21.0, 13.0, 15.0, 39.0, 36.0, 52.0, 20.0, 88.0, 15.0, 30.0, 17.0, 15.0, 13.0, 25.0, 20.0, 44.0, 49.0, 15.0, 20.0, 18.0, 32.0, 45.0, 31.0, 49.0, 29.0, 28.0, 21.0, 18.0, 19.0, 49.0, 58.0, 59.0, 55.0, 28.0, 40.0, 24.0, 37.0, 65.0, 54.0, 48.0, 74.0, 28.0, 28.0, 56.0, 38.0, 52.0, 66.0, 44.0, 35.0, 62.0, 32.0, 61.0, 84.0, 40.0, 53.0, 63.0, 28.0, 84.0, 41.0, 58.0, 79.0, 75.0, 47.0, 78.0, 61.0, 60.0, 73.0, 88.0, 59.0, 85.0, 88.0]</t>
+          <t>[3.0, 5.0, 6.0, 6.0, 5.0, 6.0, 7.0, 9.0, 7.0, 7.0, 7.0, 7.0, 5.0, 4.0, 4.0, 11.0, 9.0, 10.0, 10.0, 5.0, 13.0, 10.0, 11.0, 3.0, 3.0, 9.0, 9.0, 12.0, 11.0, 7.0, 4.0, 8.0, 12.0, 17.0, 2.0, 20.0, 5.0, 5.0, 6.0, 9.0, 7.0, 2.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 6.0, 7.0, 4.0, 7.0, 12.0, 11.0, 12.0, 4.0, 4.0, 21.0, 10.0, 25.0, 2.0, 11.0, 4.0, 14.0, 13.0, 7.0, 5.0, 7.0, 7.0, 5.0, 11.0, 6.0, 25.0, 11.0, 22.0, 7.0, 5.0, 8.0, 2.0, 5.0, 22.0, 8.0, 3.0, 13.0, 10.0, 6.0, 10.0, 7.0, 19.0, 10.0, 6.0, 11.0, 8.0, 1.0, 8.0, 3.0, 10.0, 24.0, 3.0, 8.0, 6.0, 9.0, 11.0, 7.0, 22.0, 13.0, 22.0, 7.0, 8.0, 3.0, 6.0, 4.0, 5.0, 7.0, 6.0, 11.0, 6.0, 5.0, 10.0, 10.0, 22.0, 9.0, 9.0, 16.0, 12.0, 5.0, 10.0, 6.0, 4.0, 13.0, 15.0, 27.0, 5.0, 21.0, 15.0, 3.0, 3.0, 4.0, 7.0, 14.0, 11.0, 14.0, 15.0, 15.0, 15.0, 4.0, 11.0, 2.0, 10.0, 3.0, 12.0, 20.0, 6.0, 16.0, 3.0, 6.0, 13.0, 34.0, 11.0, 4.0, 7.0, 6.0, 3.0, 11.0, 13.0, 25.0, 7.0, 4.0, 6.0, 7.0, 35.0, 13.0, 15.0, 4.0, 7.0, 6.0, 1.0, 13.0, 6.0, 9.0, 10.0, 27.0, 7.0, 7.0, 23.0, 29.0, 24.0, 14.0, 17.0, 23.0, 38.0, 0.0, 9.0, 39.0, 11.0, 11.0, 35.0, 1.0, 2.0, 7.0, 28.0, 2.0, 2.0, 11.0, 11.0, 8.0, 10.0, 4.0, 32.0, 6.0, 26.0, 3.0, 26.0, 5.0, 4.0, 13.0, 7.0, 5.0, 10.0, 11.0, 39.0, 24.0, 32.0, 47.0, 4.0, 13.0, 19.0, 12.0, 1.0, 15.0, 14.0, 7.0, 1.0, 7.0, 22.0, 19.0, 8.0, 30.0, 11.0, 13.0, 22.0, 6.0, 8.0, 48.0, 13.0, 15.0, 15.0, 26.0, 28.0, 32.0, 8.0, 3.0, 7.0, 13.0, 23.0, 15.0, 11.0, 3.0, 5.0, 39.0, 16.0, 10.0, 12.0, 16.0, 2.0, 41.0, 5.0, 11.0, 24.0, 14.0, 10.0, 12.0, 5.0, 43.0, 8.0, 20.0, 4.0, 15.0, 12.0, 49.0, 42.0, 26.0, 20.0, 8.0, 28.0, 0.0, 20.0, 14.0, 5.0, 29.0, 15.0, 14.0, 9.0, 8.0, 14.0, 20.0, 8.0, 8.0, 5.0, 27.0, 20.0, 7.0, 8.0, 14.0, 3.0, 10.0, 13.0, 11.0, 7.0, 7.0, 36.0, 46.0, 35.0, 29.0, 15.0, 30.0, 9.0, 8.0, 50.0, 14.0, 29.0, 7.0, 2.0, 11.0, 10.0, 5.0, 23.0, 2.0, 12.0, 19.0, 4.0, 6.0, 11.0, 2.0, 15.0, 31.0, 12.0, 24.0, 13.0, 18.0, 46.0, 11.0, 14.0, 12.0, 7.0, 7.0, 46.0, 6.0, 13.0, 13.0, 8.0, 5.0, 11.0, 8.0, 15.0, 15.0, 13.0, 39.0, 15.0, 48.0, 10.0, 5.0, 7.0, 2.0, 8.0, 3.0, 9.0, 21.0, 35.0, 27.0, 12.0, 7.0, 15.0, 27.0, 2.0, 10.0, 6.0, 15.0, 3.0, 2.0, 15.0, 7.0, 7.0, 3.0, 7.0, 4.0, 8.0, 31.0, 26.0, 7.0, 1.0, 9.0, 8.0, 1.0, 1.0, 1.0, 3.0, 25.0, 8.0, 10.0, 11.0, 4.0, 3.0, 30.0, 4.0, 3.0, 3.0, 20.0, 9.0, 5.0, 42.0, 13.0, 55.0, 18.0, 12.0, 4.0, 9.0, 7.0, 14.0, 18.0, 21.0, 45.0, 59.0, 6.0, 46.0, 5.0, 1.0, 13.0, 26.0, 5.0, 5.0, 2.0, 6.0, 12.0, 15.0, 8.0, 9.0, 2.0, 11.0, 9.0, 8.0, 2.0, 1.0, 14.0, 14.0, 42.0, 3.0, 12.0, 21.0, 9.0, 9.0, 25.0, 4.0, 10.0, 7.0, 1.0, 14.0, 15.0, 2.0, 11.0, 11.0, 5.0, 11.0, 16.0, 10.0, 25.0, 45.0, 12.0, 46.0, 10.0, 3.0, 6.0, 11.0, 11.0, 13.0, 7.0, 11.0, 10.0, 9.0, 17.0, 7.0, 22.0, 6.0, 26.0, 30.0, 5.0, 8.0, 4.0, 17.0, 6.0, 6.0, 55.0, 4.0, 6.0, 5.0, 15.0, 5.0, 7.0, 8.0, 12.0, 35.0, 8.0, 22.0, 56.0, 19.0, 5.0, 17.0, 6.0, 13.0, 29.0, 4.0, 9.0, 8.0, 3.0, 7.0, 1.0, 15.0, 67.0, 9.0, 51.0, 9.0, 17.0, 7.0, 9.0, 22.0, 4.0, 21.0, 4.0, 7.0, 7.0, 7.0, 4.0, 37.0, 3.0, 9.0, 21.0, 7.0, 3.0, 10.0, 8.0, 8.0, 6.0, 14.0, 5.0, 3.0, 5.0, 4.0, 6.0, 6.0, 27.0, 19.0, 6.0, 9.0, 12.0, 7.0, 18.0, 7.0, 6.0, 16.0, 5.0, 11.0, 11.0, 12.0, 22.0, 2.0, 26.0, 17.0, 49.0, 7.0, 5.0, 9.0, 25.0, 36.0, 15.0, 18.0, 26.0, 8.0, 11.0, 82.0, 13.0, 7.0, 2.0, 11.0, 11.0, 4.0, 11.0, 15.0, 31.0, 18.0, 8.0, 14.0, 5.0, 8.0, 7.0, 37.0, 13.0, 32.0, 40.0, 14.0, 19.0, 35.0, 14.0, 14.0, 27.0, 14.0, 13.0, 8.0, 10.0, 36.0, 14.0, 6.0, 13.0, 13.0, 23.0, 29.0, 17.0, 20.0, 2.0, 7.0, 2.0, 50.0, 17.0, 5.0, 7.0, 7.0, 21.0, 7.0, 16.0, 7.0, 22.0, 35.0, 15.0, 11.0, 9.0, 17.0, 29.0, 10.0, 4.0, 7.0, 1.0, 10.0, 8.0, 23.0, 9.0, 12.0, 6.0, 4.0, 34.0, 9.0, 9.0, 4.0, 26.0, 0.0, 25.0, 4.0, 12.0, 12.0, 7.0, 3.0, 10.0, 7.0, 13.0, 13.0, 25.0, 6.0, 30.0, 20.0, 19.0, 4.0, 11.0, 9.0, 8.0, 13.0, 25.0, 2.0, 6.0, 13.0, 1.0, 10.0, 2.0, 7.0, 8.0, 16.0, 5.0, 3.0, 9.0, 17.0, 65.0, 30.0, 8.0, 22.0, 37.0, 80.0, 16.0, 15.0, 15.0, 89.0, 17.0, 10.0, 7.0, 6.0, 9.0, 17.0, 17.0, 28.0, 22.0, 20.0, 30.0, 4.0, 3.0, 16.0, 14.0, 3.0, 31.0, 5.0, 7.0, 7.0, 23.0, 10.0, 2.0, 8.0, 14.0, 10.0, 12.0, 47.0, 10.0, 1.0, 15.0, 19.0, 7.0, 16.0, 9.0, 18.0, 19.0, 11.0, 4.0, 4.0, 18.0, 24.0, 12.0, 4.0, 13.0, 4.0, 7.0, 70.0, 7.0, 21.0, 4.0, 9.0, 26.0, 11.0, 20.0, 7.0, 6.0, 5.0, 11.0, 28.0, 8.0, 6.0, 9.0, 1.0, 4.0, 13.0, 14.0, 4.0, 20.0, 5.0, 1.0, 7.0, 6.0, 2.0, 13.0, 36.0, 39.0, 10.0, 12.0, 12.0, 2.0, 2.0, 33.0, 12.0, 14.0, 23.0, 19.0, 2.0, 40.0, 16.0, 5.0, 12.0, 5.0, 9.0, 12.0, 12.0, 23.0, 77.0, 17.0, 8.0, 29.0, 10.0, 36.0, 1.0, 8.0, 32.0, 5.0, 20.0, 6.0, 65.0, 7.0, 3.0, 6.0, 43.0, 23.0, 16.0, 10.0, 8.0, 7.0, 2.0, 4.0, 23.0, 25.0, 8.0, 7.0, 4.0, 8.0, 9.0, 9.0, 11.0, 1.0, 8.0, 4.0, 7.0, 11.0, 0.0, 25.0, 12.0, 6.0, 5.0, 8.0, 10.0, 8.0, 23.0, 4.0, 5.0, 5.0, 5.0, 19.0, 2.0, 19.0, 8.0, 13.0, 37.0, 7.0, 5.0, 3.0, 31.0, 12.0, 6.0, 30.0, 11.0, 6.0, 10.0, 11.0, 18.0, 54.0, 4.0, 11.0, 7.0, 10.0, 1.0, 6.0, 1.0, 7.0, 17.0, 4.0, 5.0, 7.0, 11.0, 16.0, 10.0, 5.0, 0.0, 7.0, 4.0, 6.0, 5.0, 14.0, 22.0, 18.0, 40.0, 13.0, 4.0, 18.0, 20.0, 6.0, 8.0, 1.0, 6.0, 6.0, 6.0, 35.0, 4.0, 8.0, 21.0, 21.0, 15.0, 7.0, 8.0, 4.0, 5.0, 2.0, 2.0, 23.0, 9.0, 3.0, 7.0, 16.0, 5.0, 8.0, 12.0, 5.0, 1.0, 5.0, 6.0, 9.0, 13.0, 6.0, 6.0, 15.0, 43.0, 9.0, 6.0, 20.0, 35.0, 5.0, 15.0, 7.0, 5.0, 6.0, 15.0, 3.0, 13.0, 30.0, 5.0, 9.0, 13.0, 10.0, 14.0, 10.0, 17.0, 6.0, 30.0, 2.0, 6.0, 3.0, 3.0, 17.0, 6.0, 9.0, 14.0, 13.0, 0.0, 7.0, 9.0, 8.0, 0.0, 24.0, 22.0, 13.0, 6.0, 80.0, 16.0, 2.0, 9.0, 1.0, 4.0, 21.0, 3.0, 14.0, 8.0, 4.0, 62.0, 7.0, 16.0, 15.0, 5.0, 29.0, 8.0, 7.0, 12.0, 22.0, 4.0, 4.0, 14.0, 5.0, 12.0, 21.0, 7.0, 10.0, 7.0, 2.0, 2.0, 7.0, 32.0, 2.0, 11.0, 35.0, 39.0, 7.0, 8.0, 6.0, 2.0, 11.0, 10.0, 11.0, 8.0, 5.0, 22.0, 3.0, 6.0, 12.0, 11.0, 4.0, 8.0, 14.0, 5.0, 8.0, 54.0, 15.0, 10.0, 8.0, 32.0, 15.0, 37.0, 39.0, 5.0, 5.0, 33.0, 16.0, 14.0, 13.0, 4.0, 4.0, 4.0, 7.0, 2.0, 7.0, 7.0, 4.0, 38.0, 9.0, 9.0, 5.0, 11.0, 26.0, 34.0, 9.0, 2.0, 5.0, 5.0, 3.0, 5.0, 60.0, 5.0, 11.0, 20.0, 7.0, 5.0, 10.0, 7.0, 6.0, 11.0, 7.0, 14.0, 13.0, 3.0, 5.0, 5.0, 10.0, 10.0, 17.0, 5.0, 11.0, 7.0, 7.0, 7.0, 5.0, 12.0, 7.0, 13.0, 4.0, 3.0, 5.0, 36.0, 25.0, 18.0, 71.0, 32.0, 11.0, 8.0, 10.0, 4.0, 10.0, 10.0, 11.0, 41.0, 1.0, 7.0, 8.0, 4.0, 8.0, 49.0, 7.0, 3.0, 14.0, 14.0, 13.0, 12.0, 9.0, 12.0, 3.0, 13.0, 11.0, 15.0, 5.0, 4.0, 8.0, 8.0, 12.0, 5.0, 2.0, 8.0, 6.0, 13.0, 4.0, 4.0, 11.0, 11.0, 8.0, 53.0, 4.0, 15.0, 5.0, 49.0, 1.0, 8.0, 8.0, 22.0, 4.0, 7.0, 21.0, 3.0, 8.0, 6.0, 13.0, 8.0, 7.0, 7.0, 6.0, 8.0, 16.0, 28.0, 1.0, 9.0, 8.0, 5.0, 69.0, 6.0, 12.0, 6.0, 6.0, 13.0, 3.0, 9.0, 12.0, 15.0, 7.0, 12.0, 9.0, 2.0, 12.0, 7.0, 5.0, 2.0, 24.0, 5.0, 47.0, 6.0, 9.0, 7.0, 9.0, 10.0, 6.0, 6.0, 7.0, 17.0, 16.0, 23.0, 7.0, 34.0, 6.0, 6.0, 7.0, 12.0, 6.0, 8.0, 3.0, 6.0, 16.0, 14.0, 14.0, 10.0, 7.0, 1.0, 13.0, 6.0, 6.0, 10.0, 13.0, 6.0, 13.0, 3.0, 7.0, 9.0, 21.0, 7.0, 20.0, 11.0, 2.0, 3.0, 20.0, 13.0, 6.0, 2.0, 17.0, 14.0, 14.0, 25.0, 27.0, 2.0, 10.0, 7.0, 7.0, 4.0, 13.0, 4.0, 5.0, 14.0, 2.0, 15.0, 1.0, 4.0, 15.0, 9.0, 2.0, 11.0, 14.0, 4.0, 41.0, 8.0, 21.0, 8.0, 7.0, 4.0, 8.0, 4.0, 7.0, 7.0, 7.0, 9.0, 4.0, 39.0, 14.0, 8.0, 3.0, 12.0, 39.0, 2.0, 4.0, 10.0, 19.0, 21.0, 14.0, 8.0, 13.0, 24.0, 8.0, 26.0, 2.0, 7.0, 4.0, 4.0, 11.0, 21.0, 14.0, 4.0, 11.0, 63.0, 10.0, 8.0, 5.0, 8.0, 16.0, 15.0, 9.0, 5.0, 16.0, 5.0, 11.0, 12.0, 9.0, 1.0, 25.0, 6.0, 13.0, 6.0, 24.0, 4.0, 6.0, 1.0, 4.0, 22.0, 5.0, 16.0, 5.0, 4.0, 13.0, 16.0, 2.0, 2.0, 44.0, 57.0, 4.0, 4.0, 2.0, 4.0, 53.0, 7.0, 5.0, 6.0, 69.0, 6.0, 8.0, 9.0, 11.0, 3.0, 105.0, 9.0, 5.0, 6.0, 12.0, 3.0, 12.0, 6.0, 9.0, 10.0, 13.0, 12.0, 5.0, 11.0, 5.0, 11.0, 7.0, 14.0, 5.0, 6.0, 1.0, 7.0, 11.0, 6.0, 2.0, 9.0, 14.0, 10.0, 7.0, 29.0, 1.0, 11.0, 1.0, 3.0, 19.0, 10.0, 6.0, 6.0, 10.0, 3.0, 12.0, 5.0, 18.0, 31.0, 6.0, 11.0, 6.0, 10.0, 1.0, 4.0, 40.0, 3.0, 10.0, 21.0, 12.0, 17.0, 6.0, 3.0, 30.0, 20.0, 4.0, 6.0, 13.0, 5.0, 36.0, 95.0, 3.0, 1.0, 8.0, 11.0, 5.0, 53.0, 12.0, 14.0, 5.0, 4.0, 19.0, 4.0, 5.0, 8.0, 7.0, 20.0, 8.0, 7.0, 4.0, 13.0, 4.0, 4.0, 5.0, 2.0, 33.0, 2.0, 25.0, 10.0, 9.0, 1.0, 4.0, 4.0, 10.0, 27.0, 4.0, 7.0, 12.0, 8.0, 5.0, 15.0, 8.0, 14.0, 15.0, 9.0, 4.0, 5.0, 2.0, 6.0, 14.0, 22.0, 8.0, 4.0, 15.0, 22.0, 5.0, 10.0, 1.0, 9.0, 20.0, 3.0, 9.0, 16.0, 3.0, 1.0, 5.0, 3.0, 8.0, 6.0, 8.0, 19.0, 6.0, 15.0, 6.0, 15.0, 6.0, 14.0, 21.0, 9.0, 9.0, 1.0, 5.0, 5.0, 5.0, 13.0, 9.0, 19.0, 3.0, 2.0, 6.0, 6.0, 14.0, 13.0, 11.0, 27.0, 1.0, 3.0, 5.0, 10.0, 42.0, 7.0, 14.0, 0.0, 6.0, 28.0, 7.0, 42.0, 17.0, 4.0, 13.0, 9.0, 3.0, 13.0, 10.0, 7.0, 3.0, 6.0, 3.0, 1.0, 10.0, 6.0, 10.0, 4.0, 5.0, 23.0, 10.0, 2.0, 10.0, 11.0, 12.0, 5.0, 5.0, 11.0, 13.0, 7.0, 45.0, 7.0, 7.0, 5.0, 3.0, 6.0, 7.0, 4.0, 1.0, 9.0, 45.0, 17.0, 14.0, 6.0, 10.0, 28.0, 10.0, 16.0, 10.0, 5.0, 3.0, 14.0, 4.0, 16.0, 5.0, 84.0, 9.0, 4.0, 6.0, 22.0, 1.0, 7.0, 15.0, 10.0, 2.0, 0.0, 3.0, 7.0, 5.0, 95.0, 22.0, 16.0, 6.0, 8.0, 15.0, 5.0, 21.0, 6.0, 4.0, 8.0, 8.0, 7.0, 8.0, 10.0, 11.0, 5.0, 14.0, 11.0, 7.0, 35.0, 10.0, 10.0, 1.0, 4.0, 1.0, 4.0, 8.0, 22.0, 2.0, 4.0, 15.0, 24.0, 4.0, 2.0, 25.0, 25.0, 14.0, 7.0, 10.0, 7.0, 11.0, 21.0, 15.0, 8.0, 2.0, 10.0, 3.0, 18.0, 14.0, 24.0, 8.0, 44.0, 7.0, 2.0, 5.0, 3.0, 49.0, 11.0, 4.0, 4.0, 2.0, 15.0, 4.0, 2.0, 7.0, 17.0, 18.0, 1.0, 14.0, 4.0, 9.0, 23.0, 12.0, 11.0, 3.0, 9.0, 64.0, 7.0, 9.0, 11.0, 19.0, 12.0, 9.0, 2.0, 19.0, 11.0, 3.0, 39.0, 3.0, 12.0, 12.0, 12.0, 4.0, 6.0, 10.0, 5.0, 4.0, 3.0, 1.0, 15.0, 4.0, 9.0, 30.0, 4.0, 19.0, 12.0, 13.0, 3.0, 4.0, 33.0, 8.0, 22.0, 11.0, 8.0, 12.0, 12.0, 5.0, 9.0, 17.0, 15.0, 5.0, 5.0, 11.0, 8.0, 8.0, 15.0, 82.0, 13.0, 4.0, 36.0, 0.0, 18.0, 15.0, 15.0, 11.0, 4.0, 9.0, 5.0, 4.0, 15.0, 4.0, 9.0, 7.0, 3.0, 10.0, 9.0, 4.0, 10.0, 7.0, 13.0, 6.0, 6.0, 9.0, 4.0, 2.0, 9.0, 32.0, 12.0, 5.0, 6.0, 10.0, 4.0, 1.0, 4.0, 4.0, 5.0, 10.0, 1.0, 9.0, 38.0, 4.0, 10.0, 3.0, 6.0, 5.0, 12.0, 10.0, 4.0, 3.0, 10.0, 10.0, 3.0, 6.0, 26.0, 17.0, 4.0, 7.0, 14.0, 24.0, 5.0, 4.0, 5.0, 2.0, 3.0, 8.0, 11.0, 4.0, 3.0, 14.0, 7.0, 4.0, 17.0, 7.0, 10.0, 7.0, 6.0, 19.0, 10.0, 7.0, 5.0, 14.0, 2.0, 12.0, 19.0, 10.0, 6.0, 4.0, 44.0, 14.0, 20.0, 25.0, 24.0, 17.0, 4.0, 4.0, 5.0, 17.0, 10.0, 1.0, 7.0, 5.0, 4.0, 33.0, 5.0, 5.0, 7.0, 7.0, 4.0, 19.0, 10.0, 5.0, 5.0, 4.0, 1.0, 7.0, 13.0, 4.0, 6.0, 4.0, 18.0, 4.0, 4.0, 7.0, 3.0, 6.0, 1.0, 20.0, 0.0, 10.0, 33.0, 6.0, 5.0, 1.0, 14.0, 15.0, 6.0, 3.0, 12.0, 2.0, 7.0, 5.0, 7.0, 19.0, 36.0, 11.0, 9.0, 12.0, 2.0, 8.0, 1.0, 9.0, 5.0, 8.0, 11.0, 26.0, 6.0, 5.0, 3.0, 14.0, 10.0, 11.0, 4.0, 4.0, 5.0, 5.0, 8.0, 1.0, 8.0, 14.0, 16.0, 11.0, 6.0, 4.0, 0.0, 6.0, 10.0, 8.0, 10.0, 2.0, 1.0, 4.0, 1.0, 5.0, 11.0, 6.0, 5.0, 22.0, 7.0, 13.0, 5.0, 4.0, 8.0, 5.0, 7.0, 9.0, 12.0, 6.0, 9.0, 5.0, 16.0, 8.0, 8.0, 19.0, 9.0, 1.0, 19.0, 8.0, 1.0, 1.0, 5.0, 10.0, 6.0, 3.0, 15.0, 9.0, 5.0, 14.0, 6.0, 13.0, 47.0, 1.0, 13.0, 2.0, 5.0, 3.0, 34.0, 7.0, 27.0, 4.0, 7.0, 4.0, 1.0, 9.0, 1.0, 5.0, 5.0, 6.0, 19.0, 12.0, 1.0, 4.0, 56.0, 51.0, 9.0, 8.0, 7.0, 5.0, 10.0, 35.0, 9.0, 2.0, 10.0, 22.0, 7.0, 3.0, 1.0, 9.0, 3.0, 7.0, 9.0, 9.0, 6.0, 4.0, 7.0, 19.0, 8.0, 24.0, 10.0, 3.0, 20.0, 1.0, 10.0, 9.0, 4.0, 8.0, 6.0, 16.0, 13.0, 6.0, 2.0, 9.0, 1.0, 6.0, 10.0, 10.0, 5.0, 28.0, 28.0, 5.0, 6.0, 4.0, 14.0, 3.0, 2.0, 3.0, 6.0, 4.0, 7.0, 3.0, 13.0, 7.0, 8.0, 2.0, 3.0, 10.0, 10.0, 3.0, 27.0, 6.0, 1.0, 9.0, 5.0, 21.0, 7.0, 14.0, 5.0, 14.0, 18.0, 8.0, 1.0, 1.0, 8.0, 6.0, 10.0, 4.0, 5.0, 3.0, 8.0, 2.0, 26.0, 21.0, 4.0, 22.0, 28.0, 4.0, 5.0, 3.0, 14.0, 3.0, 9.0, 12.0, 4.0, 11.0, 3.0, 7.0, 2.0, 7.0, 36.0, 11.0, 17.0, 17.0, 4.0, 4.0, 3.0, 9.0, 14.0, 4.0, 11.0, 8.0, 9.0, 4.0, 28.0, 2.0, 28.0, 18.0, 19.0, 7.0, 10.0, 15.0, 6.0, 4.0, 7.0, 8.0, 8.0, 11.0, 4.0, 9.0, 2.0, 19.0, 18.0, 7.0, 11.0, 7.0, 35.0, 5.0, 35.0, 15.0, 8.0, 1.0, 8.0, 8.0, 14.0, 6.0, 8.0, 4.0, 3.0, 2.0, 9.0, 7.0, 3.0, 8.0, 8.0, 25.0, 10.0, 1.0, 3.0, 10.0, 6.0, 18.0, 1.0, 3.0, 12.0, 5.0, 5.0, 23.0, 5.0, 15.0, 3.0, 10.0, 25.0, 14.0, 4.0, 8.0, 9.0, 5.0, 2.0, 9.0, 15.0, 9.0, 11.0, 10.0, 19.0, 3.0, 4.0, 9.0, 4.0, 5.0, 4.0, 2.0, 29.0, 15.0, 9.0, 5.0, 10.0, 10.0, 16.0, 22.0, 31.0, 11.0, 18.0, 8.0, 9.0, 8.0, 43.0, 15.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 12.0, 5.0, 5.0, 19.0, 26.0, 13.0, 5.0, 10.0, 13.0, 6.0, 6.0, 6.0, 9.0, 10.0, 5.0, 2.0, 2.0, 7.0, 6.0, 3.0, 12.0, 7.0, 6.0, 9.0, 3.0, 5.0, 9.0, 6.0, 3.0, 12.0, 2.0, 29.0, 4.0, 4.0, 6.0, 32.0, 16.0, 4.0, 2.0, 4.0, 3.0, 2.0, 9.0, 23.0, 10.0, 12.0, 9.0, 32.0, 27.0, 3.0, 9.0, 10.0, 11.0, 5.0, 41.0, 4.0, 12.0, 8.0, 17.0, 4.0, 7.0, 18.0, 7.0, 21.0, 6.0, 5.0, 8.0, 1.0, 17.0, 3.0, 11.0, 14.0, 4.0, 14.0, 7.0, 7.0, 21.0, 4.0, 1.0, 13.0, 8.0, 18.0, 5.0, 17.0, 10.0, 31.0, 2.0, 7.0, 4.0, 18.0, 7.0, 24.0, 31.0, 10.0, 7.0, 5.0, 15.0, 4.0, 5.0, 8.0, 11.0, 13.0, 32.0, 3.0, 3.0, 11.0, 30.0, 17.0, 5.0, 12.0, 28.0, 13.0, 10.0, 3.0, 4.0, 8.0, 5.0, 7.0, 8.0, 5.0, 4.0, 5.0, 4.0, 13.0, 22.0, 7.0, 13.0, 23.0, 4.0, 2.0, 5.0, 1.0, 12.0, 4.0, 1.0, 14.0, 82.0, 6.0, 15.0, 48.0, 16.0, 27.0, 13.0, 19.0, 5.0, 4.0, 13.0, 14.0, 1.0, 11.0, 26.0, 4.0, 22.0, 5.0, 4.0, 8.0, 4.0, 6.0, 13.0, 25.0, 9.0, 14.0, 5.0, 62.0, 11.0, 12.0, 70.0, 8.0, 75.0, 4.0, 13.0, 4.0, 5.0, 13.0, 4.0, 22.0, 18.0, 7.0, 12.0, 5.0, 3.0, 13.0, 5.0, 7.0, 18.0, 5.0, 9.0, 3.0, 9.0, 9.0, 7.0, 13.0, 2.0, 6.0, 10.0, 1.0, 12.0, 9.0, 5.0, 9.0, 12.0, 7.0, 20.0, 6.0, 12.0, 1.0, 7.0, 30.0, 6.0, 7.0, 6.0, 40.0, 6.0, 9.0, 15.0, 7.0, 1.0, 9.0, 7.0, 3.0, 10.0, 7.0, 8.0, 27.0, 3.0, 31.0, 9.0, 50.0, 26.0, 35.0, 26.0, 7.0, 5.0, 8.0, 20.0, 13.0, 7.0, 21.0, 3.0, 14.0, 15.0, 9.0, 1.0, 43.0, 8.0, 18.0, 13.0, 10.0, 10.0, 7.0, 30.0, 6.0, 5.0, 4.0, 5.0, 6.0, 2.0, 38.0, 6.0, 31.0, 13.0, 25.0, 3.0, 14.0, 69.0, 14.0, 8.0, 28.0, 29.0, 27.0, 16.0, 7.0, 11.0, 15.0, 63.0, 2.0, 13.0, 10.0, 2.0, 19.0, 10.0, 1.0, 14.0, 18.0, 23.0, 2.0, 7.0, 21.0, 14.0, 4.0, 7.0, 18.0, 4.0, 4.0, 3.0, 10.0, 9.0, 21.0, 2.0, 13.0, 7.0, 6.0, 8.0, 29.0, 21.0, 7.0, 4.0, 25.0, 64.0, 7.0, 29.0, 8.0, 18.0, 16.0, 9.0, 7.0, 15.0, 9.0, 9.0, 4.0, 14.0, 8.0, 31.0, 10.0, 8.0, 52.0, 14.0, 15.0, 5.0, 6.0, 22.0, 4.0, 66.0, 14.0, 9.0, 12.0, 9.0, 12.0, 22.0, 2.0, 5.0, 9.0, 4.0, 6.0, 8.0, 2.0, 11.0, 26.0, 46.0, 3.0, 12.0, 3.0, 5.0, 9.0, 5.0, 17.0, 16.0, 18.0, 12.0, 9.0, 4.0, 1.0, 13.0, 9.0, 10.0, 5.0, 3.0, 2.0, 24.0, 7.0, 13.0, 9.0, 6.0, 13.0, 2.0, 3.0, 1.0, 3.0, 40.0, 14.0, 11.0, 17.0, 8.0, 18.0, 4.0, 24.0, 10.0, 10.0, 58.0, 4.0, 6.0, 4.0, 4.0, 24.0, 31.0, 10.0, 10.0, 13.0, 7.0, 12.0, 21.0, 4.0, 5.0, 10.0, 21.0, 4.0, 13.0, 14.0, 6.0, 11.0, 11.0, 68.0, 45.0, 10.0, 4.0, 6.0, 29.0, 29.0, 4.0, 25.0, 8.0, 7.0, 7.0, 13.0, 8.0, 14.0, 12.0, 5.0, 2.0, 15.0, 4.0, 4.0, 28.0, 12.0, 20.0, 13.0, 43.0, 21.0, 13.0, 28.0, 14.0, 46.0, 7.0, 6.0, 5.0, 19.0, 15.0, 8.0, 27.0, 5.0, 48.0, 12.0, 21.0, 9.0, 14.0, 8.0, 19.0, 13.0, 10.0, 28.0, 5.0, 12.0, 7.0, 4.0, 5.0, 9.0, 9.0, 35.0, 7.0, 9.0, 5.0, 13.0, 14.0, 13.0, 13.0, 14.0, 5.0, 15.0, 26.0, 2.0, 13.0, 21.0, 15.0, 89.0, 69.0, 17.0, 29.0, 12.0, 6.0, 9.0, 24.0, 5.0, 8.0, 16.0, 12.0, 3.0, 2.0, 13.0, 6.0, 7.0, 7.0, 8.0, 3.0, 19.0, 7.0, 10.0, 2.0, 22.0, 7.0, 14.0, 15.0, 23.0, 3.0, 3.0, 5.0, 3.0, 3.0, 8.0, 7.0, 14.0, 25.0, 33.0, 2.0, 14.0, 3.0, 15.0, 7.0, 13.0, 5.0, 19.0, 38.0, 7.0, 8.0, 2.0, 3.0, 5.0, 2.0, 1.0, 13.0, 29.0, 24.0, 35.0, 46.0, 24.0, 49.0, 17.0, 5.0, 69.0, 3.0, 21.0, 29.0, 8.0, 5.0, 27.0, 9.0, 37.0, 8.0, 15.0, 5.0, 38.0, 11.0, 1.0, 11.0, 6.0, 13.0, 10.0, 9.0, 71.0, 15.0, 22.0, 1.0, 25.0, 26.0, 25.0, 58.0, 2.0, 4.0, 12.0, 4.0, 2.0, 5.0, 20.0, 9.0, 13.0, 54.0, 26.0, 30.0, 6.0, 4.0, 9.0, 11.0, 5.0, 7.0, 10.0, 1.0, 10.0, 14.0, 19.0, 4.0, 14.0, 19.0, 4.0, 3.0, 3.0, 3.0, 34.0, 16.0, 19.0, 10.0, 64.0, 21.0, 13.0, 20.0, 20.0, 2.0, 8.0, 18.0, 12.0, 30.0, 7.0, 33.0, 5.0, 13.0, 4.0, 18.0, 20.0, 7.0, 5.0, 7.0, 1.0, 9.0, 18.0, 5.0, 11.0, 14.0, 11.0, 8.0, 30.0, 8.0, 4.0, 12.0, 23.0, 2.0, 10.0, 21.0, 26.0, 14.0, 21.0, 6.0, 15.0, 74.0, 20.0, 9.0, 20.0, 28.0, 40.0, 17.0, 15.0, 33.0, 14.0, 49.0, 5.0, 16.0, 29.0, 1.0, 10.0, 29.0, 33.0, 117.0, 22.0, 43.0, 27.0, 5.0, 20.0, 25.0, 10.0, 21.0, 8.0, 15.0, 9.0, 3.0, 17.0, 20.0, 1.0, 6.0, 14.0, 13.0, 83.0, 27.0, 14.0, 3.0, 34.0, 33.0, 23.0, 42.0, 5.0, 34.0, 11.0, 27.0, 38.0, 10.0, 4.0, 4.0, 35.0, 8.0, 15.0, 1.0, 9.0, 7.0, 42.0, 9.0, 7.0, 10.0, 3.0, 7.0, 30.0, 62.0, 42.0, 3.0, 26.0, 78.0, 21.0, 22.0, 52.0, 8.0, 23.0, 5.0, 6.0, 2.0, 31.0, 5.0, 8.0, 22.0, 3.0, 37.0, 24.0, 78.0, 58.0, 18.0, 18.0, 11.0, 2.0, 20.0, 13.0, 13.0, 11.0, 25.0, 6.0, 4.0, 19.0, 3.0, 28.0, 20.0, 26.0, 31.0, 21.0, 5.0, 5.0, 11.0, 20.0, 48.0, 8.0, 18.0, 5.0, 26.0, 6.0, 44.0, 3.0, 12.0, 15.0, 34.0, 8.0, 8.0, 23.0, 15.0, 3.0, 14.0, 37.0, 9.0, 8.0, 31.0, 8.0, 38.0, 42.0, 10.0, 4.0, 43.0, 34.0, 42.0, 27.0, 18.0, 24.0, 6.0, 9.0, 15.0, 7.0, 7.0, 7.0, 7.0, 8.0, 9.0, 1.0, 12.0, 37.0, 4.0, 45.0, 12.0, 22.0, 40.0, 9.0, 4.0, 31.0, 42.0, 81.0, 11.0, 130.0, 107.0, 4.0, 12.0, 26.0, 8.0, 39.0, 43.0, 43.0, 6.0, 4.0, 8.0, 40.0, 46.0, 35.0, 16.0, 44.0, 37.0, 34.0, 3.0, 6.0, 7.0, 10.0, 10.0, 9.0, 11.0, 13.0, 14.0, 11.0, 22.0, 11.0, 43.0, 3.0, 1.0, 33.0, 4.0, 21.0, 43.0, 34.0, 1.0, 43.0, 7.0, 7.0, 78.0, 6.0, 55.0, 14.0, 9.0, 9.0, 23.0, 40.0, 47.0, 22.0, 16.0, 6.0, 6.0, 2.0, 5.0, 15.0, 28.0, 15.0, 51.0, 29.0, 41.0, 78.0, 2.0, 9.0, 8.0, 29.0, 12.0, 31.0, 12.0, 12.0, 22.0, 51.0, 17.0, 9.0, 46.0, 10.0, 14.0, 10.0, 27.0, 25.0, 4.0, 19.0, 36.0, 47.0, 14.0, 7.0, 71.0, 10.0, 9.0, 36.0, 34.0, 50.0, 61.0, 14.0, 9.0, 55.0, 51.0, 3.0, 4.0, 39.0, 24.0, 50.0, 18.0, 5.0, 46.0, 48.0, 17.0, 46.0, 55.0, 55.0, 13.0, 12.0, 22.0, 43.0, 36.0, 52.0, 36.0, 91.0, 25.0, 4.0, 20.0, 46.0, 3.0, 12.0, 25.0, 74.0, 10.0, 56.0, 50.0, 75.0, 6.0, 68.0, 8.0, 24.0, 37.0, 13.0, 113.0, 10.0, 7.0, 38.0, 23.0, 99.0, 2.0, 19.0, 78.0, 107.0, 67.0, 8.0, 61.0, 15.0, 56.0, 0.0, 4.0, 2.0, 7.0, 11.0, 49.0, 120.0, 92.0, 6.0, 4.0, 12.0, 22.0, 7.0, 21.0, 51.0, 7.0, 2.0, 38.0, 73.0, 3.0, 130.0, 9.0, 5.0, 137.0, 6.0, 5.0, 7.0, 12.0, 3.0, 43.0, 95.0, 13.0, 169.0, 13.0, 10.0, 3.0, 4.0, 8.0, 4.0, 18.0, 5.0, 4.0, 1.0, 9.0, 91.0, 7.0, 80.0, 11.0, 106.0, 3.0, 13.0, 13.0, 51.0, 86.0, 8.0, 14.0, 11.0, 115.0, 5.0, 3.0, 13.0, 160.0, 20.0, 5.0, 11.0, 6.0, 7.0, 68.0, 103.0, 3.0, 21.0, 9.0, 8.0, 137.0, 9.0, 8.0, 64.0, 5.0, 17.0, 5.0, 21.0, 114.0, 7.0, 13.0, 5.0, 107.0, 4.0, 11.0, 7.0, 5.0, 10.0, 6.0, 6.0, 2.0, 3.0, 3.0, 102.0, 8.0, 4.0, 35.0, 3.0, 9.0, 10.0, 12.0, 1.0, 7.0, 22.0, 23.0, 130.0, 8.0, 3.0, 4.0, 7.0, 21.0, 3.0, 51.0, 32.0, 42.0, 7.0, 34.0, 161.0, 6.0, 4.0, 12.0, 109.0, 15.0, 13.0, 4.0, 1.0, 32.0, 5.0, 52.0, 82.0, 7.0, 22.0, 2.0, 1.0, 8.0, 9.0, 6.0, 6.0, 5.0, 19.0, 1.0, 24.0, 25.0, 1.0, 15.0, 6.0, 9.0, 35.0, 8.0, 12.0, 106.0, 7.0, 14.0, 21.0, 34.0, 3.0, 24.0, 0.0, 2.0, 11.0, 6.0, 165.0, 62.0, 20.0, 26.0, 14.0, 10.0, 70.0, 9.0, 19.0, 10.0, 2.0, 7.0, 6.0, 7.0, 23.0, 23.0, 11.0, 4.0, 1.0, 43.0, 8.0, 20.0, 38.0, 10.0, 6.0, 12.0, 15.0, 20.0, 9.0, 7.0, 3.0, 2.0, 6.0, 3.0, 0.0, 7.0, 17.0, 14.0, 7.0, 2.0, 6.0, 3.0, 11.0, 4.0, 7.0, 30.0, 8.0, 20.0, 13.0, 13.0, 7.0, 18.0, 5.0, 10.0, 12.0, 3.0, 6.0, 32.0, 7.0, 10.0, 28.0, 5.0, 33.0, 20.0, 24.0, 21.0, 10.0, 5.0, 9.0, 7.0, 6.0, 22.0, 29.0, 22.0, 5.0, 2.0, 8.0, 3.0, 9.0, 11.0, 11.0, 23.0, 7.0, 3.0, 24.0, 3.0, 16.0, 11.0, 13.0, 24.0, 8.0, 10.0, 12.0, 9.0, 11.0, 22.0, 10.0, 6.0, 5.0, 7.0, 7.0, 125.0, 13.0, 5.0, 7.0, 16.0, 4.0, 12.0, 12.0, 21.0, 9.0, 13.0, 13.0, 3.0, 3.0, 13.0, 12.0, 6.0, 5.0, 7.0, 13.0, 10.0, 9.0, 6.0, 24.0, 0.0, 2.0, 14.0, 17.0, 6.0, 13.0, 10.0, 4.0, 7.0, 2.0, 3.0, 14.0, 38.0, 5.0, 4.0, 3.0, 3.0, 3.0, 9.0, 21.0, 4.0, 8.0, 15.0, 2.0, 8.0, 40.0, 11.0, 30.0, 9.0, 30.0, 8.0, 3.0, 16.0, 1.0, 11.0, 4.0, 2.0, 51.0, 4.0, 6.0, 8.0, 6.0, 4.0, 34.0, 11.0, 24.0, 14.0, 4.0, 14.0, 5.0, 21.0, 6.0, 12.0, 14.0, 14.0, 19.0, 27.0, 39.0, 13.0, 6.0, 9.0, 7.0, 7.0, 0.0, 7.0, 2.0, 21.0, 14.0, 2.0, 1.0, 8.0, 48.0, 11.0, 2.0, 7.0, 8.0, 10.0, 0.0, 4.0, 14.0, 7.0, 7.0, 4.0, 2.0, 4.0, 1.0, 58.0, 0.0, 38.0, 14.0, 44.0, 13.0, 8.0, 24.0, 11.0, 14.0, 5.0, 14.0, 8.0, 3.0, 4.0, 5.0, 10.0, 8.0, 3.0, 15.0, 19.0, 3.0, 52.0, 16.0, 9.0, 15.0, 9.0, 64.0, 5.0, 1.0, 19.0, 19.0, 19.0, 21.0, 17.0, 4.0, 18.0, 9.0, 3.0, 66.0, 10.0, 11.0, 2.0, 4.0, 70.0, 5.0, 12.0, 13.0, 2.0, 17.0, 5.0, 17.0, 17.0, 3.0, 60.0, 17.0, 26.0, 9.0, 17.0, 21.0, 37.0, 7.0, 8.0, 7.0, 13.0, 13.0, 5.0, 97.0, 11.0, 5.0, 2.0, 7.0, 25.0, 14.0, 11.0, 2.0, 13.0, 4.0, 2.0, 9.0, 3.0, 4.0, 5.0, 6.0, 20.0, 5.0, 2.0, 7.0, 19.0, 5.0, 13.0, 6.0, 27.0, 15.0, 2.0, 42.0, 6.0, 8.0, 8.0, 13.0, 15.0, 12.0, 30.0, 14.0, 2.0, 6.0, 14.0, 28.0, 3.0, 13.0, 8.0, 16.0, 16.0, 14.0, 5.0, 10.0, 7.0, 3.0, 16.0, 5.0, 15.0, 7.0, 10.0, 10.0, 13.0, 13.0, 4.0, 11.0, 21.0, 6.0, 9.0, 7.0, 11.0, 23.0, 7.0, 14.0, 11.0, 11.0, 2.0, 3.0, 28.0, 11.0, 28.0, 10.0, 25.0, 7.0, 26.0, 14.0, 10.0, 4.0, 16.0, 2.0, 5.0, 12.0, 8.0, 12.0, 9.0, 18.0, 15.0, 0.0, 1.0, 3.0, 16.0, 6.0, 11.0, 25.0, 5.0, 4.0, 8.0, 5.0, 4.0, 27.0, 3.0, 5.0, 9.0, 0.0, 5.0, 53.0, 136.0, 4.0, 30.0, 11.0, 6.0, 17.0, 1.0, 4.0, 14.0, 6.0, 3.0, 13.0, 1.0, 30.0, 7.0, 23.0, 10.0, 4.0, 18.0, 19.0, 10.0, 13.0, 1.0, 11.0, 13.0, 1.0, 19.0, 20.0, 0.0, 42.0, 11.0, 25.0, 19.0, 34.0, 10.0, 4.0, 19.0, 7.0, 14.0, 6.0, 14.0, 33.0, 39.0, 13.0, 7.0, 20.0, 1.0, 5.0, 4.0, 7.0, 12.0, 16.0, 47.0, 14.0, 11.0, 7.0, 14.0, 8.0, 12.0, 11.0, 7.0, 6.0, 10.0, 4.0, 12.0, 8.0, 6.0, 14.0, 13.0, 10.0, 25.0, 36.0, 8.0, 18.0, 7.0, 8.0, 3.0, 12.0, 5.0, 14.0, 6.0, 0.0, 3.0, 34.0, 2.0, 41.0, 24.0, 20.0, 11.0, 6.0, 7.0, 7.0, 7.0, 28.0, 3.0, 26.0, 6.0, 14.0, 10.0, 8.0, 15.0, 10.0, 14.0, 63.0, 20.0, 16.0, 3.0, 4.0, 12.0, 5.0, 2.0, 0.0, 14.0, 20.0, 30.0, 1.0, 36.0, 6.0, 5.0, 9.0, 7.0, 9.0, 14.0, 10.0, 21.0, 30.0, 13.0, 6.0, 6.0, 7.0, 12.0, 16.0, 6.0, 7.0, 13.0, 20.0, 0.0, 1.0, 80.0, 57.0, 3.0, 13.0, 4.0, 1.0, 5.0, 6.0, 1.0, 23.0, 9.0, 22.0, 13.0, 9.0, 16.0, 13.0, 9.0, 7.0, 2.0, 11.0, 15.0, 4.0, 10.0, 31.0, 17.0, 14.0, 7.0, 5.0, 7.0, 14.0, 14.0, 22.0, 4.0, 9.0, 8.0, 12.0, 6.0, 7.0, 14.0, 4.0, 10.0, 5.0, 7.0, 16.0, 1.0, 24.0, 9.0, 14.0, 9.0, 23.0, 3.0, 9.0, 8.0, 27.0, 10.0, 7.0, 4.0, 9.0, 1.0, 12.0, 9.0, 8.0, 8.0, 3.0, 5.0, 4.0, 11.0, 14.0, 3.0, 8.0, 5.0, 11.0, 6.0, 15.0, 11.0, 15.0, 12.0, 3.0, 8.0, 5.0, 72.0, 17.0, 9.0, 41.0, 39.0, 8.0, 14.0, 15.0, 17.0, 30.0, 5.0, 10.0, 0.0, 2.0, 9.0, 5.0, 72.0, 3.0, 29.0, 1.0, 17.0, 15.0, 7.0, 9.0, 15.0, 7.0, 2.0, 15.0, 2.0, 7.0, 13.0, 8.0, 11.0, 6.0, 8.0, 10.0, 7.0, 11.0, 20.0, 9.0, 15.0, 19.0, 6.0, 80.0, 6.0, 6.0, 21.0, 4.0, 17.0, 6.0, 4.0, 12.0, 12.0, 1.0, 6.0, 4.0, 11.0, 31.0, 6.0, 12.0, 7.0, 17.0, 6.0, 4.0, 9.0, 9.0, 9.0, 44.0, 11.0, 5.0, 11.0, 4.0, 18.0, 20.0, 3.0, 5.0, 6.0, 1.0, 11.0, 11.0, 19.0, 3.0, 13.0, 4.0, 1.0, 5.0, 18.0, 8.0, 20.0, 18.0, 24.0, 36.0, 47.0, 21.0, 5.0, 8.0, 3.0, 9.0, 4.0, 6.0, 3.0, 4.0, 4.0, 12.0, 4.0, 1.0, 17.0, 5.0, 1.0, 4.0, 18.0, 6.0, 31.0, 7.0, 1.0, 9.0, 13.0, 4.0, 4.0, 7.0, 6.0, 6.0, 4.0, 5.0, 13.0, 4.0, 12.0, 13.0, 10.0, 2.0, 9.0, 11.0, 6.0, 4.0, 4.0, 19.0, 6.0, 17.0, 10.0, 8.0, 36.0, 39.0, 6.0, 7.0, 8.0, 8.0, 13.0, 9.0, 14.0, 7.0, 7.0, 15.0, 5.0, 6.0, 6.0, 5.0, 12.0, 4.0, 20.0, 7.0, 10.0, 18.0, 12.0, 12.0, 28.0, 1.0, 21.0, 13.0, 6.0, 1.0, 3.0, 1.0, 27.0, 10.0, 13.0, 13.0, 9.0, 13.0, 5.0, 14.0, 26.0, 23.0, 8.0, 21.0, 9.0, 13.0, 12.0, 5.0, 10.0, 15.0, 70.0, 2.0, 5.0, 9.0, 12.0, 9.0, 2.0, 2.0, 5.0, 15.0, 10.0, 9.0, 27.0, 41.0, 9.0, 22.0, 8.0, 8.0, 3.0, 8.0, 7.0, 14.0, 7.0, 10.0, 9.0, 7.0, 7.0, 7.0, 10.0, 15.0, 8.0, 8.0, 15.0, 5.0, 6.0, 9.0, 7.0, 10.0, 8.0, 8.0, 6.0, 43.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 6.0, 13.0, 1.0, 2.0, 20.0, 27.0, 4.0, 30.0, 1.0, 3.0, 10.0, 6.0, 7.0, 8.0, 29.0, 9.0, 7.0, 11.0, 7.0, 3.0, 10.0, 2.0, 5.0, 16.0, 10.0, 8.0, 3.0, 15.0, 7.0, 15.0, 9.0, 8.0, 87.0, 4.0, 8.0, 7.0, 9.0, 33.0, 22.0, 18.0, 11.0, 4.0, 7.0, 0.0, 8.0, 3.0, 10.0, 10.0, 3.0, 7.0, 17.0, 4.0, 8.0, 23.0, 9.0, 2.0, 2.0, 3.0, 10.0, 9.0, 14.0, 3.0, 12.0, 5.0, 2.0, 15.0, 11.0, 12.0, 32.0, 7.0, 3.0, 5.0, 4.0, 11.0, 7.0, 5.0, 5.0, 3.0, 0.0, 7.0, 4.0, 44.0, 4.0, 11.0, 9.0, 8.0, 2.0, 7.0, 15.0, 4.0, 11.0, 5.0, 4.0, 7.0, 8.0, 6.0, 11.0, 0.0, 28.0, 3.0, 8.0, 0.0, 4.0, 9.0, 8.0, 7.0, 8.0, 3.0, 1.0, 6.0, 11.0, 9.0, 11.0, 4.0, 10.0, 5.0, 5.0, 30.0, 20.0, 9.0, 18.0, 5.0, 3.0, 16.0, 3.0, 10.0, 2.0, 11.0, 1.0, 22.0, 8.0, 5.0, 19.0, 2.0, 12.0, 10.0, 4.0, 12.0, 67.0, 33.0, 9.0, 9.0, 9.0, 11.0, 12.0, 15.0, 11.0, 6.0, 3.0, 5.0, 6.0, 4.0, 30.0, 32.0, 9.0, 9.0, 3.0, 9.0, 5.0, 6.0, 5.0, 6.0, 14.0, 17.0, 10.0, 13.0, 5.0, 17.0, 13.0, 7.0, 11.0, 9.0, 6.0, 14.0, 6.0, 6.0, 25.0, 17.0, 21.0, 7.0, 7.0, 10.0, 2.0, 4.0, 2.0, 20.0, 7.0, 18.0, 21.0, 1.0, 12.0, 12.0, 4.0, 5.0, 5.0, 8.0, 11.0, 13.0, 3.0, 28.0, 10.0, 7.0, 6.0, 31.0, 12.0, 12.0, 10.0, 20.0, 6.0, 5.0, 14.0, 5.0, 26.0, 6.0, 5.0, 46.0, 7.0, 6.0, 24.0, 5.0, 9.0, 8.0, 6.0, 10.0, 11.0, 48.0, 12.0, 10.0, 31.0, 9.0, 6.0, 14.0, 10.0, 4.0, 11.0, 10.0, 17.0, 17.0, 2.0, 5.0, 15.0, 4.0, 6.0, 5.0, 1.0, 9.0, 4.0, 6.0, 8.0, 11.0, 14.0, 7.0, 11.0, 21.0, 10.0, 10.0, 10.0, 4.0, 8.0, 42.0, 5.0, 8.0, 8.0, 1.0, 4.0, 8.0, 2.0, 4.0, 1.0, 3.0, 7.0, 5.0, 1.0, 25.0, 21.0, 55.0, 4.0, 2.0, 8.0, 7.0, 11.0, 3.0, 8.0, 6.0, 26.0, 11.0, 9.0, 11.0, 11.0, 12.0, 11.0, 5.0, 11.0, 17.0, 20.0, 11.0, 6.0, 5.0, 15.0, 13.0, 20.0, 7.0, 7.0, 5.0, 8.0, 14.0, 8.0, 11.0, 43.0, 27.0, 10.0, 6.0, 5.0, 5.0, 4.0, 3.0, 11.0, 14.0, 11.0, 6.0, 4.0, 17.0, 8.0, 4.0, 8.0, 11.0, 5.0, 12.0, 8.0, 14.0, 11.0, 20.0, 9.0, 7.0, 5.0, 7.0, 6.0, 20.0, 8.0, 14.0, 6.0, 7.0, 0.0, 7.0, 2.0, 14.0, 5.0, 5.0, 9.0, 16.0, 6.0, 6.0, 11.0, 5.0, 5.0, 13.0, 8.0, 2.0, 21.0, 2.0, 15.0, 8.0, 10.0, 5.0, 1.0, 5.0, 21.0, 4.0, 12.0, 9.0, 3.0, 3.0, 12.0, 11.0, 14.0, 1.0, 16.0, 10.0, 7.0, 3.0, 13.0, 6.0, 3.0, 21.0, 7.0, 11.0, 7.0, 31.0, 10.0, 14.0, 3.0, 14.0, 5.0, 22.0, 13.0, 15.0, 7.0, 14.0, 6.0, 6.0, 13.0, 22.0, 6.0, 7.0, 10.0, 22.0, 3.0, 24.0, 14.0, 9.0, 28.0, 18.0, 13.0, 7.0, 9.0, 10.0, 5.0, 7.0, 9.0, 13.0, 11.0, 16.0, 20.0, 13.0, 7.0, 14.0, 4.0, 7.0, 12.0, 1.0, 4.0, 10.0, 5.0, 10.0, 3.0, 4.0, 28.0, 3.0, 10.0, 5.0, 14.0, 17.0, 7.0, 6.0, 11.0, 9.0, 11.0, 10.0, 4.0, 3.0, 4.0, 3.0, 7.0, 11.0, 10.0, 16.0, 38.0, 18.0, 3.0, 25.0, 10.0, 10.0, 9.0, 14.0, 9.0, 10.0, 8.0, 21.0, 1.0, 31.0, 7.0, 10.0, 3.0, 9.0, 8.0, 11.0, 10.0, 2.0, 14.0, 8.0, 16.0, 15.0, 13.0, 8.0, 9.0, 28.0, 9.0, 15.0, 16.0, 5.0, 10.0, 6.0, 8.0, 33.0, 10.0, 4.0, 12.0, 11.0, 4.0, 7.0, 10.0, 26.0, 3.0, 5.0, 8.0, 61.0, 13.0, 2.0, 9.0, 10.0, 3.0, 6.0, 10.0, 19.0, 8.0, 5.0, 13.0, 9.0, 12.0, 4.0, 3.0, 16.0, 5.0, 8.0, 20.0, 6.0, 23.0, 13.0, 10.0, 6.0, 12.0, 5.0, 6.0, 5.0, 10.0, 6.0, 12.0, 9.0, 24.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 12.0, 2.0, 7.0, 20.0, 6.0, 4.0, 22.0, 6.0, 18.0, 12.0, 12.0, 11.0, 11.0, 6.0, 10.0, 4.0, 5.0, 5.0, 10.0, 3.0, 10.0, 4.0, 5.0, 18.0, 7.0, 34.0, 17.0, 20.0, 55.0, 6.0, 5.0, 3.0, 7.0, 7.0, 39.0, 10.0, 13.0, 19.0, 29.0, 11.0, 23.0, 29.0, 7.0, 3.0, 2.0, 26.0, 11.0, 14.0, 12.0, 2.0, 9.0, 50.0, 4.0, 15.0, 8.0, 13.0, 3.0, 35.0, 7.0, 6.0, 10.0, 8.0, 4.0, 12.0, 16.0, 51.0, 21.0, 28.0, 7.0, 5.0, 4.0, 32.0, 9.0, 22.0, 6.0, 5.0, 3.0, 10.0, 4.0, 10.0, 6.0, 10.0, 5.0, 2.0, 42.0, 20.0, 6.0, 6.0, 22.0, 15.0, 16.0, 20.0, 1.0, 16.0, 41.0, 20.0, 7.0, 6.0, 10.0, 17.0, 5.0, 39.0, 18.0, 2.0, 4.0, 9.0, 75.0, 8.0, 36.0, 50.0, 37.0, 6.0, 35.0, 16.0, 4.0, 5.0, 5.0, 29.0, 3.0, 2.0, 24.0, 4.0, 19.0, 29.0, 4.0, 6.0, 18.0, 9.0, 5.0, 14.0, 11.0, 7.0, 25.0, 22.0, 6.0, 8.0, 8.0, 6.0, 9.0, 80.0, 26.0, 7.0, 2.0, 7.0, 47.0, 9.0, 7.0, 9.0, 10.0, 11.0, 11.0, 15.0, 53.0, 8.0, 14.0, 15.0, 25.0, 3.0, 28.0, 16.0, 21.0, 23.0, 54.0, 40.0, 47.0, 31.0, 15.0, 131.0, 14.0, 14.0, 6.0, 7.0, 40.0, 21.0, 13.0, 15.0, 94.0, 39.0, 36.0, 52.0, 20.0, 88.0, 15.0, 30.0, 17.0, 15.0, 94.0, 13.0, 25.0, 20.0, 44.0, 49.0, 15.0, 20.0, 18.0, 32.0, 45.0, 31.0, 49.0, 29.0, 28.0, 21.0, 18.0, 19.0, 49.0, 58.0, 59.0, 55.0, 28.0, 40.0, 24.0, 37.0, 65.0, 54.0, 48.0, 74.0, 28.0, 28.0, 56.0, 38.0, 52.0, 66.0, 44.0, 35.0, 62.0, 32.0, 61.0, 84.0, 40.0, 53.0, 63.0, 150.0, 28.0, 84.0, 112.0, 41.0, 58.0, 79.0, 75.0, 47.0, 78.0, 61.0, 168.0, 60.0, 113.0, 73.0, 88.0, 59.0, 91.0, 85.0, 174.0, 148.0, 115.0, 98.0, 115.0, 174.0, 88.0, 132.0, 99.0, 159.0]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[3.0, 5.0, 6.0, 6.0, 5.0, 6.0, 7.0, 9.0, 7.0, 7.0, 7.0, 7.0, 5.0, 4.0, 4.0, 11.0, 9.0, 10.0, 10.0, 5.0, 13.0, 10.0, 11.0, 3.0, 3.0, 9.0, 9.0, 12.0, 11.0, 7.0, 4.0, 8.0, 12.0, 17.0, 2.0, 20.0, 5.0, 5.0, 6.0, 9.0, 7.0, 2.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 6.0, 7.0, 4.0, 7.0, 12.0, 11.0, 12.0, 4.0, 4.0, 21.0, 10.0, 25.0, 2.0, 11.0, 4.0, 14.0, 13.0, 7.0, 5.0, 7.0, 7.0, 5.0, 11.0, 6.0, 25.0, 11.0, 22.0, 7.0, 5.0, 8.0, 2.0, 5.0, 22.0, 8.0, 3.0, 13.0, 10.0, 6.0, 10.0, 7.0, 19.0, 10.0, 6.0, 11.0, 8.0, 1.0, 8.0, 3.0, 10.0, 24.0, 3.0, 8.0, 6.0, 9.0, 11.0, 7.0, 22.0, 13.0, 22.0, 7.0, 8.0, 3.0, 6.0, 4.0, 5.0, 7.0, 6.0, 11.0, 6.0, 5.0, 10.0, 10.0, 22.0, 9.0, 9.0, 16.0, 12.0, 5.0, 10.0, 6.0, 4.0, 13.0, 15.0, 27.0, 5.0, 21.0, 15.0, 3.0, 3.0, 4.0, 7.0, 14.0, 11.0, 14.0, 15.0, 15.0, 15.0, 4.0, 11.0, 2.0, 10.0, 3.0, 12.0, 20.0, 6.0, 16.0, 3.0, 6.0, 13.0, 34.0, 11.0, 4.0, 7.0, 6.0, 3.0, 11.0, 13.0, 25.0, 7.0, 4.0, 6.0, 7.0, 35.0, 13.0, 15.0, 4.0, 7.0, 6.0, 1.0, 13.0, 6.0, 9.0, 10.0, 27.0, 7.0, 7.0, 23.0, 29.0, 24.0, 14.0, 17.0, 23.0, 38.0, 0.0, 9.0, 39.0, 11.0, 11.0, 35.0, 1.0, 2.0, 7.0, 28.0, 2.0, 2.0, 11.0, 11.0, 8.0, 10.0, 4.0, 32.0, 6.0, 26.0, 3.0, 26.0, 5.0, 4.0, 13.0, 7.0, 5.0, 10.0, 11.0, 39.0, 24.0, 32.0, 47.0, 4.0, 13.0, 19.0, 12.0, 1.0, 15.0, 14.0, 7.0, 1.0, 7.0, 22.0, 19.0, 8.0, 30.0, 11.0, 13.0, 22.0, 6.0, 8.0, 48.0, 13.0, 15.0, 15.0, 26.0, 28.0, 32.0, 8.0, 3.0, 7.0, 13.0, 23.0, 15.0, 11.0, 3.0, 5.0, 39.0, 16.0, 10.0, 12.0, 16.0, 2.0, 41.0, 5.0, 11.0, 24.0, 14.0, 10.0, 12.0, 5.0, 43.0, 8.0, 20.0, 4.0, 15.0, 12.0, 49.0, 42.0, 26.0, 20.0, 8.0, 28.0, 0.0, 20.0, 14.0, 5.0, 29.0, 15.0, 14.0, 9.0, 8.0, 14.0, 20.0, 8.0, 8.0, 5.0, 27.0, 20.0, 7.0, 8.0, 14.0, 3.0, 10.0, 13.0, 11.0, 7.0, 7.0, 36.0, 46.0, 35.0, 29.0, 15.0, 30.0, 9.0, 8.0, 50.0, 14.0, 29.0, 7.0, 2.0, 11.0, 10.0, 5.0, 23.0, 2.0, 12.0, 19.0, 4.0, 6.0, 11.0, 2.0, 15.0, 31.0, 12.0, 24.0, 13.0, 18.0, 46.0, 11.0, 14.0, 12.0, 7.0, 7.0, 46.0, 6.0, 13.0, 13.0, 8.0, 5.0, 11.0, 8.0, 15.0, 15.0, 13.0, 39.0, 15.0, 48.0, 10.0, 5.0, 7.0, 2.0, 8.0, 3.0, 9.0, 21.0, 35.0, 27.0, 12.0, 7.0, 15.0, 27.0, 2.0, 10.0, 6.0, 15.0, 3.0, 2.0, 15.0, 7.0, 7.0, 3.0, 7.0, 4.0, 8.0, 31.0, 26.0, 7.0, 1.0, 9.0, 8.0, 1.0, 1.0, 1.0, 3.0, 25.0, 8.0, 10.0, 11.0, 4.0, 3.0, 30.0, 4.0, 3.0, 3.0, 20.0, 9.0, 5.0, 42.0, 13.0, 55.0, 18.0, 12.0, 4.0, 9.0, 7.0, 14.0, 18.0, 21.0, 45.0, 59.0, 6.0, 46.0, 5.0, 1.0, 13.0, 26.0, 5.0, 5.0, 2.0, 6.0, 12.0, 15.0, 8.0, 9.0, 2.0, 11.0, 9.0, 8.0, 2.0, 1.0, 14.0, 14.0, 42.0, 3.0, 12.0, 21.0, 9.0, 9.0, 25.0, 4.0, 10.0, 7.0, 1.0, 14.0, 15.0, 2.0, 11.0, 11.0, 5.0, 11.0, 16.0, 10.0, 25.0, 45.0, 12.0, 46.0, 10.0, 3.0, 6.0, 11.0, 11.0, 13.0, 7.0, 11.0, 10.0, 9.0, 17.0, 7.0, 22.0, 6.0, 26.0, 30.0, 5.0, 8.0, 4.0, 17.0, 6.0, 6.0, 55.0, 4.0, 6.0, 5.0, 15.0, 5.0, 7.0, 8.0, 12.0, 35.0, 8.0, 22.0, 56.0, 19.0, 5.0, 17.0, 6.0, 13.0, 29.0, 4.0, 9.0, 8.0, 3.0, 7.0, 1.0, 15.0, 67.0, 9.0, 51.0, 9.0, 17.0, 7.0, 9.0, 22.0, 4.0, 21.0, 4.0, 7.0, 7.0, 7.0, 4.0, 37.0, 3.0, 9.0, 21.0, 7.0, 3.0, 10.0, 8.0, 8.0, 6.0, 14.0, 5.0, 3.0, 5.0, 4.0, 6.0, 6.0, 27.0, 19.0, 6.0, 9.0, 12.0, 7.0, 18.0, 7.0, 6.0, 16.0, 5.0, 11.0, 11.0, 12.0, 22.0, 2.0, 26.0, 17.0, 49.0, 7.0, 5.0, 9.0, 25.0, 36.0, 15.0, 18.0, 26.0, 8.0, 11.0, 82.0, 13.0, 7.0, 2.0, 11.0, 11.0, 4.0, 11.0, 15.0, 31.0, 18.0, 8.0, 14.0, 5.0, 8.0, 7.0, 37.0, 13.0, 32.0, 40.0, 14.0, 19.0, 35.0, 14.0, 14.0, 27.0, 14.0, 13.0, 8.0, 10.0, 36.0, 14.0, 6.0, 13.0, 13.0, 23.0, 29.0, 17.0, 20.0, 2.0, 7.0, 2.0, 50.0, 17.0, 5.0, 7.0, 7.0, 21.0, 7.0, 16.0, 7.0, 22.0, 35.0, 15.0, 11.0, 9.0, 17.0, 29.0, 10.0, 4.0, 7.0, 1.0, 10.0, 8.0, 23.0, 9.0, 12.0, 6.0, 4.0, 34.0, 9.0, 9.0, 4.0, 26.0, 0.0, 25.0, 4.0, 12.0, 12.0, 7.0, 3.0, 10.0, 7.0, 13.0, 13.0, 25.0, 6.0, 30.0, 20.0, 19.0, 4.0, 11.0, 9.0, 8.0, 13.0, 25.0, 2.0, 6.0, 13.0, 1.0, 10.0, 2.0, 7.0, 8.0, 16.0, 5.0, 3.0, 9.0, 17.0, 65.0, 30.0, 8.0, 22.0, 37.0, 80.0, 16.0, 15.0, 15.0, 89.0, 17.0, 10.0, 7.0, 6.0, 9.0, 17.0, 17.0, 28.0, 22.0, 20.0, 30.0, 4.0, 3.0, 16.0, 14.0, 3.0, 31.0, 5.0, 7.0, 7.0, 23.0, 10.0, 2.0, 8.0, 14.0, 10.0, 12.0, 47.0, 10.0, 1.0, 15.0, 19.0, 7.0, 16.0, 9.0, 18.0, 19.0, 11.0, 4.0, 4.0, 18.0, 24.0, 12.0, 4.0, 13.0, 4.0, 7.0, 70.0, 7.0, 21.0, 4.0, 9.0, 26.0, 11.0, 20.0, 7.0, 6.0, 5.0, 11.0, 28.0, 8.0, 6.0, 9.0, 1.0, 4.0, 13.0, 14.0, 4.0, 20.0, 5.0, 1.0, 7.0, 6.0, 2.0, 13.0, 36.0, 39.0, 10.0, 12.0, 12.0, 2.0, 2.0, 33.0, 12.0, 14.0, 23.0, 19.0, 2.0, 40.0, 16.0, 5.0, 12.0, 5.0, 9.0, 12.0, 12.0, 23.0, 77.0, 17.0, 8.0, 29.0, 10.0, 36.0, 1.0, 8.0, 32.0, 5.0, 20.0, 6.0, 65.0, 7.0, 3.0, 6.0, 43.0, 23.0, 16.0, 10.0, 8.0, 7.0, 2.0, 4.0, 23.0, 25.0, 8.0, 7.0, 4.0, 8.0, 9.0, 9.0, 11.0, 1.0, 8.0, 4.0, 7.0, 11.0, 0.0, 25.0, 12.0, 6.0, 5.0, 8.0, 10.0, 8.0, 23.0, 4.0, 5.0, 5.0, 5.0, 19.0, 2.0, 19.0, 8.0, 13.0, 37.0, 7.0, 5.0, 3.0, 31.0, 12.0, 6.0, 30.0, 11.0, 6.0, 10.0, 11.0, 18.0, 54.0, 4.0, 11.0, 7.0, 10.0, 1.0, 6.0, 1.0, 7.0, 17.0, 4.0, 5.0, 7.0, 11.0, 16.0, 10.0, 5.0, 0.0, 7.0, 4.0, 6.0, 5.0, 14.0, 22.0, 18.0, 40.0, 13.0, 4.0, 18.0, 20.0, 6.0, 8.0, 1.0, 6.0, 6.0, 6.0, 35.0, 4.0, 8.0, 21.0, 21.0, 15.0, 7.0, 8.0, 4.0, 5.0, 2.0, 2.0, 23.0, 9.0, 3.0, 7.0, 16.0, 5.0, 8.0, 12.0, 5.0, 1.0, 5.0, 6.0, 9.0, 13.0, 6.0, 6.0, 15.0, 43.0, 9.0, 6.0, 20.0, 35.0, 5.0, 15.0, 7.0, 5.0, 6.0, 15.0, 3.0, 13.0, 30.0, 5.0, 9.0, 13.0, 10.0, 14.0, 10.0, 17.0, 6.0, 30.0, 2.0, 6.0, 3.0, 3.0, 17.0, 6.0, 9.0, 14.0, 13.0, 0.0, 7.0, 9.0, 8.0, 0.0, 24.0, 22.0, 13.0, 6.0, 80.0, 16.0, 2.0, 9.0, 1.0, 4.0, 21.0, 3.0, 14.0, 8.0, 4.0, 62.0, 7.0, 16.0, 15.0, 5.0, 29.0, 8.0, 7.0, 12.0, 22.0, 4.0, 4.0, 14.0, 5.0, 12.0, 21.0, 7.0, 10.0, 7.0, 2.0, 2.0, 7.0, 32.0, 2.0, 11.0, 35.0, 39.0, 7.0, 8.0, 6.0, 2.0, 11.0, 10.0, 11.0, 8.0, 5.0, 22.0, 3.0, 6.0, 12.0, 11.0, 4.0, 8.0, 14.0, 5.0, 8.0, 54.0, 15.0, 10.0, 8.0, 32.0, 15.0, 37.0, 39.0, 5.0, 5.0, 33.0, 16.0, 14.0, 13.0, 4.0, 4.0, 4.0, 7.0, 2.0, 7.0, 7.0, 4.0, 38.0, 9.0, 9.0, 5.0, 11.0, 26.0, 34.0, 9.0, 2.0, 5.0, 5.0, 3.0, 5.0, 60.0, 5.0, 11.0, 20.0, 7.0, 5.0, 10.0, 7.0, 6.0, 11.0, 7.0, 14.0, 13.0, 3.0, 5.0, 5.0, 10.0, 10.0, 17.0, 5.0, 11.0, 7.0, 7.0, 7.0, 5.0, 12.0, 7.0, 13.0, 4.0, 3.0, 5.0, 36.0, 25.0, 18.0, 71.0, 32.0, 11.0, 8.0, 10.0, 4.0, 10.0, 10.0, 11.0, 41.0, 1.0, 7.0, 8.0, 4.0, 8.0, 49.0, 7.0, 3.0, 14.0, 14.0, 13.0, 12.0, 9.0, 12.0, 3.0, 13.0, 11.0, 15.0, 5.0, 4.0, 8.0, 8.0, 12.0, 5.0, 2.0, 8.0, 6.0, 13.0, 4.0, 4.0, 11.0, 11.0, 8.0, 53.0, 4.0, 15.0, 5.0, 49.0, 1.0, 8.0, 8.0, 22.0, 4.0, 7.0, 21.0, 3.0, 8.0, 6.0, 13.0, 8.0, 7.0, 7.0, 6.0, 8.0, 16.0, 28.0, 1.0, 9.0, 8.0, 5.0, 69.0, 6.0, 12.0, 6.0, 6.0, 13.0, 3.0, 9.0, 12.0, 15.0, 7.0, 12.0, 9.0, 2.0, 12.0, 7.0, 5.0, 2.0, 24.0, 5.0, 47.0, 6.0, 9.0, 7.0, 9.0, 10.0, 6.0, 6.0, 7.0, 17.0, 16.0, 23.0, 7.0, 34.0, 6.0, 6.0, 7.0, 12.0, 6.0, 8.0, 3.0, 6.0, 16.0, 14.0, 14.0, 10.0, 7.0, 1.0, 13.0, 6.0, 6.0, 10.0, 13.0, 6.0, 13.0, 3.0, 7.0, 9.0, 21.0, 7.0, 20.0, 11.0, 2.0, 3.0, 20.0, 13.0, 6.0, 2.0, 17.0, 14.0, 14.0, 25.0, 27.0, 2.0, 10.0, 7.0, 7.0, 4.0, 13.0, 4.0, 5.0, 14.0, 2.0, 15.0, 1.0, 4.0, 15.0, 9.0, 2.0, 11.0, 14.0, 4.0, 41.0, 8.0, 21.0, 8.0, 7.0, 4.0, 8.0, 4.0, 7.0, 7.0, 7.0, 9.0, 4.0, 39.0, 14.0, 8.0, 3.0, 12.0, 39.0, 2.0, 4.0, 10.0, 19.0, 21.0, 14.0, 8.0, 13.0, 24.0, 8.0, 26.0, 2.0, 7.0, 4.0, 4.0, 11.0, 21.0, 14.0, 4.0, 11.0, 63.0, 10.0, 8.0, 5.0, 8.0, 16.0, 15.0, 9.0, 5.0, 16.0, 5.0, 11.0, 12.0, 9.0, 1.0, 25.0, 6.0, 13.0, 6.0, 24.0, 4.0, 6.0, 1.0, 4.0, 22.0, 5.0, 16.0, 5.0, 4.0, 13.0, 16.0, 2.0, 2.0, 44.0, 57.0, 4.0, 4.0, 2.0, 4.0, 53.0, 7.0, 5.0, 6.0, 69.0, 6.0, 8.0, 9.0, 11.0, 3.0, 9.0, 5.0, 6.0, 12.0, 3.0, 12.0, 6.0, 9.0, 10.0, 13.0, 12.0, 5.0, 11.0, 5.0, 11.0, 7.0, 14.0, 5.0, 6.0, 1.0, 7.0, 11.0, 6.0, 2.0, 9.0, 14.0, 10.0, 7.0, 29.0, 1.0, 11.0, 1.0, 3.0, 19.0, 10.0, 6.0, 6.0, 10.0, 3.0, 12.0, 5.0, 18.0, 31.0, 6.0, 11.0, 6.0, 10.0, 1.0, 4.0, 40.0, 3.0, 10.0, 21.0, 12.0, 17.0, 6.0, 3.0, 30.0, 20.0, 4.0, 6.0, 13.0, 5.0, 36.0, 3.0, 1.0, 8.0, 11.0, 5.0, 53.0, 12.0, 14.0, 5.0, 4.0, 19.0, 4.0, 5.0, 8.0, 7.0, 20.0, 8.0, 7.0, 4.0, 13.0, 4.0, 4.0, 5.0, 2.0, 33.0, 2.0, 25.0, 10.0, 9.0, 1.0, 4.0, 4.0, 10.0, 27.0, 4.0, 7.0, 12.0, 8.0, 5.0, 15.0, 8.0, 14.0, 15.0, 9.0, 4.0, 5.0, 2.0, 6.0, 14.0, 22.0, 8.0, 4.0, 15.0, 22.0, 5.0, 10.0, 1.0, 9.0, 20.0, 3.0, 9.0, 16.0, 3.0, 1.0, 5.0, 3.0, 8.0, 6.0, 8.0, 19.0, 6.0, 15.0, 6.0, 15.0, 6.0, 14.0, 21.0, 9.0, 9.0, 1.0, 5.0, 5.0, 5.0, 13.0, 9.0, 19.0, 3.0, 2.0, 6.0, 6.0, 14.0, 13.0, 11.0, 27.0, 1.0, 3.0, 5.0, 10.0, 42.0, 7.0, 14.0, 0.0, 6.0, 28.0, 7.0, 42.0, 17.0, 4.0, 13.0, 9.0, 3.0, 13.0, 10.0, 7.0, 3.0, 6.0, 3.0, 1.0, 10.0, 6.0, 10.0, 4.0, 5.0, 23.0, 10.0, 2.0, 10.0, 11.0, 12.0, 5.0, 5.0, 11.0, 13.0, 7.0, 45.0, 7.0, 7.0, 5.0, 3.0, 6.0, 7.0, 4.0, 1.0, 9.0, 45.0, 17.0, 14.0, 6.0, 10.0, 28.0, 10.0, 16.0, 10.0, 5.0, 3.0, 14.0, 4.0, 16.0, 5.0, 84.0, 9.0, 4.0, 6.0, 22.0, 1.0, 7.0, 15.0, 10.0, 2.0, 0.0, 3.0, 7.0, 5.0, 22.0, 16.0, 6.0, 8.0, 15.0, 5.0, 21.0, 6.0, 4.0, 8.0, 8.0, 7.0, 8.0, 10.0, 11.0, 5.0, 14.0, 11.0, 7.0, 35.0, 10.0, 10.0, 1.0, 4.0, 1.0, 4.0, 8.0, 22.0, 2.0, 4.0, 15.0, 24.0, 4.0, 2.0, 25.0, 25.0, 14.0, 7.0, 10.0, 7.0, 11.0, 21.0, 15.0, 8.0, 2.0, 10.0, 3.0, 18.0, 14.0, 24.0, 8.0, 44.0, 7.0, 2.0, 5.0, 3.0, 49.0, 11.0, 4.0, 4.0, 2.0, 15.0, 4.0, 2.0, 7.0, 17.0, 18.0, 1.0, 14.0, 4.0, 9.0, 23.0, 12.0, 11.0, 3.0, 9.0, 64.0, 7.0, 9.0, 11.0, 19.0, 12.0, 9.0, 2.0, 19.0, 11.0, 3.0, 39.0, 3.0, 12.0, 12.0, 12.0, 4.0, 6.0, 10.0, 5.0, 4.0, 3.0, 1.0, 15.0, 4.0, 9.0, 30.0, 4.0, 19.0, 12.0, 13.0, 3.0, 4.0, 33.0, 8.0, 22.0, 11.0, 8.0, 12.0, 12.0, 5.0, 9.0, 17.0, 15.0, 5.0, 5.0, 11.0, 8.0, 8.0, 15.0, 82.0, 13.0, 4.0, 36.0, 0.0, 18.0, 15.0, 15.0, 11.0, 4.0, 9.0, 5.0, 4.0, 15.0, 4.0, 9.0, 7.0, 3.0, 10.0, 9.0, 4.0, 10.0, 7.0, 13.0, 6.0, 6.0, 9.0, 4.0, 2.0, 9.0, 32.0, 12.0, 5.0, 6.0, 10.0, 4.0, 1.0, 4.0, 4.0, 5.0, 10.0, 1.0, 9.0, 38.0, 4.0, 10.0, 3.0, 6.0, 5.0, 12.0, 10.0, 4.0, 3.0, 10.0, 10.0, 3.0, 6.0, 26.0, 17.0, 4.0, 7.0, 14.0, 24.0, 5.0, 4.0, 5.0, 2.0, 3.0, 8.0, 11.0, 4.0, 3.0, 14.0, 7.0, 4.0, 17.0, 7.0, 10.0, 7.0, 6.0, 19.0, 10.0, 7.0, 5.0, 14.0, 2.0, 12.0, 19.0, 10.0, 6.0, 4.0, 44.0, 14.0, 20.0, 25.0, 24.0, 17.0, 4.0, 4.0, 5.0, 17.0, 10.0, 1.0, 7.0, 5.0, 4.0, 33.0, 5.0, 5.0, 7.0, 7.0, 4.0, 19.0, 10.0, 5.0, 5.0, 4.0, 1.0, 7.0, 13.0, 4.0, 6.0, 4.0, 18.0, 4.0, 4.0, 7.0, 3.0, 6.0, 1.0, 20.0, 0.0, 10.0, 33.0, 6.0, 5.0, 1.0, 14.0, 15.0, 6.0, 3.0, 12.0, 2.0, 7.0, 5.0, 7.0, 19.0, 36.0, 11.0, 9.0, 12.0, 2.0, 8.0, 1.0, 9.0, 5.0, 8.0, 11.0, 26.0, 6.0, 5.0, 3.0, 14.0, 10.0, 11.0, 4.0, 4.0, 5.0, 5.0, 8.0, 1.0, 8.0, 14.0, 16.0, 11.0, 6.0, 4.0, 0.0, 6.0, 10.0, 8.0, 10.0, 2.0, 1.0, 4.0, 1.0, 5.0, 11.0, 6.0, 5.0, 22.0, 7.0, 13.0, 5.0, 4.0, 8.0, 5.0, 7.0, 9.0, 12.0, 6.0, 9.0, 5.0, 16.0, 8.0, 8.0, 19.0, 9.0, 1.0, 19.0, 8.0, 1.0, 1.0, 5.0, 10.0, 6.0, 3.0, 15.0, 9.0, 5.0, 14.0, 6.0, 13.0, 47.0, 1.0, 13.0, 2.0, 5.0, 3.0, 34.0, 7.0, 27.0, 4.0, 7.0, 4.0, 1.0, 9.0, 1.0, 5.0, 5.0, 6.0, 19.0, 12.0, 1.0, 4.0, 56.0, 51.0, 9.0, 8.0, 7.0, 5.0, 10.0, 35.0, 9.0, 2.0, 10.0, 22.0, 7.0, 3.0, 1.0, 9.0, 3.0, 7.0, 9.0, 9.0, 6.0, 4.0, 7.0, 19.0, 8.0, 24.0, 10.0, 3.0, 20.0, 1.0, 10.0, 9.0, 4.0, 8.0, 6.0, 16.0, 13.0, 6.0, 2.0, 9.0, 1.0, 6.0, 10.0, 10.0, 5.0, 28.0, 28.0, 5.0, 6.0, 4.0, 14.0, 3.0, 2.0, 3.0, 6.0, 4.0, 7.0, 3.0, 13.0, 7.0, 8.0, 2.0, 3.0, 10.0, 10.0, 3.0, 27.0, 6.0, 1.0, 9.0, 5.0, 21.0, 7.0, 14.0, 5.0, 14.0, 18.0, 8.0, 1.0, 1.0, 8.0, 6.0, 10.0, 4.0, 5.0, 3.0, 8.0, 2.0, 26.0, 21.0, 4.0, 22.0, 28.0, 4.0, 5.0, 3.0, 14.0, 3.0, 9.0, 12.0, 4.0, 11.0, 3.0, 7.0, 2.0, 7.0, 36.0, 11.0, 17.0, 17.0, 4.0, 4.0, 3.0, 9.0, 14.0, 4.0, 11.0, 8.0, 9.0, 4.0, 28.0, 2.0, 28.0, 18.0, 19.0, 7.0, 10.0, 15.0, 6.0, 4.0, 7.0, 8.0, 8.0, 11.0, 4.0, 9.0, 2.0, 19.0, 18.0, 7.0, 11.0, 7.0, 35.0, 5.0, 35.0, 15.0, 8.0, 1.0, 8.0, 8.0, 14.0, 6.0, 8.0, 4.0, 3.0, 2.0, 9.0, 7.0, 3.0, 8.0, 8.0, 25.0, 10.0, 1.0, 3.0, 10.0, 6.0, 18.0, 1.0, 3.0, 12.0, 5.0, 5.0, 23.0, 5.0, 15.0, 3.0, 10.0, 25.0, 14.0, 4.0, 8.0, 9.0, 5.0, 2.0, 9.0, 15.0, 9.0, 11.0, 10.0, 19.0, 3.0, 4.0, 9.0, 4.0, 5.0, 4.0, 2.0, 29.0, 15.0, 9.0, 5.0, 10.0, 10.0, 16.0, 22.0, 31.0, 11.0, 18.0, 8.0, 9.0, 8.0, 43.0, 15.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 12.0, 5.0, 5.0, 19.0, 26.0, 13.0, 5.0, 10.0, 13.0, 6.0, 6.0, 6.0, 9.0, 10.0, 5.0, 2.0, 2.0, 7.0, 6.0, 3.0, 12.0, 7.0, 6.0, 9.0, 3.0, 5.0, 9.0, 6.0, 3.0, 12.0, 2.0, 29.0, 4.0, 4.0, 6.0, 32.0, 16.0, 4.0, 2.0, 4.0, 3.0, 2.0, 9.0, 23.0, 10.0, 12.0, 9.0, 32.0, 27.0, 3.0, 9.0, 10.0, 11.0, 5.0, 41.0, 4.0, 12.0, 8.0, 17.0, 4.0, 7.0, 18.0, 7.0, 21.0, 6.0, 5.0, 8.0, 1.0, 17.0, 3.0, 11.0, 14.0, 4.0, 14.0, 7.0, 7.0, 21.0, 4.0, 1.0, 13.0, 8.0, 18.0, 5.0, 17.0, 10.0, 31.0, 2.0, 7.0, 4.0, 18.0, 7.0, 24.0, 31.0, 10.0, 7.0, 5.0, 15.0, 4.0, 5.0, 8.0, 11.0, 13.0, 32.0, 3.0, 3.0, 11.0, 30.0, 17.0, 5.0, 12.0, 28.0, 13.0, 10.0, 3.0, 4.0, 8.0, 5.0, 7.0, 8.0, 5.0, 4.0, 5.0, 4.0, 13.0, 22.0, 7.0, 13.0, 23.0, 4.0, 2.0, 5.0, 1.0, 12.0, 4.0, 1.0, 14.0, 82.0, 6.0, 15.0, 48.0, 16.0, 27.0, 13.0, 19.0, 5.0, 4.0, 13.0, 14.0, 1.0, 11.0, 26.0, 4.0, 22.0, 5.0, 4.0, 8.0, 4.0, 6.0, 13.0, 25.0, 9.0, 14.0, 5.0, 62.0, 11.0, 12.0, 70.0, 8.0, 75.0, 4.0, 13.0, 4.0, 5.0, 13.0, 4.0, 22.0, 18.0, 7.0, 12.0, 5.0, 3.0, 13.0, 5.0, 7.0, 18.0, 5.0, 9.0, 3.0, 9.0, 9.0, 7.0, 13.0, 2.0, 6.0, 10.0, 1.0, 12.0, 9.0, 5.0, 9.0, 12.0, 7.0, 20.0, 6.0, 12.0, 1.0, 7.0, 30.0, 6.0, 7.0, 6.0, 40.0, 6.0, 9.0, 15.0, 7.0, 1.0, 9.0, 7.0, 3.0, 10.0, 7.0, 8.0, 27.0, 3.0, 31.0, 9.0, 50.0, 26.0, 35.0, 26.0, 7.0, 5.0, 8.0, 20.0, 13.0, 7.0, 21.0, 3.0, 14.0, 15.0, 9.0, 1.0, 43.0, 8.0, 18.0, 13.0, 10.0, 10.0, 7.0, 30.0, 6.0, 5.0, 4.0, 5.0, 6.0, 2.0, 38.0, 6.0, 31.0, 13.0, 25.0, 3.0, 14.0, 69.0, 14.0, 8.0, 28.0, 29.0, 27.0, 16.0, 7.0, 11.0, 15.0, 63.0, 2.0, 13.0, 10.0, 2.0, 19.0, 10.0, 1.0, 14.0, 18.0, 23.0, 2.0, 7.0, 21.0, 14.0, 4.0, 7.0, 18.0, 4.0, 4.0, 3.0, 10.0, 9.0, 21.0, 2.0, 13.0, 7.0, 6.0, 8.0, 29.0, 21.0, 7.0, 4.0, 25.0, 64.0, 7.0, 29.0, 8.0, 18.0, 16.0, 9.0, 7.0, 15.0, 9.0, 9.0, 4.0, 14.0, 8.0, 31.0, 10.0, 8.0, 52.0, 14.0, 15.0, 5.0, 6.0, 22.0, 4.0, 66.0, 14.0, 9.0, 12.0, 9.0, 12.0, 22.0, 2.0, 5.0, 9.0, 4.0, 6.0, 8.0, 2.0, 11.0, 26.0, 46.0, 3.0, 12.0, 3.0, 5.0, 9.0, 5.0, 17.0, 16.0, 18.0, 12.0, 9.0, 4.0, 1.0, 13.0, 9.0, 10.0, 5.0, 3.0, 2.0, 24.0, 7.0, 13.0, 9.0, 6.0, 13.0, 2.0, 3.0, 1.0, 3.0, 40.0, 14.0, 11.0, 17.0, 8.0, 18.0, 4.0, 24.0, 10.0, 10.0, 58.0, 4.0, 6.0, 4.0, 4.0, 24.0, 31.0, 10.0, 10.0, 13.0, 7.0, 12.0, 21.0, 4.0, 5.0, 10.0, 21.0, 4.0, 13.0, 14.0, 6.0, 11.0, 11.0, 68.0, 45.0, 10.0, 4.0, 6.0, 29.0, 29.0, 4.0, 25.0, 8.0, 7.0, 7.0, 13.0, 8.0, 14.0, 12.0, 5.0, 2.0, 15.0, 4.0, 4.0, 28.0, 12.0, 20.0, 13.0, 43.0, 21.0, 13.0, 28.0, 14.0, 46.0, 7.0, 6.0, 5.0, 19.0, 15.0, 8.0, 27.0, 5.0, 48.0, 12.0, 21.0, 9.0, 14.0, 8.0, 19.0, 13.0, 10.0, 28.0, 5.0, 12.0, 7.0, 4.0, 5.0, 9.0, 9.0, 35.0, 7.0, 9.0, 5.0, 13.0, 14.0, 13.0, 13.0, 14.0, 5.0, 15.0, 26.0, 2.0, 13.0, 21.0, 15.0, 89.0, 69.0, 17.0, 29.0, 12.0, 6.0, 9.0, 24.0, 5.0, 8.0, 16.0, 12.0, 3.0, 2.0, 13.0, 6.0, 7.0, 7.0, 8.0, 3.0, 19.0, 7.0, 10.0, 2.0, 22.0, 7.0, 14.0, 15.0, 23.0, 3.0, 3.0, 5.0, 3.0, 3.0, 8.0, 7.0, 14.0, 25.0, 33.0, 2.0, 14.0, 3.0, 15.0, 7.0, 13.0, 5.0, 19.0, 38.0, 7.0, 8.0, 2.0, 3.0, 5.0, 2.0, 1.0, 13.0, 29.0, 24.0, 35.0, 46.0, 24.0, 49.0, 17.0, 5.0, 69.0, 3.0, 21.0, 29.0, 8.0, 5.0, 27.0, 9.0, 37.0, 8.0, 15.0, 5.0, 38.0, 11.0, 1.0, 11.0, 6.0, 13.0, 10.0, 9.0, 71.0, 15.0, 22.0, 1.0, 25.0, 26.0, 25.0, 58.0, 2.0, 4.0, 12.0, 4.0, 2.0, 5.0, 20.0, 9.0, 13.0, 54.0, 26.0, 30.0, 6.0, 4.0, 9.0, 11.0, 5.0, 7.0, 10.0, 1.0, 10.0, 14.0, 19.0, 4.0, 14.0, 19.0, 4.0, 3.0, 3.0, 3.0, 34.0, 16.0, 19.0, 10.0, 64.0, 21.0, 13.0, 20.0, 20.0, 2.0, 8.0, 18.0, 12.0, 30.0, 7.0, 33.0, 5.0, 13.0, 4.0, 18.0, 20.0, 7.0, 5.0, 7.0, 1.0, 9.0, 18.0, 5.0, 11.0, 14.0, 11.0, 8.0, 30.0, 8.0, 4.0, 12.0, 23.0, 2.0, 10.0, 21.0, 26.0, 14.0, 21.0, 6.0, 15.0, 74.0, 20.0, 9.0, 20.0, 28.0, 40.0, 17.0, 15.0, 33.0, 14.0, 49.0, 5.0, 16.0, 29.0, 1.0, 10.0, 29.0, 33.0, 22.0, 43.0, 27.0, 5.0, 20.0, 25.0, 10.0, 21.0, 8.0, 15.0, 9.0, 3.0, 17.0, 20.0, 1.0, 6.0, 14.0, 13.0, 83.0, 27.0, 14.0, 3.0, 34.0, 33.0, 23.0, 42.0, 5.0, 34.0, 11.0, 27.0, 38.0, 10.0, 4.0, 4.0, 35.0, 8.0, 15.0, 1.0, 9.0, 7.0, 42.0, 9.0, 7.0, 10.0, 3.0, 7.0, 30.0, 62.0, 42.0, 3.0, 26.0, 78.0, 21.0, 22.0, 52.0, 8.0, 23.0, 5.0, 6.0, 2.0, 31.0, 5.0, 8.0, 22.0, 3.0, 37.0, 24.0, 78.0, 58.0, 18.0, 18.0, 11.0, 2.0, 20.0, 13.0, 13.0, 11.0, 25.0, 6.0, 4.0, 19.0, 3.0, 28.0, 20.0, 26.0, 31.0, 21.0, 5.0, 5.0, 11.0, 20.0, 48.0, 8.0, 18.0, 5.0, 26.0, 6.0, 44.0, 3.0, 12.0, 15.0, 34.0, 8.0, 8.0, 23.0, 15.0, 3.0, 14.0, 37.0, 9.0, 8.0, 31.0, 8.0, 38.0, 42.0, 10.0, 4.0, 43.0, 34.0, 42.0, 27.0, 18.0, 24.0, 6.0, 9.0, 15.0, 7.0, 7.0, 7.0, 7.0, 8.0, 9.0, 1.0, 12.0, 37.0, 4.0, 45.0, 12.0, 22.0, 40.0, 9.0, 4.0, 31.0, 42.0, 81.0, 11.0, 4.0, 12.0, 26.0, 8.0, 39.0, 43.0, 43.0, 6.0, 4.0, 8.0, 40.0, 46.0, 35.0, 16.0, 44.0, 37.0, 34.0, 3.0, 6.0, 7.0, 10.0, 10.0, 9.0, 11.0, 13.0, 14.0, 11.0, 22.0, 11.0, 43.0, 3.0, 1.0, 33.0, 4.0, 21.0, 43.0, 34.0, 1.0, 43.0, 7.0, 7.0, 78.0, 6.0, 55.0, 14.0, 9.0, 9.0, 23.0, 40.0, 47.0, 22.0, 16.0, 6.0, 6.0, 2.0, 5.0, 15.0, 28.0, 15.0, 51.0, 29.0, 41.0, 78.0, 2.0, 9.0, 8.0, 29.0, 12.0, 31.0, 12.0, 12.0, 22.0, 51.0, 17.0, 9.0, 46.0, 10.0, 14.0, 10.0, 27.0, 25.0, 4.0, 19.0, 36.0, 47.0, 14.0, 7.0, 71.0, 10.0, 9.0, 36.0, 34.0, 50.0, 61.0, 14.0, 9.0, 55.0, 51.0, 3.0, 4.0, 39.0, 24.0, 50.0, 18.0, 5.0, 46.0, 48.0, 17.0, 46.0, 55.0, 55.0, 13.0, 12.0, 22.0, 43.0, 36.0, 52.0, 36.0, 25.0, 4.0, 20.0, 46.0, 3.0, 12.0, 25.0, 74.0, 10.0, 56.0, 50.0, 75.0, 6.0, 68.0, 8.0, 24.0, 37.0, 13.0, 10.0, 7.0, 38.0, 23.0, 2.0, 19.0, 78.0, 67.0, 8.0, 61.0, 15.0, 56.0, 0.0, 4.0, 2.0, 7.0, 11.0, 49.0, 6.0, 4.0, 12.0, 22.0, 7.0, 21.0, 51.0, 7.0, 2.0, 38.0, 73.0, 3.0, 9.0, 5.0, 6.0, 5.0, 7.0, 12.0, 3.0, 43.0, 13.0, 13.0, 10.0, 3.0, 4.0, 8.0, 4.0, 18.0, 5.0, 4.0, 1.0, 9.0, 7.0, 80.0, 11.0, 3.0, 13.0, 13.0, 51.0, 86.0, 8.0, 14.0, 11.0, 5.0, 3.0, 13.0, 20.0, 5.0, 11.0, 6.0, 7.0, 68.0, 3.0, 21.0, 9.0, 8.0, 9.0, 8.0, 64.0, 5.0, 17.0, 5.0, 21.0, 7.0, 13.0, 5.0, 4.0, 11.0, 7.0, 5.0, 10.0, 6.0, 6.0, 2.0, 3.0, 3.0, 8.0, 4.0, 35.0, 3.0, 9.0, 10.0, 12.0, 1.0, 7.0, 22.0, 23.0, 8.0, 3.0, 4.0, 7.0, 21.0, 3.0, 51.0, 32.0, 42.0, 7.0, 34.0, 6.0, 4.0, 12.0, 15.0, 13.0, 4.0, 1.0, 32.0, 5.0, 52.0, 82.0, 7.0, 22.0, 2.0, 1.0, 8.0, 9.0, 6.0, 6.0, 5.0, 19.0, 1.0, 24.0, 25.0, 1.0, 15.0, 6.0, 9.0, 35.0, 8.0, 12.0, 7.0, 14.0, 21.0, 34.0, 3.0, 24.0, 0.0, 2.0, 11.0, 6.0, 62.0, 20.0, 26.0, 14.0, 10.0, 70.0, 9.0, 19.0, 10.0, 2.0, 7.0, 6.0, 7.0, 23.0, 23.0, 11.0, 4.0, 1.0, 43.0, 8.0, 20.0, 38.0, 10.0, 6.0, 12.0, 15.0, 20.0, 9.0, 7.0, 3.0, 2.0, 6.0, 3.0, 0.0, 7.0, 17.0, 14.0, 7.0, 2.0, 6.0, 3.0, 11.0, 4.0, 7.0, 30.0, 8.0, 20.0, 13.0, 13.0, 7.0, 18.0, 5.0, 10.0, 12.0, 3.0, 6.0, 32.0, 7.0, 10.0, 28.0, 5.0, 33.0, 20.0, 24.0, 21.0, 10.0, 5.0, 9.0, 7.0, 6.0, 22.0, 29.0, 22.0, 5.0, 2.0, 8.0, 3.0, 9.0, 11.0, 11.0, 23.0, 7.0, 3.0, 24.0, 3.0, 16.0, 11.0, 13.0, 24.0, 8.0, 10.0, 12.0, 9.0, 11.0, 22.0, 10.0, 6.0, 5.0, 7.0, 7.0, 13.0, 5.0, 7.0, 16.0, 4.0, 12.0, 12.0, 21.0, 9.0, 13.0, 13.0, 3.0, 3.0, 13.0, 12.0, 6.0, 5.0, 7.0, 13.0, 10.0, 9.0, 6.0, 24.0, 0.0, 2.0, 14.0, 17.0, 6.0, 13.0, 10.0, 4.0, 7.0, 2.0, 3.0, 14.0, 38.0, 5.0, 4.0, 3.0, 3.0, 3.0, 9.0, 21.0, 4.0, 8.0, 15.0, 2.0, 8.0, 40.0, 11.0, 30.0, 9.0, 30.0, 8.0, 3.0, 16.0, 1.0, 11.0, 4.0, 2.0, 51.0, 4.0, 6.0, 8.0, 6.0, 4.0, 34.0, 11.0, 24.0, 14.0, 4.0, 14.0, 5.0, 21.0, 6.0, 12.0, 14.0, 14.0, 19.0, 27.0, 39.0, 13.0, 6.0, 9.0, 7.0, 7.0, 0.0, 7.0, 2.0, 21.0, 14.0, 2.0, 1.0, 8.0, 48.0, 11.0, 2.0, 7.0, 8.0, 10.0, 0.0, 4.0, 14.0, 7.0, 7.0, 4.0, 2.0, 4.0, 1.0, 58.0, 0.0, 38.0, 14.0, 44.0, 13.0, 8.0, 24.0, 11.0, 14.0, 5.0, 14.0, 8.0, 3.0, 4.0, 5.0, 10.0, 8.0, 3.0, 15.0, 19.0, 3.0, 52.0, 16.0, 9.0, 15.0, 9.0, 64.0, 5.0, 1.0, 19.0, 19.0, 19.0, 21.0, 17.0, 4.0, 18.0, 9.0, 3.0, 66.0, 10.0, 11.0, 2.0, 4.0, 70.0, 5.0, 12.0, 13.0, 2.0, 17.0, 5.0, 17.0, 17.0, 3.0, 60.0, 17.0, 26.0, 9.0, 17.0, 21.0, 37.0, 7.0, 8.0, 7.0, 13.0, 13.0, 5.0, 11.0, 5.0, 2.0, 7.0, 25.0, 14.0, 11.0, 2.0, 13.0, 4.0, 2.0, 9.0, 3.0, 4.0, 5.0, 6.0, 20.0, 5.0, 2.0, 7.0, 19.0, 5.0, 13.0, 6.0, 27.0, 15.0, 2.0, 42.0, 6.0, 8.0, 8.0, 13.0, 15.0, 12.0, 30.0, 14.0, 2.0, 6.0, 14.0, 28.0, 3.0, 13.0, 8.0, 16.0, 16.0, 14.0, 5.0, 10.0, 7.0, 3.0, 16.0, 5.0, 15.0, 7.0, 10.0, 10.0, 13.0, 13.0, 4.0, 11.0, 21.0, 6.0, 9.0, 7.0, 11.0, 23.0, 7.0, 14.0, 11.0, 11.0, 2.0, 3.0, 28.0, 11.0, 28.0, 10.0, 25.0, 7.0, 26.0, 14.0, 10.0, 4.0, 16.0, 2.0, 5.0, 12.0, 8.0, 12.0, 9.0, 18.0, 15.0, 0.0, 1.0, 3.0, 16.0, 6.0, 11.0, 25.0, 5.0, 4.0, 8.0, 5.0, 4.0, 27.0, 3.0, 5.0, 9.0, 0.0, 5.0, 53.0, 4.0, 30.0, 11.0, 6.0, 17.0, 1.0, 4.0, 14.0, 6.0, 3.0, 13.0, 1.0, 30.0, 7.0, 23.0, 10.0, 4.0, 18.0, 19.0, 10.0, 13.0, 1.0, 11.0, 13.0, 1.0, 19.0, 20.0, 0.0, 42.0, 11.0, 25.0, 19.0, 34.0, 10.0, 4.0, 19.0, 7.0, 14.0, 6.0, 14.0, 33.0, 39.0, 13.0, 7.0, 20.0, 1.0, 5.0, 4.0, 7.0, 12.0, 16.0, 47.0, 14.0, 11.0, 7.0, 14.0, 8.0, 12.0, 11.0, 7.0, 6.0, 10.0, 4.0, 12.0, 8.0, 6.0, 14.0, 13.0, 10.0, 25.0, 36.0, 8.0, 18.0, 7.0, 8.0, 3.0, 12.0, 5.0, 14.0, 6.0, 0.0, 3.0, 34.0, 2.0, 41.0, 24.0, 20.0, 11.0, 6.0, 7.0, 7.0, 7.0, 28.0, 3.0, 26.0, 6.0, 14.0, 10.0, 8.0, 15.0, 10.0, 14.0, 63.0, 20.0, 16.0, 3.0, 4.0, 12.0, 5.0, 2.0, 0.0, 14.0, 20.0, 30.0, 1.0, 36.0, 6.0, 5.0, 9.0, 7.0, 9.0, 14.0, 10.0, 21.0, 30.0, 13.0, 6.0, 6.0, 7.0, 12.0, 16.0, 6.0, 7.0, 13.0, 20.0, 0.0, 1.0, 80.0, 57.0, 3.0, 13.0, 4.0, 1.0, 5.0, 6.0, 1.0, 23.0, 9.0, 22.0, 13.0, 9.0, 16.0, 13.0, 9.0, 7.0, 2.0, 11.0, 15.0, 4.0, 10.0, 31.0, 17.0, 14.0, 7.0, 5.0, 7.0, 14.0, 14.0, 22.0, 4.0, 9.0, 8.0, 12.0, 6.0, 7.0, 14.0, 4.0, 10.0, 5.0, 7.0, 16.0, 1.0, 24.0, 9.0, 14.0, 9.0, 23.0, 3.0, 9.0, 8.0, 27.0, 10.0, 7.0, 4.0, 9.0, 1.0, 12.0, 9.0, 8.0, 8.0, 3.0, 5.0, 4.0, 11.0, 14.0, 3.0, 8.0, 5.0, 11.0, 6.0, 15.0, 11.0, 15.0, 12.0, 3.0, 8.0, 5.0, 72.0, 17.0, 9.0, 41.0, 39.0, 8.0, 14.0, 15.0, 17.0, 30.0, 5.0, 10.0, 0.0, 2.0, 9.0, 5.0, 72.0, 3.0, 29.0, 1.0, 17.0, 15.0, 7.0, 9.0, 15.0, 7.0, 2.0, 15.0, 2.0, 7.0, 13.0, 8.0, 11.0, 6.0, 8.0, 10.0, 7.0, 11.0, 20.0, 9.0, 15.0, 19.0, 6.0, 80.0, 6.0, 6.0, 21.0, 4.0, 17.0, 6.0, 4.0, 12.0, 12.0, 1.0, 6.0, 4.0, 11.0, 31.0, 6.0, 12.0, 7.0, 17.0, 6.0, 4.0, 9.0, 9.0, 9.0, 44.0, 11.0, 5.0, 11.0, 4.0, 18.0, 20.0, 3.0, 5.0, 6.0, 1.0, 11.0, 11.0, 19.0, 3.0, 13.0, 4.0, 1.0, 5.0, 18.0, 8.0, 20.0, 18.0, 24.0, 36.0, 47.0, 21.0, 5.0, 8.0, 3.0, 9.0, 4.0, 6.0, 3.0, 4.0, 4.0, 12.0, 4.0, 1.0, 17.0, 5.0, 1.0, 4.0, 18.0, 6.0, 31.0, 7.0, 1.0, 9.0, 13.0, 4.0, 4.0, 7.0, 6.0, 6.0, 4.0, 5.0, 13.0, 4.0, 12.0, 13.0, 10.0, 2.0, 9.0, 11.0, 6.0, 4.0, 4.0, 19.0, 6.0, 17.0, 10.0, 8.0, 36.0, 39.0, 6.0, 7.0, 8.0, 8.0, 13.0, 9.0, 14.0, 7.0, 7.0, 15.0, 5.0, 6.0, 6.0, 5.0, 12.0, 4.0, 20.0, 7.0, 10.0, 18.0, 12.0, 12.0, 28.0, 1.0, 21.0, 13.0, 6.0, 1.0, 3.0, 1.0, 27.0, 10.0, 13.0, 13.0, 9.0, 13.0, 5.0, 14.0, 26.0, 23.0, 8.0, 21.0, 9.0, 13.0, 12.0, 5.0, 10.0, 15.0, 70.0, 2.0, 5.0, 9.0, 12.0, 9.0, 2.0, 2.0, 5.0, 15.0, 10.0, 9.0, 27.0, 41.0, 9.0, 22.0, 8.0, 8.0, 3.0, 8.0, 7.0, 14.0, 7.0, 10.0, 9.0, 7.0, 7.0, 7.0, 10.0, 15.0, 8.0, 8.0, 15.0, 5.0, 6.0, 9.0, 7.0, 10.0, 8.0, 8.0, 6.0, 43.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 6.0, 13.0, 1.0, 2.0, 20.0, 27.0, 4.0, 30.0, 1.0, 3.0, 10.0, 6.0, 7.0, 8.0, 29.0, 9.0, 7.0, 11.0, 7.0, 3.0, 10.0, 2.0, 5.0, 16.0, 10.0, 8.0, 3.0, 15.0, 7.0, 15.0, 9.0, 8.0, 87.0, 4.0, 8.0, 7.0, 9.0, 33.0, 22.0, 18.0, 11.0, 4.0, 7.0, 0.0, 8.0, 3.0, 10.0, 10.0, 3.0, 7.0, 17.0, 4.0, 8.0, 23.0, 9.0, 2.0, 2.0, 3.0, 10.0, 9.0, 14.0, 3.0, 12.0, 5.0, 2.0, 15.0, 11.0, 12.0, 32.0, 7.0, 3.0, 5.0, 4.0, 11.0, 7.0, 5.0, 5.0, 3.0, 0.0, 7.0, 4.0, 44.0, 4.0, 11.0, 9.0, 8.0, 2.0, 7.0, 15.0, 4.0, 11.0, 5.0, 4.0, 7.0, 8.0, 6.0, 11.0, 0.0, 28.0, 3.0, 8.0, 0.0, 4.0, 9.0, 8.0, 7.0, 8.0, 3.0, 1.0, 6.0, 11.0, 9.0, 11.0, 4.0, 10.0, 5.0, 5.0, 30.0, 20.0, 9.0, 18.0, 5.0, 3.0, 16.0, 3.0, 10.0, 2.0, 11.0, 1.0, 22.0, 8.0, 5.0, 19.0, 2.0, 12.0, 10.0, 4.0, 12.0, 67.0, 33.0, 9.0, 9.0, 9.0, 11.0, 12.0, 15.0, 11.0, 6.0, 3.0, 5.0, 6.0, 4.0, 30.0, 32.0, 9.0, 9.0, 3.0, 9.0, 5.0, 6.0, 5.0, 6.0, 14.0, 17.0, 10.0, 13.0, 5.0, 17.0, 13.0, 7.0, 11.0, 9.0, 6.0, 14.0, 6.0, 6.0, 25.0, 17.0, 21.0, 7.0, 7.0, 10.0, 2.0, 4.0, 2.0, 20.0, 7.0, 18.0, 21.0, 1.0, 12.0, 12.0, 4.0, 5.0, 5.0, 8.0, 11.0, 13.0, 3.0, 28.0, 10.0, 7.0, 6.0, 31.0, 12.0, 12.0, 10.0, 20.0, 6.0, 5.0, 14.0, 5.0, 26.0, 6.0, 5.0, 46.0, 7.0, 6.0, 24.0, 5.0, 9.0, 8.0, 6.0, 10.0, 11.0, 48.0, 12.0, 10.0, 31.0, 9.0, 6.0, 14.0, 10.0, 4.0, 11.0, 10.0, 17.0, 17.0, 2.0, 5.0, 15.0, 4.0, 6.0, 5.0, 1.0, 9.0, 4.0, 6.0, 8.0, 11.0, 14.0, 7.0, 11.0, 21.0, 10.0, 10.0, 10.0, 4.0, 8.0, 42.0, 5.0, 8.0, 8.0, 1.0, 4.0, 8.0, 2.0, 4.0, 1.0, 3.0, 7.0, 5.0, 1.0, 25.0, 21.0, 55.0, 4.0, 2.0, 8.0, 7.0, 11.0, 3.0, 8.0, 6.0, 26.0, 11.0, 9.0, 11.0, 11.0, 12.0, 11.0, 5.0, 11.0, 17.0, 20.0, 11.0, 6.0, 5.0, 15.0, 13.0, 20.0, 7.0, 7.0, 5.0, 8.0, 14.0, 8.0, 11.0, 43.0, 27.0, 10.0, 6.0, 5.0, 5.0, 4.0, 3.0, 11.0, 14.0, 11.0, 6.0, 4.0, 17.0, 8.0, 4.0, 8.0, 11.0, 5.0, 12.0, 8.0, 14.0, 11.0, 20.0, 9.0, 7.0, 5.0, 7.0, 6.0, 20.0, 8.0, 14.0, 6.0, 7.0, 0.0, 7.0, 2.0, 14.0, 5.0, 5.0, 9.0, 16.0, 6.0, 6.0, 11.0, 5.0, 5.0, 13.0, 8.0, 2.0, 21.0, 2.0, 15.0, 8.0, 10.0, 5.0, 1.0, 5.0, 21.0, 4.0, 12.0, 9.0, 3.0, 3.0, 12.0, 11.0, 14.0, 1.0, 16.0, 10.0, 7.0, 3.0, 13.0, 6.0, 3.0, 21.0, 7.0, 11.0, 7.0, 31.0, 10.0, 14.0, 3.0, 14.0, 5.0, 22.0, 13.0, 15.0, 7.0, 14.0, 6.0, 6.0, 13.0, 22.0, 6.0, 7.0, 10.0, 22.0, 3.0, 24.0, 14.0, 9.0, 28.0, 18.0, 13.0, 7.0, 9.0, 10.0, 5.0, 7.0, 9.0, 13.0, 11.0, 16.0, 20.0, 13.0, 7.0, 14.0, 4.0, 7.0, 12.0, 1.0, 4.0, 10.0, 5.0, 10.0, 3.0, 4.0, 28.0, 3.0, 10.0, 5.0, 14.0, 17.0, 7.0, 6.0, 11.0, 9.0, 11.0, 10.0, 4.0, 3.0, 4.0, 3.0, 7.0, 11.0, 10.0, 16.0, 38.0, 18.0, 3.0, 25.0, 10.0, 10.0, 9.0, 14.0, 9.0, 10.0, 8.0, 21.0, 1.0, 31.0, 7.0, 10.0, 3.0, 9.0, 8.0, 11.0, 10.0, 2.0, 14.0, 8.0, 16.0, 15.0, 13.0, 8.0, 9.0, 28.0, 9.0, 15.0, 16.0, 5.0, 10.0, 6.0, 8.0, 33.0, 10.0, 4.0, 12.0, 11.0, 4.0, 7.0, 10.0, 26.0, 3.0, 5.0, 8.0, 61.0, 13.0, 2.0, 9.0, 10.0, 3.0, 6.0, 10.0, 19.0, 8.0, 5.0, 13.0, 9.0, 12.0, 4.0, 3.0, 16.0, 5.0, 8.0, 20.0, 6.0, 23.0, 13.0, 10.0, 6.0, 12.0, 5.0, 6.0, 5.0, 10.0, 6.0, 12.0, 9.0, 24.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 12.0, 2.0, 7.0, 20.0, 6.0, 4.0, 22.0, 6.0, 18.0, 12.0, 12.0, 11.0, 11.0, 6.0, 10.0, 4.0, 5.0, 5.0, 10.0, 3.0, 10.0, 4.0, 5.0, 18.0, 7.0, 34.0, 17.0, 20.0, 55.0, 6.0, 5.0, 3.0, 7.0, 7.0, 39.0, 10.0, 13.0, 19.0, 29.0, 11.0, 23.0, 29.0, 7.0, 3.0, 2.0, 26.0, 11.0, 14.0, 12.0, 2.0, 9.0, 50.0, 4.0, 15.0, 8.0, 13.0, 3.0, 35.0, 7.0, 6.0, 10.0, 8.0, 4.0, 12.0, 16.0, 51.0, 21.0, 28.0, 7.0, 5.0, 4.0, 32.0, 9.0, 22.0, 6.0, 5.0, 3.0, 10.0, 4.0, 10.0, 6.0, 10.0, 5.0, 2.0, 42.0, 20.0, 6.0, 6.0, 22.0, 15.0, 16.0, 20.0, 1.0, 16.0, 41.0, 20.0, 7.0, 6.0, 10.0, 17.0, 5.0, 39.0, 18.0, 2.0, 4.0, 9.0, 75.0, 8.0, 36.0, 50.0, 37.0, 6.0, 35.0, 16.0, 4.0, 5.0, 5.0, 29.0, 3.0, 2.0, 24.0, 4.0, 19.0, 29.0, 4.0, 6.0, 18.0, 9.0, 5.0, 14.0, 11.0, 7.0, 25.0, 22.0, 6.0, 8.0, 8.0, 6.0, 9.0, 80.0, 26.0, 7.0, 2.0, 7.0, 47.0, 9.0, 7.0, 9.0, 10.0, 11.0, 11.0, 15.0, 53.0, 8.0, 14.0, 15.0, 25.0, 3.0, 28.0, 16.0, 21.0, 23.0, 54.0, 40.0, 47.0, 31.0, 15.0, 14.0, 14.0, 6.0, 7.0, 40.0, 21.0, 13.0, 15.0, 39.0, 36.0, 52.0, 20.0, 88.0, 15.0, 30.0, 17.0, 15.0, 13.0, 25.0, 20.0, 44.0, 49.0, 15.0, 20.0, 18.0, 32.0, 45.0, 31.0, 49.0, 29.0, 28.0, 21.0, 18.0, 19.0, 49.0, 58.0, 59.0, 55.0, 28.0, 40.0, 24.0, 37.0, 65.0, 54.0, 48.0, 74.0, 28.0, 28.0, 56.0, 38.0, 52.0, 66.0, 44.0, 35.0, 62.0, 32.0, 61.0, 84.0, 40.0, 53.0, 63.0, 28.0, 84.0, 41.0, 58.0, 79.0, 75.0, 47.0, 78.0, 61.0, 60.0, 73.0, 88.0, 59.0, 85.0, 88.0]</t>
+          <t>[3.0, 5.0, 6.0, 6.0, 5.0, 6.0, 7.0, 9.0, 7.0, 7.0, 7.0, 7.0, 5.0, 4.0, 4.0, 11.0, 9.0, 10.0, 10.0, 5.0, 13.0, 10.0, 11.0, 3.0, 3.0, 9.0, 9.0, 12.0, 11.0, 7.0, 4.0, 8.0, 12.0, 17.0, 2.0, 20.0, 5.0, 5.0, 6.0, 9.0, 7.0, 2.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 6.0, 7.0, 4.0, 7.0, 12.0, 11.0, 12.0, 4.0, 4.0, 21.0, 10.0, 25.0, 2.0, 11.0, 4.0, 14.0, 13.0, 7.0, 5.0, 7.0, 7.0, 5.0, 11.0, 6.0, 25.0, 11.0, 22.0, 7.0, 5.0, 8.0, 2.0, 5.0, 22.0, 8.0, 3.0, 13.0, 10.0, 6.0, 10.0, 7.0, 19.0, 10.0, 6.0, 11.0, 8.0, 1.0, 8.0, 3.0, 10.0, 24.0, 3.0, 8.0, 6.0, 9.0, 11.0, 7.0, 22.0, 13.0, 22.0, 7.0, 8.0, 3.0, 6.0, 4.0, 5.0, 7.0, 6.0, 11.0, 6.0, 5.0, 10.0, 10.0, 22.0, 9.0, 9.0, 16.0, 12.0, 5.0, 10.0, 6.0, 4.0, 13.0, 15.0, 27.0, 5.0, 21.0, 15.0, 3.0, 3.0, 4.0, 7.0, 14.0, 11.0, 14.0, 15.0, 15.0, 15.0, 4.0, 11.0, 2.0, 10.0, 3.0, 12.0, 20.0, 6.0, 16.0, 3.0, 6.0, 13.0, 34.0, 11.0, 4.0, 7.0, 6.0, 3.0, 11.0, 13.0, 25.0, 7.0, 4.0, 6.0, 7.0, 35.0, 13.0, 15.0, 4.0, 7.0, 6.0, 1.0, 13.0, 6.0, 9.0, 10.0, 27.0, 7.0, 7.0, 23.0, 29.0, 24.0, 14.0, 17.0, 23.0, 38.0, 0.0, 9.0, 39.0, 11.0, 11.0, 35.0, 1.0, 2.0, 7.0, 28.0, 2.0, 2.0, 11.0, 11.0, 8.0, 10.0, 4.0, 32.0, 6.0, 26.0, 3.0, 26.0, 5.0, 4.0, 13.0, 7.0, 5.0, 10.0, 11.0, 39.0, 24.0, 32.0, 47.0, 4.0, 13.0, 19.0, 12.0, 1.0, 15.0, 14.0, 7.0, 1.0, 7.0, 22.0, 19.0, 8.0, 30.0, 11.0, 13.0, 22.0, 6.0, 8.0, 48.0, 13.0, 15.0, 15.0, 26.0, 28.0, 32.0, 8.0, 3.0, 7.0, 13.0, 23.0, 15.0, 11.0, 3.0, 5.0, 39.0, 16.0, 10.0, 12.0, 16.0, 2.0, 41.0, 5.0, 11.0, 24.0, 14.0, 10.0, 12.0, 5.0, 43.0, 8.0, 20.0, 4.0, 15.0, 12.0, 49.0, 42.0, 26.0, 20.0, 8.0, 28.0, 0.0, 20.0, 14.0, 5.0, 29.0, 15.0, 14.0, 9.0, 8.0, 14.0, 20.0, 8.0, 8.0, 5.0, 27.0, 20.0, 7.0, 8.0, 14.0, 3.0, 10.0, 13.0, 11.0, 7.0, 7.0, 36.0, 46.0, 35.0, 29.0, 15.0, 30.0, 9.0, 8.0, 50.0, 14.0, 29.0, 7.0, 2.0, 11.0, 10.0, 5.0, 23.0, 2.0, 12.0, 19.0, 4.0, 6.0, 11.0, 2.0, 15.0, 31.0, 12.0, 24.0, 13.0, 18.0, 46.0, 11.0, 14.0, 12.0, 7.0, 7.0, 46.0, 6.0, 13.0, 13.0, 8.0, 5.0, 11.0, 8.0, 15.0, 15.0, 13.0, 39.0, 15.0, 48.0, 10.0, 5.0, 7.0, 2.0, 8.0, 3.0, 9.0, 21.0, 35.0, 27.0, 12.0, 7.0, 15.0, 27.0, 2.0, 10.0, 6.0, 15.0, 3.0, 2.0, 15.0, 7.0, 7.0, 3.0, 7.0, 4.0, 8.0, 31.0, 26.0, 7.0, 1.0, 9.0, 8.0, 1.0, 1.0, 1.0, 3.0, 25.0, 8.0, 10.0, 11.0, 4.0, 3.0, 30.0, 4.0, 3.0, 3.0, 20.0, 9.0, 5.0, 42.0, 13.0, 55.0, 18.0, 12.0, 4.0, 9.0, 7.0, 14.0, 18.0, 21.0, 45.0, 59.0, 6.0, 46.0, 5.0, 1.0, 13.0, 26.0, 5.0, 5.0, 2.0, 6.0, 12.0, 15.0, 8.0, 9.0, 2.0, 11.0, 9.0, 8.0, 2.0, 1.0, 14.0, 14.0, 42.0, 3.0, 12.0, 21.0, 9.0, 9.0, 25.0, 4.0, 10.0, 7.0, 1.0, 14.0, 15.0, 2.0, 11.0, 11.0, 5.0, 11.0, 16.0, 10.0, 25.0, 45.0, 12.0, 46.0, 10.0, 3.0, 6.0, 11.0, 11.0, 13.0, 7.0, 11.0, 10.0, 9.0, 17.0, 7.0, 22.0, 6.0, 26.0, 30.0, 5.0, 8.0, 4.0, 17.0, 6.0, 6.0, 55.0, 4.0, 6.0, 5.0, 15.0, 5.0, 7.0, 8.0, 12.0, 35.0, 8.0, 22.0, 56.0, 19.0, 5.0, 17.0, 6.0, 13.0, 29.0, 4.0, 9.0, 8.0, 3.0, 7.0, 1.0, 15.0, 67.0, 9.0, 51.0, 9.0, 17.0, 7.0, 9.0, 22.0, 4.0, 21.0, 4.0, 7.0, 7.0, 7.0, 4.0, 37.0, 3.0, 9.0, 21.0, 7.0, 3.0, 10.0, 8.0, 8.0, 6.0, 14.0, 5.0, 3.0, 5.0, 4.0, 6.0, 6.0, 27.0, 19.0, 6.0, 9.0, 12.0, 7.0, 18.0, 7.0, 6.0, 16.0, 5.0, 11.0, 11.0, 12.0, 22.0, 2.0, 26.0, 17.0, 49.0, 7.0, 5.0, 9.0, 25.0, 36.0, 15.0, 18.0, 26.0, 8.0, 11.0, 82.0, 13.0, 7.0, 2.0, 11.0, 11.0, 4.0, 11.0, 15.0, 31.0, 18.0, 8.0, 14.0, 5.0, 8.0, 7.0, 37.0, 13.0, 32.0, 40.0, 14.0, 19.0, 35.0, 14.0, 14.0, 27.0, 14.0, 13.0, 8.0, 10.0, 36.0, 14.0, 6.0, 13.0, 13.0, 23.0, 29.0, 17.0, 20.0, 2.0, 7.0, 2.0, 50.0, 17.0, 5.0, 7.0, 7.0, 21.0, 7.0, 16.0, 7.0, 22.0, 35.0, 15.0, 11.0, 9.0, 17.0, 29.0, 10.0, 4.0, 7.0, 1.0, 10.0, 8.0, 23.0, 9.0, 12.0, 6.0, 4.0, 34.0, 9.0, 9.0, 4.0, 26.0, 0.0, 25.0, 4.0, 12.0, 12.0, 7.0, 3.0, 10.0, 7.0, 13.0, 13.0, 25.0, 6.0, 30.0, 20.0, 19.0, 4.0, 11.0, 9.0, 8.0, 13.0, 25.0, 2.0, 6.0, 13.0, 1.0, 10.0, 2.0, 7.0, 8.0, 16.0, 5.0, 3.0, 9.0, 17.0, 65.0, 30.0, 8.0, 22.0, 37.0, 80.0, 16.0, 15.0, 15.0, 89.0, 17.0, 10.0, 7.0, 6.0, 9.0, 17.0, 17.0, 28.0, 22.0, 20.0, 30.0, 4.0, 3.0, 16.0, 14.0, 3.0, 31.0, 5.0, 7.0, 7.0, 23.0, 10.0, 2.0, 8.0, 14.0, 10.0, 12.0, 47.0, 10.0, 1.0, 15.0, 19.0, 7.0, 16.0, 9.0, 18.0, 19.0, 11.0, 4.0, 4.0, 18.0, 24.0, 12.0, 4.0, 13.0, 4.0, 7.0, 70.0, 7.0, 21.0, 4.0, 9.0, 26.0, 11.0, 20.0, 7.0, 6.0, 5.0, 11.0, 28.0, 8.0, 6.0, 9.0, 1.0, 4.0, 13.0, 14.0, 4.0, 20.0, 5.0, 1.0, 7.0, 6.0, 2.0, 13.0, 36.0, 39.0, 10.0, 12.0, 12.0, 2.0, 2.0, 33.0, 12.0, 14.0, 23.0, 19.0, 2.0, 40.0, 16.0, 5.0, 12.0, 5.0, 9.0, 12.0, 12.0, 23.0, 77.0, 17.0, 8.0, 29.0, 10.0, 36.0, 1.0, 8.0, 32.0, 5.0, 20.0, 6.0, 65.0, 7.0, 3.0, 6.0, 43.0, 23.0, 16.0, 10.0, 8.0, 7.0, 2.0, 4.0, 23.0, 25.0, 8.0, 7.0, 4.0, 8.0, 9.0, 9.0, 11.0, 1.0, 8.0, 4.0, 7.0, 11.0, 0.0, 25.0, 12.0, 6.0, 5.0, 8.0, 10.0, 8.0, 23.0, 4.0, 5.0, 5.0, 5.0, 19.0, 2.0, 19.0, 8.0, 13.0, 37.0, 7.0, 5.0, 3.0, 31.0, 12.0, 6.0, 30.0, 11.0, 6.0, 10.0, 11.0, 18.0, 54.0, 4.0, 11.0, 7.0, 10.0, 1.0, 6.0, 1.0, 7.0, 17.0, 4.0, 5.0, 7.0, 11.0, 16.0, 10.0, 5.0, 0.0, 7.0, 4.0, 6.0, 5.0, 14.0, 22.0, 18.0, 40.0, 13.0, 4.0, 18.0, 20.0, 6.0, 8.0, 1.0, 6.0, 6.0, 6.0, 35.0, 4.0, 8.0, 21.0, 21.0, 15.0, 7.0, 8.0, 4.0, 5.0, 2.0, 2.0, 23.0, 9.0, 3.0, 7.0, 16.0, 5.0, 8.0, 12.0, 5.0, 1.0, 5.0, 6.0, 9.0, 13.0, 6.0, 6.0, 15.0, 43.0, 9.0, 6.0, 20.0, 35.0, 5.0, 15.0, 7.0, 5.0, 6.0, 15.0, 3.0, 13.0, 30.0, 5.0, 9.0, 13.0, 10.0, 14.0, 10.0, 17.0, 6.0, 30.0, 2.0, 6.0, 3.0, 3.0, 17.0, 6.0, 9.0, 14.0, 13.0, 0.0, 7.0, 9.0, 8.0, 0.0, 24.0, 22.0, 13.0, 6.0, 80.0, 16.0, 2.0, 9.0, 1.0, 4.0, 21.0, 3.0, 14.0, 8.0, 4.0, 62.0, 7.0, 16.0, 15.0, 5.0, 29.0, 8.0, 7.0, 12.0, 22.0, 4.0, 4.0, 14.0, 5.0, 12.0, 21.0, 7.0, 10.0, 7.0, 2.0, 2.0, 7.0, 32.0, 2.0, 11.0, 35.0, 39.0, 7.0, 8.0, 6.0, 2.0, 11.0, 10.0, 11.0, 8.0, 5.0, 22.0, 3.0, 6.0, 12.0, 11.0, 4.0, 8.0, 14.0, 5.0, 8.0, 54.0, 15.0, 10.0, 8.0, 32.0, 15.0, 37.0, 39.0, 5.0, 5.0, 33.0, 16.0, 14.0, 13.0, 4.0, 4.0, 4.0, 7.0, 2.0, 7.0, 7.0, 4.0, 38.0, 9.0, 9.0, 5.0, 11.0, 26.0, 34.0, 9.0, 2.0, 5.0, 5.0, 3.0, 5.0, 60.0, 5.0, 11.0, 20.0, 7.0, 5.0, 10.0, 7.0, 6.0, 11.0, 7.0, 14.0, 13.0, 3.0, 5.0, 5.0, 10.0, 10.0, 17.0, 5.0, 11.0, 7.0, 7.0, 7.0, 5.0, 12.0, 7.0, 13.0, 4.0, 3.0, 5.0, 36.0, 25.0, 18.0, 71.0, 32.0, 11.0, 8.0, 10.0, 4.0, 10.0, 10.0, 11.0, 41.0, 1.0, 7.0, 8.0, 4.0, 8.0, 49.0, 7.0, 3.0, 14.0, 14.0, 13.0, 12.0, 9.0, 12.0, 3.0, 13.0, 11.0, 15.0, 5.0, 4.0, 8.0, 8.0, 12.0, 5.0, 2.0, 8.0, 6.0, 13.0, 4.0, 4.0, 11.0, 11.0, 8.0, 53.0, 4.0, 15.0, 5.0, 49.0, 1.0, 8.0, 8.0, 22.0, 4.0, 7.0, 21.0, 3.0, 8.0, 6.0, 13.0, 8.0, 7.0, 7.0, 6.0, 8.0, 16.0, 28.0, 1.0, 9.0, 8.0, 5.0, 69.0, 6.0, 12.0, 6.0, 6.0, 13.0, 3.0, 9.0, 12.0, 15.0, 7.0, 12.0, 9.0, 2.0, 12.0, 7.0, 5.0, 2.0, 24.0, 5.0, 47.0, 6.0, 9.0, 7.0, 9.0, 10.0, 6.0, 6.0, 7.0, 17.0, 16.0, 23.0, 7.0, 34.0, 6.0, 6.0, 7.0, 12.0, 6.0, 8.0, 3.0, 6.0, 16.0, 14.0, 14.0, 10.0, 7.0, 1.0, 13.0, 6.0, 6.0, 10.0, 13.0, 6.0, 13.0, 3.0, 7.0, 9.0, 21.0, 7.0, 20.0, 11.0, 2.0, 3.0, 20.0, 13.0, 6.0, 2.0, 17.0, 14.0, 14.0, 25.0, 27.0, 2.0, 10.0, 7.0, 7.0, 4.0, 13.0, 4.0, 5.0, 14.0, 2.0, 15.0, 1.0, 4.0, 15.0, 9.0, 2.0, 11.0, 14.0, 4.0, 41.0, 8.0, 21.0, 8.0, 7.0, 4.0, 8.0, 4.0, 7.0, 7.0, 7.0, 9.0, 4.0, 39.0, 14.0, 8.0, 3.0, 12.0, 39.0, 2.0, 4.0, 10.0, 19.0, 21.0, 14.0, 8.0, 13.0, 24.0, 8.0, 26.0, 2.0, 7.0, 4.0, 4.0, 11.0, 21.0, 14.0, 4.0, 11.0, 63.0, 10.0, 8.0, 5.0, 8.0, 16.0, 15.0, 9.0, 5.0, 16.0, 5.0, 11.0, 12.0, 9.0, 1.0, 25.0, 6.0, 13.0, 6.0, 24.0, 4.0, 6.0, 1.0, 4.0, 22.0, 5.0, 16.0, 5.0, 4.0, 13.0, 16.0, 2.0, 2.0, 44.0, 57.0, 4.0, 4.0, 2.0, 4.0, 53.0, 7.0, 5.0, 6.0, 69.0, 6.0, 8.0, 9.0, 11.0, 3.0, 105.0, 9.0, 5.0, 6.0, 12.0, 3.0, 12.0, 6.0, 9.0, 10.0, 13.0, 12.0, 5.0, 11.0, 5.0, 11.0, 7.0, 14.0, 5.0, 6.0, 1.0, 7.0, 11.0, 6.0, 2.0, 9.0, 14.0, 10.0, 7.0, 29.0, 1.0, 11.0, 1.0, 3.0, 19.0, 10.0, 6.0, 6.0, 10.0, 3.0, 12.0, 5.0, 18.0, 31.0, 6.0, 11.0, 6.0, 10.0, 1.0, 4.0, 40.0, 3.0, 10.0, 21.0, 12.0, 17.0, 6.0, 3.0, 30.0, 20.0, 4.0, 6.0, 13.0, 5.0, 36.0, 95.0, 3.0, 1.0, 8.0, 11.0, 5.0, 53.0, 12.0, 14.0, 5.0, 4.0, 19.0, 4.0, 5.0, 8.0, 7.0, 20.0, 8.0, 7.0, 4.0, 13.0, 4.0, 4.0, 5.0, 2.0, 33.0, 2.0, 25.0, 10.0, 9.0, 1.0, 4.0, 4.0, 10.0, 27.0, 4.0, 7.0, 12.0, 8.0, 5.0, 15.0, 8.0, 14.0, 15.0, 9.0, 4.0, 5.0, 2.0, 6.0, 14.0, 22.0, 8.0, 4.0, 15.0, 22.0, 5.0, 10.0, 1.0, 9.0, 20.0, 3.0, 9.0, 16.0, 3.0, 1.0, 5.0, 3.0, 8.0, 6.0, 8.0, 19.0, 6.0, 15.0, 6.0, 15.0, 6.0, 14.0, 21.0, 9.0, 9.0, 1.0, 5.0, 5.0, 5.0, 13.0, 9.0, 19.0, 3.0, 2.0, 6.0, 6.0, 14.0, 13.0, 11.0, 27.0, 1.0, 3.0, 5.0, 10.0, 42.0, 7.0, 14.0, 0.0, 6.0, 28.0, 7.0, 42.0, 17.0, 4.0, 13.0, 9.0, 3.0, 13.0, 10.0, 7.0, 3.0, 6.0, 3.0, 1.0, 10.0, 6.0, 10.0, 4.0, 5.0, 23.0, 10.0, 2.0, 10.0, 11.0, 12.0, 5.0, 5.0, 11.0, 13.0, 7.0, 45.0, 7.0, 7.0, 5.0, 3.0, 6.0, 7.0, 4.0, 1.0, 9.0, 45.0, 17.0, 14.0, 6.0, 10.0, 28.0, 10.0, 16.0, 10.0, 5.0, 3.0, 14.0, 4.0, 16.0, 5.0, 84.0, 9.0, 4.0, 6.0, 22.0, 1.0, 7.0, 15.0, 10.0, 2.0, 0.0, 3.0, 7.0, 5.0, 95.0, 22.0, 16.0, 6.0, 8.0, 15.0, 5.0, 21.0, 6.0, 4.0, 8.0, 8.0, 7.0, 8.0, 10.0, 11.0, 5.0, 14.0, 11.0, 7.0, 35.0, 10.0, 10.0, 1.0, 4.0, 1.0, 4.0, 8.0, 22.0, 2.0, 4.0, 15.0, 24.0, 4.0, 2.0, 25.0, 25.0, 14.0, 7.0, 10.0, 7.0, 11.0, 21.0, 15.0, 8.0, 2.0, 10.0, 3.0, 18.0, 14.0, 24.0, 8.0, 44.0, 7.0, 2.0, 5.0, 3.0, 49.0, 11.0, 4.0, 4.0, 2.0, 15.0, 4.0, 2.0, 7.0, 17.0, 18.0, 1.0, 14.0, 4.0, 9.0, 23.0, 12.0, 11.0, 3.0, 9.0, 64.0, 7.0, 9.0, 11.0, 19.0, 12.0, 9.0, 2.0, 19.0, 11.0, 3.0, 39.0, 3.0, 12.0, 12.0, 12.0, 4.0, 6.0, 10.0, 5.0, 4.0, 3.0, 1.0, 15.0, 4.0, 9.0, 30.0, 4.0, 19.0, 12.0, 13.0, 3.0, 4.0, 33.0, 8.0, 22.0, 11.0, 8.0, 12.0, 12.0, 5.0, 9.0, 17.0, 15.0, 5.0, 5.0, 11.0, 8.0, 8.0, 15.0, 82.0, 13.0, 4.0, 36.0, 0.0, 18.0, 15.0, 15.0, 11.0, 4.0, 9.0, 5.0, 4.0, 15.0, 4.0, 9.0, 7.0, 3.0, 10.0, 9.0, 4.0, 10.0, 7.0, 13.0, 6.0, 6.0, 9.0, 4.0, 2.0, 9.0, 32.0, 12.0, 5.0, 6.0, 10.0, 4.0, 1.0, 4.0, 4.0, 5.0, 10.0, 1.0, 9.0, 38.0, 4.0, 10.0, 3.0, 6.0, 5.0, 12.0, 10.0, 4.0, 3.0, 10.0, 10.0, 3.0, 6.0, 26.0, 17.0, 4.0, 7.0, 14.0, 24.0, 5.0, 4.0, 5.0, 2.0, 3.0, 8.0, 11.0, 4.0, 3.0, 14.0, 7.0, 4.0, 17.0, 7.0, 10.0, 7.0, 6.0, 19.0, 10.0, 7.0, 5.0, 14.0, 2.0, 12.0, 19.0, 10.0, 6.0, 4.0, 44.0, 14.0, 20.0, 25.0, 24.0, 17.0, 4.0, 4.0, 5.0, 17.0, 10.0, 1.0, 7.0, 5.0, 4.0, 33.0, 5.0, 5.0, 7.0, 7.0, 4.0, 19.0, 10.0, 5.0, 5.0, 4.0, 1.0, 7.0, 13.0, 4.0, 6.0, 4.0, 18.0, 4.0, 4.0, 7.0, 3.0, 6.0, 1.0, 20.0, 0.0, 10.0, 33.0, 6.0, 5.0, 1.0, 14.0, 15.0, 6.0, 3.0, 12.0, 2.0, 7.0, 5.0, 7.0, 19.0, 36.0, 11.0, 9.0, 12.0, 2.0, 8.0, 1.0, 9.0, 5.0, 8.0, 11.0, 26.0, 6.0, 5.0, 3.0, 14.0, 10.0, 11.0, 4.0, 4.0, 5.0, 5.0, 8.0, 1.0, 8.0, 14.0, 16.0, 11.0, 6.0, 4.0, 0.0, 6.0, 10.0, 8.0, 10.0, 2.0, 1.0, 4.0, 1.0, 5.0, 11.0, 6.0, 5.0, 22.0, 7.0, 13.0, 5.0, 4.0, 8.0, 5.0, 7.0, 9.0, 12.0, 6.0, 9.0, 5.0, 16.0, 8.0, 8.0, 19.0, 9.0, 1.0, 19.0, 8.0, 1.0, 1.0, 5.0, 10.0, 6.0, 3.0, 15.0, 9.0, 5.0, 14.0, 6.0, 13.0, 47.0, 1.0, 13.0, 2.0, 5.0, 3.0, 34.0, 7.0, 27.0, 4.0, 7.0, 4.0, 1.0, 9.0, 1.0, 5.0, 5.0, 6.0, 19.0, 12.0, 1.0, 4.0, 56.0, 51.0, 9.0, 8.0, 7.0, 5.0, 10.0, 35.0, 9.0, 2.0, 10.0, 22.0, 7.0, 3.0, 1.0, 9.0, 3.0, 7.0, 9.0, 9.0, 6.0, 4.0, 7.0, 19.0, 8.0, 24.0, 10.0, 3.0, 20.0, 1.0, 10.0, 9.0, 4.0, 8.0, 6.0, 16.0, 13.0, 6.0, 2.0, 9.0, 1.0, 6.0, 10.0, 10.0, 5.0, 28.0, 28.0, 5.0, 6.0, 4.0, 14.0, 3.0, 2.0, 3.0, 6.0, 4.0, 7.0, 3.0, 13.0, 7.0, 8.0, 2.0, 3.0, 10.0, 10.0, 3.0, 27.0, 6.0, 1.0, 9.0, 5.0, 21.0, 7.0, 14.0, 5.0, 14.0, 18.0, 8.0, 1.0, 1.0, 8.0, 6.0, 10.0, 4.0, 5.0, 3.0, 8.0, 2.0, 26.0, 21.0, 4.0, 22.0, 28.0, 4.0, 5.0, 3.0, 14.0, 3.0, 9.0, 12.0, 4.0, 11.0, 3.0, 7.0, 2.0, 7.0, 36.0, 11.0, 17.0, 17.0, 4.0, 4.0, 3.0, 9.0, 14.0, 4.0, 11.0, 8.0, 9.0, 4.0, 28.0, 2.0, 28.0, 18.0, 19.0, 7.0, 10.0, 15.0, 6.0, 4.0, 7.0, 8.0, 8.0, 11.0, 4.0, 9.0, 2.0, 19.0, 18.0, 7.0, 11.0, 7.0, 35.0, 5.0, 35.0, 15.0, 8.0, 1.0, 8.0, 8.0, 14.0, 6.0, 8.0, 4.0, 3.0, 2.0, 9.0, 7.0, 3.0, 8.0, 8.0, 25.0, 10.0, 1.0, 3.0, 10.0, 6.0, 18.0, 1.0, 3.0, 12.0, 5.0, 5.0, 23.0, 5.0, 15.0, 3.0, 10.0, 25.0, 14.0, 4.0, 8.0, 9.0, 5.0, 2.0, 9.0, 15.0, 9.0, 11.0, 10.0, 19.0, 3.0, 4.0, 9.0, 4.0, 5.0, 4.0, 2.0, 29.0, 15.0, 9.0, 5.0, 10.0, 10.0, 16.0, 22.0, 31.0, 11.0, 18.0, 8.0, 9.0, 8.0, 43.0, 15.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 12.0, 5.0, 5.0, 19.0, 26.0, 13.0, 5.0, 10.0, 13.0, 6.0, 6.0, 6.0, 9.0, 10.0, 5.0, 2.0, 2.0, 7.0, 6.0, 3.0, 12.0, 7.0, 6.0, 9.0, 3.0, 5.0, 9.0, 6.0, 3.0, 12.0, 2.0, 29.0, 4.0, 4.0, 6.0, 32.0, 16.0, 4.0, 2.0, 4.0, 3.0, 2.0, 9.0, 23.0, 10.0, 12.0, 9.0, 32.0, 27.0, 3.0, 9.0, 10.0, 11.0, 5.0, 41.0, 4.0, 12.0, 8.0, 17.0, 4.0, 7.0, 18.0, 7.0, 21.0, 6.0, 5.0, 8.0, 1.0, 17.0, 3.0, 11.0, 14.0, 4.0, 14.0, 7.0, 7.0, 21.0, 4.0, 1.0, 13.0, 8.0, 18.0, 5.0, 17.0, 10.0, 31.0, 2.0, 7.0, 4.0, 18.0, 7.0, 24.0, 31.0, 10.0, 7.0, 5.0, 15.0, 4.0, 5.0, 8.0, 11.0, 13.0, 32.0, 3.0, 3.0, 11.0, 30.0, 17.0, 5.0, 12.0, 28.0, 13.0, 10.0, 3.0, 4.0, 8.0, 5.0, 7.0, 8.0, 5.0, 4.0, 5.0, 4.0, 13.0, 22.0, 7.0, 13.0, 23.0, 4.0, 2.0, 5.0, 1.0, 12.0, 4.0, 1.0, 14.0, 82.0, 6.0, 15.0, 48.0, 16.0, 27.0, 13.0, 19.0, 5.0, 4.0, 13.0, 14.0, 1.0, 11.0, 26.0, 4.0, 22.0, 5.0, 4.0, 8.0, 4.0, 6.0, 13.0, 25.0, 9.0, 14.0, 5.0, 62.0, 11.0, 12.0, 70.0, 8.0, 75.0, 4.0, 13.0, 4.0, 5.0, 13.0, 4.0, 22.0, 18.0, 7.0, 12.0, 5.0, 3.0, 13.0, 5.0, 7.0, 18.0, 5.0, 9.0, 3.0, 9.0, 9.0, 7.0, 13.0, 2.0, 6.0, 10.0, 1.0, 12.0, 9.0, 5.0, 9.0, 12.0, 7.0, 20.0, 6.0, 12.0, 1.0, 7.0, 30.0, 6.0, 7.0, 6.0, 40.0, 6.0, 9.0, 15.0, 7.0, 1.0, 9.0, 7.0, 3.0, 10.0, 7.0, 8.0, 27.0, 3.0, 31.0, 9.0, 50.0, 26.0, 35.0, 26.0, 7.0, 5.0, 8.0, 20.0, 13.0, 7.0, 21.0, 3.0, 14.0, 15.0, 9.0, 1.0, 43.0, 8.0, 18.0, 13.0, 10.0, 10.0, 7.0, 30.0, 6.0, 5.0, 4.0, 5.0, 6.0, 2.0, 38.0, 6.0, 31.0, 13.0, 25.0, 3.0, 14.0, 69.0, 14.0, 8.0, 28.0, 29.0, 27.0, 16.0, 7.0, 11.0, 15.0, 63.0, 2.0, 13.0, 10.0, 2.0, 19.0, 10.0, 1.0, 14.0, 18.0, 23.0, 2.0, 7.0, 21.0, 14.0, 4.0, 7.0, 18.0, 4.0, 4.0, 3.0, 10.0, 9.0, 21.0, 2.0, 13.0, 7.0, 6.0, 8.0, 29.0, 21.0, 7.0, 4.0, 25.0, 64.0, 7.0, 29.0, 8.0, 18.0, 16.0, 9.0, 7.0, 15.0, 9.0, 9.0, 4.0, 14.0, 8.0, 31.0, 10.0, 8.0, 52.0, 14.0, 15.0, 5.0, 6.0, 22.0, 4.0, 66.0, 14.0, 9.0, 12.0, 9.0, 12.0, 22.0, 2.0, 5.0, 9.0, 4.0, 6.0, 8.0, 2.0, 11.0, 26.0, 46.0, 3.0, 12.0, 3.0, 5.0, 9.0, 5.0, 17.0, 16.0, 18.0, 12.0, 9.0, 4.0, 1.0, 13.0, 9.0, 10.0, 5.0, 3.0, 2.0, 24.0, 7.0, 13.0, 9.0, 6.0, 13.0, 2.0, 3.0, 1.0, 3.0, 40.0, 14.0, 11.0, 17.0, 8.0, 18.0, 4.0, 24.0, 10.0, 10.0, 58.0, 4.0, 6.0, 4.0, 4.0, 24.0, 31.0, 10.0, 10.0, 13.0, 7.0, 12.0, 21.0, 4.0, 5.0, 10.0, 21.0, 4.0, 13.0, 14.0, 6.0, 11.0, 11.0, 68.0, 45.0, 10.0, 4.0, 6.0, 29.0, 29.0, 4.0, 25.0, 8.0, 7.0, 7.0, 13.0, 8.0, 14.0, 12.0, 5.0, 2.0, 15.0, 4.0, 4.0, 28.0, 12.0, 20.0, 13.0, 43.0, 21.0, 13.0, 28.0, 14.0, 46.0, 7.0, 6.0, 5.0, 19.0, 15.0, 8.0, 27.0, 5.0, 48.0, 12.0, 21.0, 9.0, 14.0, 8.0, 19.0, 13.0, 10.0, 28.0, 5.0, 12.0, 7.0, 4.0, 5.0, 9.0, 9.0, 35.0, 7.0, 9.0, 5.0, 13.0, 14.0, 13.0, 13.0, 14.0, 5.0, 15.0, 26.0, 2.0, 13.0, 21.0, 15.0, 89.0, 69.0, 17.0, 29.0, 12.0, 6.0, 9.0, 24.0, 5.0, 8.0, 16.0, 12.0, 3.0, 2.0, 13.0, 6.0, 7.0, 7.0, 8.0, 3.0, 19.0, 7.0, 10.0, 2.0, 22.0, 7.0, 14.0, 15.0, 23.0, 3.0, 3.0, 5.0, 3.0, 3.0, 8.0, 7.0, 14.0, 25.0, 33.0, 2.0, 14.0, 3.0, 15.0, 7.0, 13.0, 5.0, 19.0, 38.0, 7.0, 8.0, 2.0, 3.0, 5.0, 2.0, 1.0, 13.0, 29.0, 24.0, 35.0, 46.0, 24.0, 49.0, 17.0, 5.0, 69.0, 3.0, 21.0, 29.0, 8.0, 5.0, 27.0, 9.0, 37.0, 8.0, 15.0, 5.0, 38.0, 11.0, 1.0, 11.0, 6.0, 13.0, 10.0, 9.0, 71.0, 15.0, 22.0, 1.0, 25.0, 26.0, 25.0, 58.0, 2.0, 4.0, 12.0, 4.0, 2.0, 5.0, 20.0, 9.0, 13.0, 54.0, 26.0, 30.0, 6.0, 4.0, 9.0, 11.0, 5.0, 7.0, 10.0, 1.0, 10.0, 14.0, 19.0, 4.0, 14.0, 19.0, 4.0, 3.0, 3.0, 3.0, 34.0, 16.0, 19.0, 10.0, 64.0, 21.0, 13.0, 20.0, 20.0, 2.0, 8.0, 18.0, 12.0, 30.0, 7.0, 33.0, 5.0, 13.0, 4.0, 18.0, 20.0, 7.0, 5.0, 7.0, 1.0, 9.0, 18.0, 5.0, 11.0, 14.0, 11.0, 8.0, 30.0, 8.0, 4.0, 12.0, 23.0, 2.0, 10.0, 21.0, 26.0, 14.0, 21.0, 6.0, 15.0, 74.0, 20.0, 9.0, 20.0, 28.0, 40.0, 17.0, 15.0, 33.0, 14.0, 49.0, 5.0, 16.0, 29.0, 1.0, 10.0, 29.0, 33.0, 117.0, 22.0, 43.0, 27.0, 5.0, 20.0, 25.0, 10.0, 21.0, 8.0, 15.0, 9.0, 3.0, 17.0, 20.0, 1.0, 6.0, 14.0, 13.0, 83.0, 27.0, 14.0, 3.0, 34.0, 33.0, 23.0, 42.0, 5.0, 34.0, 11.0, 27.0, 38.0, 10.0, 4.0, 4.0, 35.0, 8.0, 15.0, 1.0, 9.0, 7.0, 42.0, 9.0, 7.0, 10.0, 3.0, 7.0, 30.0, 62.0, 42.0, 3.0, 26.0, 78.0, 21.0, 22.0, 52.0, 8.0, 23.0, 5.0, 6.0, 2.0, 31.0, 5.0, 8.0, 22.0, 3.0, 37.0, 24.0, 78.0, 58.0, 18.0, 18.0, 11.0, 2.0, 20.0, 13.0, 13.0, 11.0, 25.0, 6.0, 4.0, 19.0, 3.0, 28.0, 20.0, 26.0, 31.0, 21.0, 5.0, 5.0, 11.0, 20.0, 48.0, 8.0, 18.0, 5.0, 26.0, 6.0, 44.0, 3.0, 12.0, 15.0, 34.0, 8.0, 8.0, 23.0, 15.0, 3.0, 14.0, 37.0, 9.0, 8.0, 31.0, 8.0, 38.0, 42.0, 10.0, 4.0, 43.0, 34.0, 42.0, 27.0, 18.0, 24.0, 6.0, 9.0, 15.0, 7.0, 7.0, 7.0, 7.0, 8.0, 9.0, 1.0, 12.0, 37.0, 4.0, 45.0, 12.0, 22.0, 40.0, 9.0, 4.0, 31.0, 42.0, 81.0, 11.0, 130.0, 107.0, 4.0, 12.0, 26.0, 8.0, 39.0, 43.0, 43.0, 6.0, 4.0, 8.0, 40.0, 46.0, 35.0, 16.0, 44.0, 37.0, 34.0, 3.0, 6.0, 7.0, 10.0, 10.0, 9.0, 11.0, 13.0, 14.0, 11.0, 22.0, 11.0, 43.0, 3.0, 1.0, 33.0, 4.0, 21.0, 43.0, 34.0, 1.0, 43.0, 7.0, 7.0, 78.0, 6.0, 55.0, 14.0, 9.0, 9.0, 23.0, 40.0, 47.0, 22.0, 16.0, 6.0, 6.0, 2.0, 5.0, 15.0, 28.0, 15.0, 51.0, 29.0, 41.0, 78.0, 2.0, 9.0, 8.0, 29.0, 12.0, 31.0, 12.0, 12.0, 22.0, 51.0, 17.0, 9.0, 46.0, 10.0, 14.0, 10.0, 27.0, 25.0, 4.0, 19.0, 36.0, 47.0, 14.0, 7.0, 71.0, 10.0, 9.0, 36.0, 34.0, 50.0, 61.0, 14.0, 9.0, 55.0, 51.0, 3.0, 4.0, 39.0, 24.0, 50.0, 18.0, 5.0, 46.0, 48.0, 17.0, 46.0, 55.0, 55.0, 13.0, 12.0, 22.0, 43.0, 36.0, 52.0, 36.0, 91.0, 25.0, 4.0, 20.0, 46.0, 3.0, 12.0, 25.0, 74.0, 10.0, 56.0, 50.0, 75.0, 6.0, 68.0, 8.0, 24.0, 37.0, 13.0, 113.0, 10.0, 7.0, 38.0, 23.0, 99.0, 2.0, 19.0, 78.0, 107.0, 67.0, 8.0, 61.0, 15.0, 56.0, 0.0, 4.0, 2.0, 7.0, 11.0, 49.0, 120.0, 92.0, 6.0, 4.0, 12.0, 22.0, 7.0, 21.0, 51.0, 7.0, 2.0, 38.0, 73.0, 3.0, 130.0, 9.0, 5.0, 137.0, 6.0, 5.0, 7.0, 12.0, 3.0, 43.0, 95.0, 13.0, 169.0, 13.0, 10.0, 3.0, 4.0, 8.0, 4.0, 18.0, 5.0, 4.0, 1.0, 9.0, 91.0, 7.0, 80.0, 11.0, 106.0, 3.0, 13.0, 13.0, 51.0, 86.0, 8.0, 14.0, 11.0, 115.0, 5.0, 3.0, 13.0, 160.0, 20.0, 5.0, 11.0, 6.0, 7.0, 68.0, 103.0, 3.0, 21.0, 9.0, 8.0, 137.0, 9.0, 8.0, 64.0, 5.0, 17.0, 5.0, 21.0, 114.0, 7.0, 13.0, 5.0, 107.0, 4.0, 11.0, 7.0, 5.0, 10.0, 6.0, 6.0, 2.0, 3.0, 3.0, 102.0, 8.0, 4.0, 35.0, 3.0, 9.0, 10.0, 12.0, 1.0, 7.0, 22.0, 23.0, 130.0, 8.0, 3.0, 4.0, 7.0, 21.0, 3.0, 51.0, 32.0, 42.0, 7.0, 34.0, 161.0, 6.0, 4.0, 12.0, 109.0, 15.0, 13.0, 4.0, 1.0, 32.0, 5.0, 52.0, 82.0, 7.0, 22.0, 2.0, 1.0, 8.0, 9.0, 6.0, 6.0, 5.0, 19.0, 1.0, 24.0, 25.0, 1.0, 15.0, 6.0, 9.0, 35.0, 8.0, 12.0, 106.0, 7.0, 14.0, 21.0, 34.0, 3.0, 24.0, 0.0, 2.0, 11.0, 6.0, 165.0, 62.0, 20.0, 26.0, 14.0, 10.0, 70.0, 9.0, 19.0, 10.0, 2.0, 7.0, 6.0, 7.0, 23.0, 23.0, 11.0, 4.0, 1.0, 43.0, 8.0, 20.0, 38.0, 10.0, 6.0, 12.0, 15.0, 20.0, 9.0, 7.0, 3.0, 2.0, 6.0, 3.0, 0.0, 7.0, 17.0, 14.0, 7.0, 2.0, 6.0, 3.0, 11.0, 4.0, 7.0, 30.0, 8.0, 20.0, 13.0, 13.0, 7.0, 18.0, 5.0, 10.0, 12.0, 3.0, 6.0, 32.0, 7.0, 10.0, 28.0, 5.0, 33.0, 20.0, 24.0, 21.0, 10.0, 5.0, 9.0, 7.0, 6.0, 22.0, 29.0, 22.0, 5.0, 2.0, 8.0, 3.0, 9.0, 11.0, 11.0, 23.0, 7.0, 3.0, 24.0, 3.0, 16.0, 11.0, 13.0, 24.0, 8.0, 10.0, 12.0, 9.0, 11.0, 22.0, 10.0, 6.0, 5.0, 7.0, 7.0, 125.0, 13.0, 5.0, 7.0, 16.0, 4.0, 12.0, 12.0, 21.0, 9.0, 13.0, 13.0, 3.0, 3.0, 13.0, 12.0, 6.0, 5.0, 7.0, 13.0, 10.0, 9.0, 6.0, 24.0, 0.0, 2.0, 14.0, 17.0, 6.0, 13.0, 10.0, 4.0, 7.0, 2.0, 3.0, 14.0, 38.0, 5.0, 4.0, 3.0, 3.0, 3.0, 9.0, 21.0, 4.0, 8.0, 15.0, 2.0, 8.0, 40.0, 11.0, 30.0, 9.0, 30.0, 8.0, 3.0, 16.0, 1.0, 11.0, 4.0, 2.0, 51.0, 4.0, 6.0, 8.0, 6.0, 4.0, 34.0, 11.0, 24.0, 14.0, 4.0, 14.0, 5.0, 21.0, 6.0, 12.0, 14.0, 14.0, 19.0, 27.0, 39.0, 13.0, 6.0, 9.0, 7.0, 7.0, 0.0, 7.0, 2.0, 21.0, 14.0, 2.0, 1.0, 8.0, 48.0, 11.0, 2.0, 7.0, 8.0, 10.0, 0.0, 4.0, 14.0, 7.0, 7.0, 4.0, 2.0, 4.0, 1.0, 58.0, 0.0, 38.0, 14.0, 44.0, 13.0, 8.0, 24.0, 11.0, 14.0, 5.0, 14.0, 8.0, 3.0, 4.0, 5.0, 10.0, 8.0, 3.0, 15.0, 19.0, 3.0, 52.0, 16.0, 9.0, 15.0, 9.0, 64.0, 5.0, 1.0, 19.0, 19.0, 19.0, 21.0, 17.0, 4.0, 18.0, 9.0, 3.0, 66.0, 10.0, 11.0, 2.0, 4.0, 70.0, 5.0, 12.0, 13.0, 2.0, 17.0, 5.0, 17.0, 17.0, 3.0, 60.0, 17.0, 26.0, 9.0, 17.0, 21.0, 37.0, 7.0, 8.0, 7.0, 13.0, 13.0, 5.0, 97.0, 11.0, 5.0, 2.0, 7.0, 25.0, 14.0, 11.0, 2.0, 13.0, 4.0, 2.0, 9.0, 3.0, 4.0, 5.0, 6.0, 20.0, 5.0, 2.0, 7.0, 19.0, 5.0, 13.0, 6.0, 27.0, 15.0, 2.0, 42.0, 6.0, 8.0, 8.0, 13.0, 15.0, 12.0, 30.0, 14.0, 2.0, 6.0, 14.0, 28.0, 3.0, 13.0, 8.0, 16.0, 16.0, 14.0, 5.0, 10.0, 7.0, 3.0, 16.0, 5.0, 15.0, 7.0, 10.0, 10.0, 13.0, 13.0, 4.0, 11.0, 21.0, 6.0, 9.0, 7.0, 11.0, 23.0, 7.0, 14.0, 11.0, 11.0, 2.0, 3.0, 28.0, 11.0, 28.0, 10.0, 25.0, 7.0, 26.0, 14.0, 10.0, 4.0, 16.0, 2.0, 5.0, 12.0, 8.0, 12.0, 9.0, 18.0, 15.0, 0.0, 1.0, 3.0, 16.0, 6.0, 11.0, 25.0, 5.0, 4.0, 8.0, 5.0, 4.0, 27.0, 3.0, 5.0, 9.0, 0.0, 5.0, 53.0, 136.0, 4.0, 30.0, 11.0, 6.0, 17.0, 1.0, 4.0, 14.0, 6.0, 3.0, 13.0, 1.0, 30.0, 7.0, 23.0, 10.0, 4.0, 18.0, 19.0, 10.0, 13.0, 1.0, 11.0, 13.0, 1.0, 19.0, 20.0, 0.0, 42.0, 11.0, 25.0, 19.0, 34.0, 10.0, 4.0, 19.0, 7.0, 14.0, 6.0, 14.0, 33.0, 39.0, 13.0, 7.0, 20.0, 1.0, 5.0, 4.0, 7.0, 12.0, 16.0, 47.0, 14.0, 11.0, 7.0, 14.0, 8.0, 12.0, 11.0, 7.0, 6.0, 10.0, 4.0, 12.0, 8.0, 6.0, 14.0, 13.0, 10.0, 25.0, 36.0, 8.0, 18.0, 7.0, 8.0, 3.0, 12.0, 5.0, 14.0, 6.0, 0.0, 3.0, 34.0, 2.0, 41.0, 24.0, 20.0, 11.0, 6.0, 7.0, 7.0, 7.0, 28.0, 3.0, 26.0, 6.0, 14.0, 10.0, 8.0, 15.0, 10.0, 14.0, 63.0, 20.0, 16.0, 3.0, 4.0, 12.0, 5.0, 2.0, 0.0, 14.0, 20.0, 30.0, 1.0, 36.0, 6.0, 5.0, 9.0, 7.0, 9.0, 14.0, 10.0, 21.0, 30.0, 13.0, 6.0, 6.0, 7.0, 12.0, 16.0, 6.0, 7.0, 13.0, 20.0, 0.0, 1.0, 80.0, 57.0, 3.0, 13.0, 4.0, 1.0, 5.0, 6.0, 1.0, 23.0, 9.0, 22.0, 13.0, 9.0, 16.0, 13.0, 9.0, 7.0, 2.0, 11.0, 15.0, 4.0, 10.0, 31.0, 17.0, 14.0, 7.0, 5.0, 7.0, 14.0, 14.0, 22.0, 4.0, 9.0, 8.0, 12.0, 6.0, 7.0, 14.0, 4.0, 10.0, 5.0, 7.0, 16.0, 1.0, 24.0, 9.0, 14.0, 9.0, 23.0, 3.0, 9.0, 8.0, 27.0, 10.0, 7.0, 4.0, 9.0, 1.0, 12.0, 9.0, 8.0, 8.0, 3.0, 5.0, 4.0, 11.0, 14.0, 3.0, 8.0, 5.0, 11.0, 6.0, 15.0, 11.0, 15.0, 12.0, 3.0, 8.0, 5.0, 72.0, 17.0, 9.0, 41.0, 39.0, 8.0, 14.0, 15.0, 17.0, 30.0, 5.0, 10.0, 0.0, 2.0, 9.0, 5.0, 72.0, 3.0, 29.0, 1.0, 17.0, 15.0, 7.0, 9.0, 15.0, 7.0, 2.0, 15.0, 2.0, 7.0, 13.0, 8.0, 11.0, 6.0, 8.0, 10.0, 7.0, 11.0, 20.0, 9.0, 15.0, 19.0, 6.0, 80.0, 6.0, 6.0, 21.0, 4.0, 17.0, 6.0, 4.0, 12.0, 12.0, 1.0, 6.0, 4.0, 11.0, 31.0, 6.0, 12.0, 7.0, 17.0, 6.0, 4.0, 9.0, 9.0, 9.0, 44.0, 11.0, 5.0, 11.0, 4.0, 18.0, 20.0, 3.0, 5.0, 6.0, 1.0, 11.0, 11.0, 19.0, 3.0, 13.0, 4.0, 1.0, 5.0, 18.0, 8.0, 20.0, 18.0, 24.0, 36.0, 47.0, 21.0, 5.0, 8.0, 3.0, 9.0, 4.0, 6.0, 3.0, 4.0, 4.0, 12.0, 4.0, 1.0, 17.0, 5.0, 1.0, 4.0, 18.0, 6.0, 31.0, 7.0, 1.0, 9.0, 13.0, 4.0, 4.0, 7.0, 6.0, 6.0, 4.0, 5.0, 13.0, 4.0, 12.0, 13.0, 10.0, 2.0, 9.0, 11.0, 6.0, 4.0, 4.0, 19.0, 6.0, 17.0, 10.0, 8.0, 36.0, 39.0, 6.0, 7.0, 8.0, 8.0, 13.0, 9.0, 14.0, 7.0, 7.0, 15.0, 5.0, 6.0, 6.0, 5.0, 12.0, 4.0, 20.0, 7.0, 10.0, 18.0, 12.0, 12.0, 28.0, 1.0, 21.0, 13.0, 6.0, 1.0, 3.0, 1.0, 27.0, 10.0, 13.0, 13.0, 9.0, 13.0, 5.0, 14.0, 26.0, 23.0, 8.0, 21.0, 9.0, 13.0, 12.0, 5.0, 10.0, 15.0, 70.0, 2.0, 5.0, 9.0, 12.0, 9.0, 2.0, 2.0, 5.0, 15.0, 10.0, 9.0, 27.0, 41.0, 9.0, 22.0, 8.0, 8.0, 3.0, 8.0, 7.0, 14.0, 7.0, 10.0, 9.0, 7.0, 7.0, 7.0, 10.0, 15.0, 8.0, 8.0, 15.0, 5.0, 6.0, 9.0, 7.0, 10.0, 8.0, 8.0, 6.0, 43.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 6.0, 13.0, 1.0, 2.0, 20.0, 27.0, 4.0, 30.0, 1.0, 3.0, 10.0, 6.0, 7.0, 8.0, 29.0, 9.0, 7.0, 11.0, 7.0, 3.0, 10.0, 2.0, 5.0, 16.0, 10.0, 8.0, 3.0, 15.0, 7.0, 15.0, 9.0, 8.0, 87.0, 4.0, 8.0, 7.0, 9.0, 33.0, 22.0, 18.0, 11.0, 4.0, 7.0, 0.0, 8.0, 3.0, 10.0, 10.0, 3.0, 7.0, 17.0, 4.0, 8.0, 23.0, 9.0, 2.0, 2.0, 3.0, 10.0, 9.0, 14.0, 3.0, 12.0, 5.0, 2.0, 15.0, 11.0, 12.0, 32.0, 7.0, 3.0, 5.0, 4.0, 11.0, 7.0, 5.0, 5.0, 3.0, 0.0, 7.0, 4.0, 44.0, 4.0, 11.0, 9.0, 8.0, 2.0, 7.0, 15.0, 4.0, 11.0, 5.0, 4.0, 7.0, 8.0, 6.0, 11.0, 0.0, 28.0, 3.0, 8.0, 0.0, 4.0, 9.0, 8.0, 7.0, 8.0, 3.0, 1.0, 6.0, 11.0, 9.0, 11.0, 4.0, 10.0, 5.0, 5.0, 30.0, 20.0, 9.0, 18.0, 5.0, 3.0, 16.0, 3.0, 10.0, 2.0, 11.0, 1.0, 22.0, 8.0, 5.0, 19.0, 2.0, 12.0, 10.0, 4.0, 12.0, 67.0, 33.0, 9.0, 9.0, 9.0, 11.0, 12.0, 15.0, 11.0, 6.0, 3.0, 5.0, 6.0, 4.0, 30.0, 32.0, 9.0, 9.0, 3.0, 9.0, 5.0, 6.0, 5.0, 6.0, 14.0, 17.0, 10.0, 13.0, 5.0, 17.0, 13.0, 7.0, 11.0, 9.0, 6.0, 14.0, 6.0, 6.0, 25.0, 17.0, 21.0, 7.0, 7.0, 10.0, 2.0, 4.0, 2.0, 20.0, 7.0, 18.0, 21.0, 1.0, 12.0, 12.0, 4.0, 5.0, 5.0, 8.0, 11.0, 13.0, 3.0, 28.0, 10.0, 7.0, 6.0, 31.0, 12.0, 12.0, 10.0, 20.0, 6.0, 5.0, 14.0, 5.0, 26.0, 6.0, 5.0, 46.0, 7.0, 6.0, 24.0, 5.0, 9.0, 8.0, 6.0, 10.0, 11.0, 48.0, 12.0, 10.0, 31.0, 9.0, 6.0, 14.0, 10.0, 4.0, 11.0, 10.0, 17.0, 17.0, 2.0, 5.0, 15.0, 4.0, 6.0, 5.0, 1.0, 9.0, 4.0, 6.0, 8.0, 11.0, 14.0, 7.0, 11.0, 21.0, 10.0, 10.0, 10.0, 4.0, 8.0, 42.0, 5.0, 8.0, 8.0, 1.0, 4.0, 8.0, 2.0, 4.0, 1.0, 3.0, 7.0, 5.0, 1.0, 25.0, 21.0, 55.0, 4.0, 2.0, 8.0, 7.0, 11.0, 3.0, 8.0, 6.0, 26.0, 11.0, 9.0, 11.0, 11.0, 12.0, 11.0, 5.0, 11.0, 17.0, 20.0, 11.0, 6.0, 5.0, 15.0, 13.0, 20.0, 7.0, 7.0, 5.0, 8.0, 14.0, 8.0, 11.0, 43.0, 27.0, 10.0, 6.0, 5.0, 5.0, 4.0, 3.0, 11.0, 14.0, 11.0, 6.0, 4.0, 17.0, 8.0, 4.0, 8.0, 11.0, 5.0, 12.0, 8.0, 14.0, 11.0, 20.0, 9.0, 7.0, 5.0, 7.0, 6.0, 20.0, 8.0, 14.0, 6.0, 7.0, 0.0, 7.0, 2.0, 14.0, 5.0, 5.0, 9.0, 16.0, 6.0, 6.0, 11.0, 5.0, 5.0, 13.0, 8.0, 2.0, 21.0, 2.0, 15.0, 8.0, 10.0, 5.0, 1.0, 5.0, 21.0, 4.0, 12.0, 9.0, 3.0, 3.0, 12.0, 11.0, 14.0, 1.0, 16.0, 10.0, 7.0, 3.0, 13.0, 6.0, 3.0, 21.0, 7.0, 11.0, 7.0, 31.0, 10.0, 14.0, 3.0, 14.0, 5.0, 22.0, 13.0, 15.0, 7.0, 14.0, 6.0, 6.0, 13.0, 22.0, 6.0, 7.0, 10.0, 22.0, 3.0, 24.0, 14.0, 9.0, 28.0, 18.0, 13.0, 7.0, 9.0, 10.0, 5.0, 7.0, 9.0, 13.0, 11.0, 16.0, 20.0, 13.0, 7.0, 14.0, 4.0, 7.0, 12.0, 1.0, 4.0, 10.0, 5.0, 10.0, 3.0, 4.0, 28.0, 3.0, 10.0, 5.0, 14.0, 17.0, 7.0, 6.0, 11.0, 9.0, 11.0, 10.0, 4.0, 3.0, 4.0, 3.0, 7.0, 11.0, 10.0, 16.0, 38.0, 18.0, 3.0, 25.0, 10.0, 10.0, 9.0, 14.0, 9.0, 10.0, 8.0, 21.0, 1.0, 31.0, 7.0, 10.0, 3.0, 9.0, 8.0, 11.0, 10.0, 2.0, 14.0, 8.0, 16.0, 15.0, 13.0, 8.0, 9.0, 28.0, 9.0, 15.0, 16.0, 5.0, 10.0, 6.0, 8.0, 33.0, 10.0, 4.0, 12.0, 11.0, 4.0, 7.0, 10.0, 26.0, 3.0, 5.0, 8.0, 61.0, 13.0, 2.0, 9.0, 10.0, 3.0, 6.0, 10.0, 19.0, 8.0, 5.0, 13.0, 9.0, 12.0, 4.0, 3.0, 16.0, 5.0, 8.0, 20.0, 6.0, 23.0, 13.0, 10.0, 6.0, 12.0, 5.0, 6.0, 5.0, 10.0, 6.0, 12.0, 9.0, 24.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 12.0, 2.0, 7.0, 20.0, 6.0, 4.0, 22.0, 6.0, 18.0, 12.0, 12.0, 11.0, 11.0, 6.0, 10.0, 4.0, 5.0, 5.0, 10.0, 3.0, 10.0, 4.0, 5.0, 18.0, 7.0, 34.0, 17.0, 20.0, 55.0, 6.0, 5.0, 3.0, 7.0, 7.0, 39.0, 10.0, 13.0, 19.0, 29.0, 11.0, 23.0, 29.0, 7.0, 3.0, 2.0, 26.0, 11.0, 14.0, 12.0, 2.0, 9.0, 50.0, 4.0, 15.0, 8.0, 13.0, 3.0, 35.0, 7.0, 6.0, 10.0, 8.0, 4.0, 12.0, 16.0, 51.0, 21.0, 28.0, 7.0, 5.0, 4.0, 32.0, 9.0, 22.0, 6.0, 5.0, 3.0, 10.0, 4.0, 10.0, 6.0, 10.0, 5.0, 2.0, 42.0, 20.0, 6.0, 6.0, 22.0, 15.0, 16.0, 20.0, 1.0, 16.0, 41.0, 20.0, 7.0, 6.0, 10.0, 17.0, 5.0, 39.0, 18.0, 2.0, 4.0, 9.0, 75.0, 8.0, 36.0, 50.0, 37.0, 6.0, 35.0, 16.0, 4.0, 5.0, 5.0, 29.0, 3.0, 2.0, 24.0, 4.0, 19.0, 29.0, 4.0, 6.0, 18.0, 9.0, 5.0, 14.0, 11.0, 7.0, 25.0, 22.0, 6.0, 8.0, 8.0, 6.0, 9.0, 80.0, 26.0, 7.0, 2.0, 7.0, 47.0, 9.0, 7.0, 9.0, 10.0, 11.0, 11.0, 15.0, 53.0, 8.0, 14.0, 15.0, 25.0, 3.0, 28.0, 16.0, 21.0, 23.0, 54.0, 40.0, 47.0, 31.0, 15.0, 131.0, 14.0, 14.0, 6.0, 7.0, 40.0, 21.0, 13.0, 15.0, 94.0, 39.0, 36.0, 52.0, 20.0, 88.0, 15.0, 30.0, 17.0, 15.0, 94.0, 13.0, 25.0, 20.0, 44.0, 49.0, 15.0, 20.0, 18.0, 32.0, 45.0, 31.0, 49.0, 29.0, 28.0, 21.0, 18.0, 19.0, 49.0, 58.0, 59.0, 55.0, 28.0, 40.0, 24.0, 37.0, 65.0, 54.0, 48.0, 74.0, 28.0, 28.0, 56.0, 38.0, 52.0, 66.0, 44.0, 35.0, 62.0, 32.0, 61.0, 84.0, 40.0, 53.0, 63.0, 150.0, 28.0, 84.0, 112.0, 41.0, 58.0, 79.0, 75.0, 47.0, 78.0, 61.0, 168.0, 60.0, 113.0, 73.0, 88.0, 59.0, 91.0, 85.0, 174.0, 148.0, 115.0, 98.0, 115.0, 174.0, 88.0, 132.0, 99.0, 159.0]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[9.0, 7.0, 17.0, 5.0, 6.0, 7.0, 13.0, 7.0, 5.0, 10.0, 19.0, 1.0, 11.0, 7.0, 22.0, 13.0, 8.0, 10.0, 4.0, 15.0, 15.0, 4.0, 12.0, 20.0, 4.0, 6.0, 11.0, 25.0, 10.0, 1.0, 2.0, 10.0, 32.0, 3.0, 5.0, 11.0, 32.0, 19.0, 15.0, 8.0, 15.0, 26.0, 3.0, 5.0, 42.0, 0.0, 14.0, 5.0, 3.0, 11.0, 35.0, 30.0, 11.0, 15.0, 46.0, 46.0, 15.0, 10.0, 3.0, 12.0, 10.0, 4.0, 1.0, 25.0, 8.0, 11.0, 3.0, 3.0, 9.0, 42.0, 7.0, 15.0, 9.0, 1.0, 7.0, 2.0, 25.0, 30.0, 8.0, 17.0, 6.0, 6.0, 5.0, 35.0, 5.0, 17.0, 4.0, 3.0, 9.0, 17.0, 4.0, 10.0, 6.0, 3.0, 16.0, 12.0, 17.0, 15.0, 26.0, 31.0, 7.0, 32.0, 35.0, 27.0, 29.0, 17.0, 2.0, 5.0, 7.0, 35.0, 34.0, 0.0, 30.0, 2.0, 10.0, 2.0, 30.0, 89.0, 10.0, 17.0, 3.0, 5.0, 7.0, 11.0, 18.0, 12.0, 4.0, 70.0, 7.0, 21.0, 5.0, 28.0, 6.0, 9.0, 20.0, 5.0, 39.0, 10.0, 12.0, 2.0, 33.0, 5.0, 17.0, 5.0, 65.0, 11.0, 0.0, 6.0, 5.0, 10.0, 23.0, 5.0, 1.0, 16.0, 5.0, 0.0, 7.0, 4.0, 22.0, 13.0, 1.0, 4.0, 8.0, 5.0, 13.0, 6.0, 15.0, 5.0, 5.0, 13.0, 6.0, 3.0, 7.0, 6.0, 2.0, 4.0, 7.0, 2.0, 2.0, 11.0, 6.0, 12.0, 14.0, 5.0, 14.0, 2.0, 9.0, 9.0, 11.0, 9.0, 2.0, 13.0, 3.0, 25.0, 71.0, 11.0, 1.0, 3.0, 14.0, 2.0, 13.0, 4.0, 4.0, 5.0, 49.0, 1.0, 8.0, 22.0, 4.0, 7.0, 8.0, 1.0, 12.0, 5.0, 2.0, 24.0, 9.0, 12.0, 6.0, 16.0, 9.0, 13.0, 2.0, 27.0, 7.0, 13.0, 5.0, 2.0, 15.0, 4.0, 9.0, 2.0, 2.0, 13.0, 2.0, 9.0, 1.0, 25.0, 6.0, 1.0, 13.0, 44.0, 4.0, 4.0, 7.0, 8.0, 11.0, 5.0, 14.0, 7.0, 6.0, 9.0, 1.0, 12.0, 5.0, 6.0, 40.0, 17.0, 30.0, 3.0, 1.0, 4.0, 4.0, 2.0, 10.0, 10.0, 1.0, 3.0, 3.0, 19.0, 3.0, 3.0, 7.0, 3.0, 10.0, 4.0, 5.0, 10.0, 2.0, 11.0, 12.0, 11.0, 45.0, 5.0, 6.0, 4.0, 1.0, 5.0, 4.0, 16.0, 5.0, 9.0, 10.0, 2.0, 16.0, 6.0, 8.0, 8.0, 1.0, 22.0, 7.0, 3.0, 18.0, 8.0, 3.0, 9.0, 64.0, 7.0, 11.0, 3.0, 4.0, 19.0, 11.0, 5.0, 0.0, 3.0, 9.0, 9.0, 10.0, 10.0, 10.0, 17.0, 8.0, 11.0, 19.0, 44.0, 14.0, 4.0, 5.0, 4.0, 20.0, 10.0, 15.0, 2.0, 36.0, 3.0, 10.0, 5.0, 5.0, 8.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 6.0, 1.0, 1.0, 10.0, 3.0, 6.0, 4.0, 4.0, 5.0, 19.0, 12.0, 1.0, 4.0, 9.0, 7.0, 2.0, 19.0, 20.0, 2.0, 5.0, 5.0, 3.0, 6.0, 3.0, 3.0, 6.0, 9.0, 1.0, 6.0, 28.0, 36.0, 9.0, 28.0, 19.0, 7.0, 8.0, 4.0, 35.0, 6.0, 9.0, 10.0, 14.0, 9.0, 2.0, 9.0, 3.0, 5.0, 22.0, 11.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 13.0, 6.0, 9.0, 2.0, 2.0, 12.0, 29.0, 16.0, 9.0, 23.0, 11.0, 12.0, 18.0, 5.0, 2.0, 7.0, 7.0, 3.0, 30.0, 28.0, 13.0, 13.0, 4.0, 2.0, 13.0, 26.0, 4.0, 13.0, 8.0, 4.0, 18.0, 18.0, 10.0, 12.0, 1.0, 9.0, 10.0, 3.0, 31.0, 8.0, 13.0, 43.0, 30.0, 5.0, 13.0, 27.0, 11.0, 10.0, 19.0, 18.0, 2.0, 4.0, 3.0, 6.0, 16.0, 31.0, 9.0, 22.0, 9.0, 46.0, 12.0, 10.0, 24.0, 1.0, 11.0, 8.0, 18.0, 58.0, 31.0, 10.0, 21.0, 13.0, 6.0, 68.0, 29.0, 29.0, 8.0, 15.0, 13.0, 19.0, 19.0, 10.0, 9.0, 14.0, 24.0, 19.0, 10.0, 2.0, 5.0, 3.0, 33.0, 13.0, 21.0, 27.0, 1.0, 71.0, 15.0, 1.0, 5.0, 9.0, 30.0, 7.0, 4.0, 34.0, 16.0, 21.0, 2.0, 30.0, 20.0, 9.0, 12.0, 15.0, 74.0, 15.0, 49.0, 29.0, 20.0, 25.0, 27.0, 10.0, 15.0, 62.0, 26.0, 5.0, 6.0, 13.0, 25.0, 28.0, 26.0, 31.0, 48.0, 44.0, 37.0, 31.0, 42.0, 43.0, 15.0, 4.0, 12.0, 40.0, 9.0, 8.0, 46.0, 35.0, 3.0, 9.0, 11.0, 3.0, 43.0, 78.0, 40.0, 5.0, 31.0, 14.0, 27.0, 47.0, 7.0, 34.0, 61.0, 51.0, 4.0, 24.0, 17.0, 43.0, 52.0, 25.0, 46.0, 25.0, 56.0, 68.0, 23.0, 2.0, 56.0, 7.0, 73.0, 13.0, 10.0, 86.0, 8.0, 64.0, 17.0, 12.0, 1.0, 4.0, 12.0, 15.0, 13.0, 6.0, 24.0, 2.0, 4.0, 43.0, 10.0, 6.0, 12.0, 7.0, 3.0, 6.0, 0.0, 6.0, 7.0, 3.0, 10.0, 24.0, 10.0, 5.0, 5.0, 24.0, 11.0, 22.0, 7.0, 7.0, 13.0, 3.0, 7.0, 6.0, 24.0, 5.0, 4.0, 15.0, 2.0, 8.0, 4.0, 2.0, 51.0, 4.0, 4.0, 11.0, 5.0, 21.0, 14.0, 39.0, 9.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 44.0, 13.0, 11.0, 5.0, 3.0, 3.0, 1.0, 19.0, 21.0, 4.0, 11.0, 2.0, 70.0, 2.0, 5.0, 9.0, 21.0, 37.0, 2.0, 11.0, 2.0, 4.0, 2.0, 3.0, 2.0, 6.0, 8.0, 13.0, 12.0, 2.0, 6.0, 3.0, 8.0, 16.0, 5.0, 10.0, 4.0, 11.0, 2.0, 2.0, 8.0, 15.0, 0.0, 1.0, 3.0, 6.0, 5.0, 5.0, 3.0, 0.0, 6.0, 1.0, 4.0, 14.0, 3.0, 1.0, 23.0, 10.0, 13.0, 1.0, 16.0, 7.0, 4.0, 6.0, 13.0, 10.0, 7.0, 3.0, 0.0, 3.0, 2.0, 41.0, 24.0, 10.0, 10.0, 3.0, 2.0, 0.0, 1.0, 7.0, 10.0, 21.0, 6.0, 7.0, 1.0, 4.0, 1.0, 9.0, 13.0, 9.0, 11.0, 10.0, 22.0, 12.0, 10.0, 1.0, 27.0, 1.0, 9.0, 8.0, 8.0, 3.0, 5.0, 3.0, 8.0, 14.0, 15.0, 17.0, 0.0, 2.0, 5.0, 3.0, 1.0, 7.0, 9.0, 2.0, 13.0, 20.0, 6.0, 21.0, 1.0, 6.0, 4.0, 7.0, 6.0, 9.0, 6.0, 3.0, 1.0, 36.0, 3.0, 4.0, 4.0, 4.0, 4.0, 1.0, 13.0, 4.0, 7.0, 6.0, 10.0, 9.0, 11.0, 6.0, 17.0, 10.0, 36.0, 39.0, 13.0, 9.0, 14.0, 12.0, 7.0, 1.0, 1.0, 13.0, 14.0, 12.0, 5.0, 10.0, 2.0, 12.0, 15.0, 8.0, 3.0, 7.0, 9.0, 7.0, 8.0, 15.0, 5.0, 8.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 13.0, 1.0, 2.0, 4.0, 3.0, 7.0, 11.0, 3.0, 5.0, 3.0, 15.0, 33.0, 11.0, 4.0, 3.0, 7.0, 4.0, 8.0, 23.0, 2.0, 9.0, 14.0, 3.0, 12.0, 2.0, 32.0, 5.0, 3.0, 8.0, 7.0, 6.0, 0.0, 3.0, 0.0, 8.0, 7.0, 3.0, 1.0, 6.0, 10.0, 3.0, 10.0, 2.0, 11.0, 1.0, 10.0, 9.0, 12.0, 5.0, 4.0, 17.0, 13.0, 7.0, 9.0, 14.0, 7.0, 2.0, 8.0, 6.0, 12.0, 24.0, 17.0, 5.0, 15.0, 4.0, 5.0, 1.0, 8.0, 5.0, 8.0, 4.0, 3.0, 7.0, 5.0, 4.0, 2.0, 8.0, 6.0, 17.0, 6.0, 5.0, 27.0, 10.0, 6.0, 4.0, 4.0, 17.0, 4.0, 8.0, 5.0, 8.0, 0.0, 7.0, 14.0, 16.0, 5.0, 13.0, 2.0, 8.0, 10.0, 1.0, 4.0, 3.0, 11.0, 1.0, 10.0, 7.0, 13.0, 10.0, 5.0, 15.0, 9.0, 13.0, 5.0, 9.0, 13.0, 16.0, 20.0, 5.0, 10.0, 5.0, 17.0, 6.0, 10.0, 10.0, 21.0, 7.0, 10.0, 3.0, 8.0, 14.0, 8.0, 15.0, 8.0, 4.0, 3.0, 5.0, 8.0, 13.0, 9.0, 10.0, 3.0, 10.0, 5.0, 10.0, 12.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 6.0, 4.0, 5.0, 3.0, 4.0, 7.0, 34.0, 55.0, 6.0, 5.0, 7.0, 19.0, 12.0, 2.0, 9.0, 4.0, 8.0, 13.0, 10.0, 51.0, 7.0, 5.0, 32.0, 22.0, 5.0, 3.0, 4.0, 10.0, 5.0, 2.0, 42.0, 20.0, 22.0, 1.0, 16.0, 5.0, 9.0, 6.0, 35.0, 5.0, 24.0, 4.0, 19.0, 29.0, 14.0, 11.0, 7.0, 8.0, 9.0, 26.0, 7.0, 2.0, 9.0, 7.0, 9.0, 10.0, 11.0, 3.0, 28.0, 16.0, 21.0, 23.0, 47.0, 15.0, 14.0, 6.0, 7.0, 40.0, 20.0, 30.0, 25.0, 20.0, 49.0, 15.0, 18.0, 45.0, 49.0, 29.0, 18.0, 28.0, 40.0, 24.0, 48.0, 28.0, 52.0, 44.0, 32.0, 40.0, 41.0, 75.0, 47.0, 61.0, 60.0, 59.0, 88.0]</t>
+          <t>[9.0, 7.0, 17.0, 5.0, 6.0, 7.0, 13.0, 7.0, 5.0, 10.0, 19.0, 1.0, 11.0, 7.0, 22.0, 13.0, 8.0, 10.0, 4.0, 15.0, 15.0, 4.0, 12.0, 20.0, 4.0, 6.0, 11.0, 25.0, 10.0, 1.0, 2.0, 10.0, 32.0, 3.0, 5.0, 11.0, 32.0, 19.0, 15.0, 8.0, 15.0, 26.0, 3.0, 5.0, 42.0, 0.0, 14.0, 5.0, 3.0, 11.0, 35.0, 30.0, 11.0, 15.0, 46.0, 46.0, 15.0, 10.0, 3.0, 12.0, 10.0, 4.0, 1.0, 25.0, 8.0, 11.0, 3.0, 3.0, 9.0, 42.0, 7.0, 15.0, 9.0, 1.0, 7.0, 2.0, 25.0, 30.0, 8.0, 17.0, 6.0, 6.0, 5.0, 35.0, 5.0, 17.0, 4.0, 3.0, 9.0, 17.0, 4.0, 10.0, 6.0, 3.0, 16.0, 12.0, 17.0, 15.0, 26.0, 31.0, 7.0, 32.0, 35.0, 27.0, 29.0, 17.0, 2.0, 5.0, 7.0, 35.0, 34.0, 0.0, 30.0, 2.0, 10.0, 2.0, 30.0, 89.0, 10.0, 17.0, 3.0, 5.0, 7.0, 11.0, 18.0, 12.0, 4.0, 70.0, 7.0, 21.0, 5.0, 28.0, 6.0, 9.0, 20.0, 5.0, 39.0, 10.0, 12.0, 2.0, 33.0, 5.0, 17.0, 5.0, 65.0, 11.0, 0.0, 6.0, 5.0, 10.0, 23.0, 5.0, 1.0, 16.0, 5.0, 0.0, 7.0, 4.0, 22.0, 13.0, 1.0, 4.0, 8.0, 5.0, 13.0, 6.0, 15.0, 5.0, 5.0, 13.0, 6.0, 3.0, 7.0, 6.0, 2.0, 4.0, 7.0, 2.0, 2.0, 11.0, 6.0, 12.0, 14.0, 5.0, 14.0, 2.0, 9.0, 9.0, 11.0, 9.0, 2.0, 13.0, 3.0, 25.0, 71.0, 11.0, 1.0, 3.0, 14.0, 2.0, 13.0, 4.0, 4.0, 5.0, 49.0, 1.0, 8.0, 22.0, 4.0, 7.0, 8.0, 1.0, 12.0, 5.0, 2.0, 24.0, 9.0, 12.0, 6.0, 16.0, 9.0, 13.0, 2.0, 27.0, 7.0, 13.0, 5.0, 2.0, 15.0, 4.0, 9.0, 2.0, 2.0, 13.0, 2.0, 9.0, 1.0, 25.0, 6.0, 1.0, 13.0, 44.0, 4.0, 4.0, 7.0, 8.0, 11.0, 5.0, 14.0, 7.0, 6.0, 9.0, 1.0, 12.0, 5.0, 6.0, 40.0, 17.0, 30.0, 3.0, 1.0, 4.0, 4.0, 2.0, 10.0, 10.0, 1.0, 3.0, 3.0, 19.0, 3.0, 3.0, 7.0, 3.0, 10.0, 4.0, 5.0, 10.0, 2.0, 11.0, 12.0, 11.0, 45.0, 5.0, 6.0, 4.0, 1.0, 5.0, 4.0, 16.0, 5.0, 9.0, 10.0, 2.0, 16.0, 6.0, 8.0, 8.0, 1.0, 22.0, 7.0, 3.0, 18.0, 8.0, 3.0, 9.0, 64.0, 7.0, 11.0, 3.0, 4.0, 19.0, 11.0, 5.0, 0.0, 3.0, 9.0, 9.0, 10.0, 10.0, 10.0, 17.0, 8.0, 11.0, 19.0, 44.0, 14.0, 4.0, 5.0, 4.0, 20.0, 10.0, 15.0, 2.0, 36.0, 3.0, 10.0, 5.0, 5.0, 8.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 6.0, 1.0, 1.0, 10.0, 3.0, 6.0, 4.0, 4.0, 5.0, 19.0, 12.0, 1.0, 4.0, 9.0, 7.0, 2.0, 19.0, 20.0, 2.0, 5.0, 5.0, 3.0, 6.0, 3.0, 3.0, 6.0, 9.0, 1.0, 6.0, 28.0, 36.0, 9.0, 28.0, 19.0, 7.0, 8.0, 4.0, 35.0, 6.0, 9.0, 10.0, 14.0, 9.0, 2.0, 9.0, 3.0, 5.0, 22.0, 11.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 13.0, 6.0, 9.0, 2.0, 2.0, 12.0, 29.0, 16.0, 9.0, 23.0, 11.0, 12.0, 18.0, 5.0, 2.0, 7.0, 7.0, 3.0, 30.0, 28.0, 13.0, 13.0, 4.0, 2.0, 13.0, 26.0, 4.0, 13.0, 8.0, 4.0, 18.0, 18.0, 10.0, 12.0, 1.0, 9.0, 10.0, 3.0, 31.0, 8.0, 13.0, 43.0, 30.0, 5.0, 13.0, 27.0, 11.0, 10.0, 19.0, 18.0, 2.0, 4.0, 3.0, 6.0, 16.0, 31.0, 9.0, 22.0, 9.0, 46.0, 12.0, 10.0, 24.0, 1.0, 11.0, 8.0, 18.0, 58.0, 31.0, 10.0, 21.0, 13.0, 6.0, 68.0, 29.0, 29.0, 8.0, 15.0, 13.0, 19.0, 19.0, 10.0, 9.0, 14.0, 24.0, 19.0, 10.0, 2.0, 5.0, 3.0, 33.0, 13.0, 21.0, 27.0, 1.0, 71.0, 15.0, 1.0, 5.0, 9.0, 30.0, 7.0, 4.0, 34.0, 16.0, 21.0, 2.0, 30.0, 20.0, 9.0, 12.0, 15.0, 74.0, 15.0, 49.0, 29.0, 20.0, 25.0, 27.0, 10.0, 15.0, 62.0, 26.0, 5.0, 6.0, 13.0, 25.0, 28.0, 26.0, 31.0, 48.0, 44.0, 37.0, 31.0, 42.0, 43.0, 15.0, 4.0, 12.0, 40.0, 9.0, 8.0, 46.0, 35.0, 3.0, 9.0, 11.0, 3.0, 43.0, 78.0, 40.0, 5.0, 31.0, 14.0, 27.0, 47.0, 7.0, 34.0, 61.0, 51.0, 4.0, 24.0, 17.0, 43.0, 52.0, 25.0, 46.0, 25.0, 56.0, 68.0, 113.0, 23.0, 99.0, 2.0, 107.0, 56.0, 7.0, 92.0, 73.0, 13.0, 169.0, 10.0, 86.0, 137.0, 8.0, 64.0, 17.0, 12.0, 1.0, 130.0, 4.0, 12.0, 109.0, 15.0, 13.0, 6.0, 24.0, 2.0, 4.0, 43.0, 10.0, 6.0, 12.0, 7.0, 3.0, 6.0, 0.0, 6.0, 7.0, 3.0, 10.0, 24.0, 10.0, 5.0, 5.0, 24.0, 11.0, 22.0, 7.0, 7.0, 13.0, 3.0, 7.0, 6.0, 24.0, 5.0, 4.0, 15.0, 2.0, 8.0, 4.0, 2.0, 51.0, 4.0, 4.0, 11.0, 5.0, 21.0, 14.0, 39.0, 9.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 44.0, 13.0, 11.0, 5.0, 3.0, 3.0, 1.0, 19.0, 21.0, 4.0, 11.0, 2.0, 70.0, 2.0, 5.0, 9.0, 21.0, 37.0, 2.0, 11.0, 2.0, 4.0, 2.0, 3.0, 2.0, 6.0, 8.0, 13.0, 12.0, 2.0, 6.0, 3.0, 8.0, 16.0, 5.0, 10.0, 4.0, 11.0, 2.0, 2.0, 8.0, 15.0, 0.0, 1.0, 3.0, 6.0, 5.0, 5.0, 3.0, 0.0, 6.0, 1.0, 4.0, 14.0, 3.0, 1.0, 23.0, 10.0, 13.0, 1.0, 16.0, 7.0, 4.0, 6.0, 13.0, 10.0, 7.0, 3.0, 0.0, 3.0, 2.0, 41.0, 24.0, 10.0, 10.0, 3.0, 2.0, 0.0, 1.0, 7.0, 10.0, 21.0, 6.0, 7.0, 1.0, 4.0, 1.0, 9.0, 13.0, 9.0, 11.0, 10.0, 22.0, 12.0, 10.0, 1.0, 27.0, 1.0, 9.0, 8.0, 8.0, 3.0, 5.0, 3.0, 8.0, 14.0, 15.0, 17.0, 0.0, 2.0, 5.0, 3.0, 1.0, 7.0, 9.0, 2.0, 13.0, 20.0, 6.0, 21.0, 1.0, 6.0, 4.0, 7.0, 6.0, 9.0, 6.0, 3.0, 1.0, 36.0, 3.0, 4.0, 4.0, 4.0, 4.0, 1.0, 13.0, 4.0, 7.0, 6.0, 10.0, 9.0, 11.0, 6.0, 17.0, 10.0, 36.0, 39.0, 13.0, 9.0, 14.0, 12.0, 7.0, 1.0, 1.0, 13.0, 14.0, 12.0, 5.0, 10.0, 2.0, 12.0, 15.0, 8.0, 3.0, 7.0, 9.0, 7.0, 8.0, 15.0, 5.0, 8.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 13.0, 1.0, 2.0, 4.0, 3.0, 7.0, 11.0, 3.0, 5.0, 3.0, 15.0, 33.0, 11.0, 4.0, 3.0, 7.0, 4.0, 8.0, 23.0, 2.0, 9.0, 14.0, 3.0, 12.0, 2.0, 32.0, 5.0, 3.0, 8.0, 7.0, 6.0, 0.0, 3.0, 0.0, 8.0, 7.0, 3.0, 1.0, 6.0, 10.0, 3.0, 10.0, 2.0, 11.0, 1.0, 10.0, 9.0, 12.0, 5.0, 4.0, 17.0, 13.0, 7.0, 9.0, 14.0, 7.0, 2.0, 8.0, 6.0, 12.0, 24.0, 17.0, 5.0, 15.0, 4.0, 5.0, 1.0, 8.0, 5.0, 8.0, 4.0, 3.0, 7.0, 5.0, 4.0, 2.0, 8.0, 6.0, 17.0, 6.0, 5.0, 27.0, 10.0, 6.0, 4.0, 4.0, 17.0, 4.0, 8.0, 5.0, 8.0, 0.0, 7.0, 14.0, 16.0, 5.0, 13.0, 2.0, 8.0, 10.0, 1.0, 4.0, 3.0, 11.0, 1.0, 10.0, 7.0, 13.0, 10.0, 5.0, 15.0, 9.0, 13.0, 5.0, 9.0, 13.0, 16.0, 20.0, 5.0, 10.0, 5.0, 17.0, 6.0, 10.0, 10.0, 21.0, 7.0, 10.0, 3.0, 8.0, 14.0, 8.0, 15.0, 8.0, 4.0, 3.0, 5.0, 8.0, 13.0, 9.0, 10.0, 3.0, 10.0, 5.0, 10.0, 12.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 6.0, 4.0, 5.0, 3.0, 4.0, 7.0, 34.0, 55.0, 6.0, 5.0, 7.0, 19.0, 12.0, 2.0, 9.0, 4.0, 8.0, 13.0, 10.0, 51.0, 7.0, 5.0, 32.0, 22.0, 5.0, 3.0, 4.0, 10.0, 5.0, 2.0, 42.0, 20.0, 22.0, 1.0, 16.0, 5.0, 9.0, 6.0, 35.0, 5.0, 24.0, 4.0, 19.0, 29.0, 14.0, 11.0, 7.0, 8.0, 9.0, 26.0, 7.0, 2.0, 9.0, 7.0, 9.0, 10.0, 11.0, 3.0, 28.0, 16.0, 21.0, 23.0, 47.0, 15.0, 14.0, 6.0, 7.0, 40.0, 20.0, 30.0, 25.0, 20.0, 49.0, 15.0, 18.0, 45.0, 49.0, 29.0, 18.0, 28.0, 40.0, 24.0, 48.0, 28.0, 52.0, 44.0, 32.0, 40.0, 41.0, 75.0, 47.0, 61.0, 60.0, 59.0, 115.0, 98.0, 115.0, 88.0]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[11.0, 7.0, 11.0, 16.0, 6.0, 5.0, 6.0, 3.0, 14.0, 7.0, 4.0, 18.0, 11.0, 2.0, 20.0, 7.0, 14.0, 25.0, 11.0, 12.0, 9.0, 14.0, 2.0, 3.0, 1.0, 14.0, 18.0, 13.0, 21.0, 7.0, 34.0, 13.0, 2.0, 24.0, 17.0, 32.0, 22.0, 8.0, 19.0, 11.0, 11.0, 6.0, 5.0, 46.0, 4.0, 27.0, 19.0, 20.0, 19.0, 14.0, 4.0, 14.0, 11.0, 8.0, 21.0, 47.0, 5.0, 24.0, 7.0, 25.0, 15.0, 15.0, 7.0, 8.0, 3.0, 11.0, 8.0, 23.0, 18.0, 24.0, 47.0, 2.0, 10.0, 9.0, 15.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 20.0, 16.0, 9.0, 21.0, 10.0, 3.0, 46.0, 29.0, 7.0, 44.0, 37.0, 17.0, 13.0, 20.0, 4.0, 14.0, 4.0, 27.0, 7.0, 15.0, 5.0, 12.0, 36.0, 17.0, 36.0, 28.0, 7.0, 7.0, 22.0, 20.0, 57.0, 15.0, 28.0, 16.0, 19.0, 19.0, 15.0, 11.0, 9.0, 20.0, 7.0, 25.0, 40.0, 12.0, 9.0, 20.0, 31.0, 40.0, 8.0, 29.0, 7.0, 10.0, 19.0, 1.0, 61.0, 17.0, 13.0, 20.0, 36.0, 21.0, 33.0, 7.0, 4.0, 52.0, 25.0, 33.0, 10.0, 3.0, 17.0, 23.0, 40.0, 10.0, 32.0, 44.0, 43.0, 43.0, 26.0, 13.0, 19.0, 8.0, 13.0, 9.0, 3.0, 11.0, 16.0, 16.0, 59.0, 3.0, 17.0, 16.0, 3.0, 49.0, 43.0, 34.0, 4.0, 6.0, 30.0, 26.0, 7.0, 16.0, 28.0, 42.0, 31.0, 33.0, 4.0, 22.0, 21.0, 79.0, 8.0, 29.0, 11.0, 10.0, 47.0, 32.0, 32.0, 16.0, 25.0, 3.0, 13.0, 20.0, 60.0, 6.0, 14.0, 25.0, 7.0, 61.0, 21.0, 15.0, 1.0, 14.0, 15.0, 8.0, 54.0, 20.0, 6.0, 72.0, 14.0, 2.0, 7.0, 9.0, 15.0, 10.0, 5.0, 6.0, 9.0, 24.0, 10.0, 34.0, 10.0, 11.0, 31.0, 25.0, 28.0, 1.0, 24.0, 37.0, 21.0, 30.0, 2.0, 10.0, 17.0, 11.0, 5.0, 20.0, 24.0, 9.0, 26.0, 25.0, 33.0, 27.0, 1.0, 72.0, 5.0, 13.0, 20.0, 9.0, 17.0, 3.0, 23.0, 17.0, 48.0, 11.0, 6.0, 15.0, 37.0, 21.0, 24.0, 76.0, 15.0, 70.0, 27.0, 39.0, 21.0, 24.0, 61.0, 4.0, 45.0, 9.0, 13.0, 20.0, 17.0, 68.0, 18.0, 6.0, 21.0, 40.0, 73.0, 11.0, 44.0, 13.0, 21.0, 18.0, 73.0, 9.0, 10.0, 42.0, 13.0, 54.0, 31.0, 36.0, 16.0, 17.0, 2.0, 44.0, 6.0, 18.0, 18.0, 11.0, 9.0, 22.0, 65.0, 61.0, 41.0, 5.0, 72.0, 31.0, 8.0, 10.0, 3.0, 30.0, 12.0, 0.0, 4.0, 21.0, 86.0, 2.0, 16.0, 38.0, 25.0, 15.0, 3.0, 25.0, 21.0, 4.0, 21.0, 10.0, 19.0, 7.0, 7.0, 35.0, 12.0, 16.0, 49.0, 27.0, 42.0, 42.0, 9.0, 36.0, 29.0, 9.0, 3.0, 12.0, 22.0, 8.0, 22.0, 12.0, 19.0, 18.0, 35.0, 15.0, 15.0, 6.0, 14.0, 22.0, 49.0, 12.0, 14.0, 20.0, 37.0, 10.0, 18.0, 84.0, 12.0, 16.0, 21.0, 6.0, 77.0, 22.0, 48.0, 49.0, 11.0, 29.0, 12.0, 10.0, 45.0, 27.0, 10.0, 13.0, 19.0, 18.0, 46.0, 46.0, 6.0, 16.0, 32.0, 30.0, 50.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 4.0, 12.0, 3.0, 15.0, 8.0, 17.0, 13.0, 20.0, 18.0, 23.0, 3.0, 33.0, 21.0, 31.0, 17.0, 13.0, 23.0, 13.0, 15.0, 15.0, 21.0, 19.0, 27.0, 16.0, 13.0, 12.0, 5.0, 24.0, 28.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 30.0, 40.0, 3.0, 45.0, 34.0, 17.0, 24.0, 19.0, 24.0, 28.0, 17.0, 2.0, 33.0, 25.0, 19.0, 26.0, 33.0, 7.0, 33.0, 20.0, 19.0, 24.0, 49.0, 8.0, 12.0, 20.0, 5.0, 5.0, 7.0, 39.0, 37.0, 35.0, 21.0, 34.0, 18.0, 70.0, 70.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 18.0, 18.0, 20.0, 48.0, 7.0, 10.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 19.0, 88.0, 11.0, 7.0, 24.0, 1.0, 10.0, 27.0, 13.0, 38.0, 21.0, 2.0, 15.0, 23.0, 3.0, 14.0, 14.0, 20.0, 28.0, 72.0, 12.0, 10.0, 24.0, 19.0, 17.0, 37.0, 9.0, 15.0, 25.0, 10.0, 53.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 24.0, 2.0, 2.0, 9.0, 73.0, 9.0, 15.0, 10.0, 18.0, 5.0, 24.0, 54.0, 54.0, 5.0, 28.0, 17.0, 12.0, 13.0, 61.0, 23.0, 14.0, 36.0, 14.0, 11.0, 10.0, 14.0, 14.0, 31.0, 3.0, 14.0, 17.0, 14.0, 42.0, 42.0, 7.0, 52.0, 23.0, 77.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 4.0, 26.0, 3.0, 11.0, 33.0, 33.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 77.0, 8.0, 10.0, 34.0, 8.0, 10.0, 14.0, 9.0, 5.0, 10.0, 18.0, 31.0, 35.0, 9.0, 28.0, 9.0, 24.0, 87.0, 23.0, 18.0, 6.0, 30.0, 9.0, 35.0, 31.0, 4.0, 21.0, 18.0, 12.0, 18.0, 20.0, 4.0, 11.0, 26.0, 4.0, 7.0, 10.0, 20.0, 12.0, 36.0, 5.0, 20.0, 10.0, 22.0, 9.0, 46.0, 52.0, 11.0, 8.0, 8.0, 23.0, 47.0, 27.0, 20.0, 53.0, 20.0, 26.0, 19.0, 13.0, 15.0, 31.0, 21.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 7.0, 1.0, 70.0, 8.0, 11.0, 15.0, 13.0, 18.0, 13.0, 24.0, 9.0, 75.0, 27.0, 27.0, 12.0, 21.0, 7.0, 9.0, 15.0, 33.0, 30.0, 8.0, 13.0, 21.0, 18.0, 28.0, 34.0, 51.0, 23.0, 23.0, 21.0, 8.0, 29.0, 64.0, 12.0, 12.0, 14.0, 17.0, 22.0, 15.0, 31.0, 18.0, 46.0, 24.0, 10.0, 61.0, 7.0, 52.0, 28.0, 31.0, 31.0, 16.0, 20.0, 53.0, 5.0, 8.0, 5.0, 22.0, 15.0, 9.0, 14.0, 21.0, 8.0, 13.0, 22.0, 83.0, 17.0, 45.0, 21.0, 39.0, 85.0, 19.0, 17.0, 43.0, 27.0, 16.0, 10.0, 74.0, 14.0, 53.0, 37.0, 17.0, 6.0, 16.0, 42.0, 59.0, 1.0, 4.0, 18.0, 6.0, 11.0, 16.0, 18.0, 24.0, 10.0, 8.0, 18.0, 12.0, 8.0, 60.0, 18.0, 31.0, 4.0, 28.0, 43.0, 5.0, 16.0, 42.0, 42.0, 32.0, 16.0, 65.0, 19.0, 26.0, 25.0, 5.0, 12.0, 23.0, 28.0, 17.0, 40.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 29.0, 44.0, 16.0, 9.0, 36.0, 22.0, 8.0, 6.0, 13.0, 13.0, 10.0, 6.0, 76.0, 80.0, 18.0, 24.0, 18.0, 37.0, 21.0, 29.0, 14.0, 37.0, 32.0, 36.0, 60.0, 26.0, 11.0, 36.0, 4.0, 33.0, 9.0, 5.0, 24.0, 20.0, 20.0, 1.0, 5.0, 27.0, 11.0, 29.0, 36.0, 22.0, 21.0, 69.0, 75.0, 11.0, 16.0, 27.0, 8.0, 55.0, 12.0, 51.0, 29.0, 3.0, 26.0, 9.0, 5.0, 14.0, 15.0, 44.0, 34.0, 16.0, 53.0, 30.0, 54.0, 1.0, 7.0, 2.0, 15.0, 12.0, 31.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 19.0, 39.0, 68.0, 20.0, 22.0, 7.0, 26.0, 5.0, 27.0, 12.0, 19.0, 18.0, 12.0, 28.0, 10.0, 7.0, 25.0, 11.0, 73.0, 11.0, 25.0, 5.0, 17.0, 15.0, 11.0, 8.0, 45.0, 12.0, 18.0, 5.0, 0.0, 20.0, 34.0, 4.0, 4.0, 26.0, 32.0, 1.0, 18.0, 41.0, 3.0, 11.0, 10.0, 3.0, 19.0, 15.0, 4.0, 45.0, 25.0, 23.0, 16.0, 53.0, 17.0, 5.0, 1.0, 16.0, 15.0, 44.0, 46.0, 24.0, 75.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 62.0, 3.0, 17.0, 17.0, 41.0, 11.0, 25.0, 18.0, 6.0, 7.0, 37.0, 14.0, 70.0, 8.0, 34.0, 26.0, 6.0, 14.0, 33.0, 5.0, 7.0, 3.0, 11.0, 39.0, 18.0, 3.0, 15.0, 0.0, 20.0, 48.0, 19.0, 13.0, 18.0, 15.0, 10.0, 19.0, 14.0, 3.0, 16.0, 45.0, 10.0, 11.0, 70.0, 36.0, 41.0, 55.0, 4.0, 35.0, 9.0, 29.0, 29.0, 35.0, 18.0, 50.0, 9.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 9.0, 44.0, 22.0, 3.0, 9.0, 72.0, 8.0, 2.0, 72.0, 18.0, 11.0, 3.0, 36.0, 7.0, 14.0, 18.0, 30.0, 6.0, 40.0, 26.0, 35.0, 22.0, 31.0, 44.0, 26.0, 4.0, 14.0, 15.0, 23.0, 38.0, 23.0, 30.0, 58.0, 21.0, 20.0, 17.0, 26.0, 12.0, 45.0, 10.0, 6.0, 20.0, 6.0, 5.0, 11.0, 32.0, 18.0, 21.0, 31.0, 47.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 62.0, 3.0, 34.0, 17.0, 22.0, 18.0, 12.0, 4.0, 10.0, 35.0, 9.0, 21.0, 20.0, 43.0, 55.0, 6.0, 46.0, 25.0, 20.0, 9.0, 24.0, 7.0, 26.0, 6.0, 18.0, 10.0, 9.0, 40.0, 14.0, 20.0, 17.0, 17.0, 56.0, 34.0, 56.0, 18.0, 55.0, 34.0, 29.0, 50.0, 14.0, 27.0, 40.0, 31.0, 20.0, 16.0, 12.0, 78.0, 53.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 25.0, 6.0, 12.0, 4.0, 31.0, 5.0, 71.0, 46.0, 36.0, 4.0, 11.0, 15.0, 18.0, 5.0, 7.0, 87.0, 24.0, 5.0, 22.0, 28.0, 23.0, 5.0, 53.0, 15.0, 19.0, 33.0, 14.0, 16.0, 14.0, 26.0, 82.0, 13.0, 11.0, 61.0, 6.0, 20.0, 9.0, 13.0, 8.0, 9.0, 23.0, 4.0, 19.0, 11.0, 14.0, 28.0, 13.0, 74.0, 13.0, 15.0, 21.0, 16.0, 38.0, 76.0, 69.0, 27.0, 3.0, 16.0, 34.0, 21.0, 26.0, 4.0, 11.0, 77.0, 15.0, 22.0, 8.0, 48.0, 19.0, 11.0, 4.0, 15.0, 33.0, 56.0, 4.0, 9.0, 12.0, 7.0, 85.0, 10.0, 62.0, 11.0, 34.0, 13.0, 0.0, 36.0, 33.0, 15.0, 40.0, 13.0, 36.0, 36.0, 8.0, 6.0, 4.0, 6.0, 15.0, 12.0, 72.0, 65.0, 32.0, 81.0, 7.0, 51.0, 19.0, 58.0, 15.0, 6.0, 6.0, 66.0, 52.0, 23.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 24.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 55.0, 29.0, 41.0, 24.0, 17.0, 35.0, 35.0, 29.0, 59.0, 22.0, 61.0, 36.0, 50.0, 10.0, 7.0, 74.0, 36.0, 44.0, 65.0]</t>
+          <t>[11.0, 7.0, 11.0, 16.0, 6.0, 5.0, 6.0, 3.0, 14.0, 7.0, 4.0, 18.0, 11.0, 2.0, 20.0, 7.0, 14.0, 25.0, 11.0, 12.0, 9.0, 14.0, 2.0, 3.0, 1.0, 14.0, 18.0, 13.0, 21.0, 7.0, 34.0, 13.0, 2.0, 24.0, 17.0, 32.0, 22.0, 8.0, 19.0, 11.0, 11.0, 6.0, 5.0, 46.0, 4.0, 27.0, 19.0, 20.0, 19.0, 14.0, 4.0, 14.0, 11.0, 8.0, 21.0, 47.0, 5.0, 24.0, 7.0, 25.0, 15.0, 15.0, 7.0, 8.0, 3.0, 11.0, 8.0, 23.0, 18.0, 24.0, 47.0, 2.0, 10.0, 9.0, 15.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 20.0, 16.0, 9.0, 21.0, 10.0, 3.0, 46.0, 29.0, 7.0, 44.0, 37.0, 17.0, 13.0, 20.0, 4.0, 14.0, 4.0, 27.0, 7.0, 15.0, 5.0, 12.0, 36.0, 17.0, 36.0, 28.0, 7.0, 7.0, 22.0, 20.0, 57.0, 15.0, 28.0, 16.0, 19.0, 19.0, 15.0, 11.0, 9.0, 20.0, 7.0, 25.0, 40.0, 12.0, 9.0, 20.0, 31.0, 40.0, 8.0, 29.0, 7.0, 10.0, 19.0, 1.0, 61.0, 17.0, 13.0, 20.0, 36.0, 21.0, 33.0, 7.0, 4.0, 52.0, 25.0, 33.0, 10.0, 3.0, 17.0, 23.0, 40.0, 10.0, 32.0, 44.0, 43.0, 43.0, 26.0, 13.0, 19.0, 8.0, 13.0, 9.0, 3.0, 11.0, 16.0, 16.0, 59.0, 3.0, 17.0, 16.0, 3.0, 49.0, 43.0, 34.0, 4.0, 6.0, 30.0, 26.0, 7.0, 16.0, 28.0, 42.0, 31.0, 33.0, 4.0, 22.0, 21.0, 79.0, 8.0, 29.0, 11.0, 10.0, 47.0, 32.0, 32.0, 16.0, 25.0, 3.0, 13.0, 20.0, 60.0, 6.0, 14.0, 25.0, 7.0, 61.0, 21.0, 15.0, 1.0, 14.0, 15.0, 8.0, 54.0, 20.0, 102.0, 6.0, 72.0, 14.0, 2.0, 7.0, 9.0, 15.0, 10.0, 5.0, 6.0, 9.0, 24.0, 10.0, 34.0, 10.0, 11.0, 31.0, 25.0, 28.0, 1.0, 24.0, 37.0, 21.0, 30.0, 2.0, 10.0, 17.0, 11.0, 5.0, 20.0, 24.0, 9.0, 26.0, 25.0, 33.0, 27.0, 1.0, 72.0, 5.0, 13.0, 20.0, 9.0, 17.0, 3.0, 23.0, 17.0, 48.0, 11.0, 6.0, 15.0, 37.0, 21.0, 24.0, 76.0, 15.0, 70.0, 27.0, 39.0, 21.0, 24.0, 61.0, 4.0, 45.0, 9.0, 13.0, 20.0, 17.0, 68.0, 18.0, 6.0, 21.0, 40.0, 73.0, 11.0, 44.0, 13.0, 21.0, 18.0, 73.0, 9.0, 10.0, 42.0, 13.0, 54.0, 97.0, 91.0, 31.0, 36.0, 16.0, 17.0, 2.0, 44.0, 6.0, 18.0, 18.0, 11.0, 9.0, 22.0, 65.0, 61.0, 41.0, 5.0, 72.0, 31.0, 8.0, 10.0, 3.0, 30.0, 12.0, 0.0, 4.0, 21.0, 86.0, 2.0, 16.0, 38.0, 25.0, 15.0, 3.0, 25.0, 21.0, 4.0, 21.0, 10.0, 19.0, 7.0, 7.0, 35.0, 12.0, 16.0, 49.0, 27.0, 42.0, 42.0, 9.0, 36.0, 29.0, 9.0, 3.0, 12.0, 22.0, 8.0, 22.0, 12.0, 19.0, 18.0, 35.0, 15.0, 15.0, 6.0, 14.0, 22.0, 49.0, 12.0, 14.0, 20.0, 37.0, 10.0, 18.0, 84.0, 12.0, 16.0, 21.0, 6.0, 77.0, 22.0, 48.0, 49.0, 11.0, 29.0, 12.0, 10.0, 45.0, 27.0, 10.0, 13.0, 19.0, 18.0, 46.0, 46.0, 6.0, 16.0, 32.0, 30.0, 50.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 95.0, 5.0, 4.0, 12.0, 3.0, 15.0, 8.0, 17.0, 13.0, 20.0, 18.0, 23.0, 3.0, 33.0, 21.0, 31.0, 17.0, 13.0, 23.0, 13.0, 15.0, 15.0, 21.0, 19.0, 27.0, 16.0, 13.0, 12.0, 5.0, 24.0, 28.0, 2.0, 2.0, 22.0, 22.0, 23.0, 96.0, 19.0, 23.0, 30.0, 40.0, 3.0, 97.0, 45.0, 34.0, 17.0, 24.0, 19.0, 24.0, 28.0, 17.0, 2.0, 33.0, 25.0, 19.0, 26.0, 33.0, 7.0, 33.0, 20.0, 19.0, 24.0, 49.0, 8.0, 12.0, 20.0, 5.0, 5.0, 7.0, 39.0, 37.0, 35.0, 21.0, 34.0, 18.0, 70.0, 70.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 18.0, 18.0, 20.0, 111.0, 48.0, 7.0, 10.0, 40.0, 11.0, 7.0, 106.0, 13.0, 26.0, 12.0, 3.0, 97.0, 9.0, 29.0, 19.0, 88.0, 11.0, 7.0, 24.0, 1.0, 10.0, 27.0, 13.0, 38.0, 21.0, 2.0, 91.0, 15.0, 23.0, 3.0, 14.0, 14.0, 20.0, 28.0, 72.0, 12.0, 10.0, 24.0, 19.0, 17.0, 37.0, 9.0, 15.0, 25.0, 10.0, 53.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 24.0, 2.0, 2.0, 9.0, 73.0, 9.0, 15.0, 10.0, 18.0, 5.0, 24.0, 54.0, 54.0, 5.0, 28.0, 17.0, 12.0, 13.0, 61.0, 23.0, 14.0, 36.0, 14.0, 11.0, 10.0, 14.0, 14.0, 31.0, 3.0, 14.0, 17.0, 14.0, 42.0, 42.0, 7.0, 52.0, 23.0, 77.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 4.0, 26.0, 3.0, 11.0, 33.0, 33.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 77.0, 8.0, 10.0, 34.0, 8.0, 10.0, 14.0, 9.0, 5.0, 10.0, 18.0, 31.0, 35.0, 9.0, 28.0, 9.0, 24.0, 87.0, 23.0, 18.0, 6.0, 30.0, 9.0, 35.0, 31.0, 4.0, 21.0, 18.0, 12.0, 18.0, 20.0, 4.0, 11.0, 26.0, 4.0, 7.0, 10.0, 20.0, 12.0, 36.0, 5.0, 20.0, 10.0, 22.0, 9.0, 46.0, 52.0, 11.0, 8.0, 8.0, 23.0, 47.0, 27.0, 20.0, 53.0, 20.0, 26.0, 19.0, 13.0, 15.0, 31.0, 21.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 7.0, 1.0, 70.0, 8.0, 11.0, 15.0, 13.0, 18.0, 13.0, 24.0, 9.0, 75.0, 27.0, 27.0, 12.0, 21.0, 7.0, 9.0, 15.0, 33.0, 30.0, 8.0, 13.0, 21.0, 18.0, 28.0, 34.0, 51.0, 23.0, 23.0, 21.0, 8.0, 29.0, 64.0, 12.0, 12.0, 14.0, 17.0, 22.0, 15.0, 31.0, 18.0, 46.0, 24.0, 10.0, 61.0, 7.0, 52.0, 28.0, 31.0, 31.0, 16.0, 20.0, 53.0, 5.0, 8.0, 5.0, 22.0, 15.0, 9.0, 14.0, 21.0, 8.0, 13.0, 22.0, 83.0, 17.0, 45.0, 21.0, 39.0, 85.0, 19.0, 17.0, 43.0, 27.0, 16.0, 10.0, 74.0, 14.0, 53.0, 37.0, 17.0, 6.0, 16.0, 42.0, 59.0, 1.0, 4.0, 18.0, 6.0, 11.0, 16.0, 18.0, 24.0, 10.0, 8.0, 18.0, 12.0, 8.0, 60.0, 18.0, 31.0, 91.0, 4.0, 28.0, 43.0, 5.0, 16.0, 42.0, 42.0, 32.0, 16.0, 65.0, 19.0, 26.0, 25.0, 5.0, 12.0, 23.0, 28.0, 17.0, 40.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 29.0, 44.0, 16.0, 9.0, 36.0, 22.0, 8.0, 6.0, 13.0, 13.0, 10.0, 6.0, 76.0, 80.0, 18.0, 24.0, 18.0, 37.0, 21.0, 29.0, 14.0, 37.0, 32.0, 36.0, 60.0, 26.0, 11.0, 36.0, 4.0, 33.0, 9.0, 5.0, 24.0, 20.0, 20.0, 1.0, 5.0, 27.0, 11.0, 29.0, 36.0, 22.0, 21.0, 69.0, 75.0, 11.0, 16.0, 27.0, 8.0, 55.0, 12.0, 51.0, 29.0, 119.0, 3.0, 26.0, 9.0, 5.0, 14.0, 15.0, 44.0, 98.0, 34.0, 16.0, 53.0, 30.0, 54.0, 1.0, 7.0, 2.0, 15.0, 12.0, 31.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 19.0, 39.0, 68.0, 20.0, 22.0, 7.0, 26.0, 5.0, 27.0, 12.0, 19.0, 18.0, 12.0, 28.0, 10.0, 7.0, 25.0, 11.0, 73.0, 11.0, 25.0, 5.0, 17.0, 15.0, 11.0, 8.0, 91.0, 45.0, 12.0, 18.0, 5.0, 0.0, 20.0, 34.0, 4.0, 4.0, 26.0, 32.0, 1.0, 18.0, 41.0, 3.0, 11.0, 10.0, 3.0, 19.0, 15.0, 4.0, 45.0, 25.0, 23.0, 16.0, 53.0, 17.0, 5.0, 1.0, 16.0, 15.0, 44.0, 46.0, 24.0, 75.0, 12.0, 22.0, 49.0, 13.0, 124.0, 8.0, 5.0, 62.0, 3.0, 107.0, 17.0, 17.0, 41.0, 11.0, 25.0, 18.0, 6.0, 7.0, 37.0, 14.0, 91.0, 70.0, 8.0, 34.0, 26.0, 6.0, 14.0, 33.0, 5.0, 7.0, 3.0, 11.0, 39.0, 18.0, 3.0, 15.0, 0.0, 20.0, 48.0, 19.0, 13.0, 18.0, 15.0, 10.0, 19.0, 14.0, 3.0, 16.0, 45.0, 10.0, 11.0, 70.0, 36.0, 41.0, 55.0, 4.0, 35.0, 9.0, 29.0, 29.0, 35.0, 18.0, 50.0, 9.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 9.0, 44.0, 22.0, 3.0, 9.0, 72.0, 8.0, 2.0, 116.0, 72.0, 18.0, 11.0, 3.0, 36.0, 7.0, 14.0, 18.0, 30.0, 6.0, 40.0, 26.0, 35.0, 22.0, 31.0, 131.0, 44.0, 26.0, 4.0, 14.0, 96.0, 15.0, 23.0, 38.0, 23.0, 30.0, 58.0, 21.0, 20.0, 17.0, 26.0, 12.0, 45.0, 10.0, 6.0, 20.0, 6.0, 5.0, 11.0, 32.0, 18.0, 21.0, 31.0, 47.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 62.0, 3.0, 34.0, 17.0, 22.0, 18.0, 12.0, 4.0, 10.0, 35.0, 9.0, 21.0, 20.0, 43.0, 55.0, 6.0, 46.0, 25.0, 20.0, 9.0, 24.0, 7.0, 26.0, 6.0, 18.0, 124.0, 10.0, 9.0, 40.0, 14.0, 20.0, 93.0, 90.0, 17.0, 17.0, 56.0, 34.0, 56.0, 18.0, 55.0, 34.0, 29.0, 50.0, 14.0, 27.0, 40.0, 31.0, 20.0, 16.0, 12.0, 78.0, 53.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 25.0, 6.0, 12.0, 4.0, 31.0, 5.0, 71.0, 103.0, 46.0, 36.0, 4.0, 11.0, 15.0, 18.0, 5.0, 7.0, 87.0, 24.0, 5.0, 22.0, 28.0, 23.0, 5.0, 53.0, 15.0, 19.0, 33.0, 14.0, 16.0, 14.0, 26.0, 82.0, 13.0, 11.0, 61.0, 6.0, 20.0, 9.0, 13.0, 8.0, 9.0, 23.0, 4.0, 19.0, 11.0, 14.0, 28.0, 13.0, 74.0, 13.0, 15.0, 21.0, 16.0, 38.0, 76.0, 69.0, 27.0, 3.0, 16.0, 34.0, 21.0, 91.0, 26.0, 4.0, 11.0, 77.0, 15.0, 22.0, 8.0, 48.0, 19.0, 97.0, 11.0, 4.0, 15.0, 33.0, 56.0, 4.0, 9.0, 12.0, 7.0, 85.0, 10.0, 62.0, 11.0, 34.0, 13.0, 0.0, 36.0, 33.0, 15.0, 40.0, 13.0, 36.0, 36.0, 8.0, 6.0, 4.0, 6.0, 101.0, 15.0, 12.0, 72.0, 65.0, 32.0, 81.0, 7.0, 51.0, 19.0, 58.0, 15.0, 6.0, 6.0, 66.0, 52.0, 23.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 24.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 55.0, 29.0, 41.0, 24.0, 17.0, 35.0, 35.0, 29.0, 59.0, 22.0, 61.0, 36.0, 50.0, 10.0, 7.0, 92.0, 74.0, 36.0, 44.0, 65.0, 96.0]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[11.0, 7.0, 20.0, 7.0, 14.0, 11.0, 12.0, 14.0, 18.0, 13.0, 21.0, 24.0, 22.0, 8.0, 11.0, 5.0, 46.0, 27.0, 20.0, 19.0, 14.0, 4.0, 11.0, 5.0, 15.0, 15.0, 7.0, 8.0, 23.0, 2.0, 10.0, 15.0, 20.0, 21.0, 46.0, 29.0, 37.0, 17.0, 13.0, 20.0, 7.0, 36.0, 28.0, 22.0, 28.0, 16.0, 15.0, 40.0, 20.0, 8.0, 19.0, 61.0, 13.0, 20.0, 36.0, 52.0, 17.0, 40.0, 10.0, 13.0, 11.0, 16.0, 3.0, 34.0, 30.0, 31.0, 21.0, 29.0, 47.0, 32.0, 32.0, 60.0, 14.0, 25.0, 61.0, 1.0, 15.0, 8.0, 54.0, 72.0, 9.0, 15.0, 10.0, 9.0, 24.0, 11.0, 25.0, 28.0, 37.0, 27.0, 17.0, 17.0, 76.0, 21.0, 45.0, 9.0, 20.0, 68.0, 6.0, 44.0, 21.0, 73.0, 31.0, 16.0, 17.0, 44.0, 18.0, 18.0, 22.0, 65.0, 72.0, 31.0, 30.0, 86.0, 16.0, 38.0, 21.0, 7.0, 12.0, 27.0, 29.0, 9.0, 19.0, 18.0, 14.0, 49.0, 12.0, 37.0, 12.0, 16.0, 77.0, 48.0, 49.0, 29.0, 10.0, 10.0, 13.0, 46.0, 46.0, 6.0, 50.0, 8.0, 17.0, 15.0, 19.0, 27.0, 13.0, 12.0, 28.0, 40.0, 34.0, 24.0, 33.0, 25.0, 19.0, 33.0, 19.0, 49.0, 7.0, 35.0, 70.0, 70.0, 18.0, 18.0, 20.0, 48.0, 10.0, 19.0, 13.0, 38.0, 21.0, 14.0, 14.0, 72.0, 10.0, 24.0, 37.0, 15.0, 24.0, 9.0, 73.0, 15.0, 18.0, 24.0, 54.0, 54.0, 61.0, 11.0, 14.0, 14.0, 31.0, 14.0, 42.0, 42.0, 52.0, 77.0, 4.0, 26.0, 11.0, 33.0, 8.0, 10.0, 14.0, 31.0, 9.0, 24.0, 87.0, 6.0, 35.0, 31.0, 18.0, 11.0, 36.0, 10.0, 52.0, 11.0, 23.0, 27.0, 20.0, 26.0, 19.0, 21.0, 7.0, 11.0, 15.0, 9.0, 13.0, 21.0, 28.0, 34.0, 23.0, 21.0, 29.0, 64.0, 12.0, 17.0, 46.0, 61.0, 52.0, 20.0, 8.0, 15.0, 9.0, 14.0, 13.0, 22.0, 83.0, 39.0, 43.0, 10.0, 74.0, 6.0, 59.0, 18.0, 24.0, 18.0, 18.0, 31.0, 28.0, 42.0, 42.0, 16.0, 19.0, 5.0, 12.0, 23.0, 17.0, 40.0, 29.0, 22.0, 10.0, 76.0, 80.0, 18.0, 18.0, 14.0, 37.0, 60.0, 11.0, 5.0, 20.0, 20.0, 27.0, 36.0, 21.0, 69.0, 75.0, 55.0, 51.0, 26.0, 44.0, 16.0, 53.0, 30.0, 54.0, 15.0, 31.0, 19.0, 39.0, 68.0, 22.0, 7.0, 26.0, 12.0, 19.0, 12.0, 28.0, 10.0, 7.0, 73.0, 25.0, 17.0, 45.0, 18.0, 34.0, 26.0, 41.0, 15.0, 45.0, 23.0, 53.0, 16.0, 44.0, 46.0, 24.0, 75.0, 62.0, 3.0, 17.0, 17.0, 41.0, 18.0, 37.0, 14.0, 26.0, 33.0, 18.0, 20.0, 48.0, 19.0, 10.0, 14.0, 16.0, 70.0, 36.0, 41.0, 35.0, 29.0, 29.0, 50.0, 9.0, 9.0, 72.0, 11.0, 30.0, 40.0, 22.0, 44.0, 23.0, 23.0, 30.0, 58.0, 21.0, 45.0, 20.0, 32.0, 18.0, 21.0, 47.0, 62.0, 34.0, 22.0, 12.0, 35.0, 43.0, 55.0, 20.0, 9.0, 17.0, 56.0, 34.0, 18.0, 55.0, 34.0, 29.0, 14.0, 40.0, 78.0, 53.0, 25.0, 6.0, 71.0, 46.0, 36.0, 15.0, 18.0, 22.0, 23.0, 53.0, 15.0, 33.0, 16.0, 26.0, 82.0, 61.0, 20.0, 19.0, 11.0, 13.0, 74.0, 13.0, 38.0, 76.0, 34.0, 11.0, 77.0, 11.0, 15.0, 10.0, 62.0, 13.0, 36.0, 33.0, 15.0, 36.0, 15.0, 72.0, 65.0, 81.0, 51.0, 19.0, 15.0, 66.0, 52.0, 23.0, 24.0, 55.0, 29.0, 17.0, 29.0, 59.0, 50.0, 74.0]</t>
+          <t>[11.0, 7.0, 20.0, 7.0, 14.0, 11.0, 12.0, 14.0, 18.0, 13.0, 21.0, 24.0, 22.0, 8.0, 11.0, 5.0, 46.0, 27.0, 20.0, 19.0, 14.0, 4.0, 11.0, 5.0, 15.0, 15.0, 7.0, 8.0, 23.0, 2.0, 10.0, 15.0, 20.0, 21.0, 46.0, 29.0, 37.0, 17.0, 13.0, 20.0, 7.0, 36.0, 28.0, 22.0, 28.0, 16.0, 15.0, 40.0, 20.0, 8.0, 19.0, 61.0, 13.0, 20.0, 36.0, 52.0, 17.0, 40.0, 10.0, 13.0, 11.0, 16.0, 3.0, 34.0, 30.0, 31.0, 21.0, 29.0, 47.0, 32.0, 32.0, 60.0, 14.0, 25.0, 61.0, 1.0, 15.0, 8.0, 54.0, 72.0, 9.0, 15.0, 10.0, 9.0, 24.0, 11.0, 25.0, 28.0, 37.0, 27.0, 17.0, 17.0, 76.0, 21.0, 45.0, 9.0, 20.0, 68.0, 6.0, 44.0, 21.0, 73.0, 97.0, 31.0, 16.0, 17.0, 44.0, 18.0, 18.0, 22.0, 65.0, 72.0, 31.0, 30.0, 86.0, 16.0, 38.0, 21.0, 7.0, 12.0, 27.0, 29.0, 9.0, 19.0, 18.0, 14.0, 49.0, 12.0, 37.0, 12.0, 16.0, 77.0, 48.0, 49.0, 29.0, 10.0, 10.0, 13.0, 46.0, 46.0, 6.0, 50.0, 95.0, 8.0, 17.0, 15.0, 19.0, 27.0, 13.0, 12.0, 28.0, 96.0, 40.0, 97.0, 34.0, 24.0, 33.0, 25.0, 19.0, 33.0, 19.0, 49.0, 7.0, 35.0, 70.0, 70.0, 18.0, 18.0, 20.0, 111.0, 48.0, 10.0, 19.0, 13.0, 38.0, 21.0, 91.0, 14.0, 14.0, 72.0, 10.0, 24.0, 37.0, 15.0, 24.0, 9.0, 73.0, 15.0, 18.0, 24.0, 54.0, 54.0, 61.0, 11.0, 14.0, 14.0, 31.0, 14.0, 42.0, 42.0, 52.0, 77.0, 4.0, 26.0, 11.0, 33.0, 8.0, 10.0, 14.0, 31.0, 9.0, 24.0, 87.0, 6.0, 35.0, 31.0, 18.0, 11.0, 36.0, 10.0, 52.0, 11.0, 23.0, 27.0, 20.0, 26.0, 19.0, 21.0, 7.0, 11.0, 15.0, 9.0, 13.0, 21.0, 28.0, 34.0, 23.0, 21.0, 29.0, 64.0, 12.0, 17.0, 46.0, 61.0, 52.0, 20.0, 8.0, 15.0, 9.0, 14.0, 13.0, 22.0, 83.0, 39.0, 43.0, 10.0, 74.0, 6.0, 59.0, 18.0, 24.0, 18.0, 18.0, 31.0, 91.0, 28.0, 42.0, 42.0, 16.0, 19.0, 5.0, 12.0, 23.0, 17.0, 40.0, 29.0, 22.0, 10.0, 76.0, 80.0, 18.0, 18.0, 14.0, 37.0, 60.0, 11.0, 5.0, 20.0, 20.0, 27.0, 36.0, 21.0, 69.0, 75.0, 55.0, 51.0, 119.0, 26.0, 44.0, 98.0, 16.0, 53.0, 30.0, 54.0, 15.0, 31.0, 19.0, 39.0, 68.0, 22.0, 7.0, 26.0, 12.0, 19.0, 12.0, 28.0, 10.0, 7.0, 73.0, 25.0, 17.0, 45.0, 18.0, 34.0, 26.0, 41.0, 15.0, 45.0, 23.0, 53.0, 16.0, 44.0, 46.0, 24.0, 75.0, 124.0, 62.0, 3.0, 107.0, 17.0, 17.0, 41.0, 18.0, 37.0, 14.0, 91.0, 26.0, 33.0, 18.0, 20.0, 48.0, 19.0, 10.0, 14.0, 16.0, 70.0, 36.0, 41.0, 35.0, 29.0, 29.0, 50.0, 9.0, 9.0, 72.0, 116.0, 11.0, 30.0, 40.0, 22.0, 131.0, 44.0, 23.0, 23.0, 30.0, 58.0, 21.0, 45.0, 20.0, 32.0, 18.0, 21.0, 47.0, 62.0, 34.0, 22.0, 12.0, 35.0, 43.0, 55.0, 20.0, 124.0, 9.0, 93.0, 17.0, 56.0, 34.0, 18.0, 55.0, 34.0, 29.0, 14.0, 40.0, 78.0, 53.0, 25.0, 6.0, 71.0, 103.0, 46.0, 36.0, 15.0, 18.0, 22.0, 23.0, 53.0, 15.0, 33.0, 16.0, 26.0, 82.0, 61.0, 20.0, 19.0, 11.0, 13.0, 74.0, 13.0, 38.0, 76.0, 34.0, 91.0, 11.0, 77.0, 97.0, 11.0, 15.0, 10.0, 62.0, 13.0, 36.0, 33.0, 15.0, 36.0, 101.0, 15.0, 72.0, 65.0, 81.0, 51.0, 19.0, 15.0, 66.0, 52.0, 23.0, 24.0, 55.0, 29.0, 17.0, 29.0, 59.0, 50.0, 74.0]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[11.0, 7.0, 16.0, 6.0, 5.0, 6.0, 14.0, 4.0, 18.0, 11.0, 2.0, 25.0, 9.0, 14.0, 2.0, 3.0, 1.0, 7.0, 34.0, 13.0, 2.0, 17.0, 32.0, 19.0, 11.0, 6.0, 4.0, 19.0, 14.0, 8.0, 21.0, 47.0, 24.0, 7.0, 25.0, 8.0, 18.0, 24.0, 47.0, 9.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 16.0, 9.0, 10.0, 3.0, 7.0, 44.0, 4.0, 14.0, 4.0, 27.0, 15.0, 12.0, 36.0, 17.0, 7.0, 7.0, 20.0, 57.0, 15.0, 19.0, 19.0, 11.0, 9.0, 20.0, 7.0, 25.0, 12.0, 9.0, 31.0, 40.0, 29.0, 7.0, 10.0, 1.0, 17.0, 21.0, 33.0, 7.0, 4.0, 25.0, 33.0, 10.0, 3.0, 23.0, 44.0, 43.0, 43.0, 26.0, 19.0, 8.0, 13.0, 3.0, 16.0, 16.0, 3.0, 17.0, 49.0, 43.0, 6.0, 26.0, 7.0, 16.0, 28.0, 42.0, 33.0, 4.0, 79.0, 8.0, 11.0, 10.0, 16.0, 25.0, 3.0, 13.0, 20.0, 6.0, 7.0, 21.0, 14.0, 20.0, 6.0, 14.0, 2.0, 7.0, 5.0, 6.0, 34.0, 31.0, 1.0, 24.0, 21.0, 30.0, 2.0, 10.0, 11.0, 5.0, 20.0, 24.0, 26.0, 25.0, 33.0, 5.0, 13.0, 20.0, 9.0, 23.0, 48.0, 11.0, 15.0, 37.0, 21.0, 24.0, 15.0, 27.0, 39.0, 24.0, 4.0, 13.0, 17.0, 18.0, 21.0, 40.0, 73.0, 11.0, 13.0, 18.0, 9.0, 10.0, 13.0, 54.0, 36.0, 2.0, 6.0, 11.0, 9.0, 41.0, 12.0, 0.0, 4.0, 21.0, 2.0, 25.0, 15.0, 25.0, 10.0, 19.0, 35.0, 16.0, 49.0, 42.0, 42.0, 9.0, 36.0, 22.0, 8.0, 22.0, 12.0, 35.0, 15.0, 15.0, 6.0, 22.0, 14.0, 20.0, 18.0, 84.0, 21.0, 22.0, 12.0, 45.0, 27.0, 19.0, 18.0, 16.0, 32.0, 30.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 17.0, 13.0, 20.0, 3.0, 33.0, 21.0, 31.0, 13.0, 23.0, 13.0, 15.0, 21.0, 5.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 3.0, 45.0, 17.0, 24.0, 19.0, 28.0, 17.0, 26.0, 7.0, 33.0, 20.0, 24.0, 8.0, 12.0, 20.0, 5.0, 5.0, 39.0, 37.0, 34.0, 18.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 7.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 88.0, 11.0, 7.0, 24.0, 10.0, 27.0, 2.0, 15.0, 3.0, 20.0, 28.0, 12.0, 19.0, 17.0, 9.0, 25.0, 10.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 2.0, 2.0, 9.0, 10.0, 5.0, 28.0, 17.0, 12.0, 13.0, 14.0, 36.0, 14.0, 10.0, 17.0, 14.0, 7.0, 23.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 3.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 9.0, 5.0, 10.0, 18.0, 9.0, 23.0, 18.0, 30.0, 9.0, 4.0, 21.0, 12.0, 18.0, 20.0, 4.0, 26.0, 7.0, 10.0, 20.0, 12.0, 5.0, 20.0, 9.0, 46.0, 8.0, 47.0, 53.0, 13.0, 15.0, 31.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 1.0, 70.0, 8.0, 13.0, 24.0, 75.0, 27.0, 12.0, 21.0, 9.0, 15.0, 33.0, 30.0, 18.0, 51.0, 23.0, 8.0, 12.0, 14.0, 22.0, 15.0, 31.0, 24.0, 10.0, 7.0, 28.0, 31.0, 31.0, 16.0, 53.0, 5.0, 22.0, 21.0, 8.0, 17.0, 45.0, 21.0, 85.0, 19.0, 17.0, 27.0, 16.0, 14.0, 53.0, 37.0, 17.0, 16.0, 1.0, 6.0, 11.0, 10.0, 8.0, 8.0, 4.0, 5.0, 16.0, 32.0, 65.0, 26.0, 25.0, 28.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 44.0, 16.0, 9.0, 36.0, 8.0, 6.0, 13.0, 13.0, 6.0, 24.0, 37.0, 21.0, 29.0, 32.0, 36.0, 26.0, 36.0, 4.0, 33.0, 9.0, 24.0, 5.0, 11.0, 29.0, 22.0, 11.0, 16.0, 27.0, 8.0, 12.0, 29.0, 3.0, 9.0, 5.0, 15.0, 34.0, 1.0, 7.0, 12.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 20.0, 5.0, 27.0, 18.0, 25.0, 11.0, 11.0, 5.0, 15.0, 11.0, 8.0, 12.0, 5.0, 0.0, 4.0, 4.0, 32.0, 1.0, 18.0, 3.0, 11.0, 10.0, 19.0, 4.0, 25.0, 17.0, 5.0, 1.0, 15.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 25.0, 6.0, 7.0, 8.0, 34.0, 6.0, 14.0, 7.0, 3.0, 11.0, 3.0, 15.0, 0.0, 13.0, 18.0, 15.0, 3.0, 45.0, 10.0, 11.0, 55.0, 4.0, 9.0, 35.0, 18.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 44.0, 22.0, 9.0, 8.0, 2.0, 72.0, 18.0, 7.0, 14.0, 18.0, 6.0, 26.0, 35.0, 31.0, 26.0, 4.0, 14.0, 15.0, 38.0, 20.0, 17.0, 26.0, 12.0, 10.0, 6.0, 6.0, 5.0, 11.0, 31.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 3.0, 17.0, 18.0, 4.0, 10.0, 9.0, 21.0, 20.0, 6.0, 46.0, 25.0, 9.0, 24.0, 7.0, 26.0, 18.0, 10.0, 40.0, 14.0, 20.0, 17.0, 56.0, 50.0, 27.0, 31.0, 20.0, 16.0, 12.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 12.0, 31.0, 5.0, 4.0, 11.0, 5.0, 7.0, 24.0, 5.0, 28.0, 5.0, 19.0, 14.0, 14.0, 13.0, 11.0, 6.0, 9.0, 8.0, 9.0, 23.0, 4.0, 14.0, 28.0, 15.0, 21.0, 16.0, 69.0, 27.0, 3.0, 16.0, 21.0, 26.0, 22.0, 8.0, 19.0, 4.0, 33.0, 9.0, 12.0, 7.0, 11.0, 34.0, 0.0, 40.0, 13.0, 36.0, 8.0, 6.0, 4.0, 12.0, 7.0, 6.0, 6.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 41.0, 24.0, 35.0, 35.0, 22.0, 36.0, 10.0, 7.0, 36.0, 44.0, 65.0]</t>
+          <t>[11.0, 7.0, 16.0, 6.0, 5.0, 6.0, 14.0, 4.0, 18.0, 11.0, 2.0, 25.0, 9.0, 14.0, 2.0, 3.0, 1.0, 7.0, 34.0, 13.0, 2.0, 17.0, 32.0, 19.0, 11.0, 6.0, 4.0, 19.0, 14.0, 8.0, 21.0, 47.0, 24.0, 7.0, 25.0, 8.0, 18.0, 24.0, 47.0, 9.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 16.0, 9.0, 10.0, 3.0, 7.0, 44.0, 4.0, 14.0, 4.0, 27.0, 15.0, 12.0, 36.0, 17.0, 7.0, 7.0, 20.0, 57.0, 15.0, 19.0, 19.0, 11.0, 9.0, 20.0, 7.0, 25.0, 12.0, 9.0, 31.0, 40.0, 29.0, 7.0, 10.0, 1.0, 17.0, 21.0, 33.0, 7.0, 4.0, 25.0, 33.0, 10.0, 3.0, 23.0, 44.0, 43.0, 43.0, 26.0, 19.0, 8.0, 13.0, 3.0, 16.0, 16.0, 3.0, 17.0, 49.0, 43.0, 6.0, 26.0, 7.0, 16.0, 28.0, 42.0, 33.0, 4.0, 79.0, 8.0, 11.0, 10.0, 16.0, 25.0, 3.0, 13.0, 20.0, 6.0, 7.0, 21.0, 14.0, 20.0, 6.0, 14.0, 2.0, 7.0, 5.0, 6.0, 34.0, 31.0, 1.0, 24.0, 21.0, 30.0, 2.0, 10.0, 11.0, 5.0, 20.0, 24.0, 26.0, 25.0, 33.0, 5.0, 13.0, 20.0, 9.0, 23.0, 48.0, 11.0, 15.0, 37.0, 21.0, 24.0, 15.0, 27.0, 39.0, 24.0, 4.0, 13.0, 17.0, 18.0, 21.0, 40.0, 73.0, 11.0, 13.0, 18.0, 9.0, 10.0, 13.0, 54.0, 91.0, 36.0, 2.0, 6.0, 11.0, 9.0, 41.0, 12.0, 0.0, 4.0, 21.0, 2.0, 25.0, 15.0, 25.0, 10.0, 19.0, 35.0, 16.0, 49.0, 42.0, 42.0, 9.0, 36.0, 22.0, 8.0, 22.0, 12.0, 35.0, 15.0, 15.0, 6.0, 22.0, 14.0, 20.0, 18.0, 84.0, 21.0, 22.0, 12.0, 45.0, 27.0, 19.0, 18.0, 16.0, 32.0, 30.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 17.0, 13.0, 20.0, 3.0, 33.0, 21.0, 31.0, 13.0, 23.0, 13.0, 15.0, 21.0, 5.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 3.0, 45.0, 17.0, 24.0, 19.0, 28.0, 17.0, 26.0, 7.0, 33.0, 20.0, 24.0, 8.0, 12.0, 20.0, 5.0, 5.0, 39.0, 37.0, 34.0, 18.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 7.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 88.0, 11.0, 7.0, 24.0, 10.0, 27.0, 2.0, 15.0, 3.0, 20.0, 28.0, 12.0, 19.0, 17.0, 9.0, 25.0, 10.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 2.0, 2.0, 9.0, 10.0, 5.0, 28.0, 17.0, 12.0, 13.0, 14.0, 36.0, 14.0, 10.0, 17.0, 14.0, 7.0, 23.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 3.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 9.0, 5.0, 10.0, 18.0, 9.0, 23.0, 18.0, 30.0, 9.0, 4.0, 21.0, 12.0, 18.0, 20.0, 4.0, 26.0, 7.0, 10.0, 20.0, 12.0, 5.0, 20.0, 9.0, 46.0, 8.0, 47.0, 53.0, 13.0, 15.0, 31.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 1.0, 70.0, 8.0, 13.0, 24.0, 75.0, 27.0, 12.0, 21.0, 9.0, 15.0, 33.0, 30.0, 18.0, 51.0, 23.0, 8.0, 12.0, 14.0, 22.0, 15.0, 31.0, 24.0, 10.0, 7.0, 28.0, 31.0, 31.0, 16.0, 53.0, 5.0, 22.0, 21.0, 8.0, 17.0, 45.0, 21.0, 85.0, 19.0, 17.0, 27.0, 16.0, 14.0, 53.0, 37.0, 17.0, 16.0, 1.0, 6.0, 11.0, 10.0, 8.0, 8.0, 4.0, 5.0, 16.0, 32.0, 65.0, 26.0, 25.0, 28.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 44.0, 16.0, 9.0, 36.0, 8.0, 6.0, 13.0, 13.0, 6.0, 24.0, 37.0, 21.0, 29.0, 32.0, 36.0, 26.0, 36.0, 4.0, 33.0, 9.0, 24.0, 5.0, 11.0, 29.0, 22.0, 11.0, 16.0, 27.0, 8.0, 12.0, 29.0, 3.0, 9.0, 5.0, 15.0, 34.0, 1.0, 7.0, 12.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 20.0, 5.0, 27.0, 18.0, 25.0, 11.0, 11.0, 5.0, 15.0, 11.0, 8.0, 91.0, 12.0, 5.0, 0.0, 4.0, 4.0, 32.0, 1.0, 18.0, 3.0, 11.0, 10.0, 19.0, 4.0, 25.0, 17.0, 5.0, 1.0, 15.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 25.0, 6.0, 7.0, 8.0, 34.0, 6.0, 14.0, 7.0, 3.0, 11.0, 3.0, 15.0, 0.0, 13.0, 18.0, 15.0, 3.0, 45.0, 10.0, 11.0, 55.0, 4.0, 9.0, 35.0, 18.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 44.0, 22.0, 9.0, 8.0, 2.0, 72.0, 18.0, 7.0, 14.0, 18.0, 6.0, 26.0, 35.0, 31.0, 26.0, 4.0, 14.0, 96.0, 15.0, 38.0, 20.0, 17.0, 26.0, 12.0, 10.0, 6.0, 6.0, 5.0, 11.0, 31.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 3.0, 17.0, 18.0, 4.0, 10.0, 9.0, 21.0, 20.0, 6.0, 46.0, 25.0, 9.0, 24.0, 7.0, 26.0, 18.0, 10.0, 40.0, 14.0, 20.0, 17.0, 56.0, 50.0, 27.0, 31.0, 20.0, 16.0, 12.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 12.0, 31.0, 5.0, 4.0, 11.0, 5.0, 7.0, 24.0, 5.0, 28.0, 5.0, 19.0, 14.0, 14.0, 13.0, 11.0, 6.0, 9.0, 8.0, 9.0, 23.0, 4.0, 14.0, 28.0, 15.0, 21.0, 16.0, 69.0, 27.0, 3.0, 16.0, 21.0, 26.0, 22.0, 8.0, 19.0, 4.0, 33.0, 9.0, 12.0, 7.0, 11.0, 34.0, 0.0, 40.0, 13.0, 36.0, 8.0, 6.0, 4.0, 12.0, 7.0, 6.0, 6.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 41.0, 24.0, 35.0, 35.0, 22.0, 36.0, 10.0, 7.0, 36.0, 44.0, 65.0, 96.0]</t>
         </is>
       </c>
     </row>
@@ -2797,37 +2797,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0.0, 2.0, 1.0, 0.0, 1.0, 7.0, 0.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 9.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 8.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 8.0, 0.0, 3.0, 2.0, 6.0, 0.0, 0.0, 5.0, 1.0, 1.0, 3.0, 3.0, 10.0, 0.0, 14.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 13.0, 0.0, 8.0, 2.0, 1.0, 0.0, 1.0, 0.0, 3.0, 0.0, 2.0, 2.0, 8.0, 8.0, 0.0, 15.0, 0.0, 4.0, 0.0, 0.0, 5.0, 14.0, 6.0, 0.0, 0.0, 0.0, 3.0, 5.0, 3.0, 1.0, 0.0, 12.0, 0.0, 0.0, 8.0, 4.0, 16.0, 1.0, 12.0, 8.0, 9.0, 0.0, 2.0, 0.0, 0.0, 4.0, 19.0, 1.0, 13.0, 4.0, 3.0, 6.0, 0.0, 6.0, 0.0, 3.0, 0.0, 6.0, 7.0, 7.0, 0.0, 3.0, 0.0, 3.0, 0.0, 1.0, 5.0, 14.0, 0.0, 1.0, 11.0, 20.0, 0.0, 0.0, 9.0, 0.0, 1.0, 0.0, 2.0, 16.0, 0.0, 9.0, 0.0, 3.0, 14.0, 7.0, 3.0, 6.0, 0.0, 5.0, 0.0, 5.0, 0.0, 5.0, 2.0, 2.0, 1.0, 16.0, 1.0, 6.0, 2.0, 0.0, 0.0, 6.0, 1.0, 2.0, 0.0, 10.0, 5.0, 18.0, 6.0, 2.0, 0.0, 0.0, 17.0, 20.0, 0.0, 2.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 15.0, 5.0, 1.0, 3.0, 3.0, 0.0, 2.0, 18.0, 5.0, 6.0, 0.0, 3.0, 0.0, 1.0, 4.0, 5.0, 0.0, 3.0, 1.0, 5.0, 7.0, 1.0, 0.0, 21.0, 0.0, 6.0, 11.0, 0.0, 4.0, 17.0, 2.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 4.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 16.0, 2.0, 10.0, 3.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 5.0, 2.0, 13.0, 6.0, 4.0, 14.0, 0.0, 13.0, 16.0, 0.0, 11.0, 4.0, 4.0, 15.0, 6.0, 0.0, 20.0, 0.0, 0.0, 18.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 5.0, 4.0, 0.0, 16.0, 8.0, 10.0, 0.0, 17.0, 3.0, 0.0, 5.0, 5.0, 12.0, 6.0, 8.0, 18.0, 1.0, 4.0, 5.0, 6.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 1.0, 1.0, 1.0, 0.0, 14.0, 1.0, 0.0, 2.0, 5.0, 8.0, 0.0, 2.0, 0.0, 5.0, 0.0, 0.0, 1.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 10.0, 7.0, 16.0, 16.0, 0.0, 12.0, 0.0, 0.0, 3.0, 0.0, 0.0, 6.0, 12.0, 4.0, 0.0, 1.0, 0.0, 4.0, 7.0, 4.0, 7.0, 13.0, 1.0, 3.0, 1.0, 2.0, 1.0, 1.0, 0.0, 0.0, 2.0, 3.0, 5.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 3.0, 3.0, 1.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 3.0, 4.0, 0.0, 1.0, 0.0, 0.0, 0.0, 19.0, 6.0, 5.0, 2.0, 5.0, 1.0, 0.0, 0.0, 0.0, 1.0, 7.0, 0.0, 6.0, 12.0, 0.0, 3.0, 3.0, 0.0, 20.0, 1.0, 1.0, 2.0, 17.0, 5.0, 0.0, 1.0, 0.0, 5.0, 0.0, 5.0, 3.0, 0.0, 2.0, 1.0, 5.0, 0.0, 1.0, 0.0, 6.0, 2.0, 13.0, 5.0, 1.0, 1.0, 0.0, 2.0, 14.0, 0.0, 4.0, 3.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 9.0, 1.0, 0.0, 0.0, 5.0, 1.0, 4.0, 2.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 1.0, 7.0, 0.0, 6.0, 0.0, 17.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 2.0, 2.0, 1.0, 4.0, 1.0, 2.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 1.0, 10.0, 2.0, 3.0, 3.0, 1.0, 0.0, 0.0, 2.0, 14.0, 2.0, 4.0, 3.0, 4.0, 0.0, 1.0, 1.0, 0.0, 7.0, 0.0, 12.0]</t>
+          <t>[0.0, 2.0, 1.0, 0.0, 1.0, 7.0, 0.0, 0.0, 1.0, 3.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 9.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 8.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 8.0, 0.0, 3.0, 2.0, 6.0, 0.0, 0.0, 5.0, 1.0, 1.0, 3.0, 3.0, 10.0, 0.0, 14.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 13.0, 0.0, 8.0, 2.0, 1.0, 0.0, 1.0, 0.0, 3.0, 0.0, 2.0, 2.0, 8.0, 8.0, 0.0, 15.0, 0.0, 4.0, 0.0, 0.0, 5.0, 14.0, 6.0, 0.0, 0.0, 0.0, 3.0, 5.0, 3.0, 1.0, 0.0, 12.0, 0.0, 0.0, 8.0, 4.0, 16.0, 1.0, 12.0, 8.0, 9.0, 0.0, 2.0, 0.0, 0.0, 4.0, 19.0, 1.0, 13.0, 4.0, 3.0, 6.0, 0.0, 6.0, 0.0, 3.0, 0.0, 6.0, 7.0, 7.0, 0.0, 3.0, 0.0, 3.0, 0.0, 1.0, 5.0, 14.0, 0.0, 1.0, 11.0, 20.0, 0.0, 0.0, 9.0, 0.0, 1.0, 0.0, 2.0, 16.0, 0.0, 9.0, 0.0, 3.0, 14.0, 7.0, 3.0, 6.0, 0.0, 5.0, 0.0, 5.0, 0.0, 5.0, 2.0, 2.0, 1.0, 16.0, 1.0, 6.0, 2.0, 0.0, 0.0, 6.0, 1.0, 2.0, 0.0, 10.0, 5.0, 18.0, 6.0, 2.0, 0.0, 0.0, 17.0, 17.0, 20.0, 0.0, 2.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 15.0, 5.0, 1.0, 3.0, 3.0, 0.0, 2.0, 18.0, 5.0, 6.0, 0.0, 3.0, 0.0, 1.0, 4.0, 5.0, 0.0, 3.0, 1.0, 5.0, 7.0, 1.0, 0.0, 21.0, 0.0, 6.0, 11.0, 0.0, 4.0, 17.0, 2.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 4.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 16.0, 2.0, 10.0, 3.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 5.0, 2.0, 13.0, 6.0, 4.0, 14.0, 0.0, 13.0, 16.0, 0.0, 11.0, 4.0, 4.0, 15.0, 6.0, 0.0, 20.0, 0.0, 0.0, 18.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 5.0, 4.0, 0.0, 16.0, 8.0, 10.0, 0.0, 17.0, 3.0, 0.0, 5.0, 5.0, 12.0, 6.0, 8.0, 14.0, 0.0, 0.0, 8.0, 18.0, 1.0, 4.0, 5.0, 6.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 1.0, 1.0, 1.0, 0.0, 14.0, 1.0, 0.0, 2.0, 5.0, 8.0, 0.0, 2.0, 0.0, 5.0, 0.0, 0.0, 1.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 10.0, 7.0, 16.0, 16.0, 0.0, 12.0, 0.0, 0.0, 3.0, 0.0, 0.0, 6.0, 12.0, 4.0, 0.0, 1.0, 0.0, 4.0, 7.0, 4.0, 7.0, 13.0, 1.0, 3.0, 1.0, 2.0, 1.0, 1.0, 0.0, 0.0, 2.0, 3.0, 5.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 3.0, 3.0, 1.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 3.0, 4.0, 0.0, 1.0, 0.0, 0.0, 0.0, 19.0, 6.0, 5.0, 2.0, 5.0, 1.0, 0.0, 0.0, 0.0, 1.0, 7.0, 0.0, 6.0, 12.0, 0.0, 3.0, 3.0, 0.0, 20.0, 1.0, 1.0, 2.0, 17.0, 5.0, 0.0, 1.0, 0.0, 5.0, 0.0, 5.0, 3.0, 0.0, 2.0, 1.0, 5.0, 0.0, 1.0, 0.0, 6.0, 2.0, 13.0, 5.0, 1.0, 1.0, 0.0, 2.0, 14.0, 0.0, 4.0, 3.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 9.0, 1.0, 0.0, 0.0, 5.0, 1.0, 4.0, 2.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 1.0, 7.0, 0.0, 6.0, 0.0, 17.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 2.0, 2.0, 1.0, 4.0, 1.0, 2.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 1.0, 10.0, 2.0, 3.0, 3.0, 1.0, 0.0, 0.0, 2.0, 14.0, 2.0, 4.0, 3.0, 4.0, 0.0, 1.0, 1.0, 0.0, 7.0, 0.0, 12.0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 7.0, 6.0, 6.0, 7.0, 8.0, 8.0, 3.0, 7.0, 6.0, 5.0, 9.0, 11.0, 9.0, 3.0, 8.0, 8.0, 2.0, 3.0, 4.0, 5.0, 7.0, 14.0, 5.0, 14.0, 7.0, 6.0, 13.0, 9.0, 5.0, 9.0, 9.0, 7.0, 2.0, 2.0, 6.0, 11.0, 14.0, 10.0, 6.0, 10.0, 2.0, 6.0, 1.0, 7.0, 12.0, 3.0, 7.0, 10.0, 9.0, 19.0, 2.0, 2.0, 12.0, 5.0, 3.0, 5.0, 6.0, 2.0, 9.0, 6.0, 11.0, 6.0, 10.0, 1.0, 14.0, 2.0, 7.0, 22.0, 5.0, 4.0, 4.0, 3.0, 1.0, 12.0, 13.0, 5.0, 13.0, 15.0, 6.0, 0.0, 2.0, 22.0, 8.0, 12.0, 3.0, 6.0, 9.0, 15.0, 12.0, 14.0, 14.0, 10.0, 14.0, 13.0, 7.0, 13.0, 2.0, 14.0, 3.0, 3.0, 9.0, 5.0, 15.0, 23.0, 17.0, 22.0, 17.0, 6.0, 25.0, 8.0, 14.0, 5.0, 1.0, 7.0, 4.0, 21.0, 4.0, 9.0, 15.0, 17.0, 18.0, 5.0, 12.0, 15.0, 23.0, 4.0, 1.0, 13.0, 3.0, 13.0, 27.0, 11.0, 26.0, 14.0, 11.0, 7.0, 17.0, 19.0, 5.0, 2.0, 7.0, 18.0, 18.0, 12.0, 7.0, 18.0, 3.0, 11.0, 26.0, 4.0, 9.0, 8.0, 1.0, 13.0, 8.0, 14.0, 12.0, 15.0, 16.0, 7.0, 4.0, 7.0, 5.0, 8.0, 4.0, 12.0, 15.0, 19.0, 6.0, 6.0, 11.0, 9.0, 11.0, 6.0, 6.0, 8.0, 5.0, 13.0, 6.0, 14.0, 6.0, 11.0, 13.0, 26.0, 16.0, 22.0, 20.0, 21.0, 14.0, 13.0, 10.0, 14.0, 10.0, 4.0, 3.0, 7.0, 10.0, 4.0, 7.0, 10.0, 15.0, 3.0, 4.0, 6.0, 10.0, 6.0, 11.0, 32.0, 13.0, 3.0, 4.0, 3.0, 10.0, 21.0, 11.0, 12.0, 1.0, 5.0, 19.0, 3.0, 1.0, 16.0, 8.0, 14.0, 6.0, 19.0, 18.0, 4.0, 5.0, 7.0, 2.0, 12.0, 11.0, 22.0, 11.0, 11.0, 5.0, 16.0, 4.0, 6.0, 5.0, 36.0, 10.0, 9.0, 10.0, 4.0, 21.0, 13.0, 24.0, 32.0, 13.0, 8.0, 6.0, 6.0, 22.0, 11.0, 13.0, 16.0, 17.0, 11.0, 17.0, 3.0, 17.0, 13.0, 3.0, 9.0, 11.0, 7.0, 20.0, 31.0, 4.0, 0.0, 4.0, 13.0, 3.0, 11.0, 7.0, 4.0, 4.0, 4.0, 7.0, 9.0, 5.0, 29.0, 9.0, 7.0, 6.0, 6.0, 5.0, 16.0, 2.0, 5.0, 6.0, 7.0, 21.0, 16.0, 16.0, 5.0, 15.0, 18.0, 9.0, 14.0, 5.0, 9.0, 21.0, 8.0, 15.0, 1.0, 20.0, 5.0, 13.0, 32.0, 29.0, 8.0, 20.0, 30.0, 23.0, 7.0, 11.0, 7.0, 11.0, 11.0, 3.0, 17.0, 3.0, 13.0, 10.0, 2.0, 1.0, 4.0, 8.0, 9.0, 1.0, 4.0, 4.0, 3.0, 28.0, 7.0, 12.0, 17.0, 8.0, 5.0, 3.0, 9.0, 4.0, 25.0, 18.0, 10.0, 5.0, 9.0, 9.0, 3.0, 17.0, 33.0, 16.0, 18.0, 12.0, 14.0, 10.0, 17.0, 17.0, 6.0, 23.0, 5.0, 25.0, 5.0, 27.0, 9.0, 2.0, 27.0, 9.0, 17.0, 14.0, 18.0, 10.0, 6.0, 6.0, 13.0, 4.0, 4.0, 18.0, 14.0, 7.0, 5.0, 28.0, 23.0, 10.0, 11.0, 27.0, 9.0, 4.0, 32.0, 7.0, 5.0, 12.0, 11.0, 33.0, 8.0, 34.0, 25.0, 15.0, 4.0, 39.0, 20.0, 4.0, 7.0, 12.0, 19.0, 12.0, 4.0, 5.0, 9.0, 33.0, 23.0, 3.0, 37.0, 9.0, 16.0, 19.0, 21.0, 6.0, 21.0, 14.0, 14.0, 14.0, 3.0, 2.0, 20.0, 13.0, 8.0, 7.0, 37.0, 6.0, 6.0, 4.0, 26.0, 35.0, 17.0, 15.0, 2.0, 6.0, 15.0, 10.0, 6.0, 14.0, 15.0, 1.0, 4.0, 9.0, 10.0, 17.0, 9.0, 35.0, 18.0, 9.0, 2.0, 21.0, 6.0, 10.0, 15.0, 34.0, 5.0, 24.0, 15.0, 14.0, 10.0, 17.0, 13.0, 20.0, 13.0, 27.0, 7.0, 21.0, 17.0, 20.0, 14.0, 6.0, 8.0, 4.0, 45.0, 11.0, 1.0, 2.0, 7.0, 0.0, 24.0, 21.0, 15.0, 7.0, 11.0, 3.0, 1.0, 8.0, 22.0, 10.0, 15.0, 14.0, 2.0, 1.0, 41.0, 12.0, 6.0, 6.0, 11.0, 1.0, 5.0, 34.0, 18.0, 2.0, 9.0, 3.0, 6.0, 11.0, 1.0, 25.0, 7.0, 17.0, 26.0, 13.0, 28.0, 13.0, 11.0, 11.0, 3.0, 34.0, 7.0, 2.0, 5.0, 12.0, 33.0, 14.0, 19.0, 7.0, 15.0, 20.0, 28.0, 46.0, 4.0, 6.0, 19.0, 34.0, 30.0, 5.0, 8.0, 2.0, 14.0, 13.0, 2.0, 9.0, 11.0, 49.0, 47.0, 4.0, 15.0, 14.0, 34.0, 4.0, 29.0, 22.0, 6.0, 5.0, 16.0, 17.0, 15.0, 27.0, 23.0, 7.0, 10.0, 7.0, 21.0, 13.0, 10.0, 4.0, 15.0, 6.0, 16.0, 4.0, 13.0, 41.0, 7.0, 7.0, 1.0, 9.0, 5.0, 8.0, 9.0, 4.0, 17.0, 4.0, 7.0, 2.0, 6.0, 10.0, 20.0, 4.0, 27.0, 17.0, 16.0, 1.0, 2.0, 22.0, 27.0, 30.0, 7.0, 22.0, 10.0, 29.0, 12.0, 5.0, 24.0, 3.0, 9.0, 8.0, 15.0, 17.0, 0.0, 10.0, 11.0, 9.0, 8.0, 10.0, 10.0, 37.0, 15.0, 4.0, 26.0, 8.0, 16.0, 31.0, 9.0, 22.0, 19.0, 3.0, 6.0, 20.0, 9.0, 26.0, 43.0, 24.0, 9.0, 4.0, 6.0, 8.0, 11.0, 16.0, 38.0, 19.0, 25.0, 1.0, 10.0, 11.0, 9.0, 24.0, 45.0, 6.0, 0.0, 4.0, 12.0, 32.0, 4.0, 11.0, 4.0, 18.0, 42.0, 24.0, 48.0, 20.0, 3.0, 24.0, 8.0, 14.0, 7.0, 12.0, 10.0, 4.0, 13.0, 4.0, 10.0, 10.0, 37.0, 3.0, 12.0, 45.0, 17.0, 7.0, 24.0, 11.0, 5.0, 19.0, 7.0, 3.0, 16.0, 6.0, 1.0, 42.0, 38.0, 14.0, 13.0, 4.0, 26.0, 38.0, 15.0, 11.0, 14.0, 20.0, 16.0, 8.0, 27.0, 21.0, 12.0, 6.0, 30.0, 12.0, 35.0, 20.0, 5.0, 35.0, 21.0, 20.0, 6.0, 16.0, 6.0, 13.0, 26.0, 44.0, 19.0, 21.0, 15.0, 4.0, 48.0, 5.0, 8.0, 5.0, 13.0, 19.0, 12.0, 16.0, 5.0, 10.0, 21.0, 19.0, 8.0, 5.0, 21.0, 3.0, 6.0, 14.0, 4.0, 6.0, 13.0, 30.0, 13.0, 19.0, 17.0, 1.0, 9.0, 17.0, 17.0, 17.0, 23.0, 8.0, 2.0, 7.0, 8.0, 3.0, 13.0, 20.0, 24.0, 20.0, 10.0, 27.0, 13.0, 35.0, 14.0, 1.0, 4.0, 1.0, 2.0, 10.0, 22.0, 31.0, 2.0, 38.0, 7.0, 2.0, 2.0, 16.0, 21.0, 21.0, 29.0, 9.0, 24.0, 17.0, 15.0, 4.0, 4.0, 41.0, 16.0, 22.0, 17.0, 24.0, 17.0, 14.0, 9.0, 12.0, 5.0, 19.0, 23.0, 19.0, 8.0, 17.0, 6.0, 3.0, 4.0, 10.0, 3.0, 6.0, 17.0, 24.0, 11.0, 9.0, 11.0, 40.0, 17.0, 8.0, 16.0, 5.0, 9.0, 2.0, 12.0, 16.0, 20.0, 4.0, 16.0, 2.0, 6.0, 10.0, 5.0, 7.0, 35.0, 13.0, 19.0, 3.0, 19.0, 24.0, 6.0, 9.0, 13.0, 39.0, 6.0, 25.0, 37.0, 7.0, 3.0, 31.0, 10.0, 50.0, 11.0, 22.0, 25.0, 11.0, 8.0, 8.0, 15.0, 39.0, 15.0, 14.0, 14.0, 21.0, 15.0, 8.0, 19.0, 19.0, 19.0, 25.0, 20.0, 12.0, 36.0, 14.0, 22.0, 5.0, 8.0, 6.0, 30.0, 13.0, 12.0, 8.0, 36.0, 14.0, 7.0, 8.0, 5.0, 7.0, 30.0, 9.0, 28.0, 9.0, 12.0, 31.0, 13.0, 12.0, 3.0, 27.0, 22.0, 8.0, 23.0, 7.0, 9.0, 43.0, 34.0, 6.0, 6.0, 9.0, 14.0, 17.0, 14.0, 7.0, 23.0, 13.0, 13.0, 6.0, 9.0, 20.0, 5.0, 8.0, 2.0, 8.0, 1.0, 6.0, 8.0, 10.0, 1.0, 13.0, 7.0, 6.0, 25.0, 20.0, 25.0, 2.0, 36.0, 4.0, 6.0, 20.0, 10.0, 17.0, 9.0, 10.0, 15.0, 11.0, 38.0, 2.0, 14.0, 14.0, 3.0, 2.0, 3.0, 10.0, 7.0, 8.0, 29.0, 60.0, 27.0, 3.0, 15.0, 2.0, 43.0, 32.0, 25.0, 16.0, 16.0, 30.0, 9.0, 1.0, 12.0, 45.0, 11.0, 6.0, 8.0, 31.0, 5.0, 14.0, 16.0, 23.0, 20.0, 12.0, 4.0, 16.0, 2.0, 15.0, 50.0, 10.0, 4.0, 5.0, 5.0, 16.0, 5.0, 34.0, 13.0, 9.0, 10.0, 4.0, 14.0, 42.0, 20.0, 21.0, 5.0, 10.0, 5.0, 10.0, 48.0, 4.0, 9.0, 8.0, 4.0, 51.0, 16.0, 8.0, 17.0, 10.0, 14.0, 21.0, 10.0, 8.0, 8.0, 11.0, 10.0, 6.0, 63.0, 10.0, 6.0, 32.0, 11.0, 1.0, 5.0, 12.0, 13.0, 12.0, 18.0, 5.0, 18.0, 29.0, 8.0, 5.0, 9.0, 6.0, 11.0, 40.0, 15.0, 5.0, 11.0, 5.0, 19.0, 7.0, 35.0, 14.0, 12.0, 7.0, 5.0, 15.0, 2.0, 7.0, 2.0, 20.0, 14.0, 4.0, 29.0, 5.0, 35.0, 26.0, 15.0, 3.0, 12.0, 14.0, 12.0, 23.0, 30.0, 8.0, 8.0, 14.0, 8.0, 1.0, 19.0, 8.0, 8.0, 8.0, 11.0, 8.0, 12.0, 5.0, 13.0, 9.0, 29.0, 64.0, 27.0, 7.0, 2.0, 7.0, 14.0, 2.0, 2.0, 6.0, 13.0, 32.0, 24.0, 20.0, 23.0, 15.0, 8.0, 32.0, 2.0, 13.0, 6.0, 3.0, 10.0, 7.0, 22.0, 6.0, 15.0, 30.0, 6.0, 21.0, 2.0, 8.0, 9.0, 3.0, 25.0, 8.0, 3.0, 2.0, 27.0, 26.0, 7.0, 15.0, 14.0, 2.0, 21.0, 14.0, 4.0, 10.0, 9.0, 15.0, 3.0, 46.0, 10.0, 9.0, 69.0, 14.0, 1.0, 8.0, 74.0, 8.0, 5.0, 17.0, 15.0, 3.0, 23.0, 9.0, 16.0, 37.0, 32.0, 6.0, 9.0, 17.0, 11.0, 17.0, 19.0, 61.0, 10.0, 32.0, 10.0, 8.0, 37.0, 17.0, 19.0, 11.0, 3.0, 18.0, 6.0, 4.0, 15.0, 18.0, 28.0, 15.0, 4.0, 11.0, 24.0, 36.0, 18.0, 32.0, 16.0, 5.0, 21.0, 5.0, 16.0, 12.0, 12.0, 5.0, 23.0, 2.0, 6.0, 34.0, 21.0, 9.0, 10.0, 12.0, 5.0, 12.0, 19.0, 10.0, 11.0, 19.0, 2.0, 13.0, 5.0, 13.0, 7.0, 55.0, 3.0, 17.0, 23.0, 6.0, 3.0, 26.0, 24.0, 17.0, 5.0, 6.0, 1.0, 6.0, 41.0, 6.0, 11.0, 7.0, 7.0, 7.0, 21.0, 3.0, 14.0, 14.0, 21.0, 36.0, 2.0, 41.0, 71.0, 12.0, 7.0, 60.0, 2.0, 6.0, 11.0, 8.0, 34.0, 4.0, 7.0, 22.0, 11.0, 10.0, 6.0, 18.0, 34.0, 13.0, 1.0, 0.0, 22.0, 14.0, 35.0, 4.0, 26.0, 22.0, 1.0, 1.0, 7.0, 5.0, 6.0, 6.0, 15.0, 6.0, 3.0, 46.0, 13.0, 12.0, 14.0, 20.0, 1.0, 34.0, 6.0, 10.0, 5.0, 10.0, 27.0, 0.0, 21.0, 2.0, 8.0, 4.0, 35.0, 8.0, 8.0, 6.0, 12.0, 8.0, 14.0, 22.0, 6.0, 34.0, 34.0, 7.0, 18.0, 16.0, 8.0, 8.0, 24.0, 7.0, 6.0, 1.0, 27.0, 17.0, 11.0, 9.0, 7.0, 17.0, 4.0, 8.0, 3.0, 19.0, 2.0, 14.0, 7.0, 20.0, 7.0, 5.0, 23.0, 14.0, 3.0, 3.0, 21.0, 7.0, 9.0, 13.0, 13.0, 22.0, 15.0, 20.0, 12.0, 28.0, 9.0, 30.0, 35.0, 28.0, 6.0, 30.0, 9.0, 7.0, 5.0, 5.0, 8.0, 17.0, 10.0, 23.0, 23.0, 73.0, 8.0, 7.0, 4.0, 10.0, 36.0, 34.0, 9.0, 2.0, 16.0, 80.0, 17.0, 81.0, 29.0, 9.0, 10.0, 26.0, 26.0, 17.0, 24.0, 9.0, 6.0, 2.0, 23.0, 29.0, 12.0, 8.0, 14.0, 30.0, 8.0, 26.0, 1.0, 17.0, 7.0, 5.0, 9.0, 26.0, 8.0, 5.0, 6.0, 55.0, 1.0, 15.0, 2.0, 6.0, 12.0, 10.0, 9.0, 6.0, 9.0, 29.0, 11.0, 17.0, 25.0, 5.0, 27.0, 27.0, 3.0, 11.0, 14.0, 11.0, 33.0, 16.0, 12.0, 8.0, 8.0, 25.0, 32.0, 18.0, 12.0, 11.0, 2.0, 62.0, 20.0, 14.0, 5.0, 6.0, 10.0, 17.0, 19.0, 32.0, 11.0, 11.0, 6.0, 17.0, 13.0, 9.0, 13.0, 17.0, 13.0, 19.0, 7.0, 4.0, 1.0, 4.0, 25.0, 2.0, 12.0, 4.0, 12.0, 14.0, 2.0, 8.0, 27.0, 4.0, 21.0, 28.0, 1.0, 11.0, 13.0, 13.0, 19.0, 3.0, 27.0, 36.0, 39.0, 27.0, 39.0, 9.0, 23.0, 17.0, 10.0, 4.0, 12.0, 8.0, 0.0, 26.0, 12.0, 19.0, 13.0, 12.0, 27.0, 5.0, 8.0, 20.0, 7.0, 15.0, 2.0, 21.0, 24.0, 13.0, 15.0, 34.0, 13.0, 14.0, 9.0, 13.0, 14.0, 8.0, 11.0, 17.0, 12.0, 3.0, 14.0, 55.0, 2.0, 41.0, 33.0, 15.0, 8.0, 26.0, 14.0, 4.0, 12.0, 29.0, 22.0, 19.0, 6.0, 24.0, 8.0, 8.0, 2.0, 37.0, 1.0, 9.0, 9.0, 27.0, 7.0, 12.0, 7.0, 5.0, 21.0, 6.0, 13.0, 5.0, 23.0, 4.0, 23.0, 35.0, 7.0, 28.0, 15.0, 6.0, 9.0, 1.0, 11.0, 4.0, 3.0, 25.0, 16.0, 14.0, 8.0, 5.0, 22.0, 14.0, 7.0, 15.0, 8.0, 21.0, 14.0, 2.0, 16.0, 13.0, 3.0, 4.0, 32.0, 57.0, 21.0, 13.0, 16.0, 8.0, 19.0, 23.0, 21.0, 9.0, 8.0, 16.0, 12.0, 7.0, 29.0, 7.0, 13.0, 28.0, 15.0, 10.0, 29.0, 0.0, 10.0, 38.0, 4.0, 14.0, 8.0, 6.0, 12.0, 22.0, 11.0, 4.0, 5.0, 12.0, 9.0, 34.0, 7.0, 29.0, 1.0, 26.0, 20.0, 14.0, 4.0, 13.0, 24.0, 16.0, 31.0, 16.0, 10.0, 2.0, 21.0, 2.0, 49.0, 12.0, 16.0, 15.0, 9.0, 23.0, 5.0, 17.0, 9.0, 11.0, 8.0, 15.0, 9.0, 5.0, 9.0, 23.0, 71.0, 9.0, 10.0, 14.0, 15.0, 7.0, 22.0, 12.0, 8.0, 17.0, 33.0, 21.0, 4.0, 17.0, 19.0, 10.0, 6.0, 2.0, 13.0, 14.0, 12.0, 6.0, 13.0, 12.0, 33.0, 8.0, 25.0, 9.0, 19.0, 8.0, 24.0, 13.0, 18.0, 33.0, 29.0, 18.0, 3.0, 16.0, 4.0, 13.0, 17.0, 11.0, 12.0, 10.0, 7.0, 12.0, 27.0, 4.0, 25.0, 17.0, 10.0, 11.0, 18.0, 5.0, 20.0, 18.0, 35.0, 13.0, 6.0, 12.0, 18.0, 27.0, 37.0, 26.0, 13.0, 37.0, 8.0, 7.0, 40.0, 15.0, 8.0, 15.0, 27.0, 23.0, 43.0, 19.0, 6.0, 8.0, 12.0, 5.0, 11.0, 27.0, 13.0, 12.0, 4.0, 14.0, 2.0, 5.0, 14.0, 14.0, 7.0, 48.0, 32.0, 13.0, 22.0, 9.0, 28.0, 20.0, 12.0, 8.0, 2.0, 47.0, 9.0, 55.0, 6.0, 16.0, 5.0, 6.0, 11.0, 46.0, 19.0, 19.0, 19.0, 14.0, 35.0, 47.0, 31.0, 9.0, 13.0, 12.0, 12.0, 13.0, 3.0, 4.0, 10.0, 9.0, 12.0, 18.0, 20.0, 6.0, 63.0, 17.0, 26.0, 16.0, 26.0, 7.0, 10.0, 16.0, 14.0, 15.0, 2.0, 17.0, 17.0, 14.0, 7.0, 14.0, 16.0, 4.0, 10.0, 17.0, 19.0, 7.0, 20.0, 12.0, 30.0, 27.0, 3.0, 8.0, 2.0, 21.0, 6.0, 20.0, 10.0, 2.0, 1.0, 7.0, 22.0, 16.0, 23.0, 14.0, 8.0, 7.0, 49.0, 3.0, 21.0, 2.0, 10.0, 1.0, 10.0, 21.0, 21.0, 8.0, 15.0, 21.0, 16.0, 17.0, 15.0, 30.0, 23.0, 25.0, 24.0, 8.0, 19.0, 7.0, 24.0, 15.0, 17.0, 8.0, 23.0, 2.0, 6.0, 10.0, 26.0, 7.0, 8.0, 85.0, 16.0, 11.0, 21.0, 10.0, 10.0, 11.0, 9.0, 15.0, 9.0, 4.0, 14.0, 79.0, 32.0, 8.0, 2.0, 2.0, 11.0, 21.0, 12.0, 16.0, 3.0, 22.0, 4.0, 16.0, 8.0, 6.0, 44.0, 41.0, 29.0, 19.0, 16.0, 5.0, 5.0, 4.0, 0.0, 6.0, 4.0, 5.0, 9.0, 2.0, 46.0, 1.0, 38.0, 3.0, 24.0, 8.0, 4.0, 15.0, 24.0, 7.0, 9.0, 21.0, 3.0, 18.0, 60.0, 13.0, 37.0, 26.0, 5.0, 14.0, 16.0, 26.0, 3.0, 3.0, 1.0, 14.0, 16.0, 6.0, 5.0, 22.0, 21.0, 11.0, 9.0, 13.0, 2.0, 6.0, 18.0, 60.0, 3.0, 25.0, 24.0, 27.0, 4.0, 10.0, 7.0, 14.0, 16.0, 1.0, 18.0, 3.0, 10.0, 7.0, 45.0, 17.0, 17.0, 17.0, 48.0, 67.0, 13.0, 5.0, 6.0, 12.0, 12.0, 26.0, 2.0, 11.0, 16.0, 18.0, 3.0, 22.0, 20.0, 31.0, 10.0, 26.0, 21.0, 27.0, 15.0, 0.0, 20.0, 8.0, 19.0, 8.0, 63.0, 8.0, 5.0, 8.0, 74.0, 15.0, 27.0, 27.0, 8.0, 1.0, 8.0, 12.0, 35.0, 67.0, 18.0, 19.0, 5.0, 14.0, 18.0, 11.0, 21.0, 8.0, 26.0, 2.0, 3.0, 8.0, 2.0, 2.0, 9.0, 7.0, 7.0, 15.0, 11.0, 20.0, 12.0, 35.0, 71.0, 1.0, 7.0, 4.0, 8.0, 8.0, 6.0, 12.0, 0.0, 8.0, 21.0, 17.0, 15.0, 3.0, 20.0, 20.0, 3.0, 29.0, 8.0, 4.0, 7.0, 18.0, 3.0, 20.0, 2.0, 5.0, 26.0, 26.0, 9.0, 36.0, 23.0, 14.0, 35.0, 34.0, 33.0, 12.0, 15.0, 3.0, 9.0, 15.0, 29.0, 29.0, 29.0, 29.0, 7.0, 61.0, 27.0, 29.0, 6.0, 36.0, 9.0, 13.0, 20.0, 10.0, 10.0, 36.0, 13.0, 4.0, 5.0, 24.0, 22.0, 84.0, 7.0, 6.0, 16.0, 6.0, 10.0, 7.0, 10.0, 13.0, 80.0, 44.0, 9.0, 37.0, 5.0, 11.0, 34.0, 23.0, 22.0, 3.0, 36.0, 16.0, 3.0, 8.0, 1.0, 23.0, 20.0, 20.0, 16.0, 30.0, 15.0, 12.0, 13.0, 17.0, 36.0, 36.0, 28.0, 5.0, 12.0, 24.0, 22.0, 8.0, 7.0, 43.0, 15.0, 24.0, 9.0, 13.0, 7.0, 7.0, 13.0, 15.0, 20.0, 5.0, 11.0, 45.0, 11.0, 29.0, 15.0, 9.0, 12.0, 9.0, 28.0, 14.0, 28.0, 16.0, 16.0, 1.0, 10.0, 7.0, 45.0, 22.0, 17.0, 18.0, 4.0, 11.0, 8.0, 2.0, 16.0, 29.0, 30.0, 23.0, 53.0, 14.0, 11.0, 15.0, 14.0, 7.0, 14.0, 5.0, 10.0, 4.0, 5.0, 17.0, 4.0, 8.0, 2.0, 9.0, 39.0, 18.0, 11.0, 9.0, 4.0, 21.0, 3.0, 23.0, 19.0, 5.0, 7.0, 3.0, 12.0, 32.0, 32.0, 16.0, 17.0, 3.0, 4.0, 5.0, 8.0, 1.0, 38.0, 3.0, 8.0, 11.0, 3.0, 7.0, 39.0, 5.0, 3.0, 52.0, 27.0, 48.0, 9.0, 6.0, 60.0, 12.0, 51.0, 6.0, 3.0, 16.0, 6.0, 4.0, 6.0, 4.0, 27.0, 11.0, 3.0, 1.0, 16.0, 51.0, 12.0, 2.0, 13.0, 9.0, 18.0, 8.0, 4.0, 9.0, 5.0, 9.0, 1.0, 30.0, 52.0, 2.0, 25.0, 17.0, 6.0, 12.0, 20.0, 13.0, 9.0, 1.0, 29.0, 27.0, 27.0, 10.0, 43.0, 5.0, 17.0, 19.0, 10.0, 10.0, 10.0, 6.0, 4.0, 38.0, 12.0, 43.0, 4.0, 6.0, 16.0, 48.0, 11.0, 7.0, 27.0, 18.0, 12.0, 13.0, 12.0, 9.0, 9.0, 25.0, 10.0, 40.0, 7.0, 3.0, 13.0, 30.0, 18.0, 28.0, 42.0, 10.0, 4.0, 1.0, 16.0, 7.0, 7.0, 3.0, 15.0, 3.0, 3.0, 6.0, 7.0, 20.0, 18.0, 16.0, 20.0, 8.0, 13.0, 39.0, 4.0, 14.0, 7.0, 60.0, 4.0, 25.0, 10.0, 0.0, 23.0, 28.0, 21.0, 42.0, 5.0, 19.0, 13.0, 14.0, 5.0, 12.0, 4.0, 22.0, 5.0, 6.0, 15.0, 14.0, 33.0, 6.0, 21.0, 27.0, 8.0, 7.0, 4.0, 9.0, 7.0, 12.0, 27.0, 22.0, 9.0, 8.0, 11.0, 5.0, 13.0, 75.0, 5.0, 16.0, 5.0, 15.0, 7.0, 7.0, 12.0, 9.0, 20.0, 5.0, 29.0, 9.0, 7.0, 8.0, 43.0, 9.0, 6.0, 63.0, 1.0, 14.0, 56.0, 7.0, 6.0, 2.0, 43.0, 3.0, 2.0, 22.0, 26.0, 6.0, 9.0, 34.0, 5.0, 16.0, 3.0, 7.0, 7.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 10.0, 6.0, 28.0, 7.0, 13.0, 14.0, 10.0, 2.0, 34.0, 3.0, 24.0, 10.0, 7.0, 8.0, 15.0, 11.0, 8.0, 43.0, 9.0, 11.0, 1.0, 2.0, 5.0, 37.0, 11.0, 2.0, 36.0, 9.0, 10.0, 13.0, 16.0, 7.0, 11.0, 37.0, 7.0, 16.0, 6.0, 16.0, 9.0, 8.0, 4.0, 6.0, 7.0, 8.0, 4.0, 13.0, 4.0, 11.0, 18.0, 13.0, 0.0, 33.0, 44.0, 62.0, 8.0, 7.0, 4.0, 14.0, 8.0, 78.0, 7.0, 29.0, 18.0, 2.0, 32.0, 14.0, 14.0, 16.0, 25.0, 3.0, 28.0, 10.0, 4.0, 13.0, 14.0, 10.0, 10.0, 73.0, 28.0, 7.0, 7.0, 3.0, 8.0, 7.0, 5.0, 28.0, 17.0, 4.0, 8.0, 71.0, 8.0, 3.0, 2.0, 6.0, 8.0, 10.0, 7.0, 17.0, 25.0, 43.0, 14.0, 14.0, 11.0, 7.0, 16.0, 22.0, 18.0, 11.0, 0.0, 4.0, 8.0, 18.0, 7.0, 10.0, 14.0, 4.0, 4.0, 17.0, 11.0, 44.0, 1.0, 13.0, 3.0, 17.0, 18.0, 14.0, 8.0, 8.0, 15.0, 14.0, 2.0, 23.0, 4.0, 1.0, 23.0, 8.0, 19.0, 1.0, 12.0, 3.0, 37.0, 43.0, 8.0, 16.0, 3.0, 17.0, 2.0, 9.0, 4.0, 24.0, 17.0, 3.0, 43.0, 9.0, 30.0, 18.0, 12.0, 6.0, 2.0, 8.0, 5.0, 29.0, 16.0, 1.0, 3.0, 24.0, 6.0, 5.0, 34.0, 3.0, 15.0, 7.0, 12.0, 38.0, 6.0, 0.0, 23.0, 4.0, 1.0, 9.0, 3.0, 12.0, 12.0, 2.0, 10.0, 17.0, 60.0, 23.0, 8.0, 16.0, 2.0, 67.0, 4.0, 4.0, 19.0, 16.0, 6.0, 40.0, 11.0, 16.0, 20.0, 21.0, 6.0, 7.0, 11.0, 23.0, 26.0, 10.0, 31.0, 13.0, 6.0, 19.0, 13.0, 1.0, 27.0, 13.0, 1.0, 14.0, 5.0, 14.0, 6.0, 10.0, 7.0, 12.0, 10.0, 4.0, 11.0, 14.0, 10.0, 4.0, 24.0, 8.0, 9.0, 11.0, 20.0, 17.0, 21.0, 46.0, 3.0, 7.0, 13.0, 12.0, 10.0, 6.0, 4.0, 21.0, 20.0, 12.0, 3.0, 5.0, 1.0, 11.0, 12.0, 14.0, 13.0, 12.0, 22.0, 14.0, 5.0, 17.0, 11.0, 7.0, 17.0, 48.0, 7.0, 12.0, 5.0, 45.0, 6.0, 10.0, 67.0, 19.0, 3.0, 22.0, 4.0, 7.0, 10.0, 40.0, 8.0, 8.0, 11.0, 11.0, 12.0, 36.0, 3.0, 1.0, 19.0, 1.0, 7.0, 11.0, 14.0, 17.0, 6.0, 12.0, 10.0, 6.0, 25.0, 15.0, 5.0, 3.0, 8.0, 13.0, 11.0, 14.0, 8.0, 4.0, 11.0, 25.0, 5.0, 12.0, 15.0, 1.0, 7.0, 7.0, 4.0, 8.0, 15.0, 5.0, 3.0, 7.0, 6.0, 4.0, 16.0, 6.0, 57.0, 6.0, 21.0, 3.0, 56.0, 56.0, 41.0, 14.0, 5.0, 7.0, 10.0, 3.0, 17.0, 7.0, 21.0, 12.0, 2.0, 7.0, 4.0, 3.0, 6.0, 32.0, 20.0, 14.0, 22.0, 32.0, 22.0, 6.0, 14.0, 7.0, 3.0, 6.0, 8.0, 9.0, 23.0, 13.0, 5.0, 3.0, 14.0, 16.0, 12.0, 38.0, 15.0, 12.0, 19.0, 5.0, 16.0, 6.0, 8.0, 6.0, 1.0, 49.0, 6.0, 8.0, 5.0, 12.0, 5.0, 7.0, 14.0, 15.0, 3.0, 5.0, 17.0, 15.0, 14.0, 6.0, 8.0, 7.0, 13.0, 15.0, 1.0, 9.0, 5.0, 6.0, 15.0, 79.0, 54.0, 7.0, 5.0, 13.0, 25.0, 21.0, 9.0, 16.0, 42.0, 9.0, 3.0, 28.0, 21.0, 10.0, 1.0, 6.0, 13.0, 7.0, 20.0, 27.0, 3.0, 2.0, 14.0, 14.0, 7.0, 22.0, 5.0, 13.0, 15.0, 3.0, 17.0, 16.0, 13.0, 27.0, 14.0, 17.0, 8.0, 8.0, 17.0, 15.0, 8.0, 7.0, 13.0, 13.0, 6.0, 6.0, 66.0, 2.0, 2.0, 5.0, 14.0, 10.0, 13.0, 4.0, 7.0, 16.0, 8.0, 6.0, 6.0, 4.0, 8.0, 7.0, 11.0, 5.0, 10.0, 5.0, 1.0, 26.0, 55.0, 7.0, 13.0, 1.0, 14.0, 9.0, 7.0, 16.0, 13.0, 17.0, 4.0, 23.0, 10.0, 9.0, 9.0, 34.0, 20.0, 7.0, 1.0, 14.0, 8.0, 14.0, 17.0, 3.0, 25.0, 31.0, 33.0, 57.0, 30.0, 8.0, 19.0, 6.0, 15.0, 24.0, 9.0, 30.0, 5.0, 14.0, 8.0, 15.0, 49.0, 21.0, 5.0, 44.0, 3.0, 7.0, 14.0, 3.0, 4.0, 3.0, 7.0, 3.0, 9.0, 22.0, 17.0, 9.0, 7.0, 7.0, 9.0, 8.0, 7.0, 16.0, 43.0, 8.0, 8.0, 9.0, 6.0, 8.0, 27.0, 1.0, 24.0, 11.0, 9.0, 3.0, 9.0, 15.0, 7.0, 3.0, 5.0, 0.0, 16.0, 5.0, 22.0, 10.0, 1.0, 5.0, 24.0, 7.0, 58.0, 2.0, 7.0, 24.0, 16.0, 14.0, 16.0, 16.0, 7.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 3.0, 31.0, 10.0, 7.0, 8.0, 14.0, 25.0, 44.0, 4.0, 5.0, 15.0, 32.0, 2.0, 8.0, 15.0, 5.0, 12.0, 3.0, 12.0, 12.0, 19.0, 11.0, 4.0, 10.0, 73.0, 4.0, 1.0, 12.0, 34.0, 10.0, 36.0, 10.0, 4.0, 6.0, 0.0, 12.0, 4.0, 4.0, 58.0, 10.0, 4.0, 7.0, 5.0, 5.0, 25.0, 25.0, 5.0, 11.0, 8.0, 8.0, 36.0, 12.0, 1.0, 32.0, 6.0, 1.0, 8.0, 8.0, 13.0, 2.0, 8.0, 30.0, 5.0, 8.0, 0.0, 17.0, 10.0, 52.0, 9.0, 12.0, 24.0, 3.0, 26.0, 9.0, 13.0, 8.0, 4.0, 4.0, 43.0, 4.0, 8.0, 22.0, 26.0, 19.0, 10.0, 4.0, 30.0, 6.0, 24.0, 2.0, 2.0, 10.0, 25.0, 5.0, 13.0, 2.0, 17.0, 34.0, 6.0, 3.0, 6.0, 3.0, 16.0, 10.0, 5.0, 41.0, 20.0, 17.0, 2.0, 37.0, 5.0, 24.0, 33.0, 27.0, 8.0, 8.0, 4.0, 17.0, 39.0, 9.0, 10.0, 5.0, 7.0, 24.0, 6.0, 3.0, 11.0, 17.0, 11.0, 1.0, 16.0, 54.0, 9.0, 9.0, 6.0, 2.0, 3.0, 2.0, 10.0, 6.0, 6.0, 11.0, 6.0, 6.0, 7.0, 24.0, 6.0, 3.0, 10.0, 3.0, 12.0, 19.0, 26.0, 3.0, 21.0, 24.0, 10.0, 14.0, 7.0, 7.0, 2.0, 7.0, 13.0, 4.0, 6.0, 25.0, 10.0, 17.0, 11.0, 0.0, 13.0, 42.0, 81.0, 4.0, 7.0, 1.0, 4.0, 14.0, 1.0, 11.0, 4.0, 3.0, 11.0, 28.0, 21.0, 22.0, 2.0, 3.0, 7.0, 49.0, 4.0, 15.0, 7.0, 7.0, 29.0, 4.0, 24.0, 36.0, 14.0, 35.0, 33.0, 10.0, 1.0, 24.0, 20.0, 7.0, 14.0, 11.0, 38.0, 7.0, 8.0, 6.0, 16.0, 34.0, 24.0, 18.0, 7.0, 8.0, 36.0, 7.0, 26.0, 11.0, 14.0, 24.0, 19.0, 9.0, 1.0, 13.0, 17.0, 23.0, 6.0, 19.0, 5.0, 28.0, 3.0, 52.0, 15.0, 10.0, 15.0, 14.0, 26.0, 7.0, 13.0, 5.0, 0.0, 9.0, 8.0, 6.0, 12.0, 4.0, 16.0, 54.0, 5.0, 4.0, 5.0, 55.0, 7.0, 9.0, 2.0, 1.0, 8.0, 22.0, 4.0, 11.0, 9.0, 21.0, 8.0, 1.0, 7.0, 11.0, 12.0, 13.0, 20.0, 3.0, 11.0, 21.0, 7.0, 2.0, 5.0, 2.0, 5.0, 3.0, 6.0, 29.0, 29.0, 9.0, 1.0, 8.0, 15.0, 3.0, 6.0, 1.0, 1.0, 20.0, 10.0, 2.0, 22.0, 22.0, 12.0, 15.0, 47.0, 2.0, 8.0, 11.0, 0.0, 47.0, 12.0, 5.0, 11.0, 1.0, 28.0, 11.0, 12.0, 1.0, 8.0, 9.0, 5.0, 20.0, 14.0, 3.0, 4.0, 41.0, 0.0, 13.0, 9.0, 24.0, 12.0, 39.0, 1.0, 14.0, 22.0, 20.0, 15.0, 6.0, 12.0, 30.0, 8.0, 13.0, 5.0, 14.0, 2.0, 30.0, 8.0, 16.0, 13.0, 3.0, 42.0, 6.0, 1.0, 1.0, 13.0, 4.0, 28.0, 2.0, 15.0, 10.0, 9.0, 14.0, 5.0, 34.0, 20.0, 4.0, 8.0, 11.0, 14.0, 11.0, 17.0, 9.0, 9.0, 9.0, 8.0, 2.0, 6.0, 8.0, 3.0, 8.0, 5.0, 12.0, 13.0, 7.0, 11.0, 20.0, 12.0, 49.0, 13.0, 8.0, 12.0, 9.0, 6.0, 14.0, 3.0, 3.0, 20.0, 25.0, 13.0, 5.0, 9.0, 2.0, 9.0, 21.0, 16.0, 7.0, 13.0, 5.0, 35.0, 16.0, 4.0, 18.0, 3.0, 6.0, 13.0, 6.0, 6.0, 45.0, 1.0, 11.0, 10.0, 14.0, 13.0, 15.0, 12.0, 13.0, 3.0, 15.0, 14.0, 2.0, 21.0, 10.0, 34.0, 6.0, 14.0, 24.0, 13.0, 2.0, 23.0, 4.0, 17.0, 4.0, 6.0, 4.0, 5.0, 3.0, 9.0, 39.0, 14.0, 7.0, 10.0, 1.0, 20.0, 38.0, 8.0, 7.0, 62.0, 31.0, 13.0, 7.0, 11.0, 23.0, 12.0, 1.0, 2.0, 10.0, 21.0, 7.0, 4.0, 6.0, 9.0, 9.0, 31.0, 7.0, 11.0, 15.0, 6.0, 1.0, 1.0, 1.0, 8.0, 8.0, 5.0, 3.0, 27.0, 4.0, 3.0, 2.0, 21.0, 3.0, 13.0, 3.0, 6.0, 6.0, 16.0, 28.0, 17.0, 13.0, 24.0, 7.0, 5.0, 37.0, 7.0, 9.0, 37.0, 15.0, 23.0, 3.0, 23.0, 9.0, 7.0, 23.0, 9.0, 24.0, 14.0, 8.0, 16.0, 13.0, 8.0, 5.0, 10.0, 11.0, 15.0, 4.0, 9.0, 4.0, 26.0, 7.0, 16.0, 11.0, 8.0, 34.0, 8.0, 5.0, 23.0, 4.0, 17.0, 7.0, 8.0, 4.0, 11.0, 23.0, 4.0, 9.0, 22.0, 10.0, 11.0, 18.0, 13.0, 21.0, 51.0, 4.0, 3.0, 7.0, 10.0, 8.0, 11.0, 52.0, 25.0, 1.0, 8.0, 29.0, 2.0, 9.0, 14.0, 9.0, 14.0, 4.0, 3.0, 1.0, 8.0, 3.0, 19.0, 40.0, 3.0, 7.0, 8.0, 16.0, 16.0, 10.0, 2.0, 10.0, 4.0, 17.0, 10.0, 8.0, 7.0, 25.0, 14.0, 1.0, 10.0, 9.0, 17.0, 11.0, 11.0, 14.0, 7.0, 14.0, 63.0, 28.0, 14.0, 16.0, 21.0, 3.0, 3.0, 29.0, 2.0, 7.0, 7.0, 2.0, 4.0, 42.0, 41.0, 5.0, 31.0, 29.0, 7.0, 7.0, 15.0, 16.0, 14.0, 5.0, 3.0, 8.0, 18.0, 16.0, 38.0, 10.0, 2.0, 2.0, 24.0, 2.0, 14.0, 17.0, 9.0, 8.0, 4.0, 11.0, 15.0, 12.0, 15.0, 8.0, 25.0, 75.0, 2.0, 10.0, 11.0, 27.0, 6.0, 3.0, 7.0, 11.0, 22.0, 24.0, 41.0, 18.0, 5.0, 16.0, 15.0, 4.0, 25.0, 5.0, 11.0, 13.0, 2.0, 16.0, 10.0, 5.0, 5.0, 3.0, 1.0, 6.0, 24.0, 15.0, 4.0, 8.0, 17.0, 4.0, 4.0, 5.0, 4.0, 36.0, 9.0, 5.0, 5.0, 38.0, 3.0, 12.0, 5.0, 10.0, 17.0, 24.0, 2.0, 9.0, 9.0, 7.0, 3.0, 11.0, 8.0, 14.0, 11.0, 3.0, 13.0, 5.0, 8.0, 4.0, 11.0, 9.0, 16.0, 3.0, 9.0, 10.0, 24.0, 23.0, 3.0, 6.0, 15.0, 6.0, 9.0, 5.0, 10.0, 17.0, 9.0, 7.0, 9.0, 4.0, 6.0, 6.0, 1.0, 13.0, 12.0, 12.0, 4.0, 16.0, 2.0, 11.0, 5.0, 19.0, 12.0, 10.0, 30.0, 6.0, 12.0, 21.0, 2.0, 34.0, 2.0, 2.0, 2.0, 25.0, 10.0, 8.0, 5.0, 6.0, 16.0, 6.0, 3.0, 7.0, 15.0, 7.0, 19.0, 28.0, 6.0, 17.0, 16.0, 24.0, 9.0, 9.0, 8.0, 4.0, 13.0, 16.0, 6.0, 4.0, 9.0, 3.0, 9.0, 13.0, 11.0, 11.0, 9.0, 6.0, 12.0, 7.0, 6.0, 8.0, 26.0, 3.0, 10.0, 3.0, 6.0, 0.0, 5.0, 14.0, 6.0, 6.0, 17.0, 2.0, 22.0, 5.0, 17.0, 14.0, 8.0, 4.0, 12.0, 12.0, 32.0, 23.0, 6.0, 5.0, 7.0, 3.0, 6.0, 6.0, 20.0, 22.0, 10.0, 27.0, 13.0, 3.0, 20.0, 55.0, 27.0, 6.0, 5.0, 4.0, 7.0, 5.0, 17.0, 19.0, 8.0, 5.0, 19.0, 12.0, 6.0, 4.0, 42.0, 13.0, 21.0, 10.0, 5.0, 17.0, 10.0, 7.0, 3.0, 11.0, 2.0, 17.0, 5.0, 18.0, 3.0, 7.0, 10.0, 4.0, 6.0, 0.0, 13.0, 10.0, 3.0, 3.0, 11.0, 11.0, 7.0, 3.0, 17.0, 5.0, 4.0, 17.0, 11.0, 13.0, 10.0, 4.0, 32.0, 10.0, 6.0, 14.0, 14.0, 13.0, 15.0, 18.0, 4.0, 12.0, 3.0, 6.0, 4.0, 24.0, 25.0, 15.0, 10.0, 9.0, 16.0, 7.0, 7.0, 39.0, 6.0, 6.0, 4.0, 6.0, 1.0, 2.0, 1.0, 7.0, 6.0, 20.0, 1.0, 15.0, 9.0, 5.0, 10.0, 22.0, 5.0, 75.0, 6.0, 1.0, 15.0, 15.0, 8.0, 9.0, 1.0, 15.0, 14.0, 3.0, 14.0, 9.0, 12.0, 9.0, 11.0, 11.0, 5.0, 4.0, 6.0, 6.0, 5.0, 15.0, 4.0, 8.0, 2.0, 5.0, 14.0, 32.0, 21.0, 10.0, 14.0, 19.0, 9.0, 25.0, 58.0, 1.0, 44.0, 3.0, 15.0, 8.0, 5.0, 12.0, 8.0, 8.0, 5.0, 11.0, 20.0, 3.0, 15.0, 18.0, 1.0, 7.0, 2.0, 14.0, 5.0, 4.0, 2.0, 1.0, 3.0, 5.0, 8.0, 5.0, 1.0, 9.0, 25.0, 37.0, 4.0, 2.0, 26.0, 21.0, 11.0, 83.0, 3.0, 21.0, 8.0, 22.0, 9.0, 1.0, 7.0, 7.0, 7.0, 6.0, 15.0, 11.0, 11.0, 8.0, 22.0, 6.0, 5.0, 2.0, 10.0, 15.0, 33.0, 4.0, 30.0, 10.0, 6.0, 6.0, 4.0, 13.0, 14.0, 7.0, 16.0, 6.0, 5.0, 23.0, 21.0, 29.0, 16.0, 7.0, 37.0, 18.0, 10.0, 9.0, 6.0, 7.0, 8.0, 13.0, 2.0, 5.0, 12.0, 7.0, 10.0, 9.0, 22.0, 22.0, 9.0, 1.0, 7.0, 7.0, 13.0, 7.0, 13.0, 15.0, 15.0, 14.0, 2.0, 21.0, 5.0, 23.0, 25.0, 25.0, 39.0, 11.0, 5.0, 23.0, 20.0, 6.0, 20.0, 26.0, 8.0, 7.0, 13.0, 6.0, 7.0, 30.0, 2.0, 27.0, 6.0, 21.0, 6.0, 9.0, 19.0, 13.0, 3.0, 10.0, 88.0, 27.0, 8.0, 14.0, 8.0, 5.0, 5.0, 10.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 8.0, 7.0, 4.0, 7.0, 13.0, 20.0, 17.0, 2.0, 12.0, 14.0, 11.0, 25.0, 49.0, 7.0, 17.0, 5.0, 8.0, 17.0, 2.0, 3.0, 18.0, 12.0, 23.0, 20.0, 7.0, 10.0, 23.0, 25.0, 12.0, 1.0, 7.0, 4.0, 1.0, 6.0, 6.0, 4.0, 22.0, 8.0, 49.0, 42.0, 57.0, 6.0, 17.0, 10.0, 8.0, 16.0, 13.0, 6.0, 6.0, 14.0, 10.0, 3.0, 10.0, 8.0, 7.0, 7.0, 9.0, 30.0, 24.0, 13.0, 13.0, 10.0, 9.0, 28.0, 63.0, 14.0, 10.0, 4.0, 3.0, 1.0, 5.0, 2.0, 6.0, 19.0, 7.0, 16.0, 6.0, 33.0, 3.0, 6.0, 7.0, 10.0, 14.0, 9.0, 17.0, 14.0, 8.0, 3.0, 8.0, 4.0, 14.0, 4.0, 7.0, 66.0, 11.0, 18.0, 59.0, 1.0, 50.0, 14.0, 38.0, 2.0, 24.0, 46.0, 7.0, 7.0, 4.0, 3.0, 2.0, 18.0, 7.0, 15.0, 25.0, 10.0, 7.0, 3.0, 7.0, 8.0, 15.0, 8.0, 5.0, 3.0, 18.0, 7.0, 22.0, 4.0, 9.0, 8.0, 4.0, 10.0, 14.0, 4.0, 11.0, 9.0, 15.0, 22.0, 18.0, 6.0, 43.0, 3.0, 3.0, 7.0, 2.0, 3.0, 5.0, 2.0, 8.0, 5.0, 9.0, 5.0, 11.0, 8.0, 25.0, 7.0, 14.0, 3.0, 21.0, 1.0, 18.0, 9.0, 28.0, 11.0, 3.0, 3.0, 4.0, 4.0, 11.0, 13.0, 24.0, 7.0, 9.0, 21.0, 17.0, 19.0, 14.0, 8.0, 10.0, 11.0, 4.0, 84.0, 7.0, 18.0, 26.0, 3.0, 4.0, 58.0, 2.0, 10.0, 17.0, 9.0, 10.0, 24.0, 10.0, 42.0, 19.0, 22.0, 18.0, 2.0, 19.0, 5.0, 5.0, 20.0, 2.0, 13.0, 30.0, 37.0, 24.0, 10.0, 24.0, 22.0, 44.0, 5.0, 4.0, 17.0, 19.0, 8.0, 2.0, 9.0, 8.0, 22.0, 5.0, 2.0, 11.0, 7.0, 33.0, 10.0, 5.0, 7.0, 10.0, 8.0, 15.0, 13.0, 3.0, 4.0, 10.0, 13.0, 12.0, 1.0, 8.0, 8.0, 6.0, 26.0, 10.0, 9.0, 7.0, 30.0, 35.0, 6.0, 5.0, 3.0, 15.0, 18.0, 4.0, 54.0, 27.0, 4.0, 3.0, 8.0, 65.0, 17.0, 5.0, 29.0, 12.0, 7.0, 47.0, 16.0, 10.0, 10.0, 10.0, 12.0, 4.0, 13.0, 3.0, 4.0, 14.0, 1.0, 6.0, 21.0, 10.0, 4.0, 6.0, 5.0, 10.0, 13.0, 31.0, 6.0, 5.0, 13.0, 6.0, 87.0, 7.0, 4.0, 13.0, 2.0, 4.0, 36.0, 9.0, 14.0, 2.0, 1.0, 32.0, 27.0, 15.0, 1.0, 3.0, 11.0, 2.0, 9.0, 5.0, 27.0, 4.0, 23.0, 44.0, 10.0, 20.0, 2.0, 33.0, 14.0, 6.0, 17.0, 16.0, 33.0, 3.0, 3.0, 6.0, 6.0, 24.0, 24.0, 68.0, 37.0, 2.0, 23.0, 3.0, 8.0, 5.0, 10.0, 13.0, 12.0, 12.0, 5.0, 3.0, 2.0, 11.0, 4.0, 3.0, 10.0, 13.0, 9.0, 11.0, 34.0, 7.0, 13.0, 18.0, 13.0, 3.0, 10.0, 11.0, 10.0, 8.0, 1.0, 7.0, 12.0, 13.0, 8.0, 41.0, 11.0, 7.0, 9.0, 16.0, 21.0, 3.0, 14.0, 16.0, 4.0, 11.0, 1.0, 4.0, 5.0, 7.0, 27.0, 7.0, 3.0, 10.0, 6.0, 7.0, 18.0, 7.0, 12.0, 38.0, 11.0, 12.0, 3.0, 11.0, 6.0, 13.0, 2.0, 7.0, 11.0, 19.0, 6.0, 14.0, 11.0, 17.0, 12.0, 88.0, 10.0, 3.0, 3.0, 14.0, 10.0, 3.0, 43.0, 5.0, 11.0, 10.0, 5.0, 6.0, 39.0, 6.0, 14.0, 27.0, 18.0, 5.0, 3.0, 12.0, 11.0, 20.0, 0.0, 4.0, 11.0, 7.0, 31.0, 16.0, 5.0, 7.0, 11.0, 20.0, 16.0, 56.0, 9.0, 3.0, 21.0, 11.0, 25.0, 8.0, 7.0, 17.0, 54.0, 14.0, 4.0, 3.0, 11.0, 11.0, 7.0, 8.0, 25.0, 7.0, 7.0, 5.0, 7.0, 19.0, 41.0, 7.0, 7.0, 14.0, 3.0, 7.0, 35.0, 2.0, 14.0, 12.0, 6.0, 8.0, 13.0, 4.0, 14.0, 21.0, 8.0, 14.0, 7.0, 10.0, 8.0, 11.0, 9.0, 12.0, 5.0, 6.0, 6.0, 32.0, 16.0, 1.0, 1.0, 20.0, 19.0, 10.0, 3.0, 14.0, 1.0, 5.0, 12.0, 8.0, 15.0, 10.0, 1.0, 3.0, 13.0, 8.0, 50.0, 49.0, 8.0, 1.0, 6.0, 11.0, 17.0, 13.0, 8.0, 10.0, 6.0, 42.0, 8.0, 13.0, 15.0, 26.0, 6.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 33.0, 11.0, 16.0, 11.0, 15.0, 8.0, 6.0, 29.0, 8.0, 14.0, 4.0, 9.0, 14.0, 14.0, 16.0, 14.0, 6.0, 10.0, 8.0, 40.0, 1.0, 1.0, 5.0, 13.0, 1.0, 16.0, 10.0, 15.0, 8.0, 17.0, 4.0, 11.0, 7.0, 2.0, 2.0, 7.0, 17.0, 9.0, 2.0, 2.0, 8.0, 5.0, 19.0, 12.0, 9.0, 12.0, 42.0, 19.0, 9.0, 40.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 14.0, 50.0, 36.0, 15.0, 29.0, 0.0, 9.0, 9.0, 23.0, 22.0, 7.0, 5.0, 51.0, 6.0, 22.0, 1.0, 9.0, 17.0, 22.0, 20.0, 8.0, 7.0, 7.0, 4.0, 23.0, 20.0, 50.0, 20.0, 3.0, 47.0, 7.0, 30.0, 8.0, 20.0, 37.0, 13.0, 15.0, 59.0, 2.0, 22.0, 13.0, 13.0, 30.0, 15.0, 22.0, 18.0, 3.0, 20.0, 10.0, 6.0, 14.0, 48.0, 13.0, 17.0, 10.0, 22.0, 23.0, 6.0, 1.0, 22.0, 14.0, 7.0, 7.0, 10.0, 3.0, 15.0, 6.0, 44.0, 9.0, 15.0, 15.0, 3.0, 7.0, 30.0, 0.0, 6.0, 3.0, 2.0, 10.0, 8.0, 6.0, 20.0, 3.0, 8.0, 14.0, 19.0, 30.0, 8.0, 10.0, 28.0, 33.0, 6.0, 6.0, 6.0, 6.0, 12.0, 10.0, 2.0, 10.0, 5.0, 16.0, 5.0, 5.0, 6.0, 25.0, 1.0, 11.0, 6.0, 6.0, 6.0, 9.0, 8.0, 6.0, 23.0, 9.0, 4.0, 10.0, 7.0, 21.0, 1.0, 3.0, 3.0, 15.0, 10.0, 35.0, 17.0, 52.0, 40.0, 38.0, 11.0, 3.0, 8.0, 2.0, 3.0, 42.0, 36.0, 4.0, 4.0, 60.0, 14.0, 29.0, 9.0, 7.0, 8.0, 15.0, 32.0, 29.0, 11.0, 32.0, 11.0, 7.0, 19.0, 2.0, 1.0, 8.0, 18.0, 16.0, 9.0, 21.0, 23.0, 7.0, 4.0, 1.0, 22.0, 21.0, 5.0, 17.0, 12.0, 11.0, 25.0, 11.0, 9.0, 5.0, 12.0, 5.0, 14.0, 1.0, 5.0, 11.0, 25.0, 9.0, 3.0, 4.0, 18.0, 70.0, 25.0, 63.0, 6.0, 6.0, 17.0, 18.0, 14.0, 8.0, 25.0, 7.0, 37.0, 22.0, 14.0, 25.0, 14.0, 4.0, 4.0, 4.0, 21.0, 3.0, 5.0, 6.0, 54.0, 4.0, 11.0, 3.0, 21.0, 22.0, 35.0, 5.0, 10.0, 10.0, 12.0, 21.0, 65.0, 23.0, 28.0, 10.0, 9.0, 2.0, 3.0, 19.0, 7.0, 5.0, 11.0, 8.0, 10.0, 10.0, 23.0, 12.0, 16.0, 12.0, 15.0, 4.0, 11.0, 16.0, 7.0, 13.0, 5.0, 2.0, 23.0, 13.0, 5.0, 9.0, 14.0, 12.0, 10.0, 10.0, 8.0, 23.0, 4.0, 12.0, 13.0, 31.0, 8.0, 17.0, 60.0, 3.0, 9.0, 37.0, 38.0, 20.0, 9.0, 6.0, 9.0, 8.0, 6.0, 2.0, 13.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 9.0, 24.0, 17.0, 16.0, 19.0, 12.0, 12.0, 11.0, 39.0, 7.0, 26.0, 33.0, 10.0, 3.0, 10.0, 5.0, 4.0, 11.0, 37.0, 20.0, 17.0, 21.0, 10.0, 23.0, 7.0, 20.0, 26.0, 7.0, 20.0, 17.0, 10.0, 26.0, 7.0, 11.0, 18.0, 5.0, 4.0, 21.0, 18.0, 7.0, 15.0, 4.0, 12.0, 12.0, 19.0, 17.0, 4.0, 40.0, 20.0, 7.0, 6.0, 10.0, 14.0, 27.0, 7.0, 14.0, 7.0, 10.0, 5.0, 7.0, 40.0, 3.0, 3.0, 25.0, 21.0, 20.0, 9.0, 14.0, 23.0, 19.0, 13.0, 14.0, 44.0, 55.0, 46.0, 10.0, 10.0, 7.0, 47.0, 12.0, 11.0, 6.0, 12.0, 24.0, 17.0, 10.0, 17.0, 5.0, 17.0, 7.0, 33.0, 45.0, 21.0, 21.0, 7.0, 13.0, 3.0, 6.0, 7.0, 11.0, 15.0, 9.0, 11.0, 13.0, 3.0, 11.0, 4.0, 20.0, 7.0, 8.0, 19.0, 11.0, 13.0, 15.0, 5.0, 8.0, 9.0, 3.0, 19.0, 36.0, 14.0, 16.0, 19.0, 17.0, 19.0, 7.0, 4.0, 38.0, 18.0, 32.0, 11.0, 20.0, 19.0, 15.0, 19.0, 28.0, 16.0, 14.0, 13.0, 25.0, 24.0, 18.0, 10.0, 19.0, 20.0, 11.0, 21.0, 9.0, 14.0, 28.0, 4.0, 18.0, 27.0, 39.0, 38.0, 14.0, 14.0, 19.0, 8.0, 9.0, 27.0, 30.0, 13.0, 21.0, 3.0, 7.0, 15.0, 26.0, 6.0, 20.0, 12.0, 9.0, 9.0, 14.0, 3.0, 19.0, 19.0, 6.0, 50.0, 14.0, 34.0, 9.0, 37.0, 29.0, 3.0, 20.0, 16.0, 21.0, 9.0, 33.0, 16.0, 12.0, 14.0, 24.0, 2.0, 48.0, 15.0, 15.0, 15.0, 4.0, 7.0, 76.0, 38.0, 45.0, 1.0, 42.0, 28.0, 3.0, 17.0, 3.0, 23.0, 23.0, 3.0, 3.0, 10.0, 2.0, 8.0, 20.0, 23.0, 3.0, 8.0, 24.0, 20.0, 6.0, 14.0, 16.0, 4.0, 24.0, 20.0, 17.0, 14.0, 51.0, 13.0, 2.0, 3.0, 16.0, 7.0, 28.0, 18.0, 16.0, 27.0, 13.0, 23.0, 7.0, 22.0, 37.0, 35.0, 14.0, 7.0, 16.0, 51.0, 17.0, 3.0, 10.0, 21.0, 25.0, 15.0, 9.0, 7.0, 17.0, 37.0, 28.0, 7.0, 8.0, 7.0, 2.0, 1.0, 32.0, 3.0, 2.0, 18.0, 12.0, 4.0, 5.0, 9.0, 3.0, 3.0, 26.0, 8.0, 28.0, 11.0, 38.0, 11.0, 17.0, 15.0, 28.0, 9.0, 9.0, 16.0, 29.0, 9.0, 3.0, 20.0, 16.0, 21.0, 15.0, 9.0, 26.0, 53.0, 36.0, 17.0, 4.0, 31.0, 14.0, 7.0, 27.0, 35.0, 30.0, 30.0, 22.0, 18.0, 5.0, 8.0, 8.0, 78.0, 46.0, 24.0, 5.0, 39.0, 9.0, 2.0, 15.0, 14.0, 12.0, 12.0, 4.0, 10.0, 11.0, 8.0, 15.0, 3.0, 5.0, 3.0, 26.0, 10.0, 4.0, 4.0, 10.0, 23.0, 14.0, 39.0, 14.0, 3.0, 33.0, 32.0, 19.0, 1.0, 39.0, 8.0, 23.0, 15.0, 37.0, 8.0, 3.0, 61.0, 10.0, 43.0, 14.0, 4.0, 7.0, 8.0, 2.0, 4.0, 20.0, 5.0, 11.0, 10.0, 32.0, 3.0, 24.0, 66.0, 30.0, 6.0, 66.0, 13.0, 19.0, 3.0, 0.0, 9.0, 2.0, 32.0, 7.0, 18.0, 14.0, 20.0, 7.0, 10.0, 9.0, 6.0, 7.0, 17.0, 29.0, 13.0, 12.0, 5.0, 17.0, 4.0, 12.0, 2.0, 25.0, 7.0, 25.0, 37.0, 19.0, 33.0, 18.0, 26.0, 14.0, 21.0, 25.0, 5.0, 17.0, 4.0, 14.0, 17.0, 47.0, 10.0, 9.0, 26.0, 32.0, 17.0, 49.0, 14.0, 3.0, 30.0, 4.0, 12.0, 29.0, 15.0, 14.0, 5.0, 14.0, 5.0, 21.0, 41.0, 12.0, 12.0, 48.0, 11.0, 4.0, 6.0, 14.0, 5.0, 27.0, 12.0, 15.0, 22.0, 28.0, 32.0, 16.0, 7.0, 13.0, 32.0, 57.0, 38.0, 6.0, 4.0, 6.0, 27.0, 11.0, 25.0, 11.0, 13.0, 11.0, 6.0, 23.0, 24.0, 9.0, 13.0, 12.0, 5.0, 23.0, 2.0, 7.0, 2.0, 13.0, 12.0, 35.0, 4.0, 33.0, 23.0, 19.0, 12.0, 28.0, 18.0, 20.0, 46.0, 7.0, 49.0, 29.0, 1.0, 29.0, 14.0, 17.0, 15.0, 9.0, 7.0, 6.0, 20.0, 13.0, 29.0, 9.0, 51.0, 28.0, 37.0, 16.0, 9.0, 7.0, 27.0, 56.0, 23.0, 21.0, 27.0, 72.0, 24.0, 21.0, 5.0, 9.0, 21.0, 30.0, 3.0, 1.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 7.0, 4.0, 9.0, 8.0, 4.0, 3.0, 4.0, 10.0, 14.0, 0.0, 11.0, 20.0, 2.0, 29.0, 8.0, 5.0, 11.0, 16.0, 20.0, 16.0, 11.0, 14.0, 21.0, 24.0, 18.0, 53.0, 17.0, 36.0, 29.0, 19.0, 11.0, 51.0, 73.0, 57.0, 8.0, 17.0, 15.0, 10.0, 9.0, 8.0, 20.0, 36.0, 50.0, 15.0, 28.0, 30.0, 1.0, 78.0, 17.0, 10.0, 32.0, 19.0, 32.0, 4.0, 16.0, 16.0, 24.0, 3.0, 39.0, 7.0, 35.0, 56.0, 33.0, 12.0, 41.0, 11.0, 12.0, 48.0, 15.0, 25.0, 25.0, 11.0, 6.0, 20.0, 8.0, 10.0, 13.0, 7.0, 23.0, 18.0, 33.0, 12.0, 67.0, 28.0, 26.0, 31.0, 21.0, 38.0, 1.0, 52.0, 14.0, 28.0, 53.0, 20.0, 47.0, 22.0, 17.0, 8.0, 29.0, 11.0, 27.0, 71.0, 1.0, 8.0, 14.0, 19.0, 8.0, 25.0, 27.0, 3.0, 28.0, 39.0, 6.0, 23.0, 63.0, 2.0, 21.0, 32.0, 11.0, 42.0, 4.0, 12.0, 23.0, 9.0, 14.0, 15.0, 13.0, 21.0, 37.0, 38.0, 29.0, 23.0, 36.0, 49.0, 43.0, 64.0, 9.0, 9.0, 10.0, 10.0, 14.0, 24.0, 8.0, 44.0, 18.0, 31.0, 23.0, 56.0, 14.0, 15.0, 9.0, 7.0, 31.0, 8.0, 36.0, 6.0, 9.0, 4.0, 45.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 8.0, 31.0, 16.0, 27.0, 33.0, 32.0, 24.0, 8.0, 30.0, 36.0, 4.0, 39.0, 30.0, 18.0, 22.0, 31.0, 77.0, 16.0, 62.0, 12.0, 8.0, 27.0, 19.0, 6.0, 8.0, 59.0, 48.0, 6.0, 17.0, 16.0, 23.0, 34.0, 48.0, 3.0, 6.0, 1.0, 19.0, 34.0, 20.0, 11.0, 12.0, 45.0, 24.0, 13.0, 35.0, 21.0, 56.0, 7.0, 22.0, 11.0, 5.0, 14.0, 4.0, 36.0, 14.0, 5.0, 2.0, 17.0, 29.0, 14.0, 13.0, 32.0, 37.0, 29.0, 23.0, 32.0, 36.0, 48.0, 19.0, 20.0, 13.0, 19.0, 14.0, 7.0, 47.0, 27.0, 5.0, 15.0, 21.0, 9.0, 43.0, 19.0, 21.0, 33.0, 37.0, 65.0, 39.0, 27.0, 10.0, 13.0, 13.0, 16.0, 27.0, 5.0, 26.0, 6.0, 51.0, 42.0, 44.0, 45.0, 37.0, 28.0, 78.0, 41.0, 43.0, 42.0, 36.0, 52.0, 13.0, 8.0, 23.0, 2.0, 7.0, 8.0, 8.0, 29.0, 65.0, 11.0, 42.0, 16.0, 23.0, 49.0, 8.0, 43.0, 14.0, 60.0, 1.0, 16.0, 78.0, 9.0, 9.0, 4.0, 9.0, 5.0, 22.0, 47.0, 19.0, 16.0, 0.0, 9.0, 3.0, 13.0, 17.0, 72.0, 33.0, 61.0, 4.0, 4.0, 19.0, 14.0, 16.0, 26.0, 49.0, 51.0, 66.0, 83.0, 52.0, 6.0, 27.0, 13.0, 8.0, 47.0, 46.0, 12.0, 8.0, 53.0, 42.0, 21.0, 38.0, 7.0, 16.0, 23.0, 62.0, 33.0, 52.0, 9.0, 22.0, 10.0, 8.0, 44.0, 6.0, 48.0, 56.0, 41.0, 16.0, 15.0, 43.0, 48.0, 13.0, 5.0, 10.0, 43.0, 64.0, 32.0, 44.0, 2.0, 12.0, 79.0, 16.0, 12.0, 9.0, 9.0, 31.0, 3.0, 39.0, 5.0, 53.0, 31.0, 51.0, 11.0, 55.0, 43.0, 62.0, 29.0, 84.0, 47.0, 49.0, 50.0, 47.0, 31.0, 38.0, 16.0, 42.0, 64.0, 21.0, 30.0, 15.0, 8.0, 8.0, 1.0, 2.0, 17.0, 56.0, 84.0, 13.0, 41.0, 68.0, 34.0, 51.0, 17.0, 6.0, 49.0, 49.0, 17.0, 41.0, 19.0, 66.0, 38.0, 17.0, 2.0, 53.0, 70.0, 83.0, 42.0, 55.0, 74.0, 75.0, 83.0, 7.0, 23.0, 44.0, 8.0, 25.0, 41.0</t>
+          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 7.0, 6.0, 6.0, 7.0, 8.0, 8.0, 3.0, 7.0, 6.0, 5.0, 9.0, 11.0, 9.0, 3.0, 8.0, 8.0, 2.0, 3.0, 4.0, 5.0, 7.0, 14.0, 5.0, 14.0, 7.0, 6.0, 13.0, 9.0, 5.0, 9.0, 9.0, 7.0, 2.0, 2.0, 6.0, 11.0, 14.0, 10.0, 6.0, 10.0, 2.0, 6.0, 1.0, 7.0, 12.0, 3.0, 7.0, 10.0, 9.0, 19.0, 2.0, 2.0, 12.0, 5.0, 3.0, 5.0, 6.0, 2.0, 9.0, 6.0, 11.0, 6.0, 10.0, 1.0, 14.0, 2.0, 7.0, 22.0, 5.0, 4.0, 4.0, 3.0, 1.0, 12.0, 13.0, 5.0, 13.0, 15.0, 6.0, 0.0, 2.0, 22.0, 8.0, 12.0, 3.0, 6.0, 9.0, 15.0, 12.0, 14.0, 14.0, 10.0, 14.0, 13.0, 7.0, 13.0, 2.0, 14.0, 3.0, 3.0, 9.0, 5.0, 15.0, 23.0, 17.0, 22.0, 17.0, 6.0, 25.0, 8.0, 14.0, 5.0, 1.0, 7.0, 4.0, 21.0, 4.0, 9.0, 15.0, 17.0, 18.0, 5.0, 12.0, 15.0, 23.0, 4.0, 1.0, 13.0, 3.0, 13.0, 27.0, 11.0, 26.0, 14.0, 11.0, 7.0, 17.0, 19.0, 5.0, 2.0, 7.0, 18.0, 18.0, 12.0, 7.0, 18.0, 3.0, 11.0, 26.0, 4.0, 9.0, 8.0, 1.0, 13.0, 8.0, 14.0, 12.0, 15.0, 16.0, 7.0, 4.0, 7.0, 5.0, 8.0, 4.0, 12.0, 15.0, 19.0, 6.0, 6.0, 11.0, 9.0, 11.0, 6.0, 6.0, 8.0, 5.0, 13.0, 6.0, 14.0, 6.0, 11.0, 13.0, 26.0, 16.0, 22.0, 20.0, 21.0, 14.0, 13.0, 10.0, 14.0, 10.0, 4.0, 3.0, 7.0, 10.0, 4.0, 7.0, 10.0, 15.0, 3.0, 4.0, 6.0, 10.0, 6.0, 11.0, 32.0, 13.0, 3.0, 4.0, 3.0, 10.0, 21.0, 11.0, 12.0, 1.0, 5.0, 19.0, 3.0, 1.0, 16.0, 8.0, 14.0, 6.0, 19.0, 18.0, 4.0, 5.0, 7.0, 2.0, 12.0, 11.0, 22.0, 11.0, 11.0, 5.0, 16.0, 4.0, 6.0, 5.0, 36.0, 10.0, 9.0, 10.0, 4.0, 21.0, 13.0, 24.0, 32.0, 13.0, 8.0, 6.0, 6.0, 22.0, 11.0, 13.0, 16.0, 17.0, 11.0, 17.0, 3.0, 17.0, 13.0, 3.0, 9.0, 11.0, 7.0, 20.0, 31.0, 4.0, 0.0, 4.0, 13.0, 3.0, 11.0, 7.0, 4.0, 4.0, 4.0, 7.0, 9.0, 5.0, 29.0, 9.0, 7.0, 6.0, 6.0, 5.0, 16.0, 2.0, 5.0, 6.0, 7.0, 21.0, 16.0, 16.0, 5.0, 15.0, 18.0, 9.0, 14.0, 5.0, 9.0, 21.0, 8.0, 15.0, 1.0, 20.0, 5.0, 13.0, 32.0, 29.0, 8.0, 20.0, 30.0, 23.0, 7.0, 11.0, 7.0, 11.0, 11.0, 3.0, 17.0, 3.0, 13.0, 10.0, 2.0, 1.0, 4.0, 8.0, 9.0, 1.0, 4.0, 4.0, 3.0, 28.0, 7.0, 12.0, 17.0, 8.0, 5.0, 3.0, 9.0, 4.0, 25.0, 18.0, 10.0, 5.0, 9.0, 9.0, 3.0, 17.0, 33.0, 16.0, 18.0, 12.0, 14.0, 10.0, 17.0, 17.0, 6.0, 23.0, 5.0, 25.0, 5.0, 27.0, 9.0, 2.0, 27.0, 9.0, 17.0, 14.0, 18.0, 10.0, 6.0, 6.0, 13.0, 4.0, 4.0, 18.0, 14.0, 7.0, 5.0, 28.0, 23.0, 10.0, 11.0, 27.0, 9.0, 4.0, 32.0, 7.0, 5.0, 12.0, 11.0, 33.0, 8.0, 34.0, 25.0, 15.0, 4.0, 39.0, 20.0, 4.0, 7.0, 12.0, 19.0, 12.0, 4.0, 5.0, 9.0, 33.0, 23.0, 3.0, 37.0, 9.0, 16.0, 19.0, 21.0, 6.0, 21.0, 14.0, 14.0, 14.0, 3.0, 2.0, 20.0, 13.0, 8.0, 7.0, 37.0, 6.0, 6.0, 4.0, 26.0, 35.0, 17.0, 15.0, 2.0, 6.0, 15.0, 10.0, 6.0, 14.0, 15.0, 1.0, 4.0, 9.0, 10.0, 17.0, 9.0, 35.0, 18.0, 9.0, 2.0, 21.0, 6.0, 10.0, 15.0, 34.0, 5.0, 24.0, 15.0, 14.0, 10.0, 17.0, 13.0, 20.0, 13.0, 27.0, 7.0, 21.0, 17.0, 20.0, 14.0, 6.0, 8.0, 4.0, 45.0, 11.0, 1.0, 2.0, 7.0, 0.0, 24.0, 21.0, 15.0, 7.0, 11.0, 3.0, 1.0, 8.0, 22.0, 10.0, 15.0, 14.0, 2.0, 1.0, 41.0, 12.0, 6.0, 6.0, 11.0, 1.0, 5.0, 34.0, 18.0, 2.0, 9.0, 3.0, 6.0, 11.0, 1.0, 25.0, 7.0, 17.0, 26.0, 13.0, 28.0, 13.0, 11.0, 11.0, 3.0, 34.0, 7.0, 2.0, 5.0, 12.0, 33.0, 14.0, 19.0, 7.0, 15.0, 20.0, 28.0, 46.0, 4.0, 6.0, 19.0, 34.0, 30.0, 5.0, 8.0, 2.0, 14.0, 13.0, 2.0, 9.0, 11.0, 49.0, 47.0, 4.0, 15.0, 14.0, 34.0, 4.0, 29.0, 22.0, 6.0, 5.0, 16.0, 17.0, 15.0, 27.0, 23.0, 7.0, 10.0, 7.0, 21.0, 13.0, 10.0, 4.0, 15.0, 6.0, 16.0, 4.0, 13.0, 41.0, 7.0, 7.0, 1.0, 9.0, 5.0, 8.0, 9.0, 4.0, 17.0, 4.0, 7.0, 2.0, 6.0, 10.0, 20.0, 4.0, 27.0, 17.0, 16.0, 1.0, 2.0, 22.0, 27.0, 30.0, 7.0, 22.0, 10.0, 29.0, 12.0, 5.0, 24.0, 3.0, 9.0, 8.0, 15.0, 17.0, 0.0, 10.0, 11.0, 9.0, 8.0, 10.0, 10.0, 37.0, 15.0, 4.0, 26.0, 8.0, 16.0, 31.0, 9.0, 22.0, 19.0, 3.0, 6.0, 20.0, 9.0, 26.0, 43.0, 24.0, 9.0, 4.0, 6.0, 8.0, 11.0, 16.0, 38.0, 19.0, 25.0, 1.0, 10.0, 11.0, 9.0, 24.0, 45.0, 6.0, 0.0, 4.0, 12.0, 32.0, 4.0, 11.0, 4.0, 18.0, 42.0, 24.0, 48.0, 20.0, 3.0, 24.0, 8.0, 14.0, 7.0, 12.0, 10.0, 4.0, 13.0, 4.0, 10.0, 10.0, 37.0, 3.0, 12.0, 45.0, 17.0, 7.0, 24.0, 11.0, 5.0, 19.0, 7.0, 3.0, 16.0, 6.0, 1.0, 42.0, 38.0, 14.0, 13.0, 4.0, 26.0, 38.0, 15.0, 11.0, 14.0, 20.0, 16.0, 8.0, 27.0, 21.0, 12.0, 6.0, 30.0, 12.0, 35.0, 20.0, 5.0, 35.0, 21.0, 20.0, 6.0, 16.0, 6.0, 13.0, 26.0, 44.0, 19.0, 21.0, 15.0, 4.0, 48.0, 5.0, 8.0, 5.0, 13.0, 19.0, 12.0, 16.0, 5.0, 10.0, 21.0, 19.0, 8.0, 5.0, 21.0, 3.0, 6.0, 14.0, 4.0, 6.0, 13.0, 30.0, 13.0, 19.0, 17.0, 1.0, 9.0, 17.0, 17.0, 17.0, 23.0, 8.0, 2.0, 7.0, 8.0, 3.0, 13.0, 20.0, 24.0, 20.0, 10.0, 27.0, 13.0, 35.0, 14.0, 1.0, 4.0, 1.0, 2.0, 10.0, 22.0, 31.0, 2.0, 38.0, 7.0, 2.0, 2.0, 16.0, 21.0, 21.0, 29.0, 9.0, 24.0, 17.0, 15.0, 4.0, 4.0, 41.0, 16.0, 22.0, 17.0, 24.0, 17.0, 14.0, 9.0, 12.0, 5.0, 19.0, 23.0, 19.0, 8.0, 17.0, 6.0, 3.0, 4.0, 10.0, 3.0, 6.0, 17.0, 24.0, 11.0, 9.0, 11.0, 40.0, 17.0, 8.0, 16.0, 5.0, 9.0, 2.0, 12.0, 16.0, 20.0, 4.0, 16.0, 2.0, 6.0, 10.0, 5.0, 7.0, 35.0, 13.0, 19.0, 3.0, 19.0, 24.0, 6.0, 9.0, 13.0, 39.0, 6.0, 25.0, 37.0, 7.0, 3.0, 31.0, 10.0, 50.0, 11.0, 22.0, 25.0, 11.0, 8.0, 8.0, 15.0, 39.0, 15.0, 14.0, 14.0, 21.0, 15.0, 8.0, 19.0, 19.0, 19.0, 25.0, 20.0, 12.0, 36.0, 14.0, 22.0, 5.0, 8.0, 6.0, 30.0, 13.0, 12.0, 8.0, 36.0, 14.0, 7.0, 8.0, 5.0, 7.0, 30.0, 9.0, 28.0, 9.0, 12.0, 31.0, 13.0, 12.0, 3.0, 27.0, 22.0, 8.0, 23.0, 7.0, 9.0, 43.0, 34.0, 6.0, 6.0, 9.0, 14.0, 17.0, 14.0, 7.0, 23.0, 13.0, 13.0, 6.0, 9.0, 20.0, 5.0, 8.0, 2.0, 8.0, 1.0, 6.0, 8.0, 10.0, 1.0, 13.0, 7.0, 6.0, 25.0, 20.0, 25.0, 2.0, 36.0, 4.0, 6.0, 20.0, 10.0, 17.0, 9.0, 10.0, 15.0, 11.0, 38.0, 2.0, 14.0, 14.0, 3.0, 2.0, 3.0, 10.0, 7.0, 8.0, 29.0, 60.0, 27.0, 3.0, 15.0, 2.0, 43.0, 32.0, 25.0, 16.0, 16.0, 30.0, 9.0, 1.0, 12.0, 45.0, 11.0, 6.0, 8.0, 31.0, 5.0, 14.0, 16.0, 23.0, 20.0, 12.0, 4.0, 16.0, 2.0, 15.0, 50.0, 10.0, 4.0, 5.0, 5.0, 16.0, 5.0, 34.0, 13.0, 9.0, 10.0, 4.0, 14.0, 42.0, 20.0, 21.0, 5.0, 10.0, 5.0, 10.0, 48.0, 4.0, 9.0, 8.0, 4.0, 51.0, 16.0, 8.0, 17.0, 10.0, 14.0, 21.0, 10.0, 8.0, 8.0, 11.0, 10.0, 6.0, 63.0, 10.0, 6.0, 32.0, 11.0, 1.0, 5.0, 12.0, 13.0, 12.0, 18.0, 5.0, 18.0, 29.0, 8.0, 5.0, 9.0, 6.0, 11.0, 40.0, 15.0, 5.0, 11.0, 5.0, 19.0, 7.0, 35.0, 14.0, 12.0, 7.0, 5.0, 15.0, 2.0, 7.0, 2.0, 20.0, 14.0, 4.0, 29.0, 5.0, 35.0, 26.0, 15.0, 3.0, 12.0, 14.0, 12.0, 23.0, 30.0, 8.0, 8.0, 14.0, 8.0, 1.0, 19.0, 8.0, 8.0, 8.0, 11.0, 8.0, 12.0, 5.0, 13.0, 9.0, 29.0, 64.0, 27.0, 7.0, 2.0, 7.0, 14.0, 2.0, 2.0, 6.0, 13.0, 32.0, 24.0, 20.0, 23.0, 15.0, 8.0, 32.0, 2.0, 13.0, 6.0, 3.0, 10.0, 7.0, 22.0, 6.0, 15.0, 30.0, 6.0, 21.0, 2.0, 8.0, 9.0, 3.0, 25.0, 8.0, 3.0, 2.0, 27.0, 26.0, 7.0, 15.0, 14.0, 2.0, 21.0, 14.0, 4.0, 10.0, 9.0, 15.0, 3.0, 46.0, 10.0, 9.0, 69.0, 14.0, 1.0, 8.0, 74.0, 8.0, 5.0, 17.0, 15.0, 3.0, 23.0, 9.0, 16.0, 37.0, 32.0, 6.0, 9.0, 17.0, 11.0, 17.0, 19.0, 61.0, 10.0, 32.0, 10.0, 8.0, 37.0, 17.0, 19.0, 11.0, 3.0, 18.0, 6.0, 4.0, 15.0, 18.0, 28.0, 15.0, 4.0, 11.0, 24.0, 36.0, 18.0, 32.0, 16.0, 5.0, 21.0, 5.0, 16.0, 12.0, 12.0, 5.0, 23.0, 2.0, 6.0, 34.0, 21.0, 9.0, 10.0, 12.0, 5.0, 12.0, 19.0, 10.0, 11.0, 19.0, 2.0, 13.0, 5.0, 13.0, 7.0, 55.0, 3.0, 17.0, 23.0, 6.0, 3.0, 26.0, 24.0, 17.0, 5.0, 6.0, 1.0, 6.0, 41.0, 6.0, 11.0, 7.0, 7.0, 7.0, 21.0, 3.0, 14.0, 14.0, 21.0, 36.0, 2.0, 41.0, 71.0, 12.0, 7.0, 60.0, 2.0, 6.0, 11.0, 8.0, 34.0, 4.0, 7.0, 22.0, 11.0, 10.0, 6.0, 18.0, 34.0, 13.0, 1.0, 0.0, 22.0, 14.0, 35.0, 4.0, 26.0, 22.0, 1.0, 1.0, 7.0, 5.0, 6.0, 6.0, 15.0, 6.0, 3.0, 46.0, 13.0, 12.0, 14.0, 20.0, 1.0, 34.0, 6.0, 10.0, 5.0, 10.0, 27.0, 0.0, 21.0, 2.0, 8.0, 4.0, 35.0, 8.0, 8.0, 6.0, 12.0, 8.0, 14.0, 22.0, 6.0, 34.0, 34.0, 7.0, 18.0, 16.0, 8.0, 8.0, 24.0, 7.0, 6.0, 1.0, 27.0, 17.0, 11.0, 9.0, 7.0, 17.0, 4.0, 8.0, 3.0, 19.0, 2.0, 14.0, 7.0, 20.0, 7.0, 5.0, 23.0, 14.0, 3.0, 3.0, 21.0, 7.0, 9.0, 13.0, 13.0, 22.0, 15.0, 20.0, 12.0, 28.0, 9.0, 30.0, 35.0, 28.0, 6.0, 30.0, 9.0, 7.0, 5.0, 5.0, 8.0, 17.0, 10.0, 23.0, 23.0, 73.0, 8.0, 7.0, 4.0, 10.0, 36.0, 34.0, 9.0, 2.0, 16.0, 80.0, 17.0, 81.0, 29.0, 9.0, 10.0, 26.0, 26.0, 17.0, 24.0, 9.0, 6.0, 2.0, 23.0, 29.0, 12.0, 8.0, 14.0, 30.0, 8.0, 26.0, 1.0, 17.0, 7.0, 5.0, 9.0, 26.0, 8.0, 5.0, 6.0, 55.0, 1.0, 15.0, 2.0, 6.0, 12.0, 10.0, 9.0, 6.0, 9.0, 29.0, 11.0, 17.0, 25.0, 5.0, 27.0, 27.0, 3.0, 11.0, 14.0, 11.0, 33.0, 16.0, 12.0, 8.0, 8.0, 25.0, 32.0, 18.0, 12.0, 11.0, 2.0, 62.0, 20.0, 14.0, 5.0, 6.0, 10.0, 17.0, 19.0, 32.0, 11.0, 11.0, 6.0, 17.0, 13.0, 9.0, 13.0, 17.0, 13.0, 19.0, 7.0, 4.0, 1.0, 4.0, 25.0, 2.0, 12.0, 4.0, 12.0, 14.0, 2.0, 8.0, 27.0, 4.0, 21.0, 28.0, 1.0, 11.0, 13.0, 13.0, 19.0, 3.0, 27.0, 36.0, 39.0, 27.0, 39.0, 9.0, 23.0, 17.0, 10.0, 4.0, 12.0, 8.0, 0.0, 26.0, 12.0, 19.0, 13.0, 12.0, 27.0, 5.0, 8.0, 20.0, 7.0, 15.0, 2.0, 21.0, 24.0, 13.0, 15.0, 34.0, 13.0, 14.0, 9.0, 13.0, 14.0, 8.0, 11.0, 17.0, 12.0, 3.0, 14.0, 55.0, 2.0, 41.0, 33.0, 15.0, 8.0, 26.0, 14.0, 4.0, 12.0, 29.0, 22.0, 19.0, 6.0, 24.0, 8.0, 8.0, 2.0, 37.0, 1.0, 9.0, 9.0, 27.0, 7.0, 12.0, 7.0, 5.0, 21.0, 6.0, 13.0, 5.0, 23.0, 4.0, 23.0, 35.0, 7.0, 28.0, 15.0, 6.0, 9.0, 1.0, 11.0, 4.0, 3.0, 25.0, 16.0, 14.0, 8.0, 5.0, 22.0, 14.0, 7.0, 15.0, 8.0, 21.0, 14.0, 2.0, 16.0, 13.0, 3.0, 4.0, 32.0, 57.0, 21.0, 13.0, 16.0, 8.0, 19.0, 23.0, 21.0, 9.0, 8.0, 16.0, 12.0, 7.0, 29.0, 7.0, 13.0, 28.0, 15.0, 10.0, 29.0, 0.0, 10.0, 38.0, 4.0, 14.0, 8.0, 6.0, 12.0, 22.0, 11.0, 4.0, 5.0, 12.0, 9.0, 34.0, 7.0, 29.0, 1.0, 26.0, 20.0, 14.0, 4.0, 13.0, 24.0, 16.0, 31.0, 16.0, 10.0, 2.0, 21.0, 2.0, 49.0, 12.0, 16.0, 15.0, 9.0, 23.0, 5.0, 17.0, 9.0, 11.0, 8.0, 15.0, 9.0, 5.0, 9.0, 23.0, 71.0, 9.0, 10.0, 14.0, 15.0, 7.0, 22.0, 12.0, 8.0, 17.0, 33.0, 21.0, 4.0, 17.0, 19.0, 10.0, 6.0, 2.0, 13.0, 14.0, 12.0, 6.0, 13.0, 12.0, 33.0, 8.0, 25.0, 9.0, 19.0, 8.0, 24.0, 13.0, 18.0, 33.0, 29.0, 18.0, 3.0, 16.0, 4.0, 13.0, 17.0, 11.0, 12.0, 10.0, 7.0, 12.0, 27.0, 4.0, 25.0, 17.0, 10.0, 11.0, 18.0, 5.0, 20.0, 18.0, 35.0, 13.0, 6.0, 12.0, 18.0, 27.0, 37.0, 26.0, 13.0, 37.0, 8.0, 7.0, 40.0, 15.0, 8.0, 15.0, 27.0, 23.0, 43.0, 19.0, 6.0, 8.0, 12.0, 5.0, 11.0, 27.0, 13.0, 12.0, 4.0, 14.0, 2.0, 5.0, 14.0, 14.0, 7.0, 48.0, 32.0, 13.0, 22.0, 9.0, 28.0, 20.0, 12.0, 8.0, 2.0, 47.0, 9.0, 55.0, 6.0, 16.0, 5.0, 6.0, 11.0, 46.0, 19.0, 19.0, 19.0, 14.0, 35.0, 47.0, 31.0, 9.0, 13.0, 12.0, 12.0, 13.0, 3.0, 4.0, 10.0, 9.0, 12.0, 18.0, 20.0, 6.0, 63.0, 17.0, 26.0, 16.0, 26.0, 7.0, 10.0, 16.0, 14.0, 15.0, 2.0, 17.0, 17.0, 14.0, 7.0, 14.0, 16.0, 4.0, 10.0, 17.0, 19.0, 7.0, 20.0, 12.0, 30.0, 27.0, 3.0, 8.0, 2.0, 21.0, 6.0, 20.0, 10.0, 2.0, 1.0, 7.0, 22.0, 16.0, 23.0, 14.0, 8.0, 7.0, 49.0, 3.0, 21.0, 2.0, 10.0, 1.0, 10.0, 21.0, 21.0, 8.0, 15.0, 21.0, 16.0, 17.0, 15.0, 30.0, 23.0, 25.0, 24.0, 8.0, 19.0, 7.0, 24.0, 15.0, 17.0, 8.0, 23.0, 2.0, 6.0, 10.0, 26.0, 7.0, 8.0, 85.0, 16.0, 11.0, 21.0, 10.0, 10.0, 11.0, 9.0, 15.0, 9.0, 4.0, 14.0, 79.0, 32.0, 8.0, 2.0, 2.0, 11.0, 21.0, 12.0, 16.0, 3.0, 22.0, 4.0, 16.0, 8.0, 6.0, 44.0, 41.0, 29.0, 19.0, 16.0, 5.0, 5.0, 4.0, 0.0, 6.0, 4.0, 5.0, 9.0, 2.0, 46.0, 1.0, 38.0, 3.0, 24.0, 8.0, 4.0, 15.0, 24.0, 7.0, 9.0, 21.0, 3.0, 18.0, 60.0, 13.0, 37.0, 26.0, 5.0, 14.0, 16.0, 26.0, 3.0, 3.0, 1.0, 14.0, 16.0, 6.0, 5.0, 22.0, 21.0, 11.0, 9.0, 13.0, 2.0, 6.0, 18.0, 60.0, 3.0, 25.0, 24.0, 27.0, 4.0, 10.0, 7.0, 14.0, 16.0, 1.0, 18.0, 3.0, 10.0, 7.0, 45.0, 17.0, 17.0, 17.0, 48.0, 67.0, 13.0, 5.0, 6.0, 12.0, 12.0, 26.0, 2.0, 11.0, 16.0, 18.0, 3.0, 22.0, 20.0, 31.0, 10.0, 26.0, 21.0, 27.0, 15.0, 0.0, 20.0, 8.0, 19.0, 8.0, 63.0, 8.0, 5.0, 8.0, 74.0, 15.0, 27.0, 27.0, 8.0, 1.0, 8.0, 12.0, 35.0, 67.0, 18.0, 19.0, 5.0, 14.0, 18.0, 11.0, 21.0, 8.0, 26.0, 2.0, 3.0, 8.0, 2.0, 2.0, 9.0, 7.0, 7.0, 15.0, 11.0, 20.0, 12.0, 35.0, 71.0, 1.0, 7.0, 4.0, 8.0, 8.0, 6.0, 12.0, 0.0, 8.0, 21.0, 17.0, 15.0, 3.0, 20.0, 20.0, 3.0, 29.0, 8.0, 4.0, 7.0, 18.0, 3.0, 20.0, 2.0, 5.0, 26.0, 26.0, 9.0, 36.0, 23.0, 14.0, 35.0, 34.0, 33.0, 12.0, 15.0, 3.0, 9.0, 15.0, 29.0, 29.0, 29.0, 29.0, 7.0, 61.0, 27.0, 29.0, 6.0, 36.0, 9.0, 13.0, 20.0, 10.0, 10.0, 36.0, 13.0, 4.0, 5.0, 24.0, 22.0, 84.0, 7.0, 6.0, 16.0, 6.0, 10.0, 7.0, 10.0, 13.0, 80.0, 44.0, 9.0, 37.0, 5.0, 11.0, 34.0, 23.0, 22.0, 3.0, 36.0, 16.0, 3.0, 8.0, 1.0, 23.0, 20.0, 20.0, 16.0, 30.0, 15.0, 12.0, 13.0, 17.0, 36.0, 36.0, 28.0, 5.0, 12.0, 24.0, 22.0, 8.0, 7.0, 43.0, 15.0, 24.0, 9.0, 13.0, 7.0, 7.0, 13.0, 15.0, 20.0, 5.0, 11.0, 45.0, 11.0, 29.0, 15.0, 9.0, 12.0, 9.0, 28.0, 14.0, 28.0, 16.0, 16.0, 1.0, 10.0, 7.0, 45.0, 22.0, 17.0, 18.0, 4.0, 11.0, 8.0, 2.0, 16.0, 29.0, 30.0, 23.0, 53.0, 14.0, 11.0, 15.0, 14.0, 7.0, 14.0, 5.0, 10.0, 4.0, 5.0, 17.0, 4.0, 8.0, 2.0, 9.0, 39.0, 18.0, 11.0, 9.0, 4.0, 21.0, 3.0, 23.0, 19.0, 5.0, 7.0, 3.0, 12.0, 32.0, 32.0, 16.0, 17.0, 3.0, 4.0, 5.0, 8.0, 1.0, 38.0, 3.0, 8.0, 11.0, 3.0, 7.0, 39.0, 5.0, 3.0, 52.0, 27.0, 48.0, 9.0, 6.0, 60.0, 12.0, 51.0, 6.0, 3.0, 16.0, 6.0, 4.0, 6.0, 4.0, 27.0, 11.0, 3.0, 1.0, 16.0, 51.0, 12.0, 2.0, 13.0, 9.0, 18.0, 8.0, 4.0, 9.0, 5.0, 9.0, 1.0, 30.0, 52.0, 2.0, 25.0, 17.0, 6.0, 12.0, 20.0, 13.0, 9.0, 1.0, 29.0, 27.0, 27.0, 10.0, 43.0, 5.0, 17.0, 19.0, 10.0, 10.0, 10.0, 6.0, 4.0, 38.0, 12.0, 43.0, 4.0, 6.0, 16.0, 48.0, 11.0, 7.0, 27.0, 18.0, 12.0, 13.0, 12.0, 9.0, 9.0, 25.0, 10.0, 40.0, 7.0, 3.0, 13.0, 30.0, 18.0, 28.0, 42.0, 10.0, 4.0, 1.0, 16.0, 7.0, 7.0, 3.0, 15.0, 3.0, 3.0, 6.0, 7.0, 20.0, 18.0, 16.0, 20.0, 8.0, 13.0, 39.0, 4.0, 14.0, 7.0, 60.0, 4.0, 25.0, 10.0, 0.0, 23.0, 28.0, 21.0, 42.0, 5.0, 19.0, 13.0, 14.0, 5.0, 12.0, 4.0, 22.0, 5.0, 6.0, 15.0, 14.0, 33.0, 6.0, 21.0, 27.0, 8.0, 7.0, 4.0, 9.0, 7.0, 12.0, 27.0, 22.0, 9.0, 8.0, 11.0, 5.0, 13.0, 75.0, 5.0, 16.0, 5.0, 15.0, 7.0, 7.0, 12.0, 9.0, 20.0, 5.0, 29.0, 9.0, 7.0, 8.0, 43.0, 9.0, 6.0, 63.0, 1.0, 14.0, 56.0, 7.0, 6.0, 2.0, 43.0, 3.0, 2.0, 22.0, 26.0, 6.0, 9.0, 34.0, 5.0, 16.0, 3.0, 7.0, 7.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 10.0, 6.0, 28.0, 7.0, 13.0, 14.0, 10.0, 2.0, 34.0, 3.0, 24.0, 10.0, 7.0, 8.0, 15.0, 11.0, 8.0, 43.0, 9.0, 11.0, 1.0, 2.0, 5.0, 37.0, 11.0, 2.0, 36.0, 9.0, 10.0, 13.0, 16.0, 7.0, 11.0, 37.0, 7.0, 16.0, 6.0, 16.0, 9.0, 8.0, 4.0, 6.0, 7.0, 8.0, 4.0, 13.0, 4.0, 11.0, 18.0, 13.0, 0.0, 33.0, 44.0, 62.0, 8.0, 7.0, 4.0, 14.0, 8.0, 78.0, 7.0, 29.0, 18.0, 2.0, 32.0, 14.0, 14.0, 16.0, 25.0, 3.0, 28.0, 10.0, 4.0, 13.0, 14.0, 10.0, 10.0, 73.0, 28.0, 7.0, 7.0, 3.0, 8.0, 7.0, 5.0, 28.0, 17.0, 4.0, 8.0, 71.0, 8.0, 3.0, 2.0, 6.0, 8.0, 10.0, 7.0, 17.0, 25.0, 43.0, 14.0, 14.0, 11.0, 7.0, 16.0, 22.0, 18.0, 11.0, 0.0, 4.0, 8.0, 18.0, 7.0, 10.0, 14.0, 4.0, 4.0, 17.0, 11.0, 44.0, 1.0, 13.0, 3.0, 17.0, 18.0, 14.0, 8.0, 8.0, 15.0, 14.0, 2.0, 23.0, 4.0, 1.0, 23.0, 8.0, 19.0, 1.0, 12.0, 3.0, 37.0, 43.0, 8.0, 16.0, 3.0, 17.0, 2.0, 9.0, 4.0, 24.0, 17.0, 3.0, 43.0, 9.0, 30.0, 18.0, 12.0, 6.0, 2.0, 8.0, 5.0, 29.0, 16.0, 1.0, 3.0, 24.0, 6.0, 5.0, 34.0, 3.0, 15.0, 7.0, 12.0, 38.0, 6.0, 0.0, 23.0, 4.0, 1.0, 9.0, 3.0, 12.0, 12.0, 2.0, 10.0, 17.0, 60.0, 23.0, 8.0, 16.0, 2.0, 67.0, 4.0, 4.0, 19.0, 16.0, 6.0, 40.0, 11.0, 16.0, 20.0, 21.0, 6.0, 7.0, 11.0, 23.0, 26.0, 10.0, 31.0, 13.0, 6.0, 19.0, 13.0, 1.0, 27.0, 13.0, 1.0, 14.0, 5.0, 14.0, 6.0, 10.0, 7.0, 12.0, 10.0, 4.0, 11.0, 14.0, 10.0, 4.0, 24.0, 8.0, 9.0, 11.0, 20.0, 17.0, 21.0, 46.0, 3.0, 7.0, 13.0, 12.0, 10.0, 6.0, 4.0, 21.0, 20.0, 12.0, 3.0, 5.0, 1.0, 11.0, 12.0, 14.0, 13.0, 12.0, 22.0, 14.0, 5.0, 17.0, 11.0, 7.0, 17.0, 48.0, 7.0, 12.0, 5.0, 45.0, 6.0, 10.0, 67.0, 19.0, 3.0, 22.0, 4.0, 7.0, 10.0, 40.0, 8.0, 8.0, 11.0, 11.0, 12.0, 36.0, 3.0, 1.0, 19.0, 1.0, 7.0, 11.0, 14.0, 17.0, 6.0, 12.0, 10.0, 6.0, 25.0, 15.0, 5.0, 3.0, 8.0, 13.0, 11.0, 14.0, 8.0, 4.0, 11.0, 25.0, 5.0, 12.0, 15.0, 1.0, 106.0, 7.0, 7.0, 4.0, 8.0, 15.0, 5.0, 3.0, 7.0, 6.0, 4.0, 16.0, 6.0, 57.0, 6.0, 21.0, 3.0, 56.0, 56.0, 41.0, 14.0, 5.0, 7.0, 10.0, 3.0, 17.0, 7.0, 21.0, 12.0, 2.0, 7.0, 4.0, 3.0, 6.0, 32.0, 20.0, 14.0, 22.0, 32.0, 22.0, 6.0, 14.0, 7.0, 3.0, 6.0, 8.0, 9.0, 23.0, 13.0, 5.0, 3.0, 14.0, 16.0, 12.0, 38.0, 15.0, 12.0, 19.0, 5.0, 16.0, 6.0, 8.0, 6.0, 1.0, 49.0, 6.0, 8.0, 5.0, 12.0, 5.0, 7.0, 14.0, 15.0, 3.0, 5.0, 17.0, 15.0, 14.0, 6.0, 8.0, 7.0, 13.0, 15.0, 1.0, 9.0, 5.0, 6.0, 15.0, 79.0, 54.0, 7.0, 5.0, 13.0, 107.0, 25.0, 21.0, 9.0, 16.0, 42.0, 9.0, 3.0, 28.0, 21.0, 10.0, 1.0, 6.0, 13.0, 7.0, 20.0, 27.0, 3.0, 2.0, 14.0, 14.0, 7.0, 22.0, 5.0, 13.0, 15.0, 3.0, 17.0, 16.0, 13.0, 27.0, 14.0, 17.0, 8.0, 8.0, 17.0, 15.0, 8.0, 7.0, 13.0, 13.0, 6.0, 6.0, 66.0, 2.0, 2.0, 5.0, 14.0, 10.0, 13.0, 4.0, 7.0, 16.0, 8.0, 6.0, 6.0, 4.0, 8.0, 7.0, 11.0, 5.0, 10.0, 5.0, 1.0, 26.0, 55.0, 7.0, 13.0, 1.0, 14.0, 9.0, 7.0, 16.0, 13.0, 17.0, 4.0, 23.0, 10.0, 9.0, 9.0, 34.0, 20.0, 7.0, 1.0, 14.0, 8.0, 14.0, 17.0, 3.0, 25.0, 31.0, 33.0, 57.0, 30.0, 8.0, 19.0, 6.0, 15.0, 24.0, 9.0, 30.0, 5.0, 14.0, 8.0, 15.0, 49.0, 21.0, 5.0, 44.0, 3.0, 7.0, 14.0, 3.0, 4.0, 3.0, 7.0, 3.0, 9.0, 22.0, 17.0, 9.0, 7.0, 7.0, 9.0, 8.0, 7.0, 16.0, 43.0, 8.0, 8.0, 9.0, 6.0, 8.0, 27.0, 1.0, 24.0, 11.0, 9.0, 3.0, 9.0, 15.0, 7.0, 3.0, 5.0, 0.0, 16.0, 5.0, 22.0, 10.0, 1.0, 5.0, 24.0, 7.0, 58.0, 2.0, 7.0, 24.0, 16.0, 14.0, 16.0, 16.0, 7.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 3.0, 31.0, 10.0, 7.0, 8.0, 14.0, 25.0, 44.0, 4.0, 5.0, 15.0, 32.0, 2.0, 8.0, 15.0, 5.0, 12.0, 3.0, 12.0, 12.0, 19.0, 11.0, 4.0, 10.0, 73.0, 4.0, 1.0, 12.0, 34.0, 10.0, 36.0, 10.0, 4.0, 6.0, 0.0, 12.0, 4.0, 4.0, 58.0, 10.0, 4.0, 7.0, 5.0, 5.0, 25.0, 25.0, 5.0, 11.0, 8.0, 8.0, 36.0, 12.0, 1.0, 32.0, 6.0, 1.0, 8.0, 8.0, 13.0, 2.0, 8.0, 30.0, 5.0, 8.0, 0.0, 17.0, 10.0, 52.0, 9.0, 12.0, 24.0, 3.0, 26.0, 9.0, 13.0, 8.0, 4.0, 4.0, 43.0, 4.0, 8.0, 22.0, 26.0, 19.0, 10.0, 4.0, 30.0, 6.0, 24.0, 2.0, 2.0, 10.0, 25.0, 5.0, 13.0, 2.0, 17.0, 34.0, 6.0, 3.0, 6.0, 3.0, 16.0, 10.0, 5.0, 41.0, 20.0, 17.0, 2.0, 37.0, 5.0, 24.0, 33.0, 27.0, 8.0, 8.0, 4.0, 17.0, 39.0, 9.0, 10.0, 5.0, 7.0, 24.0, 6.0, 3.0, 11.0, 17.0, 11.0, 1.0, 16.0, 54.0, 9.0, 9.0, 6.0, 2.0, 3.0, 2.0, 10.0, 6.0, 6.0, 11.0, 6.0, 6.0, 7.0, 24.0, 6.0, 3.0, 10.0, 3.0, 12.0, 19.0, 26.0, 3.0, 21.0, 24.0, 10.0, 14.0, 7.0, 7.0, 2.0, 7.0, 13.0, 4.0, 6.0, 25.0, 10.0, 17.0, 11.0, 0.0, 13.0, 42.0, 81.0, 4.0, 7.0, 1.0, 4.0, 14.0, 1.0, 11.0, 4.0, 3.0, 11.0, 28.0, 21.0, 22.0, 2.0, 3.0, 7.0, 49.0, 4.0, 15.0, 7.0, 7.0, 29.0, 4.0, 24.0, 36.0, 14.0, 35.0, 33.0, 10.0, 1.0, 24.0, 20.0, 7.0, 14.0, 11.0, 38.0, 7.0, 8.0, 6.0, 16.0, 34.0, 24.0, 18.0, 7.0, 8.0, 36.0, 7.0, 26.0, 11.0, 14.0, 24.0, 19.0, 9.0, 1.0, 13.0, 17.0, 23.0, 6.0, 19.0, 5.0, 28.0, 3.0, 52.0, 15.0, 10.0, 15.0, 14.0, 26.0, 7.0, 13.0, 5.0, 0.0, 9.0, 8.0, 6.0, 12.0, 4.0, 16.0, 54.0, 5.0, 4.0, 5.0, 55.0, 7.0, 9.0, 2.0, 1.0, 8.0, 22.0, 4.0, 11.0, 9.0, 21.0, 8.0, 1.0, 7.0, 11.0, 12.0, 13.0, 20.0, 3.0, 11.0, 21.0, 7.0, 2.0, 5.0, 2.0, 5.0, 3.0, 6.0, 29.0, 29.0, 9.0, 1.0, 8.0, 15.0, 3.0, 6.0, 1.0, 1.0, 20.0, 10.0, 2.0, 22.0, 22.0, 12.0, 15.0, 47.0, 2.0, 8.0, 11.0, 0.0, 102.0, 47.0, 12.0, 5.0, 11.0, 1.0, 28.0, 11.0, 12.0, 1.0, 8.0, 9.0, 5.0, 20.0, 14.0, 3.0, 4.0, 41.0, 0.0, 13.0, 9.0, 24.0, 12.0, 39.0, 1.0, 14.0, 22.0, 20.0, 15.0, 6.0, 12.0, 30.0, 8.0, 13.0, 5.0, 14.0, 2.0, 30.0, 8.0, 16.0, 13.0, 3.0, 42.0, 6.0, 1.0, 1.0, 13.0, 4.0, 28.0, 2.0, 15.0, 10.0, 9.0, 14.0, 5.0, 34.0, 20.0, 4.0, 8.0, 11.0, 14.0, 11.0, 17.0, 9.0, 9.0, 9.0, 8.0, 2.0, 6.0, 8.0, 3.0, 8.0, 5.0, 12.0, 13.0, 7.0, 11.0, 20.0, 12.0, 49.0, 13.0, 8.0, 12.0, 9.0, 6.0, 14.0, 3.0, 3.0, 20.0, 25.0, 13.0, 5.0, 9.0, 2.0, 9.0, 21.0, 16.0, 7.0, 13.0, 5.0, 35.0, 16.0, 4.0, 18.0, 3.0, 6.0, 13.0, 6.0, 6.0, 45.0, 1.0, 11.0, 10.0, 14.0, 13.0, 15.0, 12.0, 13.0, 3.0, 15.0, 14.0, 2.0, 21.0, 10.0, 34.0, 6.0, 14.0, 24.0, 13.0, 2.0, 23.0, 4.0, 17.0, 4.0, 6.0, 4.0, 5.0, 3.0, 9.0, 39.0, 14.0, 7.0, 10.0, 1.0, 20.0, 38.0, 8.0, 7.0, 62.0, 31.0, 13.0, 7.0, 11.0, 23.0, 12.0, 1.0, 2.0, 10.0, 21.0, 7.0, 4.0, 6.0, 9.0, 9.0, 31.0, 7.0, 11.0, 15.0, 6.0, 1.0, 1.0, 1.0, 8.0, 8.0, 5.0, 3.0, 27.0, 4.0, 3.0, 2.0, 21.0, 3.0, 13.0, 3.0, 6.0, 6.0, 16.0, 28.0, 17.0, 13.0, 24.0, 7.0, 5.0, 37.0, 7.0, 9.0, 37.0, 15.0, 23.0, 3.0, 23.0, 9.0, 7.0, 23.0, 9.0, 24.0, 14.0, 8.0, 16.0, 13.0, 8.0, 5.0, 10.0, 11.0, 15.0, 4.0, 9.0, 4.0, 26.0, 7.0, 16.0, 11.0, 8.0, 34.0, 8.0, 5.0, 23.0, 4.0, 17.0, 7.0, 8.0, 4.0, 11.0, 23.0, 4.0, 9.0, 22.0, 10.0, 11.0, 18.0, 13.0, 21.0, 51.0, 4.0, 3.0, 7.0, 10.0, 8.0, 11.0, 52.0, 25.0, 1.0, 8.0, 29.0, 2.0, 9.0, 14.0, 9.0, 14.0, 4.0, 3.0, 1.0, 8.0, 3.0, 19.0, 40.0, 3.0, 7.0, 8.0, 16.0, 16.0, 10.0, 2.0, 10.0, 4.0, 17.0, 10.0, 8.0, 7.0, 25.0, 14.0, 1.0, 10.0, 9.0, 17.0, 11.0, 11.0, 14.0, 7.0, 14.0, 63.0, 28.0, 14.0, 16.0, 21.0, 3.0, 3.0, 29.0, 2.0, 7.0, 7.0, 2.0, 4.0, 42.0, 41.0, 5.0, 31.0, 29.0, 7.0, 7.0, 15.0, 16.0, 14.0, 5.0, 3.0, 8.0, 18.0, 16.0, 38.0, 10.0, 2.0, 2.0, 24.0, 2.0, 14.0, 17.0, 9.0, 8.0, 4.0, 11.0, 15.0, 12.0, 15.0, 8.0, 25.0, 75.0, 2.0, 10.0, 11.0, 27.0, 6.0, 3.0, 7.0, 11.0, 22.0, 24.0, 41.0, 18.0, 5.0, 16.0, 15.0, 4.0, 25.0, 5.0, 11.0, 13.0, 2.0, 16.0, 10.0, 5.0, 5.0, 3.0, 1.0, 6.0, 24.0, 15.0, 4.0, 8.0, 17.0, 4.0, 4.0, 5.0, 4.0, 36.0, 9.0, 5.0, 5.0, 38.0, 3.0, 12.0, 5.0, 10.0, 17.0, 24.0, 2.0, 9.0, 9.0, 7.0, 3.0, 11.0, 8.0, 14.0, 11.0, 3.0, 13.0, 5.0, 8.0, 4.0, 11.0, 9.0, 16.0, 3.0, 9.0, 10.0, 24.0, 23.0, 3.0, 6.0, 15.0, 6.0, 9.0, 5.0, 10.0, 17.0, 9.0, 7.0, 9.0, 4.0, 6.0, 6.0, 1.0, 13.0, 12.0, 12.0, 4.0, 16.0, 2.0, 11.0, 5.0, 19.0, 12.0, 10.0, 30.0, 6.0, 12.0, 21.0, 2.0, 34.0, 2.0, 2.0, 2.0, 25.0, 10.0, 8.0, 5.0, 6.0, 16.0, 6.0, 3.0, 7.0, 15.0, 7.0, 19.0, 28.0, 6.0, 17.0, 16.0, 24.0, 9.0, 9.0, 8.0, 4.0, 13.0, 16.0, 6.0, 4.0, 9.0, 3.0, 9.0, 13.0, 11.0, 11.0, 9.0, 6.0, 12.0, 7.0, 6.0, 8.0, 26.0, 3.0, 10.0, 3.0, 6.0, 0.0, 5.0, 14.0, 6.0, 6.0, 17.0, 2.0, 22.0, 5.0, 17.0, 14.0, 8.0, 4.0, 12.0, 12.0, 32.0, 23.0, 6.0, 5.0, 7.0, 3.0, 6.0, 6.0, 20.0, 22.0, 10.0, 27.0, 13.0, 3.0, 20.0, 55.0, 27.0, 6.0, 5.0, 4.0, 7.0, 5.0, 17.0, 19.0, 8.0, 5.0, 19.0, 12.0, 6.0, 4.0, 42.0, 13.0, 21.0, 10.0, 5.0, 17.0, 10.0, 7.0, 3.0, 11.0, 2.0, 17.0, 5.0, 18.0, 3.0, 7.0, 10.0, 4.0, 6.0, 0.0, 13.0, 10.0, 3.0, 3.0, 11.0, 11.0, 7.0, 3.0, 17.0, 5.0, 4.0, 17.0, 11.0, 13.0, 10.0, 4.0, 32.0, 10.0, 6.0, 14.0, 14.0, 13.0, 15.0, 18.0, 4.0, 12.0, 3.0, 6.0, 4.0, 24.0, 25.0, 15.0, 10.0, 9.0, 16.0, 7.0, 7.0, 39.0, 6.0, 6.0, 4.0, 6.0, 1.0, 2.0, 1.0, 7.0, 6.0, 20.0, 1.0, 15.0, 9.0, 5.0, 10.0, 22.0, 5.0, 75.0, 6.0, 1.0, 15.0, 15.0, 8.0, 9.0, 1.0, 15.0, 14.0, 3.0, 14.0, 9.0, 12.0, 9.0, 11.0, 11.0, 5.0, 4.0, 6.0, 6.0, 5.0, 15.0, 4.0, 8.0, 2.0, 5.0, 14.0, 32.0, 21.0, 10.0, 14.0, 19.0, 9.0, 25.0, 58.0, 1.0, 44.0, 3.0, 15.0, 8.0, 5.0, 12.0, 8.0, 8.0, 5.0, 11.0, 20.0, 3.0, 15.0, 18.0, 1.0, 7.0, 2.0, 14.0, 5.0, 4.0, 2.0, 1.0, 3.0, 5.0, 8.0, 5.0, 1.0, 9.0, 25.0, 37.0, 4.0, 2.0, 26.0, 21.0, 11.0, 83.0, 3.0, 21.0, 8.0, 22.0, 9.0, 1.0, 7.0, 7.0, 7.0, 6.0, 15.0, 11.0, 11.0, 8.0, 22.0, 6.0, 5.0, 2.0, 10.0, 15.0, 33.0, 4.0, 30.0, 10.0, 6.0, 6.0, 4.0, 13.0, 14.0, 7.0, 16.0, 6.0, 5.0, 23.0, 21.0, 29.0, 16.0, 7.0, 37.0, 18.0, 10.0, 9.0, 6.0, 7.0, 8.0, 13.0, 2.0, 5.0, 12.0, 7.0, 10.0, 9.0, 22.0, 22.0, 9.0, 1.0, 7.0, 7.0, 13.0, 7.0, 13.0, 15.0, 15.0, 14.0, 2.0, 21.0, 5.0, 23.0, 25.0, 25.0, 39.0, 11.0, 5.0, 23.0, 20.0, 6.0, 20.0, 26.0, 8.0, 7.0, 13.0, 6.0, 7.0, 30.0, 97.0, 2.0, 27.0, 6.0, 21.0, 6.0, 9.0, 19.0, 13.0, 3.0, 10.0, 88.0, 27.0, 8.0, 14.0, 8.0, 5.0, 5.0, 10.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 8.0, 7.0, 4.0, 7.0, 13.0, 20.0, 17.0, 2.0, 12.0, 14.0, 11.0, 25.0, 49.0, 7.0, 17.0, 5.0, 8.0, 17.0, 2.0, 3.0, 18.0, 12.0, 23.0, 20.0, 7.0, 10.0, 23.0, 25.0, 12.0, 1.0, 7.0, 4.0, 1.0, 6.0, 6.0, 4.0, 22.0, 8.0, 49.0, 42.0, 57.0, 6.0, 17.0, 10.0, 8.0, 16.0, 13.0, 6.0, 6.0, 14.0, 10.0, 3.0, 10.0, 8.0, 7.0, 7.0, 9.0, 30.0, 24.0, 13.0, 13.0, 10.0, 9.0, 28.0, 63.0, 99.0, 14.0, 10.0, 4.0, 3.0, 1.0, 5.0, 2.0, 6.0, 19.0, 7.0, 16.0, 6.0, 33.0, 3.0, 6.0, 7.0, 10.0, 14.0, 9.0, 17.0, 14.0, 8.0, 3.0, 8.0, 4.0, 14.0, 4.0, 7.0, 66.0, 11.0, 18.0, 59.0, 1.0, 50.0, 14.0, 38.0, 2.0, 24.0, 46.0, 7.0, 7.0, 4.0, 3.0, 2.0, 18.0, 7.0, 15.0, 25.0, 10.0, 7.0, 3.0, 7.0, 8.0, 15.0, 8.0, 5.0, 3.0, 18.0, 7.0, 22.0, 4.0, 9.0, 8.0, 4.0, 10.0, 14.0, 4.0, 11.0, 9.0, 15.0, 22.0, 18.0, 6.0, 43.0, 3.0, 3.0, 7.0, 2.0, 3.0, 5.0, 2.0, 8.0, 5.0, 9.0, 5.0, 11.0, 8.0, 25.0, 7.0, 14.0, 3.0, 21.0, 1.0, 18.0, 9.0, 28.0, 11.0, 3.0, 3.0, 4.0, 4.0, 11.0, 13.0, 24.0, 7.0, 9.0, 21.0, 17.0, 19.0, 14.0, 8.0, 10.0, 11.0, 4.0, 84.0, 7.0, 18.0, 26.0, 3.0, 4.0, 58.0, 2.0, 10.0, 17.0, 9.0, 10.0, 24.0, 10.0, 42.0, 19.0, 22.0, 18.0, 2.0, 19.0, 5.0, 5.0, 20.0, 2.0, 13.0, 30.0, 37.0, 24.0, 10.0, 24.0, 22.0, 44.0, 5.0, 4.0, 17.0, 19.0, 8.0, 2.0, 9.0, 8.0, 22.0, 5.0, 2.0, 11.0, 7.0, 33.0, 10.0, 5.0, 7.0, 10.0, 96.0, 8.0, 15.0, 13.0, 3.0, 4.0, 10.0, 13.0, 12.0, 1.0, 8.0, 8.0, 6.0, 26.0, 10.0, 9.0, 7.0, 30.0, 35.0, 6.0, 5.0, 3.0, 15.0, 18.0, 4.0, 54.0, 27.0, 4.0, 3.0, 8.0, 65.0, 17.0, 5.0, 29.0, 12.0, 7.0, 47.0, 16.0, 10.0, 10.0, 10.0, 12.0, 4.0, 13.0, 3.0, 4.0, 14.0, 1.0, 6.0, 21.0, 10.0, 4.0, 6.0, 5.0, 10.0, 13.0, 31.0, 6.0, 5.0, 13.0, 6.0, 87.0, 7.0, 4.0, 13.0, 2.0, 4.0, 36.0, 9.0, 14.0, 2.0, 1.0, 32.0, 27.0, 15.0, 1.0, 3.0, 11.0, 2.0, 9.0, 5.0, 27.0, 4.0, 23.0, 44.0, 10.0, 20.0, 2.0, 33.0, 14.0, 6.0, 17.0, 16.0, 33.0, 3.0, 3.0, 6.0, 6.0, 24.0, 24.0, 68.0, 37.0, 2.0, 23.0, 3.0, 8.0, 5.0, 10.0, 13.0, 12.0, 12.0, 5.0, 3.0, 2.0, 11.0, 4.0, 3.0, 10.0, 13.0, 9.0, 11.0, 34.0, 7.0, 13.0, 18.0, 13.0, 3.0, 10.0, 11.0, 10.0, 8.0, 1.0, 7.0, 12.0, 13.0, 8.0, 41.0, 11.0, 7.0, 9.0, 16.0, 21.0, 3.0, 14.0, 16.0, 4.0, 11.0, 1.0, 4.0, 5.0, 7.0, 27.0, 7.0, 3.0, 10.0, 6.0, 7.0, 18.0, 7.0, 12.0, 38.0, 11.0, 12.0, 3.0, 11.0, 6.0, 13.0, 2.0, 7.0, 11.0, 19.0, 6.0, 14.0, 11.0, 17.0, 12.0, 88.0, 10.0, 3.0, 3.0, 14.0, 10.0, 3.0, 43.0, 5.0, 11.0, 10.0, 5.0, 6.0, 39.0, 6.0, 14.0, 27.0, 18.0, 5.0, 3.0, 12.0, 11.0, 20.0, 0.0, 4.0, 11.0, 7.0, 31.0, 16.0, 5.0, 7.0, 11.0, 20.0, 16.0, 56.0, 9.0, 3.0, 21.0, 11.0, 25.0, 8.0, 7.0, 17.0, 54.0, 14.0, 4.0, 3.0, 11.0, 11.0, 7.0, 8.0, 25.0, 7.0, 7.0, 5.0, 7.0, 19.0, 41.0, 7.0, 7.0, 14.0, 3.0, 7.0, 35.0, 2.0, 14.0, 12.0, 6.0, 8.0, 13.0, 4.0, 14.0, 21.0, 8.0, 14.0, 7.0, 10.0, 8.0, 11.0, 9.0, 12.0, 5.0, 6.0, 6.0, 32.0, 16.0, 1.0, 1.0, 20.0, 19.0, 10.0, 3.0, 14.0, 1.0, 5.0, 12.0, 8.0, 15.0, 10.0, 1.0, 3.0, 13.0, 8.0, 50.0, 49.0, 8.0, 1.0, 6.0, 11.0, 17.0, 13.0, 8.0, 10.0, 6.0, 42.0, 8.0, 13.0, 15.0, 26.0, 6.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 33.0, 11.0, 16.0, 11.0, 15.0, 8.0, 6.0, 29.0, 8.0, 14.0, 4.0, 9.0, 14.0, 98.0, 14.0, 90.0, 16.0, 14.0, 6.0, 10.0, 8.0, 40.0, 131.0, 1.0, 1.0, 5.0, 13.0, 1.0, 16.0, 10.0, 15.0, 8.0, 17.0, 4.0, 11.0, 7.0, 2.0, 2.0, 7.0, 17.0, 9.0, 2.0, 2.0, 8.0, 5.0, 19.0, 12.0, 9.0, 12.0, 42.0, 19.0, 9.0, 40.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 14.0, 50.0, 36.0, 15.0, 29.0, 0.0, 9.0, 9.0, 23.0, 22.0, 7.0, 5.0, 51.0, 6.0, 22.0, 1.0, 9.0, 17.0, 22.0, 20.0, 8.0, 7.0, 7.0, 4.0, 23.0, 20.0, 50.0, 20.0, 3.0, 47.0, 7.0, 30.0, 8.0, 20.0, 37.0, 13.0, 15.0, 59.0, 2.0, 22.0, 13.0, 13.0, 30.0, 15.0, 22.0, 18.0, 3.0, 20.0, 10.0, 6.0, 14.0, 48.0, 13.0, 17.0, 10.0, 22.0, 23.0, 6.0, 1.0, 22.0, 14.0, 7.0, 7.0, 10.0, 3.0, 15.0, 6.0, 44.0, 9.0, 15.0, 15.0, 3.0, 7.0, 30.0, 0.0, 6.0, 3.0, 2.0, 10.0, 8.0, 6.0, 20.0, 3.0, 8.0, 14.0, 19.0, 30.0, 8.0, 10.0, 28.0, 33.0, 6.0, 6.0, 6.0, 6.0, 12.0, 10.0, 2.0, 10.0, 5.0, 16.0, 5.0, 5.0, 6.0, 25.0, 1.0, 11.0, 6.0, 6.0, 6.0, 9.0, 8.0, 6.0, 23.0, 9.0, 4.0, 10.0, 7.0, 21.0, 1.0, 3.0, 3.0, 15.0, 10.0, 35.0, 17.0, 52.0, 40.0, 38.0, 11.0, 3.0, 8.0, 2.0, 3.0, 42.0, 36.0, 4.0, 4.0, 60.0, 14.0, 29.0, 9.0, 7.0, 8.0, 15.0, 32.0, 29.0, 11.0, 32.0, 11.0, 7.0, 19.0, 2.0, 1.0, 8.0, 18.0, 16.0, 9.0, 21.0, 23.0, 7.0, 4.0, 1.0, 22.0, 21.0, 5.0, 17.0, 12.0, 11.0, 25.0, 11.0, 9.0, 5.0, 12.0, 5.0, 14.0, 1.0, 5.0, 11.0, 25.0, 9.0, 3.0, 4.0, 18.0, 70.0, 25.0, 63.0, 6.0, 6.0, 17.0, 18.0, 14.0, 8.0, 25.0, 7.0, 37.0, 22.0, 14.0, 25.0, 14.0, 4.0, 4.0, 4.0, 21.0, 3.0, 5.0, 6.0, 98.0, 54.0, 4.0, 11.0, 3.0, 21.0, 22.0, 35.0, 5.0, 10.0, 10.0, 12.0, 21.0, 65.0, 23.0, 28.0, 10.0, 9.0, 2.0, 3.0, 19.0, 7.0, 5.0, 11.0, 8.0, 10.0, 10.0, 23.0, 12.0, 16.0, 12.0, 15.0, 4.0, 11.0, 16.0, 7.0, 13.0, 5.0, 2.0, 23.0, 13.0, 5.0, 9.0, 14.0, 12.0, 10.0, 10.0, 8.0, 23.0, 4.0, 12.0, 13.0, 31.0, 8.0, 17.0, 60.0, 3.0, 9.0, 37.0, 38.0, 20.0, 9.0, 6.0, 9.0, 8.0, 6.0, 2.0, 13.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 9.0, 24.0, 17.0, 16.0, 19.0, 12.0, 12.0, 11.0, 39.0, 7.0, 26.0, 33.0, 10.0, 3.0, 10.0, 5.0, 4.0, 11.0, 37.0, 20.0, 17.0, 21.0, 10.0, 23.0, 7.0, 20.0, 26.0, 7.0, 20.0, 17.0, 10.0, 26.0, 7.0, 11.0, 18.0, 5.0, 4.0, 21.0, 18.0, 7.0, 15.0, 4.0, 12.0, 12.0, 19.0, 17.0, 4.0, 40.0, 20.0, 7.0, 6.0, 10.0, 14.0, 27.0, 7.0, 14.0, 7.0, 10.0, 5.0, 7.0, 40.0, 3.0, 3.0, 25.0, 21.0, 20.0, 9.0, 14.0, 23.0, 19.0, 13.0, 14.0, 44.0, 55.0, 46.0, 10.0, 10.0, 7.0, 47.0, 12.0, 11.0, 125.0, 6.0, 12.0, 24.0, 17.0, 10.0, 17.0, 5.0, 17.0, 7.0, 33.0, 45.0, 21.0, 21.0, 7.0, 13.0, 3.0, 6.0, 7.0, 11.0, 15.0, 9.0, 11.0, 13.0, 3.0, 11.0, 4.0, 20.0, 7.0, 8.0, 19.0, 11.0, 13.0, 15.0, 5.0, 8.0, 9.0, 3.0, 19.0, 36.0, 14.0, 16.0, 19.0, 17.0, 19.0, 7.0, 4.0, 38.0, 18.0, 32.0, 11.0, 20.0, 19.0, 15.0, 19.0, 28.0, 16.0, 14.0, 13.0, 25.0, 24.0, 18.0, 10.0, 19.0, 20.0, 11.0, 21.0, 9.0, 14.0, 28.0, 4.0, 18.0, 27.0, 39.0, 38.0, 14.0, 14.0, 19.0, 8.0, 9.0, 27.0, 30.0, 13.0, 21.0, 3.0, 7.0, 15.0, 26.0, 6.0, 20.0, 12.0, 9.0, 9.0, 14.0, 3.0, 19.0, 19.0, 6.0, 50.0, 14.0, 34.0, 9.0, 37.0, 29.0, 3.0, 20.0, 16.0, 21.0, 9.0, 33.0, 16.0, 12.0, 14.0, 24.0, 2.0, 48.0, 15.0, 15.0, 15.0, 4.0, 7.0, 76.0, 38.0, 45.0, 1.0, 42.0, 28.0, 3.0, 17.0, 3.0, 23.0, 23.0, 3.0, 3.0, 10.0, 2.0, 8.0, 20.0, 23.0, 3.0, 8.0, 24.0, 20.0, 6.0, 14.0, 16.0, 4.0, 24.0, 20.0, 17.0, 14.0, 51.0, 13.0, 2.0, 3.0, 16.0, 7.0, 28.0, 18.0, 16.0, 27.0, 13.0, 23.0, 7.0, 22.0, 37.0, 35.0, 14.0, 7.0, 16.0, 51.0, 17.0, 3.0, 10.0, 21.0, 25.0, 15.0, 9.0, 7.0, 17.0, 37.0, 28.0, 7.0, 8.0, 7.0, 2.0, 1.0, 32.0, 3.0, 2.0, 18.0, 12.0, 4.0, 5.0, 9.0, 3.0, 3.0, 26.0, 8.0, 28.0, 11.0, 38.0, 11.0, 17.0, 15.0, 28.0, 9.0, 9.0, 16.0, 29.0, 9.0, 3.0, 20.0, 16.0, 21.0, 15.0, 9.0, 26.0, 53.0, 36.0, 17.0, 4.0, 31.0, 14.0, 7.0, 27.0, 35.0, 30.0, 30.0, 22.0, 18.0, 5.0, 8.0, 8.0, 78.0, 46.0, 24.0, 5.0, 39.0, 9.0, 2.0, 15.0, 14.0, 12.0, 12.0, 4.0, 10.0, 11.0, 8.0, 15.0, 3.0, 5.0, 3.0, 26.0, 10.0, 4.0, 4.0, 10.0, 23.0, 14.0, 39.0, 14.0, 3.0, 33.0, 32.0, 19.0, 1.0, 39.0, 8.0, 23.0, 15.0, 37.0, 8.0, 3.0, 61.0, 10.0, 43.0, 14.0, 4.0, 7.0, 8.0, 2.0, 4.0, 20.0, 5.0, 11.0, 10.0, 32.0, 3.0, 24.0, 66.0, 30.0, 6.0, 66.0, 13.0, 19.0, 3.0, 0.0, 9.0, 2.0, 32.0, 7.0, 18.0, 14.0, 20.0, 7.0, 10.0, 9.0, 6.0, 7.0, 17.0, 29.0, 13.0, 12.0, 5.0, 17.0, 4.0, 12.0, 2.0, 25.0, 7.0, 25.0, 37.0, 19.0, 33.0, 18.0, 26.0, 14.0, 21.0, 25.0, 5.0, 17.0, 4.0, 14.0, 17.0, 47.0, 10.0, 9.0, 26.0, 32.0, 17.0, 49.0, 14.0, 3.0, 30.0, 4.0, 12.0, 29.0, 15.0, 14.0, 5.0, 14.0, 5.0, 21.0, 41.0, 12.0, 12.0, 48.0, 11.0, 4.0, 6.0, 14.0, 5.0, 27.0, 12.0, 15.0, 22.0, 28.0, 32.0, 16.0, 7.0, 13.0, 32.0, 57.0, 38.0, 6.0, 4.0, 6.0, 27.0, 11.0, 25.0, 11.0, 13.0, 11.0, 6.0, 23.0, 24.0, 9.0, 13.0, 12.0, 5.0, 23.0, 2.0, 7.0, 2.0, 13.0, 12.0, 35.0, 4.0, 33.0, 23.0, 19.0, 12.0, 28.0, 18.0, 20.0, 46.0, 7.0, 49.0, 29.0, 1.0, 29.0, 14.0, 17.0, 15.0, 9.0, 7.0, 6.0, 20.0, 13.0, 29.0, 9.0, 51.0, 28.0, 37.0, 16.0, 9.0, 7.0, 27.0, 56.0, 23.0, 21.0, 27.0, 72.0, 24.0, 21.0, 5.0, 9.0, 21.0, 30.0, 3.0, 1.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 105.0, 7.0, 4.0, 9.0, 8.0, 4.0, 3.0, 4.0, 10.0, 14.0, 0.0, 11.0, 20.0, 2.0, 29.0, 8.0, 5.0, 11.0, 16.0, 20.0, 16.0, 11.0, 14.0, 21.0, 24.0, 18.0, 53.0, 17.0, 36.0, 29.0, 19.0, 11.0, 51.0, 73.0, 57.0, 8.0, 17.0, 15.0, 10.0, 9.0, 8.0, 20.0, 36.0, 50.0, 15.0, 28.0, 30.0, 1.0, 78.0, 113.0, 17.0, 10.0, 32.0, 19.0, 32.0, 4.0, 16.0, 16.0, 24.0, 3.0, 39.0, 7.0, 35.0, 56.0, 33.0, 12.0, 41.0, 11.0, 12.0, 48.0, 15.0, 25.0, 25.0, 11.0, 6.0, 20.0, 8.0, 10.0, 13.0, 7.0, 23.0, 18.0, 33.0, 12.0, 67.0, 28.0, 26.0, 31.0, 21.0, 38.0, 1.0, 52.0, 14.0, 28.0, 53.0, 20.0, 47.0, 22.0, 17.0, 8.0, 29.0, 11.0, 27.0, 71.0, 1.0, 8.0, 14.0, 19.0, 8.0, 25.0, 27.0, 3.0, 28.0, 39.0, 6.0, 23.0, 63.0, 2.0, 21.0, 32.0, 11.0, 42.0, 4.0, 12.0, 23.0, 9.0, 14.0, 15.0, 13.0, 21.0, 37.0, 38.0, 29.0, 23.0, 36.0, 49.0, 43.0, 64.0, 9.0, 9.0, 10.0, 10.0, 14.0, 24.0, 8.0, 44.0, 18.0, 31.0, 23.0, 56.0, 14.0, 15.0, 9.0, 7.0, 31.0, 8.0, 36.0, 6.0, 9.0, 4.0, 45.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 8.0, 31.0, 16.0, 27.0, 33.0, 32.0, 24.0, 8.0, 30.0, 36.0, 4.0, 39.0, 30.0, 18.0, 22.0, 31.0, 77.0, 16.0, 62.0, 12.0, 8.0, 27.0, 19.0, 6.0, 8.0, 59.0, 48.0, 6.0, 17.0, 16.0, 23.0, 34.0, 48.0, 3.0, 6.0, 1.0, 19.0, 34.0, 20.0, 11.0, 12.0, 45.0, 24.0, 13.0, 35.0, 21.0, 56.0, 7.0, 22.0, 11.0, 5.0, 14.0, 4.0, 36.0, 14.0, 5.0, 2.0, 17.0, 29.0, 14.0, 13.0, 32.0, 37.0, 29.0, 23.0, 32.0, 36.0, 48.0, 19.0, 20.0, 13.0, 19.0, 14.0, 7.0, 47.0, 27.0, 5.0, 15.0, 21.0, 9.0, 43.0, 19.0, 21.0, 33.0, 37.0, 65.0, 39.0, 27.0, 10.0, 13.0, 13.0, 16.0, 27.0, 5.0, 26.0, 6.0, 51.0, 42.0, 44.0, 45.0, 37.0, 28.0, 132.0, 78.0, 41.0, 43.0, 42.0, 36.0, 52.0, 13.0, 8.0, 23.0, 2.0, 7.0, 8.0, 8.0, 29.0, 65.0, 11.0, 42.0, 16.0, 23.0, 49.0, 8.0, 43.0, 14.0, 60.0, 1.0, 16.0, 78.0, 9.0, 9.0, 4.0, 9.0, 5.0, 22.0, 47.0, 19.0, 16.0, 0.0, 9.0, 3.0, 13.0, 17.0, 72.0, 33.0, 61.0, 4.0, 4.0, 19.0, 14.0, 16.0, 26.0, 49.0, 51.0, 66.0, 83.0, 52.0, 6.0, 27.0, 13.0, 8.0, 47.0, 46.0, 12.0, 8.0, 53.0, 42.0, 21.0, 38.0, 7.0, 16.0, 23.0, 62.0, 33.0, 96.0, 52.0, 9.0, 22.0, 10.0, 8.0, 44.0, 6.0, 48.0, 56.0, 41.0, 16.0, 15.0, 43.0, 91.0, 48.0, 13.0, 5.0, 10.0, 43.0, 64.0, 32.0, 44.0, 2.0, 12.0, 79.0, 16.0, 12.0, 9.0, 9.0, 31.0, 3.0, 39.0, 5.0, 53.0, 31.0, 51.0, 11.0, 55.0, 43.0, 62.0, 29.0, 84.0, 47.0, 49.0, 50.0, 47.0, 31.0, 38.0, 16.0, 42.0, 64.0, 21.0, 30.0, 15.0, 118.0, 8.0, 8.0, 1.0, 2.0, 17.0, 56.0, 84.0, 13.0, 41.0, 68.0, 34.0, 51.0, 17.0, 6.0, 49.0, 49.0, 17.0, 41.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 7.0, 6.0, 6.0, 7.0, 8.0, 8.0, 3.0, 7.0, 6.0, 5.0, 9.0, 11.0, 9.0, 3.0, 8.0, 8.0, 2.0, 3.0, 4.0, 5.0, 7.0, 14.0, 5.0, 14.0, 7.0, 6.0, 13.0, 9.0, 5.0, 9.0, 9.0, 7.0, 2.0, 2.0, 6.0, 11.0, 14.0, 10.0, 6.0, 10.0, 2.0, 6.0, 1.0, 7.0, 12.0, 3.0, 7.0, 10.0, 9.0, 19.0, 2.0, 2.0, 12.0, 5.0, 3.0, 5.0, 6.0, 2.0, 9.0, 6.0, 11.0, 6.0, 10.0, 1.0, 14.0, 2.0, 7.0, 22.0, 5.0, 4.0, 4.0, 3.0, 1.0, 12.0, 13.0, 5.0, 13.0, 15.0, 6.0, 0.0, 2.0, 22.0, 8.0, 12.0, 3.0, 6.0, 9.0, 15.0, 12.0, 14.0, 14.0, 10.0, 14.0, 13.0, 7.0, 13.0, 2.0, 14.0, 3.0, 3.0, 9.0, 5.0, 15.0, 23.0, 17.0, 22.0, 17.0, 6.0, 25.0, 8.0, 14.0, 5.0, 1.0, 7.0, 4.0, 21.0, 4.0, 9.0, 15.0, 17.0, 18.0, 5.0, 12.0, 15.0, 23.0, 4.0, 1.0, 13.0, 3.0, 13.0, 27.0, 11.0, 26.0, 14.0, 11.0, 7.0, 17.0, 19.0, 5.0, 2.0, 7.0, 18.0, 18.0, 12.0, 7.0, 18.0, 3.0, 11.0, 26.0, 4.0, 9.0, 8.0, 1.0, 13.0, 8.0, 14.0, 12.0, 15.0, 16.0, 7.0, 4.0, 7.0, 5.0, 8.0, 4.0, 12.0, 15.0, 19.0, 6.0, 6.0, 11.0, 9.0, 11.0, 6.0, 6.0, 8.0, 5.0, 13.0, 6.0, 14.0, 6.0, 11.0, 13.0, 26.0, 16.0, 22.0, 20.0, 21.0, 14.0, 13.0, 10.0, 14.0, 10.0, 4.0, 3.0, 7.0, 10.0, 4.0, 7.0, 10.0, 15.0, 3.0, 4.0, 6.0, 10.0, 6.0, 11.0, 32.0, 13.0, 3.0, 4.0, 3.0, 10.0, 21.0, 11.0, 12.0, 1.0, 5.0, 19.0, 3.0, 1.0, 16.0, 8.0, 14.0, 6.0, 19.0, 18.0, 4.0, 5.0, 7.0, 2.0, 12.0, 11.0, 22.0, 11.0, 11.0, 5.0, 16.0, 4.0, 6.0, 5.0, 36.0, 10.0, 9.0, 10.0, 4.0, 21.0, 13.0, 24.0, 32.0, 13.0, 8.0, 6.0, 6.0, 22.0, 11.0, 13.0, 16.0, 17.0, 11.0, 17.0, 3.0, 17.0, 13.0, 3.0, 9.0, 11.0, 7.0, 20.0, 31.0, 4.0, 0.0, 4.0, 13.0, 3.0, 11.0, 7.0, 4.0, 4.0, 4.0, 7.0, 9.0, 5.0, 29.0, 9.0, 7.0, 6.0, 6.0, 5.0, 16.0, 2.0, 5.0, 6.0, 7.0, 21.0, 16.0, 16.0, 5.0, 15.0, 18.0, 9.0, 14.0, 5.0, 9.0, 21.0, 8.0, 15.0, 1.0, 20.0, 5.0, 13.0, 32.0, 29.0, 8.0, 20.0, 30.0, 23.0, 7.0, 11.0, 7.0, 11.0, 11.0, 3.0, 17.0, 3.0, 13.0, 10.0, 2.0, 1.0, 4.0, 8.0, 9.0, 1.0, 4.0, 4.0, 3.0, 28.0, 7.0, 12.0, 17.0, 8.0, 5.0, 3.0, 9.0, 4.0, 25.0, 18.0, 10.0, 5.0, 9.0, 9.0, 3.0, 17.0, 33.0, 16.0, 18.0, 12.0, 14.0, 10.0, 17.0, 17.0, 6.0, 23.0, 5.0, 25.0, 5.0, 27.0, 9.0, 2.0, 27.0, 9.0, 17.0, 14.0, 18.0, 10.0, 6.0, 6.0, 13.0, 4.0, 4.0, 18.0, 14.0, 7.0, 5.0, 28.0, 23.0, 10.0, 11.0, 27.0, 9.0, 4.0, 32.0, 7.0, 5.0, 12.0, 11.0, 33.0, 8.0, 34.0, 25.0, 15.0, 4.0, 39.0, 20.0, 4.0, 7.0, 12.0, 19.0, 12.0, 4.0, 5.0, 9.0, 33.0, 23.0, 3.0, 37.0, 9.0, 16.0, 19.0, 21.0, 6.0, 21.0, 14.0, 14.0, 14.0, 3.0, 2.0, 20.0, 13.0, 8.0, 7.0, 37.0, 6.0, 6.0, 4.0, 26.0, 35.0, 17.0, 15.0, 2.0, 6.0, 15.0, 10.0, 6.0, 14.0, 15.0, 1.0, 4.0, 9.0, 10.0, 17.0, 9.0, 35.0, 18.0, 9.0, 2.0, 21.0, 6.0, 10.0, 15.0, 34.0, 5.0, 24.0, 15.0, 14.0, 10.0, 17.0, 13.0, 20.0, 13.0, 27.0, 7.0, 21.0, 17.0, 20.0, 14.0, 6.0, 8.0, 4.0, 45.0, 11.0, 1.0, 2.0, 7.0, 0.0, 24.0, 21.0, 15.0, 7.0, 11.0, 3.0, 1.0, 8.0, 22.0, 10.0, 15.0, 14.0, 2.0, 1.0, 41.0, 12.0, 6.0, 6.0, 11.0, 1.0, 5.0, 34.0, 18.0, 2.0, 9.0, 3.0, 6.0, 11.0, 1.0, 25.0, 7.0, 17.0, 26.0, 13.0, 28.0, 13.0, 11.0, 11.0, 3.0, 34.0, 7.0, 2.0, 5.0, 12.0, 33.0, 14.0, 19.0, 7.0, 15.0, 20.0, 28.0, 46.0, 4.0, 6.0, 19.0, 34.0, 30.0, 5.0, 8.0, 2.0, 14.0, 13.0, 2.0, 9.0, 11.0, 49.0, 47.0, 4.0, 15.0, 14.0, 34.0, 4.0, 29.0, 22.0, 6.0, 5.0, 16.0, 17.0, 15.0, 27.0, 23.0, 7.0, 10.0, 7.0, 21.0, 13.0, 10.0, 4.0, 15.0, 6.0, 16.0, 4.0, 13.0, 41.0, 7.0, 7.0, 1.0, 9.0, 5.0, 8.0, 9.0, 4.0, 17.0, 4.0, 7.0, 2.0, 6.0, 10.0, 20.0, 4.0, 27.0, 17.0, 16.0, 1.0, 2.0, 22.0, 27.0, 30.0, 7.0, 22.0, 10.0, 29.0, 12.0, 5.0, 24.0, 3.0, 9.0, 8.0, 15.0, 17.0, 0.0, 10.0, 11.0, 9.0, 8.0, 10.0, 10.0, 37.0, 15.0, 4.0, 26.0, 8.0, 16.0, 31.0, 9.0, 22.0, 19.0, 3.0, 6.0, 20.0, 9.0, 26.0, 43.0, 24.0, 9.0, 4.0, 6.0, 8.0, 11.0, 16.0, 38.0, 19.0, 25.0, 1.0, 10.0, 11.0, 9.0, 24.0, 45.0, 6.0, 0.0, 4.0, 12.0, 32.0, 4.0, 11.0, 4.0, 18.0, 42.0, 24.0, 48.0, 20.0, 3.0, 24.0, 8.0, 14.0, 7.0, 12.0, 10.0, 4.0, 13.0, 4.0, 10.0, 10.0, 37.0, 3.0, 12.0, 45.0, 17.0, 7.0, 24.0, 11.0, 5.0, 19.0, 7.0, 3.0, 16.0, 6.0, 1.0, 42.0, 38.0, 14.0, 13.0, 4.0, 26.0, 38.0, 15.0, 11.0, 14.0, 20.0, 16.0, 8.0, 27.0, 21.0, 12.0, 6.0, 30.0, 12.0, 35.0, 20.0, 5.0, 35.0, 21.0, 20.0, 6.0, 16.0, 6.0, 13.0, 26.0, 44.0, 19.0, 21.0, 15.0, 4.0, 48.0, 5.0, 8.0, 5.0, 13.0, 19.0, 12.0, 16.0, 5.0, 10.0, 21.0, 19.0, 8.0, 5.0, 21.0, 3.0, 6.0, 14.0, 4.0, 6.0, 13.0, 30.0, 13.0, 19.0, 17.0, 1.0, 9.0, 17.0, 17.0, 17.0, 23.0, 8.0, 2.0, 7.0, 8.0, 3.0, 13.0, 20.0, 24.0, 20.0, 10.0, 27.0, 13.0, 35.0, 14.0, 1.0, 4.0, 1.0, 2.0, 10.0, 22.0, 31.0, 2.0, 38.0, 7.0, 2.0, 2.0, 16.0, 21.0, 21.0, 29.0, 9.0, 24.0, 17.0, 15.0, 4.0, 4.0, 41.0, 16.0, 22.0, 17.0, 24.0, 17.0, 14.0, 9.0, 12.0, 5.0, 19.0, 23.0, 19.0, 8.0, 17.0, 6.0, 3.0, 4.0, 10.0, 3.0, 6.0, 17.0, 24.0, 11.0, 9.0, 11.0, 40.0, 17.0, 8.0, 16.0, 5.0, 9.0, 2.0, 12.0, 16.0, 20.0, 4.0, 16.0, 2.0, 6.0, 10.0, 5.0, 7.0, 35.0, 13.0, 19.0, 3.0, 19.0, 24.0, 6.0, 9.0, 13.0, 39.0, 6.0, 25.0, 37.0, 7.0, 3.0, 31.0, 10.0, 50.0, 11.0, 22.0, 25.0, 11.0, 8.0, 8.0, 15.0, 39.0, 15.0, 14.0, 14.0, 21.0, 15.0, 8.0, 19.0, 19.0, 19.0, 25.0, 20.0, 12.0, 36.0, 14.0, 22.0, 5.0, 8.0, 6.0, 30.0, 13.0, 12.0, 8.0, 36.0, 14.0, 7.0, 8.0, 5.0, 7.0, 30.0, 9.0, 28.0, 9.0, 12.0, 31.0, 13.0, 12.0, 3.0, 27.0, 22.0, 8.0, 23.0, 7.0, 9.0, 43.0, 34.0, 6.0, 6.0, 9.0, 14.0, 17.0, 14.0, 7.0, 23.0, 13.0, 13.0, 6.0, 9.0, 20.0, 5.0, 8.0, 2.0, 8.0, 1.0, 6.0, 8.0, 10.0, 1.0, 13.0, 7.0, 6.0, 25.0, 20.0, 25.0, 2.0, 36.0, 4.0, 6.0, 20.0, 10.0, 17.0, 9.0, 10.0, 15.0, 11.0, 38.0, 2.0, 14.0, 14.0, 3.0, 2.0, 3.0, 10.0, 7.0, 8.0, 29.0, 60.0, 27.0, 3.0, 15.0, 2.0, 43.0, 32.0, 25.0, 16.0, 16.0, 30.0, 9.0, 1.0, 12.0, 45.0, 11.0, 6.0, 8.0, 31.0, 5.0, 14.0, 16.0, 23.0, 20.0, 12.0, 4.0, 16.0, 2.0, 15.0, 50.0, 10.0, 4.0, 5.0, 5.0, 16.0, 5.0, 34.0, 13.0, 9.0, 10.0, 4.0, 14.0, 42.0, 20.0, 21.0, 5.0, 10.0, 5.0, 10.0, 48.0, 4.0, 9.0, 8.0, 4.0, 51.0, 16.0, 8.0, 17.0, 10.0, 14.0, 21.0, 10.0, 8.0, 8.0, 11.0, 10.0, 6.0, 63.0, 10.0, 6.0, 32.0, 11.0, 1.0, 5.0, 12.0, 13.0, 12.0, 18.0, 5.0, 18.0, 29.0, 8.0, 5.0, 9.0, 6.0, 11.0, 40.0, 15.0, 5.0, 11.0, 5.0, 19.0, 7.0, 35.0, 14.0, 12.0, 7.0, 5.0, 15.0, 2.0, 7.0, 2.0, 20.0, 14.0, 4.0, 29.0, 5.0, 35.0, 26.0, 15.0, 3.0, 12.0, 14.0, 12.0, 23.0, 30.0, 8.0, 8.0, 14.0, 8.0, 1.0, 19.0, 8.0, 8.0, 8.0, 11.0, 8.0, 12.0, 5.0, 13.0, 9.0, 29.0, 64.0, 27.0, 7.0, 2.0, 7.0, 14.0, 2.0, 2.0, 6.0, 13.0, 32.0, 24.0, 20.0, 23.0, 15.0, 8.0, 32.0, 2.0, 13.0, 6.0, 3.0, 10.0, 7.0, 22.0, 6.0, 15.0, 30.0, 6.0, 21.0, 2.0, 8.0, 9.0, 3.0, 25.0, 8.0, 3.0, 2.0, 27.0, 26.0, 7.0, 15.0, 14.0, 2.0, 21.0, 14.0, 4.0, 10.0, 9.0, 15.0, 3.0, 46.0, 10.0, 9.0, 69.0, 14.0, 1.0, 8.0, 74.0, 8.0, 5.0, 17.0, 15.0, 3.0, 23.0, 9.0, 16.0, 37.0, 32.0, 6.0, 9.0, 17.0, 11.0, 17.0, 19.0, 61.0, 10.0, 32.0, 10.0, 8.0, 37.0, 17.0, 19.0, 11.0, 3.0, 18.0, 6.0, 4.0, 15.0, 18.0, 28.0, 15.0, 4.0, 11.0, 24.0, 36.0, 18.0, 32.0, 16.0, 5.0, 21.0, 5.0, 16.0, 12.0, 12.0, 5.0, 23.0, 2.0, 6.0, 34.0, 21.0, 9.0, 10.0, 12.0, 5.0, 12.0, 19.0, 10.0, 11.0, 19.0, 2.0, 13.0, 5.0, 13.0, 7.0, 55.0, 3.0, 17.0, 23.0, 6.0, 3.0, 26.0, 24.0, 17.0, 5.0, 6.0, 1.0, 6.0, 41.0, 6.0, 11.0, 7.0, 7.0, 7.0, 21.0, 3.0, 14.0, 14.0, 21.0, 36.0, 2.0, 41.0, 71.0, 12.0, 7.0, 60.0, 2.0, 6.0, 11.0, 8.0, 34.0, 4.0, 7.0, 22.0, 11.0, 10.0, 6.0, 18.0, 34.0, 13.0, 1.0, 0.0, 22.0, 14.0, 35.0, 4.0, 26.0, 22.0, 1.0, 1.0, 7.0, 5.0, 6.0, 6.0, 15.0, 6.0, 3.0, 46.0, 13.0, 12.0, 14.0, 20.0, 1.0, 34.0, 6.0, 10.0, 5.0, 10.0, 27.0, 0.0, 21.0, 2.0, 8.0, 4.0, 35.0, 8.0, 8.0, 6.0, 12.0, 8.0, 14.0, 22.0, 6.0, 34.0, 34.0, 7.0, 18.0, 16.0, 8.0, 8.0, 24.0, 7.0, 6.0, 1.0, 27.0, 17.0, 11.0, 9.0, 7.0, 17.0, 4.0, 8.0, 3.0, 19.0, 2.0, 14.0, 7.0, 20.0, 7.0, 5.0, 23.0, 14.0, 3.0, 3.0, 21.0, 7.0, 9.0, 13.0, 13.0, 22.0, 15.0, 20.0, 12.0, 28.0, 9.0, 30.0, 35.0, 28.0, 6.0, 30.0, 9.0, 7.0, 5.0, 5.0, 8.0, 17.0, 10.0, 23.0, 23.0, 73.0, 8.0, 7.0, 4.0, 10.0, 36.0, 34.0, 9.0, 2.0, 16.0, 80.0, 17.0, 81.0, 29.0, 9.0, 10.0, 26.0, 26.0, 17.0, 24.0, 9.0, 6.0, 2.0, 23.0, 29.0, 12.0, 8.0, 14.0, 30.0, 8.0, 26.0, 1.0, 17.0, 7.0, 5.0, 9.0, 26.0, 8.0, 5.0, 6.0, 55.0, 1.0, 15.0, 2.0, 6.0, 12.0, 10.0, 9.0, 6.0, 9.0, 29.0, 11.0, 17.0, 25.0, 5.0, 27.0, 27.0, 3.0, 11.0, 14.0, 11.0, 33.0, 16.0, 12.0, 8.0, 8.0, 25.0, 32.0, 18.0, 12.0, 11.0, 2.0, 62.0, 20.0, 14.0, 5.0, 6.0, 10.0, 17.0, 19.0, 32.0, 11.0, 11.0, 6.0, 17.0, 13.0, 9.0, 13.0, 17.0, 13.0, 19.0, 7.0, 4.0, 1.0, 4.0, 25.0, 2.0, 12.0, 4.0, 12.0, 14.0, 2.0, 8.0, 27.0, 4.0, 21.0, 28.0, 1.0, 11.0, 13.0, 13.0, 19.0, 3.0, 27.0, 36.0, 39.0, 27.0, 39.0, 9.0, 23.0, 17.0, 10.0, 4.0, 12.0, 8.0, 0.0, 26.0, 12.0, 19.0, 13.0, 12.0, 27.0, 5.0, 8.0, 20.0, 7.0, 15.0, 2.0, 21.0, 24.0, 13.0, 15.0, 34.0, 13.0, 14.0, 9.0, 13.0, 14.0, 8.0, 11.0, 17.0, 12.0, 3.0, 14.0, 55.0, 2.0, 41.0, 33.0, 15.0, 8.0, 26.0, 14.0, 4.0, 12.0, 29.0, 22.0, 19.0, 6.0, 24.0, 8.0, 8.0, 2.0, 37.0, 1.0, 9.0, 9.0, 27.0, 7.0, 12.0, 7.0, 5.0, 21.0, 6.0, 13.0, 5.0, 23.0, 4.0, 23.0, 35.0, 7.0, 28.0, 15.0, 6.0, 9.0, 1.0, 11.0, 4.0, 3.0, 25.0, 16.0, 14.0, 8.0, 5.0, 22.0, 14.0, 7.0, 15.0, 8.0, 21.0, 14.0, 2.0, 16.0, 13.0, 3.0, 4.0, 32.0, 57.0, 21.0, 13.0, 16.0, 8.0, 19.0, 23.0, 21.0, 9.0, 8.0, 16.0, 12.0, 7.0, 29.0, 7.0, 13.0, 28.0, 15.0, 10.0, 29.0, 0.0, 10.0, 38.0, 4.0, 14.0, 8.0, 6.0, 12.0, 22.0, 11.0, 4.0, 5.0, 12.0, 9.0, 34.0, 7.0, 29.0, 1.0, 26.0, 20.0, 14.0, 4.0, 13.0, 24.0, 16.0, 31.0, 16.0, 10.0, 2.0, 21.0, 2.0, 49.0, 12.0, 16.0, 15.0, 9.0, 23.0, 5.0, 17.0, 9.0, 11.0, 8.0, 15.0, 9.0, 5.0, 9.0, 23.0, 71.0, 9.0, 10.0, 14.0, 15.0, 7.0, 22.0, 12.0, 8.0, 17.0, 33.0, 21.0, 4.0, 17.0, 19.0, 10.0, 6.0, 2.0, 13.0, 14.0, 12.0, 6.0, 13.0, 12.0, 33.0, 8.0, 25.0, 9.0, 19.0, 8.0, 24.0, 13.0, 18.0, 33.0, 29.0, 18.0, 3.0, 16.0, 4.0, 13.0, 17.0, 11.0, 12.0, 10.0, 7.0, 12.0, 27.0, 4.0, 25.0, 17.0, 10.0, 11.0, 18.0, 5.0, 20.0, 18.0, 35.0, 13.0, 6.0, 12.0, 18.0, 27.0, 37.0, 26.0, 13.0, 37.0, 8.0, 7.0, 40.0, 15.0, 8.0, 15.0, 27.0, 23.0, 43.0, 19.0, 6.0, 8.0, 12.0, 5.0, 11.0, 27.0, 13.0, 12.0, 4.0, 14.0, 2.0, 5.0, 14.0, 14.0, 7.0, 48.0, 32.0, 13.0, 22.0, 9.0, 28.0, 20.0, 12.0, 8.0, 2.0, 47.0, 9.0, 55.0, 6.0, 16.0, 5.0, 6.0, 11.0, 46.0, 19.0, 19.0, 19.0, 14.0, 35.0, 47.0, 31.0, 9.0, 13.0, 12.0, 12.0, 13.0, 3.0, 4.0, 10.0, 9.0, 12.0, 18.0, 20.0, 6.0, 63.0, 17.0, 26.0, 16.0, 26.0, 7.0, 10.0, 16.0, 14.0, 15.0, 2.0, 17.0, 17.0, 14.0, 7.0, 14.0, 16.0, 4.0, 10.0, 17.0, 19.0, 7.0, 20.0, 12.0, 30.0, 27.0, 3.0, 8.0, 2.0, 21.0, 6.0, 20.0, 10.0, 2.0, 1.0, 7.0, 22.0, 16.0, 23.0, 14.0, 8.0, 7.0, 49.0, 3.0, 21.0, 2.0, 10.0, 1.0, 10.0, 21.0, 21.0, 8.0, 15.0, 21.0, 16.0, 17.0, 15.0, 30.0, 23.0, 25.0, 24.0, 8.0, 19.0, 7.0, 24.0, 15.0, 17.0, 8.0, 23.0, 2.0, 6.0, 10.0, 26.0, 7.0, 8.0, 85.0, 16.0, 11.0, 21.0, 10.0, 10.0, 11.0, 9.0, 15.0, 9.0, 4.0, 14.0, 79.0, 32.0, 8.0, 2.0, 2.0, 11.0, 21.0, 12.0, 16.0, 3.0, 22.0, 4.0, 16.0, 8.0, 6.0, 44.0, 41.0, 29.0, 19.0, 16.0, 5.0, 5.0, 4.0, 0.0, 6.0, 4.0, 5.0, 9.0, 2.0, 46.0, 1.0, 38.0, 3.0, 24.0, 8.0, 4.0, 15.0, 24.0, 7.0, 9.0, 21.0, 3.0, 18.0, 60.0, 13.0, 37.0, 26.0, 5.0, 14.0, 16.0, 26.0, 3.0, 3.0, 1.0, 14.0, 16.0, 6.0, 5.0, 22.0, 21.0, 11.0, 9.0, 13.0, 2.0, 6.0, 18.0, 60.0, 3.0, 25.0, 24.0, 27.0, 4.0, 10.0, 7.0, 14.0, 16.0, 1.0, 18.0, 3.0, 10.0, 7.0, 45.0, 17.0, 17.0, 17.0, 48.0, 67.0, 13.0, 5.0, 6.0, 12.0, 12.0, 26.0, 2.0, 11.0, 16.0, 18.0, 3.0, 22.0, 20.0, 31.0, 10.0, 26.0, 21.0, 27.0, 15.0, 0.0, 20.0, 8.0, 19.0, 8.0, 63.0, 8.0, 5.0, 8.0, 74.0, 15.0, 27.0, 27.0, 8.0, 1.0, 8.0, 12.0, 35.0, 67.0, 18.0, 19.0, 5.0, 14.0, 18.0, 11.0, 21.0, 8.0, 26.0, 2.0, 3.0, 8.0, 2.0, 2.0, 9.0, 7.0, 7.0, 15.0, 11.0, 20.0, 12.0, 35.0, 71.0, 1.0, 7.0, 4.0, 8.0, 8.0, 6.0, 12.0, 0.0, 8.0, 21.0, 17.0, 15.0, 3.0, 20.0, 20.0, 3.0, 29.0, 8.0, 4.0, 7.0, 18.0, 3.0, 20.0, 2.0, 5.0, 26.0, 26.0, 9.0, 36.0, 23.0, 14.0, 35.0, 34.0, 33.0, 12.0, 15.0, 3.0, 9.0, 15.0, 29.0, 29.0, 29.0, 29.0, 7.0, 61.0, 27.0, 29.0, 6.0, 36.0, 9.0, 13.0, 20.0, 10.0, 10.0, 36.0, 13.0, 4.0, 5.0, 24.0, 22.0, 84.0, 7.0, 6.0, 16.0, 6.0, 10.0, 7.0, 10.0, 13.0, 80.0, 44.0, 9.0, 37.0, 5.0, 11.0, 34.0, 23.0, 22.0, 3.0, 36.0, 16.0, 3.0, 8.0, 1.0, 23.0, 20.0, 20.0, 16.0, 30.0, 15.0, 12.0, 13.0, 17.0, 36.0, 36.0, 28.0, 5.0, 12.0, 24.0, 22.0, 8.0, 7.0, 43.0, 15.0, 24.0, 9.0, 13.0, 7.0, 7.0, 13.0, 15.0, 20.0, 5.0, 11.0, 45.0, 11.0, 29.0, 15.0, 9.0, 12.0, 9.0, 28.0, 14.0, 28.0, 16.0, 16.0, 1.0, 10.0, 7.0, 45.0, 22.0, 17.0, 18.0, 4.0, 11.0, 8.0, 2.0, 16.0, 29.0, 30.0, 23.0, 53.0, 14.0, 11.0, 15.0, 14.0, 7.0, 14.0, 5.0, 10.0, 4.0, 5.0, 17.0, 4.0, 8.0, 2.0, 9.0, 39.0, 18.0, 11.0, 9.0, 4.0, 21.0, 3.0, 23.0, 19.0, 5.0, 7.0, 3.0, 12.0, 32.0, 32.0, 16.0, 17.0, 3.0, 4.0, 5.0, 8.0, 1.0, 38.0, 3.0, 8.0, 11.0, 3.0, 7.0, 39.0, 5.0, 3.0, 52.0, 27.0, 48.0, 9.0, 6.0, 60.0, 12.0, 51.0, 6.0, 3.0, 16.0, 6.0, 4.0, 6.0, 4.0, 27.0, 11.0, 3.0, 1.0, 16.0, 51.0, 12.0, 2.0, 13.0, 9.0, 18.0, 8.0, 4.0, 9.0, 5.0, 9.0, 1.0, 30.0, 52.0, 2.0, 25.0, 17.0, 6.0, 12.0, 20.0, 13.0, 9.0, 1.0, 29.0, 27.0, 27.0, 10.0, 43.0, 5.0, 17.0, 19.0, 10.0, 10.0, 10.0, 6.0, 4.0, 38.0, 12.0, 43.0, 4.0, 6.0, 16.0, 48.0, 11.0, 7.0, 27.0, 18.0, 12.0, 13.0, 12.0, 9.0, 9.0, 25.0, 10.0, 40.0, 7.0, 3.0, 13.0, 30.0, 18.0, 28.0, 42.0, 10.0, 4.0, 1.0, 16.0, 7.0, 7.0, 3.0, 15.0, 3.0, 3.0, 6.0, 7.0, 20.0, 18.0, 16.0, 20.0, 8.0, 13.0, 39.0, 4.0, 14.0, 7.0, 60.0, 4.0, 25.0, 10.0, 0.0, 23.0, 28.0, 21.0, 42.0, 5.0, 19.0, 13.0, 14.0, 5.0, 12.0, 4.0, 22.0, 5.0, 6.0, 15.0, 14.0, 33.0, 6.0, 21.0, 27.0, 8.0, 7.0, 4.0, 9.0, 7.0, 12.0, 27.0, 22.0, 9.0, 8.0, 11.0, 5.0, 13.0, 75.0, 5.0, 16.0, 5.0, 15.0, 7.0, 7.0, 12.0, 9.0, 20.0, 5.0, 29.0, 9.0, 7.0, 8.0, 43.0, 9.0, 6.0, 63.0, 1.0, 14.0, 56.0, 7.0, 6.0, 2.0, 43.0, 3.0, 2.0, 22.0, 26.0, 6.0, 9.0, 34.0, 5.0, 16.0, 3.0, 7.0, 7.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 10.0, 6.0, 28.0, 7.0, 13.0, 14.0, 10.0, 2.0, 34.0, 3.0, 24.0, 10.0, 7.0, 8.0, 15.0, 11.0, 8.0, 43.0, 9.0, 11.0, 1.0, 2.0, 5.0, 37.0, 11.0, 2.0, 36.0, 9.0, 10.0, 13.0, 16.0, 7.0, 11.0, 37.0, 7.0, 16.0, 6.0, 16.0, 9.0, 8.0, 4.0, 6.0, 7.0, 8.0, 4.0, 13.0, 4.0, 11.0, 18.0, 13.0, 0.0, 33.0, 44.0, 62.0, 8.0, 7.0, 4.0, 14.0, 8.0, 78.0, 7.0, 29.0, 18.0, 2.0, 32.0, 14.0, 14.0, 16.0, 25.0, 3.0, 28.0, 10.0, 4.0, 13.0, 14.0, 10.0, 10.0, 73.0, 28.0, 7.0, 7.0, 3.0, 8.0, 7.0, 5.0, 28.0, 17.0, 4.0, 8.0, 71.0, 8.0, 3.0, 2.0, 6.0, 8.0, 10.0, 7.0, 17.0, 25.0, 43.0, 14.0, 14.0, 11.0, 7.0, 16.0, 22.0, 18.0, 11.0, 0.0, 4.0, 8.0, 18.0, 7.0, 10.0, 14.0, 4.0, 4.0, 17.0, 11.0, 44.0, 1.0, 13.0, 3.0, 17.0, 18.0, 14.0, 8.0, 8.0, 15.0, 14.0, 2.0, 23.0, 4.0, 1.0, 23.0, 8.0, 19.0, 1.0, 12.0, 3.0, 37.0, 43.0, 8.0, 16.0, 3.0, 17.0, 2.0, 9.0, 4.0, 24.0, 17.0, 3.0, 43.0, 9.0, 30.0, 18.0, 12.0, 6.0, 2.0, 8.0, 5.0, 29.0, 16.0, 1.0, 3.0, 24.0, 6.0, 5.0, 34.0, 3.0, 15.0, 7.0, 12.0, 38.0, 6.0, 0.0, 23.0, 4.0, 1.0, 9.0, 3.0, 12.0, 12.0, 2.0, 10.0, 17.0, 60.0, 23.0, 8.0, 16.0, 2.0, 67.0, 4.0, 4.0, 19.0, 16.0, 6.0, 40.0, 11.0, 16.0, 20.0, 21.0, 6.0, 7.0, 11.0, 23.0, 26.0, 10.0, 31.0, 13.0, 6.0, 19.0, 13.0, 1.0, 27.0, 13.0, 1.0, 14.0, 5.0, 14.0, 6.0, 10.0, 7.0, 12.0, 10.0, 4.0, 11.0, 14.0, 10.0, 4.0, 24.0, 8.0, 9.0, 11.0, 20.0, 17.0, 21.0, 46.0, 3.0, 7.0, 13.0, 12.0, 10.0, 6.0, 4.0, 21.0, 20.0, 12.0, 3.0, 5.0, 1.0, 11.0, 12.0, 14.0, 13.0, 12.0, 22.0, 14.0, 5.0, 17.0, 11.0, 7.0, 17.0, 48.0, 7.0, 12.0, 5.0, 45.0, 6.0, 10.0, 67.0, 19.0, 3.0, 22.0, 4.0, 7.0, 10.0, 40.0, 8.0, 8.0, 11.0, 11.0, 12.0, 36.0, 3.0, 1.0, 19.0, 1.0, 7.0, 11.0, 14.0, 17.0, 6.0, 12.0, 10.0, 6.0, 25.0, 15.0, 5.0, 3.0, 8.0, 13.0, 11.0, 14.0, 8.0, 4.0, 11.0, 25.0, 5.0, 12.0, 15.0, 1.0, 7.0, 7.0, 4.0, 8.0, 15.0, 5.0, 3.0, 7.0, 6.0, 4.0, 16.0, 6.0, 57.0, 6.0, 21.0, 3.0, 56.0, 56.0, 41.0, 14.0, 5.0, 7.0, 10.0, 3.0, 17.0, 7.0, 21.0, 12.0, 2.0, 7.0, 4.0, 3.0, 6.0, 32.0, 20.0, 14.0, 22.0, 32.0, 22.0, 6.0, 14.0, 7.0, 3.0, 6.0, 8.0, 9.0, 23.0, 13.0, 5.0, 3.0, 14.0, 16.0, 12.0, 38.0, 15.0, 12.0, 19.0, 5.0, 16.0, 6.0, 8.0, 6.0, 1.0, 49.0, 6.0, 8.0, 5.0, 12.0, 5.0, 7.0, 14.0, 15.0, 3.0, 5.0, 17.0, 15.0, 14.0, 6.0, 8.0, 7.0, 13.0, 15.0, 1.0, 9.0, 5.0, 6.0, 15.0, 79.0, 54.0, 7.0, 5.0, 13.0, 25.0, 21.0, 9.0, 16.0, 42.0, 9.0, 3.0, 28.0, 21.0, 10.0, 1.0, 6.0, 13.0, 7.0, 20.0, 27.0, 3.0, 2.0, 14.0, 14.0, 7.0, 22.0, 5.0, 13.0, 15.0, 3.0, 17.0, 16.0, 13.0, 27.0, 14.0, 17.0, 8.0, 8.0, 17.0, 15.0, 8.0, 7.0, 13.0, 13.0, 6.0, 6.0, 66.0, 2.0, 2.0, 5.0, 14.0, 10.0, 13.0, 4.0, 7.0, 16.0, 8.0, 6.0, 6.0, 4.0, 8.0, 7.0, 11.0, 5.0, 10.0, 5.0, 1.0, 26.0, 55.0, 7.0, 13.0, 1.0, 14.0, 9.0, 7.0, 16.0, 13.0, 17.0, 4.0, 23.0, 10.0, 9.0, 9.0, 34.0, 20.0, 7.0, 1.0, 14.0, 8.0, 14.0, 17.0, 3.0, 25.0, 31.0, 33.0, 57.0, 30.0, 8.0, 19.0, 6.0, 15.0, 24.0, 9.0, 30.0, 5.0, 14.0, 8.0, 15.0, 49.0, 21.0, 5.0, 44.0, 3.0, 7.0, 14.0, 3.0, 4.0, 3.0, 7.0, 3.0, 9.0, 22.0, 17.0, 9.0, 7.0, 7.0, 9.0, 8.0, 7.0, 16.0, 43.0, 8.0, 8.0, 9.0, 6.0, 8.0, 27.0, 1.0, 24.0, 11.0, 9.0, 3.0, 9.0, 15.0, 7.0, 3.0, 5.0, 0.0, 16.0, 5.0, 22.0, 10.0, 1.0, 5.0, 24.0, 7.0, 58.0, 2.0, 7.0, 24.0, 16.0, 14.0, 16.0, 16.0, 7.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 3.0, 31.0, 10.0, 7.0, 8.0, 14.0, 25.0, 44.0, 4.0, 5.0, 15.0, 32.0, 2.0, 8.0, 15.0, 5.0, 12.0, 3.0, 12.0, 12.0, 19.0, 11.0, 4.0, 10.0, 73.0, 4.0, 1.0, 12.0, 34.0, 10.0, 36.0, 10.0, 4.0, 6.0, 0.0, 12.0, 4.0, 4.0, 58.0, 10.0, 4.0, 7.0, 5.0, 5.0, 25.0, 25.0, 5.0, 11.0, 8.0, 8.0, 36.0, 12.0, 1.0, 32.0, 6.0, 1.0, 8.0, 8.0, 13.0, 2.0, 8.0, 30.0, 5.0, 8.0, 0.0, 17.0, 10.0, 52.0, 9.0, 12.0, 24.0, 3.0, 26.0, 9.0, 13.0, 8.0, 4.0, 4.0, 43.0, 4.0, 8.0, 22.0, 26.0, 19.0, 10.0, 4.0, 30.0, 6.0, 24.0, 2.0, 2.0, 10.0, 25.0, 5.0, 13.0, 2.0, 17.0, 34.0, 6.0, 3.0, 6.0, 3.0, 16.0, 10.0, 5.0, 41.0, 20.0, 17.0, 2.0, 37.0, 5.0, 24.0, 33.0, 27.0, 8.0, 8.0, 4.0, 17.0, 39.0, 9.0, 10.0, 5.0, 7.0, 24.0, 6.0, 3.0, 11.0, 17.0, 11.0, 1.0, 16.0, 54.0, 9.0, 9.0, 6.0, 2.0, 3.0, 2.0, 10.0, 6.0, 6.0, 11.0, 6.0, 6.0, 7.0, 24.0, 6.0, 3.0, 10.0, 3.0, 12.0, 19.0, 26.0, 3.0, 21.0, 24.0, 10.0, 14.0, 7.0, 7.0, 2.0, 7.0, 13.0, 4.0, 6.0, 25.0, 10.0, 17.0, 11.0, 0.0, 13.0, 42.0, 81.0, 4.0, 7.0, 1.0, 4.0, 14.0, 1.0, 11.0, 4.0, 3.0, 11.0, 28.0, 21.0, 22.0, 2.0, 3.0, 7.0, 49.0, 4.0, 15.0, 7.0, 7.0, 29.0, 4.0, 24.0, 36.0, 14.0, 35.0, 33.0, 10.0, 1.0, 24.0, 20.0, 7.0, 14.0, 11.0, 38.0, 7.0, 8.0, 6.0, 16.0, 34.0, 24.0, 18.0, 7.0, 8.0, 36.0, 7.0, 26.0, 11.0, 14.0, 24.0, 19.0, 9.0, 1.0, 13.0, 17.0, 23.0, 6.0, 19.0, 5.0, 28.0, 3.0, 52.0, 15.0, 10.0, 15.0, 14.0, 26.0, 7.0, 13.0, 5.0, 0.0, 9.0, 8.0, 6.0, 12.0, 4.0, 16.0, 54.0, 5.0, 4.0, 5.0, 55.0, 7.0, 9.0, 2.0, 1.0, 8.0, 22.0, 4.0, 11.0, 9.0, 21.0, 8.0, 1.0, 7.0, 11.0, 12.0, 13.0, 20.0, 3.0, 11.0, 21.0, 7.0, 2.0, 5.0, 2.0, 5.0, 3.0, 6.0, 29.0, 29.0, 9.0, 1.0, 8.0, 15.0, 3.0, 6.0, 1.0, 1.0, 20.0, 10.0, 2.0, 22.0, 22.0, 12.0, 15.0, 47.0, 2.0, 8.0, 11.0, 0.0, 47.0, 12.0, 5.0, 11.0, 1.0, 28.0, 11.0, 12.0, 1.0, 8.0, 9.0, 5.0, 20.0, 14.0, 3.0, 4.0, 41.0, 0.0, 13.0, 9.0, 24.0, 12.0, 39.0, 1.0, 14.0, 22.0, 20.0, 15.0, 6.0, 12.0, 30.0, 8.0, 13.0, 5.0, 14.0, 2.0, 30.0, 8.0, 16.0, 13.0, 3.0, 42.0, 6.0, 1.0, 1.0, 13.0, 4.0, 28.0, 2.0, 15.0, 10.0, 9.0, 14.0, 5.0, 34.0, 20.0, 4.0, 8.0, 11.0, 14.0, 11.0, 17.0, 9.0, 9.0, 9.0, 8.0, 2.0, 6.0, 8.0, 3.0, 8.0, 5.0, 12.0, 13.0, 7.0, 11.0, 20.0, 12.0, 49.0, 13.0, 8.0, 12.0, 9.0, 6.0, 14.0, 3.0, 3.0, 20.0, 25.0, 13.0, 5.0, 9.0, 2.0, 9.0, 21.0, 16.0, 7.0, 13.0, 5.0, 35.0, 16.0, 4.0, 18.0, 3.0, 6.0, 13.0, 6.0, 6.0, 45.0, 1.0, 11.0, 10.0, 14.0, 13.0, 15.0, 12.0, 13.0, 3.0, 15.0, 14.0, 2.0, 21.0, 10.0, 34.0, 6.0, 14.0, 24.0, 13.0, 2.0, 23.0, 4.0, 17.0, 4.0, 6.0, 4.0, 5.0, 3.0, 9.0, 39.0, 14.0, 7.0, 10.0, 1.0, 20.0, 38.0, 8.0, 7.0, 62.0, 31.0, 13.0, 7.0, 11.0, 23.0, 12.0, 1.0, 2.0, 10.0, 21.0, 7.0, 4.0, 6.0, 9.0, 9.0, 31.0, 7.0, 11.0, 15.0, 6.0, 1.0, 1.0, 1.0, 8.0, 8.0, 5.0, 3.0, 27.0, 4.0, 3.0, 2.0, 21.0, 3.0, 13.0, 3.0, 6.0, 6.0, 16.0, 28.0, 17.0, 13.0, 24.0, 7.0, 5.0, 37.0, 7.0, 9.0, 37.0, 15.0, 23.0, 3.0, 23.0, 9.0, 7.0, 23.0, 9.0, 24.0, 14.0, 8.0, 16.0, 13.0, 8.0, 5.0, 10.0, 11.0, 15.0, 4.0, 9.0, 4.0, 26.0, 7.0, 16.0, 11.0, 8.0, 34.0, 8.0, 5.0, 23.0, 4.0, 17.0, 7.0, 8.0, 4.0, 11.0, 23.0, 4.0, 9.0, 22.0, 10.0, 11.0, 18.0, 13.0, 21.0, 51.0, 4.0, 3.0, 7.0, 10.0, 8.0, 11.0, 52.0, 25.0, 1.0, 8.0, 29.0, 2.0, 9.0, 14.0, 9.0, 14.0, 4.0, 3.0, 1.0, 8.0, 3.0, 19.0, 40.0, 3.0, 7.0, 8.0, 16.0, 16.0, 10.0, 2.0, 10.0, 4.0, 17.0, 10.0, 8.0, 7.0, 25.0, 14.0, 1.0, 10.0, 9.0, 17.0, 11.0, 11.0, 14.0, 7.0, 14.0, 63.0, 28.0, 14.0, 16.0, 21.0, 3.0, 3.0, 29.0, 2.0, 7.0, 7.0, 2.0, 4.0, 42.0, 41.0, 5.0, 31.0, 29.0, 7.0, 7.0, 15.0, 16.0, 14.0, 5.0, 3.0, 8.0, 18.0, 16.0, 38.0, 10.0, 2.0, 2.0, 24.0, 2.0, 14.0, 17.0, 9.0, 8.0, 4.0, 11.0, 15.0, 12.0, 15.0, 8.0, 25.0, 75.0, 2.0, 10.0, 11.0, 27.0, 6.0, 3.0, 7.0, 11.0, 22.0, 24.0, 41.0, 18.0, 5.0, 16.0, 15.0, 4.0, 25.0, 5.0, 11.0, 13.0, 2.0, 16.0, 10.0, 5.0, 5.0, 3.0, 1.0, 6.0, 24.0, 15.0, 4.0, 8.0, 17.0, 4.0, 4.0, 5.0, 4.0, 36.0, 9.0, 5.0, 5.0, 38.0, 3.0, 12.0, 5.0, 10.0, 17.0, 24.0, 2.0, 9.0, 9.0, 7.0, 3.0, 11.0, 8.0, 14.0, 11.0, 3.0, 13.0, 5.0, 8.0, 4.0, 11.0, 9.0, 16.0, 3.0, 9.0, 10.0, 24.0, 23.0, 3.0, 6.0, 15.0, 6.0, 9.0, 5.0, 10.0, 17.0, 9.0, 7.0, 9.0, 4.0, 6.0, 6.0, 1.0, 13.0, 12.0, 12.0, 4.0, 16.0, 2.0, 11.0, 5.0, 19.0, 12.0, 10.0, 30.0, 6.0, 12.0, 21.0, 2.0, 34.0, 2.0, 2.0, 2.0, 25.0, 10.0, 8.0, 5.0, 6.0, 16.0, 6.0, 3.0, 7.0, 15.0, 7.0, 19.0, 28.0, 6.0, 17.0, 16.0, 24.0, 9.0, 9.0, 8.0, 4.0, 13.0, 16.0, 6.0, 4.0, 9.0, 3.0, 9.0, 13.0, 11.0, 11.0, 9.0, 6.0, 12.0, 7.0, 6.0, 8.0, 26.0, 3.0, 10.0, 3.0, 6.0, 0.0, 5.0, 14.0, 6.0, 6.0, 17.0, 2.0, 22.0, 5.0, 17.0, 14.0, 8.0, 4.0, 12.0, 12.0, 32.0, 23.0, 6.0, 5.0, 7.0, 3.0, 6.0, 6.0, 20.0, 22.0, 10.0, 27.0, 13.0, 3.0, 20.0, 55.0, 27.0, 6.0, 5.0, 4.0, 7.0, 5.0, 17.0, 19.0, 8.0, 5.0, 19.0, 12.0, 6.0, 4.0, 42.0, 13.0, 21.0, 10.0, 5.0, 17.0, 10.0, 7.0, 3.0, 11.0, 2.0, 17.0, 5.0, 18.0, 3.0, 7.0, 10.0, 4.0, 6.0, 0.0, 13.0, 10.0, 3.0, 3.0, 11.0, 11.0, 7.0, 3.0, 17.0, 5.0, 4.0, 17.0, 11.0, 13.0, 10.0, 4.0, 32.0, 10.0, 6.0, 14.0, 14.0, 13.0, 15.0, 18.0, 4.0, 12.0, 3.0, 6.0, 4.0, 24.0, 25.0, 15.0, 10.0, 9.0, 16.0, 7.0, 7.0, 39.0, 6.0, 6.0, 4.0, 6.0, 1.0, 2.0, 1.0, 7.0, 6.0, 20.0, 1.0, 15.0, 9.0, 5.0, 10.0, 22.0, 5.0, 75.0, 6.0, 1.0, 15.0, 15.0, 8.0, 9.0, 1.0, 15.0, 14.0, 3.0, 14.0, 9.0, 12.0, 9.0, 11.0, 11.0, 5.0, 4.0, 6.0, 6.0, 5.0, 15.0, 4.0, 8.0, 2.0, 5.0, 14.0, 32.0, 21.0, 10.0, 14.0, 19.0, 9.0, 25.0, 58.0, 1.0, 44.0, 3.0, 15.0, 8.0, 5.0, 12.0, 8.0, 8.0, 5.0, 11.0, 20.0, 3.0, 15.0, 18.0, 1.0, 7.0, 2.0, 14.0, 5.0, 4.0, 2.0, 1.0, 3.0, 5.0, 8.0, 5.0, 1.0, 9.0, 25.0, 37.0, 4.0, 2.0, 26.0, 21.0, 11.0, 83.0, 3.0, 21.0, 8.0, 22.0, 9.0, 1.0, 7.0, 7.0, 7.0, 6.0, 15.0, 11.0, 11.0, 8.0, 22.0, 6.0, 5.0, 2.0, 10.0, 15.0, 33.0, 4.0, 30.0, 10.0, 6.0, 6.0, 4.0, 13.0, 14.0, 7.0, 16.0, 6.0, 5.0, 23.0, 21.0, 29.0, 16.0, 7.0, 37.0, 18.0, 10.0, 9.0, 6.0, 7.0, 8.0, 13.0, 2.0, 5.0, 12.0, 7.0, 10.0, 9.0, 22.0, 22.0, 9.0, 1.0, 7.0, 7.0, 13.0, 7.0, 13.0, 15.0, 15.0, 14.0, 2.0, 21.0, 5.0, 23.0, 25.0, 25.0, 39.0, 11.0, 5.0, 23.0, 20.0, 6.0, 20.0, 26.0, 8.0, 7.0, 13.0, 6.0, 7.0, 30.0, 2.0, 27.0, 6.0, 21.0, 6.0, 9.0, 19.0, 13.0, 3.0, 10.0, 88.0, 27.0, 8.0, 14.0, 8.0, 5.0, 5.0, 10.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 8.0, 7.0, 4.0, 7.0, 13.0, 20.0, 17.0, 2.0, 12.0, 14.0, 11.0, 25.0, 49.0, 7.0, 17.0, 5.0, 8.0, 17.0, 2.0, 3.0, 18.0, 12.0, 23.0, 20.0, 7.0, 10.0, 23.0, 25.0, 12.0, 1.0, 7.0, 4.0, 1.0, 6.0, 6.0, 4.0, 22.0, 8.0, 49.0, 42.0, 57.0, 6.0, 17.0, 10.0, 8.0, 16.0, 13.0, 6.0, 6.0, 14.0, 10.0, 3.0, 10.0, 8.0, 7.0, 7.0, 9.0, 30.0, 24.0, 13.0, 13.0, 10.0, 9.0, 28.0, 63.0, 14.0, 10.0, 4.0, 3.0, 1.0, 5.0, 2.0, 6.0, 19.0, 7.0, 16.0, 6.0, 33.0, 3.0, 6.0, 7.0, 10.0, 14.0, 9.0, 17.0, 14.0, 8.0, 3.0, 8.0, 4.0, 14.0, 4.0, 7.0, 66.0, 11.0, 18.0, 59.0, 1.0, 50.0, 14.0, 38.0, 2.0, 24.0, 46.0, 7.0, 7.0, 4.0, 3.0, 2.0, 18.0, 7.0, 15.0, 25.0, 10.0, 7.0, 3.0, 7.0, 8.0, 15.0, 8.0, 5.0, 3.0, 18.0, 7.0, 22.0, 4.0, 9.0, 8.0, 4.0, 10.0, 14.0, 4.0, 11.0, 9.0, 15.0, 22.0, 18.0, 6.0, 43.0, 3.0, 3.0, 7.0, 2.0, 3.0, 5.0, 2.0, 8.0, 5.0, 9.0, 5.0, 11.0, 8.0, 25.0, 7.0, 14.0, 3.0, 21.0, 1.0, 18.0, 9.0, 28.0, 11.0, 3.0, 3.0, 4.0, 4.0, 11.0, 13.0, 24.0, 7.0, 9.0, 21.0, 17.0, 19.0, 14.0, 8.0, 10.0, 11.0, 4.0, 84.0, 7.0, 18.0, 26.0, 3.0, 4.0, 58.0, 2.0, 10.0, 17.0, 9.0, 10.0, 24.0, 10.0, 42.0, 19.0, 22.0, 18.0, 2.0, 19.0, 5.0, 5.0, 20.0, 2.0, 13.0, 30.0, 37.0, 24.0, 10.0, 24.0, 22.0, 44.0, 5.0, 4.0, 17.0, 19.0, 8.0, 2.0, 9.0, 8.0, 22.0, 5.0, 2.0, 11.0, 7.0, 33.0, 10.0, 5.0, 7.0, 10.0, 8.0, 15.0, 13.0, 3.0, 4.0, 10.0, 13.0, 12.0, 1.0, 8.0, 8.0, 6.0, 26.0, 10.0, 9.0, 7.0, 30.0, 35.0, 6.0, 5.0, 3.0, 15.0, 18.0, 4.0, 54.0, 27.0, 4.0, 3.0, 8.0, 65.0, 17.0, 5.0, 29.0, 12.0, 7.0, 47.0, 16.0, 10.0, 10.0, 10.0, 12.0, 4.0, 13.0, 3.0, 4.0, 14.0, 1.0, 6.0, 21.0, 10.0, 4.0, 6.0, 5.0, 10.0, 13.0, 31.0, 6.0, 5.0, 13.0, 6.0, 87.0, 7.0, 4.0, 13.0, 2.0, 4.0, 36.0, 9.0, 14.0, 2.0, 1.0, 32.0, 27.0, 15.0, 1.0, 3.0, 11.0, 2.0, 9.0, 5.0, 27.0, 4.0, 23.0, 44.0, 10.0, 20.0, 2.0, 33.0, 14.0, 6.0, 17.0, 16.0, 33.0, 3.0, 3.0, 6.0, 6.0, 24.0, 24.0, 68.0, 37.0, 2.0, 23.0, 3.0, 8.0, 5.0, 10.0, 13.0, 12.0, 12.0, 5.0, 3.0, 2.0, 11.0, 4.0, 3.0, 10.0, 13.0, 9.0, 11.0, 34.0, 7.0, 13.0, 18.0, 13.0, 3.0, 10.0, 11.0, 10.0, 8.0, 1.0, 7.0, 12.0, 13.0, 8.0, 41.0, 11.0, 7.0, 9.0, 16.0, 21.0, 3.0, 14.0, 16.0, 4.0, 11.0, 1.0, 4.0, 5.0, 7.0, 27.0, 7.0, 3.0, 10.0, 6.0, 7.0, 18.0, 7.0, 12.0, 38.0, 11.0, 12.0, 3.0, 11.0, 6.0, 13.0, 2.0, 7.0, 11.0, 19.0, 6.0, 14.0, 11.0, 17.0, 12.0, 88.0, 10.0, 3.0, 3.0, 14.0, 10.0, 3.0, 43.0, 5.0, 11.0, 10.0, 5.0, 6.0, 39.0, 6.0, 14.0, 27.0, 18.0, 5.0, 3.0, 12.0, 11.0, 20.0, 0.0, 4.0, 11.0, 7.0, 31.0, 16.0, 5.0, 7.0, 11.0, 20.0, 16.0, 56.0, 9.0, 3.0, 21.0, 11.0, 25.0, 8.0, 7.0, 17.0, 54.0, 14.0, 4.0, 3.0, 11.0, 11.0, 7.0, 8.0, 25.0, 7.0, 7.0, 5.0, 7.0, 19.0, 41.0, 7.0, 7.0, 14.0, 3.0, 7.0, 35.0, 2.0, 14.0, 12.0, 6.0, 8.0, 13.0, 4.0, 14.0, 21.0, 8.0, 14.0, 7.0, 10.0, 8.0, 11.0, 9.0, 12.0, 5.0, 6.0, 6.0, 32.0, 16.0, 1.0, 1.0, 20.0, 19.0, 10.0, 3.0, 14.0, 1.0, 5.0, 12.0, 8.0, 15.0, 10.0, 1.0, 3.0, 13.0, 8.0, 50.0, 49.0, 8.0, 1.0, 6.0, 11.0, 17.0, 13.0, 8.0, 10.0, 6.0, 42.0, 8.0, 13.0, 15.0, 26.0, 6.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 33.0, 11.0, 16.0, 11.0, 15.0, 8.0, 6.0, 29.0, 8.0, 14.0, 4.0, 9.0, 14.0, 14.0, 16.0, 14.0, 6.0, 10.0, 8.0, 40.0, 1.0, 1.0, 5.0, 13.0, 1.0, 16.0, 10.0, 15.0, 8.0, 17.0, 4.0, 11.0, 7.0, 2.0, 2.0, 7.0, 17.0, 9.0, 2.0, 2.0, 8.0, 5.0, 19.0, 12.0, 9.0, 12.0, 42.0, 19.0, 9.0, 40.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 14.0, 50.0, 36.0, 15.0, 29.0, 0.0, 9.0, 9.0, 23.0, 22.0, 7.0, 5.0, 51.0, 6.0, 22.0, 1.0, 9.0, 17.0, 22.0, 20.0, 8.0, 7.0, 7.0, 4.0, 23.0, 20.0, 50.0, 20.0, 3.0, 47.0, 7.0, 30.0, 8.0, 20.0, 37.0, 13.0, 15.0, 59.0, 2.0, 22.0, 13.0, 13.0, 30.0, 15.0, 22.0, 18.0, 3.0, 20.0, 10.0, 6.0, 14.0, 48.0, 13.0, 17.0, 10.0, 22.0, 23.0, 6.0, 1.0, 22.0, 14.0, 7.0, 7.0, 10.0, 3.0, 15.0, 6.0, 44.0, 9.0, 15.0, 15.0, 3.0, 7.0, 30.0, 0.0, 6.0, 3.0, 2.0, 10.0, 8.0, 6.0, 20.0, 3.0, 8.0, 14.0, 19.0, 30.0, 8.0, 10.0, 28.0, 33.0, 6.0, 6.0, 6.0, 6.0, 12.0, 10.0, 2.0, 10.0, 5.0, 16.0, 5.0, 5.0, 6.0, 25.0, 1.0, 11.0, 6.0, 6.0, 6.0, 9.0, 8.0, 6.0, 23.0, 9.0, 4.0, 10.0, 7.0, 21.0, 1.0, 3.0, 3.0, 15.0, 10.0, 35.0, 17.0, 52.0, 40.0, 38.0, 11.0, 3.0, 8.0, 2.0, 3.0, 42.0, 36.0, 4.0, 4.0, 60.0, 14.0, 29.0, 9.0, 7.0, 8.0, 15.0, 32.0, 29.0, 11.0, 32.0, 11.0, 7.0, 19.0, 2.0, 1.0, 8.0, 18.0, 16.0, 9.0, 21.0, 23.0, 7.0, 4.0, 1.0, 22.0, 21.0, 5.0, 17.0, 12.0, 11.0, 25.0, 11.0, 9.0, 5.0, 12.0, 5.0, 14.0, 1.0, 5.0, 11.0, 25.0, 9.0, 3.0, 4.0, 18.0, 70.0, 25.0, 63.0, 6.0, 6.0, 17.0, 18.0, 14.0, 8.0, 25.0, 7.0, 37.0, 22.0, 14.0, 25.0, 14.0, 4.0, 4.0, 4.0, 21.0, 3.0, 5.0, 6.0, 54.0, 4.0, 11.0, 3.0, 21.0, 22.0, 35.0, 5.0, 10.0, 10.0, 12.0, 21.0, 65.0, 23.0, 28.0, 10.0, 9.0, 2.0, 3.0, 19.0, 7.0, 5.0, 11.0, 8.0, 10.0, 10.0, 23.0, 12.0, 16.0, 12.0, 15.0, 4.0, 11.0, 16.0, 7.0, 13.0, 5.0, 2.0, 23.0, 13.0, 5.0, 9.0, 14.0, 12.0, 10.0, 10.0, 8.0, 23.0, 4.0, 12.0, 13.0, 31.0, 8.0, 17.0, 60.0, 3.0, 9.0, 37.0, 38.0, 20.0, 9.0, 6.0, 9.0, 8.0, 6.0, 2.0, 13.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 9.0, 24.0, 17.0, 16.0, 19.0, 12.0, 12.0, 11.0, 39.0, 7.0, 26.0, 33.0, 10.0, 3.0, 10.0, 5.0, 4.0, 11.0, 37.0, 20.0, 17.0, 21.0, 10.0, 23.0, 7.0, 20.0, 26.0, 7.0, 20.0, 17.0, 10.0, 26.0, 7.0, 11.0, 18.0, 5.0, 4.0, 21.0, 18.0, 7.0, 15.0, 4.0, 12.0, 12.0, 19.0, 17.0, 4.0, 40.0, 20.0, 7.0, 6.0, 10.0, 14.0, 27.0, 7.0, 14.0, 7.0, 10.0, 5.0, 7.0, 40.0, 3.0, 3.0, 25.0, 21.0, 20.0, 9.0, 14.0, 23.0, 19.0, 13.0, 14.0, 44.0, 55.0, 46.0, 10.0, 10.0, 7.0, 47.0, 12.0, 11.0, 6.0, 12.0, 24.0, 17.0, 10.0, 17.0, 5.0, 17.0, 7.0, 33.0, 45.0, 21.0, 21.0, 7.0, 13.0, 3.0, 6.0, 7.0, 11.0, 15.0, 9.0, 11.0, 13.0, 3.0, 11.0, 4.0, 20.0, 7.0, 8.0, 19.0, 11.0, 13.0, 15.0, 5.0, 8.0, 9.0, 3.0, 19.0, 36.0, 14.0, 16.0, 19.0, 17.0, 19.0, 7.0, 4.0, 38.0, 18.0, 32.0, 11.0, 20.0, 19.0, 15.0, 19.0, 28.0, 16.0, 14.0, 13.0, 25.0, 24.0, 18.0, 10.0, 19.0, 20.0, 11.0, 21.0, 9.0, 14.0, 28.0, 4.0, 18.0, 27.0, 39.0, 38.0, 14.0, 14.0, 19.0, 8.0, 9.0, 27.0, 30.0, 13.0, 21.0, 3.0, 7.0, 15.0, 26.0, 6.0, 20.0, 12.0, 9.0, 9.0, 14.0, 3.0, 19.0, 19.0, 6.0, 50.0, 14.0, 34.0, 9.0, 37.0, 29.0, 3.0, 20.0, 16.0, 21.0, 9.0, 33.0, 16.0, 12.0, 14.0, 24.0, 2.0, 48.0, 15.0, 15.0, 15.0, 4.0, 7.0, 76.0, 38.0, 45.0, 1.0, 42.0, 28.0, 3.0, 17.0, 3.0, 23.0, 23.0, 3.0, 3.0, 10.0, 2.0, 8.0, 20.0, 23.0, 3.0, 8.0, 24.0, 20.0, 6.0, 14.0, 16.0, 4.0, 24.0, 20.0, 17.0, 14.0, 51.0, 13.0, 2.0, 3.0, 16.0, 7.0, 28.0, 18.0, 16.0, 27.0, 13.0, 23.0, 7.0, 22.0, 37.0, 35.0, 14.0, 7.0, 16.0, 51.0, 17.0, 3.0, 10.0, 21.0, 25.0, 15.0, 9.0, 7.0, 17.0, 37.0, 28.0, 7.0, 8.0, 7.0, 2.0, 1.0, 32.0, 3.0, 2.0, 18.0, 12.0, 4.0, 5.0, 9.0, 3.0, 3.0, 26.0, 8.0, 28.0, 11.0, 38.0, 11.0, 17.0, 15.0, 28.0, 9.0, 9.0, 16.0, 29.0, 9.0, 3.0, 20.0, 16.0, 21.0, 15.0, 9.0, 26.0, 53.0, 36.0, 17.0, 4.0, 31.0, 14.0, 7.0, 27.0, 35.0, 30.0, 30.0, 22.0, 18.0, 5.0, 8.0, 8.0, 78.0, 46.0, 24.0, 5.0, 39.0, 9.0, 2.0, 15.0, 14.0, 12.0, 12.0, 4.0, 10.0, 11.0, 8.0, 15.0, 3.0, 5.0, 3.0, 26.0, 10.0, 4.0, 4.0, 10.0, 23.0, 14.0, 39.0, 14.0, 3.0, 33.0, 32.0, 19.0, 1.0, 39.0, 8.0, 23.0, 15.0, 37.0, 8.0, 3.0, 61.0, 10.0, 43.0, 14.0, 4.0, 7.0, 8.0, 2.0, 4.0, 20.0, 5.0, 11.0, 10.0, 32.0, 3.0, 24.0, 66.0, 30.0, 6.0, 66.0, 13.0, 19.0, 3.0, 0.0, 9.0, 2.0, 32.0, 7.0, 18.0, 14.0, 20.0, 7.0, 10.0, 9.0, 6.0, 7.0, 17.0, 29.0, 13.0, 12.0, 5.0, 17.0, 4.0, 12.0, 2.0, 25.0, 7.0, 25.0, 37.0, 19.0, 33.0, 18.0, 26.0, 14.0, 21.0, 25.0, 5.0, 17.0, 4.0, 14.0, 17.0, 47.0, 10.0, 9.0, 26.0, 32.0, 17.0, 49.0, 14.0, 3.0, 30.0, 4.0, 12.0, 29.0, 15.0, 14.0, 5.0, 14.0, 5.0, 21.0, 41.0, 12.0, 12.0, 48.0, 11.0, 4.0, 6.0, 14.0, 5.0, 27.0, 12.0, 15.0, 22.0, 28.0, 32.0, 16.0, 7.0, 13.0, 32.0, 57.0, 38.0, 6.0, 4.0, 6.0, 27.0, 11.0, 25.0, 11.0, 13.0, 11.0, 6.0, 23.0, 24.0, 9.0, 13.0, 12.0, 5.0, 23.0, 2.0, 7.0, 2.0, 13.0, 12.0, 35.0, 4.0, 33.0, 23.0, 19.0, 12.0, 28.0, 18.0, 20.0, 46.0, 7.0, 49.0, 29.0, 1.0, 29.0, 14.0, 17.0, 15.0, 9.0, 7.0, 6.0, 20.0, 13.0, 29.0, 9.0, 51.0, 28.0, 37.0, 16.0, 9.0, 7.0, 27.0, 56.0, 23.0, 21.0, 27.0, 72.0, 24.0, 21.0, 5.0, 9.0, 21.0, 30.0, 3.0, 1.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 7.0, 4.0, 9.0, 8.0, 4.0, 3.0, 4.0, 10.0, 14.0, 0.0, 11.0, 20.0, 2.0, 29.0, 8.0, 5.0, 11.0, 16.0, 20.0, 16.0, 11.0, 14.0, 21.0, 24.0, 18.0, 53.0, 17.0, 36.0, 29.0, 19.0, 11.0, 51.0, 73.0, 57.0, 8.0, 17.0, 15.0, 10.0, 9.0, 8.0, 20.0, 36.0, 50.0, 15.0, 28.0, 30.0, 1.0, 78.0, 17.0, 10.0, 32.0, 19.0, 32.0, 4.0, 16.0, 16.0, 24.0, 3.0, 39.0, 7.0, 35.0, 56.0, 33.0, 12.0, 41.0, 11.0, 12.0, 48.0, 15.0, 25.0, 25.0, 11.0, 6.0, 20.0, 8.0, 10.0, 13.0, 7.0, 23.0, 18.0, 33.0, 12.0, 67.0, 28.0, 26.0, 31.0, 21.0, 38.0, 1.0, 52.0, 14.0, 28.0, 53.0, 20.0, 47.0, 22.0, 17.0, 8.0, 29.0, 11.0, 27.0, 71.0, 1.0, 8.0, 14.0, 19.0, 8.0, 25.0, 27.0, 3.0, 28.0, 39.0, 6.0, 23.0, 63.0, 2.0, 21.0, 32.0, 11.0, 42.0, 4.0, 12.0, 23.0, 9.0, 14.0, 15.0, 13.0, 21.0, 37.0, 38.0, 29.0, 23.0, 36.0, 49.0, 43.0, 64.0, 9.0, 9.0, 10.0, 10.0, 14.0, 24.0, 8.0, 44.0, 18.0, 31.0, 23.0, 56.0, 14.0, 15.0, 9.0, 7.0, 31.0, 8.0, 36.0, 6.0, 9.0, 4.0, 45.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 8.0, 31.0, 16.0, 27.0, 33.0, 32.0, 24.0, 8.0, 30.0, 36.0, 4.0, 39.0, 30.0, 18.0, 22.0, 31.0, 77.0, 16.0, 62.0, 12.0, 8.0, 27.0, 19.0, 6.0, 8.0, 59.0, 48.0, 6.0, 17.0, 16.0, 23.0, 34.0, 48.0, 3.0, 6.0, 1.0, 19.0, 34.0, 20.0, 11.0, 12.0, 45.0, 24.0, 13.0, 35.0, 21.0, 56.0, 7.0, 22.0, 11.0, 5.0, 14.0, 4.0, 36.0, 14.0, 5.0, 2.0, 17.0, 29.0, 14.0, 13.0, 32.0, 37.0, 29.0, 23.0, 32.0, 36.0, 48.0, 19.0, 20.0, 13.0, 19.0, 14.0, 7.0, 47.0, 27.0, 5.0, 15.0, 21.0, 9.0, 43.0, 19.0, 21.0, 33.0, 37.0, 65.0, 39.0, 27.0, 10.0, 13.0, 13.0, 16.0, 27.0, 5.0, 26.0, 6.0, 51.0, 42.0, 44.0, 45.0, 37.0, 28.0, 78.0, 41.0, 43.0, 42.0, 36.0, 52.0, 13.0, 8.0, 23.0, 2.0, 7.0, 8.0, 8.0, 29.0, 65.0, 11.0, 42.0, 16.0, 23.0, 49.0, 8.0, 43.0, 14.0, 60.0, 1.0, 16.0, 78.0, 9.0, 9.0, 4.0, 9.0, 5.0, 22.0, 47.0, 19.0, 16.0, 0.0, 9.0, 3.0, 13.0, 17.0, 72.0, 33.0, 61.0, 4.0, 4.0, 19.0, 14.0, 16.0, 26.0, 49.0, 51.0, 66.0, 83.0, 52.0, 6.0, 27.0, 13.0, 8.0, 47.0, 46.0, 12.0, 8.0, 53.0, 42.0, 21.0, 38.0, 7.0, 16.0, 23.0, 62.0, 33.0, 52.0, 9.0, 22.0, 10.0, 8.0, 44.0, 6.0, 48.0, 56.0, 41.0, 16.0, 15.0, 43.0, 48.0, 13.0, 5.0, 10.0, 43.0, 64.0, 32.0, 44.0, 2.0, 12.0, 79.0, 16.0, 12.0, 9.0, 9.0, 31.0, 3.0, 39.0, 5.0, 53.0, 31.0, 51.0, 11.0, 55.0, 43.0, 62.0, 29.0, 84.0, 47.0, 49.0, 50.0, 47.0, 31.0, 38.0, 16.0, 42.0, 64.0, 21.0, 30.0, 15.0, 8.0, 8.0, 1.0, 2.0, 17.0, 56.0, 84.0, 13.0, 41.0, 68.0, 34.0, 51.0, 17.0, 6.0, 49.0, 49.0, 17.0, 41.0, 19.0, 66.0, 38.0, 17.0, 2.0, 53.0, 70.0, 83.0, 42.0, 55.0, 74.0, 75.0, 83.0, 7.0, 23.0, 44.0, 8.0, 25.0, 41.0</t>
+          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 7.0, 6.0, 6.0, 7.0, 8.0, 8.0, 3.0, 7.0, 6.0, 5.0, 9.0, 11.0, 9.0, 3.0, 8.0, 8.0, 2.0, 3.0, 4.0, 5.0, 7.0, 14.0, 5.0, 14.0, 7.0, 6.0, 13.0, 9.0, 5.0, 9.0, 9.0, 7.0, 2.0, 2.0, 6.0, 11.0, 14.0, 10.0, 6.0, 10.0, 2.0, 6.0, 1.0, 7.0, 12.0, 3.0, 7.0, 10.0, 9.0, 19.0, 2.0, 2.0, 12.0, 5.0, 3.0, 5.0, 6.0, 2.0, 9.0, 6.0, 11.0, 6.0, 10.0, 1.0, 14.0, 2.0, 7.0, 22.0, 5.0, 4.0, 4.0, 3.0, 1.0, 12.0, 13.0, 5.0, 13.0, 15.0, 6.0, 0.0, 2.0, 22.0, 8.0, 12.0, 3.0, 6.0, 9.0, 15.0, 12.0, 14.0, 14.0, 10.0, 14.0, 13.0, 7.0, 13.0, 2.0, 14.0, 3.0, 3.0, 9.0, 5.0, 15.0, 23.0, 17.0, 22.0, 17.0, 6.0, 25.0, 8.0, 14.0, 5.0, 1.0, 7.0, 4.0, 21.0, 4.0, 9.0, 15.0, 17.0, 18.0, 5.0, 12.0, 15.0, 23.0, 4.0, 1.0, 13.0, 3.0, 13.0, 27.0, 11.0, 26.0, 14.0, 11.0, 7.0, 17.0, 19.0, 5.0, 2.0, 7.0, 18.0, 18.0, 12.0, 7.0, 18.0, 3.0, 11.0, 26.0, 4.0, 9.0, 8.0, 1.0, 13.0, 8.0, 14.0, 12.0, 15.0, 16.0, 7.0, 4.0, 7.0, 5.0, 8.0, 4.0, 12.0, 15.0, 19.0, 6.0, 6.0, 11.0, 9.0, 11.0, 6.0, 6.0, 8.0, 5.0, 13.0, 6.0, 14.0, 6.0, 11.0, 13.0, 26.0, 16.0, 22.0, 20.0, 21.0, 14.0, 13.0, 10.0, 14.0, 10.0, 4.0, 3.0, 7.0, 10.0, 4.0, 7.0, 10.0, 15.0, 3.0, 4.0, 6.0, 10.0, 6.0, 11.0, 32.0, 13.0, 3.0, 4.0, 3.0, 10.0, 21.0, 11.0, 12.0, 1.0, 5.0, 19.0, 3.0, 1.0, 16.0, 8.0, 14.0, 6.0, 19.0, 18.0, 4.0, 5.0, 7.0, 2.0, 12.0, 11.0, 22.0, 11.0, 11.0, 5.0, 16.0, 4.0, 6.0, 5.0, 36.0, 10.0, 9.0, 10.0, 4.0, 21.0, 13.0, 24.0, 32.0, 13.0, 8.0, 6.0, 6.0, 22.0, 11.0, 13.0, 16.0, 17.0, 11.0, 17.0, 3.0, 17.0, 13.0, 3.0, 9.0, 11.0, 7.0, 20.0, 31.0, 4.0, 0.0, 4.0, 13.0, 3.0, 11.0, 7.0, 4.0, 4.0, 4.0, 7.0, 9.0, 5.0, 29.0, 9.0, 7.0, 6.0, 6.0, 5.0, 16.0, 2.0, 5.0, 6.0, 7.0, 21.0, 16.0, 16.0, 5.0, 15.0, 18.0, 9.0, 14.0, 5.0, 9.0, 21.0, 8.0, 15.0, 1.0, 20.0, 5.0, 13.0, 32.0, 29.0, 8.0, 20.0, 30.0, 23.0, 7.0, 11.0, 7.0, 11.0, 11.0, 3.0, 17.0, 3.0, 13.0, 10.0, 2.0, 1.0, 4.0, 8.0, 9.0, 1.0, 4.0, 4.0, 3.0, 28.0, 7.0, 12.0, 17.0, 8.0, 5.0, 3.0, 9.0, 4.0, 25.0, 18.0, 10.0, 5.0, 9.0, 9.0, 3.0, 17.0, 33.0, 16.0, 18.0, 12.0, 14.0, 10.0, 17.0, 17.0, 6.0, 23.0, 5.0, 25.0, 5.0, 27.0, 9.0, 2.0, 27.0, 9.0, 17.0, 14.0, 18.0, 10.0, 6.0, 6.0, 13.0, 4.0, 4.0, 18.0, 14.0, 7.0, 5.0, 28.0, 23.0, 10.0, 11.0, 27.0, 9.0, 4.0, 32.0, 7.0, 5.0, 12.0, 11.0, 33.0, 8.0, 34.0, 25.0, 15.0, 4.0, 39.0, 20.0, 4.0, 7.0, 12.0, 19.0, 12.0, 4.0, 5.0, 9.0, 33.0, 23.0, 3.0, 37.0, 9.0, 16.0, 19.0, 21.0, 6.0, 21.0, 14.0, 14.0, 14.0, 3.0, 2.0, 20.0, 13.0, 8.0, 7.0, 37.0, 6.0, 6.0, 4.0, 26.0, 35.0, 17.0, 15.0, 2.0, 6.0, 15.0, 10.0, 6.0, 14.0, 15.0, 1.0, 4.0, 9.0, 10.0, 17.0, 9.0, 35.0, 18.0, 9.0, 2.0, 21.0, 6.0, 10.0, 15.0, 34.0, 5.0, 24.0, 15.0, 14.0, 10.0, 17.0, 13.0, 20.0, 13.0, 27.0, 7.0, 21.0, 17.0, 20.0, 14.0, 6.0, 8.0, 4.0, 45.0, 11.0, 1.0, 2.0, 7.0, 0.0, 24.0, 21.0, 15.0, 7.0, 11.0, 3.0, 1.0, 8.0, 22.0, 10.0, 15.0, 14.0, 2.0, 1.0, 41.0, 12.0, 6.0, 6.0, 11.0, 1.0, 5.0, 34.0, 18.0, 2.0, 9.0, 3.0, 6.0, 11.0, 1.0, 25.0, 7.0, 17.0, 26.0, 13.0, 28.0, 13.0, 11.0, 11.0, 3.0, 34.0, 7.0, 2.0, 5.0, 12.0, 33.0, 14.0, 19.0, 7.0, 15.0, 20.0, 28.0, 46.0, 4.0, 6.0, 19.0, 34.0, 30.0, 5.0, 8.0, 2.0, 14.0, 13.0, 2.0, 9.0, 11.0, 49.0, 47.0, 4.0, 15.0, 14.0, 34.0, 4.0, 29.0, 22.0, 6.0, 5.0, 16.0, 17.0, 15.0, 27.0, 23.0, 7.0, 10.0, 7.0, 21.0, 13.0, 10.0, 4.0, 15.0, 6.0, 16.0, 4.0, 13.0, 41.0, 7.0, 7.0, 1.0, 9.0, 5.0, 8.0, 9.0, 4.0, 17.0, 4.0, 7.0, 2.0, 6.0, 10.0, 20.0, 4.0, 27.0, 17.0, 16.0, 1.0, 2.0, 22.0, 27.0, 30.0, 7.0, 22.0, 10.0, 29.0, 12.0, 5.0, 24.0, 3.0, 9.0, 8.0, 15.0, 17.0, 0.0, 10.0, 11.0, 9.0, 8.0, 10.0, 10.0, 37.0, 15.0, 4.0, 26.0, 8.0, 16.0, 31.0, 9.0, 22.0, 19.0, 3.0, 6.0, 20.0, 9.0, 26.0, 43.0, 24.0, 9.0, 4.0, 6.0, 8.0, 11.0, 16.0, 38.0, 19.0, 25.0, 1.0, 10.0, 11.0, 9.0, 24.0, 45.0, 6.0, 0.0, 4.0, 12.0, 32.0, 4.0, 11.0, 4.0, 18.0, 42.0, 24.0, 48.0, 20.0, 3.0, 24.0, 8.0, 14.0, 7.0, 12.0, 10.0, 4.0, 13.0, 4.0, 10.0, 10.0, 37.0, 3.0, 12.0, 45.0, 17.0, 7.0, 24.0, 11.0, 5.0, 19.0, 7.0, 3.0, 16.0, 6.0, 1.0, 42.0, 38.0, 14.0, 13.0, 4.0, 26.0, 38.0, 15.0, 11.0, 14.0, 20.0, 16.0, 8.0, 27.0, 21.0, 12.0, 6.0, 30.0, 12.0, 35.0, 20.0, 5.0, 35.0, 21.0, 20.0, 6.0, 16.0, 6.0, 13.0, 26.0, 44.0, 19.0, 21.0, 15.0, 4.0, 48.0, 5.0, 8.0, 5.0, 13.0, 19.0, 12.0, 16.0, 5.0, 10.0, 21.0, 19.0, 8.0, 5.0, 21.0, 3.0, 6.0, 14.0, 4.0, 6.0, 13.0, 30.0, 13.0, 19.0, 17.0, 1.0, 9.0, 17.0, 17.0, 17.0, 23.0, 8.0, 2.0, 7.0, 8.0, 3.0, 13.0, 20.0, 24.0, 20.0, 10.0, 27.0, 13.0, 35.0, 14.0, 1.0, 4.0, 1.0, 2.0, 10.0, 22.0, 31.0, 2.0, 38.0, 7.0, 2.0, 2.0, 16.0, 21.0, 21.0, 29.0, 9.0, 24.0, 17.0, 15.0, 4.0, 4.0, 41.0, 16.0, 22.0, 17.0, 24.0, 17.0, 14.0, 9.0, 12.0, 5.0, 19.0, 23.0, 19.0, 8.0, 17.0, 6.0, 3.0, 4.0, 10.0, 3.0, 6.0, 17.0, 24.0, 11.0, 9.0, 11.0, 40.0, 17.0, 8.0, 16.0, 5.0, 9.0, 2.0, 12.0, 16.0, 20.0, 4.0, 16.0, 2.0, 6.0, 10.0, 5.0, 7.0, 35.0, 13.0, 19.0, 3.0, 19.0, 24.0, 6.0, 9.0, 13.0, 39.0, 6.0, 25.0, 37.0, 7.0, 3.0, 31.0, 10.0, 50.0, 11.0, 22.0, 25.0, 11.0, 8.0, 8.0, 15.0, 39.0, 15.0, 14.0, 14.0, 21.0, 15.0, 8.0, 19.0, 19.0, 19.0, 25.0, 20.0, 12.0, 36.0, 14.0, 22.0, 5.0, 8.0, 6.0, 30.0, 13.0, 12.0, 8.0, 36.0, 14.0, 7.0, 8.0, 5.0, 7.0, 30.0, 9.0, 28.0, 9.0, 12.0, 31.0, 13.0, 12.0, 3.0, 27.0, 22.0, 8.0, 23.0, 7.0, 9.0, 43.0, 34.0, 6.0, 6.0, 9.0, 14.0, 17.0, 14.0, 7.0, 23.0, 13.0, 13.0, 6.0, 9.0, 20.0, 5.0, 8.0, 2.0, 8.0, 1.0, 6.0, 8.0, 10.0, 1.0, 13.0, 7.0, 6.0, 25.0, 20.0, 25.0, 2.0, 36.0, 4.0, 6.0, 20.0, 10.0, 17.0, 9.0, 10.0, 15.0, 11.0, 38.0, 2.0, 14.0, 14.0, 3.0, 2.0, 3.0, 10.0, 7.0, 8.0, 29.0, 60.0, 27.0, 3.0, 15.0, 2.0, 43.0, 32.0, 25.0, 16.0, 16.0, 30.0, 9.0, 1.0, 12.0, 45.0, 11.0, 6.0, 8.0, 31.0, 5.0, 14.0, 16.0, 23.0, 20.0, 12.0, 4.0, 16.0, 2.0, 15.0, 50.0, 10.0, 4.0, 5.0, 5.0, 16.0, 5.0, 34.0, 13.0, 9.0, 10.0, 4.0, 14.0, 42.0, 20.0, 21.0, 5.0, 10.0, 5.0, 10.0, 48.0, 4.0, 9.0, 8.0, 4.0, 51.0, 16.0, 8.0, 17.0, 10.0, 14.0, 21.0, 10.0, 8.0, 8.0, 11.0, 10.0, 6.0, 63.0, 10.0, 6.0, 32.0, 11.0, 1.0, 5.0, 12.0, 13.0, 12.0, 18.0, 5.0, 18.0, 29.0, 8.0, 5.0, 9.0, 6.0, 11.0, 40.0, 15.0, 5.0, 11.0, 5.0, 19.0, 7.0, 35.0, 14.0, 12.0, 7.0, 5.0, 15.0, 2.0, 7.0, 2.0, 20.0, 14.0, 4.0, 29.0, 5.0, 35.0, 26.0, 15.0, 3.0, 12.0, 14.0, 12.0, 23.0, 30.0, 8.0, 8.0, 14.0, 8.0, 1.0, 19.0, 8.0, 8.0, 8.0, 11.0, 8.0, 12.0, 5.0, 13.0, 9.0, 29.0, 64.0, 27.0, 7.0, 2.0, 7.0, 14.0, 2.0, 2.0, 6.0, 13.0, 32.0, 24.0, 20.0, 23.0, 15.0, 8.0, 32.0, 2.0, 13.0, 6.0, 3.0, 10.0, 7.0, 22.0, 6.0, 15.0, 30.0, 6.0, 21.0, 2.0, 8.0, 9.0, 3.0, 25.0, 8.0, 3.0, 2.0, 27.0, 26.0, 7.0, 15.0, 14.0, 2.0, 21.0, 14.0, 4.0, 10.0, 9.0, 15.0, 3.0, 46.0, 10.0, 9.0, 69.0, 14.0, 1.0, 8.0, 74.0, 8.0, 5.0, 17.0, 15.0, 3.0, 23.0, 9.0, 16.0, 37.0, 32.0, 6.0, 9.0, 17.0, 11.0, 17.0, 19.0, 61.0, 10.0, 32.0, 10.0, 8.0, 37.0, 17.0, 19.0, 11.0, 3.0, 18.0, 6.0, 4.0, 15.0, 18.0, 28.0, 15.0, 4.0, 11.0, 24.0, 36.0, 18.0, 32.0, 16.0, 5.0, 21.0, 5.0, 16.0, 12.0, 12.0, 5.0, 23.0, 2.0, 6.0, 34.0, 21.0, 9.0, 10.0, 12.0, 5.0, 12.0, 19.0, 10.0, 11.0, 19.0, 2.0, 13.0, 5.0, 13.0, 7.0, 55.0, 3.0, 17.0, 23.0, 6.0, 3.0, 26.0, 24.0, 17.0, 5.0, 6.0, 1.0, 6.0, 41.0, 6.0, 11.0, 7.0, 7.0, 7.0, 21.0, 3.0, 14.0, 14.0, 21.0, 36.0, 2.0, 41.0, 71.0, 12.0, 7.0, 60.0, 2.0, 6.0, 11.0, 8.0, 34.0, 4.0, 7.0, 22.0, 11.0, 10.0, 6.0, 18.0, 34.0, 13.0, 1.0, 0.0, 22.0, 14.0, 35.0, 4.0, 26.0, 22.0, 1.0, 1.0, 7.0, 5.0, 6.0, 6.0, 15.0, 6.0, 3.0, 46.0, 13.0, 12.0, 14.0, 20.0, 1.0, 34.0, 6.0, 10.0, 5.0, 10.0, 27.0, 0.0, 21.0, 2.0, 8.0, 4.0, 35.0, 8.0, 8.0, 6.0, 12.0, 8.0, 14.0, 22.0, 6.0, 34.0, 34.0, 7.0, 18.0, 16.0, 8.0, 8.0, 24.0, 7.0, 6.0, 1.0, 27.0, 17.0, 11.0, 9.0, 7.0, 17.0, 4.0, 8.0, 3.0, 19.0, 2.0, 14.0, 7.0, 20.0, 7.0, 5.0, 23.0, 14.0, 3.0, 3.0, 21.0, 7.0, 9.0, 13.0, 13.0, 22.0, 15.0, 20.0, 12.0, 28.0, 9.0, 30.0, 35.0, 28.0, 6.0, 30.0, 9.0, 7.0, 5.0, 5.0, 8.0, 17.0, 10.0, 23.0, 23.0, 73.0, 8.0, 7.0, 4.0, 10.0, 36.0, 34.0, 9.0, 2.0, 16.0, 80.0, 17.0, 81.0, 29.0, 9.0, 10.0, 26.0, 26.0, 17.0, 24.0, 9.0, 6.0, 2.0, 23.0, 29.0, 12.0, 8.0, 14.0, 30.0, 8.0, 26.0, 1.0, 17.0, 7.0, 5.0, 9.0, 26.0, 8.0, 5.0, 6.0, 55.0, 1.0, 15.0, 2.0, 6.0, 12.0, 10.0, 9.0, 6.0, 9.0, 29.0, 11.0, 17.0, 25.0, 5.0, 27.0, 27.0, 3.0, 11.0, 14.0, 11.0, 33.0, 16.0, 12.0, 8.0, 8.0, 25.0, 32.0, 18.0, 12.0, 11.0, 2.0, 62.0, 20.0, 14.0, 5.0, 6.0, 10.0, 17.0, 19.0, 32.0, 11.0, 11.0, 6.0, 17.0, 13.0, 9.0, 13.0, 17.0, 13.0, 19.0, 7.0, 4.0, 1.0, 4.0, 25.0, 2.0, 12.0, 4.0, 12.0, 14.0, 2.0, 8.0, 27.0, 4.0, 21.0, 28.0, 1.0, 11.0, 13.0, 13.0, 19.0, 3.0, 27.0, 36.0, 39.0, 27.0, 39.0, 9.0, 23.0, 17.0, 10.0, 4.0, 12.0, 8.0, 0.0, 26.0, 12.0, 19.0, 13.0, 12.0, 27.0, 5.0, 8.0, 20.0, 7.0, 15.0, 2.0, 21.0, 24.0, 13.0, 15.0, 34.0, 13.0, 14.0, 9.0, 13.0, 14.0, 8.0, 11.0, 17.0, 12.0, 3.0, 14.0, 55.0, 2.0, 41.0, 33.0, 15.0, 8.0, 26.0, 14.0, 4.0, 12.0, 29.0, 22.0, 19.0, 6.0, 24.0, 8.0, 8.0, 2.0, 37.0, 1.0, 9.0, 9.0, 27.0, 7.0, 12.0, 7.0, 5.0, 21.0, 6.0, 13.0, 5.0, 23.0, 4.0, 23.0, 35.0, 7.0, 28.0, 15.0, 6.0, 9.0, 1.0, 11.0, 4.0, 3.0, 25.0, 16.0, 14.0, 8.0, 5.0, 22.0, 14.0, 7.0, 15.0, 8.0, 21.0, 14.0, 2.0, 16.0, 13.0, 3.0, 4.0, 32.0, 57.0, 21.0, 13.0, 16.0, 8.0, 19.0, 23.0, 21.0, 9.0, 8.0, 16.0, 12.0, 7.0, 29.0, 7.0, 13.0, 28.0, 15.0, 10.0, 29.0, 0.0, 10.0, 38.0, 4.0, 14.0, 8.0, 6.0, 12.0, 22.0, 11.0, 4.0, 5.0, 12.0, 9.0, 34.0, 7.0, 29.0, 1.0, 26.0, 20.0, 14.0, 4.0, 13.0, 24.0, 16.0, 31.0, 16.0, 10.0, 2.0, 21.0, 2.0, 49.0, 12.0, 16.0, 15.0, 9.0, 23.0, 5.0, 17.0, 9.0, 11.0, 8.0, 15.0, 9.0, 5.0, 9.0, 23.0, 71.0, 9.0, 10.0, 14.0, 15.0, 7.0, 22.0, 12.0, 8.0, 17.0, 33.0, 21.0, 4.0, 17.0, 19.0, 10.0, 6.0, 2.0, 13.0, 14.0, 12.0, 6.0, 13.0, 12.0, 33.0, 8.0, 25.0, 9.0, 19.0, 8.0, 24.0, 13.0, 18.0, 33.0, 29.0, 18.0, 3.0, 16.0, 4.0, 13.0, 17.0, 11.0, 12.0, 10.0, 7.0, 12.0, 27.0, 4.0, 25.0, 17.0, 10.0, 11.0, 18.0, 5.0, 20.0, 18.0, 35.0, 13.0, 6.0, 12.0, 18.0, 27.0, 37.0, 26.0, 13.0, 37.0, 8.0, 7.0, 40.0, 15.0, 8.0, 15.0, 27.0, 23.0, 43.0, 19.0, 6.0, 8.0, 12.0, 5.0, 11.0, 27.0, 13.0, 12.0, 4.0, 14.0, 2.0, 5.0, 14.0, 14.0, 7.0, 48.0, 32.0, 13.0, 22.0, 9.0, 28.0, 20.0, 12.0, 8.0, 2.0, 47.0, 9.0, 55.0, 6.0, 16.0, 5.0, 6.0, 11.0, 46.0, 19.0, 19.0, 19.0, 14.0, 35.0, 47.0, 31.0, 9.0, 13.0, 12.0, 12.0, 13.0, 3.0, 4.0, 10.0, 9.0, 12.0, 18.0, 20.0, 6.0, 63.0, 17.0, 26.0, 16.0, 26.0, 7.0, 10.0, 16.0, 14.0, 15.0, 2.0, 17.0, 17.0, 14.0, 7.0, 14.0, 16.0, 4.0, 10.0, 17.0, 19.0, 7.0, 20.0, 12.0, 30.0, 27.0, 3.0, 8.0, 2.0, 21.0, 6.0, 20.0, 10.0, 2.0, 1.0, 7.0, 22.0, 16.0, 23.0, 14.0, 8.0, 7.0, 49.0, 3.0, 21.0, 2.0, 10.0, 1.0, 10.0, 21.0, 21.0, 8.0, 15.0, 21.0, 16.0, 17.0, 15.0, 30.0, 23.0, 25.0, 24.0, 8.0, 19.0, 7.0, 24.0, 15.0, 17.0, 8.0, 23.0, 2.0, 6.0, 10.0, 26.0, 7.0, 8.0, 85.0, 16.0, 11.0, 21.0, 10.0, 10.0, 11.0, 9.0, 15.0, 9.0, 4.0, 14.0, 79.0, 32.0, 8.0, 2.0, 2.0, 11.0, 21.0, 12.0, 16.0, 3.0, 22.0, 4.0, 16.0, 8.0, 6.0, 44.0, 41.0, 29.0, 19.0, 16.0, 5.0, 5.0, 4.0, 0.0, 6.0, 4.0, 5.0, 9.0, 2.0, 46.0, 1.0, 38.0, 3.0, 24.0, 8.0, 4.0, 15.0, 24.0, 7.0, 9.0, 21.0, 3.0, 18.0, 60.0, 13.0, 37.0, 26.0, 5.0, 14.0, 16.0, 26.0, 3.0, 3.0, 1.0, 14.0, 16.0, 6.0, 5.0, 22.0, 21.0, 11.0, 9.0, 13.0, 2.0, 6.0, 18.0, 60.0, 3.0, 25.0, 24.0, 27.0, 4.0, 10.0, 7.0, 14.0, 16.0, 1.0, 18.0, 3.0, 10.0, 7.0, 45.0, 17.0, 17.0, 17.0, 48.0, 67.0, 13.0, 5.0, 6.0, 12.0, 12.0, 26.0, 2.0, 11.0, 16.0, 18.0, 3.0, 22.0, 20.0, 31.0, 10.0, 26.0, 21.0, 27.0, 15.0, 0.0, 20.0, 8.0, 19.0, 8.0, 63.0, 8.0, 5.0, 8.0, 74.0, 15.0, 27.0, 27.0, 8.0, 1.0, 8.0, 12.0, 35.0, 67.0, 18.0, 19.0, 5.0, 14.0, 18.0, 11.0, 21.0, 8.0, 26.0, 2.0, 3.0, 8.0, 2.0, 2.0, 9.0, 7.0, 7.0, 15.0, 11.0, 20.0, 12.0, 35.0, 71.0, 1.0, 7.0, 4.0, 8.0, 8.0, 6.0, 12.0, 0.0, 8.0, 21.0, 17.0, 15.0, 3.0, 20.0, 20.0, 3.0, 29.0, 8.0, 4.0, 7.0, 18.0, 3.0, 20.0, 2.0, 5.0, 26.0, 26.0, 9.0, 36.0, 23.0, 14.0, 35.0, 34.0, 33.0, 12.0, 15.0, 3.0, 9.0, 15.0, 29.0, 29.0, 29.0, 29.0, 7.0, 61.0, 27.0, 29.0, 6.0, 36.0, 9.0, 13.0, 20.0, 10.0, 10.0, 36.0, 13.0, 4.0, 5.0, 24.0, 22.0, 84.0, 7.0, 6.0, 16.0, 6.0, 10.0, 7.0, 10.0, 13.0, 80.0, 44.0, 9.0, 37.0, 5.0, 11.0, 34.0, 23.0, 22.0, 3.0, 36.0, 16.0, 3.0, 8.0, 1.0, 23.0, 20.0, 20.0, 16.0, 30.0, 15.0, 12.0, 13.0, 17.0, 36.0, 36.0, 28.0, 5.0, 12.0, 24.0, 22.0, 8.0, 7.0, 43.0, 15.0, 24.0, 9.0, 13.0, 7.0, 7.0, 13.0, 15.0, 20.0, 5.0, 11.0, 45.0, 11.0, 29.0, 15.0, 9.0, 12.0, 9.0, 28.0, 14.0, 28.0, 16.0, 16.0, 1.0, 10.0, 7.0, 45.0, 22.0, 17.0, 18.0, 4.0, 11.0, 8.0, 2.0, 16.0, 29.0, 30.0, 23.0, 53.0, 14.0, 11.0, 15.0, 14.0, 7.0, 14.0, 5.0, 10.0, 4.0, 5.0, 17.0, 4.0, 8.0, 2.0, 9.0, 39.0, 18.0, 11.0, 9.0, 4.0, 21.0, 3.0, 23.0, 19.0, 5.0, 7.0, 3.0, 12.0, 32.0, 32.0, 16.0, 17.0, 3.0, 4.0, 5.0, 8.0, 1.0, 38.0, 3.0, 8.0, 11.0, 3.0, 7.0, 39.0, 5.0, 3.0, 52.0, 27.0, 48.0, 9.0, 6.0, 60.0, 12.0, 51.0, 6.0, 3.0, 16.0, 6.0, 4.0, 6.0, 4.0, 27.0, 11.0, 3.0, 1.0, 16.0, 51.0, 12.0, 2.0, 13.0, 9.0, 18.0, 8.0, 4.0, 9.0, 5.0, 9.0, 1.0, 30.0, 52.0, 2.0, 25.0, 17.0, 6.0, 12.0, 20.0, 13.0, 9.0, 1.0, 29.0, 27.0, 27.0, 10.0, 43.0, 5.0, 17.0, 19.0, 10.0, 10.0, 10.0, 6.0, 4.0, 38.0, 12.0, 43.0, 4.0, 6.0, 16.0, 48.0, 11.0, 7.0, 27.0, 18.0, 12.0, 13.0, 12.0, 9.0, 9.0, 25.0, 10.0, 40.0, 7.0, 3.0, 13.0, 30.0, 18.0, 28.0, 42.0, 10.0, 4.0, 1.0, 16.0, 7.0, 7.0, 3.0, 15.0, 3.0, 3.0, 6.0, 7.0, 20.0, 18.0, 16.0, 20.0, 8.0, 13.0, 39.0, 4.0, 14.0, 7.0, 60.0, 4.0, 25.0, 10.0, 0.0, 23.0, 28.0, 21.0, 42.0, 5.0, 19.0, 13.0, 14.0, 5.0, 12.0, 4.0, 22.0, 5.0, 6.0, 15.0, 14.0, 33.0, 6.0, 21.0, 27.0, 8.0, 7.0, 4.0, 9.0, 7.0, 12.0, 27.0, 22.0, 9.0, 8.0, 11.0, 5.0, 13.0, 75.0, 5.0, 16.0, 5.0, 15.0, 7.0, 7.0, 12.0, 9.0, 20.0, 5.0, 29.0, 9.0, 7.0, 8.0, 43.0, 9.0, 6.0, 63.0, 1.0, 14.0, 56.0, 7.0, 6.0, 2.0, 43.0, 3.0, 2.0, 22.0, 26.0, 6.0, 9.0, 34.0, 5.0, 16.0, 3.0, 7.0, 7.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 10.0, 6.0, 28.0, 7.0, 13.0, 14.0, 10.0, 2.0, 34.0, 3.0, 24.0, 10.0, 7.0, 8.0, 15.0, 11.0, 8.0, 43.0, 9.0, 11.0, 1.0, 2.0, 5.0, 37.0, 11.0, 2.0, 36.0, 9.0, 10.0, 13.0, 16.0, 7.0, 11.0, 37.0, 7.0, 16.0, 6.0, 16.0, 9.0, 8.0, 4.0, 6.0, 7.0, 8.0, 4.0, 13.0, 4.0, 11.0, 18.0, 13.0, 0.0, 33.0, 44.0, 62.0, 8.0, 7.0, 4.0, 14.0, 8.0, 78.0, 7.0, 29.0, 18.0, 2.0, 32.0, 14.0, 14.0, 16.0, 25.0, 3.0, 28.0, 10.0, 4.0, 13.0, 14.0, 10.0, 10.0, 73.0, 28.0, 7.0, 7.0, 3.0, 8.0, 7.0, 5.0, 28.0, 17.0, 4.0, 8.0, 71.0, 8.0, 3.0, 2.0, 6.0, 8.0, 10.0, 7.0, 17.0, 25.0, 43.0, 14.0, 14.0, 11.0, 7.0, 16.0, 22.0, 18.0, 11.0, 0.0, 4.0, 8.0, 18.0, 7.0, 10.0, 14.0, 4.0, 4.0, 17.0, 11.0, 44.0, 1.0, 13.0, 3.0, 17.0, 18.0, 14.0, 8.0, 8.0, 15.0, 14.0, 2.0, 23.0, 4.0, 1.0, 23.0, 8.0, 19.0, 1.0, 12.0, 3.0, 37.0, 43.0, 8.0, 16.0, 3.0, 17.0, 2.0, 9.0, 4.0, 24.0, 17.0, 3.0, 43.0, 9.0, 30.0, 18.0, 12.0, 6.0, 2.0, 8.0, 5.0, 29.0, 16.0, 1.0, 3.0, 24.0, 6.0, 5.0, 34.0, 3.0, 15.0, 7.0, 12.0, 38.0, 6.0, 0.0, 23.0, 4.0, 1.0, 9.0, 3.0, 12.0, 12.0, 2.0, 10.0, 17.0, 60.0, 23.0, 8.0, 16.0, 2.0, 67.0, 4.0, 4.0, 19.0, 16.0, 6.0, 40.0, 11.0, 16.0, 20.0, 21.0, 6.0, 7.0, 11.0, 23.0, 26.0, 10.0, 31.0, 13.0, 6.0, 19.0, 13.0, 1.0, 27.0, 13.0, 1.0, 14.0, 5.0, 14.0, 6.0, 10.0, 7.0, 12.0, 10.0, 4.0, 11.0, 14.0, 10.0, 4.0, 24.0, 8.0, 9.0, 11.0, 20.0, 17.0, 21.0, 46.0, 3.0, 7.0, 13.0, 12.0, 10.0, 6.0, 4.0, 21.0, 20.0, 12.0, 3.0, 5.0, 1.0, 11.0, 12.0, 14.0, 13.0, 12.0, 22.0, 14.0, 5.0, 17.0, 11.0, 7.0, 17.0, 48.0, 7.0, 12.0, 5.0, 45.0, 6.0, 10.0, 67.0, 19.0, 3.0, 22.0, 4.0, 7.0, 10.0, 40.0, 8.0, 8.0, 11.0, 11.0, 12.0, 36.0, 3.0, 1.0, 19.0, 1.0, 7.0, 11.0, 14.0, 17.0, 6.0, 12.0, 10.0, 6.0, 25.0, 15.0, 5.0, 3.0, 8.0, 13.0, 11.0, 14.0, 8.0, 4.0, 11.0, 25.0, 5.0, 12.0, 15.0, 1.0, 106.0, 7.0, 7.0, 4.0, 8.0, 15.0, 5.0, 3.0, 7.0, 6.0, 4.0, 16.0, 6.0, 57.0, 6.0, 21.0, 3.0, 56.0, 56.0, 41.0, 14.0, 5.0, 7.0, 10.0, 3.0, 17.0, 7.0, 21.0, 12.0, 2.0, 7.0, 4.0, 3.0, 6.0, 32.0, 20.0, 14.0, 22.0, 32.0, 22.0, 6.0, 14.0, 7.0, 3.0, 6.0, 8.0, 9.0, 23.0, 13.0, 5.0, 3.0, 14.0, 16.0, 12.0, 38.0, 15.0, 12.0, 19.0, 5.0, 16.0, 6.0, 8.0, 6.0, 1.0, 49.0, 6.0, 8.0, 5.0, 12.0, 5.0, 7.0, 14.0, 15.0, 3.0, 5.0, 17.0, 15.0, 14.0, 6.0, 8.0, 7.0, 13.0, 15.0, 1.0, 9.0, 5.0, 6.0, 15.0, 79.0, 54.0, 7.0, 5.0, 13.0, 107.0, 25.0, 21.0, 9.0, 16.0, 42.0, 9.0, 3.0, 28.0, 21.0, 10.0, 1.0, 6.0, 13.0, 7.0, 20.0, 27.0, 3.0, 2.0, 14.0, 14.0, 7.0, 22.0, 5.0, 13.0, 15.0, 3.0, 17.0, 16.0, 13.0, 27.0, 14.0, 17.0, 8.0, 8.0, 17.0, 15.0, 8.0, 7.0, 13.0, 13.0, 6.0, 6.0, 66.0, 2.0, 2.0, 5.0, 14.0, 10.0, 13.0, 4.0, 7.0, 16.0, 8.0, 6.0, 6.0, 4.0, 8.0, 7.0, 11.0, 5.0, 10.0, 5.0, 1.0, 26.0, 55.0, 7.0, 13.0, 1.0, 14.0, 9.0, 7.0, 16.0, 13.0, 17.0, 4.0, 23.0, 10.0, 9.0, 9.0, 34.0, 20.0, 7.0, 1.0, 14.0, 8.0, 14.0, 17.0, 3.0, 25.0, 31.0, 33.0, 57.0, 30.0, 8.0, 19.0, 6.0, 15.0, 24.0, 9.0, 30.0, 5.0, 14.0, 8.0, 15.0, 49.0, 21.0, 5.0, 44.0, 3.0, 7.0, 14.0, 3.0, 4.0, 3.0, 7.0, 3.0, 9.0, 22.0, 17.0, 9.0, 7.0, 7.0, 9.0, 8.0, 7.0, 16.0, 43.0, 8.0, 8.0, 9.0, 6.0, 8.0, 27.0, 1.0, 24.0, 11.0, 9.0, 3.0, 9.0, 15.0, 7.0, 3.0, 5.0, 0.0, 16.0, 5.0, 22.0, 10.0, 1.0, 5.0, 24.0, 7.0, 58.0, 2.0, 7.0, 24.0, 16.0, 14.0, 16.0, 16.0, 7.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 3.0, 31.0, 10.0, 7.0, 8.0, 14.0, 25.0, 44.0, 4.0, 5.0, 15.0, 32.0, 2.0, 8.0, 15.0, 5.0, 12.0, 3.0, 12.0, 12.0, 19.0, 11.0, 4.0, 10.0, 73.0, 4.0, 1.0, 12.0, 34.0, 10.0, 36.0, 10.0, 4.0, 6.0, 0.0, 12.0, 4.0, 4.0, 58.0, 10.0, 4.0, 7.0, 5.0, 5.0, 25.0, 25.0, 5.0, 11.0, 8.0, 8.0, 36.0, 12.0, 1.0, 32.0, 6.0, 1.0, 8.0, 8.0, 13.0, 2.0, 8.0, 30.0, 5.0, 8.0, 0.0, 17.0, 10.0, 52.0, 9.0, 12.0, 24.0, 3.0, 26.0, 9.0, 13.0, 8.0, 4.0, 4.0, 43.0, 4.0, 8.0, 22.0, 26.0, 19.0, 10.0, 4.0, 30.0, 6.0, 24.0, 2.0, 2.0, 10.0, 25.0, 5.0, 13.0, 2.0, 17.0, 34.0, 6.0, 3.0, 6.0, 3.0, 16.0, 10.0, 5.0, 41.0, 20.0, 17.0, 2.0, 37.0, 5.0, 24.0, 33.0, 27.0, 8.0, 8.0, 4.0, 17.0, 39.0, 9.0, 10.0, 5.0, 7.0, 24.0, 6.0, 3.0, 11.0, 17.0, 11.0, 1.0, 16.0, 54.0, 9.0, 9.0, 6.0, 2.0, 3.0, 2.0, 10.0, 6.0, 6.0, 11.0, 6.0, 6.0, 7.0, 24.0, 6.0, 3.0, 10.0, 3.0, 12.0, 19.0, 26.0, 3.0, 21.0, 24.0, 10.0, 14.0, 7.0, 7.0, 2.0, 7.0, 13.0, 4.0, 6.0, 25.0, 10.0, 17.0, 11.0, 0.0, 13.0, 42.0, 81.0, 4.0, 7.0, 1.0, 4.0, 14.0, 1.0, 11.0, 4.0, 3.0, 11.0, 28.0, 21.0, 22.0, 2.0, 3.0, 7.0, 49.0, 4.0, 15.0, 7.0, 7.0, 29.0, 4.0, 24.0, 36.0, 14.0, 35.0, 33.0, 10.0, 1.0, 24.0, 20.0, 7.0, 14.0, 11.0, 38.0, 7.0, 8.0, 6.0, 16.0, 34.0, 24.0, 18.0, 7.0, 8.0, 36.0, 7.0, 26.0, 11.0, 14.0, 24.0, 19.0, 9.0, 1.0, 13.0, 17.0, 23.0, 6.0, 19.0, 5.0, 28.0, 3.0, 52.0, 15.0, 10.0, 15.0, 14.0, 26.0, 7.0, 13.0, 5.0, 0.0, 9.0, 8.0, 6.0, 12.0, 4.0, 16.0, 54.0, 5.0, 4.0, 5.0, 55.0, 7.0, 9.0, 2.0, 1.0, 8.0, 22.0, 4.0, 11.0, 9.0, 21.0, 8.0, 1.0, 7.0, 11.0, 12.0, 13.0, 20.0, 3.0, 11.0, 21.0, 7.0, 2.0, 5.0, 2.0, 5.0, 3.0, 6.0, 29.0, 29.0, 9.0, 1.0, 8.0, 15.0, 3.0, 6.0, 1.0, 1.0, 20.0, 10.0, 2.0, 22.0, 22.0, 12.0, 15.0, 47.0, 2.0, 8.0, 11.0, 0.0, 102.0, 47.0, 12.0, 5.0, 11.0, 1.0, 28.0, 11.0, 12.0, 1.0, 8.0, 9.0, 5.0, 20.0, 14.0, 3.0, 4.0, 41.0, 0.0, 13.0, 9.0, 24.0, 12.0, 39.0, 1.0, 14.0, 22.0, 20.0, 15.0, 6.0, 12.0, 30.0, 8.0, 13.0, 5.0, 14.0, 2.0, 30.0, 8.0, 16.0, 13.0, 3.0, 42.0, 6.0, 1.0, 1.0, 13.0, 4.0, 28.0, 2.0, 15.0, 10.0, 9.0, 14.0, 5.0, 34.0, 20.0, 4.0, 8.0, 11.0, 14.0, 11.0, 17.0, 9.0, 9.0, 9.0, 8.0, 2.0, 6.0, 8.0, 3.0, 8.0, 5.0, 12.0, 13.0, 7.0, 11.0, 20.0, 12.0, 49.0, 13.0, 8.0, 12.0, 9.0, 6.0, 14.0, 3.0, 3.0, 20.0, 25.0, 13.0, 5.0, 9.0, 2.0, 9.0, 21.0, 16.0, 7.0, 13.0, 5.0, 35.0, 16.0, 4.0, 18.0, 3.0, 6.0, 13.0, 6.0, 6.0, 45.0, 1.0, 11.0, 10.0, 14.0, 13.0, 15.0, 12.0, 13.0, 3.0, 15.0, 14.0, 2.0, 21.0, 10.0, 34.0, 6.0, 14.0, 24.0, 13.0, 2.0, 23.0, 4.0, 17.0, 4.0, 6.0, 4.0, 5.0, 3.0, 9.0, 39.0, 14.0, 7.0, 10.0, 1.0, 20.0, 38.0, 8.0, 7.0, 62.0, 31.0, 13.0, 7.0, 11.0, 23.0, 12.0, 1.0, 2.0, 10.0, 21.0, 7.0, 4.0, 6.0, 9.0, 9.0, 31.0, 7.0, 11.0, 15.0, 6.0, 1.0, 1.0, 1.0, 8.0, 8.0, 5.0, 3.0, 27.0, 4.0, 3.0, 2.0, 21.0, 3.0, 13.0, 3.0, 6.0, 6.0, 16.0, 28.0, 17.0, 13.0, 24.0, 7.0, 5.0, 37.0, 7.0, 9.0, 37.0, 15.0, 23.0, 3.0, 23.0, 9.0, 7.0, 23.0, 9.0, 24.0, 14.0, 8.0, 16.0, 13.0, 8.0, 5.0, 10.0, 11.0, 15.0, 4.0, 9.0, 4.0, 26.0, 7.0, 16.0, 11.0, 8.0, 34.0, 8.0, 5.0, 23.0, 4.0, 17.0, 7.0, 8.0, 4.0, 11.0, 23.0, 4.0, 9.0, 22.0, 10.0, 11.0, 18.0, 13.0, 21.0, 51.0, 4.0, 3.0, 7.0, 10.0, 8.0, 11.0, 52.0, 25.0, 1.0, 8.0, 29.0, 2.0, 9.0, 14.0, 9.0, 14.0, 4.0, 3.0, 1.0, 8.0, 3.0, 19.0, 40.0, 3.0, 7.0, 8.0, 16.0, 16.0, 10.0, 2.0, 10.0, 4.0, 17.0, 10.0, 8.0, 7.0, 25.0, 14.0, 1.0, 10.0, 9.0, 17.0, 11.0, 11.0, 14.0, 7.0, 14.0, 63.0, 28.0, 14.0, 16.0, 21.0, 3.0, 3.0, 29.0, 2.0, 7.0, 7.0, 2.0, 4.0, 42.0, 41.0, 5.0, 31.0, 29.0, 7.0, 7.0, 15.0, 16.0, 14.0, 5.0, 3.0, 8.0, 18.0, 16.0, 38.0, 10.0, 2.0, 2.0, 24.0, 2.0, 14.0, 17.0, 9.0, 8.0, 4.0, 11.0, 15.0, 12.0, 15.0, 8.0, 25.0, 75.0, 2.0, 10.0, 11.0, 27.0, 6.0, 3.0, 7.0, 11.0, 22.0, 24.0, 41.0, 18.0, 5.0, 16.0, 15.0, 4.0, 25.0, 5.0, 11.0, 13.0, 2.0, 16.0, 10.0, 5.0, 5.0, 3.0, 1.0, 6.0, 24.0, 15.0, 4.0, 8.0, 17.0, 4.0, 4.0, 5.0, 4.0, 36.0, 9.0, 5.0, 5.0, 38.0, 3.0, 12.0, 5.0, 10.0, 17.0, 24.0, 2.0, 9.0, 9.0, 7.0, 3.0, 11.0, 8.0, 14.0, 11.0, 3.0, 13.0, 5.0, 8.0, 4.0, 11.0, 9.0, 16.0, 3.0, 9.0, 10.0, 24.0, 23.0, 3.0, 6.0, 15.0, 6.0, 9.0, 5.0, 10.0, 17.0, 9.0, 7.0, 9.0, 4.0, 6.0, 6.0, 1.0, 13.0, 12.0, 12.0, 4.0, 16.0, 2.0, 11.0, 5.0, 19.0, 12.0, 10.0, 30.0, 6.0, 12.0, 21.0, 2.0, 34.0, 2.0, 2.0, 2.0, 25.0, 10.0, 8.0, 5.0, 6.0, 16.0, 6.0, 3.0, 7.0, 15.0, 7.0, 19.0, 28.0, 6.0, 17.0, 16.0, 24.0, 9.0, 9.0, 8.0, 4.0, 13.0, 16.0, 6.0, 4.0, 9.0, 3.0, 9.0, 13.0, 11.0, 11.0, 9.0, 6.0, 12.0, 7.0, 6.0, 8.0, 26.0, 3.0, 10.0, 3.0, 6.0, 0.0, 5.0, 14.0, 6.0, 6.0, 17.0, 2.0, 22.0, 5.0, 17.0, 14.0, 8.0, 4.0, 12.0, 12.0, 32.0, 23.0, 6.0, 5.0, 7.0, 3.0, 6.0, 6.0, 20.0, 22.0, 10.0, 27.0, 13.0, 3.0, 20.0, 55.0, 27.0, 6.0, 5.0, 4.0, 7.0, 5.0, 17.0, 19.0, 8.0, 5.0, 19.0, 12.0, 6.0, 4.0, 42.0, 13.0, 21.0, 10.0, 5.0, 17.0, 10.0, 7.0, 3.0, 11.0, 2.0, 17.0, 5.0, 18.0, 3.0, 7.0, 10.0, 4.0, 6.0, 0.0, 13.0, 10.0, 3.0, 3.0, 11.0, 11.0, 7.0, 3.0, 17.0, 5.0, 4.0, 17.0, 11.0, 13.0, 10.0, 4.0, 32.0, 10.0, 6.0, 14.0, 14.0, 13.0, 15.0, 18.0, 4.0, 12.0, 3.0, 6.0, 4.0, 24.0, 25.0, 15.0, 10.0, 9.0, 16.0, 7.0, 7.0, 39.0, 6.0, 6.0, 4.0, 6.0, 1.0, 2.0, 1.0, 7.0, 6.0, 20.0, 1.0, 15.0, 9.0, 5.0, 10.0, 22.0, 5.0, 75.0, 6.0, 1.0, 15.0, 15.0, 8.0, 9.0, 1.0, 15.0, 14.0, 3.0, 14.0, 9.0, 12.0, 9.0, 11.0, 11.0, 5.0, 4.0, 6.0, 6.0, 5.0, 15.0, 4.0, 8.0, 2.0, 5.0, 14.0, 32.0, 21.0, 10.0, 14.0, 19.0, 9.0, 25.0, 58.0, 1.0, 44.0, 3.0, 15.0, 8.0, 5.0, 12.0, 8.0, 8.0, 5.0, 11.0, 20.0, 3.0, 15.0, 18.0, 1.0, 7.0, 2.0, 14.0, 5.0, 4.0, 2.0, 1.0, 3.0, 5.0, 8.0, 5.0, 1.0, 9.0, 25.0, 37.0, 4.0, 2.0, 26.0, 21.0, 11.0, 83.0, 3.0, 21.0, 8.0, 22.0, 9.0, 1.0, 7.0, 7.0, 7.0, 6.0, 15.0, 11.0, 11.0, 8.0, 22.0, 6.0, 5.0, 2.0, 10.0, 15.0, 33.0, 4.0, 30.0, 10.0, 6.0, 6.0, 4.0, 13.0, 14.0, 7.0, 16.0, 6.0, 5.0, 23.0, 21.0, 29.0, 16.0, 7.0, 37.0, 18.0, 10.0, 9.0, 6.0, 7.0, 8.0, 13.0, 2.0, 5.0, 12.0, 7.0, 10.0, 9.0, 22.0, 22.0, 9.0, 1.0, 7.0, 7.0, 13.0, 7.0, 13.0, 15.0, 15.0, 14.0, 2.0, 21.0, 5.0, 23.0, 25.0, 25.0, 39.0, 11.0, 5.0, 23.0, 20.0, 6.0, 20.0, 26.0, 8.0, 7.0, 13.0, 6.0, 7.0, 30.0, 97.0, 2.0, 27.0, 6.0, 21.0, 6.0, 9.0, 19.0, 13.0, 3.0, 10.0, 88.0, 27.0, 8.0, 14.0, 8.0, 5.0, 5.0, 10.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 8.0, 7.0, 4.0, 7.0, 13.0, 20.0, 17.0, 2.0, 12.0, 14.0, 11.0, 25.0, 49.0, 7.0, 17.0, 5.0, 8.0, 17.0, 2.0, 3.0, 18.0, 12.0, 23.0, 20.0, 7.0, 10.0, 23.0, 25.0, 12.0, 1.0, 7.0, 4.0, 1.0, 6.0, 6.0, 4.0, 22.0, 8.0, 49.0, 42.0, 57.0, 6.0, 17.0, 10.0, 8.0, 16.0, 13.0, 6.0, 6.0, 14.0, 10.0, 3.0, 10.0, 8.0, 7.0, 7.0, 9.0, 30.0, 24.0, 13.0, 13.0, 10.0, 9.0, 28.0, 63.0, 99.0, 14.0, 10.0, 4.0, 3.0, 1.0, 5.0, 2.0, 6.0, 19.0, 7.0, 16.0, 6.0, 33.0, 3.0, 6.0, 7.0, 10.0, 14.0, 9.0, 17.0, 14.0, 8.0, 3.0, 8.0, 4.0, 14.0, 4.0, 7.0, 66.0, 11.0, 18.0, 59.0, 1.0, 50.0, 14.0, 38.0, 2.0, 24.0, 46.0, 7.0, 7.0, 4.0, 3.0, 2.0, 18.0, 7.0, 15.0, 25.0, 10.0, 7.0, 3.0, 7.0, 8.0, 15.0, 8.0, 5.0, 3.0, 18.0, 7.0, 22.0, 4.0, 9.0, 8.0, 4.0, 10.0, 14.0, 4.0, 11.0, 9.0, 15.0, 22.0, 18.0, 6.0, 43.0, 3.0, 3.0, 7.0, 2.0, 3.0, 5.0, 2.0, 8.0, 5.0, 9.0, 5.0, 11.0, 8.0, 25.0, 7.0, 14.0, 3.0, 21.0, 1.0, 18.0, 9.0, 28.0, 11.0, 3.0, 3.0, 4.0, 4.0, 11.0, 13.0, 24.0, 7.0, 9.0, 21.0, 17.0, 19.0, 14.0, 8.0, 10.0, 11.0, 4.0, 84.0, 7.0, 18.0, 26.0, 3.0, 4.0, 58.0, 2.0, 10.0, 17.0, 9.0, 10.0, 24.0, 10.0, 42.0, 19.0, 22.0, 18.0, 2.0, 19.0, 5.0, 5.0, 20.0, 2.0, 13.0, 30.0, 37.0, 24.0, 10.0, 24.0, 22.0, 44.0, 5.0, 4.0, 17.0, 19.0, 8.0, 2.0, 9.0, 8.0, 22.0, 5.0, 2.0, 11.0, 7.0, 33.0, 10.0, 5.0, 7.0, 10.0, 96.0, 8.0, 15.0, 13.0, 3.0, 4.0, 10.0, 13.0, 12.0, 1.0, 8.0, 8.0, 6.0, 26.0, 10.0, 9.0, 7.0, 30.0, 35.0, 6.0, 5.0, 3.0, 15.0, 18.0, 4.0, 54.0, 27.0, 4.0, 3.0, 8.0, 65.0, 17.0, 5.0, 29.0, 12.0, 7.0, 47.0, 16.0, 10.0, 10.0, 10.0, 12.0, 4.0, 13.0, 3.0, 4.0, 14.0, 1.0, 6.0, 21.0, 10.0, 4.0, 6.0, 5.0, 10.0, 13.0, 31.0, 6.0, 5.0, 13.0, 6.0, 87.0, 7.0, 4.0, 13.0, 2.0, 4.0, 36.0, 9.0, 14.0, 2.0, 1.0, 32.0, 27.0, 15.0, 1.0, 3.0, 11.0, 2.0, 9.0, 5.0, 27.0, 4.0, 23.0, 44.0, 10.0, 20.0, 2.0, 33.0, 14.0, 6.0, 17.0, 16.0, 33.0, 3.0, 3.0, 6.0, 6.0, 24.0, 24.0, 68.0, 37.0, 2.0, 23.0, 3.0, 8.0, 5.0, 10.0, 13.0, 12.0, 12.0, 5.0, 3.0, 2.0, 11.0, 4.0, 3.0, 10.0, 13.0, 9.0, 11.0, 34.0, 7.0, 13.0, 18.0, 13.0, 3.0, 10.0, 11.0, 10.0, 8.0, 1.0, 7.0, 12.0, 13.0, 8.0, 41.0, 11.0, 7.0, 9.0, 16.0, 21.0, 3.0, 14.0, 16.0, 4.0, 11.0, 1.0, 4.0, 5.0, 7.0, 27.0, 7.0, 3.0, 10.0, 6.0, 7.0, 18.0, 7.0, 12.0, 38.0, 11.0, 12.0, 3.0, 11.0, 6.0, 13.0, 2.0, 7.0, 11.0, 19.0, 6.0, 14.0, 11.0, 17.0, 12.0, 88.0, 10.0, 3.0, 3.0, 14.0, 10.0, 3.0, 43.0, 5.0, 11.0, 10.0, 5.0, 6.0, 39.0, 6.0, 14.0, 27.0, 18.0, 5.0, 3.0, 12.0, 11.0, 20.0, 0.0, 4.0, 11.0, 7.0, 31.0, 16.0, 5.0, 7.0, 11.0, 20.0, 16.0, 56.0, 9.0, 3.0, 21.0, 11.0, 25.0, 8.0, 7.0, 17.0, 54.0, 14.0, 4.0, 3.0, 11.0, 11.0, 7.0, 8.0, 25.0, 7.0, 7.0, 5.0, 7.0, 19.0, 41.0, 7.0, 7.0, 14.0, 3.0, 7.0, 35.0, 2.0, 14.0, 12.0, 6.0, 8.0, 13.0, 4.0, 14.0, 21.0, 8.0, 14.0, 7.0, 10.0, 8.0, 11.0, 9.0, 12.0, 5.0, 6.0, 6.0, 32.0, 16.0, 1.0, 1.0, 20.0, 19.0, 10.0, 3.0, 14.0, 1.0, 5.0, 12.0, 8.0, 15.0, 10.0, 1.0, 3.0, 13.0, 8.0, 50.0, 49.0, 8.0, 1.0, 6.0, 11.0, 17.0, 13.0, 8.0, 10.0, 6.0, 42.0, 8.0, 13.0, 15.0, 26.0, 6.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 33.0, 11.0, 16.0, 11.0, 15.0, 8.0, 6.0, 29.0, 8.0, 14.0, 4.0, 9.0, 14.0, 98.0, 14.0, 90.0, 16.0, 14.0, 6.0, 10.0, 8.0, 40.0, 131.0, 1.0, 1.0, 5.0, 13.0, 1.0, 16.0, 10.0, 15.0, 8.0, 17.0, 4.0, 11.0, 7.0, 2.0, 2.0, 7.0, 17.0, 9.0, 2.0, 2.0, 8.0, 5.0, 19.0, 12.0, 9.0, 12.0, 42.0, 19.0, 9.0, 40.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 14.0, 50.0, 36.0, 15.0, 29.0, 0.0, 9.0, 9.0, 23.0, 22.0, 7.0, 5.0, 51.0, 6.0, 22.0, 1.0, 9.0, 17.0, 22.0, 20.0, 8.0, 7.0, 7.0, 4.0, 23.0, 20.0, 50.0, 20.0, 3.0, 47.0, 7.0, 30.0, 8.0, 20.0, 37.0, 13.0, 15.0, 59.0, 2.0, 22.0, 13.0, 13.0, 30.0, 15.0, 22.0, 18.0, 3.0, 20.0, 10.0, 6.0, 14.0, 48.0, 13.0, 17.0, 10.0, 22.0, 23.0, 6.0, 1.0, 22.0, 14.0, 7.0, 7.0, 10.0, 3.0, 15.0, 6.0, 44.0, 9.0, 15.0, 15.0, 3.0, 7.0, 30.0, 0.0, 6.0, 3.0, 2.0, 10.0, 8.0, 6.0, 20.0, 3.0, 8.0, 14.0, 19.0, 30.0, 8.0, 10.0, 28.0, 33.0, 6.0, 6.0, 6.0, 6.0, 12.0, 10.0, 2.0, 10.0, 5.0, 16.0, 5.0, 5.0, 6.0, 25.0, 1.0, 11.0, 6.0, 6.0, 6.0, 9.0, 8.0, 6.0, 23.0, 9.0, 4.0, 10.0, 7.0, 21.0, 1.0, 3.0, 3.0, 15.0, 10.0, 35.0, 17.0, 52.0, 40.0, 38.0, 11.0, 3.0, 8.0, 2.0, 3.0, 42.0, 36.0, 4.0, 4.0, 60.0, 14.0, 29.0, 9.0, 7.0, 8.0, 15.0, 32.0, 29.0, 11.0, 32.0, 11.0, 7.0, 19.0, 2.0, 1.0, 8.0, 18.0, 16.0, 9.0, 21.0, 23.0, 7.0, 4.0, 1.0, 22.0, 21.0, 5.0, 17.0, 12.0, 11.0, 25.0, 11.0, 9.0, 5.0, 12.0, 5.0, 14.0, 1.0, 5.0, 11.0, 25.0, 9.0, 3.0, 4.0, 18.0, 70.0, 25.0, 63.0, 6.0, 6.0, 17.0, 18.0, 14.0, 8.0, 25.0, 7.0, 37.0, 22.0, 14.0, 25.0, 14.0, 4.0, 4.0, 4.0, 21.0, 3.0, 5.0, 6.0, 98.0, 54.0, 4.0, 11.0, 3.0, 21.0, 22.0, 35.0, 5.0, 10.0, 10.0, 12.0, 21.0, 65.0, 23.0, 28.0, 10.0, 9.0, 2.0, 3.0, 19.0, 7.0, 5.0, 11.0, 8.0, 10.0, 10.0, 23.0, 12.0, 16.0, 12.0, 15.0, 4.0, 11.0, 16.0, 7.0, 13.0, 5.0, 2.0, 23.0, 13.0, 5.0, 9.0, 14.0, 12.0, 10.0, 10.0, 8.0, 23.0, 4.0, 12.0, 13.0, 31.0, 8.0, 17.0, 60.0, 3.0, 9.0, 37.0, 38.0, 20.0, 9.0, 6.0, 9.0, 8.0, 6.0, 2.0, 13.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 9.0, 24.0, 17.0, 16.0, 19.0, 12.0, 12.0, 11.0, 39.0, 7.0, 26.0, 33.0, 10.0, 3.0, 10.0, 5.0, 4.0, 11.0, 37.0, 20.0, 17.0, 21.0, 10.0, 23.0, 7.0, 20.0, 26.0, 7.0, 20.0, 17.0, 10.0, 26.0, 7.0, 11.0, 18.0, 5.0, 4.0, 21.0, 18.0, 7.0, 15.0, 4.0, 12.0, 12.0, 19.0, 17.0, 4.0, 40.0, 20.0, 7.0, 6.0, 10.0, 14.0, 27.0, 7.0, 14.0, 7.0, 10.0, 5.0, 7.0, 40.0, 3.0, 3.0, 25.0, 21.0, 20.0, 9.0, 14.0, 23.0, 19.0, 13.0, 14.0, 44.0, 55.0, 46.0, 10.0, 10.0, 7.0, 47.0, 12.0, 11.0, 125.0, 6.0, 12.0, 24.0, 17.0, 10.0, 17.0, 5.0, 17.0, 7.0, 33.0, 45.0, 21.0, 21.0, 7.0, 13.0, 3.0, 6.0, 7.0, 11.0, 15.0, 9.0, 11.0, 13.0, 3.0, 11.0, 4.0, 20.0, 7.0, 8.0, 19.0, 11.0, 13.0, 15.0, 5.0, 8.0, 9.0, 3.0, 19.0, 36.0, 14.0, 16.0, 19.0, 17.0, 19.0, 7.0, 4.0, 38.0, 18.0, 32.0, 11.0, 20.0, 19.0, 15.0, 19.0, 28.0, 16.0, 14.0, 13.0, 25.0, 24.0, 18.0, 10.0, 19.0, 20.0, 11.0, 21.0, 9.0, 14.0, 28.0, 4.0, 18.0, 27.0, 39.0, 38.0, 14.0, 14.0, 19.0, 8.0, 9.0, 27.0, 30.0, 13.0, 21.0, 3.0, 7.0, 15.0, 26.0, 6.0, 20.0, 12.0, 9.0, 9.0, 14.0, 3.0, 19.0, 19.0, 6.0, 50.0, 14.0, 34.0, 9.0, 37.0, 29.0, 3.0, 20.0, 16.0, 21.0, 9.0, 33.0, 16.0, 12.0, 14.0, 24.0, 2.0, 48.0, 15.0, 15.0, 15.0, 4.0, 7.0, 76.0, 38.0, 45.0, 1.0, 42.0, 28.0, 3.0, 17.0, 3.0, 23.0, 23.0, 3.0, 3.0, 10.0, 2.0, 8.0, 20.0, 23.0, 3.0, 8.0, 24.0, 20.0, 6.0, 14.0, 16.0, 4.0, 24.0, 20.0, 17.0, 14.0, 51.0, 13.0, 2.0, 3.0, 16.0, 7.0, 28.0, 18.0, 16.0, 27.0, 13.0, 23.0, 7.0, 22.0, 37.0, 35.0, 14.0, 7.0, 16.0, 51.0, 17.0, 3.0, 10.0, 21.0, 25.0, 15.0, 9.0, 7.0, 17.0, 37.0, 28.0, 7.0, 8.0, 7.0, 2.0, 1.0, 32.0, 3.0, 2.0, 18.0, 12.0, 4.0, 5.0, 9.0, 3.0, 3.0, 26.0, 8.0, 28.0, 11.0, 38.0, 11.0, 17.0, 15.0, 28.0, 9.0, 9.0, 16.0, 29.0, 9.0, 3.0, 20.0, 16.0, 21.0, 15.0, 9.0, 26.0, 53.0, 36.0, 17.0, 4.0, 31.0, 14.0, 7.0, 27.0, 35.0, 30.0, 30.0, 22.0, 18.0, 5.0, 8.0, 8.0, 78.0, 46.0, 24.0, 5.0, 39.0, 9.0, 2.0, 15.0, 14.0, 12.0, 12.0, 4.0, 10.0, 11.0, 8.0, 15.0, 3.0, 5.0, 3.0, 26.0, 10.0, 4.0, 4.0, 10.0, 23.0, 14.0, 39.0, 14.0, 3.0, 33.0, 32.0, 19.0, 1.0, 39.0, 8.0, 23.0, 15.0, 37.0, 8.0, 3.0, 61.0, 10.0, 43.0, 14.0, 4.0, 7.0, 8.0, 2.0, 4.0, 20.0, 5.0, 11.0, 10.0, 32.0, 3.0, 24.0, 66.0, 30.0, 6.0, 66.0, 13.0, 19.0, 3.0, 0.0, 9.0, 2.0, 32.0, 7.0, 18.0, 14.0, 20.0, 7.0, 10.0, 9.0, 6.0, 7.0, 17.0, 29.0, 13.0, 12.0, 5.0, 17.0, 4.0, 12.0, 2.0, 25.0, 7.0, 25.0, 37.0, 19.0, 33.0, 18.0, 26.0, 14.0, 21.0, 25.0, 5.0, 17.0, 4.0, 14.0, 17.0, 47.0, 10.0, 9.0, 26.0, 32.0, 17.0, 49.0, 14.0, 3.0, 30.0, 4.0, 12.0, 29.0, 15.0, 14.0, 5.0, 14.0, 5.0, 21.0, 41.0, 12.0, 12.0, 48.0, 11.0, 4.0, 6.0, 14.0, 5.0, 27.0, 12.0, 15.0, 22.0, 28.0, 32.0, 16.0, 7.0, 13.0, 32.0, 57.0, 38.0, 6.0, 4.0, 6.0, 27.0, 11.0, 25.0, 11.0, 13.0, 11.0, 6.0, 23.0, 24.0, 9.0, 13.0, 12.0, 5.0, 23.0, 2.0, 7.0, 2.0, 13.0, 12.0, 35.0, 4.0, 33.0, 23.0, 19.0, 12.0, 28.0, 18.0, 20.0, 46.0, 7.0, 49.0, 29.0, 1.0, 29.0, 14.0, 17.0, 15.0, 9.0, 7.0, 6.0, 20.0, 13.0, 29.0, 9.0, 51.0, 28.0, 37.0, 16.0, 9.0, 7.0, 27.0, 56.0, 23.0, 21.0, 27.0, 72.0, 24.0, 21.0, 5.0, 9.0, 21.0, 30.0, 3.0, 1.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 105.0, 7.0, 4.0, 9.0, 8.0, 4.0, 3.0, 4.0, 10.0, 14.0, 0.0, 11.0, 20.0, 2.0, 29.0, 8.0, 5.0, 11.0, 16.0, 20.0, 16.0, 11.0, 14.0, 21.0, 24.0, 18.0, 53.0, 17.0, 36.0, 29.0, 19.0, 11.0, 51.0, 73.0, 57.0, 8.0, 17.0, 15.0, 10.0, 9.0, 8.0, 20.0, 36.0, 50.0, 15.0, 28.0, 30.0, 1.0, 78.0, 113.0, 17.0, 10.0, 32.0, 19.0, 32.0, 4.0, 16.0, 16.0, 24.0, 3.0, 39.0, 7.0, 35.0, 56.0, 33.0, 12.0, 41.0, 11.0, 12.0, 48.0, 15.0, 25.0, 25.0, 11.0, 6.0, 20.0, 8.0, 10.0, 13.0, 7.0, 23.0, 18.0, 33.0, 12.0, 67.0, 28.0, 26.0, 31.0, 21.0, 38.0, 1.0, 52.0, 14.0, 28.0, 53.0, 20.0, 47.0, 22.0, 17.0, 8.0, 29.0, 11.0, 27.0, 71.0, 1.0, 8.0, 14.0, 19.0, 8.0, 25.0, 27.0, 3.0, 28.0, 39.0, 6.0, 23.0, 63.0, 2.0, 21.0, 32.0, 11.0, 42.0, 4.0, 12.0, 23.0, 9.0, 14.0, 15.0, 13.0, 21.0, 37.0, 38.0, 29.0, 23.0, 36.0, 49.0, 43.0, 64.0, 9.0, 9.0, 10.0, 10.0, 14.0, 24.0, 8.0, 44.0, 18.0, 31.0, 23.0, 56.0, 14.0, 15.0, 9.0, 7.0, 31.0, 8.0, 36.0, 6.0, 9.0, 4.0, 45.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 8.0, 31.0, 16.0, 27.0, 33.0, 32.0, 24.0, 8.0, 30.0, 36.0, 4.0, 39.0, 30.0, 18.0, 22.0, 31.0, 77.0, 16.0, 62.0, 12.0, 8.0, 27.0, 19.0, 6.0, 8.0, 59.0, 48.0, 6.0, 17.0, 16.0, 23.0, 34.0, 48.0, 3.0, 6.0, 1.0, 19.0, 34.0, 20.0, 11.0, 12.0, 45.0, 24.0, 13.0, 35.0, 21.0, 56.0, 7.0, 22.0, 11.0, 5.0, 14.0, 4.0, 36.0, 14.0, 5.0, 2.0, 17.0, 29.0, 14.0, 13.0, 32.0, 37.0, 29.0, 23.0, 32.0, 36.0, 48.0, 19.0, 20.0, 13.0, 19.0, 14.0, 7.0, 47.0, 27.0, 5.0, 15.0, 21.0, 9.0, 43.0, 19.0, 21.0, 33.0, 37.0, 65.0, 39.0, 27.0, 10.0, 13.0, 13.0, 16.0, 27.0, 5.0, 26.0, 6.0, 51.0, 42.0, 44.0, 45.0, 37.0, 28.0, 132.0, 78.0, 41.0, 43.0, 42.0, 36.0, 52.0, 13.0, 8.0, 23.0, 2.0, 7.0, 8.0, 8.0, 29.0, 65.0, 11.0, 42.0, 16.0, 23.0, 49.0, 8.0, 43.0, 14.0, 60.0, 1.0, 16.0, 78.0, 9.0, 9.0, 4.0, 9.0, 5.0, 22.0, 47.0, 19.0, 16.0, 0.0, 9.0, 3.0, 13.0, 17.0, 72.0, 33.0, 61.0, 4.0, 4.0, 19.0, 14.0, 16.0, 26.0, 49.0, 51.0, 66.0, 83.0, 52.0, 6.0, 27.0, 13.0, 8.0, 47.0, 46.0, 12.0, 8.0, 53.0, 42.0, 21.0, 38.0, 7.0, 16.0, 23.0, 62.0, 33.0, 96.0, 52.0, 9.0, 22.0, 10.0, 8.0, 44.0, 6.0, 48.0, 56.0, 41.0, 16.0, 15.0, 43.0, 91.0, 48.0, 13.0, 5.0, 10.0, 43.0, 64.0, 32.0, 44.0, 2.0, 12.0, 79.0, 16.0, 12.0, 9.0, 9.0, 31.0, 3.0, 39.0, 5.0, 53.0, 31.0, 51.0, 11.0, 55.0, 43.0, 62.0, 29.0, 84.0, 47.0, 49.0, 50.0, 47.0, 31.0, 38.0, 16.0, 42.0, 64.0, 21.0, 30.0, 15.0, 118.0, 8.0, 8.0, 1.0, 2.0, 17.0, 56.0, 84.0, 13.0, 41.0, 68.0, 34.0, 51.0, 17.0, 6.0, 49.0, 49.0, 17.0, 41.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 8.0, 3.0, 6.0, 9.0, 8.0, 2.0, 4.0, 5.0, 7.0, 14.0, 14.0, 7.0, 5.0, 2.0, 11.0, 14.0, 7.0, 12.0, 3.0, 10.0, 9.0, 19.0, 2.0, 2.0, 5.0, 6.0, 6.0, 11.0, 6.0, 10.0, 1.0, 2.0, 4.0, 4.0, 3.0, 2.0, 22.0, 8.0, 12.0, 2.0, 3.0, 5.0, 6.0, 14.0, 5.0, 4.0, 4.0, 18.0, 5.0, 12.0, 1.0, 13.0, 14.0, 11.0, 7.0, 4.0, 9.0, 8.0, 1.0, 12.0, 4.0, 7.0, 19.0, 9.0, 11.0, 5.0, 11.0, 14.0, 10.0, 4.0, 3.0, 7.0, 6.0, 6.0, 13.0, 3.0, 4.0, 3.0, 5.0, 1.0, 16.0, 14.0, 6.0, 7.0, 2.0, 22.0, 11.0, 16.0, 36.0, 10.0, 4.0, 32.0, 6.0, 16.0, 17.0, 13.0, 9.0, 7.0, 20.0, 31.0, 4.0, 3.0, 7.0, 4.0, 9.0, 5.0, 9.0, 7.0, 6.0, 6.0, 21.0, 5.0, 5.0, 8.0, 1.0, 5.0, 8.0, 23.0, 7.0, 13.0, 2.0, 1.0, 4.0, 8.0, 4.0, 8.0, 5.0, 25.0, 10.0, 5.0, 9.0, 3.0, 17.0, 16.0, 18.0, 12.0, 17.0, 5.0, 5.0, 2.0, 18.0, 6.0, 6.0, 4.0, 23.0, 11.0, 9.0, 12.0, 11.0, 8.0, 4.0, 7.0, 4.0, 9.0, 3.0, 37.0, 14.0, 3.0, 13.0, 4.0, 2.0, 10.0, 15.0, 1.0, 4.0, 9.0, 18.0, 2.0, 6.0, 5.0, 24.0, 27.0, 8.0, 4.0, 11.0, 7.0, 3.0, 1.0, 10.0, 2.0, 41.0, 6.0, 6.0, 1.0, 5.0, 34.0, 2.0, 3.0, 1.0, 7.0, 13.0, 11.0, 11.0, 3.0, 7.0, 2.0, 5.0, 7.0, 15.0, 4.0, 6.0, 19.0, 30.0, 5.0, 2.0, 2.0, 9.0, 4.0, 4.0, 7.0, 10.0, 10.0, 4.0, 15.0, 6.0, 4.0, 41.0, 7.0, 1.0, 5.0, 8.0, 4.0, 4.0, 7.0, 2.0, 6.0, 4.0, 1.0, 2.0, 27.0, 7.0, 12.0, 5.0, 9.0, 0.0, 10.0, 26.0, 8.0, 9.0, 6.0, 24.0, 8.0, 38.0, 19.0, 25.0, 1.0, 11.0, 0.0, 4.0, 4.0, 48.0, 20.0, 3.0, 7.0, 4.0, 13.0, 4.0, 37.0, 12.0, 24.0, 7.0, 3.0, 16.0, 6.0, 1.0, 38.0, 38.0, 15.0, 11.0, 16.0, 8.0, 27.0, 12.0, 20.0, 5.0, 35.0, 20.0, 6.0, 13.0, 4.0, 12.0, 10.0, 21.0, 5.0, 21.0, 6.0, 14.0, 13.0, 19.0, 1.0, 17.0, 17.0, 8.0, 2.0, 7.0, 8.0, 20.0, 24.0, 27.0, 2.0, 2.0, 38.0, 7.0, 16.0, 21.0, 24.0, 41.0, 14.0, 9.0, 19.0, 23.0, 8.0, 6.0, 24.0, 11.0, 17.0, 8.0, 5.0, 2.0, 20.0, 16.0, 5.0, 9.0, 39.0, 6.0, 25.0, 37.0, 3.0, 10.0, 50.0, 22.0, 8.0, 39.0, 14.0, 21.0, 19.0, 19.0, 25.0, 20.0, 22.0, 5.0, 30.0, 8.0, 36.0, 5.0, 3.0, 6.0, 14.0, 7.0, 23.0, 9.0, 5.0, 1.0, 6.0, 6.0, 25.0, 2.0, 10.0, 11.0, 38.0, 14.0, 3.0, 7.0, 29.0, 27.0, 3.0, 2.0, 30.0, 6.0, 5.0, 14.0, 20.0, 12.0, 4.0, 10.0, 34.0, 4.0, 42.0, 21.0, 4.0, 8.0, 8.0, 21.0, 8.0, 8.0, 6.0, 63.0, 1.0, 29.0, 8.0, 9.0, 15.0, 5.0, 35.0, 15.0, 2.0, 2.0, 4.0, 5.0, 3.0, 12.0, 1.0, 8.0, 11.0, 5.0, 7.0, 2.0, 14.0, 2.0, 13.0, 32.0, 24.0, 8.0, 32.0, 6.0, 3.0, 10.0, 7.0, 8.0, 3.0, 25.0, 8.0, 2.0, 27.0, 26.0, 4.0, 15.0, 3.0, 69.0, 14.0, 5.0, 17.0, 37.0, 6.0, 9.0, 17.0, 11.0, 19.0, 32.0, 37.0, 18.0, 6.0, 4.0, 15.0, 28.0, 4.0, 36.0, 32.0, 16.0, 5.0, 21.0, 9.0, 12.0, 11.0, 2.0, 5.0, 7.0, 23.0, 3.0, 26.0, 17.0, 5.0, 6.0, 1.0, 11.0, 7.0, 3.0, 14.0, 36.0, 2.0, 7.0, 2.0, 8.0, 34.0, 7.0, 11.0, 18.0, 1.0, 0.0, 14.0, 35.0, 4.0, 22.0, 5.0, 3.0, 46.0, 12.0, 10.0, 10.0, 0.0, 2.0, 4.0, 8.0, 22.0, 6.0, 34.0, 34.0, 18.0, 7.0, 6.0, 1.0, 17.0, 11.0, 17.0, 19.0, 20.0, 7.0, 5.0, 3.0, 7.0, 15.0, 20.0, 12.0, 28.0, 35.0, 6.0, 5.0, 5.0, 17.0, 10.0, 8.0, 10.0, 34.0, 2.0, 17.0, 6.0, 2.0, 12.0, 8.0, 14.0, 1.0, 7.0, 5.0, 8.0, 6.0, 1.0, 15.0, 12.0, 10.0, 29.0, 5.0, 27.0, 3.0, 14.0, 12.0, 8.0, 8.0, 2.0, 14.0, 5.0, 6.0, 11.0, 9.0, 4.0, 2.0, 4.0, 2.0, 27.0, 4.0, 21.0, 1.0, 3.0, 27.0, 9.0, 23.0, 17.0, 10.0, 4.0, 8.0, 0.0, 2.0, 21.0, 24.0, 13.0, 34.0, 13.0, 8.0, 11.0, 17.0, 3.0, 4.0, 22.0, 6.0, 24.0, 2.0, 1.0, 7.0, 12.0, 5.0, 21.0, 6.0, 5.0, 4.0, 35.0, 9.0, 11.0, 4.0, 3.0, 25.0, 8.0, 5.0, 22.0, 8.0, 16.0, 13.0, 4.0, 32.0, 13.0, 19.0, 23.0, 12.0, 29.0, 7.0, 13.0, 14.0, 6.0, 12.0, 4.0, 5.0, 29.0, 26.0, 13.0, 2.0, 21.0, 2.0, 49.0, 17.0, 11.0, 15.0, 9.0, 23.0, 14.0, 7.0, 8.0, 21.0, 6.0, 8.0, 9.0, 8.0, 24.0, 3.0, 12.0, 7.0, 17.0, 10.0, 5.0, 6.0, 12.0, 18.0, 37.0, 27.0, 23.0, 12.0, 5.0, 11.0, 12.0, 7.0, 22.0, 8.0, 2.0, 5.0, 11.0, 46.0, 31.0, 13.0, 4.0, 10.0, 18.0, 63.0, 17.0, 26.0, 10.0, 14.0, 2.0, 17.0, 17.0, 14.0, 4.0, 17.0, 19.0, 20.0, 12.0, 2.0, 21.0, 7.0, 22.0, 14.0, 8.0, 49.0, 2.0, 1.0, 8.0, 17.0, 30.0, 25.0, 8.0, 7.0, 2.0, 6.0, 26.0, 16.0, 21.0, 10.0, 15.0, 9.0, 32.0, 2.0, 3.0, 22.0, 4.0, 6.0, 0.0, 5.0, 2.0, 24.0, 7.0, 21.0, 5.0, 14.0, 16.0, 3.0, 3.0, 1.0, 14.0, 6.0, 22.0, 21.0, 9.0, 13.0, 18.0, 3.0, 24.0, 4.0, 10.0, 16.0, 1.0, 3.0, 17.0, 48.0, 11.0, 16.0, 18.0, 3.0, 20.0, 31.0, 27.0, 15.0, 0.0, 20.0, 19.0, 63.0, 74.0, 8.0, 1.0, 18.0, 19.0, 8.0, 26.0, 2.0, 3.0, 2.0, 9.0, 7.0, 20.0, 12.0, 1.0, 6.0, 12.0, 0.0, 8.0, 17.0, 3.0, 3.0, 8.0, 4.0, 18.0, 20.0, 5.0, 3.0, 6.0, 13.0, 4.0, 5.0, 7.0, 6.0, 10.0, 13.0, 5.0, 11.0, 22.0, 16.0, 1.0, 20.0, 20.0, 16.0, 12.0, 36.0, 5.0, 24.0, 22.0, 7.0, 15.0, 24.0, 13.0, 7.0, 13.0, 20.0, 5.0, 11.0, 15.0, 12.0, 16.0, 10.0, 7.0, 18.0, 11.0, 30.0, 53.0, 14.0, 17.0, 2.0, 4.0, 21.0, 19.0, 5.0, 7.0, 3.0, 16.0, 17.0, 3.0, 4.0, 5.0, 38.0, 7.0, 3.0, 6.0, 12.0, 16.0, 6.0, 27.0, 3.0, 1.0, 51.0, 2.0, 18.0, 8.0, 5.0, 9.0, 1.0, 30.0, 2.0, 25.0, 17.0, 20.0, 13.0, 9.0, 1.0, 43.0, 5.0, 19.0, 10.0, 6.0, 43.0, 4.0, 16.0, 48.0, 11.0, 7.0, 13.0, 9.0, 3.0, 18.0, 10.0, 4.0, 3.0, 3.0, 3.0, 7.0, 16.0, 20.0, 4.0, 10.0, 23.0, 21.0, 4.0, 22.0, 4.0, 9.0, 12.0, 22.0, 8.0, 11.0, 5.0, 5.0, 12.0, 8.0, 1.0, 14.0, 2.0, 3.0, 2.0, 6.0, 5.0, 3.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 6.0, 2.0, 7.0, 11.0, 9.0, 1.0, 5.0, 11.0, 2.0, 7.0, 11.0, 6.0, 9.0, 4.0, 4.0, 11.0, 18.0, 0.0, 33.0, 4.0, 2.0, 25.0, 3.0, 4.0, 13.0, 10.0, 7.0, 5.0, 3.0, 2.0, 6.0, 10.0, 25.0, 14.0, 22.0, 7.0, 11.0, 1.0, 13.0, 18.0, 14.0, 8.0, 14.0, 4.0, 1.0, 12.0, 3.0, 3.0, 4.0, 3.0, 30.0, 6.0, 5.0, 29.0, 1.0, 6.0, 34.0, 3.0, 15.0, 7.0, 0.0, 10.0, 17.0, 8.0, 16.0, 2.0, 67.0, 19.0, 16.0, 6.0, 40.0, 20.0, 21.0, 7.0, 23.0, 19.0, 13.0, 1.0, 10.0, 7.0, 12.0, 4.0, 11.0, 10.0, 4.0, 8.0, 9.0, 11.0, 20.0, 3.0, 10.0, 4.0, 3.0, 5.0, 12.0, 22.0, 11.0, 5.0, 45.0, 67.0, 19.0, 4.0, 7.0, 10.0, 3.0, 1.0, 14.0, 17.0, 10.0, 6.0, 5.0, 3.0, 25.0, 12.0, 1.0, 7.0, 4.0, 5.0, 3.0, 6.0, 6.0, 3.0, 14.0, 5.0, 10.0, 3.0, 2.0, 3.0, 32.0, 32.0, 22.0, 3.0, 6.0, 3.0, 19.0, 6.0, 8.0, 1.0, 49.0, 6.0, 5.0, 7.0, 3.0, 5.0, 17.0, 6.0, 13.0, 1.0, 5.0, 5.0, 25.0, 9.0, 16.0, 3.0, 21.0, 1.0, 7.0, 2.0, 7.0, 5.0, 17.0, 8.0, 8.0, 8.0, 7.0, 13.0, 2.0, 2.0, 5.0, 10.0, 4.0, 16.0, 8.0, 4.0, 7.0, 11.0, 5.0, 5.0, 1.0, 13.0, 1.0, 9.0, 4.0, 23.0, 34.0, 20.0, 1.0, 14.0, 3.0, 8.0, 19.0, 6.0, 5.0, 49.0, 3.0, 14.0, 4.0, 3.0, 9.0, 9.0, 7.0, 8.0, 6.0, 8.0, 27.0, 1.0, 3.0, 3.0, 0.0, 5.0, 1.0, 5.0, 24.0, 7.0, 2.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 25.0, 4.0, 5.0, 5.0, 11.0, 10.0, 4.0, 1.0, 34.0, 10.0, 10.0, 4.0, 6.0, 0.0, 10.0, 7.0, 11.0, 8.0, 1.0, 8.0, 2.0, 8.0, 5.0, 0.0, 52.0, 9.0, 3.0, 13.0, 4.0, 4.0, 22.0, 26.0, 4.0, 30.0, 2.0, 3.0, 3.0, 5.0, 2.0, 24.0, 33.0, 8.0, 8.0, 4.0, 9.0, 7.0, 11.0, 11.0, 1.0, 9.0, 2.0, 2.0, 10.0, 11.0, 6.0, 24.0, 10.0, 3.0, 19.0, 14.0, 2.0, 4.0, 6.0, 0.0, 81.0, 4.0, 1.0, 3.0, 22.0, 2.0, 3.0, 7.0, 15.0, 29.0, 35.0, 10.0, 24.0, 11.0, 16.0, 34.0, 8.0, 36.0, 7.0, 19.0, 9.0, 1.0, 6.0, 5.0, 13.0, 5.0, 9.0, 6.0, 12.0, 5.0, 4.0, 9.0, 1.0, 4.0, 9.0, 21.0, 1.0, 7.0, 20.0, 3.0, 7.0, 2.0, 2.0, 3.0, 29.0, 9.0, 15.0, 3.0, 1.0, 1.0, 10.0, 22.0, 12.0, 15.0, 2.0, 11.0, 0.0, 12.0, 11.0, 1.0, 1.0, 20.0, 4.0, 41.0, 0.0, 13.0, 24.0, 39.0, 20.0, 15.0, 8.0, 16.0, 3.0, 6.0, 1.0, 1.0, 2.0, 4.0, 14.0, 11.0, 17.0, 8.0, 3.0, 7.0, 11.0, 12.0, 6.0, 3.0, 25.0, 13.0, 2.0, 9.0, 16.0, 16.0, 4.0, 3.0, 1.0, 11.0, 12.0, 2.0, 21.0, 10.0, 2.0, 4.0, 4.0, 5.0, 39.0, 7.0, 1.0, 8.0, 7.0, 12.0, 2.0, 21.0, 7.0, 4.0, 6.0, 9.0, 31.0, 6.0, 1.0, 1.0, 5.0, 3.0, 4.0, 3.0, 2.0, 3.0, 6.0, 13.0, 5.0, 37.0, 23.0, 9.0, 23.0, 13.0, 8.0, 15.0, 4.0, 4.0, 26.0, 16.0, 34.0, 8.0, 5.0, 7.0, 8.0, 4.0, 4.0, 9.0, 18.0, 13.0, 4.0, 3.0, 8.0, 11.0, 29.0, 2.0, 9.0, 3.0, 1.0, 3.0, 19.0, 40.0, 16.0, 2.0, 25.0, 11.0, 7.0, 16.0, 3.0, 3.0, 4.0, 42.0, 41.0, 5.0, 8.0, 38.0, 2.0, 2.0, 14.0, 8.0, 15.0, 2.0, 10.0, 6.0, 3.0, 7.0, 41.0, 5.0, 13.0, 5.0, 5.0, 1.0, 6.0, 4.0, 8.0, 4.0, 4.0, 5.0, 12.0, 5.0, 10.0, 17.0, 24.0, 7.0, 3.0, 14.0, 11.0, 13.0, 9.0, 15.0, 9.0, 7.0, 9.0, 4.0, 6.0, 1.0, 13.0, 2.0, 11.0, 5.0, 30.0, 2.0, 2.0, 2.0, 8.0, 5.0, 6.0, 3.0, 15.0, 7.0, 6.0, 17.0, 24.0, 9.0, 8.0, 4.0, 4.0, 9.0, 11.0, 11.0, 9.0, 6.0, 8.0, 3.0, 3.0, 6.0, 0.0, 2.0, 8.0, 12.0, 23.0, 6.0, 6.0, 20.0, 22.0, 10.0, 13.0, 3.0, 4.0, 7.0, 19.0, 5.0, 19.0, 12.0, 6.0, 4.0, 21.0, 5.0, 3.0, 2.0, 5.0, 7.0, 10.0, 6.0, 0.0, 3.0, 3.0, 11.0, 3.0, 13.0, 14.0, 13.0, 4.0, 3.0, 6.0, 24.0, 15.0, 10.0, 9.0, 6.0, 4.0, 1.0, 2.0, 1.0, 7.0, 9.0, 10.0, 22.0, 6.0, 1.0, 8.0, 9.0, 9.0, 12.0, 9.0, 5.0, 6.0, 5.0, 15.0, 2.0, 5.0, 10.0, 14.0, 19.0, 58.0, 1.0, 5.0, 8.0, 11.0, 3.0, 1.0, 7.0, 2.0, 4.0, 2.0, 3.0, 5.0, 1.0, 9.0, 37.0, 4.0, 2.0, 26.0, 3.0, 8.0, 22.0, 9.0, 7.0, 6.0, 11.0, 11.0, 2.0, 15.0, 4.0, 30.0, 10.0, 6.0, 4.0, 13.0, 14.0, 16.0, 21.0, 29.0, 16.0, 37.0, 18.0, 7.0, 13.0, 2.0, 5.0, 9.0, 9.0, 7.0, 7.0, 13.0, 2.0, 25.0, 25.0, 39.0, 11.0, 5.0, 20.0, 8.0, 7.0, 6.0, 7.0, 2.0, 21.0, 9.0, 3.0, 10.0, 88.0, 27.0, 8.0, 5.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 4.0, 13.0, 11.0, 5.0, 8.0, 17.0, 2.0, 18.0, 12.0, 23.0, 7.0, 12.0, 1.0, 4.0, 1.0, 4.0, 6.0, 8.0, 6.0, 10.0, 13.0, 13.0, 10.0, 4.0, 1.0, 5.0, 19.0, 3.0, 10.0, 9.0, 14.0, 3.0, 4.0, 14.0, 1.0, 14.0, 38.0, 2.0, 46.0, 7.0, 3.0, 2.0, 18.0, 3.0, 8.0, 8.0, 5.0, 7.0, 4.0, 8.0, 4.0, 4.0, 6.0, 3.0, 3.0, 2.0, 5.0, 2.0, 8.0, 5.0, 5.0, 11.0, 7.0, 3.0, 1.0, 11.0, 3.0, 4.0, 11.0, 13.0, 24.0, 11.0, 3.0, 2.0, 9.0, 10.0, 42.0, 19.0, 5.0, 20.0, 2.0, 13.0, 5.0, 4.0, 17.0, 19.0, 2.0, 8.0, 11.0, 7.0, 5.0, 7.0, 10.0, 8.0, 13.0, 3.0, 4.0, 12.0, 8.0, 9.0, 7.0, 35.0, 6.0, 5.0, 4.0, 4.0, 3.0, 65.0, 17.0, 7.0, 10.0, 13.0, 4.0, 21.0, 10.0, 4.0, 6.0, 5.0, 5.0, 6.0, 7.0, 4.0, 2.0, 4.0, 36.0, 14.0, 2.0, 15.0, 1.0, 3.0, 11.0, 23.0, 10.0, 2.0, 14.0, 16.0, 3.0, 2.0, 3.0, 8.0, 5.0, 13.0, 2.0, 9.0, 3.0, 10.0, 1.0, 7.0, 12.0, 8.0, 9.0, 16.0, 16.0, 4.0, 1.0, 4.0, 5.0, 7.0, 7.0, 3.0, 7.0, 12.0, 38.0, 12.0, 3.0, 11.0, 13.0, 2.0, 7.0, 19.0, 6.0, 14.0, 3.0, 43.0, 5.0, 5.0, 6.0, 6.0, 27.0, 18.0, 12.0, 11.0, 11.0, 7.0, 16.0, 11.0, 16.0, 56.0, 9.0, 11.0, 8.0, 7.0, 8.0, 25.0, 7.0, 7.0, 3.0, 2.0, 12.0, 4.0, 14.0, 8.0, 7.0, 8.0, 9.0, 5.0, 6.0, 6.0, 16.0, 1.0, 20.0, 10.0, 3.0, 1.0, 12.0, 10.0, 3.0, 8.0, 1.0, 17.0, 13.0, 8.0, 10.0, 6.0, 13.0, 26.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 11.0, 16.0, 6.0, 9.0, 6.0, 10.0, 1.0, 1.0, 4.0, 11.0, 7.0, 2.0, 17.0, 2.0, 12.0, 12.0, 42.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 15.0, 9.0, 51.0, 1.0, 17.0, 7.0, 7.0, 4.0, 23.0, 7.0, 20.0, 2.0, 18.0, 3.0, 14.0, 48.0, 10.0, 22.0, 6.0, 22.0, 7.0, 7.0, 10.0, 6.0, 3.0, 0.0, 10.0, 8.0, 6.0, 19.0, 10.0, 33.0, 6.0, 6.0, 6.0, 12.0, 5.0, 5.0, 5.0, 25.0, 11.0, 6.0, 8.0, 6.0, 9.0, 4.0, 1.0, 3.0, 10.0, 40.0, 3.0, 2.0, 3.0, 4.0, 4.0, 60.0, 29.0, 19.0, 2.0, 1.0, 18.0, 16.0, 23.0, 4.0, 5.0, 12.0, 11.0, 5.0, 5.0, 1.0, 25.0, 9.0, 3.0, 18.0, 6.0, 6.0, 37.0, 14.0, 4.0, 3.0, 5.0, 6.0, 11.0, 21.0, 22.0, 5.0, 10.0, 12.0, 10.0, 2.0, 3.0, 5.0, 23.0, 12.0, 4.0, 11.0, 7.0, 13.0, 5.0, 14.0, 10.0, 10.0, 23.0, 31.0, 3.0, 9.0, 38.0, 20.0, 9.0, 6.0, 2.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 7.0, 26.0, 10.0, 3.0, 10.0, 4.0, 17.0, 21.0, 7.0, 7.0, 7.0, 4.0, 7.0, 15.0, 12.0, 19.0, 4.0, 20.0, 6.0, 10.0, 7.0, 5.0, 3.0, 3.0, 21.0, 9.0, 23.0, 13.0, 44.0, 10.0, 12.0, 12.0, 24.0, 33.0, 7.0, 3.0, 9.0, 13.0, 3.0, 11.0, 20.0, 19.0, 11.0, 5.0, 8.0, 9.0, 3.0, 36.0, 19.0, 17.0, 7.0, 38.0, 18.0, 20.0, 28.0, 24.0, 18.0, 10.0, 19.0, 20.0, 21.0, 38.0, 8.0, 27.0, 13.0, 3.0, 15.0, 20.0, 12.0, 19.0, 6.0, 9.0, 3.0, 21.0, 9.0, 33.0, 24.0, 2.0, 15.0, 4.0, 7.0, 38.0, 45.0, 3.0, 3.0, 10.0, 23.0, 3.0, 8.0, 6.0, 17.0, 2.0, 3.0, 7.0, 13.0, 22.0, 37.0, 16.0, 25.0, 9.0, 7.0, 17.0, 28.0, 7.0, 2.0, 12.0, 4.0, 3.0, 11.0, 9.0, 3.0, 20.0, 16.0, 26.0, 31.0, 7.0, 27.0, 35.0, 30.0, 30.0, 46.0, 2.0, 15.0, 14.0, 4.0, 3.0, 3.0, 26.0, 4.0, 14.0, 14.0, 33.0, 19.0, 1.0, 15.0, 3.0, 14.0, 7.0, 8.0, 4.0, 30.0, 13.0, 3.0, 0.0, 9.0, 2.0, 7.0, 9.0, 6.0, 29.0, 13.0, 5.0, 2.0, 7.0, 37.0, 33.0, 18.0, 21.0, 5.0, 17.0, 17.0, 14.0, 3.0, 30.0, 12.0, 5.0, 12.0, 12.0, 11.0, 4.0, 6.0, 22.0, 28.0, 32.0, 38.0, 6.0, 24.0, 7.0, 2.0, 13.0, 4.0, 23.0, 18.0, 7.0, 1.0, 29.0, 14.0, 6.0, 9.0, 56.0, 23.0, 21.0, 5.0, 9.0, 3.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 4.0, 20.0, 2.0, 8.0, 20.0, 24.0, 17.0, 36.0, 19.0, 51.0, 8.0, 36.0, 15.0, 28.0, 32.0, 19.0, 32.0, 4.0, 16.0, 24.0, 3.0, 39.0, 35.0, 56.0, 12.0, 6.0, 7.0, 23.0, 12.0, 67.0, 38.0, 1.0, 14.0, 28.0, 22.0, 8.0, 27.0, 1.0, 8.0, 8.0, 3.0, 6.0, 23.0, 2.0, 32.0, 11.0, 4.0, 23.0, 14.0, 37.0, 23.0, 49.0, 10.0, 10.0, 24.0, 18.0, 14.0, 6.0, 9.0, 4.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 31.0, 24.0, 8.0, 30.0, 4.0, 18.0, 22.0, 77.0, 62.0, 8.0, 8.0, 16.0, 23.0, 48.0, 3.0, 11.0, 24.0, 56.0, 11.0, 5.0, 4.0, 36.0, 17.0, 13.0, 37.0, 23.0, 32.0, 48.0, 20.0, 19.0, 21.0, 33.0, 39.0, 27.0, 27.0, 5.0, 26.0, 36.0, 13.0, 29.0, 16.0, 23.0, 49.0, 8.0, 43.0, 1.0, 4.0, 22.0, 4.0, 16.0, 52.0, 46.0, 8.0, 38.0, 7.0, 33.0, 52.0, 44.0, 16.0, 15.0, 13.0, 5.0, 10.0, 64.0, 32.0, 12.0, 31.0, 39.0, 51.0, 62.0, 29.0, 49.0, 31.0, 38.0, 64.0, 2.0, 17.0, 13.0, 41.0, 68.0, 34.0, 2.0, 70.0, 74.0, 49.0, 56.0, 53.0, 52.0, 39.0, 24.0, 69.0, 16.0, 46.0, 29.0, 4.0, 71.0, 5.0, 13.0, 70.0, 1.0, 88.0, 72.0, 5.0, 8.0, 14.0, 57.0, 20.0, 8.0, 1.0, 12.0, 87.0, 3.0, 14.0, 89.0, 5.0, 35.0, 15.0, 16.0, 9.0, 13.0, 6.0, 44.0, 13.0, 0.0, 3.0, 0.0, 2.0, 12.0, 11.0, 31.0, 6.0, 28.0, 15.0, 22.0, 22.0, 19.0, 60.0, 14.0, 8.0, 16.0, 9.0, 1.0, 14.0, 1.0, 29.0, 13.0, 10.0, 6.0, 2.0, 28.0, 68.0, 42.0, 30.0, 13.0, 38.0, 14.0, 3.0, 1.0, 1.0, 5.0, 2.0, 5.0, 2.0, 12.0, 26.0, 11.0, 1.0, 16.0, 13.0, 5.0, 2.0, 3.0, 3.0, 4.0, 7.0, 8.0, 3.0, 9.0, 3.0, 20.0, 2.0, 39.0, 8.0, 5.0, 15.0, 20.0, 5.0, 4.0, 18.0, 6.0, 2.0, 4.0, 13.0, 27.0, 1.0, 4.0, 3.0, 11.0, 6.0, 0.0, 3.0, 23.0, 5.0, 2.0, 8.0, 1.0, 24.0, 35.0, 1.0, 0.0, 7.0, 6.0, 4.0, 3.0, 3.0, 1.0, 28.0, 10.0, 1.0, 9.0, 3.0, 8.0, 1.0, 9.0, 2.0, 9.0, 8.0, 0.0, 3.0, 28.0, 14.0, 6.0, 24.0, 17.0, 20.0, 1.0, 1.0, 9.0, 1.0, 3.0, 9.0, 3.0, 10.0, 3.0, 5.0, 9.0, 4.0, 9.0, 15.0, 8.0, 16.0, 9.0, 1.0, 5.0, 10.0, 7.0, 10.0, 4.0, 12.0, 4.0, 27.0, 6.0, 6.0, 6.0, 4.0, 7.0, 17.0, 7.0, 2.0, 25.0, 6.0, 1.0, 2.0, 11.0, 4.0, 7.0, 22.0, 5.0, 5.0, 6.0, 20.0, 6.0, 2.0, 1.0, 13.0, 7.0, 2.0, 20.0, 23.0, 2.0, 10.0, 1.0, 15.0, 4.0, 7.0, 6.0, 8.0, 21.0, 14.0, 8.0, 2.0, 2.0, 1.0, 0.0, 1.0, 9.0, 5.0, 1.0, 1.0, 4.0, 5.0, 12.0, 3.0, 11.0, 17.0, 12.0, 15.0, 1.0, 1.0, 31.0, 10.0, 14.0, 15.0, 28.0, 14.0, 18.0, 9.0, 9.0, 4.0, 11.0, 10.0, 2.0, 15.0, 2.0, 16.0, 13.0, 6.0, 9.0, 6.0, 12.0, 7.0, 4.0, 13.0, 8.0, 1.0, 15.0, 1.0, 4.0, 4.0, 19.0, 4.0, 5.0, 2.0, 5.0, 4.0, 4.0, 16.0, 5.0, 5.0, 8.0, 3.0, 6.0, 26.0, 3.0, 9.0, 16.0, 2.0, 14.0, 12.0, 6.0, 3.0, 12.0, 6.0, 9.0, 59.0, 3.0, 0.0, 3.0, 2.0, 4.0, 1.0, 4.0, 9.0, 4.0, 2.0, 4.0, 2.0, 2.0, 10.0, 2.0, 6.0, 4.0, 3.0, 14.0, 11.0, 1.0, 3.0, 5.0, 2.0, 8.0, 12.0, 1.0, 4.0, 1.0, 5.0, 5.0, 13.0, 10.0, 1.0, 1.0, 34.0, 12.0, 1.0, 5.0, 23.0, 13.0, 5.0, 8.0, 11.0, 4.0, 43.0, 4.0, 6.0, 8.0, 5.0, 5.0, 0.0, 4.0, 3.0, 11.0, 2.0, 3.0, 3.0, 6.0, 11.0, 11.0, 8.0, 12.0, 12.0, 18.0, 6.0, 8.0, 3.0, 16.0, 5.0, 5.0, 23.0, 5.0, 14.0, 26.0, 26.0, 18.0, 7.0, 3.0, 6.0, 31.0, 2.0, 8.0, 1.0, 6.0, 12.0, 8.0, 10.0, 6.0, 3.0, 1.0, 15.0, 6.0, 12.0, 19.0, 5.0, 36.0, 25.0, 2.0, 3.0, 31.0, 7.0, 5.0, 8.0, 3.0, 24.0, 5.0, 2.0, 4.0, 25.0, 1.0, 2.0, 3.0, 22.0, 4.0, 70.0, 27.0, 3.0, 7.0, 23.0, 5.0, 9.0, 2.0, 3.0, 14.0, 1.0, 13.0, 8.0, 14.0, 10.0, 26.0, 25.0, 1.0, 8.0, 1.0, 9.0, 25.0, 5.0, 9.0, 1.0, 5.0, 3.0, 4.0, 17.0, 1.0, 27.0, 20.0, 6.0, 7.0, 14.0, 17.0, 16.0, 2.0, 3.0, 4.0, 11.0, 6.0, 1.0, 2.0, 11.0, 4.0, 4.0, 3.0, 6.0, 5.0, 13.0, 1.0, 3.0, 2.0, 0.0, 2.0, 14.0, 7.0, 11.0, 5.0, 3.0, 9.0, 6.0, 14.0, 10.0, 2.0, 2.0, 5.0, 2.0, 6.0, 9.0, 12.0, 4.0, 39.0, 5.0, 3.0, 38.0, 24.0, 3.0, 5.0, 6.0, 23.0, 1.0, 13.0, 13.0, 5.0, 4.0, 61.0, 0.0, 4.0, 5.0, 7.0, 5.0, 64.0, 3.0, 2.0, 1.0, 6.0, 3.0, 2.0, 6.0, 5.0, 1.0, 14.0, 1.0, 7.0, 7.0, 4.0, 3.0, 18.0, 6.0, 5.0, 1.0, 1.0, 2.0, 0.0, 4.0, 3.0, 12.0, 11.0, 14.0, 10.0, 9.0, 3.0, 12.0, 9.0, 3.0, 4.0, 6.0, 8.0, 0.0, 5.0, 7.0, 7.0, 5.0, 30.0, 6.0, 8.0, 7.0, 12.0, 12.0, 1.0, 19.0, 3.0, 3.0, 17.0, 22.0, 7.0, 2.0, 3.0, 15.0, 5.0, 14.0, 4.0, 10.0, 8.0, 41.0, 15.0, 4.0, 9.0, 16.0, 1.0, 5.0, 10.0, 29.0, 5.0, 5.0, 4.0, 5.0, 22.0, 4.0, 1.0, 6.0, 4.0, 2.0, 6.0, 4.0, 3.0, 18.0, 2.0, 5.0, 4.0, 6.0, 6.0, 14.0, 32.0, 8.0, 4.0, 9.0, 6.0, 4.0, 63.0, 22.0, 8.0, 7.0, 6.0, 2.0, 1.0, 9.0, 12.0, 5.0, 1.0, 13.0, 33.0, 10.0, 3.0, 9.0, 7.0, 14.0, 5.0, 24.0, 2.0, 9.0, 15.0, 10.0, 8.0, 16.0, 5.0, 1.0, 4.0, 5.0, 3.0, 4.0, 10.0, 4.0, 18.0, 4.0, 3.0, 3.0, 4.0, 13.0, 5.0, 8.0, 19.0, 7.0, 45.0, 2.0, 6.0, 8.0, 13.0, 5.0, 11.0, 23.0, 50.0, 13.0, 1.0, 9.0, 2.0, 15.0, 5.0, 1.0, 2.0, 11.0, 4.0, 2.0, 3.0, 2.0, 19.0, 3.0, 6.0, 8.0, 6.0, 7.0, 6.0, 5.0, 27.0, 9.0, 21.0, 3.0, 5.0, 12.0, 9.0, 3.0, 8.0, 5.0, 2.0, 7.0, 4.0, 3.0, 25.0, 5.0, 8.0, 9.0, 6.0, 9.0, 4.0, 8.0, 5.0, 0.0, 11.0, 3.0, 2.0, 3.0, 10.0, 20.0, 5.0, 6.0, 7.0, 9.0, 6.0, 35.0, 3.0, 3.0, 6.0, 4.0, 6.0, 11.0, 5.0, 2.0, 7.0, 7.0, 2.0, 4.0, 4.0, 5.0, 2.0, 9.0, 5.0, 11.0, 20.0, 6.0, 30.0, 4.0, 36.0, 2.0, 10.0, 7.0, 5.0, 5.0, 5.0, 2.0, 1.0, 10.0, 3.0, 13.0, 19.0, 7.0, 4.0, 4.0, 22.0, 7.0, 10.0, 5.0, 16.0, 60.0, 7.0, 20.0, 23.0, 0.0, 5.0, 6.0, 3.0, 2.0, 11.0, 9.0, 6.0, 2.0, 7.0, 2.0, 2.0, 5.0, 1.0, 6.0, 20.0, 10.0, 5.0, 14.0, 13.0, 3.0, 6.0, 24.0, 0.0, 9.0, 19.0, 27.0, 8.0, 3.0, 53.0, 1.0, 14.0, 5.0, 5.0, 13.0, 11.0, 4.0, 4.0, 2.0, 26.0, 6.0, 5.0, 2.0, 5.0, 3.0, 9.0, 2.0, 10.0, 1.0, 3.0, 3.0, 3.0, 5.0, 4.0, 5.0, 4.0, 10.0, 4.0, 5.0, 16.0, 7.0, 15.0, 9.0, 7.0, 13.0, 4.0, 16.0, 3.0, 5.0, 19.0, 11.0, 4.0, 8.0, 10.0, 5.0, 1.0, 5.0, 7.0, 11.0, 21.0, 1.0, 2.0, 4.0, 9.0, 7.0, 7.0, 8.0, 0.0, 1.0, 2.0, 14.0, 19.0, 8.0, 25.0, 9.0, 4.0, 1.0, 15.0, 21.0, 5.0, 18.0, 6.0, 6.0, 8.0, 4.0, 8.0, 7.0, 20.0, 4.0, 6.0, 8.0, 12.0, 19.0, 5.0, 7.0, 11.0, 4.0, 5.0, 45.0, 2.0, 4.0, 22.0, 10.0, 3.0, 18.0, 14.0, 3.0, 10.0, 2.0, 4.0, 19.0, 3.0, 37.0, 7.0, 3.0, 2.0, 13.0, 40.0, 5.0, 6.0, 34.0, 2.0, 27.0, 14.0, 4.0, 15.0, 0.0, 1.0, 11.0, 6.0, 15.0, 0.0, 20.0, 6.0, 2.0, 5.0, 3.0, 12.0, 4.0, 4.0, 8.0, 11.0, 15.0, 5.0, 6.0, 13.0, 2.0, 2.0, 4.0, 4.0, 13.0, 7.0, 15.0, 5.0, 16.0, 7.0, 3.0, 32.0, 7.0, 2.0, 7.0, 5.0, 18.0, 3.0, 6.0, 4.0, 4.0, 4.0, 2.0, 1.0, 5.0, 0.0, 4.0, 8.0, 2.0, 3.0, 8.0, 7.0, 18.0, 28.0, 1.0, 10.0, 1.0, 13.0, 9.0, 2.0, 8.0, 6.0, 11.0, 26.0, 7.0, 3.0, 6.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 24.0, 0.0, 4.0, 18.0, 10.0, 2.0, 15.0, 1.0, 15.0, 6.0, 11.0, 23.0, 1.0, 5.0, 7.0, 6.0, 4.0, 5.0, 9.0, 14.0, 4.0, 6.0, 19.0, 2.0, 8.0, 0.0, 5.0, 9.0, 7.0, 4.0, 12.0, 4.0, 3.0, 2.0, 5.0, 9.0, 3.0, 27.0, 5.0, 15.0, 5.0, 3.0, 11.0, 2.0, 8.0, 9.0, 3.0, 6.0, 8.0, 3.0, 8.0, 17.0, 3.0, 13.0, 4.0, 0.0, 59.0, 4.0, 9.0, 5.0, 4.0, 3.0, 0.0, 3.0, 4.0, 6.0, 4.0, 17.0, 5.0, 5.0, 4.0, 4.0, 8.0, 5.0, 1.0, 8.0, 7.0, 3.0, 1.0, 5.0, 3.0, 5.0, 16.0, 6.0, 7.0, 7.0, 7.0, 5.0, 4.0, 9.0, 0.0, 9.0, 4.0, 23.0, 5.0, 3.0, 7.0, 4.0, 32.0, 18.0, 11.0, 6.0, 9.0, 14.0, 5.0, 1.0, 3.0, 14.0, 26.0, 1.0, 8.0, 3.0, 1.0, 4.0, 4.0, 6.0, 15.0, 9.0, 1.0, 15.0, 4.0, 12.0, 8.0, 8.0, 11.0, 1.0, 10.0, 2.0, 2.0, 7.0, 8.0, 7.0, 4.0, 1.0, 15.0, 5.0, 6.0, 3.0, 7.0, 3.0, 16.0, 5.0, 3.0, 1.0, 14.0, 6.0, 11.0, 5.0, 6.0, 9.0, 1.0, 23.0, 4.0, 2.0, 6.0, 48.0, 1.0, 6.0, 3.0, 9.0, 10.0, 8.0, 8.0, 5.0, 11.0, 8.0, 24.0, 10.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 4.0, 0.0, 4.0, 17.0, 13.0, 16.0, 6.0, 18.0, 1.0, 0.0, 6.0, 10.0, 1.0, 0.0, 1.0, 12.0, 3.0, 5.0, 11.0, 6.0, 31.0, 14.0, 1.0, 9.0, 3.0, 5.0, 10.0, 22.0, 10.0, 2.0, 5.0, 3.0, 5.0, 10.0, 11.0, 12.0, 0.0, 14.0, 63.0, 4.0, 3.0, 28.0, 3.0, 3.0, 4.0, 6.0, 6.0, 9.0, 4.0, 12.0, 8.0, 19.0, 11.0, 3.0, 4.0, 2.0, 5.0, 37.0, 7.0, 13.0, 6.0, 4.0, 8.0, 22.0, 10.0, 4.0, 8.0, 6.0, 11.0, 34.0, 14.0, 2.0, 37.0, 2.0, 12.0, 39.0, 10.0, 16.0, 3.0, 10.0, 10.0, 13.0, 1.0, 13.0, 11.0, 10.0, 17.0, 18.0, 11.0, 12.0, 6.0, 9.0, 4.0, 10.0, 16.0, 39.0, 15.0, 13.0, 8.0, 3.0, 10.0, 4.0, 32.0, 5.0, 18.0, 16.0, 1.0, 10.0, 7.0, 24.0, 16.0, 8.0, 6.0, 1.0, 8.0, 19.0, 38.0, 4.0, 10.0, 22.0, 6.0, 5.0, 11.0, 15.0, 5.0, 2.0, 22.0, 1.0, 2.0, 5.0, 34.0, 16.0, 5.0, 14.0, 5.0, 53.0, 29.0, 3.0, 21.0, 15.0, 12.0, 7.0, 11.0, 27.0, 18.0, 5.0, 4.0, 14.0, 12.0, 7.0, 15.0, 4.0, 12.0, 3.0, 4.0, 24.0, 9.0, 24.0, 0.0, 6.0, 19.0, 5.0, 12.0, 5.0, 9.0, 13.0, 15.0, 16.0, 5.0, 2.0, 2.0, 13.0, 14.0, 6.0, 16.0, 19.0, 10.0, 5.0, 11.0, 1.0, 22.0, 10.0, 3.0, 18.0, 32.0, 6.0, 11.0, 11.0, 10.0, 9.0, 29.0, 24.0, 9.0, 6.0, 14.0, 24.0, 12.0, 13.0, 4.0, 18.0, 22.0, 9.0, 17.0, 25.0, 9.0, 11.0, 9.0, 9.0, 9.0, 4.0, 10.0, 11.0, 18.0, 10.0, 12.0, 4.0, 19.0, 16.0, 9.0, 3.0, 25.0, 34.0, 15.0, 6.0, 25.0, 8.0, 6.0, 48.0, 19.0, 9.0, 15.0, 6.0, 33.0, 20.0, 3.0, 30.0, 12.0, 37.0, 33.0, 7.0, 21.0, 17.0, 9.0, 4.0, 12.0, 10.0, 14.0, 10.0, 9.0, 16.0, 7.0, 6.0, 20.0, 10.0, 40.0, 0.0, 28.0, 16.0, 36.0, 28.0, 21.0, 27.0, 12.0, 40.0, 21.0, 28.0, 33.0, 23.0, 27.0, 35.0, 20.0, 23.0, 30.0, 1.0, 21.0, 43.0, 9.0, 11.0, 4.0, 15.0, 41.0, 27.0, 21.0, 10.0, 21.0, 32.0, 27.0, 22.0, 32.0, 16.0, 46.0, 33.0, 14.0, 19.0, 29.0, 47.0, 24.0, 31.0, 26.0, 36.0, 14.0, 26.0, 33.0, 14.0, 19.0, 20.0, 33.0, 35.0, 49.0, 58.0, 42.0, 34.0, 43.0, 32.0, 30.0, 28.0, 29.0, 34.0, 54.0, 45.0, 36.0, 40.0, 49.0, 54.0, 64.0, 61.0, 46.0, 57.0, 50.0, 87.0, 63.0, 71.0, 32.0, 60.0, 76.0, 57.0, 60.0, 73.0, 63.0, 66.0, 61.0, 59.0, 69.0, 84.0, 81.0]</t>
+          <t>[3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 8.0, 3.0, 6.0, 9.0, 8.0, 2.0, 4.0, 5.0, 7.0, 14.0, 14.0, 7.0, 5.0, 2.0, 11.0, 14.0, 7.0, 12.0, 3.0, 10.0, 9.0, 19.0, 2.0, 2.0, 5.0, 6.0, 6.0, 11.0, 6.0, 10.0, 1.0, 2.0, 4.0, 4.0, 3.0, 2.0, 22.0, 8.0, 12.0, 2.0, 3.0, 5.0, 6.0, 14.0, 5.0, 4.0, 4.0, 18.0, 5.0, 12.0, 1.0, 13.0, 14.0, 11.0, 7.0, 4.0, 9.0, 8.0, 1.0, 12.0, 4.0, 7.0, 19.0, 9.0, 11.0, 5.0, 11.0, 14.0, 10.0, 4.0, 3.0, 7.0, 6.0, 6.0, 13.0, 3.0, 4.0, 3.0, 5.0, 1.0, 16.0, 14.0, 6.0, 7.0, 2.0, 22.0, 11.0, 16.0, 36.0, 10.0, 4.0, 32.0, 6.0, 16.0, 17.0, 13.0, 9.0, 7.0, 20.0, 31.0, 4.0, 3.0, 7.0, 4.0, 9.0, 5.0, 9.0, 7.0, 6.0, 6.0, 21.0, 5.0, 5.0, 8.0, 1.0, 5.0, 8.0, 23.0, 7.0, 13.0, 2.0, 1.0, 4.0, 8.0, 4.0, 8.0, 5.0, 25.0, 10.0, 5.0, 9.0, 3.0, 17.0, 16.0, 18.0, 12.0, 17.0, 5.0, 5.0, 2.0, 18.0, 6.0, 6.0, 4.0, 23.0, 11.0, 9.0, 12.0, 11.0, 8.0, 4.0, 7.0, 4.0, 9.0, 3.0, 37.0, 14.0, 3.0, 13.0, 4.0, 2.0, 10.0, 15.0, 1.0, 4.0, 9.0, 18.0, 2.0, 6.0, 5.0, 24.0, 27.0, 8.0, 4.0, 11.0, 7.0, 3.0, 1.0, 10.0, 2.0, 41.0, 6.0, 6.0, 1.0, 5.0, 34.0, 2.0, 3.0, 1.0, 7.0, 13.0, 11.0, 11.0, 3.0, 7.0, 2.0, 5.0, 7.0, 15.0, 4.0, 6.0, 19.0, 30.0, 5.0, 2.0, 2.0, 9.0, 4.0, 4.0, 7.0, 10.0, 10.0, 4.0, 15.0, 6.0, 4.0, 41.0, 7.0, 1.0, 5.0, 8.0, 4.0, 4.0, 7.0, 2.0, 6.0, 4.0, 1.0, 2.0, 27.0, 7.0, 12.0, 5.0, 9.0, 0.0, 10.0, 26.0, 8.0, 9.0, 6.0, 24.0, 8.0, 38.0, 19.0, 25.0, 1.0, 11.0, 0.0, 4.0, 4.0, 48.0, 20.0, 3.0, 7.0, 4.0, 13.0, 4.0, 37.0, 12.0, 24.0, 7.0, 3.0, 16.0, 6.0, 1.0, 38.0, 38.0, 15.0, 11.0, 16.0, 8.0, 27.0, 12.0, 20.0, 5.0, 35.0, 20.0, 6.0, 13.0, 4.0, 12.0, 10.0, 21.0, 5.0, 21.0, 6.0, 14.0, 13.0, 19.0, 1.0, 17.0, 17.0, 8.0, 2.0, 7.0, 8.0, 20.0, 24.0, 27.0, 2.0, 2.0, 38.0, 7.0, 16.0, 21.0, 24.0, 41.0, 14.0, 9.0, 19.0, 23.0, 8.0, 6.0, 24.0, 11.0, 17.0, 8.0, 5.0, 2.0, 20.0, 16.0, 5.0, 9.0, 39.0, 6.0, 25.0, 37.0, 3.0, 10.0, 50.0, 22.0, 8.0, 39.0, 14.0, 21.0, 19.0, 19.0, 25.0, 20.0, 22.0, 5.0, 30.0, 8.0, 36.0, 5.0, 3.0, 6.0, 14.0, 7.0, 23.0, 9.0, 5.0, 1.0, 6.0, 6.0, 25.0, 2.0, 10.0, 11.0, 38.0, 14.0, 3.0, 7.0, 29.0, 27.0, 3.0, 2.0, 30.0, 6.0, 5.0, 14.0, 20.0, 12.0, 4.0, 10.0, 34.0, 4.0, 42.0, 21.0, 4.0, 8.0, 8.0, 21.0, 8.0, 8.0, 6.0, 63.0, 1.0, 29.0, 8.0, 9.0, 15.0, 5.0, 35.0, 15.0, 2.0, 2.0, 4.0, 5.0, 3.0, 12.0, 1.0, 8.0, 11.0, 5.0, 7.0, 2.0, 14.0, 2.0, 13.0, 32.0, 24.0, 8.0, 32.0, 6.0, 3.0, 10.0, 7.0, 8.0, 3.0, 25.0, 8.0, 2.0, 27.0, 26.0, 4.0, 15.0, 3.0, 69.0, 14.0, 5.0, 17.0, 37.0, 6.0, 9.0, 17.0, 11.0, 19.0, 32.0, 37.0, 18.0, 6.0, 4.0, 15.0, 28.0, 4.0, 36.0, 32.0, 16.0, 5.0, 21.0, 9.0, 12.0, 11.0, 2.0, 5.0, 7.0, 23.0, 3.0, 26.0, 17.0, 5.0, 6.0, 1.0, 11.0, 7.0, 3.0, 14.0, 36.0, 2.0, 7.0, 2.0, 8.0, 34.0, 7.0, 11.0, 18.0, 1.0, 0.0, 14.0, 35.0, 4.0, 22.0, 5.0, 3.0, 46.0, 12.0, 10.0, 10.0, 0.0, 2.0, 4.0, 8.0, 22.0, 6.0, 34.0, 34.0, 18.0, 7.0, 6.0, 1.0, 17.0, 11.0, 17.0, 19.0, 20.0, 7.0, 5.0, 3.0, 7.0, 15.0, 20.0, 12.0, 28.0, 35.0, 6.0, 5.0, 5.0, 17.0, 10.0, 8.0, 10.0, 34.0, 2.0, 17.0, 6.0, 2.0, 12.0, 8.0, 14.0, 1.0, 7.0, 5.0, 8.0, 6.0, 1.0, 15.0, 12.0, 10.0, 29.0, 5.0, 27.0, 3.0, 14.0, 12.0, 8.0, 8.0, 2.0, 14.0, 5.0, 6.0, 11.0, 9.0, 4.0, 2.0, 4.0, 2.0, 27.0, 4.0, 21.0, 1.0, 3.0, 27.0, 9.0, 23.0, 17.0, 10.0, 4.0, 8.0, 0.0, 2.0, 21.0, 24.0, 13.0, 34.0, 13.0, 8.0, 11.0, 17.0, 3.0, 4.0, 22.0, 6.0, 24.0, 2.0, 1.0, 7.0, 12.0, 5.0, 21.0, 6.0, 5.0, 4.0, 35.0, 9.0, 11.0, 4.0, 3.0, 25.0, 8.0, 5.0, 22.0, 8.0, 16.0, 13.0, 4.0, 32.0, 13.0, 19.0, 23.0, 12.0, 29.0, 7.0, 13.0, 14.0, 6.0, 12.0, 4.0, 5.0, 29.0, 26.0, 13.0, 2.0, 21.0, 2.0, 49.0, 17.0, 11.0, 15.0, 9.0, 23.0, 14.0, 7.0, 8.0, 21.0, 6.0, 8.0, 9.0, 8.0, 24.0, 3.0, 12.0, 7.0, 17.0, 10.0, 5.0, 6.0, 12.0, 18.0, 37.0, 27.0, 23.0, 12.0, 5.0, 11.0, 12.0, 7.0, 22.0, 8.0, 2.0, 5.0, 11.0, 46.0, 31.0, 13.0, 4.0, 10.0, 18.0, 63.0, 17.0, 26.0, 10.0, 14.0, 2.0, 17.0, 17.0, 14.0, 4.0, 17.0, 19.0, 20.0, 12.0, 2.0, 21.0, 7.0, 22.0, 14.0, 8.0, 49.0, 2.0, 1.0, 8.0, 17.0, 30.0, 25.0, 8.0, 7.0, 2.0, 6.0, 26.0, 16.0, 21.0, 10.0, 15.0, 9.0, 32.0, 2.0, 3.0, 22.0, 4.0, 6.0, 0.0, 5.0, 2.0, 24.0, 7.0, 21.0, 5.0, 14.0, 16.0, 3.0, 3.0, 1.0, 14.0, 6.0, 22.0, 21.0, 9.0, 13.0, 18.0, 3.0, 24.0, 4.0, 10.0, 16.0, 1.0, 3.0, 17.0, 48.0, 11.0, 16.0, 18.0, 3.0, 20.0, 31.0, 27.0, 15.0, 0.0, 20.0, 19.0, 63.0, 74.0, 8.0, 1.0, 18.0, 19.0, 8.0, 26.0, 2.0, 3.0, 2.0, 9.0, 7.0, 20.0, 12.0, 1.0, 6.0, 12.0, 0.0, 8.0, 17.0, 3.0, 3.0, 8.0, 4.0, 18.0, 20.0, 5.0, 3.0, 6.0, 13.0, 4.0, 5.0, 7.0, 6.0, 10.0, 13.0, 5.0, 11.0, 22.0, 16.0, 1.0, 20.0, 20.0, 16.0, 12.0, 36.0, 5.0, 24.0, 22.0, 7.0, 15.0, 24.0, 13.0, 7.0, 13.0, 20.0, 5.0, 11.0, 15.0, 12.0, 16.0, 10.0, 7.0, 18.0, 11.0, 30.0, 53.0, 14.0, 17.0, 2.0, 4.0, 21.0, 19.0, 5.0, 7.0, 3.0, 16.0, 17.0, 3.0, 4.0, 5.0, 38.0, 7.0, 3.0, 6.0, 12.0, 16.0, 6.0, 27.0, 3.0, 1.0, 51.0, 2.0, 18.0, 8.0, 5.0, 9.0, 1.0, 30.0, 2.0, 25.0, 17.0, 20.0, 13.0, 9.0, 1.0, 43.0, 5.0, 19.0, 10.0, 6.0, 43.0, 4.0, 16.0, 48.0, 11.0, 7.0, 13.0, 9.0, 3.0, 18.0, 10.0, 4.0, 3.0, 3.0, 3.0, 7.0, 16.0, 20.0, 4.0, 10.0, 23.0, 21.0, 4.0, 22.0, 4.0, 9.0, 12.0, 22.0, 8.0, 11.0, 5.0, 5.0, 12.0, 8.0, 1.0, 14.0, 2.0, 3.0, 2.0, 6.0, 5.0, 3.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 6.0, 2.0, 7.0, 11.0, 9.0, 1.0, 5.0, 11.0, 2.0, 7.0, 11.0, 6.0, 9.0, 4.0, 4.0, 11.0, 18.0, 0.0, 33.0, 4.0, 2.0, 25.0, 3.0, 4.0, 13.0, 10.0, 7.0, 5.0, 3.0, 2.0, 6.0, 10.0, 25.0, 14.0, 22.0, 7.0, 11.0, 1.0, 13.0, 18.0, 14.0, 8.0, 14.0, 4.0, 1.0, 12.0, 3.0, 3.0, 4.0, 3.0, 30.0, 6.0, 5.0, 29.0, 1.0, 6.0, 34.0, 3.0, 15.0, 7.0, 0.0, 10.0, 17.0, 8.0, 16.0, 2.0, 67.0, 19.0, 16.0, 6.0, 40.0, 20.0, 21.0, 7.0, 23.0, 19.0, 13.0, 1.0, 10.0, 7.0, 12.0, 4.0, 11.0, 10.0, 4.0, 8.0, 9.0, 11.0, 20.0, 3.0, 10.0, 4.0, 3.0, 5.0, 12.0, 22.0, 11.0, 5.0, 45.0, 67.0, 19.0, 4.0, 7.0, 10.0, 3.0, 1.0, 14.0, 17.0, 10.0, 6.0, 5.0, 3.0, 25.0, 12.0, 1.0, 7.0, 4.0, 5.0, 3.0, 6.0, 6.0, 3.0, 14.0, 5.0, 10.0, 3.0, 2.0, 3.0, 32.0, 32.0, 22.0, 3.0, 6.0, 3.0, 19.0, 6.0, 8.0, 1.0, 49.0, 6.0, 5.0, 7.0, 3.0, 5.0, 17.0, 6.0, 13.0, 1.0, 5.0, 5.0, 25.0, 9.0, 16.0, 3.0, 21.0, 1.0, 7.0, 2.0, 7.0, 5.0, 17.0, 8.0, 8.0, 8.0, 7.0, 13.0, 2.0, 2.0, 5.0, 10.0, 4.0, 16.0, 8.0, 4.0, 7.0, 11.0, 5.0, 5.0, 1.0, 13.0, 1.0, 9.0, 4.0, 23.0, 34.0, 20.0, 1.0, 14.0, 3.0, 8.0, 19.0, 6.0, 5.0, 49.0, 3.0, 14.0, 4.0, 3.0, 9.0, 9.0, 7.0, 8.0, 6.0, 8.0, 27.0, 1.0, 3.0, 3.0, 0.0, 5.0, 1.0, 5.0, 24.0, 7.0, 2.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 25.0, 4.0, 5.0, 5.0, 11.0, 10.0, 4.0, 1.0, 34.0, 10.0, 10.0, 4.0, 6.0, 0.0, 10.0, 7.0, 11.0, 8.0, 1.0, 8.0, 2.0, 8.0, 5.0, 0.0, 52.0, 9.0, 3.0, 13.0, 4.0, 4.0, 22.0, 26.0, 4.0, 30.0, 2.0, 3.0, 3.0, 5.0, 2.0, 24.0, 33.0, 8.0, 8.0, 4.0, 9.0, 7.0, 11.0, 11.0, 1.0, 9.0, 2.0, 2.0, 10.0, 11.0, 6.0, 24.0, 10.0, 3.0, 19.0, 14.0, 2.0, 4.0, 6.0, 0.0, 81.0, 4.0, 1.0, 3.0, 22.0, 2.0, 3.0, 7.0, 15.0, 29.0, 35.0, 10.0, 24.0, 11.0, 16.0, 34.0, 8.0, 36.0, 7.0, 19.0, 9.0, 1.0, 6.0, 5.0, 13.0, 5.0, 9.0, 6.0, 12.0, 5.0, 4.0, 9.0, 1.0, 4.0, 9.0, 21.0, 1.0, 7.0, 20.0, 3.0, 7.0, 2.0, 2.0, 3.0, 29.0, 9.0, 15.0, 3.0, 1.0, 1.0, 10.0, 22.0, 12.0, 15.0, 2.0, 11.0, 0.0, 12.0, 11.0, 1.0, 1.0, 20.0, 4.0, 41.0, 0.0, 13.0, 24.0, 39.0, 20.0, 15.0, 8.0, 16.0, 3.0, 6.0, 1.0, 1.0, 2.0, 4.0, 14.0, 11.0, 17.0, 8.0, 3.0, 7.0, 11.0, 12.0, 6.0, 3.0, 25.0, 13.0, 2.0, 9.0, 16.0, 16.0, 4.0, 3.0, 1.0, 11.0, 12.0, 2.0, 21.0, 10.0, 2.0, 4.0, 4.0, 5.0, 39.0, 7.0, 1.0, 8.0, 7.0, 12.0, 2.0, 21.0, 7.0, 4.0, 6.0, 9.0, 31.0, 6.0, 1.0, 1.0, 5.0, 3.0, 4.0, 3.0, 2.0, 3.0, 6.0, 13.0, 5.0, 37.0, 23.0, 9.0, 23.0, 13.0, 8.0, 15.0, 4.0, 4.0, 26.0, 16.0, 34.0, 8.0, 5.0, 7.0, 8.0, 4.0, 4.0, 9.0, 18.0, 13.0, 4.0, 3.0, 8.0, 11.0, 29.0, 2.0, 9.0, 3.0, 1.0, 3.0, 19.0, 40.0, 16.0, 2.0, 25.0, 11.0, 7.0, 16.0, 3.0, 3.0, 4.0, 42.0, 41.0, 5.0, 8.0, 38.0, 2.0, 2.0, 14.0, 8.0, 15.0, 2.0, 10.0, 6.0, 3.0, 7.0, 41.0, 5.0, 13.0, 5.0, 5.0, 1.0, 6.0, 4.0, 8.0, 4.0, 4.0, 5.0, 12.0, 5.0, 10.0, 17.0, 24.0, 7.0, 3.0, 14.0, 11.0, 13.0, 9.0, 15.0, 9.0, 7.0, 9.0, 4.0, 6.0, 1.0, 13.0, 2.0, 11.0, 5.0, 30.0, 2.0, 2.0, 2.0, 8.0, 5.0, 6.0, 3.0, 15.0, 7.0, 6.0, 17.0, 24.0, 9.0, 8.0, 4.0, 4.0, 9.0, 11.0, 11.0, 9.0, 6.0, 8.0, 3.0, 3.0, 6.0, 0.0, 2.0, 8.0, 12.0, 23.0, 6.0, 6.0, 20.0, 22.0, 10.0, 13.0, 3.0, 4.0, 7.0, 19.0, 5.0, 19.0, 12.0, 6.0, 4.0, 21.0, 5.0, 3.0, 2.0, 5.0, 7.0, 10.0, 6.0, 0.0, 3.0, 3.0, 11.0, 3.0, 13.0, 14.0, 13.0, 4.0, 3.0, 6.0, 24.0, 15.0, 10.0, 9.0, 6.0, 4.0, 1.0, 2.0, 1.0, 7.0, 9.0, 10.0, 22.0, 6.0, 1.0, 8.0, 9.0, 9.0, 12.0, 9.0, 5.0, 6.0, 5.0, 15.0, 2.0, 5.0, 10.0, 14.0, 19.0, 58.0, 1.0, 5.0, 8.0, 11.0, 3.0, 1.0, 7.0, 2.0, 4.0, 2.0, 3.0, 5.0, 1.0, 9.0, 37.0, 4.0, 2.0, 26.0, 3.0, 8.0, 22.0, 9.0, 7.0, 6.0, 11.0, 11.0, 2.0, 15.0, 4.0, 30.0, 10.0, 6.0, 4.0, 13.0, 14.0, 16.0, 21.0, 29.0, 16.0, 37.0, 18.0, 7.0, 13.0, 2.0, 5.0, 9.0, 9.0, 7.0, 7.0, 13.0, 2.0, 25.0, 25.0, 39.0, 11.0, 5.0, 20.0, 8.0, 7.0, 6.0, 7.0, 2.0, 21.0, 9.0, 3.0, 10.0, 88.0, 27.0, 8.0, 5.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 4.0, 13.0, 11.0, 5.0, 8.0, 17.0, 2.0, 18.0, 12.0, 23.0, 7.0, 12.0, 1.0, 4.0, 1.0, 4.0, 6.0, 8.0, 6.0, 10.0, 13.0, 13.0, 10.0, 4.0, 1.0, 5.0, 19.0, 3.0, 10.0, 9.0, 14.0, 3.0, 4.0, 14.0, 1.0, 14.0, 38.0, 2.0, 46.0, 7.0, 3.0, 2.0, 18.0, 3.0, 8.0, 8.0, 5.0, 7.0, 4.0, 8.0, 4.0, 4.0, 6.0, 3.0, 3.0, 2.0, 5.0, 2.0, 8.0, 5.0, 5.0, 11.0, 7.0, 3.0, 1.0, 11.0, 3.0, 4.0, 11.0, 13.0, 24.0, 11.0, 3.0, 2.0, 9.0, 10.0, 42.0, 19.0, 5.0, 20.0, 2.0, 13.0, 5.0, 4.0, 17.0, 19.0, 2.0, 8.0, 11.0, 7.0, 5.0, 7.0, 10.0, 8.0, 13.0, 3.0, 4.0, 12.0, 8.0, 9.0, 7.0, 35.0, 6.0, 5.0, 4.0, 4.0, 3.0, 65.0, 17.0, 7.0, 10.0, 13.0, 4.0, 21.0, 10.0, 4.0, 6.0, 5.0, 5.0, 6.0, 7.0, 4.0, 2.0, 4.0, 36.0, 14.0, 2.0, 15.0, 1.0, 3.0, 11.0, 23.0, 10.0, 2.0, 14.0, 16.0, 3.0, 2.0, 3.0, 8.0, 5.0, 13.0, 2.0, 9.0, 3.0, 10.0, 1.0, 7.0, 12.0, 8.0, 9.0, 16.0, 16.0, 4.0, 1.0, 4.0, 5.0, 7.0, 7.0, 3.0, 7.0, 12.0, 38.0, 12.0, 3.0, 11.0, 13.0, 2.0, 7.0, 19.0, 6.0, 14.0, 3.0, 43.0, 5.0, 5.0, 6.0, 6.0, 27.0, 18.0, 12.0, 11.0, 11.0, 7.0, 16.0, 11.0, 16.0, 56.0, 9.0, 11.0, 8.0, 7.0, 8.0, 25.0, 7.0, 7.0, 3.0, 2.0, 12.0, 4.0, 14.0, 8.0, 7.0, 8.0, 9.0, 5.0, 6.0, 6.0, 16.0, 1.0, 20.0, 10.0, 3.0, 1.0, 12.0, 10.0, 3.0, 8.0, 1.0, 17.0, 13.0, 8.0, 10.0, 6.0, 13.0, 26.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 11.0, 16.0, 6.0, 9.0, 90.0, 6.0, 10.0, 1.0, 1.0, 4.0, 11.0, 7.0, 2.0, 17.0, 2.0, 12.0, 12.0, 42.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 15.0, 9.0, 51.0, 1.0, 17.0, 7.0, 7.0, 4.0, 23.0, 7.0, 20.0, 2.0, 18.0, 3.0, 14.0, 48.0, 10.0, 22.0, 6.0, 22.0, 7.0, 7.0, 10.0, 6.0, 3.0, 0.0, 10.0, 8.0, 6.0, 19.0, 10.0, 33.0, 6.0, 6.0, 6.0, 12.0, 5.0, 5.0, 5.0, 25.0, 11.0, 6.0, 8.0, 6.0, 9.0, 4.0, 1.0, 3.0, 10.0, 40.0, 3.0, 2.0, 3.0, 4.0, 4.0, 60.0, 29.0, 19.0, 2.0, 1.0, 18.0, 16.0, 23.0, 4.0, 5.0, 12.0, 11.0, 5.0, 5.0, 1.0, 25.0, 9.0, 3.0, 18.0, 6.0, 6.0, 37.0, 14.0, 4.0, 3.0, 5.0, 6.0, 11.0, 21.0, 22.0, 5.0, 10.0, 12.0, 10.0, 2.0, 3.0, 5.0, 23.0, 12.0, 4.0, 11.0, 7.0, 13.0, 5.0, 14.0, 10.0, 10.0, 23.0, 31.0, 3.0, 9.0, 38.0, 20.0, 9.0, 6.0, 2.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 7.0, 26.0, 10.0, 3.0, 10.0, 4.0, 17.0, 21.0, 7.0, 7.0, 7.0, 4.0, 7.0, 15.0, 12.0, 19.0, 4.0, 20.0, 6.0, 10.0, 7.0, 5.0, 3.0, 3.0, 21.0, 9.0, 23.0, 13.0, 44.0, 10.0, 12.0, 12.0, 24.0, 33.0, 7.0, 3.0, 9.0, 13.0, 3.0, 11.0, 20.0, 19.0, 11.0, 5.0, 8.0, 9.0, 3.0, 36.0, 19.0, 17.0, 7.0, 38.0, 18.0, 20.0, 28.0, 24.0, 18.0, 10.0, 19.0, 20.0, 21.0, 38.0, 8.0, 27.0, 13.0, 3.0, 15.0, 20.0, 12.0, 19.0, 6.0, 9.0, 3.0, 21.0, 9.0, 33.0, 24.0, 2.0, 15.0, 4.0, 7.0, 38.0, 45.0, 3.0, 3.0, 10.0, 23.0, 3.0, 8.0, 6.0, 17.0, 2.0, 3.0, 7.0, 13.0, 22.0, 37.0, 16.0, 25.0, 9.0, 7.0, 17.0, 28.0, 7.0, 2.0, 12.0, 4.0, 3.0, 11.0, 9.0, 3.0, 20.0, 16.0, 26.0, 31.0, 7.0, 27.0, 35.0, 30.0, 30.0, 46.0, 2.0, 15.0, 14.0, 4.0, 3.0, 3.0, 26.0, 4.0, 14.0, 14.0, 33.0, 19.0, 1.0, 15.0, 3.0, 14.0, 7.0, 8.0, 4.0, 30.0, 13.0, 3.0, 0.0, 9.0, 2.0, 7.0, 9.0, 6.0, 29.0, 13.0, 5.0, 2.0, 7.0, 37.0, 33.0, 18.0, 21.0, 5.0, 17.0, 17.0, 14.0, 3.0, 30.0, 12.0, 5.0, 12.0, 12.0, 11.0, 4.0, 6.0, 22.0, 28.0, 32.0, 38.0, 6.0, 24.0, 7.0, 2.0, 13.0, 4.0, 23.0, 18.0, 7.0, 1.0, 29.0, 14.0, 6.0, 9.0, 56.0, 23.0, 21.0, 5.0, 9.0, 3.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 4.0, 20.0, 2.0, 8.0, 20.0, 24.0, 17.0, 36.0, 19.0, 51.0, 8.0, 36.0, 15.0, 28.0, 32.0, 19.0, 32.0, 4.0, 16.0, 24.0, 3.0, 39.0, 35.0, 56.0, 12.0, 6.0, 7.0, 23.0, 12.0, 67.0, 38.0, 1.0, 14.0, 28.0, 22.0, 8.0, 27.0, 1.0, 8.0, 8.0, 3.0, 6.0, 23.0, 2.0, 32.0, 11.0, 4.0, 23.0, 14.0, 37.0, 23.0, 49.0, 10.0, 10.0, 24.0, 18.0, 14.0, 6.0, 9.0, 4.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 31.0, 24.0, 8.0, 30.0, 4.0, 18.0, 22.0, 77.0, 62.0, 8.0, 8.0, 16.0, 23.0, 48.0, 3.0, 11.0, 24.0, 56.0, 11.0, 5.0, 4.0, 36.0, 17.0, 13.0, 37.0, 23.0, 32.0, 48.0, 20.0, 19.0, 21.0, 33.0, 39.0, 27.0, 27.0, 5.0, 26.0, 36.0, 13.0, 29.0, 16.0, 23.0, 49.0, 8.0, 43.0, 1.0, 4.0, 22.0, 4.0, 16.0, 52.0, 46.0, 8.0, 38.0, 7.0, 33.0, 52.0, 44.0, 16.0, 15.0, 13.0, 5.0, 10.0, 64.0, 32.0, 12.0, 31.0, 39.0, 51.0, 62.0, 29.0, 49.0, 31.0, 38.0, 64.0, 2.0, 17.0, 13.0, 41.0, 68.0, 34.0, 2.0, 70.0, 74.0, 49.0, 56.0, 53.0, 52.0, 39.0, 24.0, 69.0, 16.0, 46.0, 122.0, 29.0, 4.0, 71.0, 5.0, 13.0, 70.0, 1.0, 88.0, 72.0, 5.0, 8.0, 14.0, 57.0, 20.0, 8.0, 1.0, 12.0, 87.0, 3.0, 14.0, 89.0, 5.0, 35.0, 15.0, 105.0, 16.0, 9.0, 13.0, 6.0, 44.0, 13.0, 0.0, 3.0, 0.0, 2.0, 12.0, 11.0, 31.0, 6.0, 28.0, 15.0, 22.0, 22.0, 19.0, 124.0, 60.0, 14.0, 8.0, 16.0, 9.0, 1.0, 14.0, 1.0, 29.0, 13.0, 10.0, 6.0, 2.0, 28.0, 68.0, 42.0, 30.0, 13.0, 38.0, 14.0, 3.0, 1.0, 1.0, 5.0, 2.0, 5.0, 2.0, 12.0, 26.0, 11.0, 1.0, 16.0, 13.0, 5.0, 2.0, 3.0, 3.0, 4.0, 7.0, 8.0, 3.0, 9.0, 3.0, 20.0, 2.0, 39.0, 8.0, 5.0, 15.0, 20.0, 5.0, 4.0, 18.0, 6.0, 2.0, 4.0, 13.0, 27.0, 1.0, 4.0, 3.0, 11.0, 6.0, 0.0, 3.0, 23.0, 5.0, 2.0, 8.0, 1.0, 24.0, 35.0, 1.0, 0.0, 7.0, 6.0, 4.0, 3.0, 3.0, 1.0, 28.0, 10.0, 1.0, 9.0, 3.0, 8.0, 1.0, 9.0, 2.0, 9.0, 8.0, 0.0, 3.0, 28.0, 14.0, 6.0, 24.0, 17.0, 20.0, 1.0, 1.0, 9.0, 1.0, 3.0, 9.0, 3.0, 10.0, 3.0, 5.0, 9.0, 4.0, 9.0, 15.0, 8.0, 16.0, 9.0, 1.0, 5.0, 10.0, 7.0, 10.0, 4.0, 12.0, 4.0, 27.0, 6.0, 6.0, 6.0, 4.0, 7.0, 17.0, 7.0, 2.0, 25.0, 6.0, 1.0, 2.0, 11.0, 4.0, 7.0, 22.0, 5.0, 5.0, 6.0, 20.0, 6.0, 2.0, 1.0, 13.0, 7.0, 2.0, 20.0, 23.0, 2.0, 10.0, 1.0, 15.0, 4.0, 7.0, 6.0, 8.0, 21.0, 14.0, 8.0, 2.0, 2.0, 1.0, 0.0, 1.0, 9.0, 5.0, 1.0, 1.0, 4.0, 5.0, 12.0, 3.0, 11.0, 17.0, 12.0, 15.0, 1.0, 1.0, 31.0, 10.0, 14.0, 15.0, 28.0, 14.0, 18.0, 9.0, 9.0, 4.0, 11.0, 10.0, 2.0, 15.0, 2.0, 16.0, 13.0, 6.0, 9.0, 6.0, 12.0, 7.0, 4.0, 13.0, 8.0, 1.0, 15.0, 1.0, 4.0, 4.0, 19.0, 4.0, 5.0, 2.0, 5.0, 4.0, 4.0, 16.0, 5.0, 5.0, 8.0, 3.0, 6.0, 26.0, 3.0, 9.0, 16.0, 2.0, 14.0, 12.0, 6.0, 3.0, 12.0, 6.0, 9.0, 59.0, 3.0, 0.0, 3.0, 2.0, 4.0, 1.0, 4.0, 9.0, 4.0, 2.0, 4.0, 2.0, 2.0, 10.0, 2.0, 6.0, 4.0, 3.0, 14.0, 11.0, 1.0, 3.0, 5.0, 2.0, 8.0, 12.0, 1.0, 4.0, 1.0, 5.0, 5.0, 13.0, 10.0, 1.0, 1.0, 34.0, 12.0, 1.0, 5.0, 23.0, 13.0, 5.0, 8.0, 11.0, 4.0, 43.0, 4.0, 6.0, 8.0, 5.0, 5.0, 0.0, 4.0, 3.0, 11.0, 2.0, 3.0, 3.0, 6.0, 11.0, 11.0, 8.0, 12.0, 12.0, 18.0, 6.0, 8.0, 3.0, 16.0, 5.0, 5.0, 23.0, 5.0, 14.0, 26.0, 26.0, 18.0, 7.0, 3.0, 6.0, 31.0, 2.0, 8.0, 1.0, 6.0, 12.0, 8.0, 10.0, 6.0, 3.0, 1.0, 15.0, 6.0, 12.0, 19.0, 5.0, 36.0, 25.0, 2.0, 3.0, 31.0, 7.0, 5.0, 8.0, 3.0, 24.0, 5.0, 2.0, 4.0, 25.0, 1.0, 2.0, 3.0, 22.0, 4.0, 70.0, 27.0, 3.0, 7.0, 23.0, 5.0, 9.0, 2.0, 3.0, 14.0, 1.0, 13.0, 8.0, 14.0, 10.0, 26.0, 25.0, 1.0, 8.0, 1.0, 9.0, 25.0, 5.0, 9.0, 1.0, 5.0, 3.0, 4.0, 17.0, 1.0, 27.0, 20.0, 6.0, 7.0, 14.0, 17.0, 16.0, 2.0, 3.0, 4.0, 11.0, 6.0, 1.0, 2.0, 11.0, 4.0, 4.0, 3.0, 6.0, 5.0, 13.0, 1.0, 3.0, 2.0, 0.0, 2.0, 14.0, 7.0, 11.0, 5.0, 3.0, 9.0, 6.0, 14.0, 10.0, 2.0, 2.0, 5.0, 2.0, 6.0, 9.0, 12.0, 4.0, 39.0, 5.0, 3.0, 38.0, 24.0, 3.0, 5.0, 6.0, 23.0, 1.0, 13.0, 13.0, 5.0, 4.0, 61.0, 0.0, 4.0, 5.0, 7.0, 5.0, 64.0, 3.0, 2.0, 1.0, 6.0, 3.0, 2.0, 6.0, 5.0, 1.0, 14.0, 1.0, 7.0, 7.0, 4.0, 3.0, 18.0, 6.0, 5.0, 1.0, 1.0, 2.0, 0.0, 4.0, 3.0, 12.0, 11.0, 14.0, 10.0, 9.0, 3.0, 12.0, 9.0, 3.0, 4.0, 6.0, 8.0, 0.0, 5.0, 7.0, 7.0, 5.0, 30.0, 6.0, 8.0, 7.0, 12.0, 12.0, 1.0, 19.0, 3.0, 3.0, 17.0, 22.0, 7.0, 2.0, 3.0, 15.0, 5.0, 14.0, 4.0, 10.0, 8.0, 41.0, 15.0, 4.0, 9.0, 16.0, 1.0, 5.0, 10.0, 29.0, 5.0, 5.0, 4.0, 5.0, 22.0, 4.0, 1.0, 6.0, 4.0, 2.0, 6.0, 4.0, 3.0, 18.0, 2.0, 5.0, 4.0, 6.0, 6.0, 14.0, 32.0, 8.0, 4.0, 9.0, 6.0, 4.0, 63.0, 22.0, 8.0, 7.0, 6.0, 2.0, 1.0, 9.0, 12.0, 5.0, 1.0, 13.0, 33.0, 10.0, 3.0, 9.0, 7.0, 14.0, 5.0, 24.0, 2.0, 9.0, 15.0, 10.0, 8.0, 16.0, 5.0, 1.0, 4.0, 5.0, 3.0, 4.0, 10.0, 4.0, 18.0, 4.0, 3.0, 3.0, 4.0, 13.0, 5.0, 8.0, 19.0, 7.0, 45.0, 2.0, 6.0, 8.0, 13.0, 5.0, 11.0, 23.0, 50.0, 13.0, 1.0, 9.0, 2.0, 15.0, 5.0, 1.0, 2.0, 11.0, 4.0, 2.0, 3.0, 2.0, 19.0, 3.0, 6.0, 8.0, 6.0, 7.0, 6.0, 5.0, 27.0, 9.0, 21.0, 3.0, 5.0, 12.0, 9.0, 3.0, 8.0, 5.0, 2.0, 7.0, 4.0, 3.0, 25.0, 5.0, 8.0, 9.0, 6.0, 9.0, 4.0, 8.0, 5.0, 0.0, 11.0, 3.0, 2.0, 3.0, 10.0, 20.0, 5.0, 6.0, 7.0, 9.0, 6.0, 35.0, 97.0, 3.0, 3.0, 6.0, 4.0, 6.0, 11.0, 5.0, 2.0, 7.0, 7.0, 2.0, 4.0, 4.0, 5.0, 2.0, 9.0, 5.0, 11.0, 20.0, 6.0, 30.0, 4.0, 36.0, 2.0, 10.0, 7.0, 5.0, 5.0, 5.0, 2.0, 1.0, 10.0, 3.0, 13.0, 19.0, 7.0, 4.0, 4.0, 22.0, 7.0, 10.0, 5.0, 16.0, 60.0, 7.0, 20.0, 23.0, 0.0, 5.0, 6.0, 3.0, 2.0, 11.0, 9.0, 6.0, 2.0, 7.0, 2.0, 2.0, 5.0, 1.0, 6.0, 20.0, 10.0, 5.0, 14.0, 13.0, 3.0, 6.0, 24.0, 0.0, 9.0, 19.0, 27.0, 8.0, 3.0, 53.0, 1.0, 14.0, 5.0, 5.0, 13.0, 11.0, 4.0, 4.0, 2.0, 26.0, 6.0, 5.0, 2.0, 5.0, 3.0, 9.0, 2.0, 10.0, 1.0, 3.0, 3.0, 3.0, 5.0, 4.0, 5.0, 4.0, 10.0, 4.0, 5.0, 16.0, 7.0, 15.0, 9.0, 7.0, 13.0, 4.0, 16.0, 3.0, 5.0, 19.0, 11.0, 4.0, 8.0, 10.0, 5.0, 1.0, 5.0, 7.0, 11.0, 21.0, 1.0, 2.0, 4.0, 9.0, 7.0, 7.0, 8.0, 0.0, 1.0, 2.0, 14.0, 19.0, 8.0, 25.0, 9.0, 4.0, 1.0, 15.0, 21.0, 5.0, 18.0, 6.0, 6.0, 8.0, 4.0, 8.0, 7.0, 20.0, 4.0, 6.0, 8.0, 12.0, 19.0, 5.0, 7.0, 11.0, 4.0, 5.0, 45.0, 2.0, 4.0, 22.0, 10.0, 3.0, 18.0, 14.0, 3.0, 10.0, 2.0, 4.0, 19.0, 3.0, 37.0, 7.0, 3.0, 2.0, 13.0, 40.0, 5.0, 6.0, 34.0, 2.0, 27.0, 14.0, 4.0, 15.0, 0.0, 1.0, 11.0, 6.0, 15.0, 0.0, 20.0, 6.0, 2.0, 5.0, 3.0, 12.0, 4.0, 4.0, 8.0, 11.0, 15.0, 5.0, 6.0, 13.0, 2.0, 2.0, 4.0, 4.0, 13.0, 7.0, 15.0, 5.0, 16.0, 7.0, 3.0, 32.0, 7.0, 2.0, 7.0, 5.0, 18.0, 3.0, 6.0, 4.0, 4.0, 4.0, 2.0, 1.0, 5.0, 0.0, 4.0, 8.0, 2.0, 3.0, 8.0, 7.0, 18.0, 28.0, 1.0, 10.0, 1.0, 13.0, 9.0, 2.0, 8.0, 6.0, 11.0, 26.0, 7.0, 3.0, 6.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 24.0, 0.0, 4.0, 18.0, 10.0, 2.0, 15.0, 1.0, 15.0, 6.0, 11.0, 23.0, 1.0, 5.0, 7.0, 6.0, 4.0, 5.0, 9.0, 14.0, 4.0, 6.0, 19.0, 2.0, 8.0, 0.0, 5.0, 9.0, 7.0, 4.0, 12.0, 4.0, 3.0, 2.0, 5.0, 9.0, 3.0, 27.0, 5.0, 15.0, 5.0, 3.0, 11.0, 2.0, 8.0, 9.0, 3.0, 6.0, 8.0, 3.0, 8.0, 17.0, 3.0, 13.0, 4.0, 0.0, 59.0, 4.0, 9.0, 5.0, 4.0, 3.0, 0.0, 3.0, 4.0, 6.0, 4.0, 17.0, 5.0, 5.0, 4.0, 4.0, 8.0, 5.0, 1.0, 8.0, 7.0, 3.0, 1.0, 5.0, 3.0, 5.0, 16.0, 6.0, 7.0, 7.0, 7.0, 5.0, 4.0, 9.0, 0.0, 9.0, 4.0, 23.0, 5.0, 3.0, 7.0, 4.0, 32.0, 18.0, 11.0, 6.0, 9.0, 14.0, 5.0, 1.0, 3.0, 14.0, 26.0, 1.0, 8.0, 3.0, 1.0, 4.0, 4.0, 6.0, 15.0, 9.0, 1.0, 15.0, 4.0, 12.0, 8.0, 8.0, 11.0, 1.0, 10.0, 2.0, 2.0, 7.0, 8.0, 7.0, 4.0, 1.0, 15.0, 5.0, 6.0, 3.0, 7.0, 3.0, 16.0, 5.0, 3.0, 1.0, 14.0, 6.0, 11.0, 5.0, 6.0, 9.0, 1.0, 23.0, 4.0, 2.0, 6.0, 48.0, 1.0, 6.0, 3.0, 9.0, 10.0, 8.0, 8.0, 5.0, 11.0, 8.0, 24.0, 10.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 4.0, 0.0, 4.0, 17.0, 13.0, 16.0, 6.0, 18.0, 1.0, 0.0, 6.0, 10.0, 1.0, 0.0, 1.0, 12.0, 3.0, 5.0, 11.0, 6.0, 31.0, 14.0, 1.0, 9.0, 3.0, 5.0, 10.0, 22.0, 10.0, 2.0, 5.0, 3.0, 5.0, 10.0, 11.0, 12.0, 0.0, 14.0, 63.0, 4.0, 3.0, 28.0, 3.0, 3.0, 4.0, 6.0, 6.0, 9.0, 4.0, 12.0, 8.0, 19.0, 11.0, 3.0, 4.0, 2.0, 5.0, 37.0, 7.0, 13.0, 6.0, 4.0, 8.0, 22.0, 10.0, 4.0, 8.0, 6.0, 11.0, 34.0, 14.0, 2.0, 37.0, 2.0, 12.0, 39.0, 10.0, 16.0, 3.0, 10.0, 10.0, 13.0, 1.0, 13.0, 11.0, 10.0, 17.0, 18.0, 11.0, 12.0, 6.0, 9.0, 4.0, 10.0, 16.0, 39.0, 15.0, 13.0, 8.0, 3.0, 10.0, 4.0, 32.0, 5.0, 18.0, 16.0, 1.0, 10.0, 7.0, 24.0, 16.0, 8.0, 6.0, 1.0, 8.0, 19.0, 38.0, 4.0, 10.0, 22.0, 6.0, 5.0, 11.0, 15.0, 5.0, 2.0, 22.0, 1.0, 2.0, 5.0, 34.0, 16.0, 5.0, 14.0, 5.0, 53.0, 29.0, 3.0, 21.0, 15.0, 12.0, 7.0, 11.0, 27.0, 18.0, 5.0, 4.0, 14.0, 12.0, 7.0, 15.0, 4.0, 12.0, 3.0, 4.0, 24.0, 9.0, 24.0, 0.0, 6.0, 19.0, 5.0, 12.0, 5.0, 9.0, 13.0, 15.0, 16.0, 5.0, 2.0, 2.0, 13.0, 14.0, 6.0, 16.0, 19.0, 10.0, 5.0, 11.0, 1.0, 22.0, 10.0, 3.0, 18.0, 32.0, 6.0, 11.0, 11.0, 10.0, 9.0, 29.0, 24.0, 9.0, 6.0, 14.0, 24.0, 12.0, 13.0, 4.0, 18.0, 22.0, 9.0, 17.0, 25.0, 9.0, 11.0, 9.0, 9.0, 9.0, 4.0, 10.0, 11.0, 18.0, 10.0, 12.0, 4.0, 19.0, 16.0, 9.0, 3.0, 25.0, 34.0, 15.0, 6.0, 25.0, 8.0, 6.0, 48.0, 19.0, 9.0, 15.0, 6.0, 33.0, 20.0, 3.0, 30.0, 12.0, 37.0, 33.0, 7.0, 21.0, 17.0, 9.0, 4.0, 12.0, 10.0, 14.0, 10.0, 9.0, 16.0, 7.0, 6.0, 20.0, 10.0, 40.0, 0.0, 28.0, 16.0, 36.0, 28.0, 21.0, 27.0, 12.0, 40.0, 21.0, 28.0, 33.0, 23.0, 27.0, 35.0, 20.0, 23.0, 30.0, 1.0, 21.0, 43.0, 9.0, 11.0, 4.0, 15.0, 41.0, 27.0, 21.0, 10.0, 21.0, 32.0, 27.0, 22.0, 32.0, 16.0, 46.0, 33.0, 14.0, 19.0, 29.0, 47.0, 24.0, 31.0, 26.0, 36.0, 14.0, 26.0, 33.0, 14.0, 19.0, 20.0, 33.0, 35.0, 49.0, 58.0, 42.0, 34.0, 43.0, 32.0, 30.0, 28.0, 29.0, 34.0, 54.0, 45.0, 36.0, 40.0, 49.0, 54.0, 64.0, 61.0, 46.0, 57.0, 50.0, 87.0, 63.0, 71.0, 32.0, 60.0, 76.0, 57.0, 60.0, 73.0, 63.0, 90.0, 66.0, 61.0, 96.0, 59.0, 69.0, 97.0, 84.0, 81.0, 123.0, 129.0, 134.0, 115.0, 110.0]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[6.0, 7.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 15.0, 7.0, 25.0, 25.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 5.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 16.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 28.0, 25.0, 15.0, 26.0, 6.0, 29.0, 16.0, 20.0, 12.0, 41.0, 7.0, 6.0, 1.0, 10.0, 16.0, 11.0, 11.0, 14.0, 30.0, 16.0, 18.0, 4.0, 12.0, 9.0, 10.0, 16.0, 12.0, 10.0, 31.0, 3.0, 35.0, 2.0, 11.0, 9.0, 2.0, 2.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 31.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 32.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 14.0, 17.0, 10.0, 17.0, 42.0, 19.0, 12.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 8.0, 27.0, 14.0, 87.0, 15.0, 23.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 4.0, 6.0, 28.0, 7.0, 25.0, 48.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 55.0, 19.0, 12.0, 37.0, 5.0, 10.0, 13.0, 7.0, 87.0, 8.0, 22.0, 11.0, 19.0, 18.0, 28.0, 9.0, 20.0, 22.0, 46.0, 41.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 20.0, 21.0, 3.0, 35.0, 29.0, 10.0, 17.0, 6.0, 10.0, 30.0, 8.0, 19.0, 13.0, 1.0, 5.0, 14.0, 11.0, 18.0, 2.0, 12.0, 45.0, 7.0, 18.0, 3.0, 24.0, 12.0, 15.0, 21.0, 10.0, 4.0, 14.0, 10.0, 29.0, 45.0, 3.0, 27.0, 28.0, 2.0, 5.0, 24.0, 19.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 15.0, 10.0, 10.0, 44.0, 14.0, 21.0, 51.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 15.0, 16.0, 28.0, 17.0, 23.0, 82.0, 19.0, 48.0, 15.0, 31.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 63.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 67.0, 49.0, 7.0, 25.0, 10.0, 5.0, 9.0, 33.0, 24.0, 4.0, 7.0, 38.0, 4.0, 4.0, 1.0, 15.0, 6.0, 9.0, 1.0, 9.0, 1.0, 12.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 5.0, 14.0, 6.0, 7.0, 5.0, 19.0, 18.0, 28.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 38.0, 5.0, 4.0, 5.0, 18.0, 29.0, 48.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 11.0, 28.0, 12.0, 13.0, 12.0, 16.0, 12.0, 5.0, 4.0, 7.0, 30.0, 47.0, 52.0, 14.0, 14.0, 10.0, 34.0, 24.0, 13.0, 25.0, 9.0, 15.0, 25.0, 25.0, 11.0, 16.0, 13.0, 18.0, 30.0, 9.0, 33.0, 20.0, 10.0, 34.0, 15.0, 19.0, 27.0, 12.0, 69.0, 12.0, 15.0, 56.0, 15.0, 14.0, 22.0, 37.0, 13.0, 18.0, 17.0, 19.0, 19.0, 14.0, 17.0, 8.0, 36.0, 31.0, 18.0, 25.0, 4.0, 33.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 19.0, 21.0, 36.0, 25.0, 1.0, 39.0, 39.0, 71.0, 6.0, 18.0, 28.0, 14.0, 53.0, 2.0, 22.0, 9.0, 15.0, 29.0, 34.0, 11.0, 13.0, 15.0, 3.0, 4.0, 13.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 28.0, 11.0, 65.0, 8.0, 13.0, 23.0, 22.0, 73.0, 3.0, 21.0, 3.0, 3.0, 29.0, 19.0, 22.0, 18.0, 17.0, 50.0, 8.0, 14.0, 34.0, 15.0, 6.0, 9.0, 2.0, 8.0, 5.0, 54.0, 12.0, 37.0, 7.0, 39.0, 1.0, 22.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 20.0, 17.0, 2.0, 42.0, 5.0, 21.0, 14.0, 5.0, 5.0, 1.0, 44.0, 6.0, 2.0, 5.0, 8.0, 8.0, 29.0, 31.0, 4.0, 13.0, 7.0, 17.0, 2.0, 14.0, 24.0, 15.0, 24.0, 17.0, 22.0, 11.0, 5.0, 20.0, 62.0, 15.0, 19.0, 28.0, 11.0, 11.0, 10.0, 3.0, 10.0, 5.0, 31.0, 31.0, 13.0, 7.0, 16.0, 33.0, 14.0, 15.0, 26.0, 6.0, 39.0, 4.0, 38.0, 16.0, 6.0, 16.0, 19.0, 7.0, 12.0, 6.0, 54.0, 10.0, 2.0, 25.0, 6.0, 4.0, 10.0, 19.0, 23.0, 20.0, 1.0, 7.0, 66.0, 23.0, 38.0, 9.0, 4.0, 78.0, 10.0, 48.0, 20.0, 0.0, 65.0, 7.0, 52.0, 1.0, 18.0, 25.0, 16.0, 6.0, 2.0, 58.0, 3.0, 16.0, 32.0, 12.0, 20.0, 26.0, 4.0, 3.0, 25.0, 3.0, 49.0, 18.0, 40.0, 8.0, 14.0, 19.0, 11.0, 61.0, 12.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 29.0, 39.0, 0.0, 6.0, 6.0, 21.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 28.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 40.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 20.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 57.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 47.0, 31.0]</t>
+          <t>[6.0, 7.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 15.0, 7.0, 25.0, 25.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 5.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 16.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 28.0, 25.0, 15.0, 26.0, 6.0, 29.0, 16.0, 20.0, 12.0, 41.0, 7.0, 6.0, 1.0, 10.0, 16.0, 11.0, 11.0, 14.0, 30.0, 16.0, 18.0, 4.0, 12.0, 9.0, 10.0, 16.0, 12.0, 10.0, 31.0, 3.0, 35.0, 2.0, 11.0, 9.0, 2.0, 2.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 31.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 32.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 14.0, 17.0, 10.0, 17.0, 42.0, 19.0, 12.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 8.0, 27.0, 14.0, 87.0, 15.0, 23.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 4.0, 6.0, 28.0, 7.0, 25.0, 48.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 55.0, 19.0, 12.0, 37.0, 5.0, 10.0, 13.0, 7.0, 87.0, 8.0, 22.0, 11.0, 19.0, 18.0, 28.0, 9.0, 20.0, 22.0, 46.0, 41.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 20.0, 21.0, 3.0, 35.0, 29.0, 10.0, 17.0, 6.0, 10.0, 30.0, 8.0, 19.0, 13.0, 1.0, 5.0, 14.0, 11.0, 18.0, 2.0, 12.0, 45.0, 7.0, 18.0, 3.0, 24.0, 12.0, 15.0, 21.0, 10.0, 4.0, 14.0, 10.0, 29.0, 45.0, 3.0, 27.0, 28.0, 2.0, 5.0, 24.0, 19.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 15.0, 10.0, 10.0, 44.0, 14.0, 21.0, 51.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 15.0, 16.0, 28.0, 17.0, 23.0, 82.0, 19.0, 48.0, 15.0, 31.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 63.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 120.0, 51.0, 39.0, 12.0, 67.0, 49.0, 7.0, 25.0, 10.0, 5.0, 9.0, 33.0, 24.0, 4.0, 7.0, 38.0, 4.0, 4.0, 1.0, 15.0, 6.0, 9.0, 1.0, 9.0, 1.0, 12.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 5.0, 14.0, 6.0, 7.0, 5.0, 19.0, 18.0, 28.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 38.0, 5.0, 4.0, 5.0, 18.0, 29.0, 48.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 110.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 101.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 11.0, 28.0, 12.0, 13.0, 12.0, 16.0, 12.0, 5.0, 4.0, 7.0, 30.0, 47.0, 52.0, 14.0, 14.0, 10.0, 34.0, 24.0, 13.0, 25.0, 9.0, 15.0, 25.0, 25.0, 11.0, 16.0, 13.0, 18.0, 30.0, 9.0, 33.0, 20.0, 10.0, 34.0, 15.0, 19.0, 27.0, 12.0, 69.0, 12.0, 15.0, 56.0, 15.0, 14.0, 22.0, 37.0, 13.0, 18.0, 17.0, 19.0, 19.0, 14.0, 17.0, 8.0, 36.0, 31.0, 18.0, 25.0, 4.0, 33.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 104.0, 127.0, 127.0, 116.0, 19.0, 132.0, 21.0, 36.0, 25.0, 1.0, 105.0, 39.0, 39.0, 71.0, 6.0, 18.0, 28.0, 14.0, 99.0, 53.0, 2.0, 22.0, 9.0, 15.0, 29.0, 34.0, 11.0, 13.0, 15.0, 3.0, 4.0, 13.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 28.0, 11.0, 65.0, 8.0, 13.0, 23.0, 22.0, 73.0, 3.0, 21.0, 3.0, 3.0, 29.0, 19.0, 22.0, 18.0, 17.0, 50.0, 8.0, 14.0, 34.0, 15.0, 6.0, 9.0, 2.0, 8.0, 5.0, 54.0, 12.0, 37.0, 7.0, 39.0, 1.0, 22.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 20.0, 17.0, 2.0, 42.0, 5.0, 21.0, 14.0, 5.0, 5.0, 1.0, 44.0, 6.0, 2.0, 5.0, 8.0, 118.0, 8.0, 29.0, 31.0, 4.0, 118.0, 13.0, 7.0, 17.0, 2.0, 14.0, 24.0, 15.0, 24.0, 17.0, 22.0, 11.0, 5.0, 20.0, 62.0, 15.0, 19.0, 28.0, 11.0, 11.0, 10.0, 3.0, 10.0, 5.0, 31.0, 31.0, 13.0, 7.0, 16.0, 33.0, 14.0, 15.0, 26.0, 6.0, 39.0, 4.0, 38.0, 16.0, 6.0, 16.0, 19.0, 7.0, 12.0, 6.0, 54.0, 10.0, 2.0, 25.0, 6.0, 4.0, 10.0, 19.0, 23.0, 20.0, 1.0, 7.0, 66.0, 23.0, 38.0, 9.0, 4.0, 78.0, 10.0, 48.0, 20.0, 0.0, 65.0, 7.0, 52.0, 1.0, 18.0, 25.0, 16.0, 6.0, 2.0, 58.0, 3.0, 16.0, 32.0, 12.0, 20.0, 26.0, 4.0, 3.0, 25.0, 3.0, 49.0, 18.0, 40.0, 8.0, 14.0, 19.0, 113.0, 11.0, 61.0, 12.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 29.0, 39.0, 0.0, 6.0, 6.0, 21.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 28.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 40.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 20.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 57.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 47.0, 31.0]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[7.0, 15.0, 25.0, 25.0, 5.0, 16.0, 28.0, 6.0, 29.0, 16.0, 20.0, 1.0, 16.0, 11.0, 18.0, 16.0, 2.0, 32.0, 14.0, 12.0, 27.0, 87.0, 15.0, 23.0, 4.0, 28.0, 7.0, 55.0, 37.0, 10.0, 87.0, 20.0, 41.0, 20.0, 17.0, 30.0, 14.0, 11.0, 45.0, 18.0, 10.0, 29.0, 27.0, 19.0, 21.0, 51.0, 15.0, 17.0, 82.0, 19.0, 48.0, 15.0, 31.0, 63.0, 67.0, 10.0, 38.0, 15.0, 9.0, 12.0, 28.0, 38.0, 48.0, 14.0, 11.0, 12.0, 47.0, 34.0, 24.0, 15.0, 25.0, 11.0, 13.0, 10.0, 34.0, 69.0, 15.0, 37.0, 19.0, 31.0, 18.0, 33.0, 19.0, 18.0, 14.0, 53.0, 9.0, 34.0, 11.0, 3.0, 13.0, 8.0, 13.0, 23.0, 22.0, 21.0, 19.0, 50.0, 14.0, 34.0, 15.0, 5.0, 37.0, 39.0, 22.0, 20.0, 21.0, 44.0, 29.0, 31.0, 17.0, 17.0, 20.0, 15.0, 28.0, 11.0, 16.0, 33.0, 15.0, 4.0, 38.0, 16.0, 6.0, 54.0, 25.0, 19.0, 23.0, 7.0, 38.0, 48.0, 65.0, 52.0, 18.0, 16.0, 16.0, 32.0, 26.0, 3.0, 18.0, 40.0, 14.0, 19.0, 12.0, 29.0, 21.0, 28.0, 40.0, 20.0, 57.0, 47.0]</t>
+          <t>[7.0, 15.0, 25.0, 25.0, 5.0, 16.0, 28.0, 6.0, 29.0, 16.0, 20.0, 1.0, 16.0, 11.0, 18.0, 16.0, 2.0, 32.0, 14.0, 12.0, 27.0, 87.0, 15.0, 23.0, 4.0, 28.0, 7.0, 55.0, 37.0, 10.0, 87.0, 20.0, 41.0, 20.0, 17.0, 30.0, 14.0, 11.0, 45.0, 18.0, 10.0, 29.0, 27.0, 19.0, 21.0, 51.0, 15.0, 17.0, 82.0, 19.0, 48.0, 15.0, 31.0, 63.0, 120.0, 67.0, 10.0, 38.0, 15.0, 9.0, 12.0, 28.0, 38.0, 48.0, 14.0, 110.0, 11.0, 12.0, 47.0, 34.0, 24.0, 15.0, 25.0, 11.0, 13.0, 10.0, 34.0, 69.0, 15.0, 37.0, 19.0, 31.0, 18.0, 33.0, 127.0, 127.0, 116.0, 19.0, 132.0, 18.0, 14.0, 99.0, 53.0, 9.0, 34.0, 11.0, 3.0, 13.0, 8.0, 13.0, 23.0, 22.0, 21.0, 19.0, 50.0, 14.0, 34.0, 15.0, 5.0, 37.0, 39.0, 22.0, 20.0, 21.0, 44.0, 29.0, 31.0, 17.0, 17.0, 20.0, 15.0, 28.0, 11.0, 16.0, 33.0, 15.0, 4.0, 38.0, 16.0, 6.0, 54.0, 25.0, 19.0, 23.0, 7.0, 38.0, 48.0, 65.0, 52.0, 18.0, 16.0, 16.0, 32.0, 26.0, 3.0, 18.0, 40.0, 14.0, 19.0, 113.0, 12.0, 29.0, 21.0, 28.0, 40.0, 20.0, 57.0, 47.0]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[6.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 7.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 15.0, 26.0, 12.0, 41.0, 7.0, 6.0, 10.0, 11.0, 14.0, 30.0, 16.0, 4.0, 12.0, 9.0, 10.0, 12.0, 10.0, 31.0, 35.0, 2.0, 11.0, 9.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 17.0, 10.0, 17.0, 42.0, 19.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 14.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 6.0, 25.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 19.0, 12.0, 5.0, 13.0, 7.0, 8.0, 22.0, 11.0, 19.0, 28.0, 9.0, 22.0, 46.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 21.0, 3.0, 35.0, 10.0, 6.0, 10.0, 8.0, 19.0, 13.0, 1.0, 5.0, 18.0, 2.0, 12.0, 7.0, 3.0, 24.0, 12.0, 15.0, 21.0, 4.0, 14.0, 10.0, 45.0, 3.0, 2.0, 5.0, 24.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 10.0, 10.0, 44.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 16.0, 28.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 49.0, 7.0, 25.0, 5.0, 9.0, 33.0, 4.0, 7.0, 4.0, 4.0, 6.0, 9.0, 1.0, 1.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 14.0, 6.0, 5.0, 18.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 5.0, 4.0, 5.0, 18.0, 29.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 28.0, 12.0, 13.0, 12.0, 16.0, 7.0, 30.0, 52.0, 14.0, 14.0, 10.0, 13.0, 25.0, 9.0, 25.0, 16.0, 18.0, 30.0, 9.0, 33.0, 20.0, 15.0, 19.0, 27.0, 12.0, 12.0, 15.0, 14.0, 22.0, 13.0, 18.0, 17.0, 19.0, 14.0, 17.0, 8.0, 36.0, 25.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 21.0, 36.0, 25.0, 1.0, 39.0, 39.0, 71.0, 6.0, 28.0, 2.0, 22.0, 15.0, 29.0, 13.0, 15.0, 4.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 11.0, 65.0, 73.0, 3.0, 3.0, 3.0, 29.0, 22.0, 18.0, 17.0, 6.0, 9.0, 2.0, 8.0, 12.0, 7.0, 1.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 17.0, 2.0, 42.0, 5.0, 14.0, 5.0, 5.0, 1.0, 6.0, 2.0, 5.0, 8.0, 8.0, 4.0, 13.0, 7.0, 2.0, 14.0, 24.0, 15.0, 24.0, 22.0, 11.0, 5.0, 62.0, 19.0, 11.0, 10.0, 3.0, 10.0, 31.0, 31.0, 13.0, 7.0, 14.0, 26.0, 6.0, 39.0, 16.0, 19.0, 7.0, 12.0, 6.0, 10.0, 2.0, 6.0, 4.0, 10.0, 20.0, 1.0, 66.0, 23.0, 9.0, 4.0, 78.0, 10.0, 20.0, 0.0, 7.0, 1.0, 25.0, 6.0, 2.0, 58.0, 3.0, 12.0, 20.0, 4.0, 25.0, 3.0, 49.0, 8.0, 11.0, 61.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 39.0, 0.0, 6.0, 6.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 31.0]</t>
+          <t>[6.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 7.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 15.0, 26.0, 12.0, 41.0, 7.0, 6.0, 10.0, 11.0, 14.0, 30.0, 16.0, 4.0, 12.0, 9.0, 10.0, 12.0, 10.0, 31.0, 35.0, 2.0, 11.0, 9.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 17.0, 10.0, 17.0, 42.0, 19.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 14.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 6.0, 25.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 19.0, 12.0, 5.0, 13.0, 7.0, 8.0, 22.0, 11.0, 19.0, 28.0, 9.0, 22.0, 46.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 21.0, 3.0, 35.0, 10.0, 6.0, 10.0, 8.0, 19.0, 13.0, 1.0, 5.0, 18.0, 2.0, 12.0, 7.0, 3.0, 24.0, 12.0, 15.0, 21.0, 4.0, 14.0, 10.0, 45.0, 3.0, 2.0, 5.0, 24.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 10.0, 10.0, 44.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 16.0, 28.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 49.0, 7.0, 25.0, 5.0, 9.0, 33.0, 4.0, 7.0, 4.0, 4.0, 6.0, 9.0, 1.0, 1.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 14.0, 6.0, 5.0, 18.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 5.0, 4.0, 5.0, 18.0, 29.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 28.0, 12.0, 13.0, 12.0, 16.0, 7.0, 30.0, 52.0, 14.0, 14.0, 10.0, 13.0, 25.0, 9.0, 25.0, 16.0, 18.0, 30.0, 9.0, 33.0, 20.0, 15.0, 19.0, 27.0, 12.0, 12.0, 15.0, 14.0, 22.0, 13.0, 18.0, 17.0, 19.0, 14.0, 17.0, 8.0, 36.0, 25.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 104.0, 21.0, 36.0, 25.0, 1.0, 105.0, 39.0, 39.0, 71.0, 6.0, 28.0, 2.0, 22.0, 15.0, 29.0, 13.0, 15.0, 4.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 11.0, 65.0, 73.0, 3.0, 3.0, 3.0, 29.0, 22.0, 18.0, 17.0, 6.0, 9.0, 2.0, 8.0, 12.0, 7.0, 1.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 17.0, 2.0, 42.0, 5.0, 14.0, 5.0, 5.0, 1.0, 6.0, 2.0, 5.0, 8.0, 118.0, 8.0, 4.0, 118.0, 13.0, 7.0, 2.0, 14.0, 24.0, 15.0, 24.0, 22.0, 11.0, 5.0, 62.0, 19.0, 11.0, 10.0, 3.0, 10.0, 31.0, 31.0, 13.0, 7.0, 14.0, 26.0, 6.0, 39.0, 16.0, 19.0, 7.0, 12.0, 6.0, 10.0, 2.0, 6.0, 4.0, 10.0, 20.0, 1.0, 66.0, 23.0, 9.0, 4.0, 78.0, 10.0, 20.0, 0.0, 7.0, 1.0, 25.0, 6.0, 2.0, 58.0, 3.0, 12.0, 20.0, 4.0, 25.0, 3.0, 49.0, 8.0, 11.0, 61.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 39.0, 0.0, 6.0, 6.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 31.0]</t>
         </is>
       </c>
     </row>
@@ -2839,37 +2839,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 2.0, 0.0, 0.0, 6.0, 4.0, 3.0, 2.0, 0.0, 5.0, 5.0, 2.0, 0.0, 0.0, 3.0, 5.0, 0.0, 1.0, 0.0, 0.0, 10.0, 2.0, 1.0, 0.0, 2.0, 7.0, 3.0, 0.0, 0.0, 6.0, 2.0, 0.0, 0.0, 2.0, 19.0, 13.0, 0.0, 3.0, 15.0, 4.0, 0.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 4.0, 6.0, 3.0, 1.0, 4.0, 0.0, 0.0, 0.0, 0.0, 6.0, 13.0, 6.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 4.0, 2.0, 2.0, 4.0, 6.0, 5.0, 0.0, 3.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 0.0, 2.0, 0.0, 3.0, 3.0, 1.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 4.0, 0.0, 7.0, 2.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 12.0, 10.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 9.0, 1.0, 0.0, 0.0, 9.0, 4.0, 0.0, 8.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 4.0, 5.0, 1.0, 0.0, 0.0, 19.0, 1.0, 3.0, 1.0, 0.0, 0.0, 0.0, 2.0, 2.0, 0.0, 8.0, 2.0, 7.0, 7.0, 4.0, 4.0, 0.0, 0.0, 0.0, 4.0, 3.0, 5.0, 0.0, 0.0, 0.0, 17.0, 0.0, 0.0, 1.0, 0.0, 0.0, 15.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 6.0, 0.0, 0.0, 2.0, 6.0, 0.0, 3.0, 0.0, 7.0, 4.0, 8.0, 0.0, 3.0, 2.0, 2.0, 0.0, 0.0, 6.0, 1.0, 0.0, 3.0, 3.0, 9.0, 0.0, 0.0, 0.0, 1.0, 13.0, 0.0, 0.0, 10.0, 5.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 1.0, 0.0, 6.0, 1.0, 0.0, 0.0, 0.0, 3.0, 1.0, 2.0, 3.0, 3.0, 3.0, 6.0, 1.0, 0.0, 1.0, 3.0, 6.0, 0.0, 5.0, 5.0, 0.0, 3.0, 1.0, 3.0, 20.0, 2.0, 1.0, 10.0, 3.0, 20.0, 0.0, 5.0, 5.0, 4.0, 3.0, 9.0, 0.0, 5.0, 12.0, 8.0, 0.0, 0.0, 4.0, 14.0, 3.0, 1.0, 0.0, 16.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 1.0, 0.0, 7.0, 3.0, 0.0, 2.0, 0.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 4.0, 11.0, 3.0, 1.0, 1.0, 0.0, 5.0, 1.0, 1.0, 8.0, 0.0, 6.0, 1.0, 0.0, 1.0, 0.0, 13.0, 0.0, 21.0, 0.0, 2.0, 8.0, 2.0, 7.0, 1.0, 0.0, 0.0, 6.0, 0.0, 1.0, 0.0, 1.0, 12.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 10.0, 3.0, 3.0, 3.0, 0.0, 1.0, 0.0, 0.0, 7.0, 0.0, 1.0, 3.0, 4.0, 0.0, 13.0, 5.0, 9.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 2.0, 2.0, 3.0, 0.0, 8.0, 1.0, 8.0, 0.0, 0.0, 14.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 0.0, 5.0, 5.0, 4.0, 14.0, 0.0, 1.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 4.0, 5.0, 2.0, 1.0, 5.0, 0.0, 10.0, 14.0, 6.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 11.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 12.0, 5.0, 6.0, 2.0, 5.0, 0.0, 0.0, 8.0, 3.0, 5.0, 3.0, 2.0, 0.0, 3.0, 1.0, 6.0, 0.0, 0.0, 6.0, 3.0, 0.0, 0.0, 0.0, 0.0, 12.0, 0.0, 0.0, 5.0, 0.0, 0.0, 2.0, 0.0, 0.0, 6.0, 1.0, 0.0, 6.0, 1.0, 5.0, 0.0, 0.0, 0.0, 0.0, 2.0, 6.0, 8.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 8.0, 20.0, 3.0, 8.0, 0.0, 6.0, 0.0, 4.0, 3.0, 16.0, 0.0, 0.0, 0.0, 1.0, 12.0, 1.0, 0.0, 6.0, 8.0, 0.0, 4.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 4.0, 0.0, 1.0, 9.0, 1.0, 3.0, 21.0, 0.0, 2.0, 0.0, 0.0, 3.0, 4.0, 11.0, 3.0, 0.0, 4.0, 9.0, 3.0, 3.0, 4.0, 0.0, 4.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 0.0, 3.0, 4.0, 0.0, 18.0, 0.0, 4.0, 1.0, 2.0, 0.0, 1.0, 19.0, 0.0, 1.0, 0.0, 3.0, 9.0, 12.0, 11.0, 2.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 11.0, 13.0, 0.0, 0.0, 3.0, 0.0, 4.0, 3.0, 0.0, 0.0, 4.0, 3.0, 6.0, 0.0, 2.0, 4.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 8.0, 1.0, 1.0, 3.0, 0.0, 0.0, 6.0, 0.0, 0.0, 13.0, 0.0, 0.0, 0.0, 1.0, 0.0, 5.0, 0.0, 0.0, 10.0, 0.0, 0.0, 0.0, 0.0, 7.0, 3.0, 7.0, 0.0, 7.0, 0.0, 1.0, 2.0, 1.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 7.0, 2.0, 5.0, 1.0, 3.0, 1.0, 0.0, 4.0, 3.0, 0.0, 7.0, 7.0, 9.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 14.0, 5.0, 14.0, 0.0, 0.0, 1.0, 2.0, 0.0, 3.0, 11.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 3.0, 4.0, 0.0, 0.0, 1.0, 2.0, 6.0, 0.0, 3.0, 1.0, 20.0, 2.0, 0.0, 1.0, 16.0, 0.0, 0.0, 2.0, 0.0, 0.0, 7.0, 4.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 9.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 2.0, 2.0, 4.0, 0.0, 5.0, 0.0, 2.0, 2.0, 8.0, 0.0, 4.0, 0.0, 1.0, 0.0, 12.0, 3.0, 3.0, 3.0, 6.0, 0.0, 0.0, 12.0, 0.0, 3.0, 0.0, 7.0, 2.0, 0.0, 16.0, 1.0, 5.0, 0.0, 4.0, 0.0, 2.0, 0.0, 9.0, 2.0, 6.0, 0.0, 1.0, 5.0, 19.0, 3.0, 0.0, 0.0, 0.0, 6.0, 3.0, 4.0, 14.0, 3.0, 4.0, 17.0, 0.0, 1.0, 0.0, 10.0, 5.0, 2.0, 0.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 8.0, 1.0, 0.0, 3.0, 0.0, 9.0, 0.0, 15.0, 0.0, 2.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 5.0, 1.0, 0.0, 4.0, 2.0, 6.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 4.0, 10.0, 11.0, 9.0, 0.0, 1.0, 4.0, 4.0, 2.0, 4.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 2.0, 0.0, 13.0, 5.0, 11.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 2.0, 2.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 1.0, 5.0, 3.0, 3.0, 11.0, 3.0, 0.0, 5.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 16.0, 6.0, 0.0, 3.0, 0.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 2.0, 0.0, 6.0, 2.0, 2.0, 0.0, 2.0, 7.0, 2.0, 4.0, 0.0, 6.0, 4.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 0.0, 3.0, 1.0, 0.0, 0.0, 11.0, 2.0, 10.0, 7.0, 0.0, 19.0, 8.0, 1.0, 0.0, 1.0, 0.0, 10.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 4.0, 4.0, 0.0, 5.0, 2.0, 0.0, 2.0, 2.0, 0.0, 4.0, 14.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 4.0, 8.0, 2.0, 2.0, 14.0, 14.0, 1.0, 3.0, 4.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 3.0, 0.0, 3.0, 2.0, 0.0, 5.0, 0.0, 5.0, 3.0, 0.0, 6.0, 6.0, 1.0, 0.0, 3.0, 4.0, 18.0, 5.0, 3.0, 0.0, 0.0, 6.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 5.0, 2.0, 0.0, 9.0, 4.0, 6.0, 4.0, 3.0, 0.0, 2.0, 0.0, 5.0, 0.0, 1.0, 8.0, 1.0, 12.0, 0.0, 3.0, 1.0, 1.0, 0.0, 1.0, 1.0, 3.0, 0.0, 0.0, 0.0, 17.0, 0.0, 0.0, 20.0, 11.0, 2.0, 2.0, 0.0, 1.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 5.0, 4.0, 5.0, 2.0, 5.0, 2.0, 1.0, 1.0, 0.0, 1.0, 2.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 4.0, 0.0, 5.0, 1.0, 1.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 8.0, 19.0, 1.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 2.0, 9.0, 0.0, 3.0, 1.0, 1.0, 4.0, 0.0, 1.0, 1.0, 3.0, 0.0, 0.0, 1.0, 0.0, 4.0, 2.0, 0.0, 2.0, 3.0, 0.0, 2.0, 6.0, 0.0, 6.0, 17.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 9.0, 17.0, 3.0, 0.0, 7.0, 4.0, 1.0, 0.0, 3.0, 2.0, 0.0, 0.0, 2.0, 2.0, 2.0, 2.0, 0.0, 1.0, 12.0, 0.0, 0.0, 0.0, 12.0, 5.0, 0.0, 0.0, 4.0, 0.0, 4.0, 0.0, 2.0, 0.0, 3.0, 0.0, 5.0, 2.0, 11.0, 4.0, 2.0, 0.0, 2.0, 0.0, 1.0, 2.0, 15.0, 5.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 10.0, 1.0, 3.0, 17.0, 3.0, 3.0, 1.0, 5.0, 0.0, 0.0, 0.0, 0.0, 3.0, 7.0, 4.0, 0.0, 3.0, 6.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 0.0, 0.0, 14.0, 3.0, 0.0, 9.0, 20.0, 1.0, 21.0, 1.0, 1.0, 1.0, 2.0, 4.0, 0.0, 5.0, 18.0, 0.0, 11.0, 3.0, 0.0, 5.0, 6.0, 1.0, 0.0, 2.0, 0.0, 6.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 12.0, 9.0, 6.0, 1.0, 0.0, 2.0, 0.0, 1.0, 0.0, 17.0, 0.0, 2.0, 9.0, 0.0, 0.0, 6.0, 1.0, 4.0, 5.0, 2.0, 0.0, 6.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 0.0, 4.0, 4.0, 1.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 3.0, 1.0, 5.0, 0.0, 7.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 2.0, 6.0, 21.0, 0.0, 3.0, 0.0, 0.0, 0.0, 16.0, 0.0, 0.0, 2.0, 6.0, 11.0, 0.0, 0.0, 4.0, 1.0, 1.0, 2.0, 0.0, 3.0, 4.0, 2.0, 1.0, 0.0, 4.0, 0.0, 17.0, 0.0, 1.0, 2.0, 4.0, 0.0, 2.0, 0.0, 2.0, 4.0, 7.0, 0.0, 1.0, 20.0, 3.0, 4.0, 21.0, 1.0, 0.0, 7.0, 0.0, 0.0, 0.0, 8.0, 0.0, 7.0, 18.0, 0.0, 3.0, 0.0, 4.0, 2.0, 4.0, 15.0, 0.0, 1.0, 3.0, 2.0, 0.0, 0.0, 0.0, 4.0, 0.0, 11.0, 0.0, 4.0, 2.0, 1.0, 4.0, 4.0, 2.0, 0.0, 0.0, 5.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 4.0, 1.0, 18.0, 2.0, 0.0, 9.0, 0.0, 3.0, 3.0, 0.0, 0.0, 17.0, 0.0, 16.0, 6.0, 0.0, 3.0, 4.0, 1.0, 0.0, 0.0, 2.0, 0.0, 2.0, 3.0, 0.0, 2.0, 7.0, 5.0, 0.0, 1.0, 10.0, 3.0, 1.0, 2.0, 2.0, 0.0, 3.0, 8.0, 19.0, 19.0, 8.0, 1.0, 9.0, 10.0, 0.0, 0.0, 13.0, 3.0, 0.0, 1.0, 4.0, 17.0, 0.0, 0.0, 3.0, 0.0, 8.0, 0.0, 4.0, 6.0, 2.0, 0.0, 0.0, 0.0, 1.0, 7.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 10.0, 0.0, 0.0, 1.0, 2.0, 9.0, 1.0, 0.0, 2.0, 3.0, 0.0, 8.0, 6.0, 0.0, 0.0, 5.0, 0.0, 2.0, 2.0, 2.0, 15.0, 0.0, 2.0, 3.0, 2.0, 0.0, 0.0, 0.0, 7.0, 1.0, 1.0, 13.0, 0.0, 13.0, 5.0, 2.0, 0.0, 12.0, 18.0, 18.0, 1.0, 7.0, 12.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 13.0, 2.0, 5.0, 6.0, 5.0, 5.0, 4.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 14.0, 0.0, 3.0, 8.0, 0.0, 6.0, 4.0, 10.0, 13.0, 1.0, 16.0, 0.0, 2.0, 1.0, 12.0, 3.0, 0.0, 1.0, 0.0, 1.0, 0.0, 4.0, 11.0, 0.0, 0.0, 0.0, 2.0, 5.0, 4.0, 4.0, 2.0, 3.0, 0.0, 3.0, 0.0, 0.0, 0.0, 15.0, 6.0, 1.0, 0.0, 0.0, 15.0, 4.0, 0.0, 4.0, 20.0, 3.0, 0.0, 15.0, 0.0, 2.0, 6.0, 6.0, 0.0, 1.0, 18.0, 12.0, 0.0, 0.0, 3.0, 7.0, 1.0, 3.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 2.0, 3.0, 0.0, 1.0, 21.0, 7.0, 4.0, 0.0, 5.0, 4.0, 0.0, 4.0, 16.0, 8.0, 10.0, 0.0, 0.0, 16.0, 15.0, 0.0, 0.0, 4.0, 3.0, 2.0, 4.0, 17.0, 1.0, 2.0, 3.0, 0.0, 0.0, 0.0, 0.0, 3.0, 4.0, 7.0, 0.0, 0.0, 5.0, 5.0, 7.0, 11.0, 0.0, 0.0, 0.0, 0.0, 4.0, 12.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 4.0, 0.0, 1.0, 6.0, 12.0, 4.0, 4.0, 11.0, 7.0, 5.0, 12.0, 7.0, 0.0, 0.0, 7.0, 9.0, 2.0, 1.0, 0.0, 20.0, 6.0, 3.0, 0.0, 0.0, 0.0, 8.0, 0.0, 8.0, 1.0, 4.0, 3.0, 0.0, 0.0, 3.0, 15.0, 8.0, 1.0, 0.0, 0.0, 4.0, 18.0, 3.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 6.0, 2.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 2.0, 3.0, 0.0, 12.0, 0.0, 4.0, 0.0, 0.0, 6.0, 1.0, 6.0, 5.0, 0.0, 2.0, 2.0, 6.0, 0.0, 0.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 0.0, 1.0, 4.0, 4.0, 0.0, 2.0, 0.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 4.0, 1.0, 0.0, 0.0, 2.0, 0.0, 4.0, 8.0, 4.0, 0.0, 2.0, 2.0, 2.0, 7.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 5.0, 1.0, 1.0, 1.0, 3.0, 0.0, 7.0, 1.0, 0.0, 3.0, 3.0, 0.0, 0.0, 8.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 10.0, 2.0, 3.0, 0.0, 1.0, 0.0, 14.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 5.0, 8.0, 1.0, 0.0, 3.0, 1.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 7.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 4.0, 3.0, 6.0, 2.0, 1.0, 1.0, 9.0, 0.0, 0.0, 0.0, 1.0, 8.0, 0.0, 2.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 5.0, 0.0, 6.0, 1.0, 0.0, 3.0, 0.0, 0.0, 6.0, 1.0, 0.0, 4.0, 0.0, 1.0, 16.0, 0.0, 6.0, 10.0, 2.0, 1.0, 10.0, 0.0, 9.0, 6.0, 7.0, 16.0, 0.0, 0.0, 9.0, 0.0, 0.0, 16.0, 0.0, 0.0, 12.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 4.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 6.0, 6.0, 6.0, 4.0, 4.0, 3.0, 1.0, 1.0, 0.0, 15.0, 11.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 5.0, 9.0, 0.0, 6.0, 0.0, 2.0, 12.0, 0.0, 4.0, 13.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 8.0, 4.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 6.0, 1.0, 6.0, 0.0, 4.0, 1.0, 5.0, 0.0, 11.0, 4.0, 2.0, 0.0, 4.0, 1.0, 0.0, 4.0, 1.0, 1.0, 7.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 5.0, 2.0, 7.0, 4.0, 3.0, 8.0, 7.0, 13.0, 0.0, 1.0, 0.0, 0.0, 15.0, 1.0, 0.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 5.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 9.0, 4.0, 13.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 5.0, 0.0, 6.0, 6.0, 5.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 3.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 9.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 16.0, 1.0, 1.0, 3.0, 0.0, 0.0, 11.0, 0.0, 21.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 14.0, 3.0, 0.0, 4.0, 1.0, 1.0, 0.0, 16.0, 1.0, 0.0, 1.0, 7.0, 3.0, 1.0, 5.0, 1.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 5.0, 3.0, 6.0, 0.0, 0.0, 1.0, 2.0, 0.0, 0.0, 2.0, 7.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 2.0, 0.0, 6.0, 9.0, 0.0, 3.0, 2.0, 5.0, 2.0, 3.0, 4.0, 6.0, 0.0, 12.0, 2.0, 1.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 19.0, 6.0, 0.0, 4.0, 2.0, 5.0, 0.0, 2.0, 0.0, 0.0, 3.0, 5.0, 4.0, 4.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 7.0, 1.0, 11.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 3.0, 6.0, 12.0, 7.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 5.0, 2.0, 0.0, 1.0, 0.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 9.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 0.0, 6.0, 9.0, 0.0, 0.0, 0.0, 0.0, 20.0, 0.0, 1.0, 1.0, 3.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 1.0, 3.0, 2.0, 1.0, 12.0, 1.0, 0.0, 1.0, 4.0, 0.0, 1.0, 4.0, 0.0, 2.0, 3.0, 2.0, 0.0, 3.0, 17.0, 0.0, 2.0, 0.0, 5.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 14.0, 3.0, 3.0, 1.0, 3.0, 6.0, 2.0, 0.0, 10.0, 0.0, 1.0, 4.0, 5.0, 3.0, 1.0, 5.0, 0.0, 5.0, 2.0, 6.0, 0.0, 0.0, 6.0, 3.0, 6.0, 7.0, 0.0, 1.0, 0.0, 3.0, 2.0, 6.0, 2.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 3.0, 1.0, 5.0, 3.0, 2.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 3.0, 1.0, 0.0, 5.0, 0.0, 2.0, 3.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 21.0, 2.0, 0.0, 0.0, 0.0, 14.0, 3.0, 4.0, 3.0, 0.0, 5.0, 6.0, 5.0, 5.0, 3.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 4.0, 4.0, 0.0, 1.0, 1.0, 1.0, 2.0, 0.0, 3.0, 1.0, 3.0, 4.0, 7.0, 0.0, 3.0, 0.0, 0.0, 3.0, 4.0, 10.0, 0.0, 7.0, 4.0, 5.0, 0.0, 0.0, 0.0, 6.0, 1.0, 1.0, 3.0, 0.0, 0.0, 6.0, 2.0, 0.0, 7.0, 13.0, 0.0, 0.0, 3.0, 1.0, 5.0, 1.0, 0.0, 2.0, 5.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 3.0, 4.0, 0.0, 0.0, 5.0, 1.0, 0.0, 2.0, 4.0, 0.0, 0.0, 0.0, 0.0, 10.0, 0.0, 15.0, 0.0, 14.0, 1.0, 1.0, 6.0, 1.0, 0.0, 0.0, 0.0, 3.0, 11.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 6.0, 1.0, 1.0, 1.0, 0.0, 0.0, 2.0, 2.0, 0.0, 16.0, 5.0, 2.0, 0.0, 1.0, 2.0, 4.0, 0.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 10.0, 0.0, 1.0, 3.0, 2.0, 0.0, 7.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 5.0, 0.0, 0.0, 0.0, 3.0, 1.0, 1.0, 9.0, 0.0, 3.0, 6.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 5.0, 10.0, 0.0, 4.0, 5.0, 10.0, 10.0, 4.0, 2.0, 3.0, 0.0, 6.0, 1.0, 3.0, 1.0, 0.0, 1.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 18.0, 5.0, 0.0, 1.0, 0.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 1.0, 5.0, 0.0, 0.0, 1.0, 1.0, 4.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 7.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 9.0, 1.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 3.0, 15.0, 0.0, 4.0, 5.0, 0.0, 3.0, 0.0, 1.0, 7.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 2.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 6.0, 5.0, 0.0, 0.0, 4.0, 2.0, 4.0, 3.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 3.0, 3.0, 13.0, 0.0, 1.0, 2.0, 1.0, 0.0, 2.0, 1.0, 0.0, 4.0, 3.0, 1.0, 5.0, 4.0, 4.0, 2.0, 0.0, 2.0, 1.0, 3.0, 2.0, 6.0, 2.0, 6.0, 8.0, 0.0, 1.0, 7.0, 0.0, 0.0, 5.0, 3.0, 0.0, 0.0, 0.0, 2.0, 1.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 0.0, 4.0, 0.0, 1.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 4.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 9.0, 0.0, 0.0, 11.0, 0.0, 0.0, 4.0, 2.0, 2.0, 0.0, 3.0, 2.0, 3.0, 18.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 2.0, 0.0, 6.0, 7.0, 5.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 6.0, 3.0, 0.0, 6.0, 0.0, 4.0, 2.0, 0.0, 1.0, 2.0, 0.0, 3.0, 0.0, 2.0, 3.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 2.0, 6.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 7.0, 5.0, 2.0, 1.0, 7.0, 0.0, 0.0, 0.0, 3.0, 6.0, 0.0, 2.0, 5.0, 0.0, 1.0, 0.0, 4.0, 2.0, 3.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 6.0, 5.0, 1.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 1.0, 16.0, 0.0, 6.0, 1.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 7.0, 1.0, 0.0, 5.0, 0.0, 1.0, 17.0, 0.0, 0.0, 0.0, 6.0, 1.0, 0.0, 1.0, 0.0, 6.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 5.0, 5.0, 3.0, 0.0, 6.0, 5.0, 0.0, 1.0, 0.0, 5.0, 1.0, 3.0, 0.0, 3.0, 1.0, 0.0, 6.0, 1.0, 2.0, 3.0, 0.0, 6.0, 2.0, 3.0, 0.0, 0.0, 0.0, 1.0, 1.0, 4.0, 1.0, 4.0, 7.0, 6.0, 1.0, 2.0, 0.0, 2.0, 0.0, 0.0, 6.0, 6.0, 3.0, 1.0, 0.0, 2.0, 1.0, 0.0, 0.0, 1.0, 0.0, 18.0, 7.0, 5.0, 3.0, 2.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 1.0, 6.0, 1.0, 4.0, 3.0, 5.0, 2.0, 2.0, 0.0, 3.0, 0.0, 10.0, 2.0, 0.0, 0.0, 2.0, 0.0, 1.0, 3.0, 0.0, 0.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 1.0, 0.0, 0.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 0.0, 4.0, 0.0, 1.0, 3.0, 2.0, 0.0, 2.0, 0.0, 3.0, 2.0, 0.0, 3.0, 21.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 1.0, 0.0, 1.0, 1.0, 5.0, 0.0, 2.0, 3.0, 4.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 4.0, 3.0, 2.0, 0.0, 2.0, 0.0, 0.0, 4.0, 3.0, 0.0, 5.0, 8.0, 5.0, 1.0, 0.0, 4.0, 1.0, 4.0, 1.0, 1.0, 2.0, 1.0, 2.0, 2.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 1.0, 3.0, 1.0, 0.0, 1.0, 0.0, 1.0, 2.0, 10.0, 0.0, 1.0, 4.0, 6.0, 0.0, 0.0, 0.0, 3.0, 2.0, 2.0, 6.0, 0.0, 1.0, 2.0, 4.0, 2.0, 2.0, 2.0, 3.0, 3.0, 0.0, 1.0, 0.0, 4.0, 5.0, 2.0, 8.0, 3.0, 3.0, 2.0, 7.0, 0.0, 1.0, 5.0, 0.0, 0.0, 5.0, 4.0, 0.0, 0.0, 3.0, 9.0, 3.0, 4.0, 0.0, 3.0, 10.0, 1.0, 2.0, 7.0, 4.0, 4.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 10.0, 3.0, 1.0, 0.0, 5.0, 2.0, 4.0, 1.0, 3.0, 5.0, 0.0, 2.0, 0.0, 2.0, 2.0, 0.0, 0.0, 3.0, 0.0, 3.0, 0.0, 4.0, 2.0, 4.0, 2.0, 1.0, 5.0, 0.0, 0.0, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 5.0, 4.0, 0.0, 2.0, 3.0, 0.0, 0.0, 1.0, 1.0, 13.0, 2.0, 1.0, 3.0, 0.0, 2.0, 0.0, 3.0, 1.0, 4.0, 4.0, 0.0, 0.0, 3.0, 4.0, 2.0, 0.0, 3.0, 0.0, 3.0, 1.0, 5.0, 1.0, 4.0, 0.0, 4.0, 5.0, 5.0, 0.0, 3.0, 0.0, 7.0, 4.0, 2.0, 1.0, 0.0, 0.0, 0.0, 3.0, 1.0, 2.0, 4.0, 0.0, 4.0, 0.0, 1.0, 1.0, 3.0, 4.0, 10.0, 2.0, 15.0, 0.0, 0.0, 5.0, 0.0, 6.0, 1.0, 5.0, 6.0, 2.0, 2.0, 3.0, 0.0, 1.0, 0.0, 6.0, 0.0, 0.0, 4.0, 3.0, 1.0, 2.0, 10.0, 3.0, 0.0, 0.0, 0.0, 3.0, 9.0, 0.0, 2.0, 0.0, 0.0, 2.0, 14.0, 0.0, 0.0, 0.0, 5.0, 0.0, 3.0, 3.0, 2.0, 1.0, 1.0, 4.0, 0.0, 4.0, 1.0, 3.0, 2.0, 3.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 0.0, 3.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 2.0, 6.0, 2.0, 1.0, 2.0, 2.0, 11.0, 4.0, 0.0, 7.0, 1.0, 0.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 5.0, 0.0, 0.0, 4.0, 3.0, 1.0, 0.0, 7.0, 4.0, 0.0, 0.0, 12.0, 0.0, 6.0, 2.0, 0.0, 0.0, 2.0, 2.0, 3.0, 2.0, 5.0, 0.0, 1.0, 0.0, 4.0, 0.0, 8.0, 3.0, 1.0, 2.0, 1.0, 6.0, 0.0, 5.0, 18.0, 5.0, 16.0, 10.0, 0.0, 14.0, 6.0, 15.0, 3.0, 0.0, 2.0, 2.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 2.0, 0.0, 0.0, 6.0, 4.0, 3.0, 2.0, 0.0, 5.0, 5.0, 2.0, 0.0, 0.0, 3.0, 5.0, 0.0, 1.0, 0.0, 0.0, 10.0, 2.0, 1.0, 0.0, 2.0, 7.0, 3.0, 0.0, 0.0, 6.0, 2.0, 0.0, 0.0, 2.0, 19.0, 13.0, 0.0, 3.0, 15.0, 4.0, 0.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 4.0, 6.0, 3.0, 1.0, 4.0, 0.0, 0.0, 0.0, 0.0, 6.0, 13.0, 6.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 4.0, 2.0, 2.0, 4.0, 6.0, 5.0, 0.0, 3.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 0.0, 2.0, 0.0, 3.0, 3.0, 1.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 4.0, 0.0, 7.0, 2.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 12.0, 10.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 9.0, 1.0, 0.0, 0.0, 9.0, 4.0, 0.0, 8.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 4.0, 5.0, 1.0, 0.0, 0.0, 19.0, 1.0, 3.0, 1.0, 0.0, 0.0, 0.0, 2.0, 2.0, 0.0, 8.0, 2.0, 7.0, 7.0, 4.0, 4.0, 0.0, 0.0, 0.0, 4.0, 3.0, 5.0, 0.0, 0.0, 0.0, 17.0, 0.0, 0.0, 1.0, 0.0, 0.0, 15.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 6.0, 0.0, 0.0, 2.0, 6.0, 0.0, 3.0, 0.0, 7.0, 4.0, 8.0, 0.0, 3.0, 2.0, 2.0, 0.0, 0.0, 6.0, 1.0, 0.0, 3.0, 3.0, 9.0, 0.0, 0.0, 0.0, 1.0, 13.0, 0.0, 0.0, 10.0, 5.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 1.0, 0.0, 6.0, 1.0, 0.0, 0.0, 0.0, 3.0, 1.0, 2.0, 3.0, 3.0, 3.0, 6.0, 1.0, 0.0, 1.0, 3.0, 6.0, 0.0, 5.0, 5.0, 0.0, 3.0, 1.0, 3.0, 20.0, 2.0, 1.0, 10.0, 3.0, 20.0, 0.0, 5.0, 5.0, 4.0, 3.0, 9.0, 0.0, 5.0, 12.0, 8.0, 0.0, 0.0, 4.0, 14.0, 3.0, 1.0, 0.0, 16.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 1.0, 0.0, 7.0, 3.0, 0.0, 2.0, 0.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 4.0, 11.0, 3.0, 1.0, 1.0, 0.0, 5.0, 1.0, 1.0, 8.0, 0.0, 6.0, 1.0, 0.0, 1.0, 0.0, 13.0, 0.0, 21.0, 0.0, 2.0, 8.0, 2.0, 7.0, 1.0, 0.0, 0.0, 6.0, 0.0, 1.0, 0.0, 1.0, 12.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 10.0, 3.0, 3.0, 3.0, 0.0, 1.0, 0.0, 0.0, 7.0, 0.0, 1.0, 3.0, 4.0, 4.0, 0.0, 13.0, 5.0, 9.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 2.0, 2.0, 3.0, 0.0, 8.0, 1.0, 8.0, 0.0, 0.0, 14.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 0.0, 5.0, 5.0, 4.0, 14.0, 0.0, 1.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 0.0, 4.0, 5.0, 2.0, 1.0, 5.0, 0.0, 10.0, 14.0, 6.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 11.0, 5.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 12.0, 5.0, 6.0, 2.0, 5.0, 0.0, 0.0, 8.0, 3.0, 5.0, 3.0, 2.0, 0.0, 3.0, 1.0, 6.0, 0.0, 0.0, 6.0, 3.0, 0.0, 0.0, 0.0, 0.0, 12.0, 0.0, 0.0, 5.0, 0.0, 0.0, 2.0, 0.0, 0.0, 6.0, 1.0, 0.0, 6.0, 1.0, 5.0, 0.0, 0.0, 0.0, 0.0, 2.0, 6.0, 8.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 8.0, 20.0, 3.0, 8.0, 0.0, 0.0, 6.0, 0.0, 4.0, 3.0, 16.0, 0.0, 0.0, 0.0, 1.0, 12.0, 1.0, 0.0, 6.0, 8.0, 0.0, 4.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 4.0, 0.0, 1.0, 9.0, 1.0, 3.0, 21.0, 0.0, 2.0, 0.0, 0.0, 3.0, 4.0, 11.0, 3.0, 0.0, 4.0, 9.0, 3.0, 3.0, 4.0, 0.0, 4.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 0.0, 3.0, 4.0, 0.0, 18.0, 0.0, 4.0, 1.0, 2.0, 0.0, 1.0, 19.0, 0.0, 1.0, 0.0, 3.0, 9.0, 12.0, 11.0, 2.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 11.0, 13.0, 0.0, 0.0, 3.0, 0.0, 4.0, 3.0, 0.0, 0.0, 4.0, 3.0, 6.0, 0.0, 2.0, 4.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 8.0, 1.0, 1.0, 3.0, 0.0, 0.0, 6.0, 0.0, 0.0, 13.0, 0.0, 0.0, 0.0, 1.0, 0.0, 5.0, 0.0, 0.0, 10.0, 0.0, 0.0, 0.0, 0.0, 7.0, 3.0, 7.0, 0.0, 7.0, 0.0, 1.0, 2.0, 1.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 7.0, 2.0, 5.0, 1.0, 3.0, 1.0, 0.0, 4.0, 3.0, 0.0, 7.0, 7.0, 9.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 14.0, 5.0, 14.0, 0.0, 0.0, 0.0, 1.0, 2.0, 0.0, 3.0, 11.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 3.0, 4.0, 0.0, 0.0, 1.0, 2.0, 6.0, 0.0, 3.0, 1.0, 20.0, 2.0, 0.0, 1.0, 16.0, 0.0, 0.0, 2.0, 0.0, 0.0, 7.0, 4.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 9.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 3.0, 0.0, 1.0, 0.0, 2.0, 2.0, 4.0, 0.0, 5.0, 0.0, 2.0, 2.0, 8.0, 0.0, 4.0, 0.0, 1.0, 0.0, 12.0, 3.0, 3.0, 3.0, 6.0, 0.0, 0.0, 12.0, 0.0, 3.0, 0.0, 7.0, 2.0, 0.0, 16.0, 1.0, 5.0, 0.0, 4.0, 0.0, 2.0, 0.0, 9.0, 2.0, 6.0, 0.0, 1.0, 5.0, 19.0, 3.0, 0.0, 0.0, 0.0, 6.0, 3.0, 4.0, 14.0, 3.0, 4.0, 17.0, 0.0, 1.0, 0.0, 10.0, 5.0, 2.0, 0.0, 1.0, 6.0, 7.0, 0.0, 0.0, 3.0, 0.0, 8.0, 1.0, 0.0, 3.0, 0.0, 9.0, 0.0, 15.0, 0.0, 2.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 5.0, 1.0, 0.0, 4.0, 2.0, 6.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 4.0, 10.0, 11.0, 9.0, 0.0, 1.0, 4.0, 4.0, 2.0, 4.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 2.0, 0.0, 13.0, 5.0, 11.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 2.0, 2.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 1.0, 5.0, 3.0, 3.0, 11.0, 3.0, 0.0, 5.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 16.0, 6.0, 0.0, 3.0, 2.0, 0.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 2.0, 0.0, 6.0, 2.0, 2.0, 0.0, 2.0, 7.0, 2.0, 4.0, 0.0, 6.0, 4.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 0.0, 3.0, 1.0, 0.0, 0.0, 11.0, 2.0, 10.0, 7.0, 0.0, 19.0, 8.0, 1.0, 0.0, 1.0, 0.0, 10.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 0.0, 0.0, 4.0, 4.0, 0.0, 5.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 4.0, 14.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 4.0, 8.0, 2.0, 2.0, 14.0, 14.0, 1.0, 3.0, 4.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 3.0, 0.0, 3.0, 2.0, 0.0, 5.0, 0.0, 5.0, 3.0, 0.0, 0.0, 6.0, 6.0, 1.0, 2.0, 0.0, 3.0, 4.0, 18.0, 5.0, 3.0, 0.0, 0.0, 6.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 5.0, 2.0, 0.0, 9.0, 4.0, 6.0, 4.0, 3.0, 0.0, 2.0, 0.0, 5.0, 0.0, 1.0, 8.0, 1.0, 12.0, 0.0, 3.0, 1.0, 1.0, 0.0, 1.0, 1.0, 3.0, 0.0, 0.0, 0.0, 17.0, 17.0, 0.0, 0.0, 20.0, 11.0, 2.0, 2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 5.0, 4.0, 5.0, 2.0, 5.0, 2.0, 1.0, 1.0, 0.0, 1.0, 2.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 4.0, 0.0, 5.0, 1.0, 1.0, 2.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 12.0, 2.0, 0.0, 0.0, 0.0, 8.0, 19.0, 1.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 2.0, 9.0, 0.0, 3.0, 1.0, 1.0, 4.0, 0.0, 1.0, 1.0, 3.0, 0.0, 0.0, 1.0, 0.0, 4.0, 2.0, 0.0, 2.0, 3.0, 0.0, 2.0, 6.0, 0.0, 6.0, 17.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 9.0, 17.0, 3.0, 0.0, 7.0, 4.0, 1.0, 0.0, 3.0, 2.0, 0.0, 0.0, 2.0, 2.0, 2.0, 2.0, 0.0, 1.0, 12.0, 0.0, 0.0, 0.0, 12.0, 5.0, 0.0, 0.0, 4.0, 0.0, 4.0, 0.0, 2.0, 0.0, 3.0, 0.0, 5.0, 2.0, 11.0, 4.0, 2.0, 0.0, 2.0, 0.0, 1.0, 2.0, 15.0, 5.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 10.0, 1.0, 3.0, 17.0, 3.0, 3.0, 1.0, 5.0, 0.0, 0.0, 0.0, 0.0, 3.0, 7.0, 4.0, 0.0, 3.0, 6.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 0.0, 0.0, 14.0, 3.0, 0.0, 9.0, 20.0, 1.0, 21.0, 1.0, 1.0, 1.0, 2.0, 4.0, 0.0, 5.0, 18.0, 0.0, 11.0, 3.0, 0.0, 5.0, 6.0, 1.0, 0.0, 2.0, 0.0, 6.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 12.0, 9.0, 6.0, 1.0, 0.0, 2.0, 0.0, 1.0, 0.0, 17.0, 0.0, 2.0, 9.0, 0.0, 0.0, 6.0, 1.0, 4.0, 5.0, 2.0, 0.0, 6.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 0.0, 4.0, 4.0, 1.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 3.0, 1.0, 5.0, 0.0, 7.0, 0.0, 5.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 0.0, 2.0, 6.0, 21.0, 0.0, 3.0, 0.0, 0.0, 0.0, 16.0, 0.0, 0.0, 2.0, 6.0, 11.0, 0.0, 0.0, 4.0, 1.0, 1.0, 2.0, 0.0, 3.0, 4.0, 2.0, 1.0, 0.0, 4.0, 0.0, 17.0, 0.0, 1.0, 2.0, 4.0, 0.0, 2.0, 0.0, 2.0, 4.0, 7.0, 0.0, 1.0, 20.0, 3.0, 4.0, 21.0, 1.0, 0.0, 7.0, 0.0, 0.0, 0.0, 8.0, 0.0, 7.0, 18.0, 0.0, 3.0, 0.0, 4.0, 2.0, 4.0, 15.0, 0.0, 1.0, 3.0, 2.0, 0.0, 0.0, 0.0, 4.0, 0.0, 11.0, 0.0, 4.0, 2.0, 1.0, 4.0, 4.0, 2.0, 0.0, 0.0, 5.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 4.0, 1.0, 18.0, 2.0, 0.0, 9.0, 0.0, 3.0, 3.0, 0.0, 0.0, 17.0, 0.0, 16.0, 6.0, 0.0, 3.0, 4.0, 1.0, 0.0, 0.0, 2.0, 0.0, 2.0, 3.0, 0.0, 2.0, 7.0, 5.0, 0.0, 1.0, 10.0, 3.0, 1.0, 2.0, 2.0, 0.0, 3.0, 8.0, 19.0, 19.0, 8.0, 1.0, 9.0, 10.0, 0.0, 0.0, 13.0, 3.0, 0.0, 1.0, 4.0, 17.0, 0.0, 0.0, 3.0, 0.0, 8.0, 0.0, 4.0, 6.0, 2.0, 0.0, 0.0, 0.0, 1.0, 7.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 10.0, 0.0, 0.0, 1.0, 2.0, 9.0, 1.0, 0.0, 2.0, 3.0, 0.0, 8.0, 6.0, 0.0, 0.0, 5.0, 0.0, 2.0, 2.0, 2.0, 15.0, 0.0, 2.0, 3.0, 2.0, 0.0, 0.0, 1.0, 0.0, 7.0, 1.0, 1.0, 13.0, 0.0, 13.0, 5.0, 2.0, 0.0, 12.0, 18.0, 18.0, 1.0, 7.0, 12.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 13.0, 2.0, 5.0, 6.0, 5.0, 5.0, 4.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 14.0, 0.0, 3.0, 8.0, 0.0, 6.0, 4.0, 10.0, 13.0, 1.0, 16.0, 0.0, 2.0, 1.0, 12.0, 3.0, 0.0, 1.0, 0.0, 1.0, 0.0, 4.0, 11.0, 0.0, 0.0, 0.0, 2.0, 5.0, 4.0, 4.0, 2.0, 3.0, 0.0, 3.0, 0.0, 0.0, 0.0, 15.0, 6.0, 1.0, 0.0, 0.0, 15.0, 4.0, 0.0, 4.0, 20.0, 3.0, 0.0, 15.0, 0.0, 2.0, 6.0, 6.0, 0.0, 1.0, 18.0, 12.0, 0.0, 0.0, 3.0, 7.0, 1.0, 3.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 2.0, 3.0, 0.0, 1.0, 21.0, 7.0, 4.0, 0.0, 5.0, 4.0, 0.0, 4.0, 16.0, 8.0, 10.0, 0.0, 0.0, 0.0, 16.0, 15.0, 0.0, 0.0, 4.0, 3.0, 2.0, 4.0, 17.0, 1.0, 2.0, 3.0, 0.0, 0.0, 4.0, 0.0, 0.0, 3.0, 4.0, 7.0, 0.0, 0.0, 5.0, 5.0, 7.0, 11.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 12.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 4.0, 0.0, 1.0, 6.0, 8.0, 12.0, 14.0, 0.0, 4.0, 4.0, 11.0, 7.0, 5.0, 12.0, 7.0, 0.0, 0.0, 7.0, 9.0, 2.0, 0.0, 1.0, 0.0, 20.0, 6.0, 3.0, 0.0, 0.0, 0.0, 8.0, 0.0, 8.0, 1.0, 4.0, 3.0, 0.0, 0.0, 3.0, 15.0, 8.0, 1.0, 0.0, 0.0, 4.0, 18.0, 3.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 6.0, 2.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 0.0, 2.0, 3.0, 0.0, 12.0, 0.0, 4.0, 0.0, 0.0, 6.0, 1.0, 6.0, 5.0, 0.0, 2.0, 2.0, 6.0, 0.0, 0.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 0.0, 1.0, 4.0, 4.0, 0.0, 2.0, 0.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 4.0, 1.0, 0.0, 0.0, 2.0, 0.0, 4.0, 8.0, 4.0, 0.0, 2.0, 2.0, 2.0, 7.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 5.0, 1.0, 1.0, 1.0, 3.0, 0.0, 7.0, 1.0, 0.0, 3.0, 3.0, 0.0, 0.0, 8.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 10.0, 2.0, 3.0, 0.0, 1.0, 0.0, 14.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 5.0, 8.0, 1.0, 0.0, 3.0, 1.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 7.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 4.0, 3.0, 6.0, 2.0, 1.0, 1.0, 9.0, 0.0, 0.0, 0.0, 1.0, 8.0, 0.0, 2.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 5.0, 0.0, 6.0, 1.0, 0.0, 3.0, 0.0, 0.0, 6.0, 1.0, 0.0, 4.0, 0.0, 1.0, 16.0, 0.0, 6.0, 10.0, 2.0, 1.0, 10.0, 0.0, 9.0, 6.0, 7.0, 16.0, 1.0, 0.0, 0.0, 9.0, 0.0, 0.0, 16.0, 0.0, 0.0, 12.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 3.0, 1.0, 4.0, 0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 0.0, 6.0, 6.0, 6.0, 4.0, 0.0, 4.0, 3.0, 1.0, 1.0, 0.0, 15.0, 11.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 5.0, 9.0, 0.0, 6.0, 0.0, 2.0, 12.0, 0.0, 4.0, 13.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 6.0, 8.0, 4.0, 9.0, 0.0, 5.0, 0.0, 0.0, 4.0, 0.0, 0.0, 6.0, 1.0, 6.0, 0.0, 4.0, 1.0, 5.0, 0.0, 11.0, 4.0, 2.0, 0.0, 4.0, 1.0, 0.0, 4.0, 1.0, 1.0, 7.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 5.0, 2.0, 7.0, 4.0, 3.0, 8.0, 7.0, 13.0, 0.0, 1.0, 0.0, 0.0, 15.0, 1.0, 0.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 5.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 9.0, 4.0, 13.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 5.0, 0.0, 6.0, 0.0, 6.0, 5.0, 5.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 3.0, 14.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 9.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 16.0, 1.0, 1.0, 3.0, 0.0, 0.0, 11.0, 0.0, 21.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 14.0, 3.0, 0.0, 4.0, 1.0, 1.0, 0.0, 16.0, 1.0, 0.0, 1.0, 7.0, 3.0, 1.0, 5.0, 1.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 5.0, 3.0, 6.0, 0.0, 0.0, 1.0, 2.0, 0.0, 0.0, 2.0, 7.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 2.0, 0.0, 6.0, 9.0, 0.0, 3.0, 2.0, 5.0, 2.0, 3.0, 4.0, 6.0, 0.0, 12.0, 2.0, 1.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 19.0, 6.0, 0.0, 4.0, 2.0, 5.0, 0.0, 2.0, 0.0, 0.0, 3.0, 5.0, 4.0, 4.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 7.0, 1.0, 11.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 3.0, 2.0, 1.0, 0.0, 1.0, 2.0, 0.0, 0.0, 1.0, 0.0, 3.0, 6.0, 12.0, 7.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 5.0, 2.0, 0.0, 1.0, 0.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 9.0, 0.0, 0.0, 3.0, 6.0, 0.0, 0.0, 0.0, 6.0, 9.0, 0.0, 0.0, 0.0, 0.0, 20.0, 0.0, 0.0, 1.0, 1.0, 3.0, 0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 1.0, 3.0, 2.0, 1.0, 12.0, 1.0, 0.0, 1.0, 4.0, 0.0, 4.0, 1.0, 4.0, 0.0, 2.0, 3.0, 2.0, 0.0, 3.0, 17.0, 0.0, 2.0, 0.0, 5.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 14.0, 3.0, 3.0, 1.0, 3.0, 0.0, 6.0, 2.0, 0.0, 10.0, 0.0, 1.0, 4.0, 5.0, 3.0, 1.0, 5.0, 0.0, 5.0, 2.0, 6.0, 0.0, 3.0, 0.0, 6.0, 3.0, 6.0, 7.0, 0.0, 1.0, 0.0, 3.0, 2.0, 6.0, 2.0, 0.0, 0.0, 4.0, 0.0, 0.0, 1.0, 3.0, 1.0, 5.0, 3.0, 2.0, 0.0, 0.0, 3.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 3.0, 1.0, 0.0, 5.0, 0.0, 2.0, 3.0, 0.0, 2.0, 1.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 2.0, 21.0, 2.0, 0.0, 0.0, 0.0, 14.0, 3.0, 4.0, 3.0, 0.0, 8.0, 5.0, 6.0, 5.0, 5.0, 3.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 4.0, 1.0, 4.0, 0.0, 1.0, 1.0, 1.0, 2.0, 0.0, 3.0, 1.0, 1.0, 3.0, 4.0, 7.0, 0.0, 3.0, 0.0, 0.0, 3.0, 4.0, 10.0, 0.0, 7.0, 4.0, 5.0, 0.0, 0.0, 0.0, 6.0, 1.0, 1.0, 3.0, 0.0, 0.0, 6.0, 2.0, 0.0, 7.0, 13.0, 0.0, 0.0, 3.0, 1.0, 5.0, 1.0, 0.0, 2.0, 5.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 3.0, 4.0, 0.0, 0.0, 5.0, 1.0, 0.0, 2.0, 4.0, 0.0, 0.0, 0.0, 0.0, 10.0, 0.0, 15.0, 0.0, 14.0, 1.0, 1.0, 6.0, 1.0, 0.0, 0.0, 0.0, 3.0, 11.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 6.0, 1.0, 1.0, 1.0, 0.0, 0.0, 2.0, 2.0, 0.0, 16.0, 5.0, 2.0, 2.0, 0.0, 1.0, 2.0, 4.0, 0.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 10.0, 0.0, 1.0, 3.0, 2.0, 0.0, 7.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 2.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 3.0, 6.0, 1.0, 1.0, 9.0, 0.0, 3.0, 6.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 5.0, 10.0, 0.0, 0.0, 4.0, 5.0, 10.0, 10.0, 4.0, 2.0, 3.0, 0.0, 6.0, 1.0, 3.0, 1.0, 0.0, 1.0, 1.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 18.0, 5.0, 0.0, 1.0, 0.0, 1.0, 0.0, 4.0, 0.0, 0.0, 1.0, 1.0, 5.0, 3.0, 0.0, 5.0, 0.0, 1.0, 1.0, 4.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 7.0, 2.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 9.0, 1.0, 2.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 3.0, 15.0, 0.0, 4.0, 5.0, 0.0, 3.0, 0.0, 1.0, 7.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 2.0, 4.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 6.0, 5.0, 0.0, 0.0, 4.0, 2.0, 4.0, 3.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 3.0, 3.0, 13.0, 0.0, 1.0, 2.0, 1.0, 0.0, 2.0, 1.0, 0.0, 4.0, 3.0, 1.0, 5.0, 4.0, 4.0, 2.0, 0.0, 2.0, 1.0, 3.0, 2.0, 6.0, 2.0, 6.0, 8.0, 0.0, 1.0, 7.0, 0.0, 0.0, 5.0, 3.0, 0.0, 0.0, 0.0, 2.0, 1.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 0.0, 4.0, 0.0, 1.0, 1.0, 0.0, 3.0, 0.0, 0.0, 1.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 4.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 9.0, 0.0, 0.0, 0.0, 11.0, 0.0, 0.0, 4.0, 2.0, 2.0, 0.0, 3.0, 2.0, 3.0, 18.0, 0.0, 0.0, 2.0, 0.0, 0.0, 2.0, 2.0, 0.0, 6.0, 7.0, 5.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 6.0, 3.0, 0.0, 6.0, 0.0, 4.0, 2.0, 0.0, 1.0, 2.0, 0.0, 3.0, 0.0, 2.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 2.0, 6.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 7.0, 5.0, 2.0, 1.0, 7.0, 0.0, 0.0, 0.0, 3.0, 6.0, 0.0, 2.0, 5.0, 0.0, 1.0, 0.0, 4.0, 2.0, 2.0, 3.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 2.0, 3.0, 6.0, 5.0, 1.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 1.0, 16.0, 0.0, 6.0, 1.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 7.0, 1.0, 0.0, 5.0, 0.0, 1.0, 17.0, 0.0, 0.0, 0.0, 0.0, 6.0, 4.0, 1.0, 0.0, 1.0, 0.0, 6.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 5.0, 5.0, 3.0, 0.0, 6.0, 5.0, 0.0, 1.0, 0.0, 5.0, 1.0, 3.0, 0.0, 3.0, 1.0, 0.0, 6.0, 1.0, 2.0, 3.0, 0.0, 6.0, 2.0, 3.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 4.0, 1.0, 4.0, 7.0, 6.0, 1.0, 2.0, 0.0, 2.0, 0.0, 0.0, 6.0, 6.0, 3.0, 1.0, 0.0, 2.0, 1.0, 0.0, 0.0, 1.0, 0.0, 18.0, 7.0, 5.0, 3.0, 2.0, 0.0, 0.0, 1.0, 0.0, 1.0, 2.0, 1.0, 6.0, 1.0, 4.0, 3.0, 5.0, 2.0, 2.0, 0.0, 3.0, 0.0, 10.0, 2.0, 0.0, 0.0, 2.0, 0.0, 1.0, 3.0, 0.0, 0.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 2.0, 1.0, 0.0, 0.0, 1.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 0.0, 4.0, 0.0, 1.0, 3.0, 2.0, 0.0, 2.0, 0.0, 3.0, 2.0, 0.0, 3.0, 21.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 2.0, 1.0, 1.0, 0.0, 1.0, 1.0, 5.0, 0.0, 2.0, 3.0, 4.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 4.0, 3.0, 2.0, 0.0, 2.0, 0.0, 0.0, 4.0, 3.0, 0.0, 5.0, 8.0, 5.0, 1.0, 0.0, 4.0, 1.0, 4.0, 1.0, 1.0, 2.0, 1.0, 2.0, 2.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 1.0, 3.0, 1.0, 0.0, 1.0, 0.0, 1.0, 2.0, 10.0, 0.0, 1.0, 4.0, 6.0, 0.0, 0.0, 0.0, 3.0, 2.0, 2.0, 6.0, 0.0, 1.0, 2.0, 4.0, 2.0, 2.0, 2.0, 3.0, 3.0, 0.0, 1.0, 0.0, 4.0, 5.0, 2.0, 8.0, 3.0, 3.0, 2.0, 7.0, 0.0, 1.0, 5.0, 0.0, 0.0, 0.0, 5.0, 4.0, 0.0, 0.0, 3.0, 9.0, 3.0, 4.0, 0.0, 3.0, 10.0, 1.0, 2.0, 7.0, 4.0, 4.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 3.0, 10.0, 3.0, 3.0, 1.0, 0.0, 5.0, 2.0, 4.0, 1.0, 3.0, 5.0, 0.0, 2.0, 0.0, 2.0, 2.0, 0.0, 0.0, 3.0, 0.0, 3.0, 0.0, 4.0, 2.0, 4.0, 2.0, 1.0, 5.0, 0.0, 0.0, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 5.0, 4.0, 0.0, 2.0, 2.0, 3.0, 0.0, 0.0, 1.0, 1.0, 13.0, 2.0, 1.0, 3.0, 0.0, 2.0, 0.0, 3.0, 1.0, 4.0, 4.0, 0.0, 0.0, 3.0, 4.0, 2.0, 0.0, 3.0, 0.0, 3.0, 1.0, 5.0, 1.0, 4.0, 0.0, 4.0, 5.0, 5.0, 0.0, 3.0, 0.0, 7.0, 4.0, 2.0, 1.0, 0.0, 0.0, 0.0, 3.0, 1.0, 2.0, 4.0, 0.0, 4.0, 0.0, 1.0, 1.0, 3.0, 4.0, 10.0, 2.0, 15.0, 0.0, 0.0, 5.0, 0.0, 6.0, 1.0, 5.0, 6.0, 2.0, 2.0, 3.0, 0.0, 1.0, 0.0, 6.0, 0.0, 0.0, 4.0, 3.0, 1.0, 2.0, 10.0, 3.0, 1.0, 0.0, 0.0, 2.0, 0.0, 3.0, 9.0, 0.0, 2.0, 0.0, 0.0, 2.0, 14.0, 0.0, 0.0, 0.0, 5.0, 0.0, 3.0, 3.0, 2.0, 1.0, 1.0, 4.0, 0.0, 4.0, 1.0, 3.0, 2.0, 3.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 0.0, 0.0, 3.0, 2.0, 0.0, 0.0, 3.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 2.0, 6.0, 2.0, 1.0, 2.0, 2.0, 11.0, 4.0, 0.0, 7.0, 1.0, 0.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 5.0, 0.0, 0.0, 4.0, 3.0, 1.0, 0.0, 7.0, 0.0, 4.0, 0.0, 0.0, 12.0, 0.0, 6.0, 2.0, 0.0, 0.0, 2.0, 2.0, 3.0, 2.0, 5.0, 0.0, 1.0, 0.0, 4.0, 0.0, 8.0, 3.0, 1.0, 2.0, 1.0, 6.0, 0.0, 5.0, 18.0, 5.0, 16.0, 10.0, 0.0, 14.0, 6.0, 15.0, 3.0, 0.0, 2.0, 2.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[2.0, 10.0, 3.0, 1.0, 1.0, 9.0, 3.0, 3.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 3.0, 1.0, 1.0, 4.0, 2.0, 17.0, 4.0, 8.0, 5.0, 2.0, 3.0, 4.0, 3.0, 0.0, 3.0, 4.0, 5.0, 3.0, 4.0, 1.0, 2.0, 1.0, 2.0, 2.0, 1.0, 4.0, 3.0, 3.0, 2.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 1.0, 2.0, 1.0, 3.0, 5.0, 2.0, 2.0, 3.0, 0.0, 2.0, 2.0, 3.0, 1.0, 1.0, 1.0, 14.0, 1.0, 4.0, 9.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 1.0, 5.0, 4.0, 1.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 2.0, 1.0, 4.0, 1.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 4.0, 2.0, 1.0, 0.0, 1.0, 2.0, 3.0, 2.0, 2.0, 2.0, 3.0, 3.0, 2.0, 2.0, 8.0, 8.0, 2.0, 3.0, 1.0, 3.0, 2.0, 2.0, 2.0, 4.0, 2.0, 1.0, 2.0, 2.0, 3.0, 6.0, 2.0, 2.0, 4.0, 2.0, 2.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 3.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 6.0, 2.0, 2.0, 4.0, 1.0, 1.0, 3.0, 1.0, 24.0, 7.0, 6.0, 2.0, 15.0, 3.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 9.0, 2.0, 2.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 6.0, 2.0, 3.0, 4.0, 4.0, 6.0, 1.0, 4.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 1.0, 2.0, 3.0, 3.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 3.0, 2.0, 2.0, 6.0, 2.0, 3.0, 2.0, 1.0, 3.0, 1.0, 1.0, 3.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 9.0, 2.0, 7.0, 2.0, 4.0, 3.0, 3.0, 2.0, 3.0, 3.0, 7.0, 3.0, 3.0, 1.0, 3.0, 1.0, 2.0, 7.0, 26.0, 2.0, 1.0, 6.0, 2.0, 3.0, 3.0, 2.0, 3.0, 10.0, 10.0, 2.0, 1.0, 4.0, 4.0, 3.0, 1.0, 2.0, 3.0, 10.0, 5.0, 1.0, 4.0, 3.0, 3.0, 4.0, 3.0, 2.0, 8.0, 6.0, 4.0, 4.0, 2.0, 3.0, 3.0, 3.0, 2.0, 0.0, 5.0, 1.0, 4.0, 4.0, 3.0, 5.0, 3.0, 6.0, 1.0, 1.0, 18.0, 2.0, 5.0, 17.0, 2.0, 2.0, 2.0, 0.0, 2.0, 2.0, 3.0, 9.0, 3.0, 1.0, 6.0, 2.0, 19.0, 7.0, 1.0, 2.0, 6.0, 4.0, 0.0, 2.0, 3.0, 7.0, 1.0, 5.0, 3.0, 2.0, 8.0, 4.0, 6.0, 25.0, 1.0, 3.0, 1.0, 10.0, 15.0, 2.0, 4.0, 1.0, 3.0, 2.0, 3.0, 9.0, 2.0, 3.0, 1.0, 3.0, 2.0, 3.0, 2.0, 7.0, 3.0, 0.0, 1.0, 15.0, 3.0, 3.0, 1.0, 3.0, 5.0, 6.0, 4.0, 1.0, 2.0, 2.0, 19.0, 7.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 2.0, 3.0, 1.0, 14.0, 3.0, 2.0, 3.0, 4.0, 2.0, 11.0, 2.0, 28.0, 3.0, 1.0, 8.0, 2.0, 2.0, 2.0, 4.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 3.0, 2.0, 1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0, 4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 26.0, 33.0, 2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0</t>
+          <t>[2.0, 10.0, 3.0, 1.0, 1.0, 9.0, 3.0, 3.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 3.0, 1.0, 1.0, 4.0, 2.0, 17.0, 4.0, 8.0, 5.0, 2.0, 3.0, 4.0, 3.0, 0.0, 3.0, 4.0, 5.0, 3.0, 4.0, 1.0, 2.0, 1.0, 2.0, 2.0, 1.0, 4.0, 3.0, 3.0, 2.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 1.0, 2.0, 1.0, 3.0, 5.0, 2.0, 2.0, 3.0, 0.0, 2.0, 2.0, 3.0, 1.0, 1.0, 1.0, 14.0, 1.0, 4.0, 9.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 1.0, 5.0, 4.0, 1.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 2.0, 1.0, 4.0, 1.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 4.0, 2.0, 1.0, 0.0, 1.0, 2.0, 3.0, 2.0, 2.0, 2.0, 3.0, 3.0, 2.0, 2.0, 8.0, 8.0, 2.0, 3.0, 1.0, 3.0, 2.0, 2.0, 2.0, 4.0, 2.0, 1.0, 2.0, 2.0, 3.0, 6.0, 2.0, 2.0, 4.0, 2.0, 2.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 3.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 6.0, 2.0, 2.0, 4.0, 1.0, 1.0, 3.0, 1.0, 24.0, 7.0, 6.0, 2.0, 15.0, 3.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 9.0, 2.0, 2.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 6.0, 2.0, 3.0, 4.0, 4.0, 6.0, 1.0, 4.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 1.0, 2.0, 3.0, 3.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 3.0, 2.0, 2.0, 6.0, 2.0, 3.0, 2.0, 1.0, 3.0, 1.0, 1.0, 3.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 9.0, 2.0, 7.0, 2.0, 4.0, 3.0, 3.0, 2.0, 3.0, 3.0, 7.0, 3.0, 3.0, 1.0, 3.0, 1.0, 2.0, 7.0, 26.0, 2.0, 1.0, 6.0, 2.0, 3.0, 3.0, 2.0, 3.0, 10.0, 10.0, 2.0, 1.0, 4.0, 4.0, 3.0, 1.0, 2.0, 3.0, 10.0, 5.0, 1.0, 4.0, 3.0, 3.0, 4.0, 3.0, 2.0, 8.0, 6.0, 4.0, 4.0, 2.0, 3.0, 3.0, 3.0, 2.0, 0.0, 5.0, 1.0, 4.0, 4.0, 3.0, 5.0, 3.0, 6.0, 1.0, 1.0, 18.0, 2.0, 5.0, 17.0, 2.0, 2.0, 2.0, 0.0, 2.0, 2.0, 3.0, 9.0, 3.0, 1.0, 6.0, 2.0, 19.0, 7.0, 1.0, 2.0, 6.0, 4.0, 0.0, 2.0, 3.0, 7.0, 1.0, 5.0, 3.0, 2.0, 8.0, 4.0, 6.0, 25.0, 1.0, 3.0, 1.0, 10.0, 15.0, 2.0, 4.0, 1.0, 3.0, 2.0, 3.0, 9.0, 2.0, 3.0, 1.0, 3.0, 2.0, 3.0, 2.0, 7.0, 3.0, 0.0, 1.0, 15.0, 3.0, 3.0, 1.0, 3.0, 5.0, 6.0, 4.0, 1.0, 2.0, 2.0, 19.0, 7.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 2.0, 3.0, 1.0, 14.0, 3.0, 2.0, 3.0, 4.0, 2.0, 11.0, 2.0, 28.0, 3.0, 1.0, 8.0, 2.0, 2.0, 2.0, 4.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 3.0, 2.0, 1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 118.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0, 4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 92.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 123.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 155.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 109.0, 2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 100.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 97.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 124.0, 26.0, 33.0, 119.0, 2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 96.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 97.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 110.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 131.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 147.0, 95.0, 104.0, 5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 132.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 155.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 98.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 128.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 113.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 153.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 106.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 114.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[2.0, 10.0, 3.0, 1.0, 1.0, 9.0, 3.0, 3.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 3.0, 1.0, 1.0, 4.0, 2.0, 17.0, 4.0, 8.0, 5.0, 2.0, 3.0, 4.0, 3.0, 0.0, 3.0, 4.0, 5.0, 3.0, 4.0, 1.0, 2.0, 1.0, 2.0, 2.0, 1.0, 4.0, 3.0, 3.0, 2.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 1.0, 2.0, 1.0, 3.0, 5.0, 2.0, 2.0, 3.0, 0.0, 2.0, 2.0, 3.0, 1.0, 1.0, 1.0, 14.0, 1.0, 4.0, 9.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 1.0, 5.0, 4.0, 1.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 2.0, 1.0, 4.0, 1.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 4.0, 2.0, 1.0, 0.0, 1.0, 2.0, 3.0, 2.0, 2.0, 2.0, 3.0, 3.0, 2.0, 2.0, 8.0, 8.0, 2.0, 3.0, 1.0, 3.0, 2.0, 2.0, 2.0, 4.0, 2.0, 1.0, 2.0, 2.0, 3.0, 6.0, 2.0, 2.0, 4.0, 2.0, 2.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 3.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 6.0, 2.0, 2.0, 4.0, 1.0, 1.0, 3.0, 1.0, 24.0, 7.0, 6.0, 2.0, 15.0, 3.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 9.0, 2.0, 2.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 6.0, 2.0, 3.0, 4.0, 4.0, 6.0, 1.0, 4.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 1.0, 2.0, 3.0, 3.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 3.0, 2.0, 2.0, 6.0, 2.0, 3.0, 2.0, 1.0, 3.0, 1.0, 1.0, 3.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 9.0, 2.0, 7.0, 2.0, 4.0, 3.0, 3.0, 2.0, 3.0, 3.0, 7.0, 3.0, 3.0, 1.0, 3.0, 1.0, 2.0, 7.0, 26.0, 2.0, 1.0, 6.0, 2.0, 3.0, 3.0, 2.0, 3.0, 10.0, 10.0, 2.0, 1.0, 4.0, 4.0, 3.0, 1.0, 2.0, 3.0, 10.0, 5.0, 1.0, 4.0, 3.0, 3.0, 4.0, 3.0, 2.0, 8.0, 6.0, 4.0, 4.0, 2.0, 3.0, 3.0, 3.0, 2.0, 0.0, 5.0, 1.0, 4.0, 4.0, 3.0, 5.0, 3.0, 6.0, 1.0, 1.0, 18.0, 2.0, 5.0, 17.0, 2.0, 2.0, 2.0, 0.0, 2.0, 2.0, 3.0, 9.0, 3.0, 1.0, 6.0, 2.0, 19.0, 7.0, 1.0, 2.0, 6.0, 4.0, 0.0, 2.0, 3.0, 7.0, 1.0, 5.0, 3.0, 2.0, 8.0, 4.0, 6.0, 25.0, 1.0, 3.0, 1.0, 10.0, 15.0, 2.0, 4.0, 1.0, 3.0, 2.0, 3.0, 9.0, 2.0, 3.0, 1.0, 3.0, 2.0, 3.0, 2.0, 7.0, 3.0, 0.0, 1.0, 15.0, 3.0, 3.0, 1.0, 3.0, 5.0, 6.0, 4.0, 1.0, 2.0, 2.0, 19.0, 7.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 2.0, 3.0, 1.0, 14.0, 3.0, 2.0, 3.0, 4.0, 2.0, 11.0, 2.0, 28.0, 3.0, 1.0, 8.0, 2.0, 2.0, 2.0, 4.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 3.0, 2.0, 1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0, 4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 26.0, 33.0, 2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10.0, 5.0, 5.0, 10.0, 10.0, 6.0, 0.0, 2.0, 1.0, 8.0, 4.0, 8.0, 6.0, 6.0, 4.0, 2.0, 13.0, 10.0, 8.0, 5.0, 4.0, 7.0, 7.0, 7.0, 8.0, 6.0, 1.0, 3.0, 6.0, 6.0, 10.0, 5.0</t>
+          <t>[2.0, 10.0, 3.0, 1.0, 1.0, 9.0, 3.0, 3.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 3.0, 1.0, 1.0, 4.0, 2.0, 17.0, 4.0, 8.0, 5.0, 2.0, 3.0, 4.0, 3.0, 0.0, 3.0, 4.0, 5.0, 3.0, 4.0, 1.0, 2.0, 1.0, 2.0, 2.0, 1.0, 4.0, 3.0, 3.0, 2.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 1.0, 2.0, 1.0, 3.0, 5.0, 2.0, 2.0, 3.0, 0.0, 2.0, 2.0, 3.0, 1.0, 1.0, 1.0, 14.0, 1.0, 4.0, 9.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 1.0, 5.0, 4.0, 1.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 2.0, 1.0, 4.0, 1.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 3.0, 0.0, 2.0, 2.0, 4.0, 2.0, 1.0, 0.0, 1.0, 2.0, 3.0, 2.0, 2.0, 2.0, 3.0, 3.0, 2.0, 2.0, 8.0, 8.0, 2.0, 3.0, 1.0, 3.0, 2.0, 2.0, 2.0, 4.0, 2.0, 1.0, 2.0, 2.0, 3.0, 6.0, 2.0, 2.0, 4.0, 2.0, 2.0, 2.0, 4.0, 3.0, 3.0, 1.0, 4.0, 3.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 6.0, 2.0, 2.0, 4.0, 1.0, 1.0, 3.0, 1.0, 24.0, 7.0, 6.0, 2.0, 15.0, 3.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 9.0, 2.0, 2.0, 2.0, 6.0, 3.0, 2.0, 2.0, 2.0, 6.0, 2.0, 3.0, 4.0, 4.0, 6.0, 1.0, 4.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 2.0, 3.0, 1.0, 2.0, 3.0, 3.0, 1.0, 2.0, 4.0, 3.0, 3.0, 1.0, 3.0, 2.0, 2.0, 6.0, 2.0, 3.0, 2.0, 1.0, 3.0, 1.0, 1.0, 3.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 9.0, 2.0, 7.0, 2.0, 4.0, 3.0, 3.0, 2.0, 3.0, 3.0, 7.0, 3.0, 3.0, 1.0, 3.0, 1.0, 2.0, 7.0, 26.0, 2.0, 1.0, 6.0, 2.0, 3.0, 3.0, 2.0, 3.0, 10.0, 10.0, 2.0, 1.0, 4.0, 4.0, 3.0, 1.0, 2.0, 3.0, 10.0, 5.0, 1.0, 4.0, 3.0, 3.0, 4.0, 3.0, 2.0, 8.0, 6.0, 4.0, 4.0, 2.0, 3.0, 3.0, 3.0, 2.0, 0.0, 5.0, 1.0, 4.0, 4.0, 3.0, 5.0, 3.0, 6.0, 1.0, 1.0, 18.0, 2.0, 5.0, 17.0, 2.0, 2.0, 2.0, 0.0, 2.0, 2.0, 3.0, 9.0, 3.0, 1.0, 6.0, 2.0, 19.0, 7.0, 1.0, 2.0, 6.0, 4.0, 0.0, 2.0, 3.0, 7.0, 1.0, 5.0, 3.0, 2.0, 8.0, 4.0, 6.0, 25.0, 1.0, 3.0, 1.0, 10.0, 15.0, 2.0, 4.0, 1.0, 3.0, 2.0, 3.0, 9.0, 2.0, 3.0, 1.0, 3.0, 2.0, 3.0, 2.0, 7.0, 3.0, 0.0, 1.0, 15.0, 3.0, 3.0, 1.0, 3.0, 5.0, 6.0, 4.0, 1.0, 2.0, 2.0, 19.0, 7.0, 3.0, 2.0, 5.0, 1.0, 0.0, 3.0, 2.0, 3.0, 1.0, 14.0, 3.0, 2.0, 3.0, 4.0, 2.0, 11.0, 2.0, 28.0, 3.0, 1.0, 8.0, 2.0, 2.0, 2.0, 4.0, 2.0, 2.0, 1.0, 4.0, 2.0, 2.0, 3.0, 2.0, 1.0, 0.0, 5.0, 9.0, 0.0, 1.0, 2.0, 15.0, 2.0, 20.0, 3.0, 2.0, 39.0, 7.0, 3.0, 1.0, 6.0, 7.0, 18.0, 9.0, 1.0, 4.0, 2.0, 2.0, 12.0, 3.0, 2.0, 8.0, 1.0, 1.0, 1.0, 6.0, 2.0, 2.0, 2.0, 7.0, 24.0, 2.0, 8.0, 34.0, 5.0, 1.0, 1.0, 1.0, 2.0, 3.0, 2.0, 1.0, 2.0, 0.0, 2.0, 6.0, 3.0, 2.0, 8.0, 2.0, 3.0, 4.0, 4.0, 2.0, 10.0, 2.0, 4.0, 25.0, 8.0, 6.0, 12.0, 2.0, 7.0, 1.0, 2.0, 3.0, 6.0, 2.0, 2.0, 19.0, 1.0, 1.0, 3.0, 2.0, 3.0, 7.0, 8.0, 4.0, 4.0, 8.0, 1.0, 4.0, 2.0, 3.0, 1.0, 3.0, 7.0, 1.0, 3.0, 4.0, 1.0, 4.0, 2.0, 2.0, 3.0, 1.0, 4.0, 1.0, 2.0, 3.0, 4.0, 6.0, 41.0, 1.0, 1.0, 2.0, 4.0, 3.0, 4.0, 3.0, 1.0, 3.0, 4.0, 1.0, 3.0, 4.0, 2.0, 3.0, 4.0, 2.0, 2.0, 1.0, 41.0, 10.0, 1.0, 0.0, 2.0, 7.0, 18.0, 1.0, 32.0, 7.0, 4.0, 118.0, 1.0, 1.0, 4.0, 1.0, 4.0, 9.0, 14.0, 3.0, 19.0, 6.0, 5.0, 12.0, 8.0, 8.0, 1.0, 17.0, 6.0, 1.0, 7.0, 6.0, 1.0, 6.0, 12.0, 4.0, 1.0, 2.0, 2.0, 2.0, 4.0, 5.0, 5.0, 7.0, 3.0, 4.0, 1.0, 14.0, 6.0, 4.0, 2.0, 2.0, 4.0, 1.0, 7.0, 8.0, 4.0, 1.0, 4.0, 4.0, 4.0, 8.0, 4.0, 3.0, 7.0, 8.0, 2.0, 3.0, 7.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 8.0, 4.0, 1.0, 1.0, 2.0, 3.0, 1.0, 13.0, 2.0, 31.0, 1.0, 2.0, 7.0, 4.0, 3.0, 1.0, 1.0, 4.0, 8.0, 6.0, 2.0, 6.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 0.0, 2.0, 3.0, 10.0, 2.0, 3.0, 3.0, 4.0, 3.0, 1.0, 5.0, 1.0, 2.0, 3.0, 4.0, 2.0, 1.0, 4.0, 4.0, 5.0, 19.0, 3.0, 40.0, 3.0, 16.0, 2.0, 2.0, 3.0, 17.0, 2.0, 3.0, 11.0, 4.0, 4.0, 1.0, 1.0, 4.0, 1.0, 6.0, 4.0, 10.0, 4.0, 4.0, 4.0, 7.0, 0.0, 3.0, 4.0, 1.0, 2.0, 3.0, 1.0, 11.0, 2.0, 4.0, 4.0, 2.0, 4.0, 1.0, 3.0, 2.0, 1.0, 4.0, 6.0, 2.0, 2.0, 7.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 2.0, 3.0, 13.0, 4.0, 9.0, 3.0, 5.0, 2.0, 2.0, 3.0, 3.0, 3.0, 2.0, 3.0, 2.0, 2.0, 6.0, 4.0, 3.0, 3.0, 2.0, 4.0, 3.0, 7.0, 3.0, 11.0, 3.0, 1.0, 2.0, 2.0, 2.0, 3.0, 2.0, 3.0, 5.0, 4.0, 2.0, 3.0, 3.0, 3.0, 4.0, 2.0, 10.0, 2.0, 1.0, 6.0, 2.0, 3.0, 2.0, 15.0, 3.0, 0.0, 1.0, 4.0, 4.0, 4.0, 4.0, 3.0, 3.0, 40.0, 3.0, 3.0, 6.0, 2.0, 3.0, 1.0, 4.0, 7.0, 3.0, 7.0, 4.0, 5.0, 2.0, 4.0, 11.0, 4.0, 1.0, 7.0, 0.0, 9.0, 5.0, 1.0, 3.0, 5.0, 6.0, 5.0, 4.0, 2.0, 7.0, 2.0, 92.0, 3.0, 4.0, 3.0, 10.0, 1.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 4.0, 3.0, 5.0, 2.0, 3.0, 2.0, 9.0, 1.0, 2.0, 5.0, 10.0, 4.0, 2.0, 2.0, 12.0, 2.0, 3.0, 2.0, 5.0, 3.0, 4.0, 4.0, 7.0, 1.0, 3.0, 2.0, 3.0, 4.0, 4.0, 24.0, 6.0, 37.0, 2.0, 4.0, 4.0, 28.0, 7.0, 7.0, 0.0, 1.0, 4.0, 3.0, 1.0, 4.0, 1.0, 123.0, 0.0, 3.0, 1.0, 1.0, 3.0, 1.0, 6.0, 1.0, 4.0, 4.0, 14.0, 3.0, 2.0, 4.0, 3.0, 1.0, 2.0, 9.0, 4.0, 6.0, 15.0, 3.0, 1.0, 4.0, 6.0, 7.0, 4.0, 39.0, 3.0, 1.0, 4.0, 4.0, 3.0, 1.0, 7.0, 4.0, 2.0, 4.0, 3.0, 14.0, 3.0, 4.0, 5.0, 5.0, 2.0, 1.0, 7.0, 3.0, 2.0, 2.0, 3.0, 6.0, 3.0, 3.0, 2.0, 3.0, 1.0, 2.0, 1.0, 7.0, 12.0, 13.0, 3.0, 4.0, 0.0, 2.0, 1.0, 2.0, 3.0, 4.0, 41.0, 3.0, 7.0, 1.0, 10.0, 1.0, 9.0, 2.0, 0.0, 8.0, 2.0, 4.0, 10.0, 1.0, 7.0, 7.0, 5.0, 5.0, 2.0, 3.0, 3.0, 2.0, 3.0, 2.0, 1.0, 6.0, 5.0, 2.0, 3.0, 2.0, 3.0, 2.0, 4.0, 6.0, 3.0, 1.0, 0.0, 3.0, 3.0, 2.0, 7.0, 5.0, 2.0, 1.0, 3.0, 3.0, 13.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 1.0, 5.0, 3.0, 3.0, 4.0, 1.0, 3.0, 2.0, 4.0, 7.0, 4.0, 2.0, 5.0, 26.0, 2.0, 3.0, 3.0, 2.0, 7.0, 1.0, 2.0, 10.0, 2.0, 12.0, 2.0, 2.0, 1.0, 3.0, 3.0, 8.0, 1.0, 2.0, 155.0, 3.0, 1.0, 4.0, 6.0, 2.0, 2.0, 3.0, 4.0, 6.0, 7.0, 0.0, 7.0, 5.0, 10.0, 3.0, 1.0, 4.0, 0.0, 3.0, 2.0, 10.0, 9.0, 8.0, 1.0, 1.0, 4.0, 1.0, 1.0, 7.0, 3.0, 2.0, 9.0, 6.0, 9.0, 1.0, 2.0, 2.0, 10.0, 8.0, 21.0, 1.0, 0.0, 7.0, 2.0, 2.0, 9.0, 5.0, 7.0, 2.0, 6.0, 2.0, 1.0, 6.0, 4.0, 5.0, 4.0, 4.0, 2.0, 9.0, 0.0, 2.0, 3.0, 3.0, 6.0, 18.0, 6.0, 3.0, 1.0, 2.0, 1.0, 1.0, 11.0, 3.0, 7.0, 1.0, 5.0, 2.0, 4.0, 1.0, 4.0, 5.0, 12.0, 0.0, 12.0, 3.0, 10.0, 3.0, 6.0, 7.0, 3.0, 2.0, 8.0, 3.0, 5.0, 2.0, 12.0, 8.0, 6.0, 4.0, 1.0, 6.0, 7.0, 10.0, 6.0, 2.0, 4.0, 7.0, 8.0, 2.0, 1.0, 3.0, 1.0, 2.0, 4.0, 5.0, 6.0, 9.0, 2.0, 16.0, 2.0, 1.0, 6.0, 20.0, 9.0, 6.0, 7.0, 7.0, 1.0, 1.0, 57.0, 43.0, 109.0, 2.0, 3.0, 1.0, 4.0, 3.0, 4.0, 1.0, 7.0, 7.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 3.0, 6.0, 9.0, 4.0, 5.0, 1.0, 15.0, 1.0, 9.0, 1.0, 4.0, 7.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 6.0, 4.0, 1.0, 5.0, 8.0, 3.0, 3.0, 4.0, 8.0, 14.0, 3.0, 1.0, 6.0, 3.0, 3.0, 10.0, 2.0, 3.0, 2.0, 25.0, 4.0, 3.0, 11.0, 4.0, 5.0, 2.0, 5.0, 2.0, 4.0, 5.0, 8.0, 5.0, 3.0, 6.0, 5.0, 11.0, 7.0, 4.0, 5.0, 3.0, 4.0, 13.0, 13.0, 4.0, 1.0, 1.0, 8.0, 12.0, 4.0, 2.0, 4.0, 3.0, 10.0, 1.0, 3.0, 3.0, 8.0, 3.0, 1.0, 3.0, 4.0, 1.0, 1.0, 7.0, 15.0, 4.0, 4.0, 1.0, 5.0, 2.0, 2.0, 8.0, 3.0, 6.0, 4.0, 3.0, 2.0, 2.0, 3.0, 5.0, 1.0, 1.0, 1.0, 3.0, 5.0, 3.0, 2.0, 6.0, 0.0, 2.0, 13.0, 5.0, 5.0, 10.0, 5.0, 2.0, 3.0, 47.0, 13.0, 1.0, 3.0, 1.0, 3.0, 5.0, 2.0, 1.0, 2.0, 1.0, 2.0, 7.0, 9.0, 3.0, 6.0, 3.0, 3.0, 3.0, 11.0, 4.0, 2.0, 2.0, 7.0, 9.0, 2.0, 5.0, 2.0, 1.0, 3.0, 3.0, 3.0, 4.0, 5.0, 2.0, 6.0, 4.0, 3.0, 2.0, 3.0, 33.0, 2.0, 3.0, 5.0, 5.0, 5.0, 2.0, 4.0, 4.0, 4.0, 1.0, 4.0, 5.0, 4.0, 1.0, 3.0, 2.0, 4.0, 4.0, 5.0, 1.0, 3.0, 1.0, 6.0, 3.0, 3.0, 2.0, 4.0, 4.0, 7.0, 5.0, 1.0, 4.0, 7.0, 3.0, 1.0, 9.0, 2.0, 3.0, 4.0, 21.0, 4.0, 2.0, 6.0, 7.0, 14.0, 11.0, 1.0, 2.0, 1.0, 2.0, 5.0, 2.0, 1.0, 3.0, 2.0, 2.0, 5.0, 5.0, 3.0, 9.0, 3.0, 4.0, 3.0, 6.0, 4.0, 7.0, 8.0, 1.0, 4.0, 4.0, 26.0, 4.0, 2.0, 3.0, 3.0, 8.0, 8.0, 6.0, 3.0, 3.0, 5.0, 2.0, 1.0, 10.0, 3.0, 3.0, 4.0, 5.0, 11.0, 3.0, 4.0, 0.0, 18.0, 3.0, 4.0, 2.0, 6.0, 5.0, 8.0, 8.0, 5.0, 4.0, 7.0, 6.0, 4.0, 3.0, 3.0, 4.0, 1.0, 3.0, 5.0, 8.0, 3.0, 7.0, 3.0, 8.0, 2.0, 1.0, 6.0, 8.0, 1.0, 1.0, 2.0, 1.0, 2.0, 5.0, 3.0, 4.0, 4.0, 3.0, 1.0, 4.0, 5.0, 5.0, 46.0, 2.0, 1.0, 4.0, 4.0, 3.0, 3.0, 5.0, 6.0, 2.0, 5.0, 0.0, 3.0, 3.0, 8.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 6.0, 3.0, 3.0, 6.0, 3.0, 8.0, 7.0, 4.0, 2.0, 6.0, 3.0, 18.0, 88.0, 1.0, 5.0, 6.0, 2.0, 8.0, 7.0, 2.0, 3.0, 6.0, 8.0, 8.0, 55.0, 23.0, 6.0, 3.0, 6.0, 1.0, 3.0, 33.0, 2.0, 2.0, 3.0, 3.0, 3.0, 4.0, 4.0, 4.0, 12.0, 9.0, 8.0, 7.0, 2.0, 7.0, 3.0, 9.0, 26.0, 9.0, 1.0, 8.0, 4.0, 5.0, 3.0, 6.0, 5.0, 2.0, 5.0, 9.0, 2.0, 2.0, 6.0, 1.0, 20.0, 5.0, 3.0, 8.0, 3.0, 10.0, 5.0, 3.0, 6.0, 4.0, 10.0, 4.0, 5.0, 1.0, 1.0, 13.0, 4.0, 6.0, 6.0, 4.0, 6.0, 3.0, 6.0, 4.0, 3.0, 5.0, 4.0, 6.0, 11.0, 3.0, 7.0, 4.0, 6.0, 5.0, 4.0, 8.0, 8.0, 3.0, 4.0, 1.0, 1.0, 6.0, 6.0, 3.0, 10.0, 11.0, 4.0, 4.0, 11.0, 2.0, 3.0, 3.0, 2.0, 6.0, 6.0, 6.0, 2.0, 4.0, 9.0, 3.0, 7.0, 2.0, 4.0, 3.0, 6.0, 8.0, 7.0, 5.0, 3.0, 7.0, 4.0, 3.0, 3.0, 2.0, 1.0, 1.0, 5.0, 3.0, 1.0, 6.0, 11.0, 4.0, 5.0, 67.0, 3.0, 1.0, 2.0, 6.0, 1.0, 5.0, 2.0, 7.0, 5.0, 18.0, 4.0, 6.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 8.0, 1.0, 4.0, 13.0, 2.0, 4.0, 3.0, 9.0, 5.0, 8.0, 6.0, 3.0, 5.0, 4.0, 4.0, 8.0, 4.0, 4.0, 4.0, 8.0, 5.0, 9.0, 3.0, 6.0, 2.0, 2.0, 4.0, 7.0, 4.0, 3.0, 3.0, 18.0, 1.0, 12.0, 5.0, 3.0, 2.0, 5.0, 4.0, 4.0, 3.0, 6.0, 1.0, 31.0, 1.0, 2.0, 1.0, 3.0, 3.0, 2.0, 6.0, 11.0, 5.0, 1.0, 4.0, 6.0, 3.0, 6.0, 2.0, 10.0, 9.0, 5.0, 3.0, 5.0, 16.0, 4.0, 2.0, 7.0, 3.0, 3.0, 4.0, 6.0, 37.0, 1.0, 1.0, 3.0, 6.0, 7.0, 7.0, 2.0, 2.0, 4.0, 4.0, 0.0, 2.0, 100.0, 5.0, 3.0, 2.0, 7.0, 2.0, 2.0, 4.0, 7.0, 7.0, 4.0, 7.0, 3.0, 3.0, 2.0, 2.0, 0.0, 7.0, 2.0, 3.0, 8.0, 7.0, 6.0, 4.0, 3.0, 2.0, 5.0, 4.0, 7.0, 6.0, 5.0, 3.0, 8.0, 4.0, 3.0, 7.0, 1.0, 89.0, 9.0, 6.0, 9.0, 3.0, 1.0, 4.0, 1.0, 3.0, 6.0, 1.0, 3.0, 1.0, 3.0, 7.0, 13.0, 9.0, 2.0, 2.0, 14.0, 4.0, 3.0, 2.0, 2.0, 1.0, 14.0, 2.0, 7.0, 2.0, 5.0, 3.0, 4.0, 3.0, 6.0, 6.0, 32.0, 6.0, 2.0, 3.0, 3.0, 5.0, 9.0, 2.0, 4.0, 7.0, 5.0, 3.0, 3.0, 15.0, 1.0, 11.0, 5.0, 7.0, 2.0, 7.0, 5.0, 2.0, 4.0, 4.0, 2.0, 6.0, 2.0, 8.0, 1.0, 4.0, 7.0, 5.0, 3.0, 5.0, 4.0, 1.0, 4.0, 3.0, 2.0, 2.0, 3.0, 6.0, 6.0, 4.0, 1.0, 8.0, 20.0, 4.0, 2.0, 6.0, 6.0, 1.0, 2.0, 2.0, 4.0, 2.0, 5.0, 1.0, 5.0, 4.0, 5.0, 2.0, 3.0, 5.0, 8.0, 2.0, 9.0, 2.0, 4.0, 6.0, 5.0, 3.0, 4.0, 1.0, 5.0, 1.0, 2.0, 5.0, 19.0, 2.0, 3.0, 22.0, 6.0, 2.0, 2.0, 20.0, 11.0, 3.0, 5.0, 4.0, 5.0, 1.0, 3.0, 7.0, 5.0, 5.0, 4.0, 4.0, 3.0, 16.0, 10.0, 3.0, 4.0, 11.0, 3.0, 5.0, 8.0, 6.0, 1.0, 4.0, 5.0, 3.0, 5.0, 1.0, 6.0, 4.0, 4.0, 2.0, 7.0, 3.0, 48.0, 2.0, 9.0, 2.0, 5.0, 10.0, 8.0, 2.0, 3.0, 2.0, 6.0, 8.0, 2.0, 4.0, 8.0, 2.0, 17.0, 4.0, 9.0, 5.0, 3.0, 3.0, 9.0, 9.0, 10.0, 6.0, 2.0, 2.0, 6.0, 3.0, 97.0, 5.0, 5.0, 1.0, 3.0, 3.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 13.0, 1.0, 13.0, 4.0, 6.0, 2.0, 3.0, 4.0, 7.0, 7.0, 6.0, 2.0, 2.0, 5.0, 2.0, 4.0, 3.0, 3.0, 4.0, 5.0, 6.0, 6.0, 3.0, 10.0, 3.0, 6.0, 2.0, 7.0, 3.0, 4.0, 3.0, 8.0, 4.0, 7.0, 8.0, 7.0, 5.0, 1.0, 8.0, 5.0, 5.0, 5.0, 5.0, 5.0, 7.0, 2.0, 8.0, 5.0, 9.0, 7.0, 6.0, 3.0, 7.0, 5.0, 2.0, 5.0, 2.0, 4.0, 3.0, 6.0, 0.0, 3.0, 10.0, 5.0, 1.0, 7.0, 5.0, 2.0, 13.0, 7.0, 3.0, 4.0, 5.0, 3.0, 13.0, 4.0, 7.0, 6.0, 4.0, 6.0, 2.0, 22.0, 5.0, 4.0, 11.0, 9.0, 7.0, 4.0, 5.0, 2.0, 8.0, 5.0, 5.0, 2.0, 8.0, 7.0, 9.0, 6.0, 8.0, 4.0, 6.0, 3.0, 8.0, 4.0, 3.0, 7.0, 8.0, 10.0, 5.0, 4.0, 2.0, 1.0, 7.0, 4.0, 15.0, 7.0, 2.0, 2.0, 3.0, 6.0, 3.0, 2.0, 1.0, 4.0, 8.0, 2.0, 4.0, 2.0, 8.0, 4.0, 12.0, 3.0, 2.0, 6.0, 9.0, 11.0, 2.0, 7.0, 8.0, 5.0, 14.0, 7.0, 5.0, 3.0, 5.0, 35.0, 14.0, 5.0, 7.0, 7.0, 8.0, 6.0, 7.0, 3.0, 7.0, 2.0, 5.0, 1.0, 8.0, 2.0, 3.0, 1.0, 4.0, 4.0, 8.0, 9.0, 2.0, 4.0, 124.0, 26.0, 33.0, 119.0, 2.0, 2.0, 2.0, 6.0, 4.0, 5.0, 6.0, 1.0, 6.0, 5.0, 3.0, 3.0, 4.0, 1.0, 5.0, 1.0, 1.0, 5.0, 2.0, 7.0, 1.0, 3.0, 7.0, 10.0, 2.0, 8.0, 4.0, 9.0, 4.0, 12.0, 3.0, 4.0, 6.0, 7.0, 2.0, 4.0, 6.0, 2.0, 6.0, 5.0, 7.0, 14.0, 3.0, 1.0, 4.0, 2.0, 7.0, 3.0, 7.0, 4.0, 20.0, 6.0, 4.0, 1.0, 1.0, 7.0, 15.0, 5.0, 2.0, 10.0, 4.0, 4.0, 8.0, 5.0, 7.0, 9.0, 11.0, 7.0, 4.0, 4.0, 9.0, 2.0, 2.0, 5.0, 6.0, 6.0, 4.0, 1.0, 22.0, 2.0, 3.0, 6.0, 7.0, 1.0, 9.0, 1.0, 6.0, 3.0, 25.0, 4.0, 1.0, 3.0, 1.0, 13.0, 9.0, 11.0, 2.0, 1.0, 8.0, 1.0, 3.0, 4.0, 20.0, 4.0, 48.0, 4.0, 0.0, 11.0, 1.0, 2.0, 50.0, 10.0, 3.0, 13.0, 4.0, 3.0, 5.0, 0.0, 2.0, 32.0, 5.0, 5.0, 35.0, 7.0, 4.0, 8.0, 4.0, 19.0, 19.0, 6.0, 7.0, 2.0, 4.0, 2.0, 3.0, 7.0, 3.0, 4.0, 4.0, 9.0, 4.0, 6.0, 7.0, 11.0, 6.0, 9.0, 7.0, 16.0, 1.0, 1.0, 8.0, 4.0, 4.0, 5.0, 9.0, 2.0, 8.0, 5.0, 12.0, 5.0, 1.0, 1.0, 3.0, 3.0, 7.0, 9.0, 17.0, 15.0, 17.0, 14.0, 34.0, 1.0, 4.0, 13.0, 3.0, 2.0, 2.0, 1.0, 5.0, 7.0, 8.0, 2.0, 22.0, 3.0, 14.0, 10.0, 5.0, 1.0, 10.0, 8.0, 1.0, 7.0, 10.0, 3.0, 6.0, 3.0, 4.0, 5.0, 4.0, 2.0, 5.0, 2.0, 7.0, 1.0, 10.0, 2.0, 5.0, 5.0, 1.0, 1.0, 10.0, 6.0, 4.0, 5.0, 9.0, 2.0, 1.0, 5.0, 8.0, 2.0, 10.0, 11.0, 6.0, 7.0, 4.0, 4.0, 4.0, 1.0, 14.0, 5.0, 1.0, 1.0, 10.0, 10.0, 4.0, 3.0, 7.0, 8.0, 4.0, 9.0, 4.0, 8.0, 2.0, 3.0, 1.0, 3.0, 4.0, 9.0, 8.0, 4.0, 5.0, 7.0, 6.0, 20.0, 12.0, 2.0, 5.0, 14.0, 4.0, 5.0, 12.0, 4.0, 3.0, 11.0, 5.0, 2.0, 5.0, 1.0, 3.0, 1.0, 4.0, 4.0, 11.0, 4.0, 9.0, 8.0, 2.0, 6.0, 2.0, 5.0, 5.0, 1.0, 12.0, 23.0, 1.0, 2.0, 3.0, 7.0, 6.0, 6.0, 3.0, 2.0, 3.0, 12.0, 4.0, 33.0, 5.0, 3.0, 8.0, 1.0, 4.0, 9.0, 5.0, 3.0, 5.0, 2.0, 3.0, 4.0, 6.0, 6.0, 6.0, 4.0, 2.0, 4.0, 5.0, 14.0, 3.0, 4.0, 5.0, 4.0, 11.0, 20.0, 7.0, 5.0, 6.0, 4.0, 2.0, 4.0, 5.0, 6.0, 11.0, 4.0, 10.0, 8.0, 5.0, 2.0, 6.0, 0.0, 4.0, 9.0, 8.0, 6.0, 6.0, 3.0, 3.0, 7.0, 5.0, 3.0, 8.0, 1.0, 14.0, 7.0, 2.0, 6.0, 8.0, 22.0, 6.0, 1.0, 8.0, 2.0, 14.0, 7.0, 4.0, 2.0, 2.0, 10.0, 3.0, 7.0, 7.0, 7.0, 2.0, 6.0, 7.0, 1.0, 9.0, 6.0, 7.0, 8.0, 4.0, 4.0, 8.0, 9.0, 4.0, 3.0, 4.0, 4.0, 8.0, 3.0, 7.0, 11.0, 8.0, 6.0, 5.0, 6.0, 3.0, 11.0, 4.0, 2.0, 4.0, 4.0, 3.0, 6.0, 10.0, 13.0, 26.0, 3.0, 6.0, 1.0, 4.0, 8.0, 1.0, 7.0, 4.0, 2.0, 4.0, 4.0, 4.0, 3.0, 5.0, 6.0, 1.0, 2.0, 1.0, 1.0, 2.0, 2.0, 6.0, 12.0, 5.0, 3.0, 2.0, 8.0, 3.0, 1.0, 12.0, 6.0, 7.0, 10.0, 3.0, 3.0, 8.0, 3.0, 2.0, 1.0, 3.0, 3.0, 2.0, 7.0, 3.0, 3.0, 1.0, 4.0, 3.0, 1.0, 1.0, 13.0, 7.0, 3.0, 1.0, 3.0, 6.0, 4.0, 4.0, 10.0, 1.0, 10.0, 1.0, 9.0, 2.0, 11.0, 11.0, 2.0, 7.0, 4.0, 4.0, 4.0, 8.0, 8.0, 1.0, 4.0, 3.0, 3.0, 3.0, 1.0, 9.0, 3.0, 3.0, 3.0, 4.0, 1.0, 9.0, 3.0, 3.0, 11.0, 3.0, 11.0, 3.0, 7.0, 6.0, 4.0, 3.0, 3.0, 5.0, 3.0, 5.0, 3.0, 3.0, 3.0, 2.0, 5.0, 6.0, 3.0, 27.0, 4.0, 4.0, 5.0, 13.0, 11.0, 6.0, 3.0, 28.0, 9.0, 0.0, 5.0, 7.0, 4.0, 3.0, 5.0, 5.0, 4.0, 3.0, 2.0, 7.0, 4.0, 5.0, 10.0, 4.0, 3.0, 6.0, 8.0, 3.0, 11.0, 3.0, 6.0, 6.0, 6.0, 1.0, 4.0, 11.0, 6.0, 5.0, 5.0, 6.0, 4.0, 4.0, 1.0, 3.0, 1.0, 5.0, 10.0, 5.0, 4.0, 2.0, 4.0, 3.0, 6.0, 5.0, 14.0, 1.0, 2.0, 2.0, 9.0, 13.0, 3.0, 7.0, 8.0, 4.0, 4.0, 3.0, 2.0, 5.0, 3.0, 35.0, 3.0, 3.0, 96.0, 6.0, 5.0, 6.0, 7.0, 8.0, 2.0, 6.0, 7.0, 2.0, 2.0, 2.0, 2.0, 0.0, 10.0, 2.0, 6.0, 2.0, 3.0, 6.0, 2.0, 3.0, 11.0, 3.0, 2.0, 4.0, 4.0, 4.0, 9.0, 1.0, 3.0, 2.0, 1.0, 7.0, 4.0, 3.0, 8.0, 4.0, 4.0, 1.0, 9.0, 4.0, 12.0, 2.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 9.0, 5.0, 1.0, 2.0, 5.0, 2.0, 5.0, 10.0, 9.0, 2.0, 4.0, 11.0, 15.0, 9.0, 1.0, 3.0, 2.0, 3.0, 1.0, 3.0, 2.0, 6.0, 10.0, 3.0, 6.0, 5.0, 6.0, 1.0, 10.0, 5.0, 4.0, 7.0, 4.0, 3.0, 9.0, 10.0, 12.0, 2.0, 1.0, 6.0, 7.0, 5.0, 7.0, 14.0, 3.0, 7.0, 5.0, 3.0, 8.0, 7.0, 6.0, 8.0, 8.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 6.0, 1.0, 6.0, 4.0, 2.0, 5.0, 6.0, 3.0, 3.0, 4.0, 2.0, 39.0, 2.0, 5.0, 5.0, 5.0, 10.0, 9.0, 5.0, 2.0, 2.0, 6.0, 4.0, 5.0, 7.0, 5.0, 3.0, 8.0, 3.0, 5.0, 15.0, 6.0, 7.0, 8.0, 3.0, 6.0, 14.0, 7.0, 6.0, 6.0, 6.0, 10.0, 5.0, 2.0, 4.0, 10.0, 1.0, 2.0, 4.0, 2.0, 4.0, 18.0, 2.0, 7.0, 7.0, 14.0, 9.0, 4.0, 5.0, 5.0, 3.0, 11.0, 18.0, 2.0, 6.0, 3.0, 2.0, 2.0, 6.0, 5.0, 5.0, 8.0, 2.0, 5.0, 5.0, 13.0, 16.0, 6.0, 6.0, 60.0, 2.0, 6.0, 3.0, 5.0, 3.0, 7.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 12.0, 15.0, 8.0, 4.0, 5.0, 15.0, 13.0, 48.0, 4.0, 11.0, 18.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 2.0, 7.0, 2.0, 7.0, 5.0, 9.0, 11.0, 3.0, 3.0, 8.0, 7.0, 3.0, 4.0, 13.0, 2.0, 4.0, 9.0, 9.0, 2.0, 3.0, 10.0, 17.0, 1.0, 3.0, 3.0, 2.0, 1.0, 14.0, 3.0, 3.0, 4.0, 4.0, 3.0, 45.0, 3.0, 2.0, 2.0, 2.0, 8.0, 4.0, 10.0, 3.0, 5.0, 7.0, 5.0, 5.0, 9.0, 6.0, 21.0, 5.0, 3.0, 5.0, 1.0, 0.0, 6.0, 12.0, 6.0, 2.0, 16.0, 5.0, 10.0, 8.0, 5.0, 6.0, 9.0, 3.0, 7.0, 7.0, 4.0, 4.0, 3.0, 4.0, 11.0, 3.0, 14.0, 5.0, 9.0, 6.0, 5.0, 3.0, 3.0, 2.0, 3.0, 3.0, 3.0, 1.0, 9.0, 8.0, 4.0, 15.0, 6.0, 3.0, 3.0, 5.0, 5.0, 2.0, 9.0, 3.0, 6.0, 4.0, 8.0, 15.0, 2.0, 18.0, 2.0, 9.0, 8.0, 7.0, 14.0, 5.0, 5.0, 14.0, 2.0, 2.0, 5.0, 5.0, 9.0, 36.0, 3.0, 1.0, 1.0, 3.0, 9.0, 11.0, 4.0, 5.0, 1.0, 9.0, 2.0, 19.0, 3.0, 7.0, 1.0, 59.0, 5.0, 4.0, 5.0, 6.0, 2.0, 6.0, 2.0, 3.0, 1.0, 10.0, 3.0, 6.0, 2.0, 3.0, 4.0, 11.0, 1.0, 43.0, 8.0, 3.0, 4.0, 14.0, 3.0, 3.0, 9.0, 8.0, 7.0, 4.0, 1.0, 6.0, 69.0, 1.0, 2.0, 1.0, 32.0, 5.0, 6.0, 7.0, 6.0, 3.0, 3.0, 5.0, 6.0, 5.0, 0.0, 5.0, 8.0, 5.0, 6.0, 2.0, 2.0, 10.0, 7.0, 2.0, 4.0, 7.0, 6.0, 23.0, 1.0, 5.0, 14.0, 5.0, 3.0, 6.0, 9.0, 3.0, 7.0, 3.0, 4.0, 3.0, 4.0, 16.0, 2.0, 13.0, 1.0, 5.0, 12.0, 16.0, 4.0, 4.0, 6.0, 3.0, 15.0, 7.0, 3.0, 2.0, 1.0, 1.0, 0.0, 7.0, 1.0, 4.0, 3.0, 2.0, 1.0, 4.0, 9.0, 5.0, 1.0, 1.0, 6.0, 3.0, 8.0, 10.0, 4.0, 97.0, 7.0, 4.0, 7.0, 8.0, 10.0, 6.0, 6.0, 4.0, 5.0, 11.0, 1.0, 4.0, 11.0, 4.0, 4.0, 12.0, 29.0, 3.0, 3.0, 3.0, 110.0, 1.0, 10.0, 7.0, 10.0, 4.0, 2.0, 5.0, 7.0, 4.0, 4.0, 3.0, 9.0, 3.0, 10.0, 5.0, 5.0, 4.0, 26.0, 3.0, 4.0, 12.0, 6.0, 1.0, 8.0, 5.0, 3.0, 2.0, 8.0, 8.0, 7.0, 7.0, 4.0, 5.0, 3.0, 6.0, 0.0, 6.0, 4.0, 4.0, 3.0, 1.0, 7.0, 19.0, 8.0, 1.0, 7.0, 10.0, 4.0, 3.0, 4.0, 4.0, 8.0, 12.0, 8.0, 10.0, 7.0, 5.0, 4.0, 8.0, 5.0, 4.0, 5.0, 3.0, 8.0, 6.0, 2.0, 25.0, 17.0, 3.0, 1.0, 3.0, 11.0, 1.0, 8.0, 8.0, 6.0, 5.0, 6.0, 2.0, 5.0, 9.0, 2.0, 0.0, 2.0, 6.0, 1.0, 5.0, 8.0, 6.0, 5.0, 14.0, 1.0, 9.0, 3.0, 13.0, 7.0, 1.0, 9.0, 5.0, 5.0, 5.0, 5.0, 3.0, 2.0, 5.0, 6.0, 5.0, 3.0, 2.0, 4.0, 2.0, 4.0, 9.0, 1.0, 2.0, 6.0, 5.0, 6.0, 6.0, 5.0, 10.0, 10.0, 1.0, 4.0, 10.0, 5.0, 6.0, 5.0, 13.0, 7.0, 11.0, 7.0, 6.0, 8.0, 2.0, 9.0, 5.0, 11.0, 8.0, 8.0, 16.0, 6.0, 2.0, 9.0, 8.0, 9.0, 8.0, 4.0, 11.0, 2.0, 10.0, 6.0, 6.0, 8.0, 6.0, 9.0, 8.0, 30.0, 2.0, 6.0, 9.0, 3.0, 15.0, 13.0, 11.0, 11.0, 4.0, 15.0, 10.0, 5.0, 3.0, 7.0, 2.0, 6.0, 10.0, 4.0, 4.0, 7.0, 8.0, 7.0, 3.0, 8.0, 7.0, 12.0, 10.0, 15.0, 2.0, 5.0, 3.0, 3.0, 11.0, 2.0, 3.0, 4.0, 1.0, 6.0, 4.0, 9.0, 3.0, 5.0, 6.0, 2.0, 8.0, 5.0, 10.0, 7.0, 4.0, 7.0, 9.0, 4.0, 6.0, 13.0, 16.0, 5.0, 2.0, 7.0, 6.0, 9.0, 7.0, 5.0, 3.0, 2.0, 3.0, 12.0, 6.0, 10.0, 2.0, 3.0, 6.0, 5.0, 5.0, 4.0, 6.0, 5.0, 10.0, 6.0, 6.0, 7.0, 4.0, 5.0, 3.0, 8.0, 6.0, 11.0, 5.0, 4.0, 7.0, 6.0, 8.0, 2.0, 6.0, 3.0, 19.0, 5.0, 5.0, 8.0, 8.0, 7.0, 1.0, 5.0, 2.0, 6.0, 1.0, 8.0, 6.0, 2.0, 1.0, 6.0, 6.0, 9.0, 10.0, 6.0, 6.0, 1.0, 8.0, 3.0, 6.0, 4.0, 3.0, 6.0, 7.0, 3.0, 7.0, 5.0, 6.0, 7.0, 8.0, 4.0, 3.0, 8.0, 6.0, 13.0, 8.0, 4.0, 5.0, 7.0, 7.0, 3.0, 10.0, 6.0, 3.0, 2.0, 8.0, 4.0, 10.0, 5.0, 3.0, 14.0, 5.0, 2.0, 8.0, 6.0, 5.0, 7.0, 5.0, 4.0, 4.0, 8.0, 7.0, 8.0, 6.0, 131.0, 5.0, 8.0, 3.0, 9.0, 10.0, 9.0, 12.0, 3.0, 14.0, 4.0, 9.0, 4.0, 5.0, 4.0, 1.0, 1.0, 4.0, 3.0, 1.0, 9.0, 5.0, 5.0, 9.0, 4.0, 2.0, 9.0, 5.0, 5.0, 3.0, 4.0, 10.0, 9.0, 4.0, 4.0, 6.0, 4.0, 10.0, 6.0, 13.0, 3.0, 6.0, 3.0, 4.0, 6.0, 3.0, 2.0, 6.0, 4.0, 4.0, 5.0, 2.0, 3.0, 6.0, 4.0, 6.0, 3.0, 5.0, 1.0, 5.0, 10.0, 9.0, 1.0, 8.0, 12.0, 11.0, 4.0, 4.0, 5.0, 6.0, 1.0, 3.0, 0.0, 3.0, 3.0, 7.0, 4.0, 3.0, 3.0, 3.0, 3.0, 7.0, 4.0, 3.0, 10.0, 4.0, 14.0, 4.0, 11.0, 7.0, 3.0, 10.0, 7.0, 4.0, 3.0, 4.0, 8.0, 4.0, 4.0, 8.0, 8.0, 2.0, 11.0, 7.0, 7.0, 2.0, 2.0, 6.0, 4.0, 4.0, 5.0, 4.0, 8.0, 4.0, 11.0, 4.0, 7.0, 7.0, 2.0, 7.0, 3.0, 10.0, 11.0, 3.0, 7.0, 6.0, 5.0, 8.0, 7.0, 8.0, 8.0, 6.0, 7.0, 8.0, 5.0, 7.0, 8.0, 7.0, 7.0, 8.0, 5.0, 4.0, 4.0, 8.0, 47.0, 6.0, 4.0, 3.0, 5.0, 9.0, 4.0, 5.0, 2.0, 3.0, 6.0, 6.0, 11.0, 11.0, 6.0, 3.0, 8.0, 14.0, 6.0, 4.0, 22.0, 2.0, 8.0, 8.0, 4.0, 3.0, 5.0, 15.0, 11.0, 2.0, 0.0, 3.0, 6.0, 3.0, 6.0, 10.0, 7.0, 7.0, 3.0, 10.0, 4.0, 3.0, 5.0, 7.0, 1.0, 5.0, 3.0, 5.0, 2.0, 10.0, 6.0, 3.0, 4.0, 7.0, 3.0, 9.0, 0.0, 2.0, 7.0, 7.0, 10.0, 2.0, 4.0, 19.0, 4.0, 5.0, 11.0, 14.0, 5.0, 1.0, 6.0, 9.0, 5.0, 5.0, 8.0, 11.0, 8.0, 5.0, 5.0, 12.0, 10.0, 9.0, 4.0, 12.0, 8.0, 4.0, 5.0, 5.0, 1.0, 3.0, 4.0, 10.0, 10.0, 3.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 6.0, 5.0, 8.0, 16.0, 14.0, 4.0, 3.0, 2.0, 22.0, 4.0, 13.0, 14.0, 4.0, 4.0, 11.0, 5.0, 8.0, 11.0, 1.0, 8.0, 7.0, 7.0, 6.0, 4.0, 13.0, 9.0, 6.0, 6.0, 11.0, 6.0, 10.0, 16.0, 4.0, 13.0, 2.0, 5.0, 2.0, 12.0, 20.0, 7.0, 10.0, 10.0, 9.0, 29.0, 3.0, 3.0, 9.0, 3.0, 6.0, 3.0, 4.0, 11.0, 11.0, 7.0, 8.0, 3.0, 8.0, 10.0, 4.0, 6.0, 12.0, 6.0, 14.0, 34.0, 3.0, 7.0, 13.0, 5.0, 12.0, 7.0, 4.0, 9.0, 2.0, 5.0, 5.0, 14.0, 5.0, 17.0, 3.0, 41.0, 45.0, 147.0, 95.0, 104.0, 5.0, 1.0, 3.0, 4.0, 5.0, 3.0, 4.0, 5.0, 4.0, 3.0, 6.0, 6.0, 6.0, 6.0, 5.0, 5.0, 4.0, 8.0, 2.0, 5.0, 6.0, 13.0, 6.0, 11.0, 4.0, 4.0, 4.0, 6.0, 7.0, 6.0, 1.0, 6.0, 10.0, 3.0, 4.0, 1.0, 4.0, 7.0, 3.0, 4.0, 12.0, 3.0, 4.0, 3.0, 7.0, 3.0, 7.0, 6.0, 8.0, 12.0, 6.0, 5.0, 3.0, 3.0, 14.0, 3.0, 4.0, 6.0, 7.0, 1.0, 18.0, 7.0, 3.0, 3.0, 14.0, 7.0, 3.0, 3.0, 2.0, 5.0, 2.0, 4.0, 12.0, 6.0, 11.0, 4.0, 17.0, 7.0, 4.0, 12.0, 8.0, 8.0, 7.0, 12.0, 6.0, 5.0, 6.0, 6.0, 19.0, 1.0, 7.0, 13.0, 6.0, 3.0, 6.0, 3.0, 9.0, 4.0, 8.0, 4.0, 3.0, 4.0, 2.0, 15.0, 4.0, 4.0, 3.0, 2.0, 3.0, 7.0, 3.0, 7.0, 8.0, 3.0, 4.0, 5.0, 5.0, 5.0, 6.0, 5.0, 5.0, 5.0, 1.0, 5.0, 5.0, 7.0, 2.0, 3.0, 3.0, 4.0, 3.0, 5.0, 8.0, 5.0, 4.0, 3.0, 13.0, 4.0, 10.0, 9.0, 10.0, 3.0, 3.0, 7.0, 3.0, 9.0, 2.0, 32.0, 7.0, 7.0, 5.0, 6.0, 3.0, 11.0, 4.0, 4.0, 3.0, 5.0, 10.0, 2.0, 8.0, 7.0, 10.0, 9.0, 5.0, 6.0, 3.0, 7.0, 5.0, 3.0, 1.0, 6.0, 8.0, 7.0, 15.0, 5.0, 2.0, 3.0, 10.0, 11.0, 2.0, 20.0, 21.0, 5.0, 4.0, 48.0, 5.0, 5.0, 6.0, 3.0, 5.0, 54.0, 18.0, 1.0, 1.0, 12.0, 9.0, 12.0, 6.0, 10.0, 3.0, 3.0, 3.0, 3.0, 42.0, 3.0, 2.0, 11.0, 16.0, 5.0, 5.0, 15.0, 4.0, 8.0, 2.0, 7.0, 10.0, 3.0, 11.0, 10.0, 5.0, 5.0, 9.0, 4.0, 7.0, 27.0, 2.0, 14.0, 2.0, 2.0, 4.0, 9.0, 5.0, 7.0, 4.0, 25.0, 49.0, 1.0, 2.0, 2.0, 7.0, 2.0, 37.0, 5.0, 11.0, 14.0, 5.0, 3.0, 5.0, 6.0, 3.0, 6.0, 1.0, 11.0, 1.0, 43.0, 12.0, 5.0, 8.0, 26.0, 8.0, 14.0, 3.0, 5.0, 8.0, 11.0, 10.0, 1.0, 4.0, 8.0, 2.0, 8.0, 4.0, 1.0, 6.0, 2.0, 6.0, 12.0, 4.0, 5.0, 5.0, 9.0, 9.0, 8.0, 15.0, 1.0, 3.0, 3.0, 2.0, 1.0, 2.0, 2.0, 6.0, 3.0, 9.0, 58.0, 35.0, 8.0, 4.0, 9.0, 4.0, 5.0, 2.0, 8.0, 23.0, 10.0, 3.0, 11.0, 13.0, 6.0, 1.0, 6.0, 3.0, 3.0, 4.0, 3.0, 4.0, 9.0, 5.0, 4.0, 38.0, 47.0, 21.0, 6.0, 2.0, 13.0, 11.0, 6.0, 22.0, 3.0, 3.0, 3.0, 2.0, 4.0, 5.0, 2.0, 6.0, 1.0, 8.0, 5.0, 6.0, 9.0, 5.0, 8.0, 10.0, 10.0, 5.0, 6.0, 2.0, 9.0, 18.0, 11.0, 4.0, 4.0, 8.0, 13.0, 70.0, 7.0, 6.0, 32.0, 72.0, 9.0, 1.0, 18.0, 2.0, 23.0, 4.0, 6.0, 12.0, 20.0, 6.0, 3.0, 1.0, 9.0, 4.0, 7.0, 36.0, 5.0, 4.0, 8.0, 5.0, 33.0, 4.0, 6.0, 4.0, 5.0, 4.0, 5.0, 5.0, 1.0, 3.0, 21.0, 13.0, 5.0, 3.0, 11.0, 1.0, 6.0, 0.0, 6.0, 1.0, 6.0, 14.0, 3.0, 1.0, 8.0, 5.0, 1.0, 12.0, 6.0, 5.0, 19.0, 9.0, 8.0, 8.0, 9.0, 10.0, 14.0, 3.0, 1.0, 9.0, 4.0, 1.0, 2.0, 8.0, 4.0, 4.0, 8.0, 3.0, 3.0, 18.0, 2.0, 5.0, 3.0, 8.0, 29.0, 16.0, 9.0, 4.0, 0.0, 5.0, 6.0, 17.0, 2.0, 9.0, 7.0, 3.0, 10.0, 5.0, 10.0, 5.0, 2.0, 14.0, 4.0, 1.0, 6.0, 9.0, 5.0, 8.0, 4.0, 8.0, 6.0, 12.0, 3.0, 3.0, 2.0, 7.0, 2.0, 9.0, 5.0, 6.0, 6.0, 2.0, 1.0, 8.0, 15.0, 3.0, 4.0, 6.0, 10.0, 11.0, 2.0, 2.0, 4.0, 1.0, 8.0, 3.0, 2.0, 3.0, 1.0, 9.0, 3.0, 4.0, 14.0, 7.0, 1.0, 5.0, 4.0, 5.0, 4.0, 5.0, 1.0, 4.0, 1.0, 13.0, 5.0, 9.0, 1.0, 50.0, 16.0, 3.0, 16.0, 7.0, 9.0, 3.0, 4.0, 14.0, 3.0, 6.0, 3.0, 4.0, 5.0, 9.0, 18.0, 37.0, 3.0, 10.0, 8.0, 5.0, 2.0, 5.0, 7.0, 11.0, 10.0, 6.0, 1.0, 5.0, 6.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 1.0, 11.0, 7.0, 4.0, 6.0, 2.0, 6.0, 11.0, 36.0, 4.0, 6.0, 1.0, 5.0, 7.0, 12.0, 10.0, 5.0, 10.0, 7.0, 3.0, 9.0, 6.0, 2.0, 6.0, 50.0, 6.0, 4.0, 6.0, 3.0, 1.0, 7.0, 6.0, 10.0, 9.0, 9.0, 8.0, 22.0, 5.0, 4.0, 4.0, 4.0, 4.0, 8.0, 7.0, 3.0, 8.0, 4.0, 9.0, 8.0, 7.0, 6.0, 3.0, 5.0, 3.0, 3.0, 1.0, 7.0, 10.0, 2.0, 4.0, 9.0, 39.0, 4.0, 11.0, 3.0, 4.0, 8.0, 9.0, 5.0, 4.0, 12.0, 3.0, 10.0, 8.0, 16.0, 3.0, 4.0, 5.0, 5.0, 4.0, 5.0, 8.0, 10.0, 5.0, 5.0, 10.0, 22.0, 11.0, 2.0, 2.0, 12.0, 10.0, 5.0, 3.0, 9.0, 2.0, 11.0, 5.0, 6.0, 5.0, 8.0, 13.0, 9.0, 3.0, 10.0, 6.0, 3.0, 9.0, 3.0, 13.0, 17.0, 9.0, 4.0, 0.0, 4.0, 3.0, 10.0, 3.0, 5.0, 10.0, 5.0, 11.0, 7.0, 6.0, 7.0, 7.0, 2.0, 7.0, 4.0, 3.0, 14.0, 10.0, 26.0, 20.0, 6.0, 14.0, 8.0, 3.0, 55.0, 4.0, 3.0, 7.0, 4.0, 0.0, 6.0, 4.0, 4.0, 5.0, 4.0, 11.0, 7.0, 7.0, 9.0, 14.0, 4.0, 3.0, 3.0, 7.0, 4.0, 1.0, 9.0, 1.0, 2.0, 5.0, 2.0, 7.0, 2.0, 5.0, 8.0, 41.0, 8.0, 8.0, 34.0, 8.0, 5.0, 1.0, 5.0, 2.0, 14.0, 1.0, 9.0, 2.0, 8.0, 1.0, 4.0, 12.0, 1.0, 2.0, 5.0, 6.0, 22.0, 5.0, 2.0, 6.0, 7.0, 1.0, 5.0, 15.0, 8.0, 1.0, 1.0, 2.0, 17.0, 4.0, 10.0, 9.0, 6.0, 9.0, 10.0, 18.0, 10.0, 9.0, 3.0, 1.0, 4.0, 6.0, 1.0, 15.0, 7.0, 4.0, 3.0, 6.0, 3.0, 4.0, 5.0, 7.0, 13.0, 3.0, 0.0, 3.0, 5.0, 7.0, 7.0, 17.0, 5.0, 7.0, 6.0, 3.0, 1.0, 15.0, 8.0, 3.0, 8.0, 0.0, 2.0, 3.0, 33.0, 5.0, 4.0, 14.0, 4.0, 2.0, 8.0, 1.0, 7.0, 7.0, 7.0, 7.0, 4.0, 3.0, 5.0, 11.0, 2.0, 1.0, 4.0, 2.0, 10.0, 81.0, 8.0, 29.0, 3.0, 3.0, 4.0, 19.0, 3.0, 4.0, 3.0, 1.0, 12.0, 4.0, 8.0, 8.0, 4.0, 12.0, 12.0, 3.0, 4.0, 6.0, 1.0, 5.0, 3.0, 6.0, 5.0, 2.0, 6.0, 2.0, 9.0, 8.0, 18.0, 6.0, 4.0, 7.0, 4.0, 2.0, 10.0, 4.0, 4.0, 5.0, 3.0, 4.0, 10.0, 2.0, 3.0, 4.0, 3.0, 19.0, 9.0, 2.0, 5.0, 2.0, 5.0, 7.0, 6.0, 5.0, 4.0, 9.0, 5.0, 9.0, 5.0, 6.0, 2.0, 10.0, 5.0, 4.0, 69.0, 4.0, 12.0, 7.0, 3.0, 4.0, 10.0, 4.0, 3.0, 4.0, 6.0, 7.0, 6.0, 3.0, 6.0, 18.0, 12.0, 4.0, 4.0, 3.0, 4.0, 13.0, 3.0, 5.0, 3.0, 5.0, 2.0, 4.0, 6.0, 3.0, 10.0, 3.0, 12.0, 11.0, 5.0, 4.0, 6.0, 6.0, 2.0, 5.0, 4.0, 13.0, 69.0, 6.0, 6.0, 8.0, 3.0, 6.0, 5.0, 7.0, 5.0, 8.0, 3.0, 5.0, 12.0, 10.0, 3.0, 4.0, 7.0, 8.0, 8.0, 3.0, 8.0, 5.0, 6.0, 4.0, 1.0, 7.0, 19.0, 12.0, 4.0, 4.0, 4.0, 7.0, 8.0, 7.0, 4.0, 5.0, 4.0, 3.0, 67.0, 1.0, 8.0, 12.0, 7.0, 1.0, 7.0, 7.0, 5.0, 3.0, 8.0, 5.0, 6.0, 9.0, 9.0, 7.0, 7.0, 3.0, 5.0, 6.0, 12.0, 5.0, 3.0, 5.0, 5.0, 5.0, 6.0, 2.0, 6.0, 7.0, 3.0, 2.0, 6.0, 5.0, 7.0, 4.0, 2.0, 2.0, 2.0, 6.0, 6.0, 2.0, 7.0, 8.0, 3.0, 23.0, 7.0, 8.0, 2.0, 5.0, 15.0, 7.0, 14.0, 1.0, 11.0, 9.0, 6.0, 3.0, 4.0, 10.0, 10.0, 2.0, 3.0, 4.0, 6.0, 36.0, 4.0, 7.0, 2.0, 4.0, 6.0, 5.0, 9.0, 3.0, 4.0, 4.0, 7.0, 6.0, 1.0, 11.0, 2.0, 1.0, 6.0, 3.0, 6.0, 6.0, 5.0, 2.0, 2.0, 7.0, 13.0, 12.0, 4.0, 10.0, 1.0, 7.0, 5.0, 18.0, 3.0, 8.0, 8.0, 2.0, 25.0, 6.0, 7.0, 2.0, 3.0, 9.0, 1.0, 2.0, 10.0, 7.0, 6.0, 7.0, 22.0, 10.0, 1.0, 4.0, 3.0, 3.0, 22.0, 8.0, 6.0, 1.0, 3.0, 5.0, 6.0, 2.0, 10.0, 10.0, 10.0, 1.0, 5.0, 7.0, 7.0, 2.0, 4.0, 11.0, 5.0, 3.0, 4.0, 12.0, 1.0, 13.0, 11.0, 1.0, 23.0, 12.0, 11.0, 8.0, 4.0, 10.0, 3.0, 4.0, 4.0, 6.0, 7.0, 7.0, 6.0, 4.0, 4.0, 5.0, 8.0, 5.0, 5.0, 6.0, 8.0, 4.0, 5.0, 9.0, 4.0, 4.0, 5.0, 8.0, 12.0, 2.0, 8.0, 3.0, 3.0, 5.0, 7.0, 1.0, 8.0, 10.0, 1.0, 3.0, 20.0, 24.0, 12.0, 3.0, 11.0, 4.0, 6.0, 3.0, 37.0, 4.0, 6.0, 14.0, 4.0, 5.0, 5.0, 3.0, 7.0, 6.0, 10.0, 4.0, 1.0, 6.0, 20.0, 3.0, 5.0, 8.0, 5.0, 10.0, 67.0, 4.0, 8.0, 5.0, 1.0, 4.0, 0.0, 1.0, 5.0, 11.0, 6.0, 7.0, 5.0, 6.0, 1.0, 8.0, 4.0, 2.0, 16.0, 8.0, 4.0, 11.0, 7.0, 6.0, 5.0, 4.0, 11.0, 4.0, 3.0, 3.0, 7.0, 3.0, 13.0, 4.0, 6.0, 7.0, 5.0, 5.0, 1.0, 4.0, 3.0, 7.0, 6.0, 4.0, 6.0, 22.0, 3.0, 3.0, 5.0, 12.0, 0.0, 12.0, 1.0, 6.0, 12.0, 6.0, 13.0, 6.0, 34.0, 5.0, 5.0, 7.0, 4.0, 8.0, 6.0, 6.0, 2.0, 10.0, 1.0, 4.0, 14.0, 9.0, 3.0, 2.0, 6.0, 6.0, 6.0, 9.0, 9.0, 2.0, 2.0, 12.0, 2.0, 6.0, 7.0, 8.0, 8.0, 6.0, 1.0, 2.0, 2.0, 8.0, 9.0, 8.0, 5.0, 2.0, 7.0, 5.0, 2.0, 4.0, 10.0, 2.0, 10.0, 5.0, 5.0, 6.0, 7.0, 2.0, 10.0, 9.0, 5.0, 11.0, 3.0, 6.0, 11.0, 5.0, 25.0, 11.0, 14.0, 3.0, 4.0, 9.0, 11.0, 4.0, 15.0, 10.0, 9.0, 3.0, 2.0, 5.0, 47.0, 5.0, 19.0, 5.0, 5.0, 12.0, 1.0, 2.0, 9.0, 2.0, 8.0, 5.0, 4.0, 5.0, 6.0, 5.0, 10.0, 5.0, 4.0, 4.0, 24.0, 5.0, 5.0, 2.0, 4.0, 3.0, 5.0, 6.0, 7.0, 3.0, 4.0, 5.0, 6.0, 6.0, 1.0, 4.0, 10.0, 7.0, 6.0, 6.0, 5.0, 4.0, 6.0, 5.0, 18.0, 7.0, 45.0, 16.0, 5.0, 2.0, 11.0, 3.0, 4.0, 7.0, 5.0, 20.0, 2.0, 21.0, 8.0, 12.0, 2.0, 11.0, 5.0, 6.0, 9.0, 5.0, 7.0, 12.0, 1.0, 7.0, 7.0, 6.0, 5.0, 5.0, 7.0, 41.0, 2.0, 7.0, 7.0, 5.0, 15.0, 7.0, 7.0, 9.0, 7.0, 2.0, 3.0, 4.0, 2.0, 25.0, 87.0, 11.0, 3.0, 14.0, 4.0, 4.0, 4.0, 16.0, 3.0, 3.0, 7.0, 10.0, 2.0, 3.0, 17.0, 28.0, 3.0, 5.0, 29.0, 4.0, 9.0, 18.0, 5.0, 5.0, 5.0, 8.0, 45.0, 39.0, 3.0, 4.0, 23.0, 4.0, 4.0, 3.0, 4.0, 2.0, 13.0, 10.0, 6.0, 6.0, 6.0, 1.0, 15.0, 1.0, 3.0, 14.0, 2.0, 2.0, 2.0, 9.0, 11.0, 5.0, 8.0, 1.0, 8.0, 6.0, 2.0, 2.0, 2.0, 8.0, 3.0, 2.0, 6.0, 7.0, 2.0, 6.0, 4.0, 20.0, 7.0, 8.0, 5.0, 2.0, 24.0, 35.0, 6.0, 18.0, 4.0, 10.0, 3.0, 2.0, 15.0, 5.0, 8.0, 3.0, 3.0, 2.0, 4.0, 6.0, 5.0, 4.0, 2.0, 8.0, 19.0, 7.0, 7.0, 7.0, 9.0, 12.0, 22.0, 2.0, 5.0, 13.0, 3.0, 6.0, 5.0, 8.0, 11.0, 32.0, 2.0, 12.0, 6.0, 6.0, 2.0, 16.0, 56.0, 11.0, 2.0, 6.0, 9.0, 16.0, 2.0, 3.0, 27.0, 15.0, 31.0, 6.0, 34.0, 44.0, 4.0, 59.0, 9.0, 18.0, 3.0, 7.0, 25.0, 10.0, 11.0, 17.0, 16.0, 2.0, 2.0, 6.0, 13.0, 4.0, 4.0, 0.0, 10.0, 7.0, 10.0, 1.0, 7.0, 10.0, 88.0, 8.0, 46.0, 8.0, 6.0, 5.0, 5.0, 20.0, 3.0, 49.0, 6.0, 6.0, 6.0, 3.0, 3.0, 1.0, 9.0, 4.0, 4.0, 8.0, 12.0, 10.0, 12.0, 17.0, 6.0, 4.0, 6.0, 7.0, 14.0, 40.0, 6.0, 6.0, 12.0, 11.0, 48.0, 7.0, 5.0, 5.0, 3.0, 6.0, 14.0, 4.0, 3.0, 9.0, 5.0, 1.0, 9.0, 6.0, 4.0, 67.0, 74.0, 2.0, 11.0, 5.0, 18.0, 132.0, 26.0, 13.0, 13.0, 5.0, 14.0, 10.0, 6.0, 70.0, 2.0, 3.0, 8.0, 5.0, 26.0, 3.0, 18.0, 7.0, 6.0, 5.0, 4.0, 3.0, 155.0, 4.0, 4.0, 10.0, 13.0, 3.0, 87.0, 4.0, 7.0, 5.0, 1.0, 2.0, 7.0, 3.0, 10.0, 2.0, 5.0, 6.0, 4.0, 3.0, 6.0, 2.0, 5.0, 3.0, 6.0, 1.0, 11.0, 98.0, 6.0, 8.0, 17.0, 3.0, 4.0, 15.0, 5.0, 6.0, 34.0, 5.0, 4.0, 7.0, 3.0, 7.0, 4.0, 4.0, 11.0, 7.0, 12.0, 5.0, 4.0, 3.0, 15.0, 11.0, 3.0, 13.0, 3.0, 11.0, 2.0, 10.0, 4.0, 7.0, 7.0, 12.0, 2.0, 8.0, 6.0, 5.0, 5.0, 128.0, 1.0, 35.0, 7.0, 5.0, 9.0, 6.0, 3.0, 4.0, 9.0, 2.0, 7.0, 0.0, 8.0, 64.0, 5.0, 113.0, 14.0, 10.0, 13.0, 1.0, 19.0, 45.0, 14.0, 6.0, 153.0, 5.0, 8.0, 9.0, 8.0, 4.0, 3.0, 7.0, 0.0, 4.0, 16.0, 5.0, 6.0, 6.0, 65.0, 4.0, 2.0, 7.0, 3.0, 9.0, 3.0, 106.0, 5.0, 9.0, 7.0, 3.0, 15.0, 2.0, 5.0, 9.0, 4.0, 5.0, 10.0, 8.0, 8.0, 10.0, 2.0, 1.0, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 32.0, 5.0, 5.0, 7.0, 2.0, 12.0, 26.0, 7.0, 2.0, 1.0, 4.0, 1.0, 9.0, 1.0, 21.0, 3.0, 3.0, 8.0, 3.0, 15.0, 9.0, 3.0, 5.0, 5.0, 1.0, 10.0, 2.0, 4.0, 13.0, 114.0, 2.0, 2.0, 7.0, 10.0, 6.0, 3.0, 6.0, 6.0, 2.0, 2.0, 11.0, 18.0, 6.0, 1.0, 4.0, 6.0, 1.0, 12.0, 6.0, 1.0, 3.0, 7.0, 13.0, 2.0, 7.0, 5.0, 16.0, 2.0, 6.0, 4.0, 3.0, 11.0, 39.0, 14.0, 1.0, 3.0, 4.0, 1.0, 5.0, 4.0, 4.0, 9.0, 2.0, 5.0, 8.0, 6.0, 15.0, 6.0, 7.0, 5.0, 4.0, 10.0, 6.0, 3.0, 2.0, 9.0, 4.0, 5.0, 11.0, 8.0, 1.0, 7.0, 14.0, 5.0, 5.0, 1.0, 8.0, 8.0, 6.0, 15.0, 2.0, 10.0, 19.0, 15.0, 13.0, 9.0, 6.0, 3.0, 7.0, 9.0, 8.0, 6.0, 1.0, 8.0, 8.0, 14.0, 5.0, 5.0, 16.0, 5.0, 4.0, 16.0, 5.0, 16.0, 11.0, 6.0, 5.0, 15.0, 6.0, 6.0, 5.0, 5.0, 6.0, 6.0, 5.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0, 5.0, 4.0, 7.0, 5.0, 14.0, 7.0, 10.0, 5.0, 7.0, 4.0, 6.0, 8.0, 25.0, 5.0, 5.0, 8.0, 4.0, 36.0, 7.0, 7.0, 6.0, 11.0, 9.0, 6.0, 6.0, 2.0, 6.0, 12.0, 5.0, 5.0, 5.0, 5.0, 5.0, 2.0, 6.0, 14.0, 4.0, 6.0, 10.0, 15.0, 7.0, 7.0, 9.0, 6.0, 3.0, 2.0, 4.0, 1.0, 1.0, 13.0, 11.0, 12.0, 3.0, 8.0, 5.0, 3.0, 7.0, 4.0, 8.0, 11.0, 16.0, 11.0, 4.0, 8.0, 8.0, 9.0, 5.0, 9.0, 3.0, 5.0, 5.0, 8.0, 7.0, 3.0, 7.0, 1.0, 4.0, 5.0, 3.0, 0.0, 5.0, 10.0, 12.0, 25.0, 10.0, 9.0, 3.0, 11.0, 7.0, 7.0, 5.0, 11.0, 10.0, 5.0, 8.0, 5.0, 20.0, 7.0, 20.0, 1.0, 3.0, 24.0, 5.0, 4.0, 4.0, 6.0, 4.0, 1.0, 3.0, 8.0, 6.0, 6.0, 8.0, 6.0, 5.0, 5.0, 8.0, 11.0, 7.0, 8.0, 4.0, 7.0, 6.0, 7.0, 5.0, 4.0, 21.0, 1.0, 6.0, 12.0, 10.0, 7.0, 13.0, 12.0, 1.0, 4.0, 5.0, 5.0, 6.0, 2.0, 4.0, 9.0, 4.0, 6.0, 7.0, 9.0, 3.0, 6.0, 14.0, 13.0, 13.0, 5.0, 27.0, 3.0, 6.0, 2.0, 5.0, 7.0, 6.0, 12.0, 1.0, 5.0, 5.0, 7.0, 10.0, 6.0, 15.0, 9.0, 1.0, 10.0, 8.0, 4.0, 0.0, 3.0, 28.0, 10.0, 6.0, 3.0, 6.0, 10.0, 7.0, 17.0, 4.0, 14.0, 4.0, 15.0, 17.0, 4.0, 27.0, 4.0, 5.0, 7.0, 2.0, 11.0, 8.0, 6.0, 13.0, 3.0, 7.0, 4.0, 9.0, 6.0, 9.0, 8.0, 18.0, 4.0, 7.0, 4.0, 11.0, 5.0, 7.0, 10.0, 4.0, 7.0, 23.0, 7.0, 2.0, 10.0, 18.0, 2.0, 6.0, 5.0, 4.0, 9.0, 4.0, 9.0, 7.0, 18.0, 8.0, 9.0, 3.0, 9.0, 4.0, 4.0, 10.0, 9.0, 3.0, 8.0, 5.0, 6.0, 2.0, 4.0, 14.0, 11.0, 2.0, 3.0, 10.0, 16.0, 4.0, 10.0, 2.0, 9.0, 10.0, 10.0, 13.0, 4.0, 4.0, 13.0, 16.0, 15.0, 6.0, 5.0, 13.0, 3.0, 5.0, 4.0, 4.0, 6.0, 16.0, 5.0, 5.0, 5.0, 13.0, 5.0, 4.0, 5.0, 26.0, 3.0, 5.0, 11.0, 12.0, 5.0, 3.0, 5.0, 17.0, 6.0, 6.0, 13.0, 1.0, 3.0, 4.0, 3.0, 5.0, 17.0, 10.0, 1.0, 9.0, 4.0, 5.0, 4.0, 21.0, 18.0, 2.0, 3.0, 3.0, 4.0, 8.0, 2.0, 3.0, 11.0, 3.0, 1.0, 9.0, 3.0, 3.0, 10.0, 2.0, 4.0, 6.0, 15.0, 6.0, 4.0, 5.0, 7.0, 4.0, 6.0, 12.0, 7.0, 5.0, 11.0, 6.0, 4.0, 6.0, 5.0, 5.0, 5.0, 8.0, 11.0, 2.0, 13.0, 7.0, 7.0, 7.0, 4.0, 5.0, 5.0, 28.0, 3.0, 5.0, 5.0, 13.0, 11.0, 4.0, 7.0, 14.0, 5.0, 12.0, 5.0, 1.0, 6.0, 3.0, 3.0, 0.0, 5.0, 11.0, 8.0, 6.0, 4.0, 8.0, 3.0, 14.0, 10.0, 6.0, 48.0, 6.0, 7.0, 7.0, 6.0, 4.0, 2.0, 5.0, 13.0, 6.0, 6.0, 14.0, 14.0, 6.0, 5.0, 6.0, 5.0, 4.0, 3.0, 6.0, 13.0, 9.0, 12.0, 5.0, 10.0, 9.0, 5.0, 6.0, 7.0, 7.0, 3.0, 1.0, 8.0, 7.0, 7.0, 7.0, 15.0, 1.0, 7.0, 10.0, 8.0, 6.0, 14.0, 6.0, 6.0, 3.0, 2.0, 9.0, 2.0, 15.0, 7.0, 7.0, 17.0, 10.0, 3.0, 3.0, 3.0, 7.0, 2.0, 2.0, 2.0, 2.0, 4.0, 8.0, 12.0, 10.0, 11.0, 9.0, 7.0, 10.0, 1.0, 6.0, 1.0, 10.0, 10.0, 17.0, 9.0, 9.0, 4.0, 2.0, 8.0, 4.0, 1.0, 11.0, 1.0, 8.0, 4.0, 8.0, 5.0, 7.0, 0.0, 9.0, 8.0, 12.0, 5.0, 7.0, 5.0, 3.0, 7.0, 5.0, 3.0, 3.0, 9.0, 5.0, 10.0, 1.0, 3.0, 7.0, 5.0, 35.0, 3.0, 5.0, 0.0, 5.0, 4.0, 9.0, 3.0, 4.0, 6.0, 5.0, 8.0, 2.0, 6.0, 23.0, 3.0, 5.0, 4.0, 12.0, 9.0, 12.0, 5.0, 11.0, 5.0, 3.0, 2.0, 10.0, 13.0, 5.0, 4.0, 2.0, 8.0, 4.0, 16.0, 4.0, 4.0, 10.0, 1.0, 5.0, 6.0, 4.0, 9.0, 13.0, 9.0, 3.0, 20.0, 1.0, 1.0, 5.0, 1.0, 5.0, 10.0, 8.0, 4.0, 6.0, 4.0, 11.0, 6.0, 6.0, 6.0, 4.0, 7.0, 3.0, 3.0, 12.0, 4.0, 3.0, 10.0, 3.0, 4.0, 10.0, 9.0, 9.0, 6.0, 6.0, 5.0, 6.0, 17.0, 6.0, 6.0, 12.0, 7.0, 1.0, 4.0, 19.0, 5.0, 6.0, 12.0, 4.0, 7.0, 9.0, 1.0, 10.0, 11.0, 6.0, 10.0, 8.0, 7.0, 5.0, 5.0, 4.0, 11.0, 6.0, 7.0, 6.0, 13.0, 3.0, 3.0, 5.0, 7.0, 10.0, 7.0, 6.0, 10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[3.0, 2.0, 4.0, 5.0, 9.0, 13.0, 15.0, 1.0, 9.0, 4.0, 14.0, 2.0, 1.0, 2.0, 2.0, 4.0, 4.0, 33.0, 4.0, 20.0, 13.0, 11.0, 4.0, 5.0, 1.0, 2.0, 3.0, 9.0, 2.0, 3.0, 13.0, 7.0, 6.0, 1.0, 9.0, 8.0, 3.0, 28.0, 7.0, 4.0, 3.0, 3.0, 2.0, 5.0, 8.0, 3.0, 2.0, 4.0, 9.0, 45.0, 10.0, 25.0, 9.0, 2.0, 1.0, 1.0, 2.0, 41.0, 19.0, 3.0, 3.0, 42.0, 7.0, 14.0, 11.0, 3.0, 19.0, 14.0, 8.0, 15.0, 2.0, 1.0, 2.0, 14.0, 4.0, 3.0, 5.0, 3.0, 5.0, 6.0, 2.0, 4.0, 6.0, 5.0, 3.0, 9.0, 8.0, 8.0, 4.0, 12.0, 3.0, 11.0, 2.0, 10.0, 8.0, 5.0, 7.0, 1.0, 8.0, 0.0, 3.0, 3.0, 4.0, 4.0, 5.0, 2.0, 3.0, 7.0, 4.0, 4.0, 12.0, 3.0, 5.0, 6.0, 6.0, 3.0, 8.0, 8.0, 67.0, 12.0, 2.0, 2.0, 8.0, 2.0, 15.0, 13.0, 8.0, 25.0, 6.0, 3.0, 4.0, 8.0, 3.0, 37.0, 10.0, 1.0, 20.0, 16.0, 12.0, 16.0, 20.0, 41.0, 7.0, 7.0, 44.0, 59.0, 10.0, 49.0, 7.0, 67.0, 1.0, 15.0, 1.0, 1.0, 8.0, 19.0, 11.0, 5.0, 13.0, 3.0, 0.0, 15.0, 27.0, 3.0, 11.0, 10.0, 2.0, 2.0, 15.0, 4.0, 23.0, 5.0, 7.0, 8.0, 5.0, 3.0, 6.0, 16.0, 8.0, 14.0, 20.0, 29.0, 7.0, 17.0, 10.0, 23.0, 14.0, 1.0, 19.0, 5.0, 7.0, 51.0, 27.0, 30.0, 2.0, 28.0, 3.0, 10.0, 15.0, 3.0, 26.0, 4.0, 7.0, 6.0, 1.0, 12.0, 5.0, 3.0, 11.0, 19.0, 30.0, 37.0, 12.0, 2.0, 1.0, 7.0, 4.0, 7.0, 9.0, 11.0, 5.0, 26.0, 14.0, 28.0, 24.0, 21.0, 4.0, 6.0, 20.0, 3.0, 2.0, 1.0, 7.0, 17.0, 7.0, 4.0, 20.0, 8.0, 11.0, 3.0, 5.0, 5.0, 2.0, 16.0, 9.0, 10.0, 5.0, 3.0, 17.0, 46.0, 6.0, 3.0, 22.0, 7.0, 6.0, 2.0, 1.0, 4.0, 23.0, 7.0, 16.0, 4.0, 14.0, 4.0, 10.0, 1.0, 2.0, 0.0, 11.0, 3.0, 16.0, 2.0, 0.0, 12.0, 8.0, 6.0, 3.0, 5.0, 14.0, 15.0, 9.0, 3.0, 11.0, 4.0, 3.0, 3.0, 12.0, 8.0, 2.0, 15.0, 3.0, 15.0, 4.0, 20.0, 1.0, 22.0, 26.0, 26.0, 5.0, 3.0, 1.0, 17.0, 12.0, 18.0, 10.0, 10.0, 6.0, 4.0, 11.0, 2.0, 2.0, 5.0, 3.0, 2.0, 2.0, 1.0, 5.0, 2.0, 15.0, 8.0, 8.0, 13.0, 9.0, 11.0, 13.0, 10.0, 15.0, 44.0, 8.0, 5.0, 3.0, 5.0, 5.0, 15.0, 3.0, 7.0, 5.0, 6.0, 13.0, 1.0, 4.0, 23.0, 44.0, 2.0, 26.0, 13.0, 55.0, 9.0, 3.0, 19.0, 9.0, 11.0, 17.0, 9.0, 18.0, 56.0, 15.0, 15.0, 2.0, 1.0, 19.0, 21.0, 27.0, 28.0, 28.0, 7.0, 3.0, 3.0, 41.0, 88.0, 80.0, 8.0, 4.0, 9.0, 4.0, 2.0, 25.0, 1.0, 6.0, 3.0, 7.0, 1.0, 10.0, 4.0, 7.0, 6.0, 6.0, 67.0, 6.0, 7.0, 4.0, 10.0, 2.0, 13.0, 4.0, 22.0, 7.0, 9.0, 15.0, 1.0, 6.0, 7.0, 10.0, 2.0, 3.0, 2.0, 6.0, 0.0, 3.0, 13.0, 3.0, 17.0, 6.0, 4.0, 13.0, 5.0, 1.0, 7.0, 8.0, 1.0, 0.0, 10.0, 0.0, 2.0, 0.0, 1.0, 5.0, 7.0, 8.0, 2.0, 5.0, 2.0, 6.0, 1.0, 12.0, 22.0, 4.0, 9.0, 0.0, 7.0, 7.0, 20.0, 6.0, 6.0, 16.0, 4.0, 7.0, 4.0, 3.0, 9.0, 3.0, 5.0, 3.0, 1.0, 16.0, 0.0, 8.0, 18.0, 7.0, 9.0, 4.0, 13.0, 1.0, 8.0, 4.0, 8.0, 14.0, 3.0, 5.0, 11.0, 10.0, 8.0, 34.0, 4.0, 30.0, 14.0, 12.0, 8.0, 6.0, 16.0, 0.0, 3.0, 28.0, 3.0, 4.0, 12.0, 20.0, 0.0, 5.0, 15.0, 7.0, 3.0, 0.0, 14.0, 4.0, 3.0, 3.0, 48.0, 3.0, 12.0, 9.0, 2.0, 16.0, 1.0, 8.0, 18.0, 9.0, 15.0, 4.0, 12.0, 16.0, 11.0, 5.0, 12.0, 26.0, 24.0, 37.0, 26.0, 33.0, 67.0, 75.0, 43.0, 37.0, 72.0, 87.0, 66.0, 9.0, 7.0, 17.0, 5.0, 6.0, 7.0, 13.0, 7.0, 5.0, 10.0, 19.0, 1.0, 11.0, 7.0, 22.0, 13.0, 8.0, 10.0, 4.0, 15.0, 15.0, 4.0, 12.0, 20.0, 4.0, 6.0, 11.0, 25.0, 10.0, 1.0, 2.0, 10.0, 32.0, 3.0, 5.0, 11.0, 32.0, 19.0, 15.0, 8.0, 15.0, 26.0, 3.0, 5.0, 42.0, 0.0, 14.0, 5.0, 3.0, 11.0, 35.0, 30.0, 11.0, 15.0, 46.0, 46.0, 15.0, 10.0, 3.0, 12.0, 10.0, 4.0, 1.0, 25.0, 8.0, 11.0, 3.0, 3.0, 9.0, 42.0, 7.0, 15.0, 9.0, 1.0, 7.0, 2.0, 25.0, 30.0, 8.0, 17.0, 6.0, 6.0, 5.0, 35.0, 5.0, 17.0, 4.0, 3.0, 9.0, 17.0, 4.0, 10.0, 6.0, 3.0, 16.0, 12.0, 17.0, 15.0, 26.0, 31.0, 7.0, 32.0, 35.0, 27.0, 29.0, 17.0, 2.0, 5.0, 7.0, 35.0, 34.0, 0.0, 30.0, 2.0, 10.0, 2.0, 30.0, 89.0, 10.0, 17.0, 3.0, 5.0, 7.0, 11.0, 18.0, 12.0, 4.0, 70.0, 7.0, 21.0, 5.0, 28.0, 6.0, 9.0, 20.0, 5.0, 39.0, 10.0, 12.0, 2.0, 33.0, 5.0, 17.0, 5.0, 65.0, 11.0, 0.0, 6.0, 5.0, 10.0, 23.0, 5.0, 1.0, 16.0, 5.0, 0.0, 7.0, 4.0, 22.0, 13.0, 1.0, 4.0, 8.0, 5.0, 13.0, 6.0, 15.0, 5.0, 5.0, 13.0, 6.0, 3.0, 7.0, 6.0, 2.0, 4.0, 7.0, 2.0, 2.0, 11.0, 6.0, 12.0, 14.0, 5.0, 14.0, 2.0, 9.0, 9.0, 11.0, 9.0, 2.0, 13.0, 3.0, 25.0, 71.0, 11.0, 1.0, 3.0, 14.0, 2.0, 13.0, 4.0, 4.0, 5.0, 49.0, 1.0, 8.0, 22.0, 4.0, 7.0, 8.0, 1.0, 12.0, 5.0, 2.0, 24.0, 9.0, 12.0, 6.0, 16.0, 9.0, 13.0, 2.0, 27.0, 7.0, 13.0, 5.0, 2.0, 15.0, 4.0, 9.0, 2.0, 2.0, 13.0, 2.0, 9.0, 1.0, 25.0, 6.0, 1.0, 13.0, 44.0, 4.0, 4.0, 7.0, 8.0, 11.0, 5.0, 14.0, 7.0, 6.0, 9.0, 1.0, 12.0, 5.0, 6.0, 40.0, 17.0, 30.0, 3.0, 1.0, 4.0, 4.0, 2.0, 10.0, 10.0, 1.0, 3.0, 3.0, 19.0, 3.0, 3.0, 7.0, 3.0, 10.0, 4.0, 5.0, 10.0, 2.0, 11.0, 12.0, 11.0, 45.0, 5.0, 6.0, 4.0, 1.0, 5.0, 4.0, 16.0, 5.0, 9.0, 10.0, 2.0, 16.0, 6.0, 8.0, 8.0, 1.0, 22.0, 7.0, 3.0, 18.0, 8.0, 3.0, 9.0, 64.0, 7.0, 11.0, 3.0, 4.0, 19.0, 11.0, 5.0, 0.0, 3.0, 9.0, 9.0, 10.0, 10.0, 10.0, 17.0, 8.0, 11.0, 19.0, 44.0, 14.0, 4.0, 5.0, 4.0, 20.0, 10.0, 15.0, 2.0, 36.0, 3.0, 10.0, 5.0, 5.0, 8.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 6.0, 1.0, 1.0, 10.0, 3.0, 6.0, 4.0, 4.0, 5.0, 19.0, 12.0, 1.0, 4.0, 9.0, 7.0, 2.0, 19.0, 20.0, 2.0, 5.0, 5.0, 3.0, 6.0, 3.0, 3.0, 6.0, 9.0, 1.0, 6.0, 28.0, 36.0, 9.0, 28.0, 19.0, 7.0, 8.0, 4.0, 35.0, 6.0, 9.0, 10.0, 14.0, 9.0, 2.0, 9.0, 3.0, 5.0, 22.0, 11.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 13.0, 6.0, 9.0, 2.0, 2.0, 12.0, 29.0, 16.0, 9.0, 23.0, 11.0, 12.0, 18.0, 5.0, 2.0, 7.0, 7.0, 3.0, 30.0, 28.0, 13.0, 13.0, 4.0, 2.0, 13.0, 26.0, 4.0, 13.0, 8.0, 4.0, 18.0, 18.0, 10.0, 12.0, 1.0, 9.0, 10.0, 3.0, 31.0, 8.0, 13.0, 43.0, 30.0, 5.0, 13.0, 27.0, 11.0, 10.0, 19.0, 18.0, 2.0, 4.0, 3.0, 6.0, 16.0, 31.0, 9.0, 22.0, 9.0, 46.0, 12.0, 10.0, 24.0, 1.0, 11.0, 8.0, 18.0, 58.0, 31.0, 10.0, 21.0, 13.0, 6.0, 68.0, 29.0, 29.0, 8.0, 15.0, 13.0, 19.0, 19.0, 10.0, 9.0, 14.0, 24.0, 19.0, 10.0, 2.0, 5.0, 3.0, 33.0, 13.0, 21.0, 27.0, 1.0, 71.0, 15.0, 1.0, 5.0, 9.0, 30.0, 7.0, 4.0, 34.0, 16.0, 21.0, 2.0, 30.0, 20.0, 9.0, 12.0, 15.0, 74.0, 15.0, 49.0, 29.0, 20.0, 25.0, 27.0, 10.0, 15.0, 62.0, 26.0, 5.0, 6.0, 13.0, 25.0, 28.0, 26.0, 31.0, 48.0, 44.0, 37.0, 31.0, 42.0, 43.0, 15.0, 4.0, 12.0, 40.0, 9.0, 8.0, 46.0, 35.0, 3.0, 9.0, 11.0, 3.0, 43.0, 78.0, 40.0, 5.0, 31.0, 14.0, 27.0, 47.0, 7.0, 34.0, 61.0, 51.0, 4.0, 24.0, 17.0, 43.0, 52.0, 25.0, 46.0, 25.0, 56.0, 68.0, 23.0, 2.0, 56.0, 7.0, 73.0, 13.0, 10.0, 86.0, 8.0, 64.0, 17.0, 12.0, 1.0, 4.0, 12.0, 15.0, 13.0, 6.0, 24.0, 2.0, 4.0, 43.0, 10.0, 6.0, 12.0, 7.0, 3.0, 6.0, 0.0, 6.0, 7.0, 3.0, 10.0, 24.0, 10.0, 5.0, 5.0, 24.0, 11.0, 22.0, 7.0, 7.0, 13.0, 3.0, 7.0, 6.0, 24.0, 5.0, 4.0, 15.0, 2.0, 8.0, 4.0, 2.0, 51.0, 4.0, 4.0, 11.0, 5.0, 21.0, 14.0, 39.0, 9.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 44.0, 13.0, 11.0, 5.0, 3.0, 3.0, 1.0, 19.0, 21.0, 4.0, 11.0, 2.0, 70.0, 2.0, 5.0, 9.0, 21.0, 37.0, 2.0, 11.0, 2.0, 4.0, 2.0, 3.0, 2.0, 6.0, 8.0, 13.0, 12.0, 2.0, 6.0, 3.0, 8.0, 16.0, 5.0, 10.0, 4.0, 11.0, 2.0, 2.0, 8.0, 15.0, 0.0, 1.0, 3.0, 6.0, 5.0, 5.0, 3.0, 0.0, 6.0, 1.0, 4.0, 14.0, 3.0, 1.0, 23.0, 10.0, 13.0, 1.0, 16.0, 7.0, 4.0, 6.0, 13.0, 10.0, 7.0, 3.0, 0.0, 3.0, 2.0, 41.0, 24.0, 10.0, 10.0, 3.0, 2.0, 0.0, 1.0, 7.0, 10.0, 21.0, 6.0, 7.0, 1.0, 4.0, 1.0, 9.0, 13.0, 9.0, 11.0, 10.0, 22.0, 12.0, 10.0, 1.0, 27.0, 1.0, 9.0, 8.0, 8.0, 3.0, 5.0, 3.0, 8.0, 14.0, 15.0, 17.0, 0.0, 2.0, 5.0, 3.0, 1.0, 7.0, 9.0, 2.0, 13.0, 20.0, 6.0, 21.0, 1.0, 6.0, 4.0, 7.0, 6.0, 9.0, 6.0, 3.0, 1.0, 36.0, 3.0, 4.0, 4.0, 4.0, 4.0, 1.0, 13.0, 4.0, 7.0, 6.0, 10.0, 9.0, 11.0, 6.0, 17.0, 10.0, 36.0, 39.0, 13.0, 9.0, 14.0, 12.0, 7.0, 1.0, 1.0, 13.0, 14.0, 12.0, 5.0, 10.0, 2.0, 12.0, 15.0, 8.0, 3.0, 7.0, 9.0, 7.0, 8.0, 15.0, 5.0, 8.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 13.0, 1.0, 2.0, 4.0, 3.0, 7.0, 11.0, 3.0, 5.0, 3.0, 15.0, 33.0, 11.0, 4.0, 3.0, 7.0, 4.0, 8.0, 23.0, 2.0, 9.0, 14.0, 3.0, 12.0, 2.0, 32.0, 5.0, 3.0, 8.0, 7.0, 6.0, 0.0, 3.0, 0.0, 8.0, 7.0, 3.0, 1.0, 6.0, 10.0, 3.0, 10.0, 2.0, 11.0, 1.0, 10.0, 9.0, 12.0, 5.0, 4.0, 17.0, 13.0, 7.0, 9.0, 14.0, 7.0, 2.0, 8.0, 6.0, 12.0, 24.0, 17.0, 5.0, 15.0, 4.0, 5.0, 1.0, 8.0, 5.0, 8.0, 4.0, 3.0, 7.0, 5.0, 4.0, 2.0, 8.0, 6.0, 17.0, 6.0, 5.0, 27.0, 10.0, 6.0, 4.0, 4.0, 17.0, 4.0, 8.0, 5.0, 8.0, 0.0, 7.0, 14.0, 16.0, 5.0, 13.0, 2.0, 8.0, 10.0, 1.0, 4.0, 3.0, 11.0, 1.0, 10.0, 7.0, 13.0, 10.0, 5.0, 15.0, 9.0, 13.0, 5.0, 9.0, 13.0, 16.0, 20.0, 5.0, 10.0, 5.0, 17.0, 6.0, 10.0, 10.0, 21.0, 7.0, 10.0, 3.0, 8.0, 14.0, 8.0, 15.0, 8.0, 4.0, 3.0, 5.0, 8.0, 13.0, 9.0, 10.0, 3.0, 10.0, 5.0, 10.0, 12.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 6.0, 4.0, 5.0, 3.0, 4.0, 7.0, 34.0, 55.0, 6.0, 5.0, 7.0, 19.0, 12.0, 2.0, 9.0, 4.0, 8.0, 13.0, 10.0, 51.0, 7.0, 5.0, 32.0, 22.0, 5.0, 3.0, 4.0, 10.0, 5.0, 2.0, 42.0, 20.0, 22.0, 1.0, 16.0, 5.0, 9.0, 6.0, 35.0, 5.0, 24.0, 4.0, 19.0, 29.0, 14.0, 11.0, 7.0, 8.0, 9.0, 26.0, 7.0, 2.0, 9.0, 7.0, 9.0, 10.0, 11.0, 3.0, 28.0, 16.0, 21.0, 23.0, 47.0, 15.0, 14.0, 6.0, 7.0, 40.0, 20.0, 30.0, 25.0, 20.0, 49.0, 15.0, 18.0, 45.0, 49.0, 29.0, 18.0, 28.0, 40.0, 24.0, 48.0, 28.0, 52.0, 44.0, 32.0, 40.0, 41.0, 75.0, 47.0, 61.0, 60.0, 59.0, 88.0, 3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 8.0, 3.0, 6.0, 9.0, 8.0, 2.0, 4.0, 5.0, 7.0, 14.0, 14.0, 7.0, 5.0, 2.0, 11.0, 14.0, 7.0, 12.0, 3.0, 10.0, 9.0, 19.0, 2.0, 2.0, 5.0, 6.0, 6.0, 11.0, 6.0, 10.0, 1.0, 2.0, 4.0, 4.0, 3.0, 2.0, 22.0, 8.0, 12.0, 2.0, 3.0, 5.0, 6.0, 14.0, 5.0, 4.0, 4.0, 18.0, 5.0, 12.0, 1.0, 13.0, 14.0, 11.0, 7.0, 4.0, 9.0, 8.0, 1.0, 12.0, 4.0, 7.0, 19.0, 9.0, 11.0, 5.0, 11.0, 14.0, 10.0, 4.0, 3.0, 7.0, 6.0, 6.0, 13.0, 3.0, 4.0, 3.0, 5.0, 1.0, 16.0, 14.0, 6.0, 7.0, 2.0, 22.0, 11.0, 16.0, 36.0, 10.0, 4.0, 32.0, 6.0, 16.0, 17.0, 13.0, 9.0, 7.0, 20.0, 31.0, 4.0, 3.0, 7.0, 4.0, 9.0, 5.0, 9.0, 7.0, 6.0, 6.0, 21.0, 5.0, 5.0, 8.0, 1.0, 5.0, 8.0, 23.0, 7.0, 13.0, 2.0, 1.0, 4.0, 8.0, 4.0, 8.0, 5.0, 25.0, 10.0, 5.0, 9.0, 3.0, 17.0, 16.0, 18.0, 12.0, 17.0, 5.0, 5.0, 2.0, 18.0, 6.0, 6.0, 4.0, 23.0, 11.0, 9.0, 12.0, 11.0, 8.0, 4.0, 7.0, 4.0, 9.0, 3.0, 37.0, 14.0, 3.0, 13.0, 4.0, 2.0, 10.0, 15.0, 1.0, 4.0, 9.0, 18.0, 2.0, 6.0, 5.0, 24.0, 27.0, 8.0, 4.0, 11.0, 7.0, 3.0, 1.0, 10.0, 2.0, 41.0, 6.0, 6.0, 1.0, 5.0, 34.0, 2.0, 3.0, 1.0, 7.0, 13.0, 11.0, 11.0, 3.0, 7.0, 2.0, 5.0, 7.0, 15.0, 4.0, 6.0, 19.0, 30.0, 5.0, 2.0, 2.0, 9.0, 4.0, 4.0, 7.0, 10.0, 10.0, 4.0, 15.0, 6.0, 4.0, 41.0, 7.0, 1.0, 5.0, 8.0, 4.0, 4.0, 7.0, 2.0, 6.0, 4.0, 1.0, 2.0, 27.0, 7.0, 12.0, 5.0, 9.0, 0.0, 10.0, 26.0, 8.0, 9.0, 6.0, 24.0, 8.0, 38.0, 19.0, 25.0, 1.0, 11.0, 0.0, 4.0, 4.0, 48.0, 20.0, 3.0, 7.0, 4.0, 13.0, 4.0, 37.0, 12.0, 24.0, 7.0, 3.0, 16.0, 6.0, 1.0, 38.0, 38.0, 15.0, 11.0, 16.0, 8.0, 27.0, 12.0, 20.0, 5.0, 35.0, 20.0, 6.0, 13.0, 4.0, 12.0, 10.0, 21.0, 5.0, 21.0, 6.0, 14.0, 13.0, 19.0, 1.0, 17.0, 17.0, 8.0, 2.0, 7.0, 8.0, 20.0, 24.0, 27.0, 2.0, 2.0, 38.0, 7.0, 16.0, 21.0, 24.0, 41.0, 14.0, 9.0, 19.0, 23.0, 8.0, 6.0, 24.0, 11.0, 17.0, 8.0, 5.0, 2.0, 20.0, 16.0, 5.0, 9.0, 39.0, 6.0, 25.0, 37.0, 3.0, 10.0, 50.0, 22.0, 8.0, 39.0, 14.0, 21.0, 19.0, 19.0, 25.0, 20.0, 22.0, 5.0, 30.0, 8.0, 36.0, 5.0, 3.0, 6.0, 14.0, 7.0, 23.0, 9.0, 5.0, 1.0, 6.0, 6.0, 25.0, 2.0, 10.0, 11.0, 38.0, 14.0, 3.0, 7.0, 29.0, 27.0, 3.0, 2.0, 30.0, 6.0, 5.0, 14.0, 20.0, 12.0, 4.0, 10.0, 34.0, 4.0, 42.0, 21.0, 4.0, 8.0, 8.0, 21.0, 8.0, 8.0, 6.0, 63.0, 1.0, 29.0, 8.0, 9.0, 15.0, 5.0, 35.0, 15.0, 2.0, 2.0, 4.0, 5.0, 3.0, 12.0, 1.0, 8.0, 11.0, 5.0, 7.0, 2.0, 14.0, 2.0, 13.0, 32.0, 24.0, 8.0, 32.0, 6.0, 3.0, 10.0, 7.0, 8.0, 3.0, 25.0, 8.0, 2.0, 27.0, 26.0, 4.0, 15.0, 3.0, 69.0, 14.0, 5.0, 17.0, 37.0, 6.0, 9.0, 17.0, 11.0, 19.0, 32.0, 37.0, 18.0, 6.0, 4.0, 15.0, 28.0, 4.0, 36.0, 32.0, 16.0, 5.0, 21.0, 9.0, 12.0, 11.0, 2.0, 5.0, 7.0, 23.0, 3.0, 26.0, 17.0, 5.0, 6.0, 1.0, 11.0, 7.0, 3.0, 14.0, 36.0, 2.0, 7.0, 2.0, 8.0, 34.0, 7.0, 11.0, 18.0, 1.0, 0.0, 14.0, 35.0, 4.0, 22.0, 5.0, 3.0, 46.0, 12.0, 10.0, 10.0, 0.0, 2.0, 4.0, 8.0, 22.0, 6.0, 34.0, 34.0, 18.0, 7.0, 6.0, 1.0, 17.0, 11.0, 17.0, 19.0, 20.0, 7.0, 5.0, 3.0, 7.0, 15.0, 20.0, 12.0, 28.0, 35.0, 6.0, 5.0, 5.0, 17.0, 10.0, 8.0, 10.0, 34.0, 2.0, 17.0, 6.0, 2.0, 12.0, 8.0, 14.0, 1.0, 7.0, 5.0, 8.0, 6.0, 1.0, 15.0, 12.0, 10.0, 29.0, 5.0, 27.0, 3.0, 14.0, 12.0, 8.0, 8.0, 2.0, 14.0, 5.0, 6.0, 11.0, 9.0, 4.0, 2.0, 4.0, 2.0, 27.0, 4.0, 21.0, 1.0, 3.0, 27.0, 9.0, 23.0, 17.0, 10.0, 4.0, 8.0, 0.0, 2.0, 21.0, 24.0, 13.0, 34.0, 13.0, 8.0, 11.0, 17.0, 3.0, 4.0, 22.0, 6.0, 24.0, 2.0, 1.0, 7.0, 12.0, 5.0, 21.0, 6.0, 5.0, 4.0, 35.0, 9.0, 11.0, 4.0, 3.0, 25.0, 8.0, 5.0, 22.0, 8.0, 16.0, 13.0, 4.0, 32.0, 13.0, 19.0, 23.0, 12.0, 29.0, 7.0, 13.0, 14.0, 6.0, 12.0, 4.0, 5.0, 29.0, 26.0, 13.0, 2.0, 21.0, 2.0, 49.0, 17.0, 11.0, 15.0, 9.0, 23.0, 14.0, 7.0, 8.0, 21.0, 6.0, 8.0, 9.0, 8.0, 24.0, 3.0, 12.0, 7.0, 17.0, 10.0, 5.0, 6.0, 12.0, 18.0, 37.0, 27.0, 23.0, 12.0, 5.0, 11.0, 12.0, 7.0, 22.0, 8.0, 2.0, 5.0, 11.0, 46.0, 31.0, 13.0, 4.0, 10.0, 18.0, 63.0, 17.0, 26.0, 10.0, 14.0, 2.0, 17.0, 17.0, 14.0, 4.0, 17.0, 19.0, 20.0, 12.0, 2.0, 21.0, 7.0, 22.0, 14.0, 8.0, 49.0, 2.0, 1.0, 8.0, 17.0, 30.0, 25.0, 8.0, 7.0, 2.0, 6.0, 26.0, 16.0, 21.0, 10.0, 15.0, 9.0, 32.0, 2.0, 3.0, 22.0, 4.0, 6.0, 0.0, 5.0, 2.0, 24.0, 7.0, 21.0, 5.0, 14.0, 16.0, 3.0, 3.0, 1.0, 14.0, 6.0, 22.0, 21.0, 9.0, 13.0, 18.0, 3.0, 24.0, 4.0, 10.0, 16.0, 1.0, 3.0, 17.0, 48.0, 11.0, 16.0, 18.0, 3.0, 20.0, 31.0, 27.0, 15.0, 0.0, 20.0, 19.0, 63.0, 74.0, 8.0, 1.0, 18.0, 19.0, 8.0, 26.0, 2.0, 3.0, 2.0, 9.0, 7.0, 20.0, 12.0, 1.0, 6.0, 12.0, 0.0, 8.0, 17.0, 3.0, 3.0, 8.0, 4.0, 18.0, 20.0, 5.0, 3.0, 6.0, 13.0, 4.0, 5.0, 7.0, 6.0, 10.0, 13.0, 5.0, 11.0, 22.0, 16.0, 1.0, 20.0, 20.0, 16.0, 12.0, 36.0, 5.0, 24.0, 22.0, 7.0, 15.0, 24.0, 13.0, 7.0, 13.0, 20.0, 5.0, 11.0, 15.0, 12.0, 16.0, 10.0, 7.0, 18.0, 11.0, 30.0, 53.0, 14.0, 17.0, 2.0, 4.0, 21.0, 19.0, 5.0, 7.0, 3.0, 16.0, 17.0, 3.0, 4.0, 5.0, 38.0, 7.0, 3.0, 6.0, 12.0, 16.0, 6.0, 27.0, 3.0, 1.0, 51.0, 2.0, 18.0, 8.0, 5.0, 9.0, 1.0, 30.0, 2.0, 25.0, 17.0, 20.0, 13.0, 9.0, 1.0, 43.0, 5.0, 19.0, 10.0, 6.0, 43.0, 4.0, 16.0, 48.0, 11.0, 7.0, 13.0, 9.0, 3.0, 18.0, 10.0, 4.0, 3.0, 3.0, 3.0, 7.0, 16.0, 20.0, 4.0, 10.0, 23.0, 21.0, 4.0, 22.0, 4.0, 9.0, 12.0, 22.0, 8.0, 11.0, 5.0, 5.0, 12.0, 8.0, 1.0, 14.0, 2.0, 3.0, 2.0, 6.0, 5.0, 3.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 6.0, 2.0, 7.0, 11.0, 9.0, 1.0, 5.0, 11.0, 2.0, 7.0, 11.0, 6.0, 9.0, 4.0, 4.0, 11.0, 18.0, 0.0, 33.0, 4.0, 2.0, 25.0, 3.0, 4.0, 13.0, 10.0, 7.0, 5.0, 3.0, 2.0, 6.0, 10.0, 25.0, 14.0, 22.0, 7.0, 11.0, 1.0, 13.0, 18.0, 14.0, 8.0, 14.0, 4.0, 1.0, 12.0, 3.0, 3.0, 4.0, 3.0, 30.0, 6.0, 5.0, 29.0, 1.0, 6.0, 34.0, 3.0, 15.0, 7.0, 0.0, 10.0, 17.0, 8.0, 16.0, 2.0, 67.0, 19.0, 16.0, 6.0, 40.0, 20.0, 21.0, 7.0, 23.0, 19.0, 13.0, 1.0, 10.0, 7.0, 12.0, 4.0, 11.0, 10.0, 4.0, 8.0, 9.0, 11.0, 20.0, 3.0, 10.0, 4.0, 3.0, 5.0, 12.0, 22.0, 11.0, 5.0, 45.0, 67.0, 19.0, 4.0, 7.0, 10.0, 3.0, 1.0, 14.0, 17.0, 10.0, 6.0, 5.0, 3.0, 25.0, 12.0, 1.0, 7.0, 4.0, 5.0, 3.0, 6.0, 6.0, 3.0, 14.0, 5.0, 10.0, 3.0, 2.0, 3.0, 32.0, 32.0, 22.0, 3.0, 6.0, 3.0, 19.0, 6.0, 8.0, 1.0, 49.0, 6.0, 5.0, 7.0, 3.0, 5.0, 17.0, 6.0, 13.0, 1.0, 5.0, 5.0, 25.0, 9.0, 16.0, 3.0, 21.0, 1.0, 7.0, 2.0, 7.0, 5.0, 17.0, 8.0, 8.0, 8.0, 7.0, 13.0, 2.0, 2.0, 5.0, 10.0, 4.0, 16.0, 8.0, 4.0, 7.0, 11.0, 5.0, 5.0, 1.0, 13.0, 1.0, 9.0, 4.0, 23.0, 34.0, 20.0, 1.0, 14.0, 3.0, 8.0, 19.0, 6.0, 5.0, 49.0, 3.0, 14.0, 4.0, 3.0, 9.0, 9.0, 7.0, 8.0, 6.0, 8.0, 27.0, 1.0, 3.0, 3.0, 0.0, 5.0, 1.0, 5.0, 24.0, 7.0, 2.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 25.0, 4.0, 5.0, 5.0, 11.0, 10.0, 4.0, 1.0, 34.0, 10.0, 10.0, 4.0, 6.0, 0.0, 10.0, 7.0, 11.0, 8.0, 1.0, 8.0, 2.0, 8.0, 5.0, 0.0, 52.0, 9.0, 3.0, 13.0, 4.0, 4.0, 22.0, 26.0, 4.0, 30.0, 2.0, 3.0, 3.0, 5.0, 2.0, 24.0, 33.0, 8.0, 8.0, 4.0, 9.0, 7.0, 11.0, 11.0, 1.0, 9.0, 2.0, 2.0, 10.0, 11.0, 6.0, 24.0, 10.0, 3.0, 19.0, 14.0, 2.0, 4.0, 6.0, 0.0, 81.0, 4.0, 1.0, 3.0, 22.0, 2.0, 3.0, 7.0, 15.0, 29.0, 35.0, 10.0, 24.0, 11.0, 16.0, 34.0, 8.0, 36.0, 7.0, 19.0, 9.0, 1.0, 6.0, 5.0, 13.0, 5.0, 9.0, 6.0, 12.0, 5.0, 4.0, 9.0, 1.0, 4.0, 9.0, 21.0, 1.0, 7.0, 20.0, 3.0, 7.0, 2.0, 2.0, 3.0, 29.0, 9.0, 15.0, 3.0, 1.0, 1.0, 10.0, 22.0, 12.0, 15.0, 2.0, 11.0, 0.0, 12.0, 11.0, 1.0, 1.0, 20.0, 4.0, 41.0, 0.0, 13.0, 24.0, 39.0, 20.0, 15.0, 8.0, 16.0, 3.0, 6.0, 1.0, 1.0, 2.0, 4.0, 14.0, 11.0, 17.0, 8.0, 3.0, 7.0, 11.0, 12.0, 6.0, 3.0, 25.0, 13.0, 2.0, 9.0, 16.0, 16.0, 4.0, 3.0, 1.0, 11.0, 12.0, 2.0, 21.0, 10.0, 2.0, 4.0, 4.0, 5.0, 39.0, 7.0, 1.0, 8.0, 7.0, 12.0, 2.0, 21.0, 7.0, 4.0, 6.0, 9.0, 31.0, 6.0, 1.0, 1.0, 5.0, 3.0, 4.0, 3.0, 2.0, 3.0, 6.0, 13.0, 5.0, 37.0, 23.0, 9.0, 23.0, 13.0, 8.0, 15.0, 4.0, 4.0, 26.0, 16.0, 34.0, 8.0, 5.0, 7.0, 8.0, 4.0, 4.0, 9.0, 18.0, 13.0, 4.0, 3.0, 8.0, 11.0, 29.0, 2.0, 9.0, 3.0, 1.0, 3.0, 19.0, 40.0, 16.0, 2.0, 25.0, 11.0, 7.0, 16.0, 3.0, 3.0, 4.0, 42.0, 41.0, 5.0, 8.0, 38.0, 2.0, 2.0, 14.0, 8.0, 15.0, 2.0, 10.0, 6.0, 3.0, 7.0, 41.0, 5.0, 13.0, 5.0, 5.0, 1.0, 6.0, 4.0, 8.0, 4.0, 4.0, 5.0, 12.0, 5.0, 10.0, 17.0, 24.0, 7.0, 3.0, 14.0, 11.0, 13.0, 9.0, 15.0, 9.0, 7.0, 9.0, 4.0, 6.0, 1.0, 13.0, 2.0, 11.0, 5.0, 30.0, 2.0, 2.0, 2.0, 8.0, 5.0, 6.0, 3.0, 15.0, 7.0, 6.0, 17.0, 24.0, 9.0, 8.0, 4.0, 4.0, 9.0, 11.0, 11.0, 9.0, 6.0, 8.0, 3.0, 3.0, 6.0, 0.0, 2.0, 8.0, 12.0, 23.0, 6.0, 6.0, 20.0, 22.0, 10.0, 13.0, 3.0, 4.0, 7.0, 19.0, 5.0, 19.0, 12.0, 6.0, 4.0, 21.0, 5.0, 3.0, 2.0, 5.0, 7.0, 10.0, 6.0, 0.0, 3.0, 3.0, 11.0, 3.0, 13.0, 14.0, 13.0, 4.0, 3.0, 6.0, 24.0, 15.0, 10.0, 9.0, 6.0, 4.0, 1.0, 2.0, 1.0, 7.0, 9.0, 10.0, 22.0, 6.0, 1.0, 8.0, 9.0, 9.0, 12.0, 9.0, 5.0, 6.0, 5.0, 15.0, 2.0, 5.0, 10.0, 14.0, 19.0, 58.0, 1.0, 5.0, 8.0, 11.0, 3.0, 1.0, 7.0, 2.0, 4.0, 2.0, 3.0, 5.0, 1.0, 9.0, 37.0, 4.0, 2.0, 26.0, 3.0, 8.0, 22.0, 9.0, 7.0, 6.0, 11.0, 11.0, 2.0, 15.0, 4.0, 30.0, 10.0, 6.0, 4.0, 13.0, 14.0, 16.0, 21.0, 29.0, 16.0, 37.0, 18.0, 7.0, 13.0, 2.0, 5.0, 9.0, 9.0, 7.0, 7.0, 13.0, 2.0, 25.0, 25.0, 39.0, 11.0, 5.0, 20.0, 8.0, 7.0, 6.0, 7.0, 2.0, 21.0, 9.0, 3.0, 10.0, 88.0, 27.0, 8.0, 5.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 4.0, 13.0, 11.0, 5.0, 8.0, 17.0, 2.0, 18.0, 12.0, 23.0, 7.0, 12.0, 1.0, 4.0, 1.0, 4.0, 6.0, 8.0, 6.0, 10.0, 13.0, 13.0, 10.0, 4.0, 1.0, 5.0, 19.0, 3.0, 10.0, 9.0, 14.0, 3.0, 4.0, 14.0, 1.0, 14.0, 38.0, 2.0, 46.0, 7.0, 3.0, 2.0, 18.0, 3.0, 8.0, 8.0, 5.0, 7.0, 4.0, 8.0, 4.0, 4.0, 6.0, 3.0, 3.0, 2.0, 5.0, 2.0, 8.0, 5.0, 5.0, 11.0, 7.0, 3.0, 1.0, 11.0, 3.0, 4.0, 11.0, 13.0, 24.0, 11.0, 3.0, 2.0, 9.0, 10.0, 42.0, 19.0, 5.0, 20.0, 2.0, 13.0, 5.0, 4.0, 17.0, 19.0, 2.0, 8.0, 11.0, 7.0, 5.0, 7.0, 10.0, 8.0, 13.0, 3.0, 4.0, 12.0, 8.0, 9.0, 7.0, 35.0, 6.0, 5.0, 4.0, 4.0, 3.0, 65.0, 17.0, 7.0, 10.0, 13.0, 4.0, 21.0, 10.0, 4.0, 6.0, 5.0, 5.0, 6.0, 7.0, 4.0, 2.0, 4.0, 36.0, 14.0, 2.0, 15.0, 1.0, 3.0, 11.0, 23.0, 10.0, 2.0, 14.0, 16.0, 3.0, 2.0, 3.0, 8.0, 5.0, 13.0, 2.0, 9.0, 3.0, 10.0, 1.0, 7.0, 12.0, 8.0, 9.0, 16.0, 16.0, 4.0, 1.0, 4.0, 5.0, 7.0, 7.0, 3.0, 7.0, 12.0, 38.0, 12.0, 3.0, 11.0, 13.0, 2.0, 7.0, 19.0, 6.0, 14.0, 3.0, 43.0, 5.0, 5.0, 6.0, 6.0, 27.0, 18.0, 12.0, 11.0, 11.0, 7.0, 16.0, 11.0, 16.0, 56.0, 9.0, 11.0, 8.0, 7.0, 8.0, 25.0, 7.0, 7.0, 3.0, 2.0, 12.0, 4.0, 14.0, 8.0, 7.0, 8.0, 9.0, 5.0, 6.0, 6.0, 16.0, 1.0, 20.0, 10.0, 3.0, 1.0, 12.0, 10.0, 3.0, 8.0, 1.0, 17.0, 13.0, 8.0, 10.0, 6.0, 13.0, 26.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 11.0, 16.0, 6.0, 9.0, 6.0, 10.0, 1.0, 1.0, 4.0, 11.0, 7.0, 2.0, 17.0, 2.0, 12.0, 12.0, 42.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 15.0, 9.0, 51.0, 1.0, 17.0, 7.0, 7.0, 4.0, 23.0, 7.0, 20.0, 2.0, 18.0, 3.0, 14.0, 48.0, 10.0, 22.0, 6.0, 22.0, 7.0, 7.0, 10.0, 6.0, 3.0, 0.0, 10.0, 8.0, 6.0, 19.0, 10.0, 33.0, 6.0, 6.0, 6.0, 12.0, 5.0, 5.0, 5.0, 25.0, 11.0, 6.0, 8.0, 6.0, 9.0, 4.0, 1.0, 3.0, 10.0, 40.0, 3.0, 2.0, 3.0, 4.0, 4.0, 60.0, 29.0, 19.0, 2.0, 1.0, 18.0, 16.0, 23.0, 4.0, 5.0, 12.0, 11.0, 5.0, 5.0, 1.0, 25.0, 9.0, 3.0, 18.0, 6.0, 6.0, 37.0, 14.0, 4.0, 3.0, 5.0, 6.0, 11.0, 21.0, 22.0, 5.0, 10.0, 12.0, 10.0, 2.0, 3.0, 5.0, 23.0, 12.0, 4.0, 11.0, 7.0, 13.0, 5.0, 14.0, 10.0, 10.0, 23.0, 31.0, 3.0, 9.0, 38.0, 20.0, 9.0, 6.0, 2.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 7.0, 26.0, 10.0, 3.0, 10.0, 4.0, 17.0, 21.0, 7.0, 7.0, 7.0, 4.0, 7.0, 15.0, 12.0, 19.0, 4.0, 20.0, 6.0, 10.0, 7.0, 5.0, 3.0, 3.0, 21.0, 9.0, 23.0, 13.0, 44.0, 10.0, 12.0, 12.0, 24.0, 33.0, 7.0, 3.0, 9.0, 13.0, 3.0, 11.0, 20.0, 19.0, 11.0, 5.0, 8.0, 9.0, 3.0, 36.0, 19.0, 17.0, 7.0, 38.0, 18.0, 20.0, 28.0, 24.0, 18.0, 10.0, 19.0, 20.0, 21.0, 38.0, 8.0, 27.0, 13.0, 3.0, 15.0, 20.0, 12.0, 19.0, 6.0, 9.0, 3.0, 21.0, 9.0, 33.0, 24.0, 2.0, 15.0, 4.0, 7.0, 38.0, 45.0, 3.0, 3.0, 10.0, 23.0, 3.0, 8.0, 6.0, 17.0, 2.0, 3.0, 7.0, 13.0, 22.0, 37.0, 16.0, 25.0, 9.0, 7.0, 17.0, 28.0, 7.0, 2.0, 12.0, 4.0, 3.0, 11.0, 9.0, 3.0, 20.0, 16.0, 26.0, 31.0, 7.0, 27.0, 35.0, 30.0, 30.0, 46.0, 2.0, 15.0, 14.0, 4.0, 3.0, 3.0, 26.0, 4.0, 14.0, 14.0, 33.0, 19.0, 1.0, 15.0, 3.0, 14.0, 7.0, 8.0, 4.0, 30.0, 13.0, 3.0, 0.0, 9.0, 2.0, 7.0, 9.0, 6.0, 29.0, 13.0, 5.0, 2.0, 7.0, 37.0, 33.0, 18.0, 21.0, 5.0, 17.0, 17.0, 14.0, 3.0, 30.0, 12.0, 5.0, 12.0, 12.0, 11.0, 4.0, 6.0, 22.0, 28.0, 32.0, 38.0, 6.0, 24.0, 7.0, 2.0, 13.0, 4.0, 23.0, 18.0, 7.0, 1.0, 29.0, 14.0, 6.0, 9.0, 56.0, 23.0, 21.0, 5.0, 9.0, 3.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 4.0, 20.0, 2.0, 8.0, 20.0, 24.0, 17.0, 36.0, 19.0, 51.0, 8.0, 36.0, 15.0, 28.0, 32.0, 19.0, 32.0, 4.0, 16.0, 24.0, 3.0, 39.0, 35.0, 56.0, 12.0, 6.0, 7.0, 23.0, 12.0, 67.0, 38.0, 1.0, 14.0, 28.0, 22.0, 8.0, 27.0, 1.0, 8.0, 8.0, 3.0, 6.0, 23.0, 2.0, 32.0, 11.0, 4.0, 23.0, 14.0, 37.0, 23.0, 49.0, 10.0, 10.0, 24.0, 18.0, 14.0, 6.0, 9.0, 4.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 31.0, 24.0, 8.0, 30.0, 4.0, 18.0, 22.0, 77.0, 62.0, 8.0, 8.0, 16.0, 23.0, 48.0, 3.0, 11.0, 24.0, 56.0, 11.0, 5.0, 4.0, 36.0, 17.0, 13.0, 37.0, 23.0, 32.0, 48.0, 20.0, 19.0, 21.0, 33.0, 39.0, 27.0, 27.0, 5.0, 26.0, 36.0, 13.0, 29.0, 16.0, 23.0, 49.0, 8.0, 43.0, 1.0, 4.0, 22.0, 4.0, 16.0, 52.0, 46.0, 8.0, 38.0, 7.0, 33.0, 52.0, 44.0, 16.0, 15.0, 13.0, 5.0, 10.0, 64.0, 32.0, 12.0, 31.0, 39.0, 51.0, 62.0, 29.0, 49.0, 31.0, 38.0, 64.0, 2.0, 17.0, 13.0, 41.0, 68.0, 34.0, 2.0, 70.0, 74.0, 49.0, 56.0, 53.0, 52.0, 39.0, 24.0, 69.0, 16.0, 46.0, 29.0, 4.0, 71.0, 5.0, 13.0, 70.0, 1.0, 88.0, 72.0, 5.0, 8.0, 14.0, 57.0, 20.0, 8.0, 1.0, 12.0, 87.0, 3.0, 14.0, 89.0, 5.0, 35.0, 15.0, 16.0, 9.0, 13.0, 6.0, 44.0, 13.0, 0.0, 3.0, 0.0, 2.0, 12.0, 11.0, 31.0, 6.0, 28.0, 15.0, 22.0, 22.0, 19.0, 60.0, 14.0, 8.0, 16.0, 9.0, 1.0, 14.0, 1.0, 29.0, 13.0, 10.0, 6.0, 2.0, 28.0, 68.0, 42.0, 30.0, 13.0, 38.0, 14.0, 3.0, 1.0, 1.0, 5.0, 2.0, 5.0, 2.0, 12.0, 26.0, 11.0, 1.0, 16.0, 13.0, 5.0, 2.0, 3.0, 3.0, 4.0, 7.0, 8.0, 3.0, 9.0, 3.0, 20.0, 2.0, 39.0, 8.0, 5.0, 15.0, 20.0, 5.0, 4.0, 18.0, 6.0, 2.0, 4.0, 13.0, 27.0, 1.0, 4.0, 3.0, 11.0, 6.0, 0.0, 3.0, 23.0, 5.0, 2.0, 8.0, 1.0, 24.0, 35.0, 1.0, 0.0, 7.0, 6.0, 4.0, 3.0, 3.0, 1.0, 28.0, 10.0, 1.0, 9.0, 3.0, 8.0, 1.0, 9.0, 2.0, 9.0, 8.0, 0.0, 3.0, 28.0, 14.0, 6.0, 24.0, 17.0, 20.0, 1.0, 1.0, 9.0, 1.0, 3.0, 9.0, 3.0, 10.0, 3.0, 5.0, 9.0, 4.0, 9.0, 15.0, 8.0, 16.0, 9.0, 1.0, 5.0, 10.0, 7.0, 10.0, 4.0, 12.0, 4.0, 27.0, 6.0, 6.0, 6.0, 4.0, 7.0, 17.0, 7.0, 2.0, 25.0, 6.0, 1.0, 2.0, 11.0, 4.0, 7.0, 22.0, 5.0, 5.0, 6.0, 20.0, 6.0, 2.0, 1.0, 13.0, 7.0, 2.0, 20.0, 23.0, 2.0, 10.0, 1.0, 15.0, 4.0, 7.0, 6.0, 8.0, 21.0, 14.0, 8.0, 2.0, 2.0, 1.0, 0.0, 1.0, 9.0, 5.0, 1.0, 1.0, 4.0, 5.0, 12.0, 3.0, 11.0, 17.0, 12.0, 15.0, 1.0, 1.0, 31.0, 10.0, 14.0, 15.0, 28.0, 14.0, 18.0, 9.0, 9.0, 4.0, 11.0, 10.0, 2.0, 15.0, 2.0, 16.0, 13.0, 6.0, 9.0, 6.0, 12.0, 7.0, 4.0, 13.0, 8.0, 1.0, 15.0, 1.0, 4.0, 4.0, 19.0, 4.0, 5.0, 2.0, 5.0, 4.0, 4.0, 16.0, 5.0, 5.0, 8.0, 3.0, 6.0, 26.0, 3.0, 9.0, 16.0, 2.0, 14.0, 12.0, 6.0, 3.0, 12.0, 6.0, 9.0, 59.0, 3.0, 0.0, 3.0, 2.0, 4.0, 1.0, 4.0, 9.0, 4.0, 2.0, 4.0, 2.0, 2.0, 10.0, 2.0, 6.0, 4.0, 3.0, 14.0, 11.0, 1.0, 3.0, 5.0, 2.0, 8.0, 12.0, 1.0, 4.0, 1.0, 5.0, 5.0, 13.0, 10.0, 1.0, 1.0, 34.0, 12.0, 1.0, 5.0, 23.0, 13.0, 5.0, 8.0, 11.0, 4.0, 43.0, 4.0, 6.0, 8.0, 5.0, 5.0, 0.0, 4.0, 3.0, 11.0, 2.0, 3.0, 3.0, 6.0, 11.0, 11.0, 8.0, 12.0, 12.0, 18.0, 6.0, 8.0, 3.0, 16.0, 5.0, 5.0, 23.0, 5.0, 14.0, 26.0, 26.0, 18.0, 7.0, 3.0, 6.0, 31.0, 2.0, 8.0, 1.0, 6.0, 12.0, 8.0, 10.0, 6.0, 3.0, 1.0, 15.0, 6.0, 12.0, 19.0, 5.0, 36.0, 25.0, 2.0, 3.0, 31.0, 7.0, 5.0, 8.0, 3.0, 24.0, 5.0, 2.0, 4.0, 25.0, 1.0, 2.0, 3.0, 22.0, 4.0, 70.0, 27.0, 3.0, 7.0, 23.0, 5.0, 9.0, 2.0, 3.0, 14.0, 1.0, 13.0, 8.0, 14.0, 10.0, 26.0, 25.0, 1.0, 8.0, 1.0, 9.0, 25.0, 5.0, 9.0, 1.0, 5.0, 3.0, 4.0, 17.0, 1.0, 27.0, 20.0, 6.0, 7.0, 14.0, 17.0, 16.0, 2.0, 3.0, 4.0, 11.0, 6.0, 1.0, 2.0, 11.0, 4.0, 4.0, 3.0, 6.0, 5.0, 13.0, 1.0, 3.0, 2.0, 0.0, 2.0, 14.0, 7.0, 11.0, 5.0, 3.0, 9.0, 6.0, 14.0, 10.0, 2.0, 2.0, 5.0, 2.0, 6.0, 9.0, 12.0, 4.0, 39.0, 5.0, 3.0, 38.0, 24.0, 3.0, 5.0, 6.0, 23.0, 1.0, 13.0, 13.0, 5.0, 4.0, 61.0, 0.0, 4.0, 5.0, 7.0, 5.0, 64.0, 3.0, 2.0, 1.0, 6.0, 3.0, 2.0, 6.0, 5.0, 1.0, 14.0, 1.0, 7.0, 7.0, 4.0, 3.0, 18.0, 6.0, 5.0, 1.0, 1.0, 2.0, 0.0, 4.0, 3.0, 12.0, 11.0, 14.0, 10.0, 9.0, 3.0, 12.0, 9.0, 3.0, 4.0, 6.0, 8.0, 0.0, 5.0, 7.0, 7.0, 5.0, 30.0, 6.0, 8.0, 7.0, 12.0, 12.0, 1.0, 19.0, 3.0, 3.0, 17.0, 22.0, 7.0, 2.0, 3.0, 15.0, 5.0, 14.0, 4.0, 10.0, 8.0, 41.0, 15.0, 4.0, 9.0, 16.0, 1.0, 5.0, 10.0, 29.0, 5.0, 5.0, 4.0, 5.0, 22.0, 4.0, 1.0, 6.0, 4.0, 2.0, 6.0, 4.0, 3.0, 18.0, 2.0, 5.0, 4.0, 6.0, 6.0, 14.0, 32.0, 8.0, 4.0, 9.0, 6.0, 4.0, 63.0, 22.0, 8.0, 7.0, 6.0, 2.0, 1.0, 9.0, 12.0, 5.0, 1.0, 13.0, 33.0, 10.0, 3.0, 9.0, 7.0, 14.0, 5.0, 24.0, 2.0, 9.0, 15.0, 10.0, 8.0, 16.0, 5.0, 1.0, 4.0, 5.0, 3.0, 4.0, 10.0, 4.0, 18.0, 4.0, 3.0, 3.0, 4.0, 13.0, 5.0, 8.0, 19.0, 7.0, 45.0, 2.0, 6.0, 8.0, 13.0, 5.0, 11.0, 23.0, 50.0, 13.0, 1.0, 9.0, 2.0, 15.0, 5.0, 1.0, 2.0, 11.0, 4.0, 2.0, 3.0, 2.0, 19.0, 3.0, 6.0, 8.0, 6.0, 7.0, 6.0, 5.0, 27.0, 9.0, 21.0, 3.0, 5.0, 12.0, 9.0, 3.0, 8.0, 5.0, 2.0, 7.0, 4.0, 3.0, 25.0, 5.0, 8.0, 9.0, 6.0, 9.0, 4.0, 8.0, 5.0, 0.0, 11.0, 3.0, 2.0, 3.0, 10.0, 20.0, 5.0, 6.0, 7.0, 9.0, 6.0, 35.0, 3.0, 3.0, 6.0, 4.0, 6.0, 11.0, 5.0, 2.0, 7.0, 7.0, 2.0, 4.0, 4.0, 5.0, 2.0, 9.0, 5.0, 11.0, 20.0, 6.0, 30.0, 4.0, 36.0, 2.0, 10.0, 7.0, 5.0, 5.0, 5.0, 2.0, 1.0, 10.0, 3.0, 13.0, 19.0, 7.0, 4.0, 4.0, 22.0, 7.0, 10.0, 5.0, 16.0, 60.0, 7.0, 20.0, 23.0, 0.0, 5.0, 6.0, 3.0, 2.0, 11.0, 9.0, 6.0, 2.0, 7.0, 2.0, 2.0, 5.0, 1.0, 6.0, 20.0, 10.0, 5.0, 14.0, 13.0, 3.0, 6.0, 24.0, 0.0, 9.0, 19.0, 27.0, 8.0, 3.0, 53.0, 1.0, 14.0, 5.0, 5.0, 13.0, 11.0, 4.0, 4.0, 2.0, 26.0, 6.0, 5.0, 2.0, 5.0, 3.0, 9.0, 2.0, 10.0, 1.0, 3.0, 3.0, 3.0, 5.0, 4.0, 5.0, 4.0, 10.0, 4.0, 5.0, 16.0, 7.0, 15.0, 9.0, 7.0, 13.0, 4.0, 16.0, 3.0, 5.0, 19.0, 11.0, 4.0, 8.0, 10.0, 5.0, 1.0, 5.0, 7.0, 11.0, 21.0, 1.0, 2.0, 4.0, 9.0, 7.0, 7.0, 8.0, 0.0, 1.0, 2.0, 14.0, 19.0, 8.0, 25.0, 9.0, 4.0, 1.0, 15.0, 21.0, 5.0, 18.0, 6.0, 6.0, 8.0, 4.0, 8.0, 7.0, 20.0, 4.0, 6.0, 8.0, 12.0, 19.0, 5.0, 7.0, 11.0, 4.0, 5.0, 45.0, 2.0, 4.0, 22.0, 10.0, 3.0, 18.0, 14.0, 3.0, 10.0, 2.0, 4.0, 19.0, 3.0, 37.0, 7.0, 3.0, 2.0, 13.0, 40.0, 5.0, 6.0, 34.0, 2.0, 27.0, 14.0, 4.0, 15.0, 0.0, 1.0, 11.0, 6.0, 15.0, 0.0, 20.0, 6.0, 2.0, 5.0, 3.0, 12.0, 4.0, 4.0, 8.0, 11.0, 15.0, 5.0, 6.0, 13.0, 2.0, 2.0, 4.0, 4.0, 13.0, 7.0, 15.0, 5.0, 16.0, 7.0, 3.0, 32.0, 7.0, 2.0, 7.0, 5.0, 18.0, 3.0, 6.0, 4.0, 4.0, 4.0, 2.0, 1.0, 5.0, 0.0, 4.0, 8.0, 2.0, 3.0, 8.0, 7.0, 18.0, 28.0, 1.0, 10.0, 1.0, 13.0, 9.0, 2.0, 8.0, 6.0, 11.0, 26.0, 7.0, 3.0, 6.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 24.0, 0.0, 4.0, 18.0, 10.0, 2.0, 15.0, 1.0, 15.0, 6.0, 11.0, 23.0, 1.0, 5.0, 7.0, 6.0, 4.0, 5.0, 9.0, 14.0, 4.0, 6.0, 19.0, 2.0, 8.0, 0.0, 5.0, 9.0, 7.0, 4.0, 12.0, 4.0, 3.0, 2.0, 5.0, 9.0, 3.0, 27.0, 5.0, 15.0, 5.0, 3.0, 11.0, 2.0, 8.0, 9.0, 3.0, 6.0, 8.0, 3.0, 8.0, 17.0, 3.0, 13.0, 4.0, 0.0, 59.0, 4.0, 9.0, 5.0, 4.0, 3.0, 0.0, 3.0, 4.0, 6.0, 4.0, 17.0, 5.0, 5.0, 4.0, 4.0, 8.0, 5.0, 1.0, 8.0, 7.0, 3.0, 1.0, 5.0, 3.0, 5.0, 16.0, 6.0, 7.0, 7.0, 7.0, 5.0, 4.0, 9.0, 0.0, 9.0, 4.0, 23.0, 5.0, 3.0, 7.0, 4.0, 32.0, 18.0, 11.0, 6.0, 9.0, 14.0, 5.0, 1.0, 3.0, 14.0, 26.0, 1.0, 8.0, 3.0, 1.0, 4.0, 4.0, 6.0, 15.0, 9.0, 1.0, 15.0, 4.0, 12.0, 8.0, 8.0, 11.0, 1.0, 10.0, 2.0, 2.0, 7.0, 8.0, 7.0, 4.0, 1.0, 15.0, 5.0, 6.0, 3.0, 7.0, 3.0, 16.0, 5.0, 3.0, 1.0, 14.0, 6.0, 11.0, 5.0, 6.0, 9.0, 1.0, 23.0, 4.0, 2.0, 6.0, 48.0, 1.0, 6.0, 3.0, 9.0, 10.0, 8.0, 8.0, 5.0, 11.0, 8.0, 24.0, 10.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 4.0, 0.0, 4.0, 17.0, 13.0, 16.0, 6.0, 18.0, 1.0, 0.0, 6.0, 10.0, 1.0, 0.0, 1.0, 12.0, 3.0, 5.0, 11.0, 6.0, 31.0, 14.0, 1.0, 9.0, 3.0, 5.0, 10.0, 22.0, 10.0, 2.0, 5.0, 3.0, 5.0, 10.0, 11.0, 12.0, 0.0, 14.0, 63.0, 4.0, 3.0, 28.0, 3.0, 3.0, 4.0, 6.0, 6.0, 9.0, 4.0, 12.0, 8.0, 19.0, 11.0, 3.0, 4.0, 2.0, 5.0, 37.0, 7.0, 13.0, 6.0, 4.0, 8.0, 22.0, 10.0, 4.0, 8.0, 6.0, 11.0, 34.0, 14.0, 2.0, 37.0, 2.0, 12.0, 39.0, 10.0, 16.0, 3.0, 10.0, 10.0, 13.0, 1.0, 13.0, 11.0, 10.0, 17.0, 18.0, 11.0, 12.0, 6.0, 9.0, 4.0, 10.0, 16.0, 39.0, 15.0, 13.0, 8.0, 3.0, 10.0, 4.0, 32.0, 5.0, 18.0, 16.0, 1.0, 10.0, 7.0, 24.0, 16.0, 8.0, 6.0, 1.0, 8.0, 19.0, 38.0, 4.0, 10.0, 22.0, 6.0, 5.0, 11.0, 15.0, 5.0, 2.0, 22.0, 1.0, 2.0, 5.0, 34.0, 16.0, 5.0, 14.0, 5.0, 53.0, 29.0, 3.0, 21.0, 15.0, 12.0, 7.0, 11.0, 27.0, 18.0, 5.0, 4.0, 14.0, 12.0, 7.0, 15.0, 4.0, 12.0, 3.0, 4.0, 24.0, 9.0, 24.0, 0.0, 6.0, 19.0, 5.0, 12.0, 5.0, 9.0, 13.0, 15.0, 16.0, 5.0, 2.0, 2.0, 13.0, 14.0, 6.0, 16.0, 19.0, 10.0, 5.0, 11.0, 1.0, 22.0, 10.0, 3.0, 18.0, 32.0, 6.0, 11.0, 11.0, 10.0, 9.0, 29.0, 24.0, 9.0, 6.0, 14.0, 24.0, 12.0, 13.0, 4.0, 18.0, 22.0, 9.0, 17.0, 25.0, 9.0, 11.0, 9.0, 9.0, 9.0, 4.0, 10.0, 11.0, 18.0, 10.0, 12.0, 4.0, 19.0, 16.0, 9.0, 3.0, 25.0, 34.0, 15.0, 6.0, 25.0, 8.0, 6.0, 48.0, 19.0, 9.0, 15.0, 6.0, 33.0, 20.0, 3.0, 30.0, 12.0, 37.0, 33.0, 7.0, 21.0, 17.0, 9.0, 4.0, 12.0, 10.0, 14.0, 10.0, 9.0, 16.0, 7.0, 6.0, 20.0, 10.0, 40.0, 0.0, 28.0, 16.0, 36.0, 28.0, 21.0, 27.0, 12.0, 40.0, 21.0, 28.0, 33.0, 23.0, 27.0, 35.0, 20.0, 23.0, 30.0, 1.0, 21.0, 43.0, 9.0, 11.0, 4.0, 15.0, 41.0, 27.0, 21.0, 10.0, 21.0, 32.0, 27.0, 22.0, 32.0, 16.0, 46.0, 33.0, 14.0, 19.0, 29.0, 47.0, 24.0, 31.0, 26.0, 36.0, 14.0, 26.0, 33.0, 14.0, 19.0, 20.0, 33.0, 35.0, 49.0, 58.0, 42.0, 34.0, 43.0, 32.0, 30.0, 28.0, 29.0, 34.0, 54.0, 45.0, 36.0, 40.0, 49.0, 54.0, 64.0, 61.0, 46.0, 57.0, 50.0, 87.0, 63.0, 71.0, 32.0, 60.0, 76.0, 57.0, 60.0, 73.0, 63.0, 66.0, 61.0, 59.0, 69.0, 84.0, 81.0]</t>
+          <t>[3.0, 2.0, 4.0, 5.0, 9.0, 13.0, 15.0, 1.0, 9.0, 4.0, 14.0, 2.0, 1.0, 2.0, 2.0, 4.0, 4.0, 33.0, 4.0, 20.0, 13.0, 11.0, 4.0, 5.0, 1.0, 2.0, 3.0, 9.0, 2.0, 3.0, 13.0, 7.0, 6.0, 1.0, 9.0, 8.0, 3.0, 28.0, 7.0, 4.0, 3.0, 3.0, 2.0, 5.0, 8.0, 3.0, 2.0, 4.0, 9.0, 45.0, 10.0, 25.0, 9.0, 2.0, 1.0, 1.0, 2.0, 41.0, 19.0, 3.0, 3.0, 42.0, 7.0, 14.0, 11.0, 3.0, 19.0, 14.0, 8.0, 15.0, 2.0, 1.0, 2.0, 14.0, 4.0, 3.0, 5.0, 3.0, 5.0, 6.0, 2.0, 4.0, 6.0, 5.0, 3.0, 9.0, 8.0, 8.0, 4.0, 12.0, 3.0, 11.0, 2.0, 10.0, 8.0, 5.0, 7.0, 1.0, 8.0, 0.0, 3.0, 3.0, 4.0, 4.0, 5.0, 2.0, 3.0, 7.0, 4.0, 4.0, 12.0, 3.0, 5.0, 6.0, 6.0, 3.0, 8.0, 8.0, 67.0, 12.0, 2.0, 2.0, 8.0, 2.0, 15.0, 13.0, 8.0, 25.0, 6.0, 3.0, 4.0, 8.0, 3.0, 37.0, 10.0, 1.0, 20.0, 16.0, 12.0, 16.0, 20.0, 41.0, 7.0, 7.0, 44.0, 59.0, 10.0, 49.0, 7.0, 67.0, 1.0, 128.0, 113.0, 15.0, 1.0, 1.0, 8.0, 19.0, 11.0, 5.0, 13.0, 3.0, 0.0, 15.0, 27.0, 3.0, 11.0, 10.0, 2.0, 2.0, 15.0, 4.0, 23.0, 5.0, 7.0, 8.0, 5.0, 3.0, 6.0, 16.0, 8.0, 14.0, 20.0, 29.0, 103.0, 7.0, 17.0, 10.0, 23.0, 14.0, 1.0, 19.0, 5.0, 7.0, 51.0, 27.0, 30.0, 2.0, 28.0, 3.0, 10.0, 15.0, 3.0, 26.0, 4.0, 7.0, 6.0, 1.0, 12.0, 5.0, 3.0, 11.0, 19.0, 30.0, 37.0, 12.0, 2.0, 1.0, 7.0, 4.0, 7.0, 9.0, 11.0, 5.0, 26.0, 14.0, 28.0, 24.0, 21.0, 4.0, 6.0, 20.0, 3.0, 2.0, 1.0, 7.0, 17.0, 7.0, 4.0, 20.0, 8.0, 11.0, 3.0, 5.0, 5.0, 2.0, 16.0, 9.0, 10.0, 5.0, 3.0, 17.0, 46.0, 6.0, 3.0, 22.0, 7.0, 6.0, 2.0, 1.0, 4.0, 23.0, 7.0, 16.0, 4.0, 14.0, 4.0, 10.0, 1.0, 2.0, 0.0, 11.0, 3.0, 16.0, 2.0, 0.0, 12.0, 8.0, 6.0, 3.0, 5.0, 14.0, 15.0, 9.0, 3.0, 11.0, 4.0, 3.0, 3.0, 12.0, 8.0, 2.0, 15.0, 3.0, 15.0, 4.0, 20.0, 1.0, 22.0, 26.0, 26.0, 5.0, 3.0, 1.0, 17.0, 12.0, 18.0, 10.0, 10.0, 6.0, 4.0, 11.0, 2.0, 2.0, 5.0, 3.0, 2.0, 2.0, 1.0, 5.0, 2.0, 15.0, 8.0, 8.0, 13.0, 9.0, 11.0, 13.0, 10.0, 15.0, 44.0, 8.0, 5.0, 3.0, 5.0, 5.0, 15.0, 3.0, 7.0, 5.0, 6.0, 13.0, 1.0, 4.0, 23.0, 44.0, 2.0, 26.0, 13.0, 55.0, 9.0, 3.0, 19.0, 9.0, 11.0, 17.0, 9.0, 18.0, 56.0, 15.0, 15.0, 2.0, 1.0, 19.0, 21.0, 27.0, 28.0, 28.0, 7.0, 3.0, 3.0, 145.0, 41.0, 88.0, 131.0, 80.0, 8.0, 4.0, 9.0, 4.0, 2.0, 25.0, 1.0, 6.0, 3.0, 7.0, 1.0, 10.0, 4.0, 7.0, 6.0, 6.0, 67.0, 6.0, 7.0, 4.0, 10.0, 2.0, 13.0, 4.0, 22.0, 7.0, 9.0, 15.0, 1.0, 6.0, 7.0, 10.0, 2.0, 3.0, 2.0, 6.0, 0.0, 3.0, 13.0, 3.0, 17.0, 6.0, 4.0, 13.0, 5.0, 1.0, 7.0, 8.0, 1.0, 0.0, 10.0, 0.0, 2.0, 0.0, 1.0, 5.0, 7.0, 8.0, 2.0, 5.0, 2.0, 6.0, 1.0, 12.0, 22.0, 4.0, 9.0, 0.0, 7.0, 7.0, 20.0, 6.0, 6.0, 16.0, 4.0, 7.0, 4.0, 3.0, 9.0, 3.0, 5.0, 3.0, 1.0, 16.0, 0.0, 8.0, 18.0, 7.0, 9.0, 4.0, 13.0, 1.0, 8.0, 4.0, 8.0, 14.0, 3.0, 5.0, 11.0, 10.0, 8.0, 34.0, 4.0, 30.0, 14.0, 12.0, 8.0, 6.0, 16.0, 0.0, 3.0, 28.0, 3.0, 4.0, 12.0, 20.0, 0.0, 5.0, 15.0, 7.0, 3.0, 0.0, 14.0, 4.0, 3.0, 3.0, 48.0, 3.0, 12.0, 9.0, 2.0, 16.0, 1.0, 8.0, 18.0, 9.0, 15.0, 4.0, 12.0, 16.0, 11.0, 5.0, 12.0, 26.0, 24.0, 37.0, 26.0, 33.0, 67.0, 75.0, 43.0, 37.0, 93.0, 72.0, 87.0, 66.0, 179.0, 174.0, 9.0, 7.0, 17.0, 5.0, 6.0, 7.0, 13.0, 7.0, 5.0, 10.0, 19.0, 1.0, 11.0, 7.0, 22.0, 13.0, 8.0, 10.0, 4.0, 15.0, 15.0, 4.0, 12.0, 20.0, 4.0, 6.0, 11.0, 25.0, 10.0, 1.0, 2.0, 10.0, 32.0, 3.0, 5.0, 11.0, 32.0, 19.0, 15.0, 8.0, 15.0, 26.0, 3.0, 5.0, 42.0, 0.0, 14.0, 5.0, 3.0, 11.0, 35.0, 30.0, 11.0, 15.0, 46.0, 46.0, 15.0, 10.0, 3.0, 12.0, 10.0, 4.0, 1.0, 25.0, 8.0, 11.0, 3.0, 3.0, 9.0, 42.0, 7.0, 15.0, 9.0, 1.0, 7.0, 2.0, 25.0, 30.0, 8.0, 17.0, 6.0, 6.0, 5.0, 35.0, 5.0, 17.0, 4.0, 3.0, 9.0, 17.0, 4.0, 10.0, 6.0, 3.0, 16.0, 12.0, 17.0, 15.0, 26.0, 31.0, 7.0, 32.0, 35.0, 27.0, 29.0, 17.0, 2.0, 5.0, 7.0, 35.0, 34.0, 0.0, 30.0, 2.0, 10.0, 2.0, 30.0, 89.0, 10.0, 17.0, 3.0, 5.0, 7.0, 11.0, 18.0, 12.0, 4.0, 70.0, 7.0, 21.0, 5.0, 28.0, 6.0, 9.0, 20.0, 5.0, 39.0, 10.0, 12.0, 2.0, 33.0, 5.0, 17.0, 5.0, 65.0, 11.0, 0.0, 6.0, 5.0, 10.0, 23.0, 5.0, 1.0, 16.0, 5.0, 0.0, 7.0, 4.0, 22.0, 13.0, 1.0, 4.0, 8.0, 5.0, 13.0, 6.0, 15.0, 5.0, 5.0, 13.0, 6.0, 3.0, 7.0, 6.0, 2.0, 4.0, 7.0, 2.0, 2.0, 11.0, 6.0, 12.0, 14.0, 5.0, 14.0, 2.0, 9.0, 9.0, 11.0, 9.0, 2.0, 13.0, 3.0, 25.0, 71.0, 11.0, 1.0, 3.0, 14.0, 2.0, 13.0, 4.0, 4.0, 5.0, 49.0, 1.0, 8.0, 22.0, 4.0, 7.0, 8.0, 1.0, 12.0, 5.0, 2.0, 24.0, 9.0, 12.0, 6.0, 16.0, 9.0, 13.0, 2.0, 27.0, 7.0, 13.0, 5.0, 2.0, 15.0, 4.0, 9.0, 2.0, 2.0, 13.0, 2.0, 9.0, 1.0, 25.0, 6.0, 1.0, 13.0, 44.0, 4.0, 4.0, 7.0, 8.0, 11.0, 5.0, 14.0, 7.0, 6.0, 9.0, 1.0, 12.0, 5.0, 6.0, 40.0, 17.0, 30.0, 3.0, 1.0, 4.0, 4.0, 2.0, 10.0, 10.0, 1.0, 3.0, 3.0, 19.0, 3.0, 3.0, 7.0, 3.0, 10.0, 4.0, 5.0, 10.0, 2.0, 11.0, 12.0, 11.0, 45.0, 5.0, 6.0, 4.0, 1.0, 5.0, 4.0, 16.0, 5.0, 9.0, 10.0, 2.0, 16.0, 6.0, 8.0, 8.0, 1.0, 22.0, 7.0, 3.0, 18.0, 8.0, 3.0, 9.0, 64.0, 7.0, 11.0, 3.0, 4.0, 19.0, 11.0, 5.0, 0.0, 3.0, 9.0, 9.0, 10.0, 10.0, 10.0, 17.0, 8.0, 11.0, 19.0, 44.0, 14.0, 4.0, 5.0, 4.0, 20.0, 10.0, 15.0, 2.0, 36.0, 3.0, 10.0, 5.0, 5.0, 8.0, 10.0, 5.0, 5.0, 5.0, 4.0, 5.0, 6.0, 1.0, 1.0, 10.0, 3.0, 6.0, 4.0, 4.0, 5.0, 19.0, 12.0, 1.0, 4.0, 9.0, 7.0, 2.0, 19.0, 20.0, 2.0, 5.0, 5.0, 3.0, 6.0, 3.0, 3.0, 6.0, 9.0, 1.0, 6.0, 28.0, 36.0, 9.0, 28.0, 19.0, 7.0, 8.0, 4.0, 35.0, 6.0, 9.0, 10.0, 14.0, 9.0, 2.0, 9.0, 3.0, 5.0, 22.0, 11.0, 35.0, 5.0, 18.0, 27.0, 5.0, 4.0, 5.0, 13.0, 6.0, 9.0, 2.0, 2.0, 12.0, 29.0, 16.0, 9.0, 23.0, 11.0, 12.0, 18.0, 5.0, 2.0, 7.0, 7.0, 3.0, 30.0, 28.0, 13.0, 13.0, 4.0, 2.0, 13.0, 26.0, 4.0, 13.0, 8.0, 4.0, 18.0, 18.0, 10.0, 12.0, 1.0, 9.0, 10.0, 3.0, 31.0, 8.0, 13.0, 43.0, 30.0, 5.0, 13.0, 27.0, 11.0, 10.0, 19.0, 18.0, 2.0, 4.0, 3.0, 6.0, 16.0, 31.0, 9.0, 22.0, 9.0, 46.0, 12.0, 10.0, 24.0, 1.0, 11.0, 8.0, 18.0, 58.0, 31.0, 10.0, 21.0, 13.0, 6.0, 68.0, 29.0, 29.0, 8.0, 15.0, 13.0, 19.0, 19.0, 10.0, 9.0, 14.0, 24.0, 19.0, 10.0, 2.0, 5.0, 3.0, 33.0, 13.0, 21.0, 27.0, 1.0, 71.0, 15.0, 1.0, 5.0, 9.0, 30.0, 7.0, 4.0, 34.0, 16.0, 21.0, 2.0, 30.0, 20.0, 9.0, 12.0, 15.0, 74.0, 15.0, 49.0, 29.0, 20.0, 25.0, 27.0, 10.0, 15.0, 62.0, 26.0, 5.0, 6.0, 13.0, 25.0, 28.0, 26.0, 31.0, 48.0, 44.0, 37.0, 31.0, 42.0, 43.0, 15.0, 4.0, 12.0, 40.0, 9.0, 8.0, 46.0, 35.0, 3.0, 9.0, 11.0, 3.0, 43.0, 78.0, 40.0, 5.0, 31.0, 14.0, 27.0, 47.0, 7.0, 34.0, 61.0, 51.0, 4.0, 24.0, 17.0, 43.0, 52.0, 25.0, 46.0, 25.0, 56.0, 68.0, 113.0, 23.0, 99.0, 2.0, 107.0, 56.0, 7.0, 92.0, 73.0, 13.0, 169.0, 10.0, 86.0, 137.0, 8.0, 64.0, 17.0, 12.0, 1.0, 130.0, 4.0, 12.0, 109.0, 15.0, 13.0, 6.0, 24.0, 2.0, 4.0, 43.0, 10.0, 6.0, 12.0, 7.0, 3.0, 6.0, 0.0, 6.0, 7.0, 3.0, 10.0, 24.0, 10.0, 5.0, 5.0, 24.0, 11.0, 22.0, 7.0, 7.0, 13.0, 3.0, 7.0, 6.0, 24.0, 5.0, 4.0, 15.0, 2.0, 8.0, 4.0, 2.0, 51.0, 4.0, 4.0, 11.0, 5.0, 21.0, 14.0, 39.0, 9.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 44.0, 13.0, 11.0, 5.0, 3.0, 3.0, 1.0, 19.0, 21.0, 4.0, 11.0, 2.0, 70.0, 2.0, 5.0, 9.0, 21.0, 37.0, 2.0, 11.0, 2.0, 4.0, 2.0, 3.0, 2.0, 6.0, 8.0, 13.0, 12.0, 2.0, 6.0, 3.0, 8.0, 16.0, 5.0, 10.0, 4.0, 11.0, 2.0, 2.0, 8.0, 15.0, 0.0, 1.0, 3.0, 6.0, 5.0, 5.0, 3.0, 0.0, 6.0, 1.0, 4.0, 14.0, 3.0, 1.0, 23.0, 10.0, 13.0, 1.0, 16.0, 7.0, 4.0, 6.0, 13.0, 10.0, 7.0, 3.0, 0.0, 3.0, 2.0, 41.0, 24.0, 10.0, 10.0, 3.0, 2.0, 0.0, 1.0, 7.0, 10.0, 21.0, 6.0, 7.0, 1.0, 4.0, 1.0, 9.0, 13.0, 9.0, 11.0, 10.0, 22.0, 12.0, 10.0, 1.0, 27.0, 1.0, 9.0, 8.0, 8.0, 3.0, 5.0, 3.0, 8.0, 14.0, 15.0, 17.0, 0.0, 2.0, 5.0, 3.0, 1.0, 7.0, 9.0, 2.0, 13.0, 20.0, 6.0, 21.0, 1.0, 6.0, 4.0, 7.0, 6.0, 9.0, 6.0, 3.0, 1.0, 36.0, 3.0, 4.0, 4.0, 4.0, 4.0, 1.0, 13.0, 4.0, 7.0, 6.0, 10.0, 9.0, 11.0, 6.0, 17.0, 10.0, 36.0, 39.0, 13.0, 9.0, 14.0, 12.0, 7.0, 1.0, 1.0, 13.0, 14.0, 12.0, 5.0, 10.0, 2.0, 12.0, 15.0, 8.0, 3.0, 7.0, 9.0, 7.0, 8.0, 15.0, 5.0, 8.0, 10.0, 5.0, 16.0, 6.0, 51.0, 12.0, 13.0, 1.0, 2.0, 4.0, 3.0, 7.0, 11.0, 3.0, 5.0, 3.0, 15.0, 33.0, 11.0, 4.0, 3.0, 7.0, 4.0, 8.0, 23.0, 2.0, 9.0, 14.0, 3.0, 12.0, 2.0, 32.0, 5.0, 3.0, 8.0, 7.0, 6.0, 0.0, 3.0, 0.0, 8.0, 7.0, 3.0, 1.0, 6.0, 10.0, 3.0, 10.0, 2.0, 11.0, 1.0, 10.0, 9.0, 12.0, 5.0, 4.0, 17.0, 13.0, 7.0, 9.0, 14.0, 7.0, 2.0, 8.0, 6.0, 12.0, 24.0, 17.0, 5.0, 15.0, 4.0, 5.0, 1.0, 8.0, 5.0, 8.0, 4.0, 3.0, 7.0, 5.0, 4.0, 2.0, 8.0, 6.0, 17.0, 6.0, 5.0, 27.0, 10.0, 6.0, 4.0, 4.0, 17.0, 4.0, 8.0, 5.0, 8.0, 0.0, 7.0, 14.0, 16.0, 5.0, 13.0, 2.0, 8.0, 10.0, 1.0, 4.0, 3.0, 11.0, 1.0, 10.0, 7.0, 13.0, 10.0, 5.0, 15.0, 9.0, 13.0, 5.0, 9.0, 13.0, 16.0, 20.0, 5.0, 10.0, 5.0, 17.0, 6.0, 10.0, 10.0, 21.0, 7.0, 10.0, 3.0, 8.0, 14.0, 8.0, 15.0, 8.0, 4.0, 3.0, 5.0, 8.0, 13.0, 9.0, 10.0, 3.0, 10.0, 5.0, 10.0, 12.0, 5.0, 13.0, 35.0, 6.0, 7.0, 4.0, 6.0, 4.0, 5.0, 3.0, 4.0, 7.0, 34.0, 55.0, 6.0, 5.0, 7.0, 19.0, 12.0, 2.0, 9.0, 4.0, 8.0, 13.0, 10.0, 51.0, 7.0, 5.0, 32.0, 22.0, 5.0, 3.0, 4.0, 10.0, 5.0, 2.0, 42.0, 20.0, 22.0, 1.0, 16.0, 5.0, 9.0, 6.0, 35.0, 5.0, 24.0, 4.0, 19.0, 29.0, 14.0, 11.0, 7.0, 8.0, 9.0, 26.0, 7.0, 2.0, 9.0, 7.0, 9.0, 10.0, 11.0, 3.0, 28.0, 16.0, 21.0, 23.0, 47.0, 15.0, 14.0, 6.0, 7.0, 40.0, 20.0, 30.0, 25.0, 20.0, 49.0, 15.0, 18.0, 45.0, 49.0, 29.0, 18.0, 28.0, 40.0, 24.0, 48.0, 28.0, 52.0, 44.0, 32.0, 40.0, 41.0, 75.0, 47.0, 61.0, 60.0, 59.0, 115.0, 98.0, 115.0, 88.0, 3.0, 7.0, 5.0, 0.0, 5.0, 2.0, 3.0, 8.0, 3.0, 6.0, 9.0, 8.0, 2.0, 4.0, 5.0, 7.0, 14.0, 14.0, 7.0, 5.0, 2.0, 11.0, 14.0, 7.0, 12.0, 3.0, 10.0, 9.0, 19.0, 2.0, 2.0, 5.0, 6.0, 6.0, 11.0, 6.0, 10.0, 1.0, 2.0, 4.0, 4.0, 3.0, 2.0, 22.0, 8.0, 12.0, 2.0, 3.0, 5.0, 6.0, 14.0, 5.0, 4.0, 4.0, 18.0, 5.0, 12.0, 1.0, 13.0, 14.0, 11.0, 7.0, 4.0, 9.0, 8.0, 1.0, 12.0, 4.0, 7.0, 19.0, 9.0, 11.0, 5.0, 11.0, 14.0, 10.0, 4.0, 3.0, 7.0, 6.0, 6.0, 13.0, 3.0, 4.0, 3.0, 5.0, 1.0, 16.0, 14.0, 6.0, 7.0, 2.0, 22.0, 11.0, 16.0, 36.0, 10.0, 4.0, 32.0, 6.0, 16.0, 17.0, 13.0, 9.0, 7.0, 20.0, 31.0, 4.0, 3.0, 7.0, 4.0, 9.0, 5.0, 9.0, 7.0, 6.0, 6.0, 21.0, 5.0, 5.0, 8.0, 1.0, 5.0, 8.0, 23.0, 7.0, 13.0, 2.0, 1.0, 4.0, 8.0, 4.0, 8.0, 5.0, 25.0, 10.0, 5.0, 9.0, 3.0, 17.0, 16.0, 18.0, 12.0, 17.0, 5.0, 5.0, 2.0, 18.0, 6.0, 6.0, 4.0, 23.0, 11.0, 9.0, 12.0, 11.0, 8.0, 4.0, 7.0, 4.0, 9.0, 3.0, 37.0, 14.0, 3.0, 13.0, 4.0, 2.0, 10.0, 15.0, 1.0, 4.0, 9.0, 18.0, 2.0, 6.0, 5.0, 24.0, 27.0, 8.0, 4.0, 11.0, 7.0, 3.0, 1.0, 10.0, 2.0, 41.0, 6.0, 6.0, 1.0, 5.0, 34.0, 2.0, 3.0, 1.0, 7.0, 13.0, 11.0, 11.0, 3.0, 7.0, 2.0, 5.0, 7.0, 15.0, 4.0, 6.0, 19.0, 30.0, 5.0, 2.0, 2.0, 9.0, 4.0, 4.0, 7.0, 10.0, 10.0, 4.0, 15.0, 6.0, 4.0, 41.0, 7.0, 1.0, 5.0, 8.0, 4.0, 4.0, 7.0, 2.0, 6.0, 4.0, 1.0, 2.0, 27.0, 7.0, 12.0, 5.0, 9.0, 0.0, 10.0, 26.0, 8.0, 9.0, 6.0, 24.0, 8.0, 38.0, 19.0, 25.0, 1.0, 11.0, 0.0, 4.0, 4.0, 48.0, 20.0, 3.0, 7.0, 4.0, 13.0, 4.0, 37.0, 12.0, 24.0, 7.0, 3.0, 16.0, 6.0, 1.0, 38.0, 38.0, 15.0, 11.0, 16.0, 8.0, 27.0, 12.0, 20.0, 5.0, 35.0, 20.0, 6.0, 13.0, 4.0, 12.0, 10.0, 21.0, 5.0, 21.0, 6.0, 14.0, 13.0, 19.0, 1.0, 17.0, 17.0, 8.0, 2.0, 7.0, 8.0, 20.0, 24.0, 27.0, 2.0, 2.0, 38.0, 7.0, 16.0, 21.0, 24.0, 41.0, 14.0, 9.0, 19.0, 23.0, 8.0, 6.0, 24.0, 11.0, 17.0, 8.0, 5.0, 2.0, 20.0, 16.0, 5.0, 9.0, 39.0, 6.0, 25.0, 37.0, 3.0, 10.0, 50.0, 22.0, 8.0, 39.0, 14.0, 21.0, 19.0, 19.0, 25.0, 20.0, 22.0, 5.0, 30.0, 8.0, 36.0, 5.0, 3.0, 6.0, 14.0, 7.0, 23.0, 9.0, 5.0, 1.0, 6.0, 6.0, 25.0, 2.0, 10.0, 11.0, 38.0, 14.0, 3.0, 7.0, 29.0, 27.0, 3.0, 2.0, 30.0, 6.0, 5.0, 14.0, 20.0, 12.0, 4.0, 10.0, 34.0, 4.0, 42.0, 21.0, 4.0, 8.0, 8.0, 21.0, 8.0, 8.0, 6.0, 63.0, 1.0, 29.0, 8.0, 9.0, 15.0, 5.0, 35.0, 15.0, 2.0, 2.0, 4.0, 5.0, 3.0, 12.0, 1.0, 8.0, 11.0, 5.0, 7.0, 2.0, 14.0, 2.0, 13.0, 32.0, 24.0, 8.0, 32.0, 6.0, 3.0, 10.0, 7.0, 8.0, 3.0, 25.0, 8.0, 2.0, 27.0, 26.0, 4.0, 15.0, 3.0, 69.0, 14.0, 5.0, 17.0, 37.0, 6.0, 9.0, 17.0, 11.0, 19.0, 32.0, 37.0, 18.0, 6.0, 4.0, 15.0, 28.0, 4.0, 36.0, 32.0, 16.0, 5.0, 21.0, 9.0, 12.0, 11.0, 2.0, 5.0, 7.0, 23.0, 3.0, 26.0, 17.0, 5.0, 6.0, 1.0, 11.0, 7.0, 3.0, 14.0, 36.0, 2.0, 7.0, 2.0, 8.0, 34.0, 7.0, 11.0, 18.0, 1.0, 0.0, 14.0, 35.0, 4.0, 22.0, 5.0, 3.0, 46.0, 12.0, 10.0, 10.0, 0.0, 2.0, 4.0, 8.0, 22.0, 6.0, 34.0, 34.0, 18.0, 7.0, 6.0, 1.0, 17.0, 11.0, 17.0, 19.0, 20.0, 7.0, 5.0, 3.0, 7.0, 15.0, 20.0, 12.0, 28.0, 35.0, 6.0, 5.0, 5.0, 17.0, 10.0, 8.0, 10.0, 34.0, 2.0, 17.0, 6.0, 2.0, 12.0, 8.0, 14.0, 1.0, 7.0, 5.0, 8.0, 6.0, 1.0, 15.0, 12.0, 10.0, 29.0, 5.0, 27.0, 3.0, 14.0, 12.0, 8.0, 8.0, 2.0, 14.0, 5.0, 6.0, 11.0, 9.0, 4.0, 2.0, 4.0, 2.0, 27.0, 4.0, 21.0, 1.0, 3.0, 27.0, 9.0, 23.0, 17.0, 10.0, 4.0, 8.0, 0.0, 2.0, 21.0, 24.0, 13.0, 34.0, 13.0, 8.0, 11.0, 17.0, 3.0, 4.0, 22.0, 6.0, 24.0, 2.0, 1.0, 7.0, 12.0, 5.0, 21.0, 6.0, 5.0, 4.0, 35.0, 9.0, 11.0, 4.0, 3.0, 25.0, 8.0, 5.0, 22.0, 8.0, 16.0, 13.0, 4.0, 32.0, 13.0, 19.0, 23.0, 12.0, 29.0, 7.0, 13.0, 14.0, 6.0, 12.0, 4.0, 5.0, 29.0, 26.0, 13.0, 2.0, 21.0, 2.0, 49.0, 17.0, 11.0, 15.0, 9.0, 23.0, 14.0, 7.0, 8.0, 21.0, 6.0, 8.0, 9.0, 8.0, 24.0, 3.0, 12.0, 7.0, 17.0, 10.0, 5.0, 6.0, 12.0, 18.0, 37.0, 27.0, 23.0, 12.0, 5.0, 11.0, 12.0, 7.0, 22.0, 8.0, 2.0, 5.0, 11.0, 46.0, 31.0, 13.0, 4.0, 10.0, 18.0, 63.0, 17.0, 26.0, 10.0, 14.0, 2.0, 17.0, 17.0, 14.0, 4.0, 17.0, 19.0, 20.0, 12.0, 2.0, 21.0, 7.0, 22.0, 14.0, 8.0, 49.0, 2.0, 1.0, 8.0, 17.0, 30.0, 25.0, 8.0, 7.0, 2.0, 6.0, 26.0, 16.0, 21.0, 10.0, 15.0, 9.0, 32.0, 2.0, 3.0, 22.0, 4.0, 6.0, 0.0, 5.0, 2.0, 24.0, 7.0, 21.0, 5.0, 14.0, 16.0, 3.0, 3.0, 1.0, 14.0, 6.0, 22.0, 21.0, 9.0, 13.0, 18.0, 3.0, 24.0, 4.0, 10.0, 16.0, 1.0, 3.0, 17.0, 48.0, 11.0, 16.0, 18.0, 3.0, 20.0, 31.0, 27.0, 15.0, 0.0, 20.0, 19.0, 63.0, 74.0, 8.0, 1.0, 18.0, 19.0, 8.0, 26.0, 2.0, 3.0, 2.0, 9.0, 7.0, 20.0, 12.0, 1.0, 6.0, 12.0, 0.0, 8.0, 17.0, 3.0, 3.0, 8.0, 4.0, 18.0, 20.0, 5.0, 3.0, 6.0, 13.0, 4.0, 5.0, 7.0, 6.0, 10.0, 13.0, 5.0, 11.0, 22.0, 16.0, 1.0, 20.0, 20.0, 16.0, 12.0, 36.0, 5.0, 24.0, 22.0, 7.0, 15.0, 24.0, 13.0, 7.0, 13.0, 20.0, 5.0, 11.0, 15.0, 12.0, 16.0, 10.0, 7.0, 18.0, 11.0, 30.0, 53.0, 14.0, 17.0, 2.0, 4.0, 21.0, 19.0, 5.0, 7.0, 3.0, 16.0, 17.0, 3.0, 4.0, 5.0, 38.0, 7.0, 3.0, 6.0, 12.0, 16.0, 6.0, 27.0, 3.0, 1.0, 51.0, 2.0, 18.0, 8.0, 5.0, 9.0, 1.0, 30.0, 2.0, 25.0, 17.0, 20.0, 13.0, 9.0, 1.0, 43.0, 5.0, 19.0, 10.0, 6.0, 43.0, 4.0, 16.0, 48.0, 11.0, 7.0, 13.0, 9.0, 3.0, 18.0, 10.0, 4.0, 3.0, 3.0, 3.0, 7.0, 16.0, 20.0, 4.0, 10.0, 23.0, 21.0, 4.0, 22.0, 4.0, 9.0, 12.0, 22.0, 8.0, 11.0, 5.0, 5.0, 12.0, 8.0, 1.0, 14.0, 2.0, 3.0, 2.0, 6.0, 5.0, 3.0, 6.0, 6.0, 5.0, 17.0, 37.0, 5.0, 6.0, 2.0, 7.0, 11.0, 9.0, 1.0, 5.0, 11.0, 2.0, 7.0, 11.0, 6.0, 9.0, 4.0, 4.0, 11.0, 18.0, 0.0, 33.0, 4.0, 2.0, 25.0, 3.0, 4.0, 13.0, 10.0, 7.0, 5.0, 3.0, 2.0, 6.0, 10.0, 25.0, 14.0, 22.0, 7.0, 11.0, 1.0, 13.0, 18.0, 14.0, 8.0, 14.0, 4.0, 1.0, 12.0, 3.0, 3.0, 4.0, 3.0, 30.0, 6.0, 5.0, 29.0, 1.0, 6.0, 34.0, 3.0, 15.0, 7.0, 0.0, 10.0, 17.0, 8.0, 16.0, 2.0, 67.0, 19.0, 16.0, 6.0, 40.0, 20.0, 21.0, 7.0, 23.0, 19.0, 13.0, 1.0, 10.0, 7.0, 12.0, 4.0, 11.0, 10.0, 4.0, 8.0, 9.0, 11.0, 20.0, 3.0, 10.0, 4.0, 3.0, 5.0, 12.0, 22.0, 11.0, 5.0, 45.0, 67.0, 19.0, 4.0, 7.0, 10.0, 3.0, 1.0, 14.0, 17.0, 10.0, 6.0, 5.0, 3.0, 25.0, 12.0, 1.0, 7.0, 4.0, 5.0, 3.0, 6.0, 6.0, 3.0, 14.0, 5.0, 10.0, 3.0, 2.0, 3.0, 32.0, 32.0, 22.0, 3.0, 6.0, 3.0, 19.0, 6.0, 8.0, 1.0, 49.0, 6.0, 5.0, 7.0, 3.0, 5.0, 17.0, 6.0, 13.0, 1.0, 5.0, 5.0, 25.0, 9.0, 16.0, 3.0, 21.0, 1.0, 7.0, 2.0, 7.0, 5.0, 17.0, 8.0, 8.0, 8.0, 7.0, 13.0, 2.0, 2.0, 5.0, 10.0, 4.0, 16.0, 8.0, 4.0, 7.0, 11.0, 5.0, 5.0, 1.0, 13.0, 1.0, 9.0, 4.0, 23.0, 34.0, 20.0, 1.0, 14.0, 3.0, 8.0, 19.0, 6.0, 5.0, 49.0, 3.0, 14.0, 4.0, 3.0, 9.0, 9.0, 7.0, 8.0, 6.0, 8.0, 27.0, 1.0, 3.0, 3.0, 0.0, 5.0, 1.0, 5.0, 24.0, 7.0, 2.0, 7.0, 5.0, 4.0, 14.0, 18.0, 17.0, 25.0, 4.0, 5.0, 5.0, 11.0, 10.0, 4.0, 1.0, 34.0, 10.0, 10.0, 4.0, 6.0, 0.0, 10.0, 7.0, 11.0, 8.0, 1.0, 8.0, 2.0, 8.0, 5.0, 0.0, 52.0, 9.0, 3.0, 13.0, 4.0, 4.0, 22.0, 26.0, 4.0, 30.0, 2.0, 3.0, 3.0, 5.0, 2.0, 24.0, 33.0, 8.0, 8.0, 4.0, 9.0, 7.0, 11.0, 11.0, 1.0, 9.0, 2.0, 2.0, 10.0, 11.0, 6.0, 24.0, 10.0, 3.0, 19.0, 14.0, 2.0, 4.0, 6.0, 0.0, 81.0, 4.0, 1.0, 3.0, 22.0, 2.0, 3.0, 7.0, 15.0, 29.0, 35.0, 10.0, 24.0, 11.0, 16.0, 34.0, 8.0, 36.0, 7.0, 19.0, 9.0, 1.0, 6.0, 5.0, 13.0, 5.0, 9.0, 6.0, 12.0, 5.0, 4.0, 9.0, 1.0, 4.0, 9.0, 21.0, 1.0, 7.0, 20.0, 3.0, 7.0, 2.0, 2.0, 3.0, 29.0, 9.0, 15.0, 3.0, 1.0, 1.0, 10.0, 22.0, 12.0, 15.0, 2.0, 11.0, 0.0, 12.0, 11.0, 1.0, 1.0, 20.0, 4.0, 41.0, 0.0, 13.0, 24.0, 39.0, 20.0, 15.0, 8.0, 16.0, 3.0, 6.0, 1.0, 1.0, 2.0, 4.0, 14.0, 11.0, 17.0, 8.0, 3.0, 7.0, 11.0, 12.0, 6.0, 3.0, 25.0, 13.0, 2.0, 9.0, 16.0, 16.0, 4.0, 3.0, 1.0, 11.0, 12.0, 2.0, 21.0, 10.0, 2.0, 4.0, 4.0, 5.0, 39.0, 7.0, 1.0, 8.0, 7.0, 12.0, 2.0, 21.0, 7.0, 4.0, 6.0, 9.0, 31.0, 6.0, 1.0, 1.0, 5.0, 3.0, 4.0, 3.0, 2.0, 3.0, 6.0, 13.0, 5.0, 37.0, 23.0, 9.0, 23.0, 13.0, 8.0, 15.0, 4.0, 4.0, 26.0, 16.0, 34.0, 8.0, 5.0, 7.0, 8.0, 4.0, 4.0, 9.0, 18.0, 13.0, 4.0, 3.0, 8.0, 11.0, 29.0, 2.0, 9.0, 3.0, 1.0, 3.0, 19.0, 40.0, 16.0, 2.0, 25.0, 11.0, 7.0, 16.0, 3.0, 3.0, 4.0, 42.0, 41.0, 5.0, 8.0, 38.0, 2.0, 2.0, 14.0, 8.0, 15.0, 2.0, 10.0, 6.0, 3.0, 7.0, 41.0, 5.0, 13.0, 5.0, 5.0, 1.0, 6.0, 4.0, 8.0, 4.0, 4.0, 5.0, 12.0, 5.0, 10.0, 17.0, 24.0, 7.0, 3.0, 14.0, 11.0, 13.0, 9.0, 15.0, 9.0, 7.0, 9.0, 4.0, 6.0, 1.0, 13.0, 2.0, 11.0, 5.0, 30.0, 2.0, 2.0, 2.0, 8.0, 5.0, 6.0, 3.0, 15.0, 7.0, 6.0, 17.0, 24.0, 9.0, 8.0, 4.0, 4.0, 9.0, 11.0, 11.0, 9.0, 6.0, 8.0, 3.0, 3.0, 6.0, 0.0, 2.0, 8.0, 12.0, 23.0, 6.0, 6.0, 20.0, 22.0, 10.0, 13.0, 3.0, 4.0, 7.0, 19.0, 5.0, 19.0, 12.0, 6.0, 4.0, 21.0, 5.0, 3.0, 2.0, 5.0, 7.0, 10.0, 6.0, 0.0, 3.0, 3.0, 11.0, 3.0, 13.0, 14.0, 13.0, 4.0, 3.0, 6.0, 24.0, 15.0, 10.0, 9.0, 6.0, 4.0, 1.0, 2.0, 1.0, 7.0, 9.0, 10.0, 22.0, 6.0, 1.0, 8.0, 9.0, 9.0, 12.0, 9.0, 5.0, 6.0, 5.0, 15.0, 2.0, 5.0, 10.0, 14.0, 19.0, 58.0, 1.0, 5.0, 8.0, 11.0, 3.0, 1.0, 7.0, 2.0, 4.0, 2.0, 3.0, 5.0, 1.0, 9.0, 37.0, 4.0, 2.0, 26.0, 3.0, 8.0, 22.0, 9.0, 7.0, 6.0, 11.0, 11.0, 2.0, 15.0, 4.0, 30.0, 10.0, 6.0, 4.0, 13.0, 14.0, 16.0, 21.0, 29.0, 16.0, 37.0, 18.0, 7.0, 13.0, 2.0, 5.0, 9.0, 9.0, 7.0, 7.0, 13.0, 2.0, 25.0, 25.0, 39.0, 11.0, 5.0, 20.0, 8.0, 7.0, 6.0, 7.0, 2.0, 21.0, 9.0, 3.0, 10.0, 88.0, 27.0, 8.0, 5.0, 10.0, 2.0, 7.0, 4.0, 9.0, 3.0, 10.0, 15.0, 16.0, 4.0, 4.0, 13.0, 11.0, 5.0, 8.0, 17.0, 2.0, 18.0, 12.0, 23.0, 7.0, 12.0, 1.0, 4.0, 1.0, 4.0, 6.0, 8.0, 6.0, 10.0, 13.0, 13.0, 10.0, 4.0, 1.0, 5.0, 19.0, 3.0, 10.0, 9.0, 14.0, 3.0, 4.0, 14.0, 1.0, 14.0, 38.0, 2.0, 46.0, 7.0, 3.0, 2.0, 18.0, 3.0, 8.0, 8.0, 5.0, 7.0, 4.0, 8.0, 4.0, 4.0, 6.0, 3.0, 3.0, 2.0, 5.0, 2.0, 8.0, 5.0, 5.0, 11.0, 7.0, 3.0, 1.0, 11.0, 3.0, 4.0, 11.0, 13.0, 24.0, 11.0, 3.0, 2.0, 9.0, 10.0, 42.0, 19.0, 5.0, 20.0, 2.0, 13.0, 5.0, 4.0, 17.0, 19.0, 2.0, 8.0, 11.0, 7.0, 5.0, 7.0, 10.0, 8.0, 13.0, 3.0, 4.0, 12.0, 8.0, 9.0, 7.0, 35.0, 6.0, 5.0, 4.0, 4.0, 3.0, 65.0, 17.0, 7.0, 10.0, 13.0, 4.0, 21.0, 10.0, 4.0, 6.0, 5.0, 5.0, 6.0, 7.0, 4.0, 2.0, 4.0, 36.0, 14.0, 2.0, 15.0, 1.0, 3.0, 11.0, 23.0, 10.0, 2.0, 14.0, 16.0, 3.0, 2.0, 3.0, 8.0, 5.0, 13.0, 2.0, 9.0, 3.0, 10.0, 1.0, 7.0, 12.0, 8.0, 9.0, 16.0, 16.0, 4.0, 1.0, 4.0, 5.0, 7.0, 7.0, 3.0, 7.0, 12.0, 38.0, 12.0, 3.0, 11.0, 13.0, 2.0, 7.0, 19.0, 6.0, 14.0, 3.0, 43.0, 5.0, 5.0, 6.0, 6.0, 27.0, 18.0, 12.0, 11.0, 11.0, 7.0, 16.0, 11.0, 16.0, 56.0, 9.0, 11.0, 8.0, 7.0, 8.0, 25.0, 7.0, 7.0, 3.0, 2.0, 12.0, 4.0, 14.0, 8.0, 7.0, 8.0, 9.0, 5.0, 6.0, 6.0, 16.0, 1.0, 20.0, 10.0, 3.0, 1.0, 12.0, 10.0, 3.0, 8.0, 1.0, 17.0, 13.0, 8.0, 10.0, 6.0, 13.0, 26.0, 6.0, 6.0, 22.0, 8.0, 9.0, 5.0, 11.0, 16.0, 6.0, 9.0, 90.0, 6.0, 10.0, 1.0, 1.0, 4.0, 11.0, 7.0, 2.0, 17.0, 2.0, 12.0, 12.0, 42.0, 2.0, 9.0, 7.0, 1.0, 27.0, 8.0, 8.0, 10.0, 15.0, 9.0, 51.0, 1.0, 17.0, 7.0, 7.0, 4.0, 23.0, 7.0, 20.0, 2.0, 18.0, 3.0, 14.0, 48.0, 10.0, 22.0, 6.0, 22.0, 7.0, 7.0, 10.0, 6.0, 3.0, 0.0, 10.0, 8.0, 6.0, 19.0, 10.0, 33.0, 6.0, 6.0, 6.0, 12.0, 5.0, 5.0, 5.0, 25.0, 11.0, 6.0, 8.0, 6.0, 9.0, 4.0, 1.0, 3.0, 10.0, 40.0, 3.0, 2.0, 3.0, 4.0, 4.0, 60.0, 29.0, 19.0, 2.0, 1.0, 18.0, 16.0, 23.0, 4.0, 5.0, 12.0, 11.0, 5.0, 5.0, 1.0, 25.0, 9.0, 3.0, 18.0, 6.0, 6.0, 37.0, 14.0, 4.0, 3.0, 5.0, 6.0, 11.0, 21.0, 22.0, 5.0, 10.0, 12.0, 10.0, 2.0, 3.0, 5.0, 23.0, 12.0, 4.0, 11.0, 7.0, 13.0, 5.0, 14.0, 10.0, 10.0, 23.0, 31.0, 3.0, 9.0, 38.0, 20.0, 9.0, 6.0, 2.0, 9.0, 13.0, 31.0, 1.0, 21.0, 5.0, 21.0, 7.0, 26.0, 10.0, 3.0, 10.0, 4.0, 17.0, 21.0, 7.0, 7.0, 7.0, 4.0, 7.0, 15.0, 12.0, 19.0, 4.0, 20.0, 6.0, 10.0, 7.0, 5.0, 3.0, 3.0, 21.0, 9.0, 23.0, 13.0, 44.0, 10.0, 12.0, 12.0, 24.0, 33.0, 7.0, 3.0, 9.0, 13.0, 3.0, 11.0, 20.0, 19.0, 11.0, 5.0, 8.0, 9.0, 3.0, 36.0, 19.0, 17.0, 7.0, 38.0, 18.0, 20.0, 28.0, 24.0, 18.0, 10.0, 19.0, 20.0, 21.0, 38.0, 8.0, 27.0, 13.0, 3.0, 15.0, 20.0, 12.0, 19.0, 6.0, 9.0, 3.0, 21.0, 9.0, 33.0, 24.0, 2.0, 15.0, 4.0, 7.0, 38.0, 45.0, 3.0, 3.0, 10.0, 23.0, 3.0, 8.0, 6.0, 17.0, 2.0, 3.0, 7.0, 13.0, 22.0, 37.0, 16.0, 25.0, 9.0, 7.0, 17.0, 28.0, 7.0, 2.0, 12.0, 4.0, 3.0, 11.0, 9.0, 3.0, 20.0, 16.0, 26.0, 31.0, 7.0, 27.0, 35.0, 30.0, 30.0, 46.0, 2.0, 15.0, 14.0, 4.0, 3.0, 3.0, 26.0, 4.0, 14.0, 14.0, 33.0, 19.0, 1.0, 15.0, 3.0, 14.0, 7.0, 8.0, 4.0, 30.0, 13.0, 3.0, 0.0, 9.0, 2.0, 7.0, 9.0, 6.0, 29.0, 13.0, 5.0, 2.0, 7.0, 37.0, 33.0, 18.0, 21.0, 5.0, 17.0, 17.0, 14.0, 3.0, 30.0, 12.0, 5.0, 12.0, 12.0, 11.0, 4.0, 6.0, 22.0, 28.0, 32.0, 38.0, 6.0, 24.0, 7.0, 2.0, 13.0, 4.0, 23.0, 18.0, 7.0, 1.0, 29.0, 14.0, 6.0, 9.0, 56.0, 23.0, 21.0, 5.0, 9.0, 3.0, 4.0, 41.0, 1.0, 10.0, 42.0, 16.0, 4.0, 20.0, 2.0, 8.0, 20.0, 24.0, 17.0, 36.0, 19.0, 51.0, 8.0, 36.0, 15.0, 28.0, 32.0, 19.0, 32.0, 4.0, 16.0, 24.0, 3.0, 39.0, 35.0, 56.0, 12.0, 6.0, 7.0, 23.0, 12.0, 67.0, 38.0, 1.0, 14.0, 28.0, 22.0, 8.0, 27.0, 1.0, 8.0, 8.0, 3.0, 6.0, 23.0, 2.0, 32.0, 11.0, 4.0, 23.0, 14.0, 37.0, 23.0, 49.0, 10.0, 10.0, 24.0, 18.0, 14.0, 6.0, 9.0, 4.0, 28.0, 24.0, 29.0, 21.0, 0.0, 52.0, 26.0, 14.0, 3.0, 31.0, 24.0, 8.0, 30.0, 4.0, 18.0, 22.0, 77.0, 62.0, 8.0, 8.0, 16.0, 23.0, 48.0, 3.0, 11.0, 24.0, 56.0, 11.0, 5.0, 4.0, 36.0, 17.0, 13.0, 37.0, 23.0, 32.0, 48.0, 20.0, 19.0, 21.0, 33.0, 39.0, 27.0, 27.0, 5.0, 26.0, 36.0, 13.0, 29.0, 16.0, 23.0, 49.0, 8.0, 43.0, 1.0, 4.0, 22.0, 4.0, 16.0, 52.0, 46.0, 8.0, 38.0, 7.0, 33.0, 52.0, 44.0, 16.0, 15.0, 13.0, 5.0, 10.0, 64.0, 32.0, 12.0, 31.0, 39.0, 51.0, 62.0, 29.0, 49.0, 31.0, 38.0, 64.0, 2.0, 17.0, 13.0, 41.0, 68.0, 34.0, 2.0, 70.0, 74.0, 49.0, 56.0, 53.0, 52.0, 39.0, 24.0, 69.0, 16.0, 46.0, 122.0, 29.0, 4.0, 71.0, 5.0, 13.0, 70.0, 1.0, 88.0, 72.0, 5.0, 8.0, 14.0, 57.0, 20.0, 8.0, 1.0, 12.0, 87.0, 3.0, 14.0, 89.0, 5.0, 35.0, 15.0, 105.0, 16.0, 9.0, 13.0, 6.0, 44.0, 13.0, 0.0, 3.0, 0.0, 2.0, 12.0, 11.0, 31.0, 6.0, 28.0, 15.0, 22.0, 22.0, 19.0, 124.0, 60.0, 14.0, 8.0, 16.0, 9.0, 1.0, 14.0, 1.0, 29.0, 13.0, 10.0, 6.0, 2.0, 28.0, 68.0, 42.0, 30.0, 13.0, 38.0, 14.0, 3.0, 1.0, 1.0, 5.0, 2.0, 5.0, 2.0, 12.0, 26.0, 11.0, 1.0, 16.0, 13.0, 5.0, 2.0, 3.0, 3.0, 4.0, 7.0, 8.0, 3.0, 9.0, 3.0, 20.0, 2.0, 39.0, 8.0, 5.0, 15.0, 20.0, 5.0, 4.0, 18.0, 6.0, 2.0, 4.0, 13.0, 27.0, 1.0, 4.0, 3.0, 11.0, 6.0, 0.0, 3.0, 23.0, 5.0, 2.0, 8.0, 1.0, 24.0, 35.0, 1.0, 0.0, 7.0, 6.0, 4.0, 3.0, 3.0, 1.0, 28.0, 10.0, 1.0, 9.0, 3.0, 8.0, 1.0, 9.0, 2.0, 9.0, 8.0, 0.0, 3.0, 28.0, 14.0, 6.0, 24.0, 17.0, 20.0, 1.0, 1.0, 9.0, 1.0, 3.0, 9.0, 3.0, 10.0, 3.0, 5.0, 9.0, 4.0, 9.0, 15.0, 8.0, 16.0, 9.0, 1.0, 5.0, 10.0, 7.0, 10.0, 4.0, 12.0, 4.0, 27.0, 6.0, 6.0, 6.0, 4.0, 7.0, 17.0, 7.0, 2.0, 25.0, 6.0, 1.0, 2.0, 11.0, 4.0, 7.0, 22.0, 5.0, 5.0, 6.0, 20.0, 6.0, 2.0, 1.0, 13.0, 7.0, 2.0, 20.0, 23.0, 2.0, 10.0, 1.0, 15.0, 4.0, 7.0, 6.0, 8.0, 21.0, 14.0, 8.0, 2.0, 2.0, 1.0, 0.0, 1.0, 9.0, 5.0, 1.0, 1.0, 4.0, 5.0, 12.0, 3.0, 11.0, 17.0, 12.0, 15.0, 1.0, 1.0, 31.0, 10.0, 14.0, 15.0, 28.0, 14.0, 18.0, 9.0, 9.0, 4.0, 11.0, 10.0, 2.0, 15.0, 2.0, 16.0, 13.0, 6.0, 9.0, 6.0, 12.0, 7.0, 4.0, 13.0, 8.0, 1.0, 15.0, 1.0, 4.0, 4.0, 19.0, 4.0, 5.0, 2.0, 5.0, 4.0, 4.0, 16.0, 5.0, 5.0, 8.0, 3.0, 6.0, 26.0, 3.0, 9.0, 16.0, 2.0, 14.0, 12.0, 6.0, 3.0, 12.0, 6.0, 9.0, 59.0, 3.0, 0.0, 3.0, 2.0, 4.0, 1.0, 4.0, 9.0, 4.0, 2.0, 4.0, 2.0, 2.0, 10.0, 2.0, 6.0, 4.0, 3.0, 14.0, 11.0, 1.0, 3.0, 5.0, 2.0, 8.0, 12.0, 1.0, 4.0, 1.0, 5.0, 5.0, 13.0, 10.0, 1.0, 1.0, 34.0, 12.0, 1.0, 5.0, 23.0, 13.0, 5.0, 8.0, 11.0, 4.0, 43.0, 4.0, 6.0, 8.0, 5.0, 5.0, 0.0, 4.0, 3.0, 11.0, 2.0, 3.0, 3.0, 6.0, 11.0, 11.0, 8.0, 12.0, 12.0, 18.0, 6.0, 8.0, 3.0, 16.0, 5.0, 5.0, 23.0, 5.0, 14.0, 26.0, 26.0, 18.0, 7.0, 3.0, 6.0, 31.0, 2.0, 8.0, 1.0, 6.0, 12.0, 8.0, 10.0, 6.0, 3.0, 1.0, 15.0, 6.0, 12.0, 19.0, 5.0, 36.0, 25.0, 2.0, 3.0, 31.0, 7.0, 5.0, 8.0, 3.0, 24.0, 5.0, 2.0, 4.0, 25.0, 1.0, 2.0, 3.0, 22.0, 4.0, 70.0, 27.0, 3.0, 7.0, 23.0, 5.0, 9.0, 2.0, 3.0, 14.0, 1.0, 13.0, 8.0, 14.0, 10.0, 26.0, 25.0, 1.0, 8.0, 1.0, 9.0, 25.0, 5.0, 9.0, 1.0, 5.0, 3.0, 4.0, 17.0, 1.0, 27.0, 20.0, 6.0, 7.0, 14.0, 17.0, 16.0, 2.0, 3.0, 4.0, 11.0, 6.0, 1.0, 2.0, 11.0, 4.0, 4.0, 3.0, 6.0, 5.0, 13.0, 1.0, 3.0, 2.0, 0.0, 2.0, 14.0, 7.0, 11.0, 5.0, 3.0, 9.0, 6.0, 14.0, 10.0, 2.0, 2.0, 5.0, 2.0, 6.0, 9.0, 12.0, 4.0, 39.0, 5.0, 3.0, 38.0, 24.0, 3.0, 5.0, 6.0, 23.0, 1.0, 13.0, 13.0, 5.0, 4.0, 61.0, 0.0, 4.0, 5.0, 7.0, 5.0, 64.0, 3.0, 2.0, 1.0, 6.0, 3.0, 2.0, 6.0, 5.0, 1.0, 14.0, 1.0, 7.0, 7.0, 4.0, 3.0, 18.0, 6.0, 5.0, 1.0, 1.0, 2.0, 0.0, 4.0, 3.0, 12.0, 11.0, 14.0, 10.0, 9.0, 3.0, 12.0, 9.0, 3.0, 4.0, 6.0, 8.0, 0.0, 5.0, 7.0, 7.0, 5.0, 30.0, 6.0, 8.0, 7.0, 12.0, 12.0, 1.0, 19.0, 3.0, 3.0, 17.0, 22.0, 7.0, 2.0, 3.0, 15.0, 5.0, 14.0, 4.0, 10.0, 8.0, 41.0, 15.0, 4.0, 9.0, 16.0, 1.0, 5.0, 10.0, 29.0, 5.0, 5.0, 4.0, 5.0, 22.0, 4.0, 1.0, 6.0, 4.0, 2.0, 6.0, 4.0, 3.0, 18.0, 2.0, 5.0, 4.0, 6.0, 6.0, 14.0, 32.0, 8.0, 4.0, 9.0, 6.0, 4.0, 63.0, 22.0, 8.0, 7.0, 6.0, 2.0, 1.0, 9.0, 12.0, 5.0, 1.0, 13.0, 33.0, 10.0, 3.0, 9.0, 7.0, 14.0, 5.0, 24.0, 2.0, 9.0, 15.0, 10.0, 8.0, 16.0, 5.0, 1.0, 4.0, 5.0, 3.0, 4.0, 10.0, 4.0, 18.0, 4.0, 3.0, 3.0, 4.0, 13.0, 5.0, 8.0, 19.0, 7.0, 45.0, 2.0, 6.0, 8.0, 13.0, 5.0, 11.0, 23.0, 50.0, 13.0, 1.0, 9.0, 2.0, 15.0, 5.0, 1.0, 2.0, 11.0, 4.0, 2.0, 3.0, 2.0, 19.0, 3.0, 6.0, 8.0, 6.0, 7.0, 6.0, 5.0, 27.0, 9.0, 21.0, 3.0, 5.0, 12.0, 9.0, 3.0, 8.0, 5.0, 2.0, 7.0, 4.0, 3.0, 25.0, 5.0, 8.0, 9.0, 6.0, 9.0, 4.0, 8.0, 5.0, 0.0, 11.0, 3.0, 2.0, 3.0, 10.0, 20.0, 5.0, 6.0, 7.0, 9.0, 6.0, 35.0, 97.0, 3.0, 3.0, 6.0, 4.0, 6.0, 11.0, 5.0, 2.0, 7.0, 7.0, 2.0, 4.0, 4.0, 5.0, 2.0, 9.0, 5.0, 11.0, 20.0, 6.0, 30.0, 4.0, 36.0, 2.0, 10.0, 7.0, 5.0, 5.0, 5.0, 2.0, 1.0, 10.0, 3.0, 13.0, 19.0, 7.0, 4.0, 4.0, 22.0, 7.0, 10.0, 5.0, 16.0, 60.0, 7.0, 20.0, 23.0, 0.0, 5.0, 6.0, 3.0, 2.0, 11.0, 9.0, 6.0, 2.0, 7.0, 2.0, 2.0, 5.0, 1.0, 6.0, 20.0, 10.0, 5.0, 14.0, 13.0, 3.0, 6.0, 24.0, 0.0, 9.0, 19.0, 27.0, 8.0, 3.0, 53.0, 1.0, 14.0, 5.0, 5.0, 13.0, 11.0, 4.0, 4.0, 2.0, 26.0, 6.0, 5.0, 2.0, 5.0, 3.0, 9.0, 2.0, 10.0, 1.0, 3.0, 3.0, 3.0, 5.0, 4.0, 5.0, 4.0, 10.0, 4.0, 5.0, 16.0, 7.0, 15.0, 9.0, 7.0, 13.0, 4.0, 16.0, 3.0, 5.0, 19.0, 11.0, 4.0, 8.0, 10.0, 5.0, 1.0, 5.0, 7.0, 11.0, 21.0, 1.0, 2.0, 4.0, 9.0, 7.0, 7.0, 8.0, 0.0, 1.0, 2.0, 14.0, 19.0, 8.0, 25.0, 9.0, 4.0, 1.0, 15.0, 21.0, 5.0, 18.0, 6.0, 6.0, 8.0, 4.0, 8.0, 7.0, 20.0, 4.0, 6.0, 8.0, 12.0, 19.0, 5.0, 7.0, 11.0, 4.0, 5.0, 45.0, 2.0, 4.0, 22.0, 10.0, 3.0, 18.0, 14.0, 3.0, 10.0, 2.0, 4.0, 19.0, 3.0, 37.0, 7.0, 3.0, 2.0, 13.0, 40.0, 5.0, 6.0, 34.0, 2.0, 27.0, 14.0, 4.0, 15.0, 0.0, 1.0, 11.0, 6.0, 15.0, 0.0, 20.0, 6.0, 2.0, 5.0, 3.0, 12.0, 4.0, 4.0, 8.0, 11.0, 15.0, 5.0, 6.0, 13.0, 2.0, 2.0, 4.0, 4.0, 13.0, 7.0, 15.0, 5.0, 16.0, 7.0, 3.0, 32.0, 7.0, 2.0, 7.0, 5.0, 18.0, 3.0, 6.0, 4.0, 4.0, 4.0, 2.0, 1.0, 5.0, 0.0, 4.0, 8.0, 2.0, 3.0, 8.0, 7.0, 18.0, 28.0, 1.0, 10.0, 1.0, 13.0, 9.0, 2.0, 8.0, 6.0, 11.0, 26.0, 7.0, 3.0, 6.0, 3.0, 3.0, 2.0, 9.0, 3.0, 3.0, 24.0, 0.0, 4.0, 18.0, 10.0, 2.0, 15.0, 1.0, 15.0, 6.0, 11.0, 23.0, 1.0, 5.0, 7.0, 6.0, 4.0, 5.0, 9.0, 14.0, 4.0, 6.0, 19.0, 2.0, 8.0, 0.0, 5.0, 9.0, 7.0, 4.0, 12.0, 4.0, 3.0, 2.0, 5.0, 9.0, 3.0, 27.0, 5.0, 15.0, 5.0, 3.0, 11.0, 2.0, 8.0, 9.0, 3.0, 6.0, 8.0, 3.0, 8.0, 17.0, 3.0, 13.0, 4.0, 0.0, 59.0, 4.0, 9.0, 5.0, 4.0, 3.0, 0.0, 3.0, 4.0, 6.0, 4.0, 17.0, 5.0, 5.0, 4.0, 4.0, 8.0, 5.0, 1.0, 8.0, 7.0, 3.0, 1.0, 5.0, 3.0, 5.0, 16.0, 6.0, 7.0, 7.0, 7.0, 5.0, 4.0, 9.0, 0.0, 9.0, 4.0, 23.0, 5.0, 3.0, 7.0, 4.0, 32.0, 18.0, 11.0, 6.0, 9.0, 14.0, 5.0, 1.0, 3.0, 14.0, 26.0, 1.0, 8.0, 3.0, 1.0, 4.0, 4.0, 6.0, 15.0, 9.0, 1.0, 15.0, 4.0, 12.0, 8.0, 8.0, 11.0, 1.0, 10.0, 2.0, 2.0, 7.0, 8.0, 7.0, 4.0, 1.0, 15.0, 5.0, 6.0, 3.0, 7.0, 3.0, 16.0, 5.0, 3.0, 1.0, 14.0, 6.0, 11.0, 5.0, 6.0, 9.0, 1.0, 23.0, 4.0, 2.0, 6.0, 48.0, 1.0, 6.0, 3.0, 9.0, 10.0, 8.0, 8.0, 5.0, 11.0, 8.0, 24.0, 10.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 4.0, 0.0, 4.0, 17.0, 13.0, 16.0, 6.0, 18.0, 1.0, 0.0, 6.0, 10.0, 1.0, 0.0, 1.0, 12.0, 3.0, 5.0, 11.0, 6.0, 31.0, 14.0, 1.0, 9.0, 3.0, 5.0, 10.0, 22.0, 10.0, 2.0, 5.0, 3.0, 5.0, 10.0, 11.0, 12.0, 0.0, 14.0, 63.0, 4.0, 3.0, 28.0, 3.0, 3.0, 4.0, 6.0, 6.0, 9.0, 4.0, 12.0, 8.0, 19.0, 11.0, 3.0, 4.0, 2.0, 5.0, 37.0, 7.0, 13.0, 6.0, 4.0, 8.0, 22.0, 10.0, 4.0, 8.0, 6.0, 11.0, 34.0, 14.0, 2.0, 37.0, 2.0, 12.0, 39.0, 10.0, 16.0, 3.0, 10.0, 10.0, 13.0, 1.0, 13.0, 11.0, 10.0, 17.0, 18.0, 11.0, 12.0, 6.0, 9.0, 4.0, 10.0, 16.0, 39.0, 15.0, 13.0, 8.0, 3.0, 10.0, 4.0, 32.0, 5.0, 18.0, 16.0, 1.0, 10.0, 7.0, 24.0, 16.0, 8.0, 6.0, 1.0, 8.0, 19.0, 38.0, 4.0, 10.0, 22.0, 6.0, 5.0, 11.0, 15.0, 5.0, 2.0, 22.0, 1.0, 2.0, 5.0, 34.0, 16.0, 5.0, 14.0, 5.0, 53.0, 29.0, 3.0, 21.0, 15.0, 12.0, 7.0, 11.0, 27.0, 18.0, 5.0, 4.0, 14.0, 12.0, 7.0, 15.0, 4.0, 12.0, 3.0, 4.0, 24.0, 9.0, 24.0, 0.0, 6.0, 19.0, 5.0, 12.0, 5.0, 9.0, 13.0, 15.0, 16.0, 5.0, 2.0, 2.0, 13.0, 14.0, 6.0, 16.0, 19.0, 10.0, 5.0, 11.0, 1.0, 22.0, 10.0, 3.0, 18.0, 32.0, 6.0, 11.0, 11.0, 10.0, 9.0, 29.0, 24.0, 9.0, 6.0, 14.0, 24.0, 12.0, 13.0, 4.0, 18.0, 22.0, 9.0, 17.0, 25.0, 9.0, 11.0, 9.0, 9.0, 9.0, 4.0, 10.0, 11.0, 18.0, 10.0, 12.0, 4.0, 19.0, 16.0, 9.0, 3.0, 25.0, 34.0, 15.0, 6.0, 25.0, 8.0, 6.0, 48.0, 19.0, 9.0, 15.0, 6.0, 33.0, 20.0, 3.0, 30.0, 12.0, 37.0, 33.0, 7.0, 21.0, 17.0, 9.0, 4.0, 12.0, 10.0, 14.0, 10.0, 9.0, 16.0, 7.0, 6.0, 20.0, 10.0, 40.0, 0.0, 28.0, 16.0, 36.0, 28.0, 21.0, 27.0, 12.0, 40.0, 21.0, 28.0, 33.0, 23.0, 27.0, 35.0, 20.0, 23.0, 30.0, 1.0, 21.0, 43.0, 9.0, 11.0, 4.0, 15.0, 41.0, 27.0, 21.0, 10.0, 21.0, 32.0, 27.0, 22.0, 32.0, 16.0, 46.0, 33.0, 14.0, 19.0, 29.0, 47.0, 24.0, 31.0, 26.0, 36.0, 14.0, 26.0, 33.0, 14.0, 19.0, 20.0, 33.0, 35.0, 49.0, 58.0, 42.0, 34.0, 43.0, 32.0, 30.0, 28.0, 29.0, 34.0, 54.0, 45.0, 36.0, 40.0, 49.0, 54.0, 64.0, 61.0, 46.0, 57.0, 50.0, 87.0, 63.0, 71.0, 32.0, 60.0, 76.0, 57.0, 60.0, 73.0, 63.0, 90.0, 66.0, 61.0, 96.0, 59.0, 69.0, 97.0, 84.0, 81.0, 123.0, 129.0, 134.0, 115.0, 110.0]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0.0, 5.0, 1.0, 10.0, 20.0, 67.0, 7.0, 5.0, 0.0, 20.0, 5.0, 12.0, 2.0, 1.0, 9.0, 9.0, 12.0, 15.0, 5.0, 48.0, 3.0, 2.0, 12.0, 16.0, 11.0, 13.0, 1.0, 5.0, 2.0, 6.0, 3.0, 6.0, 22.0, 12.0, 11.0, 10.0, 8.0, 2.0, 10.0, 14.0, 4.0, 0.0, 10.0, 15.0, 15.0, 3.0, 5.0, 3.0, 11.0, 29.0, 18.0, 8.0, 2.0, 59.0, 18.0, 7.0, 8.0, 9.0, 17.0, 5.0, 30.0, 3.0, 25.0, 28.0, 12.0, 3.0, 35.0, 1.0, 16.0, 16.0, 20.0, 1.0, 5.0, 6.0, 14.0, 32.0, 23.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 45.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0, 8.0, 12.0, 9.0, 7.0, 10.0, 1.0, 9.0, 8.0, 14.0, 11.0, 11.0, 37.0, 15.0, 3.0, 8.0, 19.0, 2.0, 23.0, 4.0, 14.0, 14.0, 8.0, 11.0, 15.0, 19.0, 11.0, 37.0, 40.0, 60.0, 14.0, 7.0, 13.0, 3.0, 9.0, 41.0, 35.0, 25.0, 4.0, 5.0, 12.0, 6.0, 6.0, 3.0, 13.0, 20.0, 17.0, 2.0, 4.0, 13.0, 15.0, 21.0, 2.0, 33.0, 12.0, 12.0, 14.0, 32.0, 15.0, 9.0, 1.0, 10.0, 10.0, 7.0, 19.0, 14.0, 3.0, 7.0, 31.0, 1.0, 1.0, 12.0, 25.0, 11.0, 80.0, 9.0, 31.0, 1.0, 10.0, 15.0, 14.0, 27.0, 15.0, 30.0, 64.0, 13.0, 1.0, 12.0, 5.0, 25.0, 6.0, 7.0, 8.0, 10.0, 7.0, 11.0, 17.0, 11.0, 26.0, 7.0, 5.0, 11.0, 12.0, 1.0, 7.0, 8.0, 3.0, 55.0, 12.0, 50.0, 26.0, 1.0, 11.0, 30.0, 50.0, 18.0, 10.0, 7.0, 3.0, 8.0, 7.0, 24.0, 16.0, 8.0, 14.0, 10.0, 5.0, 10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 4.0, 7.0, 5.0, 6.0, 1.0, 4.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 33.0, 16.0, 8.0, 8.0, 9.0, 8.0, 1.0, 15.0, 10.0, 10.0, 12.0, 6.0, 1.0, 7.0, 8.0, 60.0, 15.0, 79.0, 16.0, 1.0, 21.0, 3.0, 8.0, 30.0, 12.0, 4.0, 55.0, 6.0, 22.0, 12.0, 28.0, 15.0, 17.0, 12.0, 14.0, 33.0, 11.0, 11.0, 14.0, 4.0, 57.0, 14.0, 11.0, 13.0, 8.0, 12.0, 18.0, 7.0, 7.0, 20.0, 26.0, 25.0, 53.0, 11.0, 43.0, 6.0, 3.0, 78.0, 3.0, 50.0, 32.0, 21.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 16.0, 9.0, 32.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 9.0, 6.0, 8.0, 55.0, 14.0, 13.0, 16.0, 12.0, 5.0, 20.0, 21.0, 22.0, 9.0, 20.0, 14.0, 8.0, 10.0, 16.0, 46.0, 8.0, 23.0, 23.0, 22.0, 10.0, 10.0, 18.0, 6.0, 11.0, 9.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 80.0, 10.0, 14.0, 5.0, 15.0, 16.0, 21.0, 4.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 2.0, 8.0, 22.0, 11.0, 49.0, 5.0, 12.0, 14.0, 9.0, 20.0, 50.0, 4.0, 5.0, 8.0, 65.0, 10.0, 30.0, 17.0, 47.0, 12.0, 13.0, 12.0, 6.0, 53.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 6.0, 4.0, 6.0, 73.0, 14.0, 29.0, 3.0, 21.0, 14.0, 4.0, 34.0, 18.0, 7.0, 13.0, 19.0, 9.0, 7.0, 51.0, 2.0, 1.0, 36.0, 17.0, 14.0, 24.0, 27.0, 62.0, 27.0, 44.0, 83.0, 2.0, 2.0, 14.0, 13.0, 7.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 5.0, 32.0, 4.0, 23.0, 10.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 19.0, 18.0, 43.0, 1.0, 5.0, 12.0, 19.0, 12.0, 4.0, 6.0, 20.0, 23.0, 12.0, 3.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 6.0, 8.0, 7.0, 54.0, 25.0, 7.0, 12.0, 11.0, 12.0, 37.0, 16.0, 23.0, 5.0, 4.0, 46.0, 17.0, 12.0, 23.0, 19.0, 5.0, 9.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 4.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 4.0, 7.0, 13.0, 14.0, 15.0, 19.0, 14.0, 17.0, 6.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 27.0, 9.0, 12.0, 12.0, 9.0, 14.0, 2.0, 9.0, 11.0, 23.0, 16.0, 25.0, 45.0, 32.0, 2.0, 2.0, 17.0, 8.0, 5.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 21.0, 10.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 2.0, 11.0, 45.0, 15.0, 14.0, 16.0, 8.0, 53.0, 31.0, 31.0, 8.0, 17.0, 18.0, 12.0, 10.0, 15.0, 2.0, 31.0, 7.0, 11.0, 10.0, 11.0, 26.0, 14.0, 17.0, 11.0, 4.0, 12.0, 21.0, 14.0, 30.0, 25.0, 52.0, 7.0, 13.0, 9.0, 9.0, 9.0, 5.0, 13.0, 5.0, 49.0, 11.0, 39.0, 2.0, 16.0, 1.0, 7.0, 18.0, 4.0, 72.0, 62.0, 11.0, 24.0, 13.0, 29.0, 22.0, 1.0, 46.0, 13.0, 71.0, 4.0, 13.0, 33.0, 14.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 7.0, 1.0, 10.0, 71.0, 21.0, 13.0, 2.0, 55.0, 3.0, 13.0, 9.0, 27.0, 30.0, 13.0, 2.0, 10.0, 54.0, 3.0, 21.0, 17.0, 21.0, 7.0, 11.0, 39.0, 4.0, 29.0, 13.0, 48.0, 5.0, 5.0, 19.0, 5.0, 2.0, 12.0, 28.0, 10.0, 72.0, 48.0, 48.0, 15.0, 17.0, 12.0, 63.0, 8.0, 18.0, 54.0, 0.0, 10.0, 28.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 85.0, 31.0, 31.0, 6.0, 16.0, 17.0, 39.0, 34.0, 11.0, 32.0, 11.0, 17.0, 18.0, 10.0, 7.0, 12.0, 23.0, 18.0, 13.0, 9.0, 41.0, 18.0, 10.0, 4.0, 32.0, 11.0, 47.0, 48.0, 9.0, 16.0, 33.0, 76.0, 13.0, 21.0, 8.0, 10.0, 44.0, 6.0, 15.0, 23.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 27.0, 13.0, 14.0, 26.0, 10.0, 15.0, 25.0, 26.0, 3.0, 14.0, 14.0, 24.0, 35.0, 28.0, 4.0, 8.0, 12.0, 11.0, 3.0, 30.0, 2.0, 50.0, 18.0, 25.0, 43.0, 17.0, 7.0, 3.0, 1.0, 14.0, 47.0, 40.0, 34.0, 12.0, 8.0, 45.0, 28.0, 10.0, 79.0, 31.0, 4.0, 12.0, 6.0, 9.0, 17.0, 29.0, 10.0, 6.0, 31.0, 4.0, 7.0, 43.0, 15.0, 53.0, 14.0, 9.0, 10.0, 10.0, 15.0, 46.0, 18.0, 21.0, 54.0, 24.0, 12.0, 7.0, 17.0, 17.0, 9.0, 29.0, 18.0, 16.0, 39.0, 2.0, 27.0, 36.0, 9.0, 11.0, 11.0, 24.0, 12.0, 31.0, 20.0, 12.0, 14.0, 23.0, 14.0, 11.0, 15.0, 8.0, 13.0, 19.0, 18.0, 3.0, 16.0, 14.0, 9.0, 14.0, 10.0, 16.0, 17.0, 32.0, 17.0, 30.0, 15.0, 11.0, 27.0, 11.0, 15.0, 16.0, 47.0, 10.0, 10.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 17.0, 15.0, 9.0, 15.0, 9.0, 16.0, 34.0, 0.0, 17.0, 14.0, 3.0, 4.0, 9.0, 21.0, 45.0, 4.0, 9.0, 0.0, 28.0, 26.0, 20.0, 7.0, 36.0, 15.0, 19.0, 16.0, 29.0, 34.0, 68.0, 19.0, 38.0, 12.0, 8.0, 31.0, 20.0, 11.0, 19.0, 14.0, 11.0, 24.0, 10.0, 18.0, 11.0, 10.0, 19.0, 10.0, 11.0, 10.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 1.0, 56.0, 47.0, 34.0, 56.0, 9.0, 13.0, 3.0, 29.0, 22.0, 34.0, 46.0, 7.0, 31.0, 16.0, 52.0, 12.0, 10.0, 65.0, 49.0, 55.0, 11.0, 7.0, 8.0, 66.0, 16.0, 7.0, 67.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 8.0, 5.0, 26.0, 7.0, 12.0, 27.0, 9.0, 8.0, 43.0, 31.0, 6.0, 45.0, 7.0, 21.0, 15.0, 21.0, 24.0, 46.0, 70.0, 65.0, 16.0, 7.0, 16.0, 38.0, 5.0, 2.0, 4.0, 9.0, 45.0, 3.0, 68.0, 11.0, 4.0, 11.0, 42.0, 19.0, 47.0, 4.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 24.0, 20.0, 30.0, 30.0, 50.0, 14.0, 7.0, 11.0, 6.0, 41.0, 26.0, 68.0, 16.0, 46.0, 9.0, 35.0, 24.0, 10.0, 18.0, 26.0, 8.0, 22.0, 29.0, 28.0, 9.0, 20.0, 13.0, 23.0, 12.0, 80.0, 13.0, 27.0, 62.0, 19.0, 65.0, 9.0, 18.0, 15.0, 14.0, 24.0, 74.0, 29.0, 7.0, 19.0, 2.0, 58.0, 13.0, 48.0, 0.0, 18.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 12.0, 33.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 20.0, 21.0, 12.0, 4.0, 87.0, 32.0, 14.0, 16.0, 18.0, 24.0, 16.0, 26.0, 64.0, 26.0, 18.0, 26.0, 37.0, 3.0, 14.0, 21.0, 33.0, 13.0, 50.0, 2.0, 3.0, 20.0, 7.0, 30.0, 26.0, 27.0, 6.0, 9.0, 15.0, 10.0, 22.0, 28.0, 8.0, 5.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 8.0, 2.0, 23.0, 2.0, 13.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 30.0, 4.0, 6.0, 23.0, 42.0, 13.0, 14.0, 13.0, 39.0, 17.0, 3.0, 7.0, 6.0, 76.0, 6.0, 18.0, 6.0, 6.0, 6.0, 10.0, 18.0, 38.0, 5.0, 21.0, 16.0, 14.0, 8.0, 5.0, 14.0, 11.0, 0.0, 18.0, 13.0, 7.0, 11.0, 7.0, 4.0, 6.0, 20.0, 9.0, 2.0, 9.0, 30.0, 5.0, 18.0, 37.0, 3.0, 9.0, 18.0, 16.0, 27.0, 4.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 6.0, 9.0, 16.0, 14.0, 6.0, 44.0, 1.0, 31.0, 36.0, 42.0, 10.0, 11.0, 18.0, 7.0, 11.0, 67.0, 36.0, 20.0, 19.0, 6.0, 10.0, 13.0, 29.0, 21.0, 21.0, 54.0, 37.0, 23.0, 6.0, 15.0, 45.0, 17.0, 5.0, 26.0, 39.0, 19.0, 24.0, 24.0, 24.0, 10.0, 17.0, 38.0, 17.0, 28.0, 15.0, 48.0, 19.0, 4.0, 14.0, 14.0, 21.0, 34.0, 2.0, 19.0, 28.0, 79.0, 10.0, 65.0, 5.0, 8.0, 81.0, 15.0, 25.0, 18.0, 18.0, 52.0, 30.0, 34.0, 12.0, 17.0, 20.0, 22.0, 20.0, 45.0, 53.0, 67.0, 12.0, 9.0, 26.0, 17.0, 8.0, 11.0, 28.0, 22.0, 13.0, 14.0, 37.0, 31.0, 48.0, 23.0, 81.0, 6.0, 10.0, 12.0, 12.0, 2.0, 14.0, 8.0, 3.0, 24.0, 14.0, 4.0, 18.0, 4.0, 9.0, 10.0, 10.0, 5.0, 14.0, 17.0, 29.0, 9.0, 15.0, 11.0, 24.0, 35.0, 7.0, 17.0, 16.0, 12.0, 6.0, 14.0, 42.0, 17.0, 5.0, 15.0, 24.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 20.0, 11.0, 15.0, 17.0, 10.0, 7.0, 7.0, 13.0, 12.0, 15.0, 26.0, 40.0, 13.0, 27.0, 13.0, 25.0, 11.0, 33.0, 10.0, 25.0, 5.0, 8.0, 49.0, 17.0, 1.0, 12.0, 20.0, 18.0, 16.0, 29.0, 22.0, 66.0, 13.0, 11.0, 19.0, 21.0, 12.0, 1.0, 24.0, 15.0, 9.0, 28.0, 18.0, 20.0, 18.0, 23.0, 18.0, 11.0, 9.0, 25.0, 21.0, 14.0, 18.0, 64.0, 2.0, 18.0, 8.0, 20.0, 26.0, 35.0, 18.0, 49.0, 54.0, 13.0, 76.0, 39.0, 21.0, 16.0, 41.0, 52.0, 20.0, 34.0, 31.0, 12.0, 23.0, 57.0, 15.0, 5.0, 21.0, 3.0, 25.0, 14.0, 40.0, 22.0, 13.0, 66.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 6.0, 20.0, 16.0, 21.0, 49.0, 30.0, 42.0, 34.0, 43.0, 34.0, 28.0, 27.0, 61.0, 45.0, 3.0, 13.0, 21.0, 14.0, 6.0, 14.0, 11.0, 42.0, 10.0, 30.0, 87.0, 28.0, 10.0, 4.0, 7.0, 22.0, 5.0, 14.0, 36.0, 24.0, 40.0, 24.0, 16.0, 15.0, 19.0, 12.0, 13.0, 19.0, 5.0, 34.0, 16.0, 6.0, 16.0, 2.0, 10.0, 9.0, 7.0, 1.0, 11.0, 52.0, 18.0, 14.0, 7.0, 15.0, 14.0, 13.0, 0.0, 25.0, 18.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 32.0, 12.0, 23.0, 22.0, 16.0, 27.0, 13.0, 20.0, 21.0, 12.0, 18.0, 22.0, 9.0, 12.0, 12.0, 24.0, 14.0, 25.0, 87.0, 6.0, 50.0, 20.0, 11.0, 10.0, 14.0, 28.0, 14.0, 30.0, 17.0, 24.0, 8.0, 44.0, 21.0, 38.0, 59.0, 12.0, 15.0, 10.0, 15.0, 31.0, 59.0, 5.0, 32.0, 18.0, 5.0, 7.0, 16.0, 9.0, 0.0, 11.0, 3.0, 18.0, 13.0, 19.0, 21.0, 9.0, 23.0, 4.0, 22.0, 15.0, 18.0, 16.0, 10.0, 21.0, 12.0, 22.0, 13.0, 15.0, 19.0, 20.0, 50.0, 33.0, 7.0, 21.0, 29.0, 52.0, 10.0, 28.0, 23.0, 15.0, 32.0, 15.0, 21.0, 16.0, 38.0, 65.0, 20.0, 10.0, 10.0, 17.0, 16.0, 41.0, 15.0, 6.0, 20.0, 12.0, 8.0, 14.0, 24.0, 12.0, 17.0, 30.0, 2.0, 9.0, 21.0, 15.0, 19.0, 85.0, 11.0, 16.0, 49.0, 42.0, 19.0, 7.0, 16.0, 9.0, 26.0, 23.0, 12.0, 15.0, 23.0, 6.0, 11.0, 44.0, 16.0, 51.0, 31.0, 13.0, 13.0, 4.0, 19.0, 11.0, 19.0, 2.0, 31.0, 21.0, 13.0, 23.0, 31.0, 10.0, 24.0, 20.0, 45.0, 17.0, 6.0, 19.0, 5.0, 5.0, 5.0, 48.0, 49.0, 9.0, 20.0, 35.0, 18.0, 43.0, 30.0, 5.0, 84.0, 25.0, 14.0, 14.0, 11.0, 26.0, 51.0, 7.0, 8.0, 56.0, 2.0, 14.0, 30.0, 8.0, 21.0, 33.0, 5.0, 15.0, 9.0, 47.0, 7.0, 42.0, 15.0, 7.0, 9.0, 16.0, 12.0, 18.0, 21.0, 13.0, 33.0, 75.0, 23.0, 59.0, 9.0, 23.0, 20.0, 22.0, 8.0, 33.0, 15.0, 28.0, 2.0, 34.0, 21.0, 1.0, 24.0, 30.0, 5.0, 51.0, 22.0, 21.0, 76.0, 80.0, 6.0, 8.0, 11.0, 22.0, 13.0, 23.0, 10.0, 12.0, 14.0, 1.0, 1.0, 18.0, 10.0, 20.0, 30.0, 33.0, 6.0, 44.0, 1.0, 17.0, 5.0, 11.0, 7.0, 4.0, 19.0, 46.0, 23.0, 2.0, 12.0, 11.0, 18.0, 32.0, 6.0, 10.0, 32.0, 12.0, 8.0, 65.0, 21.0, 12.0, 3.0, 4.0, 13.0, 19.0, 33.0, 10.0, 27.0, 8.0, 4.0, 4.0, 21.0, 40.0, 9.0, 21.0, 41.0, 9.0, 16.0, 21.0, 9.0, 9.0, 14.0, 7.0, 37.0, 27.0, 5.0, 35.0, 21.0, 15.0, 36.0, 5.0, 34.0, 67.0, 14.0, 28.0, 14.0, 18.0, 10.0, 17.0, 36.0, 21.0, 7.0, 12.0, 61.0, 14.0, 7.0, 23.0, 19.0, 25.0, 18.0, 6.0, 6.0, 3.0, 17.0, 11.0, 47.0, 16.0, 0.0, 6.0, 17.0, 77.0, 29.0, 15.0, 11.0, 8.0, 7.0, 7.0, 48.0, 14.0, 34.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 5.0, 21.0, 29.0, 38.0, 26.0, 22.0, 12.0, 12.0, 14.0, 46.0, 10.0, 8.0, 11.0, 27.0, 25.0, 23.0, 18.0, 9.0, 80.0, 16.0, 13.0, 10.0, 23.0, 5.0, 28.0, 15.0, 7.0, 18.0, 48.0, 18.0, 17.0, 25.0, 15.0, 12.0, 12.0, 17.0, 13.0, 50.0, 4.0, 22.0, 12.0, 55.0, 37.0, 89.0, 89.0, 16.0, 14.0, 15.0, 10.0, 23.0, 20.0, 1.0, 10.0, 23.0, 23.0, 22.0, 17.0, 79.0, 18.0, 21.0, 19.0, 9.0, 45.0, 19.0, 14.0, 12.0, 12.0, 9.0, 8.0, 5.0, 20.0, 18.0, 2.0, 14.0, 13.0, 26.0, 11.0, 9.0, 27.0, 42.0, 22.0, 8.0, 21.0, 16.0, 8.0, 13.0, 18.0, 9.0, 5.0, 34.0, 66.0, 25.0, 15.0, 8.0, 10.0, 21.0, 29.0, 22.0, 9.0, 17.0, 16.0, 13.0, 23.0, 19.0, 11.0, 17.0, 15.0, 23.0, 7.0, 15.0, 22.0, 14.0, 9.0, 12.0, 9.0, 29.0, 40.0, 24.0, 33.0, 12.0, 20.0, 25.0, 7.0, 17.0, 18.0, 18.0, 30.0, 70.0, 33.0, 35.0, 15.0, 51.0, 44.0, 15.0, 28.0, 14.0, 17.0, 16.0, 40.0, 47.0, 9.0, 41.0, 13.0, 38.0, 44.0, 19.0, 30.0, 17.0, 53.0, 63.0, 12.0, 18.0, 9.0, 1.0, 15.0, 5.0, 15.0, 9.0, 27.0, 20.0, 46.0, 13.0, 14.0, 7.0, 64.0, 23.0, 22.0, 6.0, 7.0, 59.0, 7.0, 37.0, 0.0, 17.0, 9.0, 51.0, 11.0, 26.0, 76.0, 16.0, 6.0, 0.0, 2.0, 84.0, 12.0, 39.0, 15.0, 29.0, 51.0, 4.0, 11.0, 4.0, 16.0, 22.0, 23.0, 29.0, 37.0, 31.0, 8.0, 19.0, 14.0, 23.0, 58.0, 31.0, 11.0, 33.0, 14.0, 17.0, 32.0, 8.0, 8.0, 17.0, 30.0, 11.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 31.0, 38.0, 51.0, 3.0, 26.0, 23.0, 9.0, 32.0, 39.0, 10.0, 10.0, 15.0, 72.0, 19.0, 58.0, 21.0, 41.0, 40.0, 24.0, 52.0, 8.0, 2.0, 2.0, 20.0, 37.0, 29.0, 11.0, 9.0, 46.0, 17.0, 45.0, 51.0, 30.0, 13.0, 7.0, 53.0, 32.0, 5.0, 34.0, 3.0, 14.0, 62.0, 8.0, 15.0, 16.0, 20.0, 16.0, 1.0, 16.0, 7.0, 6.0, 45.0, 1.0, 15.0, 10.0, 4.0, 20.0, 1.0, 12.0, 11.0, 35.0, 36.0, 0.0, 53.0, 8.0, 4.0, 11.0, 28.0, 10.0, 29.0, 21.0, 7.0, 14.0, 13.0, 54.0, 53.0, 32.0, 48.0, 16.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 35.0, 18.0, 46.0, 21.0, 9.0, 9.0, 25.0, 62.0, 53.0, 5.0, 9.0, 12.0, 35.0, 19.0, 9.0, 14.0, 4.0, 49.0, 40.0, 13.0, 11.0, 13.0, 69.0, 5.0, 5.0, 29.0, 3.0, 16.0, 8.0, 1.0, 23.0, 13.0, 49.0, 8.0, 23.0, 25.0, 3.0, 15.0, 25.0, 35.0, 16.0, 80.0, 16.0, 8.0, 36.0, 7.0, 9.0, 43.0, 33.0, 4.0, 37.0, 3.0, 5.0, 29.0, 26.0, 2.0, 25.0, 43.0, 16.0, 31.0, 13.0, 8.0, 74.0, 9.0, 25.0, 13.0, 55.0, 6.0, 8.0, 1.0, 2.0, 41.0, 11.0, 17.0, 4.0, 3.0, 15.0, 32.0, 84.0, 12.0, 7.0, 12.0, 6.0, 12.0, 6.0, 66.0, 16.0, 4.0, 63.0, 1.0, 20.0, 29.0, 35.0, 3.0, 10.0, 27.0, 58.0, 3.0, 14.0, 20.0, 14.0, 5.0, 12.0, 3.0, 9.0, 11.0, 22.0, 39.0, 49.0, 56.0, 28.0, 26.0, 12.0, 11.0, 9.0, 29.0, 7.0, 81.0, 69.0, 8.0, 17.0, 17.0, 25.0, 43.0, 16.0, 28.0, 23.0, 15.0, 11.0, 5.0, 26.0, 38.0, 70.0, 35.0, 28.0, 12.0, 18.0, 11.0, 9.0, 15.0, 41.0, 14.0, 29.0, 16.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 86.0, 83.0, 7.0, 6.0, 6.0, 29.0, 7.0, 10.0, 10.0, 78.0, 29.0, 8.0, 1.0, 17.0, 16.0, 23.0, 8.0, 17.0, 44.0, 38.0, 6.0, 7.0, 22.0, 9.0, 21.0, 4.0, 17.0, 9.0, 28.0, 28.0, 13.0, 39.0, 36.0, 12.0, 4.0, 28.0, 29.0, 8.0, 5.0, 29.0, 42.0, 53.0, 25.0, 31.0, 19.0, 11.0, 11.0, 9.0, 35.0, 19.0, 5.0, 25.0, 23.0, 5.0, 6.0, 60.0, 5.0, 8.0, 3.0, 13.0, 6.0, 14.0, 23.0, 1.0, 5.0, 16.0, 60.0, 34.0, 13.0, 25.0, 81.0, 16.0, 21.0, 2.0, 5.0, 14.0, 9.0, 6.0, 11.0, 4.0, 70.0, 7.0, 41.0, 6.0, 28.0, 33.0, 27.0, 37.0, 22.0, 50.0, 30.0, 9.0, 6.0, 12.0, 49.0, 30.0, 4.0, 9.0, 33.0, 7.0, 15.0, 7.0, 9.0, 34.0, 41.0, 86.0, 8.0, 7.0, 50.0, 44.0, 14.0, 4.0, 7.0, 8.0, 19.0, 8.0, 10.0, 20.0, 4.0, 11.0, 11.0, 59.0, 2.0, 5.0, 27.0, 33.0, 12.0, 7.0, 14.0, 7.0, 5.0, 26.0, 45.0, 39.0, 53.0, 61.0, 81.0, 11.0, 7.0, 11.0, 16.0, 6.0, 5.0, 6.0, 3.0, 14.0, 7.0, 4.0, 18.0, 11.0, 2.0, 20.0, 7.0, 14.0, 25.0, 11.0, 12.0, 9.0, 14.0, 2.0, 3.0, 1.0, 14.0, 18.0, 13.0, 21.0, 7.0, 34.0, 13.0, 2.0, 24.0, 17.0, 32.0, 22.0, 8.0, 19.0, 11.0, 11.0, 6.0, 5.0, 46.0, 4.0, 27.0, 19.0, 20.0, 19.0, 14.0, 4.0, 14.0, 11.0, 8.0, 21.0, 47.0, 5.0, 24.0, 7.0, 25.0, 15.0, 15.0, 7.0, 8.0, 3.0, 11.0, 8.0, 23.0, 18.0, 24.0, 47.0, 2.0, 10.0, 9.0, 15.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 20.0, 16.0, 9.0, 21.0, 10.0, 3.0, 46.0, 29.0, 7.0, 44.0, 37.0, 17.0, 13.0, 20.0, 4.0, 14.0, 4.0, 27.0, 7.0, 15.0, 5.0, 12.0, 36.0, 17.0, 36.0, 28.0, 7.0, 7.0, 22.0, 20.0, 57.0, 15.0, 28.0, 16.0, 19.0, 19.0, 15.0, 11.0, 9.0, 20.0, 7.0, 25.0, 40.0, 12.0, 9.0, 20.0, 31.0, 40.0, 8.0, 29.0, 7.0, 10.0, 19.0, 1.0, 61.0, 17.0, 13.0, 20.0, 36.0, 21.0, 33.0, 7.0, 4.0, 52.0, 25.0, 33.0, 10.0, 3.0, 17.0, 23.0, 40.0, 10.0, 32.0, 44.0, 43.0, 43.0, 26.0, 13.0, 19.0, 8.0, 13.0, 9.0, 3.0, 11.0, 16.0, 16.0, 59.0, 3.0, 17.0, 16.0, 3.0, 49.0, 43.0, 34.0, 4.0, 6.0, 30.0, 26.0, 7.0, 16.0, 28.0, 42.0, 31.0, 33.0, 4.0, 22.0, 21.0, 79.0, 8.0, 29.0, 11.0, 10.0, 47.0, 32.0, 32.0, 16.0, 25.0, 3.0, 13.0, 20.0, 60.0, 6.0, 14.0, 25.0, 7.0, 61.0, 21.0, 15.0, 1.0, 14.0, 15.0, 8.0, 54.0, 20.0, 6.0, 72.0, 14.0, 2.0, 7.0, 9.0, 15.0, 10.0, 5.0, 6.0, 9.0, 24.0, 10.0, 34.0, 10.0, 11.0, 31.0, 25.0, 28.0, 1.0, 24.0, 37.0, 21.0, 30.0, 2.0, 10.0, 17.0, 11.0, 5.0, 20.0, 24.0, 9.0, 26.0, 25.0, 33.0, 27.0, 1.0, 72.0, 5.0, 13.0, 20.0, 9.0, 17.0, 3.0, 23.0, 17.0, 48.0, 11.0, 6.0, 15.0, 37.0, 21.0, 24.0, 76.0, 15.0, 70.0, 27.0, 39.0, 21.0, 24.0, 61.0, 4.0, 45.0, 9.0, 13.0, 20.0, 17.0, 68.0, 18.0, 6.0, 21.0, 40.0, 73.0, 11.0, 44.0, 13.0, 21.0, 18.0, 73.0, 9.0, 10.0, 42.0, 13.0, 54.0, 31.0, 36.0, 16.0, 17.0, 2.0, 44.0, 6.0, 18.0, 18.0, 11.0, 9.0, 22.0, 65.0, 61.0, 41.0, 5.0, 72.0, 31.0, 8.0, 10.0, 3.0, 30.0, 12.0, 0.0, 4.0, 21.0, 86.0, 2.0, 16.0, 38.0, 25.0, 15.0, 3.0, 25.0, 21.0, 4.0, 21.0, 10.0, 19.0, 7.0, 7.0, 35.0, 12.0, 16.0, 49.0, 27.0, 42.0, 42.0, 9.0, 36.0, 29.0, 9.0, 3.0, 12.0, 22.0, 8.0, 22.0, 12.0, 19.0, 18.0, 35.0, 15.0, 15.0, 6.0, 14.0, 22.0, 49.0, 12.0, 14.0, 20.0, 37.0, 10.0, 18.0, 84.0, 12.0, 16.0, 21.0, 6.0, 77.0, 22.0, 48.0, 49.0, 11.0, 29.0, 12.0, 10.0, 45.0, 27.0, 10.0, 13.0, 19.0, 18.0, 46.0, 46.0, 6.0, 16.0, 32.0, 30.0, 50.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 4.0, 12.0, 3.0, 15.0, 8.0, 17.0, 13.0, 20.0, 18.0, 23.0, 3.0, 33.0, 21.0, 31.0, 17.0, 13.0, 23.0, 13.0, 15.0, 15.0, 21.0, 19.0, 27.0, 16.0, 13.0, 12.0, 5.0, 24.0, 28.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 30.0, 40.0, 3.0, 45.0, 34.0, 17.0, 24.0, 19.0, 24.0, 28.0, 17.0, 2.0, 33.0, 25.0, 19.0, 26.0, 33.0, 7.0, 33.0, 20.0, 19.0, 24.0, 49.0, 8.0, 12.0, 20.0, 5.0, 5.0, 7.0, 39.0, 37.0, 35.0, 21.0, 34.0, 18.0, 70.0, 70.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 18.0, 18.0, 20.0, 48.0, 7.0, 10.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 19.0, 88.0, 11.0, 7.0, 24.0, 1.0, 10.0, 27.0, 13.0, 38.0, 21.0, 2.0, 15.0, 23.0, 3.0, 14.0, 14.0, 20.0, 28.0, 72.0, 12.0, 10.0, 24.0, 19.0, 17.0, 37.0, 9.0, 15.0, 25.0, 10.0, 53.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 24.0, 2.0, 2.0, 9.0, 73.0, 9.0, 15.0, 10.0, 18.0, 5.0, 24.0, 54.0, 54.0, 5.0, 28.0, 17.0, 12.0, 13.0, 61.0, 23.0, 14.0, 36.0, 14.0, 11.0, 10.0, 14.0, 14.0, 31.0, 3.0, 14.0, 17.0, 14.0, 42.0, 42.0, 7.0, 52.0, 23.0, 77.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 4.0, 26.0, 3.0, 11.0, 33.0, 33.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 77.0, 8.0, 10.0, 34.0, 8.0, 10.0, 14.0, 9.0, 5.0, 10.0, 18.0, 31.0, 35.0, 9.0, 28.0, 9.0, 24.0, 87.0, 23.0, 18.0, 6.0, 30.0, 9.0, 35.0, 31.0, 4.0, 21.0, 18.0, 12.0, 18.0, 20.0, 4.0, 11.0, 26.0, 4.0, 7.0, 10.0, 20.0, 12.0, 36.0, 5.0, 20.0, 10.0, 22.0, 9.0, 46.0, 52.0, 11.0, 8.0, 8.0, 23.0, 47.0, 27.0, 20.0, 53.0, 20.0, 26.0, 19.0, 13.0, 15.0, 31.0, 21.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 7.0, 1.0, 70.0, 8.0, 11.0, 15.0, 13.0, 18.0, 13.0, 24.0, 9.0, 75.0, 27.0, 27.0, 12.0, 21.0, 7.0, 9.0, 15.0, 33.0, 30.0, 8.0, 13.0, 21.0, 18.0, 28.0, 34.0, 51.0, 23.0, 23.0, 21.0, 8.0, 29.0, 64.0, 12.0, 12.0, 14.0, 17.0, 22.0, 15.0, 31.0, 18.0, 46.0, 24.0, 10.0, 61.0, 7.0, 52.0, 28.0, 31.0, 31.0, 16.0, 20.0, 53.0, 5.0, 8.0, 5.0, 22.0, 15.0, 9.0, 14.0, 21.0, 8.0, 13.0, 22.0, 83.0, 17.0, 45.0, 21.0, 39.0, 85.0, 19.0, 17.0, 43.0, 27.0, 16.0, 10.0, 74.0, 14.0, 53.0, 37.0, 17.0, 6.0, 16.0, 42.0, 59.0, 1.0, 4.0, 18.0, 6.0, 11.0, 16.0, 18.0, 24.0, 10.0, 8.0, 18.0, 12.0, 8.0, 60.0, 18.0, 31.0, 4.0, 28.0, 43.0, 5.0, 16.0, 42.0, 42.0, 32.0, 16.0, 65.0, 19.0, 26.0, 25.0, 5.0, 12.0, 23.0, 28.0, 17.0, 40.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 29.0, 44.0, 16.0, 9.0, 36.0, 22.0, 8.0, 6.0, 13.0, 13.0, 10.0, 6.0, 76.0, 80.0, 18.0, 24.0, 18.0, 37.0, 21.0, 29.0, 14.0, 37.0, 32.0, 36.0, 60.0, 26.0, 11.0, 36.0, 4.0, 33.0, 9.0, 5.0, 24.0, 20.0, 20.0, 1.0, 5.0, 27.0, 11.0, 29.0, 36.0, 22.0, 21.0, 69.0, 75.0, 11.0, 16.0, 27.0, 8.0, 55.0, 12.0, 51.0, 29.0, 3.0, 26.0, 9.0, 5.0, 14.0, 15.0, 44.0, 34.0, 16.0, 53.0, 30.0, 54.0, 1.0, 7.0, 2.0, 15.0, 12.0, 31.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 19.0, 39.0, 68.0, 20.0, 22.0, 7.0, 26.0, 5.0, 27.0, 12.0, 19.0, 18.0, 12.0, 28.0, 10.0, 7.0, 25.0, 11.0, 73.0, 11.0, 25.0, 5.0, 17.0, 15.0, 11.0, 8.0, 45.0, 12.0, 18.0, 5.0, 0.0, 20.0, 34.0, 4.0, 4.0, 26.0, 32.0, 1.0, 18.0, 41.0, 3.0, 11.0, 10.0, 3.0, 19.0, 15.0, 4.0, 45.0, 25.0, 23.0, 16.0, 53.0, 17.0, 5.0, 1.0, 16.0, 15.0, 44.0, 46.0, 24.0, 75.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 62.0, 3.0, 17.0, 17.0, 41.0, 11.0, 25.0, 18.0, 6.0, 7.0, 37.0, 14.0, 70.0, 8.0, 34.0, 26.0, 6.0, 14.0, 33.0, 5.0, 7.0, 3.0, 11.0, 39.0, 18.0, 3.0, 15.0, 0.0, 20.0, 48.0, 19.0, 13.0, 18.0, 15.0, 10.0, 19.0, 14.0, 3.0, 16.0, 45.0, 10.0, 11.0, 70.0, 36.0, 41.0, 55.0, 4.0, 35.0, 9.0, 29.0, 29.0, 35.0, 18.0, 50.0, 9.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 9.0, 44.0, 22.0, 3.0, 9.0, 72.0, 8.0, 2.0, 72.0, 18.0, 11.0, 3.0, 36.0, 7.0, 14.0, 18.0, 30.0, 6.0, 40.0, 26.0, 35.0, 22.0, 31.0, 44.0, 26.0, 4.0, 14.0, 15.0, 23.0, 38.0, 23.0, 30.0, 58.0, 21.0, 20.0, 17.0, 26.0, 12.0, 45.0, 10.0, 6.0, 20.0, 6.0, 5.0, 11.0, 32.0, 18.0, 21.0, 31.0, 47.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 62.0, 3.0, 34.0, 17.0, 22.0, 18.0, 12.0, 4.0, 10.0, 35.0, 9.0, 21.0, 20.0, 43.0, 55.0, 6.0, 46.0, 25.0, 20.0, 9.0, 24.0, 7.0, 26.0, 6.0, 18.0, 10.0, 9.0, 40.0, 14.0, 20.0, 17.0, 17.0, 56.0, 34.0, 56.0, 18.0, 55.0, 34.0, 29.0, 50.0, 14.0, 27.0, 40.0, 31.0, 20.0, 16.0, 12.0, 78.0, 53.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 25.0, 6.0, 12.0, 4.0, 31.0, 5.0, 71.0, 46.0, 36.0, 4.0, 11.0, 15.0, 18.0, 5.0, 7.0, 87.0, 24.0, 5.0, 22.0, 28.0, 23.0, 5.0, 53.0, 15.0, 19.0, 33.0, 14.0, 16.0, 14.0, 26.0, 82.0, 13.0, 11.0, 61.0, 6.0, 20.0, 9.0, 13.0, 8.0, 9.0, 23.0, 4.0, 19.0, 11.0, 14.0, 28.0, 13.0, 74.0, 13.0, 15.0, 21.0, 16.0, 38.0, 76.0, 69.0, 27.0, 3.0, 16.0, 34.0, 21.0, 26.0, 4.0, 11.0, 77.0, 15.0, 22.0, 8.0, 48.0, 19.0, 11.0, 4.0, 15.0, 33.0, 56.0, 4.0, 9.0, 12.0, 7.0, 85.0, 10.0, 62.0, 11.0, 34.0, 13.0, 0.0, 36.0, 33.0, 15.0, 40.0, 13.0, 36.0, 36.0, 8.0, 6.0, 4.0, 6.0, 15.0, 12.0, 72.0, 65.0, 32.0, 81.0, 7.0, 51.0, 19.0, 58.0, 15.0, 6.0, 6.0, 66.0, 52.0, 23.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 24.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 55.0, 29.0, 41.0, 24.0, 17.0, 35.0, 35.0, 29.0, 59.0, 22.0, 61.0, 36.0, 50.0, 10.0, 7.0, 74.0, 36.0, 44.0, 65.0, 6.0, 7.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 15.0, 7.0, 25.0, 25.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 5.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 16.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 28.0, 25.0, 15.0, 26.0, 6.0, 29.0, 16.0, 20.0, 12.0, 41.0, 7.0, 6.0, 1.0, 10.0, 16.0, 11.0, 11.0, 14.0, 30.0, 16.0, 18.0, 4.0, 12.0, 9.0, 10.0, 16.0, 12.0, 10.0, 31.0, 3.0, 35.0, 2.0, 11.0, 9.0, 2.0, 2.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 31.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 32.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 14.0, 17.0, 10.0, 17.0, 42.0, 19.0, 12.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 8.0, 27.0, 14.0, 87.0, 15.0, 23.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 4.0, 6.0, 28.0, 7.0, 25.0, 48.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 55.0, 19.0, 12.0, 37.0, 5.0, 10.0, 13.0, 7.0, 87.0, 8.0, 22.0, 11.0, 19.0, 18.0, 28.0, 9.0, 20.0, 22.0, 46.0, 41.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 20.0, 21.0, 3.0, 35.0, 29.0, 10.0, 17.0, 6.0, 10.0, 30.0, 8.0, 19.0, 13.0, 1.0, 5.0, 14.0, 11.0, 18.0, 2.0, 12.0, 45.0, 7.0, 18.0, 3.0, 24.0, 12.0, 15.0, 21.0, 10.0, 4.0, 14.0, 10.0, 29.0, 45.0, 3.0, 27.0, 28.0, 2.0, 5.0, 24.0, 19.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 15.0, 10.0, 10.0, 44.0, 14.0, 21.0, 51.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 15.0, 16.0, 28.0, 17.0, 23.0, 82.0, 19.0, 48.0, 15.0, 31.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 63.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 67.0, 49.0, 7.0, 25.0, 10.0, 5.0, 9.0, 33.0, 24.0, 4.0, 7.0, 38.0, 4.0, 4.0, 1.0, 15.0, 6.0, 9.0, 1.0, 9.0, 1.0, 12.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 5.0, 14.0, 6.0, 7.0, 5.0, 19.0, 18.0, 28.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 38.0, 5.0, 4.0, 5.0, 18.0, 29.0, 48.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 11.0, 28.0, 12.0, 13.0, 12.0, 16.0, 12.0, 5.0, 4.0, 7.0, 30.0, 47.0, 52.0, 14.0, 14.0, 10.0, 34.0, 24.0, 13.0, 25.0, 9.0, 15.0, 25.0, 25.0, 11.0, 16.0, 13.0, 18.0, 30.0, 9.0, 33.0, 20.0, 10.0, 34.0, 15.0, 19.0, 27.0, 12.0, 69.0, 12.0, 15.0, 56.0, 15.0, 14.0, 22.0, 37.0, 13.0, 18.0, 17.0, 19.0, 19.0, 14.0, 17.0, 8.0, 36.0, 31.0, 18.0, 25.0, 4.0, 33.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 19.0, 21.0, 36.0, 25.0, 1.0, 39.0, 39.0, 71.0, 6.0, 18.0, 28.0, 14.0, 53.0, 2.0, 22.0, 9.0, 15.0, 29.0, 34.0, 11.0, 13.0, 15.0, 3.0, 4.0, 13.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 28.0, 11.0, 65.0, 8.0, 13.0, 23.0, 22.0, 73.0, 3.0, 21.0, 3.0, 3.0, 29.0, 19.0, 22.0, 18.0, 17.0, 50.0, 8.0, 14.0, 34.0, 15.0, 6.0, 9.0, 2.0, 8.0, 5.0, 54.0, 12.0, 37.0, 7.0, 39.0, 1.0, 22.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 20.0, 17.0, 2.0, 42.0, 5.0, 21.0, 14.0, 5.0, 5.0, 1.0, 44.0, 6.0, 2.0, 5.0, 8.0, 8.0, 29.0, 31.0, 4.0, 13.0, 7.0, 17.0, 2.0, 14.0, 24.0, 15.0, 24.0, 17.0, 22.0, 11.0, 5.0, 20.0, 62.0, 15.0, 19.0, 28.0, 11.0, 11.0, 10.0, 3.0, 10.0, 5.0, 31.0, 31.0, 13.0, 7.0, 16.0, 33.0, 14.0, 15.0, 26.0, 6.0, 39.0, 4.0, 38.0, 16.0, 6.0, 16.0, 19.0, 7.0, 12.0, 6.0, 54.0, 10.0, 2.0, 25.0, 6.0, 4.0, 10.0, 19.0, 23.0, 20.0, 1.0, 7.0, 66.0, 23.0, 38.0, 9.0, 4.0, 78.0, 10.0, 48.0, 20.0, 0.0, 65.0, 7.0, 52.0, 1.0, 18.0, 25.0, 16.0, 6.0, 2.0, 58.0, 3.0, 16.0, 32.0, 12.0, 20.0, 26.0, 4.0, 3.0, 25.0, 3.0, 49.0, 18.0, 40.0, 8.0, 14.0, 19.0, 11.0, 61.0, 12.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 29.0, 39.0, 0.0, 6.0, 6.0, 21.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 28.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 40.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 20.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 57.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 47.0, 31.0]</t>
+          <t>[0.0, 5.0, 1.0, 10.0, 20.0, 67.0, 7.0, 5.0, 0.0, 20.0, 5.0, 103.0, 12.0, 2.0, 1.0, 9.0, 9.0, 12.0, 15.0, 5.0, 48.0, 3.0, 2.0, 12.0, 16.0, 11.0, 13.0, 1.0, 5.0, 2.0, 6.0, 3.0, 6.0, 22.0, 12.0, 11.0, 10.0, 8.0, 2.0, 10.0, 14.0, 4.0, 0.0, 10.0, 15.0, 15.0, 3.0, 5.0, 3.0, 11.0, 29.0, 18.0, 8.0, 2.0, 59.0, 18.0, 7.0, 8.0, 9.0, 17.0, 5.0, 30.0, 3.0, 25.0, 28.0, 12.0, 3.0, 35.0, 1.0, 16.0, 16.0, 20.0, 1.0, 5.0, 6.0, 14.0, 32.0, 23.0, 111.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 45.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0, 8.0, 12.0, 9.0, 7.0, 10.0, 1.0, 9.0, 8.0, 14.0, 11.0, 11.0, 37.0, 15.0, 3.0, 8.0, 19.0, 2.0, 23.0, 4.0, 14.0, 14.0, 8.0, 11.0, 15.0, 19.0, 11.0, 37.0, 40.0, 60.0, 14.0, 7.0, 13.0, 3.0, 9.0, 41.0, 35.0, 25.0, 4.0, 5.0, 12.0, 6.0, 6.0, 3.0, 13.0, 20.0, 17.0, 2.0, 4.0, 13.0, 15.0, 21.0, 2.0, 33.0, 12.0, 12.0, 14.0, 32.0, 15.0, 9.0, 1.0, 10.0, 10.0, 7.0, 19.0, 14.0, 3.0, 7.0, 31.0, 1.0, 1.0, 12.0, 25.0, 11.0, 80.0, 9.0, 31.0, 1.0, 10.0, 15.0, 14.0, 27.0, 15.0, 30.0, 64.0, 13.0, 1.0, 12.0, 5.0, 25.0, 6.0, 7.0, 8.0, 10.0, 7.0, 11.0, 17.0, 11.0, 26.0, 7.0, 5.0, 11.0, 12.0, 1.0, 7.0, 8.0, 3.0, 55.0, 12.0, 50.0, 26.0, 1.0, 11.0, 30.0, 50.0, 18.0, 10.0, 7.0, 3.0, 8.0, 7.0, 24.0, 16.0, 8.0, 14.0, 10.0, 5.0, 10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 4.0, 7.0, 5.0, 6.0, 1.0, 4.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 33.0, 16.0, 8.0, 8.0, 9.0, 8.0, 1.0, 15.0, 10.0, 10.0, 12.0, 6.0, 1.0, 7.0, 8.0, 60.0, 15.0, 79.0, 16.0, 1.0, 21.0, 3.0, 8.0, 30.0, 12.0, 4.0, 55.0, 6.0, 22.0, 12.0, 28.0, 15.0, 17.0, 12.0, 14.0, 33.0, 11.0, 11.0, 14.0, 4.0, 57.0, 14.0, 11.0, 13.0, 8.0, 12.0, 18.0, 7.0, 7.0, 20.0, 26.0, 25.0, 53.0, 11.0, 43.0, 6.0, 3.0, 78.0, 3.0, 50.0, 32.0, 21.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 16.0, 9.0, 32.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 9.0, 6.0, 8.0, 55.0, 14.0, 13.0, 16.0, 12.0, 5.0, 20.0, 21.0, 22.0, 9.0, 20.0, 14.0, 8.0, 10.0, 16.0, 46.0, 8.0, 23.0, 23.0, 22.0, 10.0, 10.0, 18.0, 6.0, 11.0, 9.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 80.0, 10.0, 14.0, 5.0, 15.0, 16.0, 21.0, 4.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 2.0, 8.0, 22.0, 11.0, 49.0, 5.0, 12.0, 14.0, 9.0, 20.0, 50.0, 4.0, 5.0, 8.0, 65.0, 10.0, 30.0, 17.0, 47.0, 12.0, 168.0, 13.0, 12.0, 6.0, 53.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 6.0, 4.0, 6.0, 73.0, 14.0, 29.0, 3.0, 21.0, 14.0, 4.0, 34.0, 18.0, 7.0, 13.0, 19.0, 9.0, 7.0, 51.0, 2.0, 1.0, 36.0, 17.0, 14.0, 24.0, 27.0, 62.0, 27.0, 44.0, 83.0, 2.0, 2.0, 104.0, 14.0, 13.0, 7.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 5.0, 32.0, 4.0, 23.0, 10.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 112.0, 19.0, 18.0, 43.0, 1.0, 5.0, 12.0, 19.0, 12.0, 4.0, 6.0, 20.0, 23.0, 12.0, 3.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 6.0, 8.0, 7.0, 54.0, 25.0, 7.0, 12.0, 11.0, 12.0, 37.0, 16.0, 23.0, 5.0, 4.0, 46.0, 17.0, 12.0, 111.0, 23.0, 19.0, 5.0, 9.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 4.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 4.0, 93.0, 7.0, 13.0, 14.0, 15.0, 19.0, 14.0, 17.0, 6.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 27.0, 9.0, 12.0, 12.0, 9.0, 14.0, 2.0, 9.0, 11.0, 23.0, 16.0, 25.0, 45.0, 32.0, 2.0, 2.0, 17.0, 8.0, 5.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 21.0, 10.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 2.0, 11.0, 45.0, 15.0, 14.0, 16.0, 8.0, 53.0, 31.0, 31.0, 8.0, 17.0, 18.0, 12.0, 10.0, 15.0, 2.0, 31.0, 7.0, 11.0, 10.0, 11.0, 26.0, 14.0, 17.0, 11.0, 4.0, 12.0, 21.0, 14.0, 30.0, 25.0, 52.0, 7.0, 13.0, 9.0, 9.0, 9.0, 5.0, 13.0, 5.0, 49.0, 11.0, 39.0, 2.0, 16.0, 1.0, 7.0, 18.0, 4.0, 72.0, 62.0, 11.0, 24.0, 13.0, 29.0, 22.0, 1.0, 46.0, 13.0, 71.0, 4.0, 13.0, 33.0, 14.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 7.0, 1.0, 10.0, 71.0, 21.0, 13.0, 2.0, 55.0, 3.0, 13.0, 9.0, 27.0, 30.0, 13.0, 2.0, 10.0, 54.0, 3.0, 21.0, 17.0, 21.0, 7.0, 11.0, 39.0, 4.0, 29.0, 13.0, 48.0, 5.0, 5.0, 19.0, 5.0, 2.0, 12.0, 28.0, 10.0, 72.0, 48.0, 48.0, 15.0, 17.0, 12.0, 63.0, 8.0, 18.0, 54.0, 0.0, 10.0, 28.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 85.0, 31.0, 31.0, 6.0, 16.0, 17.0, 39.0, 96.0, 34.0, 11.0, 32.0, 11.0, 17.0, 18.0, 10.0, 7.0, 12.0, 23.0, 18.0, 13.0, 9.0, 41.0, 18.0, 10.0, 4.0, 32.0, 11.0, 47.0, 48.0, 9.0, 16.0, 33.0, 99.0, 76.0, 13.0, 21.0, 8.0, 10.0, 44.0, 6.0, 15.0, 23.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 27.0, 13.0, 90.0, 14.0, 26.0, 10.0, 15.0, 25.0, 26.0, 3.0, 14.0, 14.0, 24.0, 35.0, 28.0, 4.0, 8.0, 12.0, 11.0, 3.0, 30.0, 2.0, 50.0, 18.0, 25.0, 43.0, 17.0, 7.0, 3.0, 1.0, 14.0, 47.0, 40.0, 34.0, 12.0, 8.0, 45.0, 28.0, 10.0, 79.0, 31.0, 4.0, 12.0, 6.0, 9.0, 17.0, 29.0, 10.0, 108.0, 6.0, 31.0, 4.0, 7.0, 43.0, 15.0, 53.0, 14.0, 9.0, 10.0, 10.0, 15.0, 46.0, 18.0, 21.0, 54.0, 24.0, 12.0, 7.0, 17.0, 17.0, 9.0, 29.0, 18.0, 16.0, 39.0, 2.0, 27.0, 36.0, 9.0, 11.0, 11.0, 24.0, 12.0, 31.0, 20.0, 12.0, 14.0, 23.0, 14.0, 11.0, 15.0, 90.0, 8.0, 13.0, 19.0, 18.0, 3.0, 16.0, 14.0, 9.0, 14.0, 10.0, 16.0, 17.0, 32.0, 17.0, 30.0, 15.0, 11.0, 27.0, 11.0, 15.0, 16.0, 47.0, 10.0, 10.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 17.0, 15.0, 9.0, 15.0, 9.0, 16.0, 34.0, 0.0, 17.0, 14.0, 3.0, 4.0, 9.0, 21.0, 45.0, 4.0, 9.0, 0.0, 28.0, 26.0, 91.0, 20.0, 7.0, 36.0, 15.0, 120.0, 19.0, 16.0, 29.0, 34.0, 68.0, 19.0, 38.0, 12.0, 8.0, 31.0, 20.0, 11.0, 19.0, 14.0, 11.0, 24.0, 10.0, 18.0, 11.0, 10.0, 19.0, 10.0, 11.0, 10.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 1.0, 56.0, 47.0, 34.0, 56.0, 9.0, 13.0, 3.0, 29.0, 22.0, 34.0, 46.0, 7.0, 31.0, 16.0, 52.0, 12.0, 10.0, 65.0, 176.0, 49.0, 55.0, 11.0, 7.0, 8.0, 66.0, 16.0, 7.0, 67.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 8.0, 5.0, 26.0, 7.0, 12.0, 27.0, 9.0, 8.0, 43.0, 31.0, 6.0, 45.0, 7.0, 21.0, 15.0, 21.0, 24.0, 46.0, 70.0, 65.0, 16.0, 7.0, 107.0, 16.0, 38.0, 5.0, 2.0, 4.0, 9.0, 45.0, 3.0, 68.0, 11.0, 4.0, 11.0, 42.0, 19.0, 47.0, 4.0, 27.0, 39.0, 6.0, 4.0, 6.0, 109.0, 41.0, 10.0, 23.0, 24.0, 20.0, 30.0, 30.0, 50.0, 14.0, 7.0, 11.0, 6.0, 41.0, 26.0, 68.0, 16.0, 46.0, 9.0, 35.0, 24.0, 10.0, 18.0, 26.0, 8.0, 22.0, 29.0, 28.0, 9.0, 20.0, 13.0, 23.0, 155.0, 12.0, 80.0, 13.0, 27.0, 62.0, 19.0, 65.0, 9.0, 18.0, 15.0, 14.0, 24.0, 110.0, 74.0, 29.0, 7.0, 19.0, 2.0, 58.0, 13.0, 48.0, 0.0, 18.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 12.0, 33.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 20.0, 21.0, 12.0, 4.0, 87.0, 32.0, 14.0, 16.0, 18.0, 24.0, 16.0, 26.0, 64.0, 26.0, 18.0, 26.0, 37.0, 3.0, 14.0, 21.0, 33.0, 13.0, 50.0, 2.0, 3.0, 20.0, 7.0, 30.0, 26.0, 27.0, 105.0, 6.0, 9.0, 15.0, 10.0, 22.0, 28.0, 8.0, 5.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 134.0, 25.0, 13.0, 45.0, 8.0, 2.0, 23.0, 2.0, 13.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 30.0, 4.0, 6.0, 23.0, 42.0, 13.0, 14.0, 13.0, 39.0, 17.0, 3.0, 7.0, 6.0, 76.0, 6.0, 18.0, 6.0, 6.0, 6.0, 10.0, 18.0, 38.0, 5.0, 21.0, 16.0, 14.0, 8.0, 5.0, 14.0, 11.0, 0.0, 18.0, 13.0, 7.0, 11.0, 7.0, 4.0, 6.0, 20.0, 9.0, 2.0, 9.0, 30.0, 5.0, 18.0, 37.0, 3.0, 9.0, 18.0, 16.0, 27.0, 4.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 6.0, 9.0, 16.0, 14.0, 6.0, 44.0, 1.0, 31.0, 36.0, 42.0, 10.0, 11.0, 18.0, 7.0, 11.0, 67.0, 36.0, 20.0, 19.0, 6.0, 10.0, 13.0, 29.0, 21.0, 21.0, 54.0, 37.0, 23.0, 6.0, 15.0, 45.0, 17.0, 5.0, 26.0, 39.0, 19.0, 24.0, 24.0, 24.0, 10.0, 17.0, 38.0, 17.0, 28.0, 15.0, 48.0, 19.0, 4.0, 14.0, 14.0, 21.0, 34.0, 2.0, 19.0, 28.0, 79.0, 10.0, 65.0, 5.0, 8.0, 81.0, 15.0, 136.0, 25.0, 18.0, 18.0, 52.0, 30.0, 34.0, 12.0, 17.0, 20.0, 22.0, 20.0, 45.0, 53.0, 67.0, 12.0, 9.0, 26.0, 17.0, 8.0, 11.0, 28.0, 22.0, 13.0, 14.0, 37.0, 31.0, 48.0, 23.0, 81.0, 102.0, 6.0, 10.0, 12.0, 12.0, 2.0, 14.0, 8.0, 3.0, 24.0, 14.0, 4.0, 18.0, 4.0, 9.0, 10.0, 10.0, 5.0, 14.0, 17.0, 29.0, 9.0, 15.0, 11.0, 24.0, 35.0, 7.0, 17.0, 16.0, 12.0, 6.0, 14.0, 42.0, 17.0, 5.0, 15.0, 24.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 20.0, 11.0, 15.0, 17.0, 10.0, 7.0, 7.0, 13.0, 12.0, 15.0, 26.0, 40.0, 13.0, 27.0, 13.0, 25.0, 11.0, 33.0, 10.0, 25.0, 5.0, 8.0, 49.0, 17.0, 1.0, 12.0, 20.0, 18.0, 16.0, 29.0, 22.0, 66.0, 13.0, 11.0, 19.0, 21.0, 12.0, 1.0, 24.0, 15.0, 9.0, 28.0, 18.0, 20.0, 18.0, 23.0, 18.0, 11.0, 9.0, 25.0, 21.0, 14.0, 18.0, 64.0, 2.0, 18.0, 8.0, 20.0, 26.0, 35.0, 18.0, 49.0, 54.0, 13.0, 76.0, 39.0, 21.0, 16.0, 41.0, 52.0, 20.0, 34.0, 31.0, 12.0, 23.0, 57.0, 15.0, 5.0, 21.0, 3.0, 92.0, 25.0, 14.0, 40.0, 22.0, 13.0, 66.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 6.0, 20.0, 16.0, 21.0, 49.0, 30.0, 42.0, 34.0, 43.0, 34.0, 28.0, 27.0, 61.0, 45.0, 3.0, 13.0, 21.0, 14.0, 6.0, 14.0, 101.0, 11.0, 42.0, 10.0, 30.0, 87.0, 28.0, 10.0, 4.0, 7.0, 22.0, 5.0, 14.0, 36.0, 24.0, 40.0, 24.0, 16.0, 15.0, 19.0, 12.0, 13.0, 19.0, 5.0, 34.0, 16.0, 6.0, 16.0, 2.0, 10.0, 9.0, 7.0, 1.0, 11.0, 52.0, 18.0, 14.0, 7.0, 15.0, 14.0, 13.0, 0.0, 25.0, 18.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 32.0, 12.0, 23.0, 22.0, 16.0, 27.0, 13.0, 20.0, 21.0, 12.0, 18.0, 22.0, 9.0, 12.0, 12.0, 24.0, 14.0, 25.0, 87.0, 6.0, 50.0, 20.0, 11.0, 10.0, 14.0, 28.0, 14.0, 30.0, 17.0, 24.0, 8.0, 44.0, 21.0, 38.0, 59.0, 12.0, 15.0, 10.0, 15.0, 31.0, 59.0, 5.0, 32.0, 18.0, 5.0, 7.0, 16.0, 9.0, 0.0, 11.0, 3.0, 18.0, 13.0, 19.0, 21.0, 9.0, 23.0, 4.0, 22.0, 15.0, 18.0, 16.0, 10.0, 21.0, 12.0, 22.0, 13.0, 15.0, 19.0, 20.0, 50.0, 33.0, 7.0, 21.0, 29.0, 52.0, 10.0, 28.0, 23.0, 15.0, 32.0, 15.0, 21.0, 16.0, 38.0, 118.0, 65.0, 20.0, 10.0, 10.0, 17.0, 16.0, 41.0, 15.0, 6.0, 20.0, 12.0, 8.0, 14.0, 24.0, 12.0, 17.0, 30.0, 2.0, 9.0, 21.0, 15.0, 19.0, 85.0, 11.0, 16.0, 49.0, 42.0, 19.0, 7.0, 16.0, 9.0, 26.0, 23.0, 12.0, 15.0, 23.0, 6.0, 11.0, 44.0, 16.0, 51.0, 31.0, 13.0, 13.0, 4.0, 19.0, 11.0, 19.0, 2.0, 31.0, 21.0, 13.0, 23.0, 31.0, 10.0, 24.0, 20.0, 45.0, 17.0, 6.0, 19.0, 5.0, 5.0, 5.0, 48.0, 49.0, 9.0, 20.0, 35.0, 18.0, 43.0, 30.0, 5.0, 84.0, 25.0, 14.0, 14.0, 11.0, 90.0, 93.0, 26.0, 51.0, 7.0, 8.0, 56.0, 2.0, 14.0, 30.0, 8.0, 21.0, 33.0, 5.0, 15.0, 9.0, 102.0, 47.0, 7.0, 99.0, 42.0, 15.0, 7.0, 9.0, 16.0, 12.0, 18.0, 21.0, 13.0, 33.0, 75.0, 23.0, 59.0, 9.0, 23.0, 20.0, 22.0, 8.0, 33.0, 15.0, 28.0, 2.0, 34.0, 21.0, 1.0, 24.0, 30.0, 5.0, 51.0, 22.0, 21.0, 76.0, 80.0, 6.0, 8.0, 11.0, 22.0, 13.0, 23.0, 10.0, 12.0, 14.0, 1.0, 1.0, 18.0, 10.0, 20.0, 30.0, 33.0, 6.0, 44.0, 1.0, 17.0, 5.0, 11.0, 7.0, 4.0, 19.0, 46.0, 23.0, 2.0, 12.0, 11.0, 18.0, 32.0, 6.0, 10.0, 32.0, 12.0, 8.0, 65.0, 21.0, 12.0, 3.0, 4.0, 13.0, 19.0, 33.0, 10.0, 27.0, 8.0, 4.0, 4.0, 21.0, 40.0, 9.0, 21.0, 41.0, 9.0, 16.0, 21.0, 9.0, 9.0, 14.0, 7.0, 37.0, 27.0, 5.0, 35.0, 21.0, 15.0, 36.0, 5.0, 34.0, 67.0, 14.0, 28.0, 14.0, 18.0, 10.0, 17.0, 36.0, 21.0, 7.0, 12.0, 61.0, 14.0, 7.0, 23.0, 19.0, 25.0, 18.0, 6.0, 6.0, 3.0, 17.0, 11.0, 47.0, 16.0, 0.0, 6.0, 17.0, 77.0, 29.0, 15.0, 11.0, 8.0, 7.0, 7.0, 48.0, 14.0, 34.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 5.0, 21.0, 29.0, 38.0, 26.0, 22.0, 12.0, 12.0, 14.0, 46.0, 10.0, 8.0, 11.0, 27.0, 25.0, 23.0, 18.0, 9.0, 80.0, 16.0, 13.0, 10.0, 23.0, 5.0, 28.0, 15.0, 7.0, 18.0, 48.0, 18.0, 17.0, 25.0, 15.0, 12.0, 12.0, 17.0, 13.0, 50.0, 4.0, 22.0, 12.0, 55.0, 37.0, 89.0, 89.0, 16.0, 14.0, 15.0, 10.0, 23.0, 20.0, 1.0, 10.0, 23.0, 23.0, 22.0, 17.0, 79.0, 18.0, 21.0, 19.0, 9.0, 45.0, 19.0, 14.0, 91.0, 12.0, 12.0, 9.0, 8.0, 5.0, 20.0, 18.0, 2.0, 14.0, 13.0, 26.0, 11.0, 9.0, 27.0, 42.0, 22.0, 8.0, 21.0, 16.0, 8.0, 13.0, 18.0, 9.0, 5.0, 34.0, 66.0, 25.0, 15.0, 8.0, 10.0, 21.0, 29.0, 22.0, 9.0, 17.0, 16.0, 13.0, 23.0, 19.0, 11.0, 17.0, 15.0, 23.0, 7.0, 15.0, 22.0, 14.0, 9.0, 12.0, 9.0, 29.0, 122.0, 40.0, 24.0, 33.0, 12.0, 20.0, 25.0, 93.0, 7.0, 17.0, 18.0, 126.0, 18.0, 107.0, 30.0, 121.0, 70.0, 33.0, 35.0, 15.0, 51.0, 44.0, 15.0, 28.0, 14.0, 17.0, 16.0, 40.0, 47.0, 9.0, 41.0, 13.0, 38.0, 44.0, 19.0, 30.0, 17.0, 53.0, 63.0, 117.0, 12.0, 18.0, 9.0, 1.0, 15.0, 5.0, 15.0, 9.0, 27.0, 20.0, 46.0, 13.0, 14.0, 7.0, 64.0, 23.0, 22.0, 6.0, 106.0, 7.0, 59.0, 7.0, 37.0, 0.0, 17.0, 9.0, 51.0, 11.0, 26.0, 76.0, 16.0, 6.0, 0.0, 2.0, 84.0, 12.0, 39.0, 15.0, 29.0, 51.0, 4.0, 11.0, 4.0, 16.0, 22.0, 23.0, 29.0, 37.0, 31.0, 8.0, 19.0, 14.0, 93.0, 23.0, 58.0, 31.0, 11.0, 33.0, 14.0, 17.0, 32.0, 8.0, 8.0, 17.0, 30.0, 11.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 31.0, 38.0, 90.0, 51.0, 3.0, 26.0, 23.0, 9.0, 32.0, 39.0, 10.0, 98.0, 10.0, 15.0, 72.0, 19.0, 58.0, 21.0, 170.0, 41.0, 40.0, 24.0, 52.0, 8.0, 2.0, 2.0, 20.0, 37.0, 29.0, 11.0, 9.0, 46.0, 17.0, 45.0, 51.0, 30.0, 13.0, 7.0, 53.0, 32.0, 5.0, 34.0, 3.0, 14.0, 62.0, 8.0, 15.0, 16.0, 20.0, 16.0, 1.0, 16.0, 7.0, 6.0, 45.0, 1.0, 15.0, 10.0, 4.0, 20.0, 1.0, 112.0, 12.0, 11.0, 35.0, 36.0, 0.0, 53.0, 8.0, 4.0, 11.0, 28.0, 10.0, 29.0, 21.0, 7.0, 14.0, 13.0, 54.0, 53.0, 32.0, 48.0, 16.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 35.0, 18.0, 112.0, 46.0, 21.0, 9.0, 9.0, 25.0, 62.0, 53.0, 92.0, 5.0, 9.0, 123.0, 12.0, 35.0, 19.0, 9.0, 14.0, 4.0, 49.0, 40.0, 13.0, 11.0, 13.0, 69.0, 5.0, 5.0, 29.0, 3.0, 16.0, 8.0, 1.0, 23.0, 13.0, 49.0, 8.0, 23.0, 25.0, 3.0, 15.0, 25.0, 93.0, 35.0, 16.0, 80.0, 16.0, 105.0, 8.0, 36.0, 7.0, 9.0, 94.0, 43.0, 33.0, 4.0, 37.0, 3.0, 5.0, 29.0, 26.0, 2.0, 25.0, 43.0, 16.0, 31.0, 13.0, 8.0, 74.0, 9.0, 25.0, 13.0, 55.0, 6.0, 8.0, 1.0, 2.0, 41.0, 11.0, 17.0, 4.0, 3.0, 15.0, 32.0, 84.0, 12.0, 7.0, 12.0, 6.0, 12.0, 6.0, 66.0, 154.0, 16.0, 4.0, 63.0, 1.0, 20.0, 29.0, 35.0, 3.0, 10.0, 27.0, 58.0, 3.0, 14.0, 20.0, 14.0, 5.0, 12.0, 3.0, 9.0, 11.0, 22.0, 39.0, 49.0, 56.0, 28.0, 26.0, 12.0, 11.0, 9.0, 29.0, 7.0, 81.0, 69.0, 8.0, 17.0, 17.0, 25.0, 43.0, 16.0, 28.0, 23.0, 15.0, 119.0, 11.0, 5.0, 26.0, 38.0, 70.0, 35.0, 28.0, 12.0, 18.0, 11.0, 9.0, 15.0, 41.0, 14.0, 29.0, 16.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 86.0, 83.0, 7.0, 6.0, 6.0, 29.0, 7.0, 10.0, 10.0, 78.0, 104.0, 29.0, 8.0, 1.0, 17.0, 16.0, 23.0, 8.0, 17.0, 44.0, 38.0, 6.0, 7.0, 22.0, 9.0, 21.0, 4.0, 17.0, 9.0, 28.0, 28.0, 13.0, 39.0, 36.0, 12.0, 4.0, 28.0, 29.0, 8.0, 5.0, 29.0, 42.0, 53.0, 25.0, 31.0, 19.0, 11.0, 11.0, 9.0, 35.0, 19.0, 5.0, 25.0, 23.0, 5.0, 6.0, 60.0, 5.0, 8.0, 3.0, 13.0, 6.0, 14.0, 23.0, 1.0, 5.0, 16.0, 60.0, 34.0, 13.0, 25.0, 81.0, 16.0, 21.0, 2.0, 5.0, 14.0, 9.0, 6.0, 11.0, 4.0, 70.0, 7.0, 41.0, 6.0, 28.0, 33.0, 27.0, 37.0, 22.0, 50.0, 30.0, 9.0, 6.0, 12.0, 49.0, 30.0, 4.0, 9.0, 33.0, 7.0, 15.0, 7.0, 9.0, 34.0, 41.0, 86.0, 8.0, 7.0, 50.0, 44.0, 14.0, 4.0, 7.0, 8.0, 19.0, 8.0, 10.0, 20.0, 4.0, 11.0, 11.0, 59.0, 2.0, 5.0, 27.0, 33.0, 105.0, 12.0, 7.0, 158.0, 14.0, 7.0, 5.0, 26.0, 45.0, 39.0, 53.0, 61.0, 81.0, 134.0, 102.0, 144.0, 11.0, 7.0, 11.0, 16.0, 6.0, 5.0, 6.0, 3.0, 14.0, 7.0, 4.0, 18.0, 11.0, 2.0, 20.0, 7.0, 14.0, 25.0, 11.0, 12.0, 9.0, 14.0, 2.0, 3.0, 1.0, 14.0, 18.0, 13.0, 21.0, 7.0, 34.0, 13.0, 2.0, 24.0, 17.0, 32.0, 22.0, 8.0, 19.0, 11.0, 11.0, 6.0, 5.0, 46.0, 4.0, 27.0, 19.0, 20.0, 19.0, 14.0, 4.0, 14.0, 11.0, 8.0, 21.0, 47.0, 5.0, 24.0, 7.0, 25.0, 15.0, 15.0, 7.0, 8.0, 3.0, 11.0, 8.0, 23.0, 18.0, 24.0, 47.0, 2.0, 10.0, 9.0, 15.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 20.0, 16.0, 9.0, 21.0, 10.0, 3.0, 46.0, 29.0, 7.0, 44.0, 37.0, 17.0, 13.0, 20.0, 4.0, 14.0, 4.0, 27.0, 7.0, 15.0, 5.0, 12.0, 36.0, 17.0, 36.0, 28.0, 7.0, 7.0, 22.0, 20.0, 57.0, 15.0, 28.0, 16.0, 19.0, 19.0, 15.0, 11.0, 9.0, 20.0, 7.0, 25.0, 40.0, 12.0, 9.0, 20.0, 31.0, 40.0, 8.0, 29.0, 7.0, 10.0, 19.0, 1.0, 61.0, 17.0, 13.0, 20.0, 36.0, 21.0, 33.0, 7.0, 4.0, 52.0, 25.0, 33.0, 10.0, 3.0, 17.0, 23.0, 40.0, 10.0, 32.0, 44.0, 43.0, 43.0, 26.0, 13.0, 19.0, 8.0, 13.0, 9.0, 3.0, 11.0, 16.0, 16.0, 59.0, 3.0, 17.0, 16.0, 3.0, 49.0, 43.0, 34.0, 4.0, 6.0, 30.0, 26.0, 7.0, 16.0, 28.0, 42.0, 31.0, 33.0, 4.0, 22.0, 21.0, 79.0, 8.0, 29.0, 11.0, 10.0, 47.0, 32.0, 32.0, 16.0, 25.0, 3.0, 13.0, 20.0, 60.0, 6.0, 14.0, 25.0, 7.0, 61.0, 21.0, 15.0, 1.0, 14.0, 15.0, 8.0, 54.0, 20.0, 102.0, 6.0, 72.0, 14.0, 2.0, 7.0, 9.0, 15.0, 10.0, 5.0, 6.0, 9.0, 24.0, 10.0, 34.0, 10.0, 11.0, 31.0, 25.0, 28.0, 1.0, 24.0, 37.0, 21.0, 30.0, 2.0, 10.0, 17.0, 11.0, 5.0, 20.0, 24.0, 9.0, 26.0, 25.0, 33.0, 27.0, 1.0, 72.0, 5.0, 13.0, 20.0, 9.0, 17.0, 3.0, 23.0, 17.0, 48.0, 11.0, 6.0, 15.0, 37.0, 21.0, 24.0, 76.0, 15.0, 70.0, 27.0, 39.0, 21.0, 24.0, 61.0, 4.0, 45.0, 9.0, 13.0, 20.0, 17.0, 68.0, 18.0, 6.0, 21.0, 40.0, 73.0, 11.0, 44.0, 13.0, 21.0, 18.0, 73.0, 9.0, 10.0, 42.0, 13.0, 54.0, 97.0, 91.0, 31.0, 36.0, 16.0, 17.0, 2.0, 44.0, 6.0, 18.0, 18.0, 11.0, 9.0, 22.0, 65.0, 61.0, 41.0, 5.0, 72.0, 31.0, 8.0, 10.0, 3.0, 30.0, 12.0, 0.0, 4.0, 21.0, 86.0, 2.0, 16.0, 38.0, 25.0, 15.0, 3.0, 25.0, 21.0, 4.0, 21.0, 10.0, 19.0, 7.0, 7.0, 35.0, 12.0, 16.0, 49.0, 27.0, 42.0, 42.0, 9.0, 36.0, 29.0, 9.0, 3.0, 12.0, 22.0, 8.0, 22.0, 12.0, 19.0, 18.0, 35.0, 15.0, 15.0, 6.0, 14.0, 22.0, 49.0, 12.0, 14.0, 20.0, 37.0, 10.0, 18.0, 84.0, 12.0, 16.0, 21.0, 6.0, 77.0, 22.0, 48.0, 49.0, 11.0, 29.0, 12.0, 10.0, 45.0, 27.0, 10.0, 13.0, 19.0, 18.0, 46.0, 46.0, 6.0, 16.0, 32.0, 30.0, 50.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 95.0, 5.0, 4.0, 12.0, 3.0, 15.0, 8.0, 17.0, 13.0, 20.0, 18.0, 23.0, 3.0, 33.0, 21.0, 31.0, 17.0, 13.0, 23.0, 13.0, 15.0, 15.0, 21.0, 19.0, 27.0, 16.0, 13.0, 12.0, 5.0, 24.0, 28.0, 2.0, 2.0, 22.0, 22.0, 23.0, 96.0, 19.0, 23.0, 30.0, 40.0, 3.0, 97.0, 45.0, 34.0, 17.0, 24.0, 19.0, 24.0, 28.0, 17.0, 2.0, 33.0, 25.0, 19.0, 26.0, 33.0, 7.0, 33.0, 20.0, 19.0, 24.0, 49.0, 8.0, 12.0, 20.0, 5.0, 5.0, 7.0, 39.0, 37.0, 35.0, 21.0, 34.0, 18.0, 70.0, 70.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 18.0, 18.0, 20.0, 111.0, 48.0, 7.0, 10.0, 40.0, 11.0, 7.0, 106.0, 13.0, 26.0, 12.0, 3.0, 97.0, 9.0, 29.0, 19.0, 88.0, 11.0, 7.0, 24.0, 1.0, 10.0, 27.0, 13.0, 38.0, 21.0, 2.0, 91.0, 15.0, 23.0, 3.0, 14.0, 14.0, 20.0, 28.0, 72.0, 12.0, 10.0, 24.0, 19.0, 17.0, 37.0, 9.0, 15.0, 25.0, 10.0, 53.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 24.0, 2.0, 2.0, 9.0, 73.0, 9.0, 15.0, 10.0, 18.0, 5.0, 24.0, 54.0, 54.0, 5.0, 28.0, 17.0, 12.0, 13.0, 61.0, 23.0, 14.0, 36.0, 14.0, 11.0, 10.0, 14.0, 14.0, 31.0, 3.0, 14.0, 17.0, 14.0, 42.0, 42.0, 7.0, 52.0, 23.0, 77.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 4.0, 26.0, 3.0, 11.0, 33.0, 33.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 77.0, 8.0, 10.0, 34.0, 8.0, 10.0, 14.0, 9.0, 5.0, 10.0, 18.0, 31.0, 35.0, 9.0, 28.0, 9.0, 24.0, 87.0, 23.0, 18.0, 6.0, 30.0, 9.0, 35.0, 31.0, 4.0, 21.0, 18.0, 12.0, 18.0, 20.0, 4.0, 11.0, 26.0, 4.0, 7.0, 10.0, 20.0, 12.0, 36.0, 5.0, 20.0, 10.0, 22.0, 9.0, 46.0, 52.0, 11.0, 8.0, 8.0, 23.0, 47.0, 27.0, 20.0, 53.0, 20.0, 26.0, 19.0, 13.0, 15.0, 31.0, 21.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 7.0, 1.0, 70.0, 8.0, 11.0, 15.0, 13.0, 18.0, 13.0, 24.0, 9.0, 75.0, 27.0, 27.0, 12.0, 21.0, 7.0, 9.0, 15.0, 33.0, 30.0, 8.0, 13.0, 21.0, 18.0, 28.0, 34.0, 51.0, 23.0, 23.0, 21.0, 8.0, 29.0, 64.0, 12.0, 12.0, 14.0, 17.0, 22.0, 15.0, 31.0, 18.0, 46.0, 24.0, 10.0, 61.0, 7.0, 52.0, 28.0, 31.0, 31.0, 16.0, 20.0, 53.0, 5.0, 8.0, 5.0, 22.0, 15.0, 9.0, 14.0, 21.0, 8.0, 13.0, 22.0, 83.0, 17.0, 45.0, 21.0, 39.0, 85.0, 19.0, 17.0, 43.0, 27.0, 16.0, 10.0, 74.0, 14.0, 53.0, 37.0, 17.0, 6.0, 16.0, 42.0, 59.0, 1.0, 4.0, 18.0, 6.0, 11.0, 16.0, 18.0, 24.0, 10.0, 8.0, 18.0, 12.0, 8.0, 60.0, 18.0, 31.0, 91.0, 4.0, 28.0, 43.0, 5.0, 16.0, 42.0, 42.0, 32.0, 16.0, 65.0, 19.0, 26.0, 25.0, 5.0, 12.0, 23.0, 28.0, 17.0, 40.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 29.0, 44.0, 16.0, 9.0, 36.0, 22.0, 8.0, 6.0, 13.0, 13.0, 10.0, 6.0, 76.0, 80.0, 18.0, 24.0, 18.0, 37.0, 21.0, 29.0, 14.0, 37.0, 32.0, 36.0, 60.0, 26.0, 11.0, 36.0, 4.0, 33.0, 9.0, 5.0, 24.0, 20.0, 20.0, 1.0, 5.0, 27.0, 11.0, 29.0, 36.0, 22.0, 21.0, 69.0, 75.0, 11.0, 16.0, 27.0, 8.0, 55.0, 12.0, 51.0, 29.0, 119.0, 3.0, 26.0, 9.0, 5.0, 14.0, 15.0, 44.0, 98.0, 34.0, 16.0, 53.0, 30.0, 54.0, 1.0, 7.0, 2.0, 15.0, 12.0, 31.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 19.0, 39.0, 68.0, 20.0, 22.0, 7.0, 26.0, 5.0, 27.0, 12.0, 19.0, 18.0, 12.0, 28.0, 10.0, 7.0, 25.0, 11.0, 73.0, 11.0, 25.0, 5.0, 17.0, 15.0, 11.0, 8.0, 91.0, 45.0, 12.0, 18.0, 5.0, 0.0, 20.0, 34.0, 4.0, 4.0, 26.0, 32.0, 1.0, 18.0, 41.0, 3.0, 11.0, 10.0, 3.0, 19.0, 15.0, 4.0, 45.0, 25.0, 23.0, 16.0, 53.0, 17.0, 5.0, 1.0, 16.0, 15.0, 44.0, 46.0, 24.0, 75.0, 12.0, 22.0, 49.0, 13.0, 124.0, 8.0, 5.0, 62.0, 3.0, 107.0, 17.0, 17.0, 41.0, 11.0, 25.0, 18.0, 6.0, 7.0, 37.0, 14.0, 91.0, 70.0, 8.0, 34.0, 26.0, 6.0, 14.0, 33.0, 5.0, 7.0, 3.0, 11.0, 39.0, 18.0, 3.0, 15.0, 0.0, 20.0, 48.0, 19.0, 13.0, 18.0, 15.0, 10.0, 19.0, 14.0, 3.0, 16.0, 45.0, 10.0, 11.0, 70.0, 36.0, 41.0, 55.0, 4.0, 35.0, 9.0, 29.0, 29.0, 35.0, 18.0, 50.0, 9.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 9.0, 44.0, 22.0, 3.0, 9.0, 72.0, 8.0, 2.0, 116.0, 72.0, 18.0, 11.0, 3.0, 36.0, 7.0, 14.0, 18.0, 30.0, 6.0, 40.0, 26.0, 35.0, 22.0, 31.0, 131.0, 44.0, 26.0, 4.0, 14.0, 96.0, 15.0, 23.0, 38.0, 23.0, 30.0, 58.0, 21.0, 20.0, 17.0, 26.0, 12.0, 45.0, 10.0, 6.0, 20.0, 6.0, 5.0, 11.0, 32.0, 18.0, 21.0, 31.0, 47.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 62.0, 3.0, 34.0, 17.0, 22.0, 18.0, 12.0, 4.0, 10.0, 35.0, 9.0, 21.0, 20.0, 43.0, 55.0, 6.0, 46.0, 25.0, 20.0, 9.0, 24.0, 7.0, 26.0, 6.0, 18.0, 124.0, 10.0, 9.0, 40.0, 14.0, 20.0, 93.0, 90.0, 17.0, 17.0, 56.0, 34.0, 56.0, 18.0, 55.0, 34.0, 29.0, 50.0, 14.0, 27.0, 40.0, 31.0, 20.0, 16.0, 12.0, 78.0, 53.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 25.0, 6.0, 12.0, 4.0, 31.0, 5.0, 71.0, 103.0, 46.0, 36.0, 4.0, 11.0, 15.0, 18.0, 5.0, 7.0, 87.0, 24.0, 5.0, 22.0, 28.0, 23.0, 5.0, 53.0, 15.0, 19.0, 33.0, 14.0, 16.0, 14.0, 26.0, 82.0, 13.0, 11.0, 61.0, 6.0, 20.0, 9.0, 13.0, 8.0, 9.0, 23.0, 4.0, 19.0, 11.0, 14.0, 28.0, 13.0, 74.0, 13.0, 15.0, 21.0, 16.0, 38.0, 76.0, 69.0, 27.0, 3.0, 16.0, 34.0, 21.0, 91.0, 26.0, 4.0, 11.0, 77.0, 15.0, 22.0, 8.0, 48.0, 19.0, 97.0, 11.0, 4.0, 15.0, 33.0, 56.0, 4.0, 9.0, 12.0, 7.0, 85.0, 10.0, 62.0, 11.0, 34.0, 13.0, 0.0, 36.0, 33.0, 15.0, 40.0, 13.0, 36.0, 36.0, 8.0, 6.0, 4.0, 6.0, 101.0, 15.0, 12.0, 72.0, 65.0, 32.0, 81.0, 7.0, 51.0, 19.0, 58.0, 15.0, 6.0, 6.0, 66.0, 52.0, 23.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 24.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 55.0, 29.0, 41.0, 24.0, 17.0, 35.0, 35.0, 29.0, 59.0, 22.0, 61.0, 36.0, 50.0, 10.0, 7.0, 92.0, 74.0, 36.0, 44.0, 65.0, 96.0, 6.0, 7.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 15.0, 7.0, 25.0, 25.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 5.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 16.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 28.0, 25.0, 15.0, 26.0, 6.0, 29.0, 16.0, 20.0, 12.0, 41.0, 7.0, 6.0, 1.0, 10.0, 16.0, 11.0, 11.0, 14.0, 30.0, 16.0, 18.0, 4.0, 12.0, 9.0, 10.0, 16.0, 12.0, 10.0, 31.0, 3.0, 35.0, 2.0, 11.0, 9.0, 2.0, 2.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 31.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 32.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 14.0, 17.0, 10.0, 17.0, 42.0, 19.0, 12.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 8.0, 27.0, 14.0, 87.0, 15.0, 23.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 4.0, 6.0, 28.0, 7.0, 25.0, 48.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 55.0, 19.0, 12.0, 37.0, 5.0, 10.0, 13.0, 7.0, 87.0, 8.0, 22.0, 11.0, 19.0, 18.0, 28.0, 9.0, 20.0, 22.0, 46.0, 41.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 20.0, 21.0, 3.0, 35.0, 29.0, 10.0, 17.0, 6.0, 10.0, 30.0, 8.0, 19.0, 13.0, 1.0, 5.0, 14.0, 11.0, 18.0, 2.0, 12.0, 45.0, 7.0, 18.0, 3.0, 24.0, 12.0, 15.0, 21.0, 10.0, 4.0, 14.0, 10.0, 29.0, 45.0, 3.0, 27.0, 28.0, 2.0, 5.0, 24.0, 19.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 15.0, 10.0, 10.0, 44.0, 14.0, 21.0, 51.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 15.0, 16.0, 28.0, 17.0, 23.0, 82.0, 19.0, 48.0, 15.0, 31.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 63.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 120.0, 51.0, 39.0, 12.0, 67.0, 49.0, 7.0, 25.0, 10.0, 5.0, 9.0, 33.0, 24.0, 4.0, 7.0, 38.0, 4.0, 4.0, 1.0, 15.0, 6.0, 9.0, 1.0, 9.0, 1.0, 12.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 5.0, 14.0, 6.0, 7.0, 5.0, 19.0, 18.0, 28.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 38.0, 5.0, 4.0, 5.0, 18.0, 29.0, 48.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 110.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 101.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 11.0, 28.0, 12.0, 13.0, 12.0, 16.0, 12.0, 5.0, 4.0, 7.0, 30.0, 47.0, 52.0, 14.0, 14.0, 10.0, 34.0, 24.0, 13.0, 25.0, 9.0, 15.0, 25.0, 25.0, 11.0, 16.0, 13.0, 18.0, 30.0, 9.0, 33.0, 20.0, 10.0, 34.0, 15.0, 19.0, 27.0, 12.0, 69.0, 12.0, 15.0, 56.0, 15.0, 14.0, 22.0, 37.0, 13.0, 18.0, 17.0, 19.0, 19.0, 14.0, 17.0, 8.0, 36.0, 31.0, 18.0, 25.0, 4.0, 33.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 104.0, 127.0, 127.0, 116.0, 19.0, 132.0, 21.0, 36.0, 25.0, 1.0, 105.0, 39.0, 39.0, 71.0, 6.0, 18.0, 28.0, 14.0, 99.0, 53.0, 2.0, 22.0, 9.0, 15.0, 29.0, 34.0, 11.0, 13.0, 15.0, 3.0, 4.0, 13.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 28.0, 11.0, 65.0, 8.0, 13.0, 23.0, 22.0, 73.0, 3.0, 21.0, 3.0, 3.0, 29.0, 19.0, 22.0, 18.0, 17.0, 50.0, 8.0, 14.0, 34.0, 15.0, 6.0, 9.0, 2.0, 8.0, 5.0, 54.0, 12.0, 37.0, 7.0, 39.0, 1.0, 22.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 20.0, 17.0, 2.0, 42.0, 5.0, 21.0, 14.0, 5.0, 5.0, 1.0, 44.0, 6.0, 2.0, 5.0, 8.0, 118.0, 8.0, 29.0, 31.0, 4.0, 118.0, 13.0, 7.0, 17.0, 2.0, 14.0, 24.0, 15.0, 24.0, 17.0, 22.0, 11.0, 5.0, 20.0, 62.0, 15.0, 19.0, 28.0, 11.0, 11.0, 10.0, 3.0, 10.0, 5.0, 31.0, 31.0, 13.0, 7.0, 16.0, 33.0, 14.0, 15.0, 26.0, 6.0, 39.0, 4.0, 38.0, 16.0, 6.0, 16.0, 19.0, 7.0, 12.0, 6.0, 54.0, 10.0, 2.0, 25.0, 6.0, 4.0, 10.0, 19.0, 23.0, 20.0, 1.0, 7.0, 66.0, 23.0, 38.0, 9.0, 4.0, 78.0, 10.0, 48.0, 20.0, 0.0, 65.0, 7.0, 52.0, 1.0, 18.0, 25.0, 16.0, 6.0, 2.0, 58.0, 3.0, 16.0, 32.0, 12.0, 20.0, 26.0, 4.0, 3.0, 25.0, 3.0, 49.0, 18.0, 40.0, 8.0, 14.0, 19.0, 113.0, 11.0, 61.0, 12.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 29.0, 39.0, 0.0, 6.0, 6.0, 21.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 28.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 40.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 20.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 57.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 47.0, 31.0]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[5.0, 10.0, 20.0, 67.0, 7.0, 5.0, 20.0, 5.0, 12.0, 2.0, 1.0, 9.0, 9.0, 5.0, 48.0, 2.0, 12.0, 11.0, 13.0, 5.0, 2.0, 6.0, 3.0, 6.0, 22.0, 12.0, 11.0, 10.0, 8.0, 10.0, 14.0, 4.0, 0.0, 15.0, 3.0, 5.0, 3.0, 11.0, 18.0, 8.0, 59.0, 18.0, 8.0, 9.0, 17.0, 5.0, 30.0, 25.0, 28.0, 12.0, 35.0, 1.0, 16.0, 16.0, 20.0, 5.0, 6.0, 14.0, 32.0, 23.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0, 8.0, 12.0, 9.0, 7.0, 10.0, 1.0, 9.0, 14.0, 11.0, 11.0, 37.0, 15.0, 3.0, 8.0, 2.0, 23.0, 4.0, 8.0, 11.0, 15.0, 19.0, 11.0, 37.0, 60.0, 14.0, 13.0, 3.0, 9.0, 25.0, 5.0, 12.0, 6.0, 3.0, 20.0, 2.0, 4.0, 13.0, 21.0, 14.0, 15.0, 9.0, 10.0, 10.0, 7.0, 14.0, 7.0, 31.0, 1.0, 1.0, 12.0, 25.0, 11.0, 80.0, 9.0, 31.0, 10.0, 15.0, 14.0, 27.0, 64.0, 13.0, 12.0, 25.0, 6.0, 7.0, 8.0, 10.0, 11.0, 17.0, 11.0, 26.0, 7.0, 5.0, 11.0, 12.0, 7.0, 3.0, 55.0, 12.0, 50.0, 26.0, 11.0, 30.0, 50.0, 18.0, 10.0, 7.0, 3.0, 8.0, 24.0, 16.0, 8.0, 14.0, 10.0, 5.0, 10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 6.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 16.0, 8.0, 10.0, 10.0, 12.0, 6.0, 7.0, 8.0, 60.0, 15.0, 79.0, 21.0, 30.0, 12.0, 4.0, 22.0, 12.0, 28.0, 15.0, 12.0, 33.0, 11.0, 11.0, 14.0, 57.0, 14.0, 11.0, 8.0, 12.0, 7.0, 7.0, 20.0, 53.0, 11.0, 43.0, 6.0, 78.0, 3.0, 50.0, 32.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 9.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 6.0, 8.0, 55.0, 13.0, 16.0, 12.0, 5.0, 22.0, 8.0, 10.0, 16.0, 46.0, 8.0, 10.0, 10.0, 18.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 10.0, 14.0, 15.0, 21.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 8.0, 11.0, 49.0, 5.0, 12.0, 14.0, 20.0, 50.0, 4.0, 8.0, 65.0, 10.0, 30.0, 17.0, 12.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 4.0, 6.0, 73.0, 29.0, 3.0, 21.0, 7.0, 13.0, 19.0, 9.0, 51.0, 14.0, 27.0, 62.0, 27.0, 44.0, 83.0, 14.0, 13.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 4.0, 23.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 19.0, 18.0, 5.0, 12.0, 19.0, 4.0, 6.0, 23.0, 12.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 25.0, 12.0, 11.0, 37.0, 23.0, 46.0, 17.0, 12.0, 23.0, 19.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 13.0, 14.0, 15.0, 19.0, 14.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 9.0, 12.0, 12.0, 9.0, 14.0, 9.0, 11.0, 23.0, 16.0, 45.0, 32.0, 2.0, 17.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 11.0, 45.0, 15.0, 14.0, 8.0, 31.0, 31.0, 8.0, 18.0, 12.0, 10.0, 15.0, 2.0, 7.0, 10.0, 11.0, 26.0, 11.0, 12.0, 25.0, 7.0, 13.0, 9.0, 9.0, 5.0, 5.0, 2.0, 16.0, 4.0, 62.0, 11.0, 24.0, 13.0, 13.0, 33.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 13.0, 3.0, 13.0, 13.0, 10.0, 21.0, 21.0, 7.0, 11.0, 48.0, 2.0, 28.0, 10.0, 72.0, 15.0, 17.0, 8.0, 18.0, 10.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 31.0, 6.0, 16.0, 39.0, 34.0, 11.0, 18.0, 7.0, 12.0, 18.0, 13.0, 9.0, 18.0, 4.0, 32.0, 11.0, 9.0, 76.0, 21.0, 8.0, 10.0, 44.0, 15.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 13.0, 26.0, 15.0, 26.0, 3.0, 14.0, 14.0, 35.0, 28.0, 4.0, 12.0, 2.0, 17.0, 14.0, 47.0, 40.0, 8.0, 28.0, 10.0, 79.0, 12.0, 9.0, 10.0, 6.0, 31.0, 4.0, 7.0, 53.0, 9.0, 10.0, 10.0, 46.0, 18.0, 21.0, 54.0, 12.0, 7.0, 17.0, 9.0, 29.0, 18.0, 39.0, 2.0, 27.0, 36.0, 11.0, 12.0, 31.0, 12.0, 14.0, 14.0, 11.0, 15.0, 8.0, 13.0, 19.0, 3.0, 16.0, 14.0, 14.0, 10.0, 16.0, 32.0, 30.0, 15.0, 11.0, 27.0, 11.0, 16.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 9.0, 15.0, 9.0, 16.0, 0.0, 17.0, 3.0, 4.0, 9.0, 26.0, 7.0, 15.0, 19.0, 29.0, 12.0, 8.0, 20.0, 11.0, 19.0, 11.0, 24.0, 10.0, 18.0, 11.0, 19.0, 10.0, 11.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 34.0, 56.0, 29.0, 22.0, 46.0, 7.0, 52.0, 12.0, 10.0, 49.0, 55.0, 8.0, 66.0, 7.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 5.0, 26.0, 7.0, 27.0, 9.0, 43.0, 45.0, 7.0, 15.0, 24.0, 46.0, 16.0, 7.0, 16.0, 38.0, 5.0, 45.0, 4.0, 11.0, 42.0, 19.0, 47.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 20.0, 30.0, 30.0, 50.0, 7.0, 11.0, 41.0, 26.0, 16.0, 46.0, 35.0, 24.0, 10.0, 26.0, 22.0, 29.0, 28.0, 9.0, 13.0, 23.0, 80.0, 13.0, 27.0, 62.0, 9.0, 18.0, 15.0, 24.0, 74.0, 29.0, 7.0, 58.0, 48.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 21.0, 12.0, 4.0, 87.0, 16.0, 18.0, 24.0, 16.0, 64.0, 26.0, 18.0, 26.0, 37.0, 33.0, 13.0, 20.0, 7.0, 27.0, 6.0, 9.0, 22.0, 28.0, 8.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 4.0, 14.0, 39.0, 7.0, 76.0, 6.0, 18.0, 18.0, 38.0, 21.0, 16.0, 14.0, 14.0, 11.0, 18.0, 13.0, 11.0, 7.0, 20.0, 9.0, 30.0, 18.0, 16.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 9.0, 44.0, 31.0, 36.0, 10.0, 11.0, 11.0, 67.0, 36.0, 19.0, 13.0, 29.0, 23.0, 15.0, 45.0, 26.0, 39.0, 19.0, 24.0, 10.0, 17.0, 15.0, 48.0, 19.0, 21.0, 28.0, 79.0, 65.0, 15.0, 25.0, 18.0, 52.0, 30.0, 34.0, 20.0, 22.0, 53.0, 67.0, 12.0, 22.0, 13.0, 23.0, 10.0, 12.0, 12.0, 14.0, 4.0, 18.0, 9.0, 10.0, 5.0, 14.0, 29.0, 9.0, 15.0, 24.0, 12.0, 14.0, 42.0, 15.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 11.0, 17.0, 10.0, 7.0, 40.0, 27.0, 25.0, 11.0, 33.0, 5.0, 8.0, 49.0, 17.0, 12.0, 18.0, 16.0, 66.0, 13.0, 12.0, 24.0, 15.0, 9.0, 18.0, 20.0, 18.0, 11.0, 9.0, 25.0, 21.0, 18.0, 64.0, 8.0, 20.0, 13.0, 76.0, 39.0, 21.0, 16.0, 34.0, 23.0, 57.0, 15.0, 40.0, 13.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 20.0, 16.0, 21.0, 49.0, 42.0, 34.0, 45.0, 21.0, 14.0, 6.0, 11.0, 30.0, 28.0, 10.0, 7.0, 24.0, 19.0, 12.0, 19.0, 5.0, 16.0, 6.0, 9.0, 7.0, 11.0, 18.0, 7.0, 15.0, 14.0, 13.0, 25.0, 18.0, 32.0, 12.0, 27.0, 13.0, 21.0, 12.0, 22.0, 9.0, 12.0, 14.0, 87.0, 6.0, 20.0, 11.0, 10.0, 14.0, 8.0, 44.0, 21.0, 59.0, 10.0, 5.0, 7.0, 16.0, 9.0, 11.0, 3.0, 13.0, 19.0, 21.0, 22.0, 18.0, 21.0, 13.0, 15.0, 19.0, 20.0, 50.0, 29.0, 23.0, 32.0, 15.0, 21.0, 16.0, 38.0, 65.0, 10.0, 10.0, 17.0, 20.0, 8.0, 24.0, 9.0, 15.0, 85.0, 11.0, 49.0, 9.0, 12.0, 15.0, 11.0, 44.0, 51.0, 31.0, 19.0, 11.0, 13.0, 10.0, 19.0, 49.0, 9.0, 35.0, 18.0, 84.0, 25.0, 11.0, 8.0, 56.0, 21.0, 47.0, 7.0, 15.0, 7.0, 9.0, 16.0, 21.0, 13.0, 75.0, 59.0, 9.0, 20.0, 8.0, 34.0, 76.0, 80.0, 10.0, 12.0, 18.0, 10.0, 30.0, 44.0, 17.0, 11.0, 7.0, 4.0, 23.0, 18.0, 12.0, 8.0, 65.0, 12.0, 13.0, 19.0, 33.0, 10.0, 27.0, 40.0, 41.0, 9.0, 9.0, 35.0, 21.0, 5.0, 67.0, 14.0, 28.0, 18.0, 36.0, 21.0, 7.0, 61.0, 7.0, 18.0, 6.0, 11.0, 47.0, 0.0, 6.0, 77.0, 29.0, 15.0, 11.0, 7.0, 48.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 21.0, 29.0, 12.0, 12.0, 46.0, 11.0, 9.0, 80.0, 16.0, 13.0, 7.0, 18.0, 48.0, 18.0, 12.0, 50.0, 4.0, 12.0, 14.0, 10.0, 10.0, 23.0, 22.0, 79.0, 9.0, 45.0, 14.0, 12.0, 20.0, 2.0, 13.0, 11.0, 42.0, 22.0, 8.0, 13.0, 66.0, 15.0, 10.0, 29.0, 17.0, 17.0, 15.0, 14.0, 12.0, 9.0, 40.0, 24.0, 12.0, 20.0, 25.0, 18.0, 18.0, 70.0, 33.0, 35.0, 15.0, 14.0, 17.0, 47.0, 9.0, 13.0, 44.0, 19.0, 12.0, 9.0, 15.0, 5.0, 9.0, 27.0, 7.0, 64.0, 23.0, 7.0, 17.0, 9.0, 76.0, 2.0, 12.0, 39.0, 15.0, 51.0, 4.0, 11.0, 4.0, 22.0, 23.0, 29.0, 37.0, 19.0, 14.0, 23.0, 58.0, 31.0, 11.0, 14.0, 17.0, 8.0, 8.0, 30.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 38.0, 51.0, 9.0, 32.0, 39.0, 10.0, 15.0, 72.0, 19.0, 58.0, 24.0, 52.0, 37.0, 29.0, 17.0, 45.0, 51.0, 32.0, 14.0, 62.0, 8.0, 15.0, 16.0, 16.0, 45.0, 4.0, 20.0, 53.0, 8.0, 11.0, 10.0, 29.0, 21.0, 53.0, 32.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 18.0, 46.0, 9.0, 62.0, 53.0, 9.0, 14.0, 40.0, 11.0, 29.0, 16.0, 8.0, 13.0, 49.0, 15.0, 16.0, 80.0, 8.0, 36.0, 9.0, 43.0, 37.0, 29.0, 26.0, 25.0, 43.0, 16.0, 13.0, 8.0, 74.0, 9.0, 13.0, 55.0, 41.0, 11.0, 17.0, 15.0, 84.0, 12.0, 7.0, 12.0, 66.0, 16.0, 63.0, 27.0, 14.0, 11.0, 22.0, 39.0, 49.0, 56.0, 26.0, 12.0, 11.0, 81.0, 69.0, 8.0, 17.0, 25.0, 43.0, 16.0, 23.0, 26.0, 35.0, 28.0, 11.0, 15.0, 41.0, 29.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 83.0, 29.0, 78.0, 29.0, 17.0, 16.0, 17.0, 22.0, 21.0, 28.0, 28.0, 29.0, 29.0, 42.0, 25.0, 31.0, 11.0, 11.0, 19.0, 23.0, 60.0, 6.0, 14.0, 16.0, 13.0, 81.0, 21.0, 9.0, 6.0, 11.0, 70.0, 41.0, 6.0, 28.0, 33.0, 37.0, 50.0, 30.0, 15.0, 7.0, 86.0, 50.0, 7.0, 8.0, 11.0, 59.0, 27.0, 12.0, 7.0, 45.0, 39.0, 11.0, 7.0, 20.0, 7.0, 14.0, 11.0, 12.0, 14.0, 18.0, 13.0, 21.0, 24.0, 22.0, 8.0, 11.0, 5.0, 46.0, 27.0, 20.0, 19.0, 14.0, 4.0, 11.0, 5.0, 15.0, 15.0, 7.0, 8.0, 23.0, 2.0, 10.0, 15.0, 20.0, 21.0, 46.0, 29.0, 37.0, 17.0, 13.0, 20.0, 7.0, 36.0, 28.0, 22.0, 28.0, 16.0, 15.0, 40.0, 20.0, 8.0, 19.0, 61.0, 13.0, 20.0, 36.0, 52.0, 17.0, 40.0, 10.0, 13.0, 11.0, 16.0, 3.0, 34.0, 30.0, 31.0, 21.0, 29.0, 47.0, 32.0, 32.0, 60.0, 14.0, 25.0, 61.0, 1.0, 15.0, 8.0, 54.0, 72.0, 9.0, 15.0, 10.0, 9.0, 24.0, 11.0, 25.0, 28.0, 37.0, 27.0, 17.0, 17.0, 76.0, 21.0, 45.0, 9.0, 20.0, 68.0, 6.0, 44.0, 21.0, 73.0, 31.0, 16.0, 17.0, 44.0, 18.0, 18.0, 22.0, 65.0, 72.0, 31.0, 30.0, 86.0, 16.0, 38.0, 21.0, 7.0, 12.0, 27.0, 29.0, 9.0, 19.0, 18.0, 14.0, 49.0, 12.0, 37.0, 12.0, 16.0, 77.0, 48.0, 49.0, 29.0, 10.0, 10.0, 13.0, 46.0, 46.0, 6.0, 50.0, 8.0, 17.0, 15.0, 19.0, 27.0, 13.0, 12.0, 28.0, 40.0, 34.0, 24.0, 33.0, 25.0, 19.0, 33.0, 19.0, 49.0, 7.0, 35.0, 70.0, 70.0, 18.0, 18.0, 20.0, 48.0, 10.0, 19.0, 13.0, 38.0, 21.0, 14.0, 14.0, 72.0, 10.0, 24.0, 37.0, 15.0, 24.0, 9.0, 73.0, 15.0, 18.0, 24.0, 54.0, 54.0, 61.0, 11.0, 14.0, 14.0, 31.0, 14.0, 42.0, 42.0, 52.0, 77.0, 4.0, 26.0, 11.0, 33.0, 8.0, 10.0, 14.0, 31.0, 9.0, 24.0, 87.0, 6.0, 35.0, 31.0, 18.0, 11.0, 36.0, 10.0, 52.0, 11.0, 23.0, 27.0, 20.0, 26.0, 19.0, 21.0, 7.0, 11.0, 15.0, 9.0, 13.0, 21.0, 28.0, 34.0, 23.0, 21.0, 29.0, 64.0, 12.0, 17.0, 46.0, 61.0, 52.0, 20.0, 8.0, 15.0, 9.0, 14.0, 13.0, 22.0, 83.0, 39.0, 43.0, 10.0, 74.0, 6.0, 59.0, 18.0, 24.0, 18.0, 18.0, 31.0, 28.0, 42.0, 42.0, 16.0, 19.0, 5.0, 12.0, 23.0, 17.0, 40.0, 29.0, 22.0, 10.0, 76.0, 80.0, 18.0, 18.0, 14.0, 37.0, 60.0, 11.0, 5.0, 20.0, 20.0, 27.0, 36.0, 21.0, 69.0, 75.0, 55.0, 51.0, 26.0, 44.0, 16.0, 53.0, 30.0, 54.0, 15.0, 31.0, 19.0, 39.0, 68.0, 22.0, 7.0, 26.0, 12.0, 19.0, 12.0, 28.0, 10.0, 7.0, 73.0, 25.0, 17.0, 45.0, 18.0, 34.0, 26.0, 41.0, 15.0, 45.0, 23.0, 53.0, 16.0, 44.0, 46.0, 24.0, 75.0, 62.0, 3.0, 17.0, 17.0, 41.0, 18.0, 37.0, 14.0, 26.0, 33.0, 18.0, 20.0, 48.0, 19.0, 10.0, 14.0, 16.0, 70.0, 36.0, 41.0, 35.0, 29.0, 29.0, 50.0, 9.0, 9.0, 72.0, 11.0, 30.0, 40.0, 22.0, 44.0, 23.0, 23.0, 30.0, 58.0, 21.0, 45.0, 20.0, 32.0, 18.0, 21.0, 47.0, 62.0, 34.0, 22.0, 12.0, 35.0, 43.0, 55.0, 20.0, 9.0, 17.0, 56.0, 34.0, 18.0, 55.0, 34.0, 29.0, 14.0, 40.0, 78.0, 53.0, 25.0, 6.0, 71.0, 46.0, 36.0, 15.0, 18.0, 22.0, 23.0, 53.0, 15.0, 33.0, 16.0, 26.0, 82.0, 61.0, 20.0, 19.0, 11.0, 13.0, 74.0, 13.0, 38.0, 76.0, 34.0, 11.0, 77.0, 11.0, 15.0, 10.0, 62.0, 13.0, 36.0, 33.0, 15.0, 36.0, 15.0, 72.0, 65.0, 81.0, 51.0, 19.0, 15.0, 66.0, 52.0, 23.0, 24.0, 55.0, 29.0, 17.0, 29.0, 59.0, 50.0, 74.0, 7.0, 15.0, 25.0, 25.0, 5.0, 16.0, 28.0, 6.0, 29.0, 16.0, 20.0, 1.0, 16.0, 11.0, 18.0, 16.0, 2.0, 32.0, 14.0, 12.0, 27.0, 87.0, 15.0, 23.0, 4.0, 28.0, 7.0, 55.0, 37.0, 10.0, 87.0, 20.0, 41.0, 20.0, 17.0, 30.0, 14.0, 11.0, 45.0, 18.0, 10.0, 29.0, 27.0, 19.0, 21.0, 51.0, 15.0, 17.0, 82.0, 19.0, 48.0, 15.0, 31.0, 63.0, 67.0, 10.0, 38.0, 15.0, 9.0, 12.0, 28.0, 38.0, 48.0, 14.0, 11.0, 12.0, 47.0, 34.0, 24.0, 15.0, 25.0, 11.0, 13.0, 10.0, 34.0, 69.0, 15.0, 37.0, 19.0, 31.0, 18.0, 33.0, 19.0, 18.0, 14.0, 53.0, 9.0, 34.0, 11.0, 3.0, 13.0, 8.0, 13.0, 23.0, 22.0, 21.0, 19.0, 50.0, 14.0, 34.0, 15.0, 5.0, 37.0, 39.0, 22.0, 20.0, 21.0, 44.0, 29.0, 31.0, 17.0, 17.0, 20.0, 15.0, 28.0, 11.0, 16.0, 33.0, 15.0, 4.0, 38.0, 16.0, 6.0, 54.0, 25.0, 19.0, 23.0, 7.0, 38.0, 48.0, 65.0, 52.0, 18.0, 16.0, 16.0, 32.0, 26.0, 3.0, 18.0, 40.0, 14.0, 19.0, 12.0, 29.0, 21.0, 28.0, 40.0, 20.0, 57.0, 47.0]</t>
+          <t>[5.0, 10.0, 20.0, 67.0, 7.0, 5.0, 20.0, 5.0, 12.0, 2.0, 1.0, 9.0, 9.0, 5.0, 48.0, 2.0, 12.0, 11.0, 13.0, 5.0, 2.0, 6.0, 3.0, 6.0, 22.0, 12.0, 11.0, 10.0, 8.0, 10.0, 14.0, 4.0, 0.0, 15.0, 3.0, 5.0, 3.0, 11.0, 18.0, 8.0, 59.0, 18.0, 8.0, 9.0, 17.0, 5.0, 30.0, 25.0, 28.0, 12.0, 35.0, 1.0, 16.0, 16.0, 20.0, 5.0, 6.0, 14.0, 32.0, 23.0, 111.0, 11.0, 1.0, 16.0, 25.0, 41.0, 7.0, 15.0, 12.0, 10.0, 7.0, 9.0, 13.0, 19.0, 42.0, 7.0, 20.0, 20.0, 8.0, 12.0, 9.0, 7.0, 10.0, 1.0, 9.0, 14.0, 11.0, 11.0, 37.0, 15.0, 3.0, 8.0, 2.0, 23.0, 4.0, 8.0, 11.0, 15.0, 19.0, 11.0, 37.0, 60.0, 14.0, 13.0, 3.0, 9.0, 25.0, 5.0, 12.0, 6.0, 3.0, 20.0, 2.0, 4.0, 13.0, 21.0, 14.0, 15.0, 9.0, 10.0, 10.0, 7.0, 14.0, 7.0, 31.0, 1.0, 1.0, 12.0, 25.0, 11.0, 80.0, 9.0, 31.0, 10.0, 15.0, 14.0, 27.0, 64.0, 13.0, 12.0, 25.0, 6.0, 7.0, 8.0, 10.0, 11.0, 17.0, 11.0, 26.0, 7.0, 5.0, 11.0, 12.0, 7.0, 3.0, 55.0, 12.0, 50.0, 26.0, 11.0, 30.0, 50.0, 18.0, 10.0, 7.0, 3.0, 8.0, 24.0, 16.0, 8.0, 14.0, 10.0, 5.0, 10.0, 11.0, 18.0, 13.0, 3.0, 15.0, 6.0, 5.0, 12.0, 10.0, 4.0, 18.0, 23.0, 16.0, 8.0, 10.0, 10.0, 12.0, 6.0, 7.0, 8.0, 60.0, 15.0, 79.0, 21.0, 30.0, 12.0, 4.0, 22.0, 12.0, 28.0, 15.0, 12.0, 33.0, 11.0, 11.0, 14.0, 57.0, 14.0, 11.0, 8.0, 12.0, 7.0, 7.0, 20.0, 53.0, 11.0, 43.0, 6.0, 78.0, 3.0, 50.0, 32.0, 17.0, 17.0, 37.0, 11.0, 7.0, 11.0, 9.0, 16.0, 9.0, 4.0, 20.0, 12.0, 13.0, 48.0, 16.0, 21.0, 16.0, 9.0, 6.0, 8.0, 55.0, 13.0, 16.0, 12.0, 5.0, 22.0, 8.0, 10.0, 16.0, 46.0, 8.0, 10.0, 10.0, 18.0, 11.0, 9.0, 30.0, 7.0, 2.0, 8.0, 72.0, 10.0, 14.0, 15.0, 21.0, 7.0, 6.0, 7.0, 9.0, 7.0, 10.0, 8.0, 25.0, 10.0, 61.0, 14.0, 11.0, 17.0, 19.0, 4.0, 48.0, 8.0, 11.0, 49.0, 5.0, 12.0, 14.0, 20.0, 50.0, 4.0, 8.0, 65.0, 10.0, 30.0, 17.0, 168.0, 12.0, 29.0, 12.0, 41.0, 26.0, 11.0, 17.0, 4.0, 6.0, 73.0, 29.0, 3.0, 21.0, 7.0, 13.0, 19.0, 9.0, 51.0, 14.0, 27.0, 62.0, 27.0, 44.0, 83.0, 104.0, 14.0, 13.0, 18.0, 4.0, 6.0, 21.0, 10.0, 29.0, 12.0, 13.0, 37.0, 15.0, 17.0, 18.0, 6.0, 10.0, 4.0, 23.0, 16.0, 9.0, 21.0, 12.0, 25.0, 55.0, 3.0, 48.0, 18.0, 11.0, 112.0, 19.0, 18.0, 5.0, 12.0, 19.0, 4.0, 6.0, 23.0, 12.0, 12.0, 7.0, 16.0, 15.0, 21.0, 16.0, 6.0, 10.0, 15.0, 25.0, 12.0, 11.0, 37.0, 23.0, 46.0, 17.0, 12.0, 111.0, 23.0, 19.0, 28.0, 8.0, 46.0, 58.0, 32.0, 16.0, 8.0, 9.0, 12.0, 13.0, 21.0, 1.0, 45.0, 21.0, 10.0, 20.0, 9.0, 93.0, 13.0, 14.0, 15.0, 19.0, 14.0, 16.0, 10.0, 14.0, 13.0, 18.0, 10.0, 4.0, 27.0, 18.0, 7.0, 13.0, 9.0, 12.0, 12.0, 9.0, 14.0, 9.0, 11.0, 23.0, 16.0, 45.0, 32.0, 2.0, 17.0, 47.0, 10.0, 11.0, 27.0, 12.0, 45.0, 45.0, 33.0, 5.0, 11.0, 10.0, 10.0, 14.0, 11.0, 45.0, 15.0, 14.0, 8.0, 31.0, 31.0, 8.0, 18.0, 12.0, 10.0, 15.0, 2.0, 7.0, 10.0, 11.0, 26.0, 11.0, 12.0, 25.0, 7.0, 13.0, 9.0, 9.0, 5.0, 5.0, 2.0, 16.0, 4.0, 62.0, 11.0, 24.0, 13.0, 13.0, 33.0, 10.0, 57.0, 8.0, 13.0, 8.0, 42.0, 13.0, 3.0, 13.0, 13.0, 10.0, 21.0, 21.0, 7.0, 11.0, 48.0, 2.0, 28.0, 10.0, 72.0, 15.0, 17.0, 8.0, 18.0, 10.0, 28.0, 11.0, 11.0, 15.0, 35.0, 18.0, 31.0, 6.0, 16.0, 39.0, 96.0, 34.0, 11.0, 18.0, 7.0, 12.0, 18.0, 13.0, 9.0, 18.0, 4.0, 32.0, 11.0, 9.0, 99.0, 76.0, 21.0, 8.0, 10.0, 44.0, 15.0, 51.0, 11.0, 12.0, 53.0, 9.0, 15.0, 15.0, 13.0, 90.0, 26.0, 15.0, 26.0, 3.0, 14.0, 14.0, 35.0, 28.0, 4.0, 12.0, 2.0, 17.0, 14.0, 47.0, 40.0, 8.0, 28.0, 10.0, 79.0, 12.0, 9.0, 10.0, 108.0, 6.0, 31.0, 4.0, 7.0, 53.0, 9.0, 10.0, 10.0, 46.0, 18.0, 21.0, 54.0, 12.0, 7.0, 17.0, 9.0, 29.0, 18.0, 39.0, 2.0, 27.0, 36.0, 11.0, 12.0, 31.0, 12.0, 14.0, 14.0, 11.0, 15.0, 90.0, 8.0, 13.0, 19.0, 3.0, 16.0, 14.0, 14.0, 10.0, 16.0, 32.0, 30.0, 15.0, 11.0, 27.0, 11.0, 16.0, 14.0, 14.0, 38.0, 16.0, 10.0, 19.0, 9.0, 15.0, 9.0, 16.0, 0.0, 17.0, 3.0, 4.0, 9.0, 26.0, 91.0, 7.0, 15.0, 120.0, 19.0, 29.0, 12.0, 8.0, 20.0, 11.0, 19.0, 11.0, 24.0, 10.0, 18.0, 11.0, 19.0, 10.0, 11.0, 11.0, 7.0, 18.0, 11.0, 33.0, 15.0, 48.0, 34.0, 56.0, 29.0, 22.0, 46.0, 7.0, 52.0, 12.0, 10.0, 49.0, 55.0, 8.0, 66.0, 7.0, 10.0, 16.0, 15.0, 23.0, 5.0, 49.0, 22.0, 39.0, 21.0, 17.0, 25.0, 12.0, 2.0, 5.0, 26.0, 7.0, 27.0, 9.0, 43.0, 45.0, 7.0, 15.0, 24.0, 46.0, 16.0, 7.0, 107.0, 16.0, 38.0, 5.0, 45.0, 4.0, 11.0, 42.0, 19.0, 47.0, 27.0, 39.0, 6.0, 4.0, 6.0, 41.0, 10.0, 23.0, 20.0, 30.0, 30.0, 50.0, 7.0, 11.0, 41.0, 26.0, 16.0, 46.0, 35.0, 24.0, 10.0, 26.0, 22.0, 29.0, 28.0, 9.0, 13.0, 23.0, 155.0, 80.0, 13.0, 27.0, 62.0, 9.0, 18.0, 15.0, 24.0, 110.0, 74.0, 29.0, 7.0, 58.0, 48.0, 76.0, 27.0, 20.0, 13.0, 11.0, 17.0, 7.0, 49.0, 35.0, 33.0, 14.0, 7.0, 38.0, 21.0, 12.0, 4.0, 87.0, 16.0, 18.0, 24.0, 16.0, 64.0, 26.0, 18.0, 26.0, 37.0, 33.0, 13.0, 20.0, 7.0, 27.0, 105.0, 6.0, 9.0, 22.0, 28.0, 8.0, 64.0, 40.0, 16.0, 61.0, 57.0, 31.0, 6.0, 19.0, 25.0, 13.0, 45.0, 11.0, 6.0, 10.0, 5.0, 13.0, 17.0, 4.0, 14.0, 39.0, 7.0, 76.0, 6.0, 18.0, 18.0, 38.0, 21.0, 16.0, 14.0, 14.0, 11.0, 18.0, 13.0, 11.0, 7.0, 20.0, 9.0, 30.0, 18.0, 16.0, 31.0, 27.0, 44.0, 11.0, 56.0, 20.0, 9.0, 44.0, 31.0, 36.0, 10.0, 11.0, 11.0, 67.0, 36.0, 19.0, 13.0, 29.0, 23.0, 15.0, 45.0, 26.0, 39.0, 19.0, 24.0, 10.0, 17.0, 15.0, 48.0, 19.0, 21.0, 28.0, 79.0, 65.0, 15.0, 136.0, 25.0, 18.0, 52.0, 30.0, 34.0, 20.0, 22.0, 53.0, 67.0, 12.0, 22.0, 13.0, 23.0, 10.0, 12.0, 12.0, 14.0, 4.0, 18.0, 9.0, 10.0, 5.0, 14.0, 29.0, 9.0, 15.0, 24.0, 12.0, 14.0, 42.0, 15.0, 11.0, 15.0, 21.0, 21.0, 4.0, 36.0, 11.0, 17.0, 10.0, 7.0, 40.0, 27.0, 25.0, 11.0, 33.0, 5.0, 8.0, 49.0, 17.0, 12.0, 18.0, 16.0, 66.0, 13.0, 12.0, 24.0, 15.0, 9.0, 18.0, 20.0, 18.0, 11.0, 9.0, 25.0, 21.0, 18.0, 64.0, 8.0, 20.0, 13.0, 76.0, 39.0, 21.0, 16.0, 34.0, 23.0, 57.0, 15.0, 92.0, 40.0, 13.0, 16.0, 22.0, 38.0, 4.0, 13.0, 8.0, 20.0, 16.0, 21.0, 49.0, 42.0, 34.0, 45.0, 21.0, 14.0, 6.0, 101.0, 11.0, 30.0, 28.0, 10.0, 7.0, 24.0, 19.0, 12.0, 19.0, 5.0, 16.0, 6.0, 9.0, 7.0, 11.0, 18.0, 7.0, 15.0, 14.0, 13.0, 25.0, 18.0, 32.0, 12.0, 27.0, 13.0, 21.0, 12.0, 22.0, 9.0, 12.0, 14.0, 87.0, 6.0, 20.0, 11.0, 10.0, 14.0, 8.0, 44.0, 21.0, 59.0, 10.0, 5.0, 7.0, 16.0, 9.0, 11.0, 3.0, 13.0, 19.0, 21.0, 22.0, 18.0, 21.0, 13.0, 15.0, 19.0, 20.0, 50.0, 29.0, 23.0, 32.0, 15.0, 21.0, 16.0, 38.0, 118.0, 65.0, 10.0, 10.0, 17.0, 20.0, 8.0, 24.0, 9.0, 15.0, 85.0, 11.0, 49.0, 9.0, 12.0, 15.0, 11.0, 44.0, 51.0, 31.0, 19.0, 11.0, 13.0, 10.0, 19.0, 49.0, 9.0, 35.0, 18.0, 84.0, 25.0, 11.0, 90.0, 93.0, 8.0, 56.0, 21.0, 47.0, 7.0, 99.0, 15.0, 7.0, 9.0, 16.0, 21.0, 13.0, 75.0, 59.0, 9.0, 20.0, 8.0, 34.0, 76.0, 80.0, 10.0, 12.0, 18.0, 10.0, 30.0, 44.0, 17.0, 11.0, 7.0, 4.0, 23.0, 18.0, 12.0, 8.0, 65.0, 12.0, 13.0, 19.0, 33.0, 10.0, 27.0, 40.0, 41.0, 9.0, 9.0, 35.0, 21.0, 5.0, 67.0, 14.0, 28.0, 18.0, 36.0, 21.0, 7.0, 61.0, 7.0, 18.0, 6.0, 11.0, 47.0, 0.0, 6.0, 77.0, 29.0, 15.0, 11.0, 7.0, 48.0, 23.0, 9.0, 44.0, 14.0, 16.0, 27.0, 58.0, 21.0, 29.0, 12.0, 12.0, 46.0, 11.0, 9.0, 80.0, 16.0, 13.0, 7.0, 18.0, 48.0, 18.0, 12.0, 50.0, 4.0, 12.0, 14.0, 10.0, 10.0, 23.0, 22.0, 79.0, 9.0, 45.0, 14.0, 91.0, 12.0, 20.0, 2.0, 13.0, 11.0, 42.0, 22.0, 8.0, 13.0, 66.0, 15.0, 10.0, 29.0, 17.0, 17.0, 15.0, 14.0, 12.0, 9.0, 122.0, 40.0, 24.0, 12.0, 20.0, 25.0, 18.0, 18.0, 121.0, 70.0, 33.0, 35.0, 15.0, 14.0, 17.0, 47.0, 9.0, 13.0, 44.0, 19.0, 117.0, 12.0, 9.0, 15.0, 5.0, 9.0, 27.0, 7.0, 64.0, 23.0, 7.0, 17.0, 9.0, 76.0, 2.0, 12.0, 39.0, 15.0, 51.0, 4.0, 11.0, 4.0, 22.0, 23.0, 29.0, 37.0, 19.0, 14.0, 93.0, 23.0, 58.0, 31.0, 11.0, 14.0, 17.0, 8.0, 8.0, 30.0, 14.0, 15.0, 13.0, 10.0, 37.0, 17.0, 17.0, 22.0, 14.0, 38.0, 90.0, 51.0, 9.0, 32.0, 39.0, 98.0, 10.0, 15.0, 72.0, 19.0, 58.0, 24.0, 52.0, 37.0, 29.0, 17.0, 45.0, 51.0, 32.0, 14.0, 62.0, 8.0, 15.0, 16.0, 16.0, 45.0, 4.0, 20.0, 112.0, 53.0, 8.0, 11.0, 10.0, 29.0, 21.0, 53.0, 32.0, 74.0, 27.0, 11.0, 34.0, 14.0, 35.0, 18.0, 112.0, 46.0, 9.0, 62.0, 53.0, 92.0, 9.0, 123.0, 14.0, 40.0, 11.0, 29.0, 16.0, 8.0, 13.0, 49.0, 15.0, 93.0, 16.0, 80.0, 105.0, 8.0, 36.0, 9.0, 94.0, 43.0, 37.0, 29.0, 26.0, 25.0, 43.0, 16.0, 13.0, 8.0, 74.0, 9.0, 13.0, 55.0, 41.0, 11.0, 17.0, 15.0, 84.0, 12.0, 7.0, 12.0, 66.0, 154.0, 16.0, 63.0, 27.0, 14.0, 11.0, 22.0, 39.0, 49.0, 56.0, 26.0, 12.0, 11.0, 81.0, 69.0, 8.0, 17.0, 25.0, 43.0, 16.0, 23.0, 119.0, 26.0, 35.0, 28.0, 11.0, 15.0, 41.0, 29.0, 47.0, 40.0, 22.0, 34.0, 20.0, 30.0, 19.0, 7.0, 83.0, 29.0, 78.0, 29.0, 17.0, 16.0, 17.0, 22.0, 21.0, 28.0, 28.0, 29.0, 29.0, 42.0, 25.0, 31.0, 11.0, 11.0, 19.0, 23.0, 60.0, 6.0, 14.0, 16.0, 13.0, 81.0, 21.0, 9.0, 6.0, 11.0, 70.0, 41.0, 6.0, 28.0, 33.0, 37.0, 50.0, 30.0, 15.0, 7.0, 86.0, 50.0, 7.0, 8.0, 11.0, 59.0, 27.0, 105.0, 12.0, 7.0, 45.0, 39.0, 134.0, 102.0, 11.0, 7.0, 20.0, 7.0, 14.0, 11.0, 12.0, 14.0, 18.0, 13.0, 21.0, 24.0, 22.0, 8.0, 11.0, 5.0, 46.0, 27.0, 20.0, 19.0, 14.0, 4.0, 11.0, 5.0, 15.0, 15.0, 7.0, 8.0, 23.0, 2.0, 10.0, 15.0, 20.0, 21.0, 46.0, 29.0, 37.0, 17.0, 13.0, 20.0, 7.0, 36.0, 28.0, 22.0, 28.0, 16.0, 15.0, 40.0, 20.0, 8.0, 19.0, 61.0, 13.0, 20.0, 36.0, 52.0, 17.0, 40.0, 10.0, 13.0, 11.0, 16.0, 3.0, 34.0, 30.0, 31.0, 21.0, 29.0, 47.0, 32.0, 32.0, 60.0, 14.0, 25.0, 61.0, 1.0, 15.0, 8.0, 54.0, 72.0, 9.0, 15.0, 10.0, 9.0, 24.0, 11.0, 25.0, 28.0, 37.0, 27.0, 17.0, 17.0, 76.0, 21.0, 45.0, 9.0, 20.0, 68.0, 6.0, 44.0, 21.0, 73.0, 97.0, 31.0, 16.0, 17.0, 44.0, 18.0, 18.0, 22.0, 65.0, 72.0, 31.0, 30.0, 86.0, 16.0, 38.0, 21.0, 7.0, 12.0, 27.0, 29.0, 9.0, 19.0, 18.0, 14.0, 49.0, 12.0, 37.0, 12.0, 16.0, 77.0, 48.0, 49.0, 29.0, 10.0, 10.0, 13.0, 46.0, 46.0, 6.0, 50.0, 95.0, 8.0, 17.0, 15.0, 19.0, 27.0, 13.0, 12.0, 28.0, 96.0, 40.0, 97.0, 34.0, 24.0, 33.0, 25.0, 19.0, 33.0, 19.0, 49.0, 7.0, 35.0, 70.0, 70.0, 18.0, 18.0, 20.0, 111.0, 48.0, 10.0, 19.0, 13.0, 38.0, 21.0, 91.0, 14.0, 14.0, 72.0, 10.0, 24.0, 37.0, 15.0, 24.0, 9.0, 73.0, 15.0, 18.0, 24.0, 54.0, 54.0, 61.0, 11.0, 14.0, 14.0, 31.0, 14.0, 42.0, 42.0, 52.0, 77.0, 4.0, 26.0, 11.0, 33.0, 8.0, 10.0, 14.0, 31.0, 9.0, 24.0, 87.0, 6.0, 35.0, 31.0, 18.0, 11.0, 36.0, 10.0, 52.0, 11.0, 23.0, 27.0, 20.0, 26.0, 19.0, 21.0, 7.0, 11.0, 15.0, 9.0, 13.0, 21.0, 28.0, 34.0, 23.0, 21.0, 29.0, 64.0, 12.0, 17.0, 46.0, 61.0, 52.0, 20.0, 8.0, 15.0, 9.0, 14.0, 13.0, 22.0, 83.0, 39.0, 43.0, 10.0, 74.0, 6.0, 59.0, 18.0, 24.0, 18.0, 18.0, 31.0, 91.0, 28.0, 42.0, 42.0, 16.0, 19.0, 5.0, 12.0, 23.0, 17.0, 40.0, 29.0, 22.0, 10.0, 76.0, 80.0, 18.0, 18.0, 14.0, 37.0, 60.0, 11.0, 5.0, 20.0, 20.0, 27.0, 36.0, 21.0, 69.0, 75.0, 55.0, 51.0, 119.0, 26.0, 44.0, 98.0, 16.0, 53.0, 30.0, 54.0, 15.0, 31.0, 19.0, 39.0, 68.0, 22.0, 7.0, 26.0, 12.0, 19.0, 12.0, 28.0, 10.0, 7.0, 73.0, 25.0, 17.0, 45.0, 18.0, 34.0, 26.0, 41.0, 15.0, 45.0, 23.0, 53.0, 16.0, 44.0, 46.0, 24.0, 75.0, 124.0, 62.0, 3.0, 107.0, 17.0, 17.0, 41.0, 18.0, 37.0, 14.0, 91.0, 26.0, 33.0, 18.0, 20.0, 48.0, 19.0, 10.0, 14.0, 16.0, 70.0, 36.0, 41.0, 35.0, 29.0, 29.0, 50.0, 9.0, 9.0, 72.0, 116.0, 11.0, 30.0, 40.0, 22.0, 131.0, 44.0, 23.0, 23.0, 30.0, 58.0, 21.0, 45.0, 20.0, 32.0, 18.0, 21.0, 47.0, 62.0, 34.0, 22.0, 12.0, 35.0, 43.0, 55.0, 20.0, 124.0, 9.0, 93.0, 17.0, 56.0, 34.0, 18.0, 55.0, 34.0, 29.0, 14.0, 40.0, 78.0, 53.0, 25.0, 6.0, 71.0, 103.0, 46.0, 36.0, 15.0, 18.0, 22.0, 23.0, 53.0, 15.0, 33.0, 16.0, 26.0, 82.0, 61.0, 20.0, 19.0, 11.0, 13.0, 74.0, 13.0, 38.0, 76.0, 34.0, 91.0, 11.0, 77.0, 97.0, 11.0, 15.0, 10.0, 62.0, 13.0, 36.0, 33.0, 15.0, 36.0, 101.0, 15.0, 72.0, 65.0, 81.0, 51.0, 19.0, 15.0, 66.0, 52.0, 23.0, 24.0, 55.0, 29.0, 17.0, 29.0, 59.0, 50.0, 74.0, 7.0, 15.0, 25.0, 25.0, 5.0, 16.0, 28.0, 6.0, 29.0, 16.0, 20.0, 1.0, 16.0, 11.0, 18.0, 16.0, 2.0, 32.0, 14.0, 12.0, 27.0, 87.0, 15.0, 23.0, 4.0, 28.0, 7.0, 55.0, 37.0, 10.0, 87.0, 20.0, 41.0, 20.0, 17.0, 30.0, 14.0, 11.0, 45.0, 18.0, 10.0, 29.0, 27.0, 19.0, 21.0, 51.0, 15.0, 17.0, 82.0, 19.0, 48.0, 15.0, 31.0, 63.0, 120.0, 67.0, 10.0, 38.0, 15.0, 9.0, 12.0, 28.0, 38.0, 48.0, 14.0, 110.0, 11.0, 12.0, 47.0, 34.0, 24.0, 15.0, 25.0, 11.0, 13.0, 10.0, 34.0, 69.0, 15.0, 37.0, 19.0, 31.0, 18.0, 33.0, 127.0, 127.0, 116.0, 19.0, 132.0, 18.0, 14.0, 99.0, 53.0, 9.0, 34.0, 11.0, 3.0, 13.0, 8.0, 13.0, 23.0, 22.0, 21.0, 19.0, 50.0, 14.0, 34.0, 15.0, 5.0, 37.0, 39.0, 22.0, 20.0, 21.0, 44.0, 29.0, 31.0, 17.0, 17.0, 20.0, 15.0, 28.0, 11.0, 16.0, 33.0, 15.0, 4.0, 38.0, 16.0, 6.0, 54.0, 25.0, 19.0, 23.0, 7.0, 38.0, 48.0, 65.0, 52.0, 18.0, 16.0, 16.0, 32.0, 26.0, 3.0, 18.0, 40.0, 14.0, 19.0, 113.0, 12.0, 29.0, 21.0, 28.0, 40.0, 20.0, 57.0, 47.0]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[3.0, 16.0, 10.0, 29.0, 7.0, 3.0, 45.0, 19.0, 40.0, 7.0, 41.0, 35.0, 6.0, 17.0, 15.0, 12.0, 32.0, 19.0, 3.0, 15.0, 30.0, 5.0, 7.0, 1.0, 8.0, 4.0, 7.0, 1.0, 33.0, 8.0, 9.0, 8.0, 6.0, 4.0, 13.0, 26.0, 16.0, 32.0, 9.0, 20.0, 21.0, 9.0, 20.0, 23.0, 23.0, 22.0, 6.0, 9.0, 5.0, 22.0, 9.0, 47.0, 12.0, 53.0, 6.0, 14.0, 14.0, 4.0, 34.0, 18.0, 7.0, 36.0, 17.0, 32.0, 10.0, 1.0, 12.0, 20.0, 54.0, 16.0, 4.0, 2.0, 10.0, 16.0, 53.0, 17.0, 31.0, 11.0, 14.0, 4.0, 21.0, 14.0, 30.0, 52.0, 13.0, 49.0, 11.0, 39.0, 1.0, 18.0, 72.0, 13.0, 1.0, 71.0, 4.0, 14.0, 10.0, 21.0, 27.0, 30.0, 2.0, 39.0, 5.0, 12.0, 54.0, 28.0, 85.0, 17.0, 11.0, 32.0, 23.0, 41.0, 10.0, 48.0, 16.0, 33.0, 6.0, 23.0, 27.0, 14.0, 10.0, 25.0, 24.0, 8.0, 11.0, 3.0, 30.0, 50.0, 43.0, 3.0, 34.0, 12.0, 45.0, 31.0, 6.0, 17.0, 29.0, 43.0, 15.0, 14.0, 15.0, 24.0, 16.0, 11.0, 20.0, 9.0, 47.0, 10.0, 10.0, 17.0, 15.0, 34.0, 14.0, 21.0, 45.0, 28.0, 20.0, 36.0, 16.0, 34.0, 68.0, 19.0, 31.0, 10.0, 1.0, 56.0, 47.0, 9.0, 34.0, 31.0, 16.0, 65.0, 67.0, 8.0, 31.0, 6.0, 21.0, 21.0, 2.0, 9.0, 68.0, 18.0, 19.0, 14.0, 19.0, 13.0, 0.0, 18.0, 12.0, 33.0, 20.0, 14.0, 3.0, 14.0, 21.0, 50.0, 30.0, 26.0, 15.0, 5.0, 8.0, 13.0, 30.0, 6.0, 23.0, 17.0, 6.0, 6.0, 10.0, 5.0, 8.0, 0.0, 37.0, 3.0, 9.0, 18.0, 27.0, 6.0, 16.0, 14.0, 42.0, 18.0, 7.0, 20.0, 10.0, 21.0, 21.0, 54.0, 37.0, 17.0, 24.0, 38.0, 17.0, 28.0, 14.0, 34.0, 2.0, 19.0, 10.0, 5.0, 81.0, 12.0, 17.0, 20.0, 45.0, 9.0, 26.0, 17.0, 11.0, 28.0, 14.0, 37.0, 48.0, 81.0, 6.0, 3.0, 24.0, 14.0, 4.0, 10.0, 11.0, 35.0, 7.0, 17.0, 16.0, 6.0, 17.0, 5.0, 24.0, 7.0, 13.0, 12.0, 15.0, 26.0, 13.0, 13.0, 10.0, 25.0, 29.0, 22.0, 11.0, 19.0, 21.0, 28.0, 23.0, 18.0, 14.0, 18.0, 26.0, 35.0, 18.0, 49.0, 54.0, 41.0, 20.0, 31.0, 21.0, 3.0, 25.0, 14.0, 22.0, 66.0, 30.0, 43.0, 34.0, 27.0, 13.0, 14.0, 42.0, 10.0, 87.0, 4.0, 22.0, 5.0, 14.0, 36.0, 40.0, 24.0, 16.0, 15.0, 13.0, 34.0, 16.0, 10.0, 1.0, 52.0, 14.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 23.0, 22.0, 16.0, 20.0, 18.0, 12.0, 24.0, 25.0, 50.0, 28.0, 14.0, 24.0, 38.0, 15.0, 15.0, 31.0, 18.0, 0.0, 18.0, 9.0, 4.0, 15.0, 16.0, 10.0, 12.0, 22.0, 33.0, 7.0, 21.0, 52.0, 10.0, 20.0, 16.0, 41.0, 6.0, 12.0, 12.0, 17.0, 30.0, 2.0, 21.0, 19.0, 42.0, 19.0, 7.0, 16.0, 26.0, 23.0, 6.0, 16.0, 13.0, 13.0, 4.0, 2.0, 31.0, 21.0, 23.0, 31.0, 24.0, 20.0, 17.0, 6.0, 5.0, 20.0, 43.0, 5.0, 14.0, 14.0, 26.0, 51.0, 7.0, 14.0, 30.0, 8.0, 5.0, 15.0, 9.0, 12.0, 18.0, 33.0, 23.0, 23.0, 22.0, 33.0, 15.0, 28.0, 1.0, 30.0, 5.0, 51.0, 21.0, 6.0, 8.0, 11.0, 22.0, 23.0, 14.0, 1.0, 1.0, 20.0, 33.0, 6.0, 19.0, 2.0, 12.0, 11.0, 32.0, 6.0, 10.0, 32.0, 21.0, 3.0, 21.0, 9.0, 21.0, 16.0, 21.0, 7.0, 37.0, 15.0, 36.0, 34.0, 14.0, 17.0, 12.0, 14.0, 23.0, 25.0, 6.0, 3.0, 17.0, 16.0, 17.0, 8.0, 38.0, 26.0, 22.0, 14.0, 10.0, 8.0, 27.0, 25.0, 23.0, 18.0, 10.0, 28.0, 17.0, 25.0, 12.0, 17.0, 13.0, 22.0, 55.0, 37.0, 89.0, 89.0, 16.0, 15.0, 23.0, 20.0, 17.0, 18.0, 21.0, 19.0, 19.0, 12.0, 9.0, 5.0, 18.0, 14.0, 26.0, 9.0, 21.0, 16.0, 8.0, 18.0, 5.0, 34.0, 25.0, 21.0, 22.0, 9.0, 16.0, 13.0, 23.0, 19.0, 11.0, 15.0, 23.0, 7.0, 22.0, 29.0, 33.0, 7.0, 30.0, 15.0, 28.0, 16.0, 40.0, 41.0, 38.0, 30.0, 53.0, 63.0, 1.0, 15.0, 46.0, 14.0, 6.0, 59.0, 7.0, 37.0, 51.0, 11.0, 26.0, 16.0, 6.0, 0.0, 29.0, 16.0, 8.0, 33.0, 32.0, 17.0, 11.0, 3.0, 26.0, 23.0, 10.0, 21.0, 41.0, 40.0, 8.0, 2.0, 20.0, 9.0, 30.0, 13.0, 7.0, 53.0, 20.0, 1.0, 16.0, 7.0, 6.0, 1.0, 10.0, 12.0, 11.0, 36.0, 0.0, 4.0, 28.0, 7.0, 14.0, 13.0, 54.0, 48.0, 16.0, 35.0, 21.0, 9.0, 25.0, 5.0, 12.0, 35.0, 19.0, 4.0, 13.0, 13.0, 5.0, 5.0, 23.0, 8.0, 23.0, 25.0, 3.0, 25.0, 7.0, 33.0, 2.0, 31.0, 25.0, 6.0, 8.0, 4.0, 3.0, 32.0, 6.0, 12.0, 6.0, 4.0, 20.0, 29.0, 35.0, 10.0, 58.0, 20.0, 14.0, 12.0, 9.0, 28.0, 9.0, 29.0, 17.0, 28.0, 15.0, 11.0, 5.0, 38.0, 12.0, 18.0, 9.0, 14.0, 16.0, 7.0, 7.0, 10.0, 8.0, 23.0, 44.0, 38.0, 6.0, 7.0, 9.0, 4.0, 17.0, 9.0, 28.0, 13.0, 39.0, 12.0, 4.0, 8.0, 5.0, 53.0, 19.0, 35.0, 6.0, 5.0, 8.0, 3.0, 13.0, 23.0, 1.0, 60.0, 34.0, 25.0, 16.0, 14.0, 4.0, 7.0, 27.0, 22.0, 30.0, 9.0, 6.0, 12.0, 49.0, 4.0, 33.0, 7.0, 34.0, 41.0, 7.0, 44.0, 14.0, 4.0, 8.0, 19.0, 20.0, 4.0, 11.0, 33.0, 7.0, 14.0, 5.0, 26.0, 53.0, 61.0, 81.0, 11.0, 7.0, 16.0, 6.0, 5.0, 6.0, 14.0, 4.0, 18.0, 11.0, 2.0, 25.0, 9.0, 14.0, 2.0, 3.0, 1.0, 7.0, 34.0, 13.0, 2.0, 17.0, 32.0, 19.0, 11.0, 6.0, 4.0, 19.0, 14.0, 8.0, 21.0, 47.0, 24.0, 7.0, 25.0, 8.0, 18.0, 24.0, 47.0, 9.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 16.0, 9.0, 10.0, 3.0, 7.0, 44.0, 4.0, 14.0, 4.0, 27.0, 15.0, 12.0, 36.0, 17.0, 7.0, 7.0, 20.0, 57.0, 15.0, 19.0, 19.0, 11.0, 9.0, 20.0, 7.0, 25.0, 12.0, 9.0, 31.0, 40.0, 29.0, 7.0, 10.0, 1.0, 17.0, 21.0, 33.0, 7.0, 4.0, 25.0, 33.0, 10.0, 3.0, 23.0, 44.0, 43.0, 43.0, 26.0, 19.0, 8.0, 13.0, 3.0, 16.0, 16.0, 3.0, 17.0, 49.0, 43.0, 6.0, 26.0, 7.0, 16.0, 28.0, 42.0, 33.0, 4.0, 79.0, 8.0, 11.0, 10.0, 16.0, 25.0, 3.0, 13.0, 20.0, 6.0, 7.0, 21.0, 14.0, 20.0, 6.0, 14.0, 2.0, 7.0, 5.0, 6.0, 34.0, 31.0, 1.0, 24.0, 21.0, 30.0, 2.0, 10.0, 11.0, 5.0, 20.0, 24.0, 26.0, 25.0, 33.0, 5.0, 13.0, 20.0, 9.0, 23.0, 48.0, 11.0, 15.0, 37.0, 21.0, 24.0, 15.0, 27.0, 39.0, 24.0, 4.0, 13.0, 17.0, 18.0, 21.0, 40.0, 73.0, 11.0, 13.0, 18.0, 9.0, 10.0, 13.0, 54.0, 36.0, 2.0, 6.0, 11.0, 9.0, 41.0, 12.0, 0.0, 4.0, 21.0, 2.0, 25.0, 15.0, 25.0, 10.0, 19.0, 35.0, 16.0, 49.0, 42.0, 42.0, 9.0, 36.0, 22.0, 8.0, 22.0, 12.0, 35.0, 15.0, 15.0, 6.0, 22.0, 14.0, 20.0, 18.0, 84.0, 21.0, 22.0, 12.0, 45.0, 27.0, 19.0, 18.0, 16.0, 32.0, 30.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 17.0, 13.0, 20.0, 3.0, 33.0, 21.0, 31.0, 13.0, 23.0, 13.0, 15.0, 21.0, 5.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 3.0, 45.0, 17.0, 24.0, 19.0, 28.0, 17.0, 26.0, 7.0, 33.0, 20.0, 24.0, 8.0, 12.0, 20.0, 5.0, 5.0, 39.0, 37.0, 34.0, 18.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 7.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 88.0, 11.0, 7.0, 24.0, 10.0, 27.0, 2.0, 15.0, 3.0, 20.0, 28.0, 12.0, 19.0, 17.0, 9.0, 25.0, 10.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 2.0, 2.0, 9.0, 10.0, 5.0, 28.0, 17.0, 12.0, 13.0, 14.0, 36.0, 14.0, 10.0, 17.0, 14.0, 7.0, 23.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 3.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 9.0, 5.0, 10.0, 18.0, 9.0, 23.0, 18.0, 30.0, 9.0, 4.0, 21.0, 12.0, 18.0, 20.0, 4.0, 26.0, 7.0, 10.0, 20.0, 12.0, 5.0, 20.0, 9.0, 46.0, 8.0, 47.0, 53.0, 13.0, 15.0, 31.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 1.0, 70.0, 8.0, 13.0, 24.0, 75.0, 27.0, 12.0, 21.0, 9.0, 15.0, 33.0, 30.0, 18.0, 51.0, 23.0, 8.0, 12.0, 14.0, 22.0, 15.0, 31.0, 24.0, 10.0, 7.0, 28.0, 31.0, 31.0, 16.0, 53.0, 5.0, 22.0, 21.0, 8.0, 17.0, 45.0, 21.0, 85.0, 19.0, 17.0, 27.0, 16.0, 14.0, 53.0, 37.0, 17.0, 16.0, 1.0, 6.0, 11.0, 10.0, 8.0, 8.0, 4.0, 5.0, 16.0, 32.0, 65.0, 26.0, 25.0, 28.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 44.0, 16.0, 9.0, 36.0, 8.0, 6.0, 13.0, 13.0, 6.0, 24.0, 37.0, 21.0, 29.0, 32.0, 36.0, 26.0, 36.0, 4.0, 33.0, 9.0, 24.0, 5.0, 11.0, 29.0, 22.0, 11.0, 16.0, 27.0, 8.0, 12.0, 29.0, 3.0, 9.0, 5.0, 15.0, 34.0, 1.0, 7.0, 12.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 20.0, 5.0, 27.0, 18.0, 25.0, 11.0, 11.0, 5.0, 15.0, 11.0, 8.0, 12.0, 5.0, 0.0, 4.0, 4.0, 32.0, 1.0, 18.0, 3.0, 11.0, 10.0, 19.0, 4.0, 25.0, 17.0, 5.0, 1.0, 15.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 25.0, 6.0, 7.0, 8.0, 34.0, 6.0, 14.0, 7.0, 3.0, 11.0, 3.0, 15.0, 0.0, 13.0, 18.0, 15.0, 3.0, 45.0, 10.0, 11.0, 55.0, 4.0, 9.0, 35.0, 18.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 44.0, 22.0, 9.0, 8.0, 2.0, 72.0, 18.0, 7.0, 14.0, 18.0, 6.0, 26.0, 35.0, 31.0, 26.0, 4.0, 14.0, 15.0, 38.0, 20.0, 17.0, 26.0, 12.0, 10.0, 6.0, 6.0, 5.0, 11.0, 31.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 3.0, 17.0, 18.0, 4.0, 10.0, 9.0, 21.0, 20.0, 6.0, 46.0, 25.0, 9.0, 24.0, 7.0, 26.0, 18.0, 10.0, 40.0, 14.0, 20.0, 17.0, 56.0, 50.0, 27.0, 31.0, 20.0, 16.0, 12.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 12.0, 31.0, 5.0, 4.0, 11.0, 5.0, 7.0, 24.0, 5.0, 28.0, 5.0, 19.0, 14.0, 14.0, 13.0, 11.0, 6.0, 9.0, 8.0, 9.0, 23.0, 4.0, 14.0, 28.0, 15.0, 21.0, 16.0, 69.0, 27.0, 3.0, 16.0, 21.0, 26.0, 22.0, 8.0, 19.0, 4.0, 33.0, 9.0, 12.0, 7.0, 11.0, 34.0, 0.0, 40.0, 13.0, 36.0, 8.0, 6.0, 4.0, 12.0, 7.0, 6.0, 6.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 41.0, 24.0, 35.0, 35.0, 22.0, 36.0, 10.0, 7.0, 36.0, 44.0, 65.0, 6.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 7.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 15.0, 26.0, 12.0, 41.0, 7.0, 6.0, 10.0, 11.0, 14.0, 30.0, 16.0, 4.0, 12.0, 9.0, 10.0, 12.0, 10.0, 31.0, 35.0, 2.0, 11.0, 9.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 17.0, 10.0, 17.0, 42.0, 19.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 14.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 6.0, 25.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 19.0, 12.0, 5.0, 13.0, 7.0, 8.0, 22.0, 11.0, 19.0, 28.0, 9.0, 22.0, 46.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 21.0, 3.0, 35.0, 10.0, 6.0, 10.0, 8.0, 19.0, 13.0, 1.0, 5.0, 18.0, 2.0, 12.0, 7.0, 3.0, 24.0, 12.0, 15.0, 21.0, 4.0, 14.0, 10.0, 45.0, 3.0, 2.0, 5.0, 24.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 10.0, 10.0, 44.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 16.0, 28.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 49.0, 7.0, 25.0, 5.0, 9.0, 33.0, 4.0, 7.0, 4.0, 4.0, 6.0, 9.0, 1.0, 1.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 14.0, 6.0, 5.0, 18.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 5.0, 4.0, 5.0, 18.0, 29.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 28.0, 12.0, 13.0, 12.0, 16.0, 7.0, 30.0, 52.0, 14.0, 14.0, 10.0, 13.0, 25.0, 9.0, 25.0, 16.0, 18.0, 30.0, 9.0, 33.0, 20.0, 15.0, 19.0, 27.0, 12.0, 12.0, 15.0, 14.0, 22.0, 13.0, 18.0, 17.0, 19.0, 14.0, 17.0, 8.0, 36.0, 25.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 21.0, 36.0, 25.0, 1.0, 39.0, 39.0, 71.0, 6.0, 28.0, 2.0, 22.0, 15.0, 29.0, 13.0, 15.0, 4.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 11.0, 65.0, 73.0, 3.0, 3.0, 3.0, 29.0, 22.0, 18.0, 17.0, 6.0, 9.0, 2.0, 8.0, 12.0, 7.0, 1.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 17.0, 2.0, 42.0, 5.0, 14.0, 5.0, 5.0, 1.0, 6.0, 2.0, 5.0, 8.0, 8.0, 4.0, 13.0, 7.0, 2.0, 14.0, 24.0, 15.0, 24.0, 22.0, 11.0, 5.0, 62.0, 19.0, 11.0, 10.0, 3.0, 10.0, 31.0, 31.0, 13.0, 7.0, 14.0, 26.0, 6.0, 39.0, 16.0, 19.0, 7.0, 12.0, 6.0, 10.0, 2.0, 6.0, 4.0, 10.0, 20.0, 1.0, 66.0, 23.0, 9.0, 4.0, 78.0, 10.0, 20.0, 0.0, 7.0, 1.0, 25.0, 6.0, 2.0, 58.0, 3.0, 12.0, 20.0, 4.0, 25.0, 3.0, 49.0, 8.0, 11.0, 61.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 39.0, 0.0, 6.0, 6.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 31.0]</t>
+          <t>[3.0, 16.0, 10.0, 29.0, 7.0, 3.0, 45.0, 19.0, 40.0, 7.0, 41.0, 35.0, 6.0, 17.0, 15.0, 12.0, 32.0, 19.0, 3.0, 15.0, 30.0, 5.0, 7.0, 1.0, 8.0, 4.0, 7.0, 1.0, 33.0, 8.0, 9.0, 8.0, 6.0, 4.0, 13.0, 26.0, 16.0, 32.0, 9.0, 20.0, 21.0, 9.0, 20.0, 23.0, 23.0, 22.0, 6.0, 9.0, 5.0, 22.0, 9.0, 47.0, 12.0, 53.0, 6.0, 14.0, 14.0, 4.0, 34.0, 18.0, 7.0, 36.0, 17.0, 32.0, 10.0, 1.0, 12.0, 20.0, 54.0, 16.0, 4.0, 2.0, 10.0, 16.0, 53.0, 17.0, 31.0, 11.0, 14.0, 4.0, 21.0, 14.0, 30.0, 52.0, 13.0, 49.0, 11.0, 39.0, 1.0, 18.0, 72.0, 13.0, 1.0, 71.0, 4.0, 14.0, 10.0, 21.0, 27.0, 30.0, 2.0, 39.0, 5.0, 12.0, 54.0, 28.0, 85.0, 17.0, 11.0, 32.0, 23.0, 41.0, 10.0, 48.0, 16.0, 33.0, 6.0, 23.0, 27.0, 14.0, 10.0, 25.0, 24.0, 8.0, 11.0, 3.0, 30.0, 50.0, 43.0, 3.0, 34.0, 12.0, 45.0, 31.0, 6.0, 17.0, 29.0, 43.0, 15.0, 14.0, 15.0, 24.0, 16.0, 11.0, 20.0, 9.0, 47.0, 10.0, 10.0, 17.0, 15.0, 34.0, 14.0, 21.0, 45.0, 28.0, 20.0, 36.0, 16.0, 34.0, 68.0, 19.0, 31.0, 10.0, 1.0, 56.0, 47.0, 9.0, 34.0, 31.0, 16.0, 65.0, 176.0, 67.0, 8.0, 31.0, 6.0, 21.0, 21.0, 2.0, 9.0, 68.0, 18.0, 19.0, 14.0, 19.0, 13.0, 0.0, 18.0, 12.0, 33.0, 20.0, 14.0, 3.0, 14.0, 21.0, 50.0, 30.0, 26.0, 15.0, 5.0, 8.0, 13.0, 30.0, 6.0, 23.0, 17.0, 6.0, 6.0, 10.0, 5.0, 8.0, 0.0, 37.0, 3.0, 9.0, 18.0, 27.0, 6.0, 16.0, 14.0, 42.0, 18.0, 7.0, 20.0, 10.0, 21.0, 21.0, 54.0, 37.0, 17.0, 24.0, 38.0, 17.0, 28.0, 14.0, 34.0, 2.0, 19.0, 10.0, 5.0, 81.0, 12.0, 17.0, 20.0, 45.0, 9.0, 26.0, 17.0, 11.0, 28.0, 14.0, 37.0, 48.0, 81.0, 102.0, 6.0, 3.0, 24.0, 14.0, 4.0, 10.0, 11.0, 35.0, 7.0, 17.0, 16.0, 6.0, 17.0, 5.0, 24.0, 7.0, 13.0, 12.0, 15.0, 26.0, 13.0, 13.0, 10.0, 25.0, 29.0, 22.0, 11.0, 19.0, 21.0, 28.0, 23.0, 18.0, 14.0, 18.0, 26.0, 35.0, 18.0, 49.0, 54.0, 41.0, 20.0, 31.0, 21.0, 3.0, 25.0, 14.0, 22.0, 66.0, 30.0, 43.0, 34.0, 27.0, 13.0, 14.0, 42.0, 10.0, 87.0, 4.0, 22.0, 5.0, 14.0, 36.0, 40.0, 24.0, 16.0, 15.0, 13.0, 34.0, 16.0, 10.0, 1.0, 52.0, 14.0, 3.0, 15.0, 17.0, 80.0, 26.0, 15.0, 9.0, 13.0, 1.0, 23.0, 22.0, 16.0, 20.0, 18.0, 12.0, 24.0, 25.0, 50.0, 28.0, 14.0, 24.0, 38.0, 15.0, 15.0, 31.0, 18.0, 0.0, 18.0, 9.0, 4.0, 15.0, 16.0, 10.0, 12.0, 22.0, 33.0, 7.0, 21.0, 52.0, 10.0, 20.0, 16.0, 41.0, 6.0, 12.0, 12.0, 17.0, 30.0, 2.0, 21.0, 19.0, 42.0, 19.0, 7.0, 16.0, 26.0, 23.0, 6.0, 16.0, 13.0, 13.0, 4.0, 2.0, 31.0, 21.0, 23.0, 31.0, 24.0, 20.0, 17.0, 6.0, 5.0, 20.0, 43.0, 5.0, 14.0, 14.0, 26.0, 51.0, 7.0, 14.0, 30.0, 8.0, 5.0, 15.0, 9.0, 102.0, 12.0, 18.0, 33.0, 23.0, 23.0, 22.0, 33.0, 15.0, 28.0, 1.0, 30.0, 5.0, 51.0, 21.0, 6.0, 8.0, 11.0, 22.0, 23.0, 14.0, 1.0, 1.0, 20.0, 33.0, 6.0, 19.0, 2.0, 12.0, 11.0, 32.0, 6.0, 10.0, 32.0, 21.0, 3.0, 21.0, 9.0, 21.0, 16.0, 21.0, 7.0, 37.0, 15.0, 36.0, 34.0, 14.0, 17.0, 12.0, 14.0, 23.0, 25.0, 6.0, 3.0, 17.0, 16.0, 17.0, 8.0, 38.0, 26.0, 22.0, 14.0, 10.0, 8.0, 27.0, 25.0, 23.0, 18.0, 10.0, 28.0, 17.0, 25.0, 12.0, 17.0, 13.0, 22.0, 55.0, 37.0, 89.0, 89.0, 16.0, 15.0, 23.0, 20.0, 17.0, 18.0, 21.0, 19.0, 19.0, 12.0, 9.0, 5.0, 18.0, 14.0, 26.0, 9.0, 21.0, 16.0, 8.0, 18.0, 5.0, 34.0, 25.0, 21.0, 22.0, 9.0, 16.0, 13.0, 23.0, 19.0, 11.0, 15.0, 23.0, 7.0, 22.0, 29.0, 33.0, 93.0, 7.0, 30.0, 15.0, 28.0, 16.0, 40.0, 41.0, 38.0, 30.0, 53.0, 63.0, 1.0, 15.0, 46.0, 14.0, 6.0, 106.0, 59.0, 7.0, 37.0, 51.0, 11.0, 26.0, 16.0, 6.0, 0.0, 29.0, 16.0, 8.0, 33.0, 32.0, 17.0, 11.0, 3.0, 26.0, 23.0, 10.0, 21.0, 170.0, 41.0, 40.0, 8.0, 2.0, 20.0, 9.0, 30.0, 13.0, 7.0, 53.0, 20.0, 1.0, 16.0, 7.0, 6.0, 1.0, 10.0, 12.0, 11.0, 36.0, 0.0, 4.0, 28.0, 7.0, 14.0, 13.0, 54.0, 48.0, 16.0, 35.0, 21.0, 9.0, 25.0, 5.0, 12.0, 35.0, 19.0, 4.0, 13.0, 13.0, 5.0, 5.0, 23.0, 8.0, 23.0, 25.0, 3.0, 25.0, 7.0, 33.0, 2.0, 31.0, 25.0, 6.0, 8.0, 4.0, 3.0, 32.0, 6.0, 12.0, 6.0, 4.0, 20.0, 29.0, 35.0, 10.0, 58.0, 20.0, 14.0, 12.0, 9.0, 28.0, 9.0, 29.0, 17.0, 28.0, 15.0, 11.0, 5.0, 38.0, 12.0, 18.0, 9.0, 14.0, 16.0, 7.0, 7.0, 10.0, 104.0, 8.0, 23.0, 44.0, 38.0, 6.0, 7.0, 9.0, 4.0, 17.0, 9.0, 28.0, 13.0, 39.0, 12.0, 4.0, 8.0, 5.0, 53.0, 19.0, 35.0, 6.0, 5.0, 8.0, 3.0, 13.0, 23.0, 1.0, 60.0, 34.0, 25.0, 16.0, 14.0, 4.0, 7.0, 27.0, 22.0, 30.0, 9.0, 6.0, 12.0, 49.0, 4.0, 33.0, 7.0, 34.0, 41.0, 7.0, 44.0, 14.0, 4.0, 8.0, 19.0, 20.0, 4.0, 11.0, 33.0, 7.0, 14.0, 5.0, 26.0, 53.0, 61.0, 81.0, 144.0, 11.0, 7.0, 16.0, 6.0, 5.0, 6.0, 14.0, 4.0, 18.0, 11.0, 2.0, 25.0, 9.0, 14.0, 2.0, 3.0, 1.0, 7.0, 34.0, 13.0, 2.0, 17.0, 32.0, 19.0, 11.0, 6.0, 4.0, 19.0, 14.0, 8.0, 21.0, 47.0, 24.0, 7.0, 25.0, 8.0, 18.0, 24.0, 47.0, 9.0, 5.0, 25.0, 12.0, 30.0, 21.0, 3.0, 20.0, 16.0, 9.0, 10.0, 3.0, 7.0, 44.0, 4.0, 14.0, 4.0, 27.0, 15.0, 12.0, 36.0, 17.0, 7.0, 7.0, 20.0, 57.0, 15.0, 19.0, 19.0, 11.0, 9.0, 20.0, 7.0, 25.0, 12.0, 9.0, 31.0, 40.0, 29.0, 7.0, 10.0, 1.0, 17.0, 21.0, 33.0, 7.0, 4.0, 25.0, 33.0, 10.0, 3.0, 23.0, 44.0, 43.0, 43.0, 26.0, 19.0, 8.0, 13.0, 3.0, 16.0, 16.0, 3.0, 17.0, 49.0, 43.0, 6.0, 26.0, 7.0, 16.0, 28.0, 42.0, 33.0, 4.0, 79.0, 8.0, 11.0, 10.0, 16.0, 25.0, 3.0, 13.0, 20.0, 6.0, 7.0, 21.0, 14.0, 20.0, 6.0, 14.0, 2.0, 7.0, 5.0, 6.0, 34.0, 31.0, 1.0, 24.0, 21.0, 30.0, 2.0, 10.0, 11.0, 5.0, 20.0, 24.0, 26.0, 25.0, 33.0, 5.0, 13.0, 20.0, 9.0, 23.0, 48.0, 11.0, 15.0, 37.0, 21.0, 24.0, 15.0, 27.0, 39.0, 24.0, 4.0, 13.0, 17.0, 18.0, 21.0, 40.0, 73.0, 11.0, 13.0, 18.0, 9.0, 10.0, 13.0, 54.0, 91.0, 36.0, 2.0, 6.0, 11.0, 9.0, 41.0, 12.0, 0.0, 4.0, 21.0, 2.0, 25.0, 15.0, 25.0, 10.0, 19.0, 35.0, 16.0, 49.0, 42.0, 42.0, 9.0, 36.0, 22.0, 8.0, 22.0, 12.0, 35.0, 15.0, 15.0, 6.0, 22.0, 14.0, 20.0, 18.0, 84.0, 21.0, 22.0, 12.0, 45.0, 27.0, 19.0, 18.0, 16.0, 32.0, 30.0, 50.0, 2.0, 22.0, 6.0, 81.0, 16.0, 12.0, 26.0, 5.0, 17.0, 13.0, 20.0, 3.0, 33.0, 21.0, 31.0, 13.0, 23.0, 13.0, 15.0, 21.0, 5.0, 2.0, 2.0, 22.0, 22.0, 23.0, 19.0, 23.0, 3.0, 45.0, 17.0, 24.0, 19.0, 28.0, 17.0, 26.0, 7.0, 33.0, 20.0, 24.0, 8.0, 12.0, 20.0, 5.0, 5.0, 39.0, 37.0, 34.0, 18.0, 14.0, 38.0, 28.0, 21.0, 4.0, 9.0, 14.0, 14.0, 7.0, 40.0, 11.0, 7.0, 13.0, 26.0, 12.0, 3.0, 9.0, 29.0, 88.0, 11.0, 7.0, 24.0, 10.0, 27.0, 2.0, 15.0, 3.0, 20.0, 28.0, 12.0, 19.0, 17.0, 9.0, 25.0, 10.0, 18.0, 37.0, 4.0, 25.0, 21.0, 47.0, 2.0, 2.0, 9.0, 10.0, 5.0, 28.0, 17.0, 12.0, 13.0, 14.0, 36.0, 14.0, 10.0, 17.0, 14.0, 7.0, 23.0, 34.0, 13.0, 9.0, 12.0, 6.0, 14.0, 3.0, 2.0, 25.0, 11.0, 35.0, 6.0, 10.0, 25.0, 9.0, 5.0, 10.0, 18.0, 9.0, 23.0, 18.0, 30.0, 9.0, 4.0, 21.0, 12.0, 18.0, 20.0, 4.0, 26.0, 7.0, 10.0, 20.0, 12.0, 5.0, 20.0, 9.0, 46.0, 8.0, 47.0, 53.0, 13.0, 15.0, 31.0, 18.0, 14.0, 11.0, 16.0, 58.0, 18.0, 1.0, 70.0, 8.0, 13.0, 24.0, 75.0, 27.0, 12.0, 21.0, 9.0, 15.0, 33.0, 30.0, 18.0, 51.0, 23.0, 8.0, 12.0, 14.0, 22.0, 15.0, 31.0, 24.0, 10.0, 7.0, 28.0, 31.0, 31.0, 16.0, 53.0, 5.0, 22.0, 21.0, 8.0, 17.0, 45.0, 21.0, 85.0, 19.0, 17.0, 27.0, 16.0, 14.0, 53.0, 37.0, 17.0, 16.0, 1.0, 6.0, 11.0, 10.0, 8.0, 8.0, 4.0, 5.0, 16.0, 32.0, 65.0, 26.0, 25.0, 28.0, 30.0, 37.0, 53.0, 29.0, 39.0, 11.0, 44.0, 16.0, 9.0, 36.0, 8.0, 6.0, 13.0, 13.0, 6.0, 24.0, 37.0, 21.0, 29.0, 32.0, 36.0, 26.0, 36.0, 4.0, 33.0, 9.0, 24.0, 5.0, 11.0, 29.0, 22.0, 11.0, 16.0, 27.0, 8.0, 12.0, 29.0, 3.0, 9.0, 5.0, 15.0, 34.0, 1.0, 7.0, 12.0, 72.0, 72.0, 6.0, 43.0, 21.0, 1.0, 20.0, 5.0, 27.0, 18.0, 25.0, 11.0, 11.0, 5.0, 15.0, 11.0, 8.0, 91.0, 12.0, 5.0, 0.0, 4.0, 4.0, 32.0, 1.0, 18.0, 3.0, 11.0, 10.0, 19.0, 4.0, 25.0, 17.0, 5.0, 1.0, 15.0, 12.0, 22.0, 49.0, 13.0, 8.0, 5.0, 25.0, 6.0, 7.0, 8.0, 34.0, 6.0, 14.0, 7.0, 3.0, 11.0, 3.0, 15.0, 0.0, 13.0, 18.0, 15.0, 3.0, 45.0, 10.0, 11.0, 55.0, 4.0, 9.0, 35.0, 18.0, 31.0, 1.0, 4.0, 3.0, 2.0, 24.0, 44.0, 22.0, 9.0, 8.0, 2.0, 72.0, 18.0, 7.0, 14.0, 18.0, 6.0, 26.0, 35.0, 31.0, 26.0, 4.0, 14.0, 96.0, 15.0, 38.0, 20.0, 17.0, 26.0, 12.0, 10.0, 6.0, 6.0, 5.0, 11.0, 31.0, 3.0, 21.0, 6.0, 34.0, 16.0, 5.0, 3.0, 17.0, 18.0, 4.0, 10.0, 9.0, 21.0, 20.0, 6.0, 46.0, 25.0, 9.0, 24.0, 7.0, 26.0, 18.0, 10.0, 40.0, 14.0, 20.0, 17.0, 56.0, 50.0, 27.0, 31.0, 20.0, 16.0, 12.0, 31.0, 21.0, 4.0, 16.0, 27.0, 4.0, 7.0, 12.0, 31.0, 5.0, 4.0, 11.0, 5.0, 7.0, 24.0, 5.0, 28.0, 5.0, 19.0, 14.0, 14.0, 13.0, 11.0, 6.0, 9.0, 8.0, 9.0, 23.0, 4.0, 14.0, 28.0, 15.0, 21.0, 16.0, 69.0, 27.0, 3.0, 16.0, 21.0, 26.0, 22.0, 8.0, 19.0, 4.0, 33.0, 9.0, 12.0, 7.0, 11.0, 34.0, 0.0, 40.0, 13.0, 36.0, 8.0, 6.0, 4.0, 12.0, 7.0, 6.0, 6.0, 37.0, 10.0, 8.0, 12.0, 33.0, 34.0, 39.0, 7.0, 26.0, 7.0, 13.0, 42.0, 2.0, 53.0, 41.0, 24.0, 35.0, 35.0, 22.0, 36.0, 10.0, 7.0, 36.0, 44.0, 65.0, 96.0, 6.0, 3.0, 4.0, 1.0, 14.0, 18.0, 20.0, 7.0, 21.0, 9.0, 12.0, 6.0, 17.0, 16.0, 2.0, 13.0, 3.0, 14.0, 9.0, 6.0, 15.0, 3.0, 10.0, 2.0, 4.0, 30.0, 10.0, 25.0, 15.0, 26.0, 12.0, 41.0, 7.0, 6.0, 10.0, 11.0, 14.0, 30.0, 16.0, 4.0, 12.0, 9.0, 10.0, 12.0, 10.0, 31.0, 35.0, 2.0, 11.0, 9.0, 8.0, 3.0, 26.0, 16.0, 41.0, 27.0, 30.0, 17.0, 32.0, 3.0, 6.0, 16.0, 4.0, 26.0, 27.0, 2.0, 6.0, 35.0, 5.0, 45.0, 23.0, 25.0, 16.0, 17.0, 38.0, 14.0, 5.0, 10.0, 18.0, 34.0, 7.0, 13.0, 16.0, 8.0, 58.0, 17.0, 10.0, 17.0, 42.0, 19.0, 21.0, 12.0, 17.0, 20.0, 60.0, 15.0, 2.0, 14.0, 70.0, 8.0, 7.0, 20.0, 11.0, 12.0, 3.0, 6.0, 25.0, 10.0, 6.0, 10.0, 2.0, 17.0, 16.0, 19.0, 12.0, 5.0, 13.0, 7.0, 8.0, 22.0, 11.0, 19.0, 28.0, 9.0, 22.0, 46.0, 35.0, 9.0, 18.0, 4.0, 10.0, 7.0, 2.0, 21.0, 3.0, 35.0, 10.0, 6.0, 10.0, 8.0, 19.0, 13.0, 1.0, 5.0, 18.0, 2.0, 12.0, 7.0, 3.0, 24.0, 12.0, 15.0, 21.0, 4.0, 14.0, 10.0, 45.0, 3.0, 2.0, 5.0, 24.0, 22.0, 11.0, 10.0, 30.0, 15.0, 29.0, 19.0, 8.0, 10.0, 10.0, 44.0, 6.0, 20.0, 33.0, 12.0, 4.0, 18.0, 16.0, 28.0, 14.0, 22.0, 16.0, 23.0, 4.0, 11.0, 17.0, 20.0, 44.0, 8.0, 10.0, 6.0, 28.0, 51.0, 39.0, 12.0, 49.0, 7.0, 25.0, 5.0, 9.0, 33.0, 4.0, 7.0, 4.0, 4.0, 6.0, 9.0, 1.0, 1.0, 59.0, 13.0, 16.0, 4.0, 16.0, 1.0, 7.0, 3.0, 4.0, 14.0, 25.0, 16.0, 17.0, 19.0, 22.0, 2.0, 12.0, 0.0, 16.0, 14.0, 6.0, 5.0, 18.0, 11.0, 11.0, 18.0, 14.0, 23.0, 3.0, 25.0, 34.0, 10.0, 28.0, 15.0, 5.0, 4.0, 5.0, 18.0, 29.0, 7.0, 6.0, 8.0, 20.0, 6.0, 2.0, 17.0, 7.0, 39.0, 39.0, 14.0, 19.0, 14.0, 9.0, 19.0, 11.0, 14.0, 10.0, 20.0, 9.0, 11.0, 6.0, 4.0, 5.0, 24.0, 17.0, 26.0, 16.0, 28.0, 12.0, 13.0, 12.0, 16.0, 7.0, 30.0, 52.0, 14.0, 14.0, 10.0, 13.0, 25.0, 9.0, 25.0, 16.0, 18.0, 30.0, 9.0, 33.0, 20.0, 15.0, 19.0, 27.0, 12.0, 12.0, 15.0, 14.0, 22.0, 13.0, 18.0, 17.0, 19.0, 14.0, 17.0, 8.0, 36.0, 25.0, 45.0, 7.0, 7.0, 29.0, 33.0, 79.0, 14.0, 27.0, 104.0, 21.0, 36.0, 25.0, 1.0, 105.0, 39.0, 39.0, 71.0, 6.0, 28.0, 2.0, 22.0, 15.0, 29.0, 13.0, 15.0, 4.0, 23.0, 21.0, 16.0, 31.0, 30.0, 4.0, 11.0, 65.0, 73.0, 3.0, 3.0, 3.0, 29.0, 22.0, 18.0, 17.0, 6.0, 9.0, 2.0, 8.0, 12.0, 7.0, 1.0, 17.0, 9.0, 24.0, 22.0, 10.0, 5.0, 17.0, 2.0, 42.0, 5.0, 14.0, 5.0, 5.0, 1.0, 6.0, 2.0, 5.0, 8.0, 118.0, 8.0, 4.0, 118.0, 13.0, 7.0, 2.0, 14.0, 24.0, 15.0, 24.0, 22.0, 11.0, 5.0, 62.0, 19.0, 11.0, 10.0, 3.0, 10.0, 31.0, 31.0, 13.0, 7.0, 14.0, 26.0, 6.0, 39.0, 16.0, 19.0, 7.0, 12.0, 6.0, 10.0, 2.0, 6.0, 4.0, 10.0, 20.0, 1.0, 66.0, 23.0, 9.0, 4.0, 78.0, 10.0, 20.0, 0.0, 7.0, 1.0, 25.0, 6.0, 2.0, 58.0, 3.0, 12.0, 20.0, 4.0, 25.0, 3.0, 49.0, 8.0, 11.0, 61.0, 4.0, 2.0, 4.0, 10.0, 6.0, 25.0, 39.0, 0.0, 6.0, 6.0, 7.0, 8.0, 26.0, 33.0, 4.0, 11.0, 12.0, 12.0, 61.0, 14.0, 7.0, 9.0, 9.0, 6.0, 14.0, 6.0, 33.0, 54.0, 12.0, 6.0, 6.0, 2.0, 15.0, 42.0, 26.0, 10.0, 13.0, 4.0, 20.0, 2.0, 6.0, 22.0, 8.0, 17.0, 19.0, 15.0, 4.0, 7.0, 10.0, 8.0, 19.0, 31.0]</t>
         </is>
       </c>
     </row>

--- a/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
+++ b/data/interim/model_parameters/COVID19_SEIRD/sciensano_hospital_parameters.xlsx
@@ -706,7 +706,7 @@
         <v>404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01540103690149436</v>
+        <v>0.01825081315504156</v>
       </c>
       <c r="D4" t="n">
         <v>0.9801980198019802</v>
@@ -733,7 +733,7 @@
         <v>0.983</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9719749999999999</v>
+        <v>0.971</v>
       </c>
       <c r="M4" t="n">
         <v>0.988</v>
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006480634339737725</v>
+        <v>0.007634622334658475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.8698224852071006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="F5" t="n">
         <v>0.09090909090909091</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="J5" t="n">
-        <v>0.864</v>
+        <v>0.863</v>
       </c>
       <c r="K5" t="n">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
       <c r="L5" t="n">
-        <v>0.849975</v>
+        <v>0.8489749999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.891</v>
+        <v>0.89</v>
       </c>
       <c r="N5" t="n">
         <v>0.012</v>
@@ -842,7 +842,7 @@
         <v>0.012</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="Q5" t="n">
         <v>0.014</v>
@@ -872,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08935830429732869</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08935830429732869</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07377049180327869</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1074380165289256</v>
+        <v>0.1073964168839092</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04424778761061947</v>
+        <v>0.04385804840568574</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1450381679389313</v>
+        <v>0.1415115211220571</v>
       </c>
     </row>
     <row r="6">
@@ -897,94 +897,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02279658432448917</v>
+        <v>0.02611131189013372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9095477386934674</v>
+        <v>0.9098786828422877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01507537688442211</v>
+        <v>0.01559792027729636</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007366482504604052</v>
+        <v>0.007619047619047619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.909</v>
+        <v>0.9106425702811245</v>
       </c>
       <c r="I6" t="n">
-        <v>0.909</v>
+        <v>0.9106425702811245</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9029029029029029</v>
+        <v>0.904</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9156626506024096</v>
+        <v>0.9159159159159159</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8908908908908909</v>
+        <v>0.8909972722722723</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9267086651520827</v>
+        <v>0.926855537902632</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01501501501501501</v>
+        <v>0.01504513540621866</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01501501501501501</v>
+        <v>0.01504513540621866</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01202404809619238</v>
+        <v>0.01300975975975976</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01705115346038114</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008008008008008008</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02302302302302302</v>
+        <v>0.02402402402402402</v>
       </c>
       <c r="T6" t="n">
-        <v>0.007583965330444204</v>
+        <v>0.007650273224043716</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007583965330444204</v>
+        <v>0.007650273224043716</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00547645125958379</v>
+        <v>0.005500550055005501</v>
       </c>
       <c r="W6" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.009711359013609007</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00220988377056578</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01340782122905028</v>
+        <v>0.01411509229098806</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09278350515463918</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.09278350515463918</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.075</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1134020618556701</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.0375</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1562594126506024</v>
+        <v>0.160928809788654</v>
       </c>
     </row>
     <row r="7">
@@ -994,94 +994,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04063738944800244</v>
+        <v>0.04707264185037947</v>
       </c>
       <c r="D7" t="n">
-        <v>0.895774647887324</v>
+        <v>0.8972142170989433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.02689721421709894</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01257861635220126</v>
+        <v>0.01177730192719486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.896</v>
+        <v>0.8978978978978979</v>
       </c>
       <c r="I7" t="n">
-        <v>0.896</v>
+        <v>0.8978978978978979</v>
       </c>
       <c r="J7" t="n">
-        <v>0.889</v>
+        <v>0.8908908908908909</v>
       </c>
       <c r="K7" t="n">
-        <v>0.902</v>
+        <v>0.9039039039039038</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8759999999999999</v>
+        <v>0.8788788788788788</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9139160660660661</v>
+        <v>0.916</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02802802802802803</v>
+        <v>0.027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02802802802802803</v>
+        <v>0.027</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02407221664994985</v>
+        <v>0.024</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.032</v>
+        <v>0.03003003003003003</v>
       </c>
       <c r="R7" t="n">
         <v>0.018</v>
       </c>
       <c r="S7" t="n">
-        <v>0.039</v>
+        <v>0.0370750779392285</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01227678571428571</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01227678571428571</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009966777408637873</v>
+        <v>0.008976159200374447</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01464376580639264</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00558659217877095</v>
+        <v>0.005418704084430676</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02013422818791946</v>
+        <v>0.01971630659951451</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1376146788990826</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1858407079646018</v>
+        <v>0.183066681584247</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.09172226855713095</v>
+        <v>0.09344707672245164</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2336448598130841</v>
       </c>
     </row>
     <row r="8">
@@ -1091,94 +1091,94 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920</v>
+        <v>1873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07319304666056725</v>
+        <v>0.08461329960245753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8575899843505478</v>
+        <v>0.8577540106951872</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04329681794470527</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02311435523114355</v>
+        <v>0.02119700748129676</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8567134268537074</v>
+        <v>0.8578578578578578</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8567134268537074</v>
+        <v>0.8578578578578578</v>
       </c>
       <c r="J8" t="n">
-        <v>0.849</v>
+        <v>0.8508508508508509</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8638638638638638</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8338338338338338</v>
+        <v>0.8368368368368369</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8785171025123564</v>
+        <v>0.8786389479058416</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04308617234468938</v>
+        <v>0.04108216432865731</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04308617234468938</v>
+        <v>0.04108216432865731</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03903903903903904</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.048</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03106212424849699</v>
+        <v>0.02908726178535607</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05705705705705705</v>
+        <v>0.05321285140562249</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02300173273547346</v>
+        <v>0.02099126078122578</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02300173273547346</v>
+        <v>0.02099126078122578</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01965317919075145</v>
+        <v>0.01785183455070494</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02653591663536764</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01392071041233704</v>
+        <v>0.01270171225669999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03352990540640334</v>
+        <v>0.03183962264150943</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1630417651694248</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1630417651694248</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1426267281105991</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1858974358974359</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1062452651515152</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2291828416149067</v>
+        <v>0.2272894385026737</v>
       </c>
     </row>
     <row r="9">
@@ -1188,94 +1188,94 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3365</v>
+        <v>3267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1282784385483379</v>
+        <v>0.1475876400433683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8089418777943368</v>
+        <v>0.8087783916513198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08614008941877795</v>
+        <v>0.08041743400859423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2714508580343214</v>
+        <v>0.2648475120385232</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04200442151805453</v>
+        <v>0.03681214421252372</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8088531187122736</v>
+        <v>0.8092369477911646</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8088531187122736</v>
+        <v>0.8092369477911646</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8006042296072508</v>
+        <v>0.8008008008008008</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8174743484485715</v>
+        <v>0.8174523570712137</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7845691382765531</v>
+        <v>0.7843530591775326</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8328328328328328</v>
+        <v>0.8324974924774323</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08617234468937876</v>
+        <v>0.08032128514056225</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08617234468937876</v>
+        <v>0.08032128514056225</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08032128514056225</v>
+        <v>0.07429718875502007</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0920920920920921</v>
+        <v>0.08634538152610442</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06920588921071834</v>
+        <v>0.06431999354200722</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1034136546184739</v>
+        <v>0.09829488465396188</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03663003663003663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03663003663003663</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03712871287128713</v>
+        <v>0.03213844252163164</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04654781724010359</v>
+        <v>0.04121212121212121</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02875</v>
+        <v>0.02417226010456172</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05597216940773837</v>
+        <v>0.0506367379425405</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2710101489702653</v>
+        <v>0.2639593908629442</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2710101489702653</v>
+        <v>0.2639593908629442</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2512329087296949</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2921780466724287</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2094082618951729</v>
+        <v>0.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3298982155005494</v>
+        <v>0.3264248704663212</v>
       </c>
     </row>
     <row r="10">
@@ -1285,94 +1285,94 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4219</v>
+        <v>3952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1608340957609027</v>
+        <v>0.1785327069027828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7641890287342674</v>
+        <v>0.7591277890466531</v>
       </c>
       <c r="E10" t="n">
-        <v>0.178579909760152</v>
+        <v>0.1643002028397566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.446122860020141</v>
+        <v>0.4431578947368421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09602237414543195</v>
+        <v>0.07581830327321309</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7639095477386935</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7639095477386935</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7547547547547547</v>
+        <v>0.7497497497497497</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7735470941883767</v>
+        <v>0.7680722891566265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7374749498997996</v>
+        <v>0.7324582213574592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7897950450450451</v>
+        <v>0.7859314070351759</v>
       </c>
       <c r="N10" t="n">
-        <v>0.179</v>
+        <v>0.1643286573146293</v>
       </c>
       <c r="O10" t="n">
-        <v>0.179</v>
+        <v>0.1643286573146293</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1701701701701702</v>
+        <v>0.156312625250501</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1865596790371113</v>
+        <v>0.1721721721721722</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1561561561561562</v>
+        <v>0.1411411411411412</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2024048096192385</v>
+        <v>0.1877557213779742</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09591717050186355</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09591717050186355</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08868894601542417</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1033599776033672</v>
+        <v>0.08238416988416988</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07539682539682539</v>
+        <v>0.05812417437252312</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.118869926607127</v>
+        <v>0.09480805958747134</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4448899244737265</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4448899244737265</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.423038917604135</v>
+        <v>0.4214796871536683</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.467479674796748</v>
+        <v>0.46484375</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3842716452011129</v>
+        <v>0.3811475409836065</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5089305823680823</v>
+        <v>0.5083350840336134</v>
       </c>
     </row>
     <row r="11">
@@ -1382,94 +1382,94 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5586</v>
+        <v>4844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2129460201280878</v>
+        <v>0.2188290567401518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7977386934673367</v>
+        <v>0.7832746843303664</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2919956927494616</v>
+        <v>0.2666114676050507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6007098491570542</v>
+        <v>0.6026743075453678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2123734533183352</v>
+        <v>0.1720401691331924</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7975951903807615</v>
+        <v>0.7827827827827828</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7975951903807615</v>
+        <v>0.7827827827827828</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7887887887887888</v>
+        <v>0.7743229689067201</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8060788379649251</v>
+        <v>0.7919597989949749</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7733199598796389</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8221105527638191</v>
+        <v>0.8084252758274825</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2918756268806419</v>
+        <v>0.2660321285140562</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2918756268806419</v>
+        <v>0.2660321285140562</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2818455366098295</v>
+        <v>0.2570210843373494</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3008048289738431</v>
+        <v>0.2755511022044088</v>
       </c>
       <c r="R11" t="n">
-        <v>0.26304561274184</v>
+        <v>0.2394789579158317</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3213293704526169</v>
+        <v>0.2945936641895461</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2129628641675723</v>
+        <v>0.17207800422</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2129628641675723</v>
+        <v>0.17207800422</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2030456852791878</v>
+        <v>0.1625487646293888</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2226288595002738</v>
+        <v>0.1819616036245265</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1842774908631237</v>
+        <v>0.1457741947905669</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2418146278795225</v>
+        <v>0.1994950287061328</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6011244827695126</v>
+        <v>0.6036451197741521</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6011244827695126</v>
+        <v>0.6036451197741521</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.578180539099526</v>
+        <v>0.5813167818981773</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6238532110091743</v>
+        <v>0.6255761864571836</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5326569188535268</v>
+        <v>0.5360189735189734</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6650656814449915</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -1479,94 +1479,94 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8904</v>
+        <v>6007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3394327538883806</v>
+        <v>0.2713679074810264</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9319153724960613</v>
+        <v>0.9170283806343906</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4390051766824218</v>
+        <v>0.4053422370617696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7537190082644628</v>
+        <v>0.7505030181086519</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4155295254196353</v>
+        <v>0.3733843073002003</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9319319319319319</v>
+        <v>0.9176706827309237</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9319319319319319</v>
+        <v>0.9176706827309237</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9267803410230692</v>
+        <v>0.9115355449278586</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.923</v>
       </c>
       <c r="L12" t="n">
-        <v>0.915</v>
+        <v>0.8994949597079968</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9469469469469469</v>
+        <v>0.933933933933934</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4393179538615847</v>
+        <v>0.4044044044044044</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4393179538615847</v>
+        <v>0.4044044044044044</v>
       </c>
       <c r="P12" t="n">
-        <v>0.429</v>
+        <v>0.3937875751503006</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4498997995991984</v>
+        <v>0.4154154154154154</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4089954408817635</v>
+        <v>0.3743680741925476</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4704704704704705</v>
+        <v>0.4357429718875502</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4156405100021579</v>
+        <v>0.3737650694959062</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4156405100021579</v>
+        <v>0.3737650694959062</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4046303844055201</v>
+        <v>0.3628415300546448</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4258064516129032</v>
+        <v>0.3844444444444444</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3846112886048988</v>
+        <v>0.3409010535166683</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4485006111514461</v>
+        <v>0.4051856473079249</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.7564102564102564</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7564102564102564</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7208447332421341</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6533194444444445</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8485227272727272</v>
+        <v>0.8431431608788093</v>
       </c>
     </row>
     <row r="13">
@@ -1576,94 +1576,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26232</v>
+        <v>22136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2106910603728236</v>
+        <v>0.1856311605400476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8535355464720938</v>
+        <v>0.8382539395037131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2556824693433167</v>
+        <v>0.2147255931896395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4747000521648409</v>
+        <v>0.4638857782754759</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2176073043011234</v>
+        <v>0.1661084701815039</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8535606820461384</v>
+        <v>0.8378650553877141</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8535606820461384</v>
+        <v>0.8378650553877141</v>
       </c>
       <c r="J13" t="n">
-        <v>0.845691382765531</v>
+        <v>0.83</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8608608608608609</v>
+        <v>0.846</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8306613226452906</v>
+        <v>0.8142570281124498</v>
       </c>
       <c r="M13" t="n">
-        <v>0.874749498997996</v>
+        <v>0.8600040241448691</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2555110220440882</v>
+        <v>0.2146439317953862</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2555110220440882</v>
+        <v>0.2146439317953862</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2462462462462462</v>
+        <v>0.2062062062062062</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2647943831494484</v>
+        <v>0.2232232232232232</v>
       </c>
       <c r="R13" t="n">
-        <v>0.229</v>
+        <v>0.1885656970912738</v>
       </c>
       <c r="S13" t="n">
-        <v>0.281410937452795</v>
+        <v>0.2394789579158317</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2170361726954493</v>
+        <v>0.166058386058386</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2170361726954493</v>
+        <v>0.166058386058386</v>
       </c>
       <c r="V13" t="n">
-        <v>0.208026018618063</v>
+        <v>0.1573301549463647</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2267824414334091</v>
+        <v>0.1744926636165421</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1901954733502416</v>
+        <v>0.1409952606635071</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.245284664326459</v>
+        <v>0.1899053539426523</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4777070063694268</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4777070063694268</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4489795918367347</v>
+        <v>0.4375</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5035089024450727</v>
+        <v>0.4902277039848197</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3910182119205298</v>
+        <v>0.3870919738863287</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5562522007042254</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC13"/>
+  <dimension ref="A1:CM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,7 +1783,7 @@
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>d_hospital</t>
+          <t>dICUrec</t>
         </is>
       </c>
       <c r="BK1" s="1" t="n"/>
@@ -1797,7 +1797,7 @@
       <c r="BS1" s="1" t="n"/>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>d_transfer</t>
+          <t>d_hospital</t>
         </is>
       </c>
       <c r="BU1" s="1" t="n"/>
@@ -1809,6 +1809,20 @@
       <c r="CA1" s="1" t="n"/>
       <c r="CB1" s="1" t="n"/>
       <c r="CC1" s="1" t="n"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>d_transfer</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="n"/>
+      <c r="CF1" s="1" t="n"/>
+      <c r="CG1" s="1" t="n"/>
+      <c r="CH1" s="1" t="n"/>
+      <c r="CI1" s="1" t="n"/>
+      <c r="CJ1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="n"/>
+      <c r="CM1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2216,6 +2230,56 @@
           <t>shape</t>
         </is>
       </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>Q2.5</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>Q75</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Q97.5</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>sample_size</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2314,153 +2378,183 @@
         <v>1.221169840376548</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>1.175</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>58.77500000000001</v>
+        <v>15.6</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.375</v>
+        <v>6</v>
       </c>
       <c r="AL4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.395075973569831</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.195476601843577</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="BC4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>6.714285714285714</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>7.374953979833528</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.368139023898545</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>50.59999999999998</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>9.857142857142858</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>3.176356919687319</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.4027589659100422</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>2.199404761904757</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>336</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.864555706261239</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.4340558095294159</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>2.475000000000001</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
         <v>8</v>
       </c>
-      <c r="AN4" t="n">
-        <v>17.74727012127754</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.045117105322714</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>58.77500000000001</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>17.375</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>17.74727012127754</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1.045117105322714</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>10.625</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>2.199404761904757</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>336</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.864555706261239</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.4340558095294159</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>2.475000000000001</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>8</v>
-      </c>
-      <c r="CB4" t="n">
+      <c r="CL4" t="n">
         <v>0.06197492083920036</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CM4" t="n">
         <v>0.3920733503461844</v>
       </c>
     </row>
@@ -2480,25 +2574,25 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>32.64999999999998</v>
+        <v>32.69999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.216216216216216</v>
+        <v>6.251700680272108</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" t="n">
-        <v>5.599657188907815</v>
+        <v>5.639722264390423</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8527565211138578</v>
+        <v>0.8541979514491123</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -2540,174 +2634,204 @@
         <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.64999999999998</v>
+        <v>32.69999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.216216216216216</v>
+        <v>6.251700680272108</v>
       </c>
       <c r="AB5" t="n">
         <v>3</v>
       </c>
       <c r="AC5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.599657188907815</v>
+        <v>5.639722264390423</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8527565211138578</v>
+        <v>0.8541979514491123</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.525</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.75</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>34.34999999999994</v>
+        <v>15.025</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.772727272727273</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.3823478610237</v>
+        <v>5.257573764022999</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.168169365205269</v>
+        <v>1.250313086918403</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.325</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.25</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
-        <v>12.75</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>15.675</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>16.00000000179814</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3779712607.310138</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="n">
         <v>2</v>
       </c>
-      <c r="AX5" t="n">
-        <v>10.48158785180667</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1.433327386603451</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BB5" t="n">
-        <v>11.25</v>
+        <v>5</v>
       </c>
       <c r="BC5" t="n">
-        <v>35.64999999999996</v>
+        <v>10.9</v>
       </c>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BG5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BH5" t="n">
-        <v>10.37381919182332</v>
+        <v>4.439500852740808</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.153423799391804</v>
+        <v>1.426717683203153</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="BL5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BM5" t="n">
-        <v>23.25</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>5.549450549450544</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="BP5" t="n">
         <v>4</v>
       </c>
       <c r="BQ5" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="BR5" t="n">
-        <v>4.557623152282687</v>
+        <v>2.99070909531283</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.6947388277129127</v>
+        <v>0.6964840851688319</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>23.32499999999996</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>5.611111111111111</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>90</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4.691732348116999</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.7137870630540601</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>2.75</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CG5" t="n">
         <v>5.674999999999999</v>
       </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
         <v>14</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CL5" t="n">
         <v>0.5092931122390422</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CM5" t="n">
         <v>0.3770390413623294</v>
       </c>
     </row>
@@ -2727,25 +2851,25 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>17.44999999999993</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.167587476979742</v>
+        <v>4.91047619047619</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="J6" t="n">
-        <v>4.970625034258408</v>
+        <v>4.862624637758016</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9367508172748485</v>
+        <v>0.9820068984963648</v>
       </c>
       <c r="L6" t="n">
         <v>2.15</v>
@@ -2787,175 +2911,205 @@
         <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.54999999999995</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.168831168831169</v>
+        <v>4.90978886756238</v>
       </c>
       <c r="AB6" t="n">
         <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.964123126449099</v>
+        <v>4.855439652249651</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9345411450984991</v>
+        <v>0.9796488387926081</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>47</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.609756097560975</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>52</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8.856091372823723</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.8717488977061836</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.149999999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>16.96694787729306</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.8946538597639828</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>47.44999999999997</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8.947368421052632</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>38</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>8.339555590874472</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.8863285248010964</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>20.07499999999983</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>8.394736842105264</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>38</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>8.18198656950123</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.9418559339915447</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV6" t="n">
         <v>7</v>
       </c>
-      <c r="AH6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>54.44999999999996</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17.59259259259259</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>54</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>18.19042072563805</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.091400962855603</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="BW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>6.02932551319647</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>5</v>
       </c>
-      <c r="AX6" t="n">
-        <v>19.86291749193138</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1.16302935362501</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>55.59999999999995</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>17.46938775510204</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>49</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>18.02876044893918</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1.085682358268019</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
+      <c r="CA6" t="n">
+        <v>341</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>5.335355746499989</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.7512523207229742</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>2</v>
       </c>
-      <c r="BL6" t="n">
-        <v>7</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>21.29999999999995</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>5.95492957746478</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>355</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>5.222261766702458</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0.7381598782475609</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>7.850000000000001</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1.829787234042553</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>47</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0.8886330759704485</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0.4430819071983064</v>
+      <c r="CG6" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1.826086956521739</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>46</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.8577699093461029</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.4365331365219431</v>
       </c>
     </row>
     <row r="7">
@@ -2974,25 +3128,25 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>17.67499999999995</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.489517819706499</v>
+        <v>5.482869379014989</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="J7" t="n">
-        <v>5.77833884194058</v>
+        <v>5.769943419389627</v>
       </c>
       <c r="K7" t="n">
-        <v>1.120933587824447</v>
+        <v>1.120161670483309</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -3001,28 +3155,28 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>14.725</v>
+        <v>14.75</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.916666666666667</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="R7" t="n">
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T7" t="n">
-        <v>6.265580019633731</v>
+        <v>6.382318472506909</v>
       </c>
       <c r="U7" t="n">
-        <v>1.167362151425102</v>
+        <v>1.130236359490181</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -3034,175 +3188,205 @@
         <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>17.94999999999993</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.484076433121019</v>
+        <v>5.475622968580715</v>
       </c>
       <c r="AB7" t="n">
         <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.772260560213081</v>
+        <v>5.762688375837612</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.120544506910805</v>
+        <v>1.120075742023306</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>40.09999999999997</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10.1125</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>107</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>11.08150909172575</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>36.99999999999999</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>14.86425863486258</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1.197931376237427</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>40.09999999999997</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9.35820895522388</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>8.728251589196521</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.8732164431707581</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL7" t="n">
         <v>7</v>
       </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15.5045045045045</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>111</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>16.73588947450514</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.244600843056483</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>40.575</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>17.33333333333333</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18.86041050656859</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1.340865191065726</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>16</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>58.50000000000001</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>15.1505376344086</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>16.33136478530122</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1.23143515200711</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
+      <c r="BM7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>6.563380281690141</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>71</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>5.87849123861176</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.8016899737649577</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
         <v>3</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BV7" t="n">
         <v>9</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BW7" t="n">
         <v>21</v>
       </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>6.679075738125799</v>
-      </c>
-      <c r="BP7" t="n">
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>6.741083223249665</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>6</v>
       </c>
-      <c r="BQ7" t="n">
-        <v>779</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>6.678888727394001</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0.9994954583023579</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
+      <c r="CA7" t="n">
+        <v>757</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>6.775528568019919</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>1.016251726649097</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>3</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CG7" t="n">
         <v>9</v>
       </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>2.023529411764706</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>85</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0.9659060709647485</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0.4373559932812179</v>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>2.024390243902439</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>82</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.9560788476456034</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.435196621232338</v>
       </c>
     </row>
     <row r="8">
@@ -3221,25 +3405,25 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.373479318734793</v>
+        <v>6.329177057356609</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1644</v>
+        <v>1604</v>
       </c>
       <c r="J8" t="n">
-        <v>6.859832159445145</v>
+        <v>6.814702063504354</v>
       </c>
       <c r="K8" t="n">
-        <v>1.216849113216353</v>
+        <v>1.218487306547316</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -3248,28 +3432,28 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O8" t="n">
-        <v>29.27499999999993</v>
+        <v>30.97499999999995</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.289473684210527</v>
+        <v>6.823529411764706</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T8" t="n">
-        <v>7.450354731323134</v>
+        <v>6.948501462855974</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04743184296213</v>
+        <v>1.037945654084784</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -3281,175 +3465,205 @@
         <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.875</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.351805728518057</v>
+        <v>6.318471337579618</v>
       </c>
       <c r="AB8" t="n">
         <v>5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1606</v>
+        <v>1570</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.843437752571825</v>
+        <v>6.809451290941618</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.221910133641278</v>
+        <v>1.223245021428662</v>
       </c>
       <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
         <v>3</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>45.02499999999995</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11.30841121495327</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>266</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>12.75169859673331</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>39.14999999999995</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>15.08823529411765</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>16.3829409068595</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1.30184024212582</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>44.57500000000002</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>10.59444444444444</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>180</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>10.34326485693351</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.9536937417939164</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>38.44999999999999</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>8.21311475409836</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>183</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>7.968661052383013</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.934654555613238</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV8" t="n">
         <v>9</v>
       </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>78.19999999999999</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20.3992673992674</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>273</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>21.81273338607294</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.186453247141859</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="BW8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>7.375615763546794</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>7</v>
       </c>
-      <c r="AR8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>45.89999999999998</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>16.06666666666667</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17.66359095863404</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1.396845685184945</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>3.675000000000001</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>80.29999999999995</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>21.25438596491228</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>228</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>22.67648349694667</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1.17521196636856</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>7.302702702702697</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>7</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>1665</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>7.541620714945924</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1.11443569153059</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
+      <c r="CA8" t="n">
+        <v>1624</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>7.668173873853283</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1.141374072182283</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>3</v>
       </c>
-      <c r="BW8" t="n">
-        <v>8.474999999999994</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>1.972972972972973</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>222</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0.9470968262114172</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0.4406705621637271</v>
+      <c r="CG8" t="n">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.967741935483871</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>217</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.9400791793123853</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.4402594108400909</v>
       </c>
     </row>
     <row r="9">
@@ -3474,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.652542372881356</v>
+        <v>7.633776091081594</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>2714</v>
+        <v>2635</v>
       </c>
       <c r="J9" t="n">
-        <v>8.145593350654813</v>
+        <v>8.117246135273909</v>
       </c>
       <c r="K9" t="n">
-        <v>1.163455211294671</v>
+        <v>1.15828186756996</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -3495,28 +3709,28 @@
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>41.175</v>
+        <v>41.59999999999999</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.903508771929825</v>
+        <v>9.103092783505154</v>
       </c>
       <c r="R9" t="n">
         <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="T9" t="n">
-        <v>9.041811997458751</v>
+        <v>9.156983693861672</v>
       </c>
       <c r="U9" t="n">
-        <v>1.035226646988296</v>
+        <v>1.012910733881096</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -3534,109 +3748,109 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.597692307692308</v>
+        <v>7.577620173364854</v>
       </c>
       <c r="AB9" t="n">
         <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>2600</v>
+        <v>2538</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.103297484022871</v>
+        <v>8.07439605354663</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.169928648947329</v>
+        <v>1.165051798821857</v>
       </c>
       <c r="AF9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>23.08268330733229</v>
+        <v>14.08676789587853</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="AN9" t="n">
-        <v>24.99625020449569</v>
+        <v>1.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.269801177812325</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.325</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AS9" t="n">
-        <v>67.67499999999998</v>
+        <v>60.04999999999981</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>22.13793103448276</v>
+        <v>19.66187050359712</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AX9" t="n">
-        <v>23.88547122067856</v>
+        <v>20.60789355759098</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.301545164552847</v>
+        <v>1.157420513526404</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.65</v>
+        <v>1</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>15.75</v>
       </c>
       <c r="BC9" t="n">
-        <v>88.0499999999999</v>
+        <v>43.94999999999993</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>23.43468950749465</v>
+        <v>11.68012422360249</v>
       </c>
       <c r="BF9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BG9" t="n">
-        <v>467</v>
+        <v>322</v>
       </c>
       <c r="BH9" t="n">
-        <v>25.42210451944222</v>
+        <v>12.02418144716672</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.263268508242314</v>
+        <v>1.075765044444549</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -3645,58 +3859,88 @@
         <v>4</v>
       </c>
       <c r="BL9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>48</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>10.07507507507508</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>333</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>10.01826901030417</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.9868578550514798</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV9" t="n">
         <v>10</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BW9" t="n">
         <v>19</v>
       </c>
-      <c r="BN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>7.445936639118449</v>
-      </c>
-      <c r="BP9" t="n">
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7.528161530286921</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>7</v>
       </c>
-      <c r="BQ9" t="n">
-        <v>2904</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>7.626607039666505</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>1.074865312017129</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
+      <c r="CA9" t="n">
+        <v>2823</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7.739395147123604</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>1.087091516104783</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>3</v>
       </c>
-      <c r="BW9" t="n">
-        <v>10.84999999999997</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>1.952772073921971</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>487</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0.8246370300367873</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0.4180358497475894</v>
+      <c r="CG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.93446088794926</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>473</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.813179063531781</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.4180507869046327</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3965,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.03573648228713</v>
+        <v>9.978289913159653</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>3218</v>
+        <v>2994</v>
       </c>
       <c r="J10" t="n">
-        <v>10.40786782432586</v>
+        <v>10.31987705911551</v>
       </c>
       <c r="K10" t="n">
-        <v>1.083531405993822</v>
+        <v>1.075670802858891</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -3742,28 +3986,28 @@
         <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>47.50000000000006</v>
+        <v>55.34999999999999</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.1747572815534</v>
+        <v>11.21145374449339</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="T10" t="n">
-        <v>9.695343550843329</v>
+        <v>10.31958647912103</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9088016706457082</v>
+        <v>0.8575247764752475</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -3775,175 +4019,205 @@
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>40.84999999999991</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.02096940529391</v>
+        <v>9.877123238164076</v>
       </c>
       <c r="AB10" t="n">
         <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>2909</v>
+        <v>2767</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.4773076780607</v>
+        <v>10.30566995828396</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.104209060921975</v>
+        <v>1.097934121341901</v>
       </c>
       <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55.19999999999993</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14.73020134228188</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>950</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>51.22499999999997</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>16.46875</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>352</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>17.52248975102823</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.208678843442516</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>58.19999999999999</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>13.17302798982188</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>393</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>13.00368890190784</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.9723157766450049</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.07500000000000107</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>48.92500000000001</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>11.51237623762376</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>404</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>11.58191275206444</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1.014158942364539</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
         <v>3</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90.19999999999993</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>24.21752265861027</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>993</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>26.05981484390064</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.231802668504255</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.050000000000001</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="BV10" t="n">
         <v>9</v>
       </c>
-      <c r="AR10" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>58.94999999999999</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>20.06320541760723</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>443</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21.6544672869021</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1.268371302645815</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>95.09999999999991</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>27.56363636363636</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>550</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>29.86238011654099</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1.254828851546427</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>20.34999999999991</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>6.769769477677269</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>6</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>3427</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>6.556712557189554</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0.9085033319367382</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BW10" t="n">
-        <v>13.94999999999993</v>
+        <v>21</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.378580323785803</v>
+        <v>6.943635800557442</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CA10" t="n">
-        <v>803</v>
+        <v>3229</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.033422131641764</v>
+        <v>6.870208656197493</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.4198304279384105</v>
+        <v>0.9667545911097752</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>2.403394255874673</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>766</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>1.057405254142608</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.4223068873401054</v>
       </c>
     </row>
     <row r="11">
@@ -3962,25 +4236,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>49.42499999999973</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.56175478065242</v>
+        <v>12.58086680761099</v>
       </c>
       <c r="H11" t="n">
         <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>4445</v>
+        <v>3784</v>
       </c>
       <c r="J11" t="n">
-        <v>13.13066762136895</v>
+        <v>13.11164863910553</v>
       </c>
       <c r="K11" t="n">
-        <v>1.110174341383955</v>
+        <v>1.100290763918275</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -3992,25 +4266,25 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>49</v>
+        <v>54.25</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.58368644067797</v>
+        <v>12.61597542242704</v>
       </c>
       <c r="R11" t="n">
         <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>651</v>
       </c>
       <c r="T11" t="n">
-        <v>11.49865677707423</v>
+        <v>12.42869028756992</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9849689556123715</v>
+        <v>0.97026335627814</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -4022,175 +4296,205 @@
         <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.82547843473293</v>
+        <v>12.57357165655921</v>
       </c>
       <c r="AB11" t="n">
         <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>3501</v>
+        <v>3133</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.57761268690934</v>
+        <v>13.24272511242973</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.149866086879169</v>
+        <v>1.131562926485768</v>
       </c>
       <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>52.57499999999993</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14.99266503667482</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1047</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>49.92500000000001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>15.20610687022901</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>524</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15.83041683692856</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.121863229308886</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>55.67500000000001</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>14.61224489795918</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>294</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>14.46771420295704</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.9774181029803749</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>52.44999999999999</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>15.18811881188119</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>303</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>15.29244406101755</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1.018841091262075</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
         <v>2</v>
       </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>31</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>81.84999999999991</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23.89263531499556</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1127</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>25.77140075876994</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.25548069508154</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="BV11" t="n">
         <v>8</v>
       </c>
-      <c r="AR11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>56.10000000000002</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>18.47562776957164</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>677</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19.99844521357862</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>1.289592964678567</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>97</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>32.04222222222222</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>450</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>35.49759213208787</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1.422246707769668</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BM11" t="n">
+      <c r="BW11" t="n">
         <v>21</v>
       </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>6.248049184204294</v>
-      </c>
-      <c r="BP11" t="n">
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>6.553300865800857</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>5</v>
       </c>
-      <c r="BQ11" t="n">
-        <v>4229</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>5.303234266344901</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>0.7136956921257788</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
+      <c r="CA11" t="n">
+        <v>3696</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>5.721642351088803</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.7477859498644089</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>4</v>
       </c>
-      <c r="BW11" t="n">
-        <v>13.54999999999995</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>2.646273637374861</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>899</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>1.248102107393784</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0.4295138487917585</v>
+      <c r="CG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>2.719235364396655</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>837</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>1.292501508316751</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.4306402658232998</v>
       </c>
     </row>
     <row r="12">
@@ -4206,28 +4510,28 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14.2589059292356</v>
+        <v>15.60950300382305</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>8281</v>
+        <v>5493</v>
       </c>
       <c r="J12" t="n">
-        <v>14.98790970973813</v>
+        <v>16.37890750927353</v>
       </c>
       <c r="K12" t="n">
-        <v>1.138662860494591</v>
+        <v>1.13181642463917</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -4236,28 +4540,28 @@
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.64719558267945</v>
+        <v>11.9068746952706</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
-        <v>3441</v>
+        <v>2051</v>
       </c>
       <c r="T12" t="n">
-        <v>10.91966834758756</v>
+        <v>12.21356223904926</v>
       </c>
       <c r="U12" t="n">
-        <v>1.063205247594818</v>
+        <v>1.064269665409536</v>
       </c>
       <c r="V12" t="n">
         <v>2</v>
@@ -4266,178 +4570,208 @@
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.82665289256198</v>
+        <v>17.8158047646717</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>4840</v>
+        <v>3442</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.20870560064898</v>
+        <v>19.12020647211673</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.254573554297227</v>
+        <v>1.214203484415211</v>
       </c>
       <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51.39999999999975</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10.78181818181818</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>497</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>12.57803411303851</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>58.625</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11.66216216216216</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>296</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11.24786089331968</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.9246933617187363</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="n">
         <v>2</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="BB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>30.99999999999999</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>7.853932584269663</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>89</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>7.544156925064708</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.9223888928087851</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>42.72499999999998</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>13.25531914893617</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>94</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>14.11384243020761</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1.230001529845646</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" t="n">
         <v>7</v>
       </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>68.79999999999995</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>18.50413223140496</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>605</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>19.53719870228684</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.153696109445961</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>15.29605263157895</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>456</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>16.29502693459423</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1.195187064580804</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>110.8999999999999</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>28.32214765100671</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>20</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>149</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>30.95795207462388</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1.308358726541786</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>7</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>19</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>4.964013266998333</v>
-      </c>
-      <c r="BP12" t="n">
+      <c r="BW12" t="n">
+        <v>18</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4.958250988142292</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>3</v>
       </c>
-      <c r="BQ12" t="n">
-        <v>6030</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>3.282890900529311</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0.5509220212011088</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>16.02499999999998</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>2.99375</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>1</v>
-      </c>
       <c r="CA12" t="n">
-        <v>480</v>
+        <v>4048</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.414464471949669</v>
+        <v>3.616588371795125</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.4345044063480284</v>
+        <v>0.5928468781463414</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>3.16243654822335</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>394</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>1.495892336883511</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.4329781969724468</v>
       </c>
     </row>
     <row r="13">
@@ -4456,25 +4790,25 @@
         <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.08937922391801</v>
+        <v>10.99065471045808</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>22343</v>
+        <v>18512</v>
       </c>
       <c r="J13" t="n">
-        <v>8.941938831748258</v>
+        <v>9.086828570774278</v>
       </c>
       <c r="K13" t="n">
-        <v>1.240162537105755</v>
+        <v>1.209523240311569</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -4483,28 +4817,28 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.71554915672563</v>
+        <v>11.83121951219512</v>
       </c>
       <c r="R13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13" t="n">
-        <v>4862</v>
+        <v>3075</v>
       </c>
       <c r="T13" t="n">
-        <v>9.663146552599054</v>
+        <v>10.9753746009634</v>
       </c>
       <c r="U13" t="n">
-        <v>1.108925708926325</v>
+        <v>1.077993762947747</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -4513,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>47</v>
@@ -4522,173 +4856,199 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.19335278302157</v>
+        <v>10.82321694629786</v>
       </c>
       <c r="AB13" t="n">
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>17481</v>
+        <v>15437</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.721288247783832</v>
+        <v>8.716582157839655</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.283458060525944</v>
+        <v>1.241687900601343</v>
       </c>
       <c r="AF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13.60159074475777</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2718</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11.41478464797463</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.21258802739369</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>15.20925110132159</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>13.77543721159432</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1.104963255488285</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>12.04989308624376</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1403</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>12.32413734585712</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.9777595321552657</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>49.875</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>11.24135546334716</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1383</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>8.39109118829311</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.400703948843159</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
         <v>2</v>
       </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22.31611893583725</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>3834</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14.96476596650844</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.491246713073369</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="BV13" t="n">
         <v>8</v>
       </c>
-      <c r="AR13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>58.52499999999986</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>18.33571428571429</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BW13" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>6.394357884796968</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>16944</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>10.11437166485999</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.6323336408615485</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG13" t="n">
         <v>14</v>
       </c>
-      <c r="AW13" t="n">
-        <v>1820</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12.37294923070952</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>1.481924792374563</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>32</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>93</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>25.91310824230387</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>18</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>2014</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>16.06482971378645</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1.613034411176842</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>8</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>20</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>6.151544206701655</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>5</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>19816</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>10.83360662987466</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0.5679597099418741</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>14</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>2.433779967159277</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>3045</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>7.821935808139465</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0.3111480363501192</v>
-      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>2.464554106450476</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="V1:AE1"/>
@@ -4697,6 +5057,7 @@
     <mergeCell ref="AZ1:BI1"/>
     <mergeCell ref="BJ1:BS1"/>
     <mergeCell ref="BT1:CC1"/>
+    <mergeCell ref="CD1:CM1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
